--- a/docs/アクティビスト銘柄_資産判定.xlsx
+++ b/docs/アクティビスト銘柄_資産判定.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,25 +508,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>わかもと製薬株式会社</t>
+          <t>新家工業株式会社</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4512</t>
+          <t>7305</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>50.2</v>
+        <v>56.2</v>
       </c>
       <c r="D2" t="n">
-        <v>308</v>
+        <v>5270</v>
       </c>
       <c r="E2" t="n">
-        <v>290.3401328717133</v>
+        <v>4265.455132343447</v>
       </c>
       <c r="F2" t="n">
-        <v>6.1</v>
+        <v>23.6</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -535,493 +535,1989 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2024-07-30</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>2843762000</v>
+        <v>8409000000</v>
       </c>
       <c r="J2" t="n">
-        <v>82947000</v>
+        <v>5535000000</v>
       </c>
       <c r="K2" t="n">
-        <v>2442113000</v>
+        <v>185000000</v>
       </c>
       <c r="L2" t="n">
-        <v>11385570000</v>
+        <v>26218000000</v>
       </c>
       <c r="M2" t="n">
-        <v>5368822000</v>
+        <v>14129000000</v>
       </c>
       <c r="N2" t="n">
-        <v>10689540400</v>
+        <v>25123618300</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>株式会社シンクロ・フード</t>
+          <t>エクシオグループ株式会社</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3963</t>
+          <t>1951</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14.5</v>
+        <v>20.1</v>
       </c>
       <c r="D3" t="n">
-        <v>554</v>
+        <v>2200</v>
       </c>
       <c r="E3" t="n">
-        <v>421.6950726175476</v>
+        <v>2269.918722577861</v>
       </c>
       <c r="F3" t="n">
-        <v>31.4</v>
+        <v>-3.1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2023-04-26</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>2173723000</v>
+        <v>41246000000</v>
       </c>
       <c r="J3" t="n">
-        <v>67951000</v>
+        <v>49565000000</v>
       </c>
       <c r="K3" t="n">
-        <v>15141000</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2505194000</v>
+        <v>288884000000</v>
       </c>
       <c r="M3" t="n">
-        <v>2256815000</v>
+        <v>90811000000</v>
       </c>
       <c r="N3" t="n">
-        <v>15518980400</v>
+        <v>452634617600</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>株式会社フジ・メディア・ホールディングス</t>
+          <t>株式会社京都フィナンシャルグループ</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4676</t>
+          <t>5844</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>59.5</v>
+        <v>121.3</v>
       </c>
       <c r="D4" t="n">
-        <v>3360</v>
+        <v>2903</v>
       </c>
       <c r="E4" t="n">
-        <v>2420</v>
+        <v>4991.027246539169</v>
       </c>
       <c r="F4" t="n">
-        <v>38.8</v>
+        <v>-41.8</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>株式会社レノ代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2023-10-02</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>118591000000</v>
+        <v>929545000000</v>
       </c>
       <c r="J4" t="n">
-        <v>174618000000</v>
+        <v>76590000000</v>
       </c>
       <c r="K4" t="n">
-        <v>121461000000</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>784429000000</v>
+        <v>1141082000000</v>
       </c>
       <c r="M4" t="n">
-        <v>414670000000</v>
+        <v>1006135000000</v>
       </c>
       <c r="N4" t="n">
-        <v>697038720000</v>
+        <v>829439400448</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>株式会社スズケン</t>
+          <t>シェアリングテクノロジー株式会社</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>9987</t>
+          <t>3989</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>66.59999999999999</v>
+        <v>7.3</v>
       </c>
       <c r="D5" t="n">
-        <v>6024</v>
+        <v>1038</v>
       </c>
       <c r="E5" t="n">
-        <v>4137.137750115735</v>
+        <v>653.0713101160862</v>
       </c>
       <c r="F5" t="n">
-        <v>45.6</v>
+        <v>58.9</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>168818000000</v>
+        <v>1779899000</v>
       </c>
       <c r="J5" t="n">
-        <v>54931000000</v>
+        <v>30240000</v>
       </c>
       <c r="K5" t="n">
-        <v>60282000000</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>417912000000</v>
+        <v>906167000</v>
       </c>
       <c r="M5" t="n">
-        <v>284031000000</v>
+        <v>1810139000</v>
       </c>
       <c r="N5" t="n">
-        <v>426521464704</v>
+        <v>24835084200</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>日本化薬株式会社</t>
+          <t>サッポロホールディングス株式会社</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4272</t>
+          <t>2501</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>44.7</v>
+        <v>1.4</v>
       </c>
       <c r="D6" t="n">
-        <v>1455</v>
+        <v>7462</v>
       </c>
       <c r="E6" t="n">
-        <v>1111.90611839092</v>
+        <v>2697.360927565142</v>
       </c>
       <c r="F6" t="n">
-        <v>30.9</v>
+        <v>176.6</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2023-10-12</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>47483000000</v>
+        <v>3451000000</v>
       </c>
       <c r="J6" t="n">
-        <v>44109000000</v>
+        <v>28000000</v>
       </c>
       <c r="K6" t="n">
-        <v>9428000000</v>
+        <v>4669000000</v>
       </c>
       <c r="L6" t="n">
-        <v>228273000000</v>
+        <v>137956000000</v>
       </c>
       <c r="M6" t="n">
-        <v>101020000000</v>
+        <v>8148000000</v>
       </c>
       <c r="N6" t="n">
-        <v>225944040000</v>
+        <v>581806170400</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>倉敷紡績株式会社</t>
+          <t>株式会社クレハ</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3106</t>
+          <t>4023</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>80.8</v>
+        <v>22.6</v>
       </c>
       <c r="D7" t="n">
-        <v>7200</v>
+        <v>3965</v>
       </c>
       <c r="E7" t="n">
-        <v>4549.503641591014</v>
+        <v>7960</v>
       </c>
       <c r="F7" t="n">
-        <v>58.3</v>
+        <v>-50.2</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2023-10-04</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>22059000000</v>
+        <v>4999000000</v>
       </c>
       <c r="J7" t="n">
-        <v>21438000000</v>
+        <v>6059000000</v>
       </c>
       <c r="K7" t="n">
-        <v>53409000000</v>
+        <v>23201000000</v>
       </c>
       <c r="L7" t="n">
-        <v>95004000000</v>
+        <v>148872000000</v>
       </c>
       <c r="M7" t="n">
-        <v>96906000000</v>
+        <v>34259000000</v>
       </c>
       <c r="N7" t="n">
-        <v>119986560000</v>
+        <v>151539921000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>大東建託株式会社</t>
+          <t>株式会社青山財産ネットワークス</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1878</t>
+          <t>8929</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>24.9</v>
+        <v>29</v>
       </c>
       <c r="D8" t="n">
-        <v>16095</v>
+        <v>2038</v>
       </c>
       <c r="E8" t="n">
-        <v>13739.64575539568</v>
+        <v>1347.74653160027</v>
       </c>
       <c r="F8" t="n">
-        <v>17.1</v>
+        <v>51.2</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2024-06-11</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>198760000000</v>
+        <v>9424000000</v>
       </c>
       <c r="J8" t="n">
-        <v>62873000000</v>
+        <v>2205000000</v>
       </c>
       <c r="K8" t="n">
-        <v>3798000000</v>
+        <v>2514000000</v>
       </c>
       <c r="L8" t="n">
-        <v>308206000000</v>
+        <v>6566000000</v>
       </c>
       <c r="M8" t="n">
-        <v>265431000000</v>
+        <v>14143000000</v>
       </c>
       <c r="N8" t="n">
-        <v>1066639792500</v>
+        <v>48839854800</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>三井倉庫ホールディングス株式会社</t>
+          <t>わかもと製薬株式会社</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>9302</t>
+          <t>4512</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>33.8</v>
+        <v>50.2</v>
       </c>
       <c r="D9" t="n">
-        <v>4215</v>
+        <v>308</v>
       </c>
       <c r="E9" t="n">
-        <v>1492.806001579363</v>
+        <v>290.3401328717133</v>
       </c>
       <c r="F9" t="n">
-        <v>182.4</v>
+        <v>6.1</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-02-19</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>22718000000</v>
+        <v>2843762000</v>
       </c>
       <c r="J9" t="n">
-        <v>68374000000</v>
+        <v>82947000</v>
       </c>
       <c r="K9" t="n">
-        <v>15393000000</v>
+        <v>2442113000</v>
       </c>
       <c r="L9" t="n">
-        <v>68529000000</v>
+        <v>11385570000</v>
       </c>
       <c r="M9" t="n">
-        <v>106485000000</v>
+        <v>5368822000</v>
       </c>
       <c r="N9" t="n">
-        <v>315469989000</v>
+        <v>10689540400</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>株式会社スクウェア・エニックス・ホールディングス</t>
+          <t>株式会社シンクロ・フード</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>9684</t>
+          <t>3963</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>12.7</v>
+        <v>14.5</v>
       </c>
       <c r="D10" t="n">
-        <v>10020</v>
+        <v>554</v>
       </c>
       <c r="E10" t="n">
-        <v>6272.971195510064</v>
+        <v>421.6950726175476</v>
       </c>
       <c r="F10" t="n">
-        <v>59.7</v>
+        <v>31.4</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>144061000000</v>
+        <v>2173723000</v>
       </c>
       <c r="J10" t="n">
-        <v>4462000000</v>
+        <v>67951000</v>
       </c>
       <c r="K10" t="n">
-        <v>4731000000</v>
+        <v>15141000</v>
       </c>
       <c r="L10" t="n">
-        <v>243278000000</v>
+        <v>2505194000</v>
       </c>
       <c r="M10" t="n">
-        <v>153254000000</v>
+        <v>2256815000</v>
       </c>
       <c r="N10" t="n">
-        <v>1203852900000</v>
+        <v>15518980400</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>東邦ホールディングス株式会社</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>8129</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5596</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3405.914389596362</v>
+      </c>
+      <c r="F11" t="n">
+        <v>64.3</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2024-07-16</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>88882000000</v>
+      </c>
+      <c r="J11" t="n">
+        <v>34612000000</v>
+      </c>
+      <c r="K11" t="n">
+        <v>70212000000</v>
+      </c>
+      <c r="L11" t="n">
+        <v>237405000000</v>
+      </c>
+      <c r="M11" t="n">
+        <v>193706000000</v>
+      </c>
+      <c r="N11" t="n">
+        <v>345129382800</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>東邦ホールディングス株式会社</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>8129</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5596</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2714.613787300615</v>
+      </c>
+      <c r="F12" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2024-06-17</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>88882000000</v>
+      </c>
+      <c r="J12" t="n">
+        <v>34612000000</v>
+      </c>
+      <c r="K12" t="n">
+        <v>70212000000</v>
+      </c>
+      <c r="L12" t="n">
+        <v>237405000000</v>
+      </c>
+      <c r="M12" t="n">
+        <v>193706000000</v>
+      </c>
+      <c r="N12" t="n">
+        <v>345129382800</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>株式会社ニコン</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>7731</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1700</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1512.21980974841</v>
+      </c>
+      <c r="F13" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2024-04-22</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>78718000000</v>
+      </c>
+      <c r="J13" t="n">
+        <v>8297000000</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4000000000</v>
+      </c>
+      <c r="L13" t="n">
+        <v>342155000000</v>
+      </c>
+      <c r="M13" t="n">
+        <v>91015000000</v>
+      </c>
+      <c r="N13" t="n">
+        <v>559332313600</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>株式会社フジ・メディア・ホールディングス</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>4676</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3360</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2420</v>
+      </c>
+      <c r="F14" t="n">
+        <v>38.8</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>株式会社レノ代表取締役　福島啓修</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-03-27</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>118591000000</v>
+      </c>
+      <c r="J14" t="n">
+        <v>174618000000</v>
+      </c>
+      <c r="K14" t="n">
+        <v>121461000000</v>
+      </c>
+      <c r="L14" t="n">
+        <v>784429000000</v>
+      </c>
+      <c r="M14" t="n">
+        <v>414670000000</v>
+      </c>
+      <c r="N14" t="n">
+        <v>697038720000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ニッコンホールディングス株式会社</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>9072</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3134</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1598.889989734285</v>
+      </c>
+      <c r="F15" t="n">
+        <v>96</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>30366000000</v>
+      </c>
+      <c r="J15" t="n">
+        <v>115109000000</v>
+      </c>
+      <c r="K15" t="n">
+        <v>32990000000</v>
+      </c>
+      <c r="L15" t="n">
+        <v>208290000000</v>
+      </c>
+      <c r="M15" t="n">
+        <v>178465000000</v>
+      </c>
+      <c r="N15" t="n">
+        <v>378853590000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>アツギ株式会社</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>3529</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>83.40000000000001</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1132</v>
+      </c>
+      <c r="E16" t="n">
+        <v>668.9358717434869</v>
+      </c>
+      <c r="F16" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2024-08-01</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>7403000000</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1639000000</v>
+      </c>
+      <c r="K16" t="n">
+        <v>6076000000</v>
+      </c>
+      <c r="L16" t="n">
+        <v>33956000000</v>
+      </c>
+      <c r="M16" t="n">
+        <v>15118000000</v>
+      </c>
+      <c r="N16" t="n">
+        <v>18131244000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>株式会社スズケン</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>9987</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>66.59999999999999</v>
+      </c>
+      <c r="D17" t="n">
+        <v>6024</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4137.137750115735</v>
+      </c>
+      <c r="F17" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2025-02-10</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>168818000000</v>
+      </c>
+      <c r="J17" t="n">
+        <v>54931000000</v>
+      </c>
+      <c r="K17" t="n">
+        <v>60282000000</v>
+      </c>
+      <c r="L17" t="n">
+        <v>417912000000</v>
+      </c>
+      <c r="M17" t="n">
+        <v>284031000000</v>
+      </c>
+      <c r="N17" t="n">
+        <v>426521464704</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>株式会社ワコールホールディングス</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>3591</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="D18" t="n">
+        <v>5809</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2420.370957920882</v>
+      </c>
+      <c r="F18" t="n">
+        <v>140</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2024-06-04</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>12443000000</v>
+      </c>
+      <c r="J18" t="n">
+        <v>16412000000</v>
+      </c>
+      <c r="K18" t="n">
+        <v>76000000</v>
+      </c>
+      <c r="L18" t="n">
+        <v>140106000000</v>
+      </c>
+      <c r="M18" t="n">
+        <v>28931000000</v>
+      </c>
+      <c r="N18" t="n">
+        <v>293198237900</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ジェイドグループ株式会社</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>3558</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1477</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1267.324164058639</v>
+      </c>
+      <c r="F19" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2023-03-22</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>2776277000</v>
+      </c>
+      <c r="J19" t="n">
+        <v>280430000</v>
+      </c>
+      <c r="K19" t="n">
+        <v>23536000</v>
+      </c>
+      <c r="L19" t="n">
+        <v>4370371000</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3080243000</v>
+      </c>
+      <c r="N19" t="n">
+        <v>14455738710</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>日本化薬株式会社</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>4272</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>44.7</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1455</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1111.90611839092</v>
+      </c>
+      <c r="F20" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2024-09-06</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>47483000000</v>
+      </c>
+      <c r="J20" t="n">
+        <v>44109000000</v>
+      </c>
+      <c r="K20" t="n">
+        <v>9428000000</v>
+      </c>
+      <c r="L20" t="n">
+        <v>228273000000</v>
+      </c>
+      <c r="M20" t="n">
+        <v>101020000000</v>
+      </c>
+      <c r="N20" t="n">
+        <v>225944040000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>栄研化学株式会社</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>4549</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2495</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1678.083113259255</v>
+      </c>
+      <c r="F21" t="n">
+        <v>48.7</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>6968000000</v>
+      </c>
+      <c r="J21" t="n">
+        <v>11989000000</v>
+      </c>
+      <c r="K21" t="n">
+        <v>597000000</v>
+      </c>
+      <c r="L21" t="n">
+        <v>41672000000</v>
+      </c>
+      <c r="M21" t="n">
+        <v>19554000000</v>
+      </c>
+      <c r="N21" t="n">
+        <v>82265639000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>株式会社電通グループ</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>4324</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3098</v>
+      </c>
+      <c r="E22" t="n">
+        <v>4156.179843576074</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-25.5</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2023-03-10</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>86652000000</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3784000000</v>
+      </c>
+      <c r="K22" t="n">
+        <v>487000000</v>
+      </c>
+      <c r="L22" t="n">
+        <v>616425000000</v>
+      </c>
+      <c r="M22" t="n">
+        <v>90923000000</v>
+      </c>
+      <c r="N22" t="n">
+        <v>804200550784</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>株式会社東北新社</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2329</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>38</v>
+      </c>
+      <c r="D23" t="n">
+        <v>676</v>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2023-03-13</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>30866000000</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4464000000</v>
+      </c>
+      <c r="K23" t="n">
+        <v>73000000</v>
+      </c>
+      <c r="L23" t="n">
+        <v>72266000000</v>
+      </c>
+      <c r="M23" t="n">
+        <v>35403000000</v>
+      </c>
+      <c r="N23" t="n">
+        <v>93054104000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>株式会社東北新社</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2329</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>38</v>
+      </c>
+      <c r="D24" t="n">
+        <v>676</v>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2023-03-13</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>30866000000</v>
+      </c>
+      <c r="J24" t="n">
+        <v>4464000000</v>
+      </c>
+      <c r="K24" t="n">
+        <v>73000000</v>
+      </c>
+      <c r="L24" t="n">
+        <v>72266000000</v>
+      </c>
+      <c r="M24" t="n">
+        <v>35403000000</v>
+      </c>
+      <c r="N24" t="n">
+        <v>93054104000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>東ソー株式会社</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>4042</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2351.5</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2032.365850102071</v>
+      </c>
+      <c r="F25" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2024-06-04</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>148397000000</v>
+      </c>
+      <c r="J25" t="n">
+        <v>104609000000</v>
+      </c>
+      <c r="K25" t="n">
+        <v>70724000000</v>
+      </c>
+      <c r="L25" t="n">
+        <v>661679000000</v>
+      </c>
+      <c r="M25" t="n">
+        <v>323730000000</v>
+      </c>
+      <c r="N25" t="n">
+        <v>748971562000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>株式会社おきなわフィナンシャルグループ</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>7350</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>783.4</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3645</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2023-05-16</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>590636000000</v>
+      </c>
+      <c r="J26" t="n">
+        <v>18477000000</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>159392000000</v>
+      </c>
+      <c r="M26" t="n">
+        <v>609113000000</v>
+      </c>
+      <c r="N26" t="n">
+        <v>77757327000</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>参天製薬株式会社</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>4536</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1614</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1344.518957928979</v>
+      </c>
+      <c r="F27" t="n">
+        <v>20</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2024-04-19</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>34203000000</v>
+      </c>
+      <c r="J27" t="n">
+        <v>6796000000</v>
+      </c>
+      <c r="K27" t="n">
+        <v>14270000000</v>
+      </c>
+      <c r="L27" t="n">
+        <v>294231000000</v>
+      </c>
+      <c r="M27" t="n">
+        <v>55269000000</v>
+      </c>
+      <c r="N27" t="n">
+        <v>536893872000</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ヤマハ発動機株式会社</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>7272</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1119.5</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2968.770104870396</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-62.3</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2023-01-16</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>267180000000</v>
+      </c>
+      <c r="J28" t="n">
+        <v>48711000000</v>
+      </c>
+      <c r="K28" t="n">
+        <v>49039000000</v>
+      </c>
+      <c r="L28" t="n">
+        <v>749158000000</v>
+      </c>
+      <c r="M28" t="n">
+        <v>364930000000</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1085439185632</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>株式会社西武ホールディングス</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>9024</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="D29" t="n">
+        <v>5405</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1716.713876475349</v>
+      </c>
+      <c r="F29" t="n">
+        <v>214.8</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2024-05-07</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>28538000000</v>
+      </c>
+      <c r="J29" t="n">
+        <v>485513000000</v>
+      </c>
+      <c r="K29" t="n">
+        <v>49954000000</v>
+      </c>
+      <c r="L29" t="n">
+        <v>385687000000</v>
+      </c>
+      <c r="M29" t="n">
+        <v>564005000000</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1398554560000</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>株式会社ＴＳＩホールディングス</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>3608</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>121.5</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1118</v>
+      </c>
+      <c r="E30" t="n">
+        <v>438.851170934559</v>
+      </c>
+      <c r="F30" t="n">
+        <v>154.8</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>49761000000</v>
+      </c>
+      <c r="J30" t="n">
+        <v>4425000000</v>
+      </c>
+      <c r="K30" t="n">
+        <v>25137000000</v>
+      </c>
+      <c r="L30" t="n">
+        <v>97430000000</v>
+      </c>
+      <c r="M30" t="n">
+        <v>79323000000</v>
+      </c>
+      <c r="N30" t="n">
+        <v>65309870600</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>コニシ株式会社</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>4956</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1313</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1605.189780306002</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-18.2</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2023-01-11</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>23721000000</v>
+      </c>
+      <c r="J31" t="n">
+        <v>13167000000</v>
+      </c>
+      <c r="K31" t="n">
+        <v>11402000000</v>
+      </c>
+      <c r="L31" t="n">
+        <v>68785000000</v>
+      </c>
+      <c r="M31" t="n">
+        <v>48290000000</v>
+      </c>
+      <c r="N31" t="n">
+        <v>87128579200</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>倉敷紡績株式会社</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>3106</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>80.8</v>
+      </c>
+      <c r="D32" t="n">
+        <v>7200</v>
+      </c>
+      <c r="E32" t="n">
+        <v>4549.503641591014</v>
+      </c>
+      <c r="F32" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2025-04-28</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>22059000000</v>
+      </c>
+      <c r="J32" t="n">
+        <v>21438000000</v>
+      </c>
+      <c r="K32" t="n">
+        <v>53409000000</v>
+      </c>
+      <c r="L32" t="n">
+        <v>95004000000</v>
+      </c>
+      <c r="M32" t="n">
+        <v>96906000000</v>
+      </c>
+      <c r="N32" t="n">
+        <v>119986560000</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>大東建託株式会社</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1878</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="D33" t="n">
+        <v>16095</v>
+      </c>
+      <c r="E33" t="n">
+        <v>13739.64575539568</v>
+      </c>
+      <c r="F33" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2025-05-22</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>198760000000</v>
+      </c>
+      <c r="J33" t="n">
+        <v>62873000000</v>
+      </c>
+      <c r="K33" t="n">
+        <v>3798000000</v>
+      </c>
+      <c r="L33" t="n">
+        <v>308206000000</v>
+      </c>
+      <c r="M33" t="n">
+        <v>265431000000</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1066639792500</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>大東建託株式会社</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1878</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="D34" t="n">
+        <v>16095</v>
+      </c>
+      <c r="E34" t="n">
+        <v>12975.86280814577</v>
+      </c>
+      <c r="F34" t="n">
+        <v>24</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2023-06-02</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>198760000000</v>
+      </c>
+      <c r="J34" t="n">
+        <v>62873000000</v>
+      </c>
+      <c r="K34" t="n">
+        <v>3798000000</v>
+      </c>
+      <c r="L34" t="n">
+        <v>308206000000</v>
+      </c>
+      <c r="M34" t="n">
+        <v>265431000000</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1066639792500</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>ブロードメディア株式会社</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>4347</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>35</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1748</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1529.631984751819</v>
+      </c>
+      <c r="F35" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2024-07-03</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>3368262000</v>
+      </c>
+      <c r="J35" t="n">
+        <v>826293000</v>
+      </c>
+      <c r="K35" t="n">
+        <v>164267000</v>
+      </c>
+      <c r="L35" t="n">
+        <v>3706507000</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4358822000</v>
+      </c>
+      <c r="N35" t="n">
+        <v>12454937000</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>ブロードメディア株式会社</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>4347</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>35</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1748</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1449.995380693296</v>
+      </c>
+      <c r="F36" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2024-05-22</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>3368262000</v>
+      </c>
+      <c r="J36" t="n">
+        <v>826293000</v>
+      </c>
+      <c r="K36" t="n">
+        <v>164267000</v>
+      </c>
+      <c r="L36" t="n">
+        <v>3706507000</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4358822000</v>
+      </c>
+      <c r="N36" t="n">
+        <v>12454937000</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>日鉄ソリューションズ株式会社</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2327</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D37" t="n">
+        <v>3472</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2561.705402476645</v>
+      </c>
+      <c r="F37" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2024-08-19</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>78579000000</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2398000000</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1000000000</v>
+      </c>
+      <c r="L37" t="n">
+        <v>186128000000</v>
+      </c>
+      <c r="M37" t="n">
+        <v>81977000000</v>
+      </c>
+      <c r="N37" t="n">
+        <v>635285728000</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>三井倉庫ホールディングス株式会社</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>9302</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="D38" t="n">
+        <v>4215</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1492.806001579363</v>
+      </c>
+      <c r="F38" t="n">
+        <v>182.4</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2025-04-28</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>22718000000</v>
+      </c>
+      <c r="J38" t="n">
+        <v>68374000000</v>
+      </c>
+      <c r="K38" t="n">
+        <v>15393000000</v>
+      </c>
+      <c r="L38" t="n">
+        <v>68529000000</v>
+      </c>
+      <c r="M38" t="n">
+        <v>106485000000</v>
+      </c>
+      <c r="N38" t="n">
+        <v>315469989000</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>株式会社スクウェア・エニックス・ホールディングス</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>9684</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="D39" t="n">
+        <v>10020</v>
+      </c>
+      <c r="E39" t="n">
+        <v>6272.971195510064</v>
+      </c>
+      <c r="F39" t="n">
+        <v>59.7</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>2025-04-21</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>144061000000</v>
+      </c>
+      <c r="J39" t="n">
+        <v>4462000000</v>
+      </c>
+      <c r="K39" t="n">
+        <v>4731000000</v>
+      </c>
+      <c r="L39" t="n">
+        <v>243278000000</v>
+      </c>
+      <c r="M39" t="n">
+        <v>153254000000</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1203852900000</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
           <t>ヘリオス テクノ ホールディング株式会社</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>6927</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="C40" t="n">
         <v>53.4</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D40" t="n">
         <v>868</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E40" t="n">
         <v>896.0103264198827</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F40" t="n">
         <v>-3.1</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>2025-03-31</t>
         </is>
       </c>
-      <c r="I11" t="n">
+      <c r="I40" t="n">
         <v>6417163000</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J40" t="n">
         <v>658172000</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K40" t="n">
         <v>1342160000</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L40" t="n">
         <v>13418044000</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M40" t="n">
         <v>8417495000</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N40" t="n">
         <v>15752290400</v>
       </c>
     </row>

--- a/docs/アクティビスト銘柄_資産判定.xlsx
+++ b/docs/アクティビスト銘柄_資産判定.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:N69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,129 +508,129 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>新家工業株式会社</t>
+          <t>古河機械金属株式会社</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7305</t>
+          <t>5715</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>56.2</v>
+        <v>90.5</v>
       </c>
       <c r="D2" t="n">
-        <v>5270</v>
+        <v>2915</v>
       </c>
       <c r="E2" t="n">
-        <v>4265.455132343447</v>
+        <v>1600</v>
       </c>
       <c r="F2" t="n">
-        <v>23.6</v>
+        <v>82.2</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2024-07-30</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>8409000000</v>
+        <v>17748000000</v>
       </c>
       <c r="J2" t="n">
-        <v>5535000000</v>
+        <v>23365000000</v>
       </c>
       <c r="K2" t="n">
-        <v>185000000</v>
+        <v>47383000000</v>
       </c>
       <c r="L2" t="n">
-        <v>26218000000</v>
+        <v>94364000000</v>
       </c>
       <c r="M2" t="n">
-        <v>14129000000</v>
+        <v>88496000000</v>
       </c>
       <c r="N2" t="n">
-        <v>25123618300</v>
+        <v>97828857500</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>エクシオグループ株式会社</t>
+          <t>新家工業株式会社</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1951</t>
+          <t>7305</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20.1</v>
+        <v>56.2</v>
       </c>
       <c r="D3" t="n">
-        <v>2200</v>
+        <v>5270</v>
       </c>
       <c r="E3" t="n">
-        <v>2269.918722577861</v>
+        <v>4265.455132343447</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.1</v>
+        <v>23.6</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2023-04-26</t>
+          <t>2024-07-30</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>41246000000</v>
+        <v>8409000000</v>
       </c>
       <c r="J3" t="n">
-        <v>49565000000</v>
+        <v>5535000000</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>185000000</v>
       </c>
       <c r="L3" t="n">
-        <v>288884000000</v>
+        <v>26218000000</v>
       </c>
       <c r="M3" t="n">
-        <v>90811000000</v>
+        <v>14129000000</v>
       </c>
       <c r="N3" t="n">
-        <v>452634617600</v>
+        <v>25123618300</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>株式会社京都フィナンシャルグループ</t>
+          <t>エクシオグループ株式会社</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5844</t>
+          <t>1951</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>121.3</v>
+        <v>20.1</v>
       </c>
       <c r="D4" t="n">
-        <v>2903</v>
+        <v>2200</v>
       </c>
       <c r="E4" t="n">
-        <v>4991.027246539169</v>
+        <v>2269.918722577861</v>
       </c>
       <c r="F4" t="n">
-        <v>-41.8</v>
+        <v>-3.1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -639,674 +639,674 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2023-10-02</t>
+          <t>2023-04-26</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>929545000000</v>
+        <v>41246000000</v>
       </c>
       <c r="J4" t="n">
-        <v>76590000000</v>
+        <v>49565000000</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1141082000000</v>
+        <v>288884000000</v>
       </c>
       <c r="M4" t="n">
-        <v>1006135000000</v>
+        <v>90811000000</v>
       </c>
       <c r="N4" t="n">
-        <v>829439400448</v>
+        <v>452634617600</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>シェアリングテクノロジー株式会社</t>
+          <t>株式会社京都フィナンシャルグループ</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3989</t>
+          <t>5844</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7.3</v>
+        <v>121.3</v>
       </c>
       <c r="D5" t="n">
-        <v>1038</v>
+        <v>2903</v>
       </c>
       <c r="E5" t="n">
-        <v>653.0713101160862</v>
+        <v>4991.027246539169</v>
       </c>
       <c r="F5" t="n">
-        <v>58.9</v>
+        <v>-41.8</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2023-10-02</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>1779899000</v>
+        <v>929545000000</v>
       </c>
       <c r="J5" t="n">
-        <v>30240000</v>
+        <v>76590000000</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>906167000</v>
+        <v>1141082000000</v>
       </c>
       <c r="M5" t="n">
-        <v>1810139000</v>
+        <v>1006135000000</v>
       </c>
       <c r="N5" t="n">
-        <v>24835084200</v>
+        <v>829439400448</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>サッポロホールディングス株式会社</t>
+          <t>シェアリングテクノロジー株式会社</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2501</t>
+          <t>3989</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.4</v>
+        <v>7.3</v>
       </c>
       <c r="D6" t="n">
-        <v>7462</v>
+        <v>1038</v>
       </c>
       <c r="E6" t="n">
-        <v>2697.360927565142</v>
+        <v>653.0713101160862</v>
       </c>
       <c r="F6" t="n">
-        <v>176.6</v>
+        <v>58.9</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2023-10-12</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>3451000000</v>
+        <v>1779899000</v>
       </c>
       <c r="J6" t="n">
-        <v>28000000</v>
+        <v>30240000</v>
       </c>
       <c r="K6" t="n">
-        <v>4669000000</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>137956000000</v>
+        <v>906167000</v>
       </c>
       <c r="M6" t="n">
-        <v>8148000000</v>
+        <v>1810139000</v>
       </c>
       <c r="N6" t="n">
-        <v>581806170400</v>
+        <v>24835084200</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>株式会社クレハ</t>
+          <t>サッポロホールディングス株式会社</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4023</t>
+          <t>2501</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22.6</v>
+        <v>1.4</v>
       </c>
       <c r="D7" t="n">
-        <v>3965</v>
+        <v>7462</v>
       </c>
       <c r="E7" t="n">
-        <v>7960</v>
+        <v>2697.360927565142</v>
       </c>
       <c r="F7" t="n">
-        <v>-50.2</v>
+        <v>176.6</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2023-10-04</t>
+          <t>2023-10-12</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>4999000000</v>
+        <v>3451000000</v>
       </c>
       <c r="J7" t="n">
-        <v>6059000000</v>
+        <v>28000000</v>
       </c>
       <c r="K7" t="n">
-        <v>23201000000</v>
+        <v>4669000000</v>
       </c>
       <c r="L7" t="n">
-        <v>148872000000</v>
+        <v>137956000000</v>
       </c>
       <c r="M7" t="n">
-        <v>34259000000</v>
+        <v>8148000000</v>
       </c>
       <c r="N7" t="n">
-        <v>151539921000</v>
+        <v>581806170400</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>株式会社青山財産ネットワークス</t>
+          <t>株式会社クレハ</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8929</t>
+          <t>4023</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>29</v>
+        <v>22.6</v>
       </c>
       <c r="D8" t="n">
-        <v>2038</v>
+        <v>3965</v>
       </c>
       <c r="E8" t="n">
-        <v>1347.74653160027</v>
+        <v>7960</v>
       </c>
       <c r="F8" t="n">
-        <v>51.2</v>
+        <v>-50.2</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2024-06-11</t>
+          <t>2023-10-04</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>9424000000</v>
+        <v>4999000000</v>
       </c>
       <c r="J8" t="n">
-        <v>2205000000</v>
+        <v>6059000000</v>
       </c>
       <c r="K8" t="n">
-        <v>2514000000</v>
+        <v>23201000000</v>
       </c>
       <c r="L8" t="n">
-        <v>6566000000</v>
+        <v>148872000000</v>
       </c>
       <c r="M8" t="n">
-        <v>14143000000</v>
+        <v>34259000000</v>
       </c>
       <c r="N8" t="n">
-        <v>48839854800</v>
+        <v>151539921000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>わかもと製薬株式会社</t>
+          <t>三井松島ホールディングス株式会社</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4512</t>
+          <t>1518</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>50.2</v>
+        <v>50.5</v>
       </c>
       <c r="D9" t="n">
-        <v>308</v>
+        <v>6590</v>
       </c>
       <c r="E9" t="n">
-        <v>290.3401328717133</v>
+        <v>2920</v>
       </c>
       <c r="F9" t="n">
-        <v>6.1</v>
+        <v>125.7</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2024-05-02</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>2843762000</v>
+        <v>19293000000</v>
       </c>
       <c r="J9" t="n">
-        <v>82947000</v>
+        <v>3587000000</v>
       </c>
       <c r="K9" t="n">
-        <v>2442113000</v>
+        <v>3156000000</v>
       </c>
       <c r="L9" t="n">
-        <v>11385570000</v>
+        <v>30287000000</v>
       </c>
       <c r="M9" t="n">
-        <v>5368822000</v>
+        <v>26036000000</v>
       </c>
       <c r="N9" t="n">
-        <v>10689540400</v>
+        <v>51549022900</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>株式会社シンクロ・フード</t>
+          <t>株式会社パイオラックス</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3963</t>
+          <t>5988</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>14.5</v>
+        <v>96</v>
       </c>
       <c r="D10" t="n">
-        <v>554</v>
+        <v>1862</v>
       </c>
       <c r="E10" t="n">
-        <v>421.6950726175476</v>
+        <v>2298.672482457804</v>
       </c>
       <c r="F10" t="n">
-        <v>31.4</v>
+        <v>-19</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>2173723000</v>
+        <v>31161000000</v>
       </c>
       <c r="J10" t="n">
-        <v>67951000</v>
+        <v>12144000000</v>
       </c>
       <c r="K10" t="n">
-        <v>15141000</v>
+        <v>1620000000</v>
       </c>
       <c r="L10" t="n">
-        <v>2505194000</v>
+        <v>93746000000</v>
       </c>
       <c r="M10" t="n">
-        <v>2256815000</v>
+        <v>44925000000</v>
       </c>
       <c r="N10" t="n">
-        <v>15518980400</v>
+        <v>46804535400</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>東邦ホールディングス株式会社</t>
+          <t>王子ホールディングス株式会社</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>8129</t>
+          <t>3861</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>56.1</v>
+        <v>46.9</v>
       </c>
       <c r="D11" t="n">
-        <v>5596</v>
+        <v>839.2999877929688</v>
       </c>
       <c r="E11" t="n">
-        <v>3405.914389596362</v>
+        <v>590</v>
       </c>
       <c r="F11" t="n">
-        <v>64.3</v>
+        <v>42.3</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2024-07-16</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>88882000000</v>
+        <v>135669000000</v>
       </c>
       <c r="J11" t="n">
-        <v>34612000000</v>
+        <v>222446000000</v>
       </c>
       <c r="K11" t="n">
-        <v>70212000000</v>
+        <v>4772000000</v>
       </c>
       <c r="L11" t="n">
-        <v>237405000000</v>
+        <v>865606000000</v>
       </c>
       <c r="M11" t="n">
-        <v>193706000000</v>
+        <v>362887000000</v>
       </c>
       <c r="N11" t="n">
-        <v>345129382800</v>
+        <v>774051974156</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>東邦ホールディングス株式会社</t>
+          <t>株式会社青山財産ネットワークス</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>8129</t>
+          <t>8929</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>56.1</v>
+        <v>29</v>
       </c>
       <c r="D12" t="n">
-        <v>5596</v>
+        <v>2038</v>
       </c>
       <c r="E12" t="n">
-        <v>2714.613787300615</v>
+        <v>1347.74653160027</v>
       </c>
       <c r="F12" t="n">
-        <v>106.1</v>
+        <v>51.2</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-06-11</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>88882000000</v>
+        <v>9424000000</v>
       </c>
       <c r="J12" t="n">
-        <v>34612000000</v>
+        <v>2205000000</v>
       </c>
       <c r="K12" t="n">
-        <v>70212000000</v>
+        <v>2514000000</v>
       </c>
       <c r="L12" t="n">
-        <v>237405000000</v>
+        <v>6566000000</v>
       </c>
       <c r="M12" t="n">
-        <v>193706000000</v>
+        <v>14143000000</v>
       </c>
       <c r="N12" t="n">
-        <v>345129382800</v>
+        <v>48839854800</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>株式会社ニコン</t>
+          <t>わかもと製薬株式会社</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>7731</t>
+          <t>4512</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>16.3</v>
+        <v>50.2</v>
       </c>
       <c r="D13" t="n">
-        <v>1700</v>
+        <v>308</v>
       </c>
       <c r="E13" t="n">
-        <v>1512.21980974841</v>
+        <v>290.3401328717133</v>
       </c>
       <c r="F13" t="n">
-        <v>12.4</v>
+        <v>6.1</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2024-04-22</t>
+          <t>2025-02-19</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>78718000000</v>
+        <v>2843762000</v>
       </c>
       <c r="J13" t="n">
-        <v>8297000000</v>
+        <v>82947000</v>
       </c>
       <c r="K13" t="n">
-        <v>4000000000</v>
+        <v>2442113000</v>
       </c>
       <c r="L13" t="n">
-        <v>342155000000</v>
+        <v>11385570000</v>
       </c>
       <c r="M13" t="n">
-        <v>91015000000</v>
+        <v>5368822000</v>
       </c>
       <c r="N13" t="n">
-        <v>559332313600</v>
+        <v>10689540400</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>株式会社フジ・メディア・ホールディングス</t>
+          <t>株式会社シンクロ・フード</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4676</t>
+          <t>3963</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>59.5</v>
+        <v>14.5</v>
       </c>
       <c r="D14" t="n">
-        <v>3360</v>
+        <v>554</v>
       </c>
       <c r="E14" t="n">
-        <v>2420</v>
+        <v>421.6950726175476</v>
       </c>
       <c r="F14" t="n">
-        <v>38.8</v>
+        <v>31.4</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>株式会社レノ代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>118591000000</v>
+        <v>2173723000</v>
       </c>
       <c r="J14" t="n">
-        <v>174618000000</v>
+        <v>67951000</v>
       </c>
       <c r="K14" t="n">
-        <v>121461000000</v>
+        <v>15141000</v>
       </c>
       <c r="L14" t="n">
-        <v>784429000000</v>
+        <v>2505194000</v>
       </c>
       <c r="M14" t="n">
-        <v>414670000000</v>
+        <v>2256815000</v>
       </c>
       <c r="N14" t="n">
-        <v>697038720000</v>
+        <v>15518980400</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ニッコンホールディングス株式会社</t>
+          <t>東邦ホールディングス株式会社</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>9072</t>
+          <t>8129</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>47.1</v>
+        <v>56.1</v>
       </c>
       <c r="D15" t="n">
-        <v>3134</v>
+        <v>5596</v>
       </c>
       <c r="E15" t="n">
-        <v>1598.889989734285</v>
+        <v>3405.914389596362</v>
       </c>
       <c r="F15" t="n">
-        <v>96</v>
+        <v>64.3</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2023-09-04</t>
+          <t>2024-07-16</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>30366000000</v>
+        <v>88882000000</v>
       </c>
       <c r="J15" t="n">
-        <v>115109000000</v>
+        <v>34612000000</v>
       </c>
       <c r="K15" t="n">
-        <v>32990000000</v>
+        <v>70212000000</v>
       </c>
       <c r="L15" t="n">
-        <v>208290000000</v>
+        <v>237405000000</v>
       </c>
       <c r="M15" t="n">
-        <v>178465000000</v>
+        <v>193706000000</v>
       </c>
       <c r="N15" t="n">
-        <v>378853590000</v>
+        <v>345129382800</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>アツギ株式会社</t>
+          <t>東邦ホールディングス株式会社</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3529</t>
+          <t>8129</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>83.40000000000001</v>
+        <v>56.1</v>
       </c>
       <c r="D16" t="n">
-        <v>1132</v>
+        <v>5596</v>
       </c>
       <c r="E16" t="n">
-        <v>668.9358717434869</v>
+        <v>2714.613787300615</v>
       </c>
       <c r="F16" t="n">
-        <v>69.2</v>
+        <v>106.1</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2024-08-01</t>
+          <t>2024-06-17</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>7403000000</v>
+        <v>88882000000</v>
       </c>
       <c r="J16" t="n">
-        <v>1639000000</v>
+        <v>34612000000</v>
       </c>
       <c r="K16" t="n">
-        <v>6076000000</v>
+        <v>70212000000</v>
       </c>
       <c r="L16" t="n">
-        <v>33956000000</v>
+        <v>237405000000</v>
       </c>
       <c r="M16" t="n">
-        <v>15118000000</v>
+        <v>193706000000</v>
       </c>
       <c r="N16" t="n">
-        <v>18131244000</v>
+        <v>345129382800</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>株式会社スズケン</t>
+          <t>株式会社ニコン</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>9987</t>
+          <t>7731</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>66.59999999999999</v>
+        <v>16.3</v>
       </c>
       <c r="D17" t="n">
-        <v>6024</v>
+        <v>1700</v>
       </c>
       <c r="E17" t="n">
-        <v>4137.137750115735</v>
+        <v>1512.21980974841</v>
       </c>
       <c r="F17" t="n">
-        <v>45.6</v>
+        <v>12.4</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1315,1210 +1315,2718 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>168818000000</v>
+        <v>78718000000</v>
       </c>
       <c r="J17" t="n">
-        <v>54931000000</v>
+        <v>8297000000</v>
       </c>
       <c r="K17" t="n">
-        <v>60282000000</v>
+        <v>4000000000</v>
       </c>
       <c r="L17" t="n">
-        <v>417912000000</v>
+        <v>342155000000</v>
       </c>
       <c r="M17" t="n">
-        <v>284031000000</v>
+        <v>91015000000</v>
       </c>
       <c r="N17" t="n">
-        <v>426521464704</v>
+        <v>559332313600</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>株式会社ワコールホールディングス</t>
+          <t>株式会社フジ・メディア・ホールディングス</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3591</t>
+          <t>4676</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>9.9</v>
+        <v>59.5</v>
       </c>
       <c r="D18" t="n">
-        <v>5809</v>
+        <v>3360</v>
       </c>
       <c r="E18" t="n">
-        <v>2420.370957920882</v>
+        <v>2420</v>
       </c>
       <c r="F18" t="n">
-        <v>140</v>
+        <v>38.8</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社レノ代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2024-06-04</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>12443000000</v>
+        <v>118591000000</v>
       </c>
       <c r="J18" t="n">
-        <v>16412000000</v>
+        <v>174618000000</v>
       </c>
       <c r="K18" t="n">
-        <v>76000000</v>
+        <v>121461000000</v>
       </c>
       <c r="L18" t="n">
-        <v>140106000000</v>
+        <v>784429000000</v>
       </c>
       <c r="M18" t="n">
-        <v>28931000000</v>
+        <v>414670000000</v>
       </c>
       <c r="N18" t="n">
-        <v>293198237900</v>
+        <v>697038720000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ジェイドグループ株式会社</t>
+          <t>ニッコンホールディングス株式会社</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3558</t>
+          <t>9072</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>21.3</v>
+        <v>47.1</v>
       </c>
       <c r="D19" t="n">
-        <v>1477</v>
+        <v>3134</v>
       </c>
       <c r="E19" t="n">
-        <v>1267.324164058639</v>
+        <v>1598.889989734285</v>
       </c>
       <c r="F19" t="n">
-        <v>16.5</v>
+        <v>96</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2023-03-22</t>
+          <t>2023-09-04</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>2776277000</v>
+        <v>30366000000</v>
       </c>
       <c r="J19" t="n">
-        <v>280430000</v>
+        <v>115109000000</v>
       </c>
       <c r="K19" t="n">
-        <v>23536000</v>
+        <v>32990000000</v>
       </c>
       <c r="L19" t="n">
-        <v>4370371000</v>
+        <v>208290000000</v>
       </c>
       <c r="M19" t="n">
-        <v>3080243000</v>
+        <v>178465000000</v>
       </c>
       <c r="N19" t="n">
-        <v>14455738710</v>
+        <v>378853590000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>日本化薬株式会社</t>
+          <t>アツギ株式会社</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4272</t>
+          <t>3529</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>44.7</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>1455</v>
+        <v>1132</v>
       </c>
       <c r="E20" t="n">
-        <v>1111.90611839092</v>
+        <v>668.9358717434869</v>
       </c>
       <c r="F20" t="n">
-        <v>30.9</v>
+        <v>69.2</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>47483000000</v>
+        <v>7403000000</v>
       </c>
       <c r="J20" t="n">
-        <v>44109000000</v>
+        <v>1639000000</v>
       </c>
       <c r="K20" t="n">
-        <v>9428000000</v>
+        <v>6076000000</v>
       </c>
       <c r="L20" t="n">
-        <v>228273000000</v>
+        <v>33956000000</v>
       </c>
       <c r="M20" t="n">
-        <v>101020000000</v>
+        <v>15118000000</v>
       </c>
       <c r="N20" t="n">
-        <v>225944040000</v>
+        <v>18131244000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>栄研化学株式会社</t>
+          <t>大平洋金属株式会社</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4549</t>
+          <t>5541</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>23.8</v>
+        <v>72.8</v>
       </c>
       <c r="D21" t="n">
-        <v>2495</v>
+        <v>2098</v>
       </c>
       <c r="E21" t="n">
-        <v>1678.083113259255</v>
+        <v>1270</v>
       </c>
       <c r="F21" t="n">
-        <v>48.7</v>
+        <v>65.2</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-07-25</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>6968000000</v>
+        <v>22286000000</v>
       </c>
       <c r="J21" t="n">
-        <v>11989000000</v>
+        <v>2059000000</v>
       </c>
       <c r="K21" t="n">
-        <v>597000000</v>
+        <v>2199000000</v>
       </c>
       <c r="L21" t="n">
-        <v>41672000000</v>
+        <v>67014000000</v>
       </c>
       <c r="M21" t="n">
-        <v>19554000000</v>
+        <v>26544000000</v>
       </c>
       <c r="N21" t="n">
-        <v>82265639000</v>
+        <v>36465128200</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>株式会社電通グループ</t>
+          <t>大平洋金属株式会社</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4324</t>
+          <t>5541</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>11.3</v>
+        <v>72.8</v>
       </c>
       <c r="D22" t="n">
-        <v>3098</v>
+        <v>2098</v>
       </c>
       <c r="E22" t="n">
-        <v>4156.179843576074</v>
+        <v>1170</v>
       </c>
       <c r="F22" t="n">
-        <v>-25.5</v>
+        <v>79.3</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2023-03-10</t>
+          <t>2024-01-18</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>86652000000</v>
+        <v>22286000000</v>
       </c>
       <c r="J22" t="n">
-        <v>3784000000</v>
+        <v>2059000000</v>
       </c>
       <c r="K22" t="n">
-        <v>487000000</v>
+        <v>2199000000</v>
       </c>
       <c r="L22" t="n">
-        <v>616425000000</v>
+        <v>67014000000</v>
       </c>
       <c r="M22" t="n">
-        <v>90923000000</v>
+        <v>26544000000</v>
       </c>
       <c r="N22" t="n">
-        <v>804200550784</v>
+        <v>36465128200</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>株式会社東北新社</t>
+          <t>株式会社スズケン</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2329</t>
+          <t>9987</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>38</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>676</v>
-      </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
+        <v>6024</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4137.137750115735</v>
+      </c>
+      <c r="F23" t="n">
+        <v>45.6</v>
+      </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2023-03-13</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>30866000000</v>
+        <v>168818000000</v>
       </c>
       <c r="J23" t="n">
-        <v>4464000000</v>
+        <v>54931000000</v>
       </c>
       <c r="K23" t="n">
-        <v>73000000</v>
+        <v>60282000000</v>
       </c>
       <c r="L23" t="n">
-        <v>72266000000</v>
+        <v>417912000000</v>
       </c>
       <c r="M23" t="n">
-        <v>35403000000</v>
+        <v>284031000000</v>
       </c>
       <c r="N23" t="n">
-        <v>93054104000</v>
+        <v>426521464704</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>株式会社東北新社</t>
+          <t>アルプスアルパイン株式会社</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2329</t>
+          <t>6770</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>38</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>676</v>
-      </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
+        <v>1860.5</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1257.709264012363</v>
+      </c>
+      <c r="F24" t="n">
+        <v>47.9</v>
+      </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2023-03-13</t>
+          <t>2023-05-08</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>30866000000</v>
+        <v>151748000000</v>
       </c>
       <c r="J24" t="n">
-        <v>4464000000</v>
+        <v>37620000000</v>
       </c>
       <c r="K24" t="n">
-        <v>73000000</v>
+        <v>71804000000</v>
       </c>
       <c r="L24" t="n">
-        <v>72266000000</v>
+        <v>378379000000</v>
       </c>
       <c r="M24" t="n">
-        <v>35403000000</v>
+        <v>261172000000</v>
       </c>
       <c r="N24" t="n">
-        <v>93054104000</v>
+        <v>376481492384</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>東ソー株式会社</t>
+          <t>アルプスアルパイン株式会社</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4042</t>
+          <t>6770</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>43.2</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>2351.5</v>
+        <v>1860.5</v>
       </c>
       <c r="E25" t="n">
-        <v>2032.365850102071</v>
+        <v>1217.254500469243</v>
       </c>
       <c r="F25" t="n">
-        <v>15.7</v>
+        <v>52.8</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2024-06-04</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>148397000000</v>
+        <v>151748000000</v>
       </c>
       <c r="J25" t="n">
-        <v>104609000000</v>
+        <v>37620000000</v>
       </c>
       <c r="K25" t="n">
-        <v>70724000000</v>
+        <v>71804000000</v>
       </c>
       <c r="L25" t="n">
-        <v>661679000000</v>
+        <v>378379000000</v>
       </c>
       <c r="M25" t="n">
-        <v>323730000000</v>
+        <v>261172000000</v>
       </c>
       <c r="N25" t="n">
-        <v>748971562000</v>
+        <v>376481492384</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>株式会社おきなわフィナンシャルグループ</t>
+          <t>株式会社フェローテックホールディングス</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>7350</t>
+          <t>6890</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>783.4</v>
+        <v>59.4</v>
       </c>
       <c r="D26" t="n">
-        <v>3645</v>
-      </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
+        <v>3780</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2387</v>
+      </c>
+      <c r="F26" t="n">
+        <v>58.4</v>
+      </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2023-05-16</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>590636000000</v>
+        <v>30202000000</v>
       </c>
       <c r="J26" t="n">
-        <v>18477000000</v>
+        <v>66583000000</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>8420000000</v>
       </c>
       <c r="L26" t="n">
-        <v>159392000000</v>
+        <v>78239000000</v>
       </c>
       <c r="M26" t="n">
-        <v>609113000000</v>
+        <v>105205000000</v>
       </c>
       <c r="N26" t="n">
-        <v>77757327000</v>
+        <v>176981490000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>参天製薬株式会社</t>
+          <t>株式会社ワコールホールディングス</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4536</t>
+          <t>3591</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10.3</v>
+        <v>9.9</v>
       </c>
       <c r="D27" t="n">
-        <v>1614</v>
+        <v>5809</v>
       </c>
       <c r="E27" t="n">
-        <v>1344.518957928979</v>
+        <v>2420.370957920882</v>
       </c>
       <c r="F27" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2024-04-19</t>
+          <t>2024-06-04</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>34203000000</v>
+        <v>12443000000</v>
       </c>
       <c r="J27" t="n">
-        <v>6796000000</v>
+        <v>16412000000</v>
       </c>
       <c r="K27" t="n">
-        <v>14270000000</v>
+        <v>76000000</v>
       </c>
       <c r="L27" t="n">
-        <v>294231000000</v>
+        <v>140106000000</v>
       </c>
       <c r="M27" t="n">
-        <v>55269000000</v>
+        <v>28931000000</v>
       </c>
       <c r="N27" t="n">
-        <v>536893872000</v>
+        <v>293198237900</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ヤマハ発動機株式会社</t>
+          <t>新光商事株式会社</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>7272</t>
+          <t>8141</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>33.6</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>1119.5</v>
+        <v>1021</v>
       </c>
       <c r="E28" t="n">
-        <v>2968.770104870396</v>
+        <v>930</v>
       </c>
       <c r="F28" t="n">
-        <v>-62.3</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2023-01-16</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>267180000000</v>
+        <v>17596000000</v>
       </c>
       <c r="J28" t="n">
-        <v>48711000000</v>
+        <v>174000000</v>
       </c>
       <c r="K28" t="n">
-        <v>49039000000</v>
+        <v>2995000000</v>
       </c>
       <c r="L28" t="n">
-        <v>749158000000</v>
+        <v>50340000000</v>
       </c>
       <c r="M28" t="n">
-        <v>364930000000</v>
+        <v>20765000000</v>
       </c>
       <c r="N28" t="n">
-        <v>1085439185632</v>
+        <v>30159012700</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>株式会社西武ホールディングス</t>
+          <t>ジェイドグループ株式会社</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>9024</t>
+          <t>3558</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>40.3</v>
+        <v>21.3</v>
       </c>
       <c r="D29" t="n">
-        <v>5405</v>
+        <v>1477</v>
       </c>
       <c r="E29" t="n">
-        <v>1716.713876475349</v>
+        <v>1267.324164058639</v>
       </c>
       <c r="F29" t="n">
-        <v>214.8</v>
+        <v>16.5</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2024-05-07</t>
+          <t>2023-03-22</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>28538000000</v>
+        <v>2776277000</v>
       </c>
       <c r="J29" t="n">
-        <v>485513000000</v>
+        <v>280430000</v>
       </c>
       <c r="K29" t="n">
-        <v>49954000000</v>
+        <v>23536000</v>
       </c>
       <c r="L29" t="n">
-        <v>385687000000</v>
+        <v>4370371000</v>
       </c>
       <c r="M29" t="n">
-        <v>564005000000</v>
+        <v>3080243000</v>
       </c>
       <c r="N29" t="n">
-        <v>1398554560000</v>
+        <v>14455738710</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>株式会社ＴＳＩホールディングス</t>
+          <t>愛知製鋼株式会社</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>3608</t>
+          <t>5482</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>121.5</v>
+        <v>52.2</v>
       </c>
       <c r="D30" t="n">
-        <v>1118</v>
+        <v>2950</v>
       </c>
       <c r="E30" t="n">
-        <v>438.851170934559</v>
+        <v>3155.301177013616</v>
       </c>
       <c r="F30" t="n">
-        <v>154.8</v>
+        <v>-6.5</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2024-09-13</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>49761000000</v>
+        <v>54163000000</v>
       </c>
       <c r="J30" t="n">
-        <v>4425000000</v>
+        <v>11000000000</v>
       </c>
       <c r="K30" t="n">
-        <v>25137000000</v>
+        <v>33479000000</v>
       </c>
       <c r="L30" t="n">
-        <v>97430000000</v>
+        <v>179716000000</v>
       </c>
       <c r="M30" t="n">
-        <v>79323000000</v>
+        <v>98642000000</v>
       </c>
       <c r="N30" t="n">
-        <v>65309870600</v>
+        <v>188812685000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>コニシ株式会社</t>
+          <t>株式会社エクセディ</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4956</t>
+          <t>7278</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>55.4</v>
+        <v>26.7</v>
       </c>
       <c r="D31" t="n">
-        <v>1313</v>
+        <v>5450</v>
       </c>
       <c r="E31" t="n">
-        <v>1605.189780306002</v>
+        <v>2617.980935875217</v>
       </c>
       <c r="F31" t="n">
-        <v>-18.2</v>
+        <v>108.2</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2023-01-11</t>
+          <t>2024-06-10</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>23721000000</v>
+        <v>43070000000</v>
       </c>
       <c r="J31" t="n">
-        <v>13167000000</v>
+        <v>6829000000</v>
       </c>
       <c r="K31" t="n">
-        <v>11402000000</v>
+        <v>3253000000</v>
       </c>
       <c r="L31" t="n">
-        <v>68785000000</v>
+        <v>113343000000</v>
       </c>
       <c r="M31" t="n">
-        <v>48290000000</v>
+        <v>53152000000</v>
       </c>
       <c r="N31" t="n">
-        <v>87128579200</v>
+        <v>199385525000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>倉敷紡績株式会社</t>
+          <t>日本化薬株式会社</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>3106</t>
+          <t>4272</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>80.8</v>
+        <v>44.7</v>
       </c>
       <c r="D32" t="n">
-        <v>7200</v>
+        <v>1455</v>
       </c>
       <c r="E32" t="n">
-        <v>4549.503641591014</v>
+        <v>1111.90611839092</v>
       </c>
       <c r="F32" t="n">
-        <v>58.3</v>
+        <v>30.9</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>22059000000</v>
+        <v>47483000000</v>
       </c>
       <c r="J32" t="n">
-        <v>21438000000</v>
+        <v>44109000000</v>
       </c>
       <c r="K32" t="n">
-        <v>53409000000</v>
+        <v>9428000000</v>
       </c>
       <c r="L32" t="n">
-        <v>95004000000</v>
+        <v>228273000000</v>
       </c>
       <c r="M32" t="n">
-        <v>96906000000</v>
+        <v>101020000000</v>
       </c>
       <c r="N32" t="n">
-        <v>119986560000</v>
+        <v>225944040000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>大東建託株式会社</t>
+          <t>栄研化学株式会社</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1878</t>
+          <t>4549</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>24.9</v>
+        <v>23.8</v>
       </c>
       <c r="D33" t="n">
-        <v>16095</v>
+        <v>2495</v>
       </c>
       <c r="E33" t="n">
-        <v>13739.64575539568</v>
+        <v>1678.083113259255</v>
       </c>
       <c r="F33" t="n">
-        <v>17.1</v>
+        <v>48.7</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>198760000000</v>
+        <v>6968000000</v>
       </c>
       <c r="J33" t="n">
-        <v>62873000000</v>
+        <v>11989000000</v>
       </c>
       <c r="K33" t="n">
-        <v>3798000000</v>
+        <v>597000000</v>
       </c>
       <c r="L33" t="n">
-        <v>308206000000</v>
+        <v>41672000000</v>
       </c>
       <c r="M33" t="n">
-        <v>265431000000</v>
+        <v>19554000000</v>
       </c>
       <c r="N33" t="n">
-        <v>1066639792500</v>
+        <v>82265639000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>大東建託株式会社</t>
+          <t>スタンレー電気株式会社</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1878</t>
+          <t>6923</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>24.9</v>
+        <v>40.5</v>
       </c>
       <c r="D34" t="n">
-        <v>16095</v>
+        <v>2981.5</v>
       </c>
       <c r="E34" t="n">
-        <v>12975.86280814577</v>
+        <v>2560</v>
       </c>
       <c r="F34" t="n">
-        <v>24</v>
+        <v>16.5</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2023-06-02</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>198760000000</v>
+        <v>101399000000</v>
       </c>
       <c r="J34" t="n">
-        <v>62873000000</v>
+        <v>74909000000</v>
       </c>
       <c r="K34" t="n">
-        <v>3798000000</v>
+        <v>3998000000</v>
       </c>
       <c r="L34" t="n">
-        <v>308206000000</v>
+        <v>444651000000</v>
       </c>
       <c r="M34" t="n">
-        <v>265431000000</v>
+        <v>180306000000</v>
       </c>
       <c r="N34" t="n">
-        <v>1066639792500</v>
+        <v>444759275648</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ブロードメディア株式会社</t>
+          <t>株式会社電通グループ</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4347</t>
+          <t>4324</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>35</v>
+        <v>11.3</v>
       </c>
       <c r="D35" t="n">
-        <v>1748</v>
+        <v>3098</v>
       </c>
       <c r="E35" t="n">
-        <v>1529.631984751819</v>
+        <v>4156.179843576074</v>
       </c>
       <c r="F35" t="n">
-        <v>14.3</v>
+        <v>-25.5</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2024-07-03</t>
+          <t>2023-03-10</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>3368262000</v>
+        <v>86652000000</v>
       </c>
       <c r="J35" t="n">
-        <v>826293000</v>
+        <v>3784000000</v>
       </c>
       <c r="K35" t="n">
-        <v>164267000</v>
+        <v>487000000</v>
       </c>
       <c r="L35" t="n">
-        <v>3706507000</v>
+        <v>616425000000</v>
       </c>
       <c r="M35" t="n">
-        <v>4358822000</v>
+        <v>90923000000</v>
       </c>
       <c r="N35" t="n">
-        <v>12454937000</v>
+        <v>804200550784</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ブロードメディア株式会社</t>
+          <t>科研製薬株式会社</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4347</t>
+          <t>4521</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>35</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>1748</v>
+        <v>3932</v>
       </c>
       <c r="E36" t="n">
-        <v>1449.995380693296</v>
+        <v>3530</v>
       </c>
       <c r="F36" t="n">
-        <v>20.6</v>
+        <v>11.4</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2024-05-22</t>
+          <t>2024-05-29</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>3368262000</v>
+        <v>77305000000</v>
       </c>
       <c r="J36" t="n">
-        <v>826293000</v>
+        <v>15734000000</v>
       </c>
       <c r="K36" t="n">
-        <v>164267000</v>
+        <v>14699000000</v>
       </c>
       <c r="L36" t="n">
-        <v>3706507000</v>
+        <v>136257000000</v>
       </c>
       <c r="M36" t="n">
-        <v>4358822000</v>
+        <v>107738000000</v>
       </c>
       <c r="N36" t="n">
-        <v>12454937000</v>
+        <v>148900121600</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>日鉄ソリューションズ株式会社</t>
+          <t>大豊建設株式会社</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2327</t>
+          <t>1822</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>12.9</v>
+        <v>63.1</v>
       </c>
       <c r="D37" t="n">
-        <v>3472</v>
+        <v>864</v>
       </c>
       <c r="E37" t="n">
-        <v>2561.705402476645</v>
+        <v>3590.021519088228</v>
       </c>
       <c r="F37" t="n">
-        <v>35.5</v>
+        <v>-75.90000000000001</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2022-09-14</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>78579000000</v>
+        <v>28203000000</v>
       </c>
       <c r="J37" t="n">
-        <v>2398000000</v>
+        <v>8895000000</v>
       </c>
       <c r="K37" t="n">
-        <v>1000000000</v>
+        <v>10990000000</v>
       </c>
       <c r="L37" t="n">
-        <v>186128000000</v>
+        <v>74130000000</v>
       </c>
       <c r="M37" t="n">
-        <v>81977000000</v>
+        <v>48088000000</v>
       </c>
       <c r="N37" t="n">
-        <v>635285728000</v>
+        <v>76177069056</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>三井倉庫ホールディングス株式会社</t>
+          <t>イリソ電子工業株式会社</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>9302</t>
+          <t>6908</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>33.8</v>
+        <v>30.9</v>
       </c>
       <c r="D38" t="n">
-        <v>4215</v>
+        <v>3070</v>
       </c>
       <c r="E38" t="n">
-        <v>1492.806001579363</v>
+        <v>2480</v>
       </c>
       <c r="F38" t="n">
-        <v>182.4</v>
+        <v>23.8</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>22718000000</v>
+        <v>14260000000</v>
       </c>
       <c r="J38" t="n">
-        <v>68374000000</v>
+        <v>5778000000</v>
       </c>
       <c r="K38" t="n">
-        <v>15393000000</v>
+        <v>239000000</v>
       </c>
       <c r="L38" t="n">
-        <v>68529000000</v>
+        <v>54731000000</v>
       </c>
       <c r="M38" t="n">
-        <v>106485000000</v>
+        <v>20277000000</v>
       </c>
       <c r="N38" t="n">
-        <v>315469989000</v>
+        <v>65546035000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>株式会社スクウェア・エニックス・ホールディングス</t>
+          <t>イリソ電子工業株式会社</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>9684</t>
+          <t>6908</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>12.7</v>
+        <v>30.9</v>
       </c>
       <c r="D39" t="n">
-        <v>10020</v>
+        <v>3070</v>
       </c>
       <c r="E39" t="n">
-        <v>6272.971195510064</v>
+        <v>2504.338645418327</v>
       </c>
       <c r="F39" t="n">
-        <v>59.7</v>
+        <v>22.6</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2024-10-22</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>144061000000</v>
+        <v>14260000000</v>
       </c>
       <c r="J39" t="n">
-        <v>4462000000</v>
+        <v>5778000000</v>
       </c>
       <c r="K39" t="n">
-        <v>4731000000</v>
+        <v>239000000</v>
       </c>
       <c r="L39" t="n">
-        <v>243278000000</v>
+        <v>54731000000</v>
       </c>
       <c r="M39" t="n">
-        <v>153254000000</v>
+        <v>20277000000</v>
       </c>
       <c r="N39" t="n">
-        <v>1203852900000</v>
+        <v>65546035000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>イリソ電子工業株式会社</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>6908</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="D40" t="n">
+        <v>3070</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2880</v>
+      </c>
+      <c r="F40" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2024-08-13</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>14260000000</v>
+      </c>
+      <c r="J40" t="n">
+        <v>5778000000</v>
+      </c>
+      <c r="K40" t="n">
+        <v>239000000</v>
+      </c>
+      <c r="L40" t="n">
+        <v>54731000000</v>
+      </c>
+      <c r="M40" t="n">
+        <v>20277000000</v>
+      </c>
+      <c r="N40" t="n">
+        <v>65546035000</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>株式会社あおぞら銀行</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>8304</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>277.2</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2270</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2190</v>
+      </c>
+      <c r="F41" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2024-02-20</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>847732000000</v>
+      </c>
+      <c r="J41" t="n">
+        <v>23159000000</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>490006000000</v>
+      </c>
+      <c r="M41" t="n">
+        <v>870891000000</v>
+      </c>
+      <c r="N41" t="n">
+        <v>314124851840</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>株式会社東北新社</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2329</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>38</v>
+      </c>
+      <c r="D42" t="n">
+        <v>676</v>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>2023-03-13</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>30866000000</v>
+      </c>
+      <c r="J42" t="n">
+        <v>4464000000</v>
+      </c>
+      <c r="K42" t="n">
+        <v>73000000</v>
+      </c>
+      <c r="L42" t="n">
+        <v>72266000000</v>
+      </c>
+      <c r="M42" t="n">
+        <v>35403000000</v>
+      </c>
+      <c r="N42" t="n">
+        <v>93054104000</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>株式会社東北新社</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2329</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>38</v>
+      </c>
+      <c r="D43" t="n">
+        <v>676</v>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>2023-03-13</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>30866000000</v>
+      </c>
+      <c r="J43" t="n">
+        <v>4464000000</v>
+      </c>
+      <c r="K43" t="n">
+        <v>73000000</v>
+      </c>
+      <c r="L43" t="n">
+        <v>72266000000</v>
+      </c>
+      <c r="M43" t="n">
+        <v>35403000000</v>
+      </c>
+      <c r="N43" t="n">
+        <v>93054104000</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>月島ホールディングス株式会社</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>6332</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>57.2</v>
+      </c>
+      <c r="D44" t="n">
+        <v>3375</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1410</v>
+      </c>
+      <c r="F44" t="n">
+        <v>139.4</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>33870000000</v>
+      </c>
+      <c r="J44" t="n">
+        <v>23318000000</v>
+      </c>
+      <c r="K44" t="n">
+        <v>25387000000</v>
+      </c>
+      <c r="L44" t="n">
+        <v>71784000000</v>
+      </c>
+      <c r="M44" t="n">
+        <v>82575000000</v>
+      </c>
+      <c r="N44" t="n">
+        <v>144397012500</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>ホシデン株式会社</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>6804</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2289</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1303.446424801713</v>
+      </c>
+      <c r="F45" t="n">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>2023-02-13</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>69522000000</v>
+      </c>
+      <c r="J45" t="n">
+        <v>6944000000</v>
+      </c>
+      <c r="K45" t="n">
+        <v>14624000000</v>
+      </c>
+      <c r="L45" t="n">
+        <v>109250000000</v>
+      </c>
+      <c r="M45" t="n">
+        <v>91090000000</v>
+      </c>
+      <c r="N45" t="n">
+        <v>116482174200</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>東ソー株式会社</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>4042</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2351.5</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2032.365850102071</v>
+      </c>
+      <c r="F46" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>2024-06-04</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>148397000000</v>
+      </c>
+      <c r="J46" t="n">
+        <v>104609000000</v>
+      </c>
+      <c r="K46" t="n">
+        <v>70724000000</v>
+      </c>
+      <c r="L46" t="n">
+        <v>661679000000</v>
+      </c>
+      <c r="M46" t="n">
+        <v>323730000000</v>
+      </c>
+      <c r="N46" t="n">
+        <v>748971562000</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>株式会社おきなわフィナンシャルグループ</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>7350</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>783.4</v>
+      </c>
+      <c r="D47" t="n">
+        <v>3645</v>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>2023-05-16</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>590636000000</v>
+      </c>
+      <c r="J47" t="n">
+        <v>18477000000</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>159392000000</v>
+      </c>
+      <c r="M47" t="n">
+        <v>609113000000</v>
+      </c>
+      <c r="N47" t="n">
+        <v>77757327000</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>アークランズ株式会社</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>9842</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>116.4</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1840</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1469.167707232735</v>
+      </c>
+      <c r="F48" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>2023-03-30</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>25605000000</v>
+      </c>
+      <c r="J48" t="n">
+        <v>95781000000</v>
+      </c>
+      <c r="K48" t="n">
+        <v>12051000000</v>
+      </c>
+      <c r="L48" t="n">
+        <v>91048000000</v>
+      </c>
+      <c r="M48" t="n">
+        <v>133437000000</v>
+      </c>
+      <c r="N48" t="n">
+        <v>114629792000</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>アークランズ株式会社</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>9842</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>116.4</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1840</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1489.94784546053</v>
+      </c>
+      <c r="F49" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>25605000000</v>
+      </c>
+      <c r="J49" t="n">
+        <v>95781000000</v>
+      </c>
+      <c r="K49" t="n">
+        <v>12051000000</v>
+      </c>
+      <c r="L49" t="n">
+        <v>91048000000</v>
+      </c>
+      <c r="M49" t="n">
+        <v>133437000000</v>
+      </c>
+      <c r="N49" t="n">
+        <v>114629792000</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>三井住建道路株式会社</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1776</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1473</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1212.640316205534</v>
+      </c>
+      <c r="F50" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>10677000000</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2762000000</v>
+      </c>
+      <c r="K50" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="L50" t="n">
+        <v>12543000000</v>
+      </c>
+      <c r="M50" t="n">
+        <v>13446000000</v>
+      </c>
+      <c r="N50" t="n">
+        <v>13537827450</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>参天製薬株式会社</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>4536</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1614</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1344.518957928979</v>
+      </c>
+      <c r="F51" t="n">
+        <v>20</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>2024-04-19</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>34203000000</v>
+      </c>
+      <c r="J51" t="n">
+        <v>6796000000</v>
+      </c>
+      <c r="K51" t="n">
+        <v>14270000000</v>
+      </c>
+      <c r="L51" t="n">
+        <v>294231000000</v>
+      </c>
+      <c r="M51" t="n">
+        <v>55269000000</v>
+      </c>
+      <c r="N51" t="n">
+        <v>536893872000</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>ヤマハ発動機株式会社</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>7272</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1119.5</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2968.770104870396</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-62.3</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>2023-01-16</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>267180000000</v>
+      </c>
+      <c r="J52" t="n">
+        <v>48711000000</v>
+      </c>
+      <c r="K52" t="n">
+        <v>49039000000</v>
+      </c>
+      <c r="L52" t="n">
+        <v>749158000000</v>
+      </c>
+      <c r="M52" t="n">
+        <v>364930000000</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1085439185632</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>日本特殊塗料株式会社</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>4619</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2203</v>
+      </c>
+      <c r="E53" t="n">
+        <v>1190</v>
+      </c>
+      <c r="F53" t="n">
+        <v>85.09999999999999</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>2025-04-07</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>6518000000</v>
+      </c>
+      <c r="J53" t="n">
+        <v>9792000000</v>
+      </c>
+      <c r="K53" t="n">
+        <v>23167000000</v>
+      </c>
+      <c r="L53" t="n">
+        <v>47154000000</v>
+      </c>
+      <c r="M53" t="n">
+        <v>39477000000</v>
+      </c>
+      <c r="N53" t="n">
+        <v>47918995100</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>株式会社西武ホールディングス</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>9024</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="D54" t="n">
+        <v>5405</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1716.713876475349</v>
+      </c>
+      <c r="F54" t="n">
+        <v>214.8</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>2024-05-07</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>28538000000</v>
+      </c>
+      <c r="J54" t="n">
+        <v>485513000000</v>
+      </c>
+      <c r="K54" t="n">
+        <v>49954000000</v>
+      </c>
+      <c r="L54" t="n">
+        <v>385687000000</v>
+      </c>
+      <c r="M54" t="n">
+        <v>564005000000</v>
+      </c>
+      <c r="N54" t="n">
+        <v>1398554560000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>株式会社ＴＳＩホールディングス</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>3608</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>121.5</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1118</v>
+      </c>
+      <c r="E55" t="n">
+        <v>438.851170934559</v>
+      </c>
+      <c r="F55" t="n">
+        <v>154.8</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>49761000000</v>
+      </c>
+      <c r="J55" t="n">
+        <v>4425000000</v>
+      </c>
+      <c r="K55" t="n">
+        <v>25137000000</v>
+      </c>
+      <c r="L55" t="n">
+        <v>97430000000</v>
+      </c>
+      <c r="M55" t="n">
+        <v>79323000000</v>
+      </c>
+      <c r="N55" t="n">
+        <v>65309870600</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>コニシ株式会社</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>4956</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1313</v>
+      </c>
+      <c r="E56" t="n">
+        <v>1605.189780306002</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-18.2</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>2023-01-11</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>23721000000</v>
+      </c>
+      <c r="J56" t="n">
+        <v>13167000000</v>
+      </c>
+      <c r="K56" t="n">
+        <v>11402000000</v>
+      </c>
+      <c r="L56" t="n">
+        <v>68785000000</v>
+      </c>
+      <c r="M56" t="n">
+        <v>48290000000</v>
+      </c>
+      <c r="N56" t="n">
+        <v>87128579200</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>倉敷紡績株式会社</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>3106</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>80.8</v>
+      </c>
+      <c r="D57" t="n">
+        <v>7200</v>
+      </c>
+      <c r="E57" t="n">
+        <v>4549.503641591014</v>
+      </c>
+      <c r="F57" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>2025-04-28</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>22059000000</v>
+      </c>
+      <c r="J57" t="n">
+        <v>21438000000</v>
+      </c>
+      <c r="K57" t="n">
+        <v>53409000000</v>
+      </c>
+      <c r="L57" t="n">
+        <v>95004000000</v>
+      </c>
+      <c r="M57" t="n">
+        <v>96906000000</v>
+      </c>
+      <c r="N57" t="n">
+        <v>119986560000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>大東建託株式会社</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1878</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="D58" t="n">
+        <v>16095</v>
+      </c>
+      <c r="E58" t="n">
+        <v>13739.64575539568</v>
+      </c>
+      <c r="F58" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>2025-05-22</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>198760000000</v>
+      </c>
+      <c r="J58" t="n">
+        <v>62873000000</v>
+      </c>
+      <c r="K58" t="n">
+        <v>3798000000</v>
+      </c>
+      <c r="L58" t="n">
+        <v>308206000000</v>
+      </c>
+      <c r="M58" t="n">
+        <v>265431000000</v>
+      </c>
+      <c r="N58" t="n">
+        <v>1066639792500</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>大東建託株式会社</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1878</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="D59" t="n">
+        <v>16095</v>
+      </c>
+      <c r="E59" t="n">
+        <v>12975.86280814577</v>
+      </c>
+      <c r="F59" t="n">
+        <v>24</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>2023-06-02</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>198760000000</v>
+      </c>
+      <c r="J59" t="n">
+        <v>62873000000</v>
+      </c>
+      <c r="K59" t="n">
+        <v>3798000000</v>
+      </c>
+      <c r="L59" t="n">
+        <v>308206000000</v>
+      </c>
+      <c r="M59" t="n">
+        <v>265431000000</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1066639792500</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>ブロードメディア株式会社</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>4347</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>35</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1748</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1529.631984751819</v>
+      </c>
+      <c r="F60" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>2024-07-03</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>3368262000</v>
+      </c>
+      <c r="J60" t="n">
+        <v>826293000</v>
+      </c>
+      <c r="K60" t="n">
+        <v>164267000</v>
+      </c>
+      <c r="L60" t="n">
+        <v>3706507000</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4358822000</v>
+      </c>
+      <c r="N60" t="n">
+        <v>12454937000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>ブロードメディア株式会社</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>4347</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>35</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1748</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1449.995380693296</v>
+      </c>
+      <c r="F61" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>2024-05-22</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>3368262000</v>
+      </c>
+      <c r="J61" t="n">
+        <v>826293000</v>
+      </c>
+      <c r="K61" t="n">
+        <v>164267000</v>
+      </c>
+      <c r="L61" t="n">
+        <v>3706507000</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4358822000</v>
+      </c>
+      <c r="N61" t="n">
+        <v>12454937000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>京浜急行電鉄株式会社</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>9006</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>107.7</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1574</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1160.8</v>
+      </c>
+      <c r="F62" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>57450000000</v>
+      </c>
+      <c r="J62" t="n">
+        <v>297923000000</v>
+      </c>
+      <c r="K62" t="n">
+        <v>103100000000</v>
+      </c>
+      <c r="L62" t="n">
+        <v>249065000000</v>
+      </c>
+      <c r="M62" t="n">
+        <v>458473000000</v>
+      </c>
+      <c r="N62" t="n">
+        <v>425700866816</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>日鉄ソリューションズ株式会社</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2327</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D63" t="n">
+        <v>3472</v>
+      </c>
+      <c r="E63" t="n">
+        <v>2561.705402476645</v>
+      </c>
+      <c r="F63" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>2024-08-19</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>78579000000</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2398000000</v>
+      </c>
+      <c r="K63" t="n">
+        <v>1000000000</v>
+      </c>
+      <c r="L63" t="n">
+        <v>186128000000</v>
+      </c>
+      <c r="M63" t="n">
+        <v>81977000000</v>
+      </c>
+      <c r="N63" t="n">
+        <v>635285728000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>ＮＩＴＴＯＫＵ株式会社</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>6145</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2232</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1710</v>
+      </c>
+      <c r="F64" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>10110000000</v>
+      </c>
+      <c r="J64" t="n">
+        <v>5132000000</v>
+      </c>
+      <c r="K64" t="n">
+        <v>301000000</v>
+      </c>
+      <c r="L64" t="n">
+        <v>31726000000</v>
+      </c>
+      <c r="M64" t="n">
+        <v>15543000000</v>
+      </c>
+      <c r="N64" t="n">
+        <v>37658750400</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>ＮＩＴＴＯＫＵ株式会社</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>6145</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>41.3</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2232</v>
+      </c>
+      <c r="E65" t="n">
+        <v>1710</v>
+      </c>
+      <c r="F65" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>10110000000</v>
+      </c>
+      <c r="J65" t="n">
+        <v>5132000000</v>
+      </c>
+      <c r="K65" t="n">
+        <v>301000000</v>
+      </c>
+      <c r="L65" t="n">
+        <v>31726000000</v>
+      </c>
+      <c r="M65" t="n">
+        <v>15543000000</v>
+      </c>
+      <c r="N65" t="n">
+        <v>37658750400</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>三井倉庫ホールディングス株式会社</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>9302</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="D66" t="n">
+        <v>4215</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1492.806001579363</v>
+      </c>
+      <c r="F66" t="n">
+        <v>182.4</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>2025-04-28</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>22718000000</v>
+      </c>
+      <c r="J66" t="n">
+        <v>68374000000</v>
+      </c>
+      <c r="K66" t="n">
+        <v>15393000000</v>
+      </c>
+      <c r="L66" t="n">
+        <v>68529000000</v>
+      </c>
+      <c r="M66" t="n">
+        <v>106485000000</v>
+      </c>
+      <c r="N66" t="n">
+        <v>315469989000</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>株式会社スクウェア・エニックス・ホールディングス</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>9684</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="D67" t="n">
+        <v>10020</v>
+      </c>
+      <c r="E67" t="n">
+        <v>6272.971195510064</v>
+      </c>
+      <c r="F67" t="n">
+        <v>59.7</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>2025-04-21</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>144061000000</v>
+      </c>
+      <c r="J67" t="n">
+        <v>4462000000</v>
+      </c>
+      <c r="K67" t="n">
+        <v>4731000000</v>
+      </c>
+      <c r="L67" t="n">
+        <v>243278000000</v>
+      </c>
+      <c r="M67" t="n">
+        <v>153254000000</v>
+      </c>
+      <c r="N67" t="n">
+        <v>1203852900000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
           <t>ヘリオス テクノ ホールディング株式会社</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t>6927</t>
         </is>
       </c>
-      <c r="C40" t="n">
+      <c r="C68" t="n">
         <v>53.4</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D68" t="n">
         <v>868</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E68" t="n">
         <v>896.0103264198827</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F68" t="n">
         <v>-3.1</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>2025-03-31</t>
         </is>
       </c>
-      <c r="I40" t="n">
+      <c r="I68" t="n">
         <v>6417163000</v>
       </c>
-      <c r="J40" t="n">
+      <c r="J68" t="n">
         <v>658172000</v>
       </c>
-      <c r="K40" t="n">
+      <c r="K68" t="n">
         <v>1342160000</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L68" t="n">
         <v>13418044000</v>
       </c>
-      <c r="M40" t="n">
+      <c r="M68" t="n">
         <v>8417495000</v>
       </c>
-      <c r="N40" t="n">
+      <c r="N68" t="n">
         <v>15752290400</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>平和不動産株式会社</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>8803</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="D69" t="n">
+        <v>2336</v>
+      </c>
+      <c r="E69" t="n">
+        <v>3610</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-35.3</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>2024-07-22</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>29585000000</v>
+      </c>
+      <c r="J69" t="n">
+        <v>84557000000</v>
+      </c>
+      <c r="K69" t="n">
+        <v>8005000000</v>
+      </c>
+      <c r="L69" t="n">
+        <v>118639000000</v>
+      </c>
+      <c r="M69" t="n">
+        <v>122147000000</v>
+      </c>
+      <c r="N69" t="n">
+        <v>155989670400</v>
       </c>
     </row>
   </sheetData>

--- a/docs/アクティビスト銘柄_資産判定.xlsx
+++ b/docs/アクティビスト銘柄_資産判定.xlsx
@@ -517,16 +517,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>90.5</v>
+        <v>89.5</v>
       </c>
       <c r="D2" t="n">
-        <v>2915</v>
+        <v>2945</v>
       </c>
       <c r="E2" t="n">
         <v>1600</v>
       </c>
       <c r="F2" t="n">
-        <v>82.2</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -554,7 +554,7 @@
         <v>88496000000</v>
       </c>
       <c r="N2" t="n">
-        <v>97828857500</v>
+        <v>98835672500</v>
       </c>
     </row>
     <row r="3">
@@ -569,16 +569,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>56.2</v>
+        <v>56</v>
       </c>
       <c r="D3" t="n">
-        <v>5270</v>
+        <v>5290</v>
       </c>
       <c r="E3" t="n">
         <v>4265.455132343447</v>
       </c>
       <c r="F3" t="n">
-        <v>23.6</v>
+        <v>24</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
         <v>14129000000</v>
       </c>
       <c r="N3" t="n">
-        <v>25123618300</v>
+        <v>25218964100</v>
       </c>
     </row>
     <row r="4">
@@ -624,13 +624,13 @@
         <v>20.1</v>
       </c>
       <c r="D4" t="n">
-        <v>2200</v>
+        <v>2197.5</v>
       </c>
       <c r="E4" t="n">
         <v>2269.918722577861</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.1</v>
+        <v>-3.2</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>90811000000</v>
       </c>
       <c r="N4" t="n">
-        <v>452634617600</v>
+        <v>452120260080</v>
       </c>
     </row>
     <row r="5">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>121.3</v>
+        <v>121.1</v>
       </c>
       <c r="D5" t="n">
-        <v>2903</v>
+        <v>2907.5</v>
       </c>
       <c r="E5" t="n">
         <v>4991.027246539169</v>
       </c>
       <c r="F5" t="n">
-        <v>-41.8</v>
+        <v>-41.7</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -710,7 +710,7 @@
         <v>1006135000000</v>
       </c>
       <c r="N5" t="n">
-        <v>829439400448</v>
+        <v>830725131520</v>
       </c>
     </row>
     <row r="6">
@@ -725,16 +725,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="D6" t="n">
-        <v>1038</v>
+        <v>1022</v>
       </c>
       <c r="E6" t="n">
         <v>653.0713101160862</v>
       </c>
       <c r="F6" t="n">
-        <v>58.9</v>
+        <v>56.5</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>1810139000</v>
       </c>
       <c r="N6" t="n">
-        <v>24835084200</v>
+        <v>24452269800</v>
       </c>
     </row>
     <row r="7">
@@ -780,13 +780,13 @@
         <v>1.4</v>
       </c>
       <c r="D7" t="n">
-        <v>7462</v>
+        <v>7378</v>
       </c>
       <c r="E7" t="n">
         <v>2697.360927565142</v>
       </c>
       <c r="F7" t="n">
-        <v>176.6</v>
+        <v>173.5</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -814,7 +814,7 @@
         <v>8148000000</v>
       </c>
       <c r="N7" t="n">
-        <v>581806170400</v>
+        <v>575256757600</v>
       </c>
     </row>
     <row r="8">
@@ -829,16 +829,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>22.6</v>
+        <v>22.4</v>
       </c>
       <c r="D8" t="n">
-        <v>3965</v>
+        <v>4000</v>
       </c>
       <c r="E8" t="n">
         <v>7960</v>
       </c>
       <c r="F8" t="n">
-        <v>-50.2</v>
+        <v>-49.7</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         <v>34259000000</v>
       </c>
       <c r="N8" t="n">
-        <v>151539921000</v>
+        <v>152877600000</v>
       </c>
     </row>
     <row r="9">
@@ -881,16 +881,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>50.5</v>
+        <v>50.3</v>
       </c>
       <c r="D9" t="n">
-        <v>6590</v>
+        <v>6620</v>
       </c>
       <c r="E9" t="n">
         <v>2920</v>
       </c>
       <c r="F9" t="n">
-        <v>125.7</v>
+        <v>126.7</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>26036000000</v>
       </c>
       <c r="N9" t="n">
-        <v>51549022900</v>
+        <v>51783692200</v>
       </c>
     </row>
     <row r="10">
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>96</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>1862</v>
+        <v>1869</v>
       </c>
       <c r="E10" t="n">
         <v>2298.672482457804</v>
       </c>
       <c r="F10" t="n">
-        <v>-19</v>
+        <v>-18.7</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>44925000000</v>
       </c>
       <c r="N10" t="n">
-        <v>46804535400</v>
+        <v>46980492300</v>
       </c>
     </row>
     <row r="11">
@@ -985,16 +985,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>46.9</v>
+        <v>47.1</v>
       </c>
       <c r="D11" t="n">
-        <v>839.2999877929688</v>
+        <v>835.7000122070312</v>
       </c>
       <c r="E11" t="n">
         <v>590</v>
       </c>
       <c r="F11" t="n">
-        <v>42.3</v>
+        <v>41.6</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>362887000000</v>
       </c>
       <c r="N11" t="n">
-        <v>774051974156</v>
+        <v>770731864244</v>
       </c>
     </row>
     <row r="12">
@@ -1037,16 +1037,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="D12" t="n">
-        <v>2038</v>
+        <v>2022</v>
       </c>
       <c r="E12" t="n">
         <v>1347.74653160027</v>
       </c>
       <c r="F12" t="n">
-        <v>51.2</v>
+        <v>50</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1074,7 +1074,7 @@
         <v>14143000000</v>
       </c>
       <c r="N12" t="n">
-        <v>48839854800</v>
+        <v>48456421200</v>
       </c>
     </row>
     <row r="13">
@@ -1089,16 +1089,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>50.2</v>
+        <v>49.9</v>
       </c>
       <c r="D13" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E13" t="n">
         <v>290.3401328717133</v>
       </c>
       <c r="F13" t="n">
-        <v>6.1</v>
+        <v>6.8</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         <v>5368822000</v>
       </c>
       <c r="N13" t="n">
-        <v>10689540400</v>
+        <v>10758953000</v>
       </c>
     </row>
     <row r="14">
@@ -1141,16 +1141,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="D14" t="n">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E14" t="n">
         <v>421.6950726175476</v>
       </c>
       <c r="F14" t="n">
-        <v>31.4</v>
+        <v>30.7</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>2256815000</v>
       </c>
       <c r="N14" t="n">
-        <v>15518980400</v>
+        <v>15434942600</v>
       </c>
     </row>
     <row r="15">
@@ -1193,16 +1193,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>56.1</v>
+        <v>55.5</v>
       </c>
       <c r="D15" t="n">
-        <v>5596</v>
+        <v>5660</v>
       </c>
       <c r="E15" t="n">
         <v>3405.914389596362</v>
       </c>
       <c r="F15" t="n">
-        <v>64.3</v>
+        <v>66.2</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>193706000000</v>
       </c>
       <c r="N15" t="n">
-        <v>345129382800</v>
+        <v>349076538000</v>
       </c>
     </row>
     <row r="16">
@@ -1245,16 +1245,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>56.1</v>
+        <v>55.5</v>
       </c>
       <c r="D16" t="n">
-        <v>5596</v>
+        <v>5660</v>
       </c>
       <c r="E16" t="n">
         <v>2714.613787300615</v>
       </c>
       <c r="F16" t="n">
-        <v>106.1</v>
+        <v>108.5</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>193706000000</v>
       </c>
       <c r="N16" t="n">
-        <v>345129382800</v>
+        <v>349076538000</v>
       </c>
     </row>
     <row r="17">
@@ -1300,13 +1300,13 @@
         <v>16.3</v>
       </c>
       <c r="D17" t="n">
-        <v>1700</v>
+        <v>1701.5</v>
       </c>
       <c r="E17" t="n">
         <v>1512.21980974841</v>
       </c>
       <c r="F17" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1334,7 +1334,7 @@
         <v>91015000000</v>
       </c>
       <c r="N17" t="n">
-        <v>559332313600</v>
+        <v>559825842112</v>
       </c>
     </row>
     <row r="18">
@@ -1349,16 +1349,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>59.5</v>
+        <v>59.1</v>
       </c>
       <c r="D18" t="n">
-        <v>3360</v>
+        <v>3383</v>
       </c>
       <c r="E18" t="n">
         <v>2420</v>
       </c>
       <c r="F18" t="n">
-        <v>38.8</v>
+        <v>39.8</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>414670000000</v>
       </c>
       <c r="N18" t="n">
-        <v>697038720000</v>
+        <v>701810116000</v>
       </c>
     </row>
     <row r="19">
@@ -1401,16 +1401,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>47.1</v>
+        <v>45.4</v>
       </c>
       <c r="D19" t="n">
-        <v>3134</v>
+        <v>3253</v>
       </c>
       <c r="E19" t="n">
         <v>1598.889989734285</v>
       </c>
       <c r="F19" t="n">
-        <v>96</v>
+        <v>103.5</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>178465000000</v>
       </c>
       <c r="N19" t="n">
-        <v>378853590000</v>
+        <v>393238905000</v>
       </c>
     </row>
     <row r="20">
@@ -1453,16 +1453,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>83.40000000000001</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>1132</v>
+        <v>1139</v>
       </c>
       <c r="E20" t="n">
         <v>668.9358717434869</v>
       </c>
       <c r="F20" t="n">
-        <v>69.2</v>
+        <v>70.3</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>15118000000</v>
       </c>
       <c r="N20" t="n">
-        <v>18131244000</v>
+        <v>18243363000</v>
       </c>
     </row>
     <row r="21">
@@ -1505,16 +1505,16 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>72.8</v>
+        <v>72.5</v>
       </c>
       <c r="D21" t="n">
-        <v>2098</v>
+        <v>2106</v>
       </c>
       <c r="E21" t="n">
         <v>1270</v>
       </c>
       <c r="F21" t="n">
-        <v>65.2</v>
+        <v>65.8</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>26544000000</v>
       </c>
       <c r="N21" t="n">
-        <v>36465128200</v>
+        <v>36604175400</v>
       </c>
     </row>
     <row r="22">
@@ -1557,16 +1557,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>72.8</v>
+        <v>72.5</v>
       </c>
       <c r="D22" t="n">
-        <v>2098</v>
+        <v>2106</v>
       </c>
       <c r="E22" t="n">
         <v>1170</v>
       </c>
       <c r="F22" t="n">
-        <v>79.3</v>
+        <v>80</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>26544000000</v>
       </c>
       <c r="N22" t="n">
-        <v>36465128200</v>
+        <v>36604175400</v>
       </c>
     </row>
     <row r="23">
@@ -1609,16 +1609,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>66.59999999999999</v>
+        <v>66</v>
       </c>
       <c r="D23" t="n">
-        <v>6024</v>
+        <v>6074</v>
       </c>
       <c r="E23" t="n">
         <v>4137.137750115735</v>
       </c>
       <c r="F23" t="n">
-        <v>45.6</v>
+        <v>46.8</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>284031000000</v>
       </c>
       <c r="N23" t="n">
-        <v>426521464704</v>
+        <v>430061649504</v>
       </c>
     </row>
     <row r="24">
@@ -1661,16 +1661,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>69.40000000000001</v>
+        <v>69.8</v>
       </c>
       <c r="D24" t="n">
-        <v>1860.5</v>
+        <v>1850</v>
       </c>
       <c r="E24" t="n">
         <v>1257.709264012363</v>
       </c>
       <c r="F24" t="n">
-        <v>47.9</v>
+        <v>47.1</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>261172000000</v>
       </c>
       <c r="N24" t="n">
-        <v>376481492384</v>
+        <v>374356764800</v>
       </c>
     </row>
     <row r="25">
@@ -1713,16 +1713,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>69.40000000000001</v>
+        <v>69.8</v>
       </c>
       <c r="D25" t="n">
-        <v>1860.5</v>
+        <v>1850</v>
       </c>
       <c r="E25" t="n">
         <v>1217.254500469243</v>
       </c>
       <c r="F25" t="n">
-        <v>52.8</v>
+        <v>52</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>261172000000</v>
       </c>
       <c r="N25" t="n">
-        <v>376481492384</v>
+        <v>374356764800</v>
       </c>
     </row>
     <row r="26">
@@ -1765,16 +1765,16 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>59.4</v>
+        <v>58.8</v>
       </c>
       <c r="D26" t="n">
-        <v>3780</v>
+        <v>3820</v>
       </c>
       <c r="E26" t="n">
         <v>2387</v>
       </c>
       <c r="F26" t="n">
-        <v>58.4</v>
+        <v>60</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>105205000000</v>
       </c>
       <c r="N26" t="n">
-        <v>176981490000</v>
+        <v>178854310000</v>
       </c>
     </row>
     <row r="27">
@@ -1817,16 +1817,16 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>5809</v>
+        <v>5824</v>
       </c>
       <c r="E27" t="n">
         <v>2420.370957920882</v>
       </c>
       <c r="F27" t="n">
-        <v>140</v>
+        <v>140.6</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>28931000000</v>
       </c>
       <c r="N27" t="n">
-        <v>293198237900</v>
+        <v>293955334400</v>
       </c>
     </row>
     <row r="28">
@@ -1872,13 +1872,13 @@
         <v>68.90000000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E28" t="n">
         <v>930</v>
       </c>
       <c r="F28" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>20765000000</v>
       </c>
       <c r="N28" t="n">
-        <v>30159012700</v>
+        <v>30129474000</v>
       </c>
     </row>
     <row r="29">
@@ -1921,16 +1921,16 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="D29" t="n">
-        <v>1477</v>
+        <v>1484</v>
       </c>
       <c r="E29" t="n">
         <v>1267.324164058639</v>
       </c>
       <c r="F29" t="n">
-        <v>16.5</v>
+        <v>17.1</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>3080243000</v>
       </c>
       <c r="N29" t="n">
-        <v>14455738710</v>
+        <v>14524249320</v>
       </c>
     </row>
     <row r="30">
@@ -1973,16 +1973,16 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>52.2</v>
+        <v>51.8</v>
       </c>
       <c r="D30" t="n">
-        <v>2950</v>
+        <v>2975</v>
       </c>
       <c r="E30" t="n">
         <v>3155.301177013616</v>
       </c>
       <c r="F30" t="n">
-        <v>-6.5</v>
+        <v>-5.7</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>98642000000</v>
       </c>
       <c r="N30" t="n">
-        <v>188812685000</v>
+        <v>190412792500</v>
       </c>
     </row>
     <row r="31">
@@ -2025,16 +2025,16 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>26.7</v>
+        <v>26.5</v>
       </c>
       <c r="D31" t="n">
-        <v>5450</v>
+        <v>5490</v>
       </c>
       <c r="E31" t="n">
         <v>2617.980935875217</v>
       </c>
       <c r="F31" t="n">
-        <v>108.2</v>
+        <v>109.7</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>53152000000</v>
       </c>
       <c r="N31" t="n">
-        <v>199385525000</v>
+        <v>200848905000</v>
       </c>
     </row>
     <row r="32">
@@ -2080,13 +2080,13 @@
         <v>44.7</v>
       </c>
       <c r="D32" t="n">
-        <v>1455</v>
+        <v>1456.5</v>
       </c>
       <c r="E32" t="n">
         <v>1111.90611839092</v>
       </c>
       <c r="F32" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>101020000000</v>
       </c>
       <c r="N32" t="n">
-        <v>225944040000</v>
+        <v>226176972000</v>
       </c>
     </row>
     <row r="33">
@@ -2129,16 +2129,16 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="D33" t="n">
-        <v>2495</v>
+        <v>2485</v>
       </c>
       <c r="E33" t="n">
         <v>1678.083113259255</v>
       </c>
       <c r="F33" t="n">
-        <v>48.7</v>
+        <v>48.1</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
         <v>19554000000</v>
       </c>
       <c r="N33" t="n">
-        <v>82265639000</v>
+        <v>81935917000</v>
       </c>
     </row>
     <row r="34">
@@ -2181,16 +2181,16 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>40.5</v>
+        <v>40.6</v>
       </c>
       <c r="D34" t="n">
-        <v>2981.5</v>
+        <v>2976</v>
       </c>
       <c r="E34" t="n">
         <v>2560</v>
       </c>
       <c r="F34" t="n">
-        <v>16.5</v>
+        <v>16.2</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>180306000000</v>
       </c>
       <c r="N34" t="n">
-        <v>444759275648</v>
+        <v>443938824192</v>
       </c>
     </row>
     <row r="35">
@@ -2236,13 +2236,13 @@
         <v>11.3</v>
       </c>
       <c r="D35" t="n">
-        <v>3098</v>
+        <v>3100</v>
       </c>
       <c r="E35" t="n">
         <v>4156.179843576074</v>
       </c>
       <c r="F35" t="n">
-        <v>-25.5</v>
+        <v>-25.4</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2270,7 +2270,7 @@
         <v>90923000000</v>
       </c>
       <c r="N35" t="n">
-        <v>804200550784</v>
+        <v>804719724800</v>
       </c>
     </row>
     <row r="36">
@@ -2288,13 +2288,13 @@
         <v>72.40000000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>3932</v>
+        <v>3930</v>
       </c>
       <c r="E36" t="n">
         <v>3530</v>
       </c>
       <c r="F36" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>107738000000</v>
       </c>
       <c r="N36" t="n">
-        <v>148900121600</v>
+        <v>148824384000</v>
       </c>
     </row>
     <row r="37">
@@ -2337,16 +2337,16 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>63.1</v>
+        <v>63.4</v>
       </c>
       <c r="D37" t="n">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="E37" t="n">
         <v>3590.021519088228</v>
       </c>
       <c r="F37" t="n">
-        <v>-75.90000000000001</v>
+        <v>-76</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         <v>48088000000</v>
       </c>
       <c r="N37" t="n">
-        <v>76177069056</v>
+        <v>75824397440</v>
       </c>
     </row>
     <row r="38">
@@ -2389,16 +2389,16 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>30.9</v>
+        <v>31.2</v>
       </c>
       <c r="D38" t="n">
-        <v>3070</v>
+        <v>3045</v>
       </c>
       <c r="E38" t="n">
         <v>2480</v>
       </c>
       <c r="F38" t="n">
-        <v>23.8</v>
+        <v>22.8</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>20277000000</v>
       </c>
       <c r="N38" t="n">
-        <v>65546035000</v>
+        <v>65012272500</v>
       </c>
     </row>
     <row r="39">
@@ -2441,16 +2441,16 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>30.9</v>
+        <v>31.2</v>
       </c>
       <c r="D39" t="n">
-        <v>3070</v>
+        <v>3045</v>
       </c>
       <c r="E39" t="n">
         <v>2504.338645418327</v>
       </c>
       <c r="F39" t="n">
-        <v>22.6</v>
+        <v>21.6</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         <v>20277000000</v>
       </c>
       <c r="N39" t="n">
-        <v>65546035000</v>
+        <v>65012272500</v>
       </c>
     </row>
     <row r="40">
@@ -2493,16 +2493,16 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>30.9</v>
+        <v>31.2</v>
       </c>
       <c r="D40" t="n">
-        <v>3070</v>
+        <v>3045</v>
       </c>
       <c r="E40" t="n">
         <v>2880</v>
       </c>
       <c r="F40" t="n">
-        <v>6.6</v>
+        <v>5.7</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>20277000000</v>
       </c>
       <c r="N40" t="n">
-        <v>65546035000</v>
+        <v>65012272500</v>
       </c>
     </row>
     <row r="41">
@@ -2545,16 +2545,16 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>277.2</v>
+        <v>276.1</v>
       </c>
       <c r="D41" t="n">
-        <v>2270</v>
+        <v>2279.5</v>
       </c>
       <c r="E41" t="n">
         <v>2190</v>
       </c>
       <c r="F41" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>870891000000</v>
       </c>
       <c r="N41" t="n">
-        <v>314124851840</v>
+        <v>315439471264</v>
       </c>
     </row>
     <row r="42">
@@ -2597,10 +2597,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="D42" t="n">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
@@ -2630,7 +2630,7 @@
         <v>35403000000</v>
       </c>
       <c r="N42" t="n">
-        <v>93054104000</v>
+        <v>92916450000</v>
       </c>
     </row>
     <row r="43">
@@ -2645,10 +2645,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="D43" t="n">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
@@ -2678,7 +2678,7 @@
         <v>35403000000</v>
       </c>
       <c r="N43" t="n">
-        <v>93054104000</v>
+        <v>92916450000</v>
       </c>
     </row>
     <row r="44">
@@ -2693,16 +2693,16 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>57.2</v>
+        <v>56</v>
       </c>
       <c r="D44" t="n">
-        <v>3375</v>
+        <v>3445</v>
       </c>
       <c r="E44" t="n">
         <v>1410</v>
       </c>
       <c r="F44" t="n">
-        <v>139.4</v>
+        <v>144.3</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>82575000000</v>
       </c>
       <c r="N44" t="n">
-        <v>144397012500</v>
+        <v>147391913500</v>
       </c>
     </row>
     <row r="45">
@@ -2745,16 +2745,16 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>78.2</v>
+        <v>77.2</v>
       </c>
       <c r="D45" t="n">
-        <v>2289</v>
+        <v>2320</v>
       </c>
       <c r="E45" t="n">
         <v>1303.446424801713</v>
       </c>
       <c r="F45" t="n">
-        <v>75.59999999999999</v>
+        <v>78</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>91090000000</v>
       </c>
       <c r="N45" t="n">
-        <v>116482174200</v>
+        <v>118059696000</v>
       </c>
     </row>
     <row r="46">
@@ -2797,16 +2797,16 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>43.2</v>
+        <v>42.8</v>
       </c>
       <c r="D46" t="n">
-        <v>2351.5</v>
+        <v>2374</v>
       </c>
       <c r="E46" t="n">
         <v>2032.365850102071</v>
       </c>
       <c r="F46" t="n">
-        <v>15.7</v>
+        <v>16.8</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>323730000000</v>
       </c>
       <c r="N46" t="n">
-        <v>748971562000</v>
+        <v>756137992000</v>
       </c>
     </row>
     <row r="47">
@@ -2849,10 +2849,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>783.4</v>
+        <v>781.2</v>
       </c>
       <c r="D47" t="n">
-        <v>3645</v>
+        <v>3655</v>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
@@ -2882,7 +2882,7 @@
         <v>609113000000</v>
       </c>
       <c r="N47" t="n">
-        <v>77757327000</v>
+        <v>77970653000</v>
       </c>
     </row>
     <row r="48">
@@ -2897,16 +2897,16 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>116.4</v>
+        <v>115.3</v>
       </c>
       <c r="D48" t="n">
-        <v>1840</v>
+        <v>1858</v>
       </c>
       <c r="E48" t="n">
         <v>1469.167707232735</v>
       </c>
       <c r="F48" t="n">
-        <v>25.2</v>
+        <v>26.5</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>133437000000</v>
       </c>
       <c r="N48" t="n">
-        <v>114629792000</v>
+        <v>115751170400</v>
       </c>
     </row>
     <row r="49">
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>116.4</v>
+        <v>115.3</v>
       </c>
       <c r="D49" t="n">
-        <v>1840</v>
+        <v>1858</v>
       </c>
       <c r="E49" t="n">
         <v>1489.94784546053</v>
       </c>
       <c r="F49" t="n">
-        <v>23.5</v>
+        <v>24.7</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>133437000000</v>
       </c>
       <c r="N49" t="n">
-        <v>114629792000</v>
+        <v>115751170400</v>
       </c>
     </row>
     <row r="50">
@@ -3001,16 +3001,16 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>99.3</v>
+        <v>99</v>
       </c>
       <c r="D50" t="n">
-        <v>1473</v>
+        <v>1478</v>
       </c>
       <c r="E50" t="n">
         <v>1212.640316205534</v>
       </c>
       <c r="F50" t="n">
-        <v>21.5</v>
+        <v>21.9</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>13446000000</v>
       </c>
       <c r="N50" t="n">
-        <v>13537827450</v>
+        <v>13583780700</v>
       </c>
     </row>
     <row r="51">
@@ -3053,16 +3053,16 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>10.3</v>
+        <v>10.1</v>
       </c>
       <c r="D51" t="n">
-        <v>1614</v>
+        <v>1641</v>
       </c>
       <c r="E51" t="n">
         <v>1344.518957928979</v>
       </c>
       <c r="F51" t="n">
-        <v>20</v>
+        <v>22.1</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>55269000000</v>
       </c>
       <c r="N51" t="n">
-        <v>536893872000</v>
+        <v>545875368000</v>
       </c>
     </row>
     <row r="52">
@@ -3105,16 +3105,16 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>33.6</v>
+        <v>33.2</v>
       </c>
       <c r="D52" t="n">
-        <v>1119.5</v>
+        <v>1133.5</v>
       </c>
       <c r="E52" t="n">
         <v>2968.770104870396</v>
       </c>
       <c r="F52" t="n">
-        <v>-62.3</v>
+        <v>-61.8</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         <v>364930000000</v>
       </c>
       <c r="N52" t="n">
-        <v>1085439185632</v>
+        <v>1099013235296</v>
       </c>
     </row>
     <row r="53">
@@ -3157,16 +3157,16 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>82.40000000000001</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>2203</v>
+        <v>2190</v>
       </c>
       <c r="E53" t="n">
         <v>1190</v>
       </c>
       <c r="F53" t="n">
-        <v>85.09999999999999</v>
+        <v>84</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>39477000000</v>
       </c>
       <c r="N53" t="n">
-        <v>47918995100</v>
+        <v>47636223000</v>
       </c>
     </row>
     <row r="54">
@@ -3209,16 +3209,16 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>40.3</v>
+        <v>39.8</v>
       </c>
       <c r="D54" t="n">
-        <v>5405</v>
+        <v>5478</v>
       </c>
       <c r="E54" t="n">
         <v>1716.713876475349</v>
       </c>
       <c r="F54" t="n">
-        <v>214.8</v>
+        <v>219.1</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>564005000000</v>
       </c>
       <c r="N54" t="n">
-        <v>1398554560000</v>
+        <v>1417443456000</v>
       </c>
     </row>
     <row r="55">
@@ -3261,16 +3261,16 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>121.5</v>
+        <v>118.7</v>
       </c>
       <c r="D55" t="n">
-        <v>1118</v>
+        <v>1144</v>
       </c>
       <c r="E55" t="n">
         <v>438.851170934559</v>
       </c>
       <c r="F55" t="n">
-        <v>154.8</v>
+        <v>160.7</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>79323000000</v>
       </c>
       <c r="N55" t="n">
-        <v>65309870600</v>
+        <v>66828704800</v>
       </c>
     </row>
     <row r="56">
@@ -3313,16 +3313,16 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>55.4</v>
+        <v>55.3</v>
       </c>
       <c r="D56" t="n">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="E56" t="n">
         <v>1605.189780306002</v>
       </c>
       <c r="F56" t="n">
-        <v>-18.2</v>
+        <v>-18.1</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>48290000000</v>
       </c>
       <c r="N56" t="n">
-        <v>87128579200</v>
+        <v>87261296000</v>
       </c>
     </row>
     <row r="57">
@@ -3365,16 +3365,16 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>80.8</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>7200</v>
+        <v>7350</v>
       </c>
       <c r="E57" t="n">
         <v>4549.503641591014</v>
       </c>
       <c r="F57" t="n">
-        <v>58.3</v>
+        <v>61.6</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         <v>96906000000</v>
       </c>
       <c r="N57" t="n">
-        <v>119986560000</v>
+        <v>122486280000</v>
       </c>
     </row>
     <row r="58">
@@ -3417,16 +3417,16 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>24.9</v>
+        <v>24.5</v>
       </c>
       <c r="D58" t="n">
-        <v>16095</v>
+        <v>16340</v>
       </c>
       <c r="E58" t="n">
         <v>13739.64575539568</v>
       </c>
       <c r="F58" t="n">
-        <v>17.1</v>
+        <v>18.9</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>265431000000</v>
       </c>
       <c r="N58" t="n">
-        <v>1066639792500</v>
+        <v>1082876310000</v>
       </c>
     </row>
     <row r="59">
@@ -3469,16 +3469,16 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>24.9</v>
+        <v>24.5</v>
       </c>
       <c r="D59" t="n">
-        <v>16095</v>
+        <v>16340</v>
       </c>
       <c r="E59" t="n">
         <v>12975.86280814577</v>
       </c>
       <c r="F59" t="n">
-        <v>24</v>
+        <v>25.9</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>265431000000</v>
       </c>
       <c r="N59" t="n">
-        <v>1066639792500</v>
+        <v>1082876310000</v>
       </c>
     </row>
     <row r="60">
@@ -3521,16 +3521,16 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>35</v>
+        <v>35.3</v>
       </c>
       <c r="D60" t="n">
-        <v>1748</v>
+        <v>1735</v>
       </c>
       <c r="E60" t="n">
         <v>1529.631984751819</v>
       </c>
       <c r="F60" t="n">
-        <v>14.3</v>
+        <v>13.4</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         <v>4358822000</v>
       </c>
       <c r="N60" t="n">
-        <v>12454937000</v>
+        <v>12362308750</v>
       </c>
     </row>
     <row r="61">
@@ -3573,16 +3573,16 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>35</v>
+        <v>35.3</v>
       </c>
       <c r="D61" t="n">
-        <v>1748</v>
+        <v>1735</v>
       </c>
       <c r="E61" t="n">
         <v>1449.995380693296</v>
       </c>
       <c r="F61" t="n">
-        <v>20.6</v>
+        <v>19.7</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>4358822000</v>
       </c>
       <c r="N61" t="n">
-        <v>12454937000</v>
+        <v>12362308750</v>
       </c>
     </row>
     <row r="62">
@@ -3625,16 +3625,16 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>107.7</v>
+        <v>106.3</v>
       </c>
       <c r="D62" t="n">
-        <v>1574</v>
+        <v>1595</v>
       </c>
       <c r="E62" t="n">
         <v>1160.8</v>
       </c>
       <c r="F62" t="n">
-        <v>35.6</v>
+        <v>37.4</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>458473000000</v>
       </c>
       <c r="N62" t="n">
-        <v>425700866816</v>
+        <v>431380484480</v>
       </c>
     </row>
     <row r="63">
@@ -3677,16 +3677,16 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>12.9</v>
+        <v>12.7</v>
       </c>
       <c r="D63" t="n">
-        <v>3472</v>
+        <v>3533</v>
       </c>
       <c r="E63" t="n">
         <v>2561.705402476645</v>
       </c>
       <c r="F63" t="n">
-        <v>35.5</v>
+        <v>37.9</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3714,7 +3714,7 @@
         <v>81977000000</v>
       </c>
       <c r="N63" t="n">
-        <v>635285728000</v>
+        <v>646447142000</v>
       </c>
     </row>
     <row r="64">
@@ -3729,16 +3729,16 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>41.3</v>
+        <v>41.5</v>
       </c>
       <c r="D64" t="n">
-        <v>2232</v>
+        <v>2218</v>
       </c>
       <c r="E64" t="n">
         <v>1710</v>
       </c>
       <c r="F64" t="n">
-        <v>30.5</v>
+        <v>29.7</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>15543000000</v>
       </c>
       <c r="N64" t="n">
-        <v>37658750400</v>
+        <v>37422539600</v>
       </c>
     </row>
     <row r="65">
@@ -3781,16 +3781,16 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>41.3</v>
+        <v>41.5</v>
       </c>
       <c r="D65" t="n">
-        <v>2232</v>
+        <v>2218</v>
       </c>
       <c r="E65" t="n">
         <v>1710</v>
       </c>
       <c r="F65" t="n">
-        <v>30.5</v>
+        <v>29.7</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>15543000000</v>
       </c>
       <c r="N65" t="n">
-        <v>37658750400</v>
+        <v>37422539600</v>
       </c>
     </row>
     <row r="66">
@@ -3833,16 +3833,16 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>33.8</v>
+        <v>33.2</v>
       </c>
       <c r="D66" t="n">
-        <v>4215</v>
+        <v>4280</v>
       </c>
       <c r="E66" t="n">
         <v>1492.806001579363</v>
       </c>
       <c r="F66" t="n">
-        <v>182.4</v>
+        <v>186.7</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3870,7 +3870,7 @@
         <v>106485000000</v>
       </c>
       <c r="N66" t="n">
-        <v>315469989000</v>
+        <v>320334888000</v>
       </c>
     </row>
     <row r="67">
@@ -3888,7 +3888,7 @@
         <v>12.7</v>
       </c>
       <c r="D67" t="n">
-        <v>10020</v>
+        <v>10015</v>
       </c>
       <c r="E67" t="n">
         <v>6272.971195510064</v>
@@ -3922,7 +3922,7 @@
         <v>153254000000</v>
       </c>
       <c r="N67" t="n">
-        <v>1203852900000</v>
+        <v>1203252175000</v>
       </c>
     </row>
     <row r="68">
@@ -3937,16 +3937,16 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>53.4</v>
+        <v>52.7</v>
       </c>
       <c r="D68" t="n">
-        <v>868</v>
+        <v>880</v>
       </c>
       <c r="E68" t="n">
         <v>896.0103264198827</v>
       </c>
       <c r="F68" t="n">
-        <v>-3.1</v>
+        <v>-1.8</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>8417495000</v>
       </c>
       <c r="N68" t="n">
-        <v>15752290400</v>
+        <v>15970064000</v>
       </c>
     </row>
     <row r="69">
@@ -3989,16 +3989,16 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>78.3</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>2336</v>
+        <v>2358</v>
       </c>
       <c r="E69" t="n">
         <v>3610</v>
       </c>
       <c r="F69" t="n">
-        <v>-35.3</v>
+        <v>-34.7</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -4026,7 +4026,7 @@
         <v>122147000000</v>
       </c>
       <c r="N69" t="n">
-        <v>155989670400</v>
+        <v>157458751200</v>
       </c>
     </row>
   </sheetData>

--- a/docs/アクティビスト銘柄_資産判定.xlsx
+++ b/docs/アクティビスト銘柄_資産判定.xlsx
@@ -517,16 +517,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>89.5</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>2945</v>
+        <v>2965</v>
       </c>
       <c r="E2" t="n">
         <v>1600</v>
       </c>
       <c r="F2" t="n">
-        <v>84.09999999999999</v>
+        <v>85.3</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -554,7 +554,7 @@
         <v>88496000000</v>
       </c>
       <c r="N2" t="n">
-        <v>98835672500</v>
+        <v>99506882500</v>
       </c>
     </row>
     <row r="3">
@@ -569,16 +569,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>56</v>
+        <v>56.2</v>
       </c>
       <c r="D3" t="n">
-        <v>5290</v>
+        <v>5270</v>
       </c>
       <c r="E3" t="n">
         <v>4265.455132343447</v>
       </c>
       <c r="F3" t="n">
-        <v>24</v>
+        <v>23.6</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
         <v>14129000000</v>
       </c>
       <c r="N3" t="n">
-        <v>25218964100</v>
+        <v>25123618300</v>
       </c>
     </row>
     <row r="4">
@@ -624,13 +624,13 @@
         <v>20.1</v>
       </c>
       <c r="D4" t="n">
-        <v>2197.5</v>
+        <v>2195</v>
       </c>
       <c r="E4" t="n">
         <v>2269.918722577861</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.2</v>
+        <v>-3.3</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>90811000000</v>
       </c>
       <c r="N4" t="n">
-        <v>452120260080</v>
+        <v>451605902560</v>
       </c>
     </row>
     <row r="5">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>121.1</v>
+        <v>120.3</v>
       </c>
       <c r="D5" t="n">
-        <v>2907.5</v>
+        <v>2927</v>
       </c>
       <c r="E5" t="n">
         <v>4991.027246539169</v>
       </c>
       <c r="F5" t="n">
-        <v>-41.7</v>
+        <v>-41.4</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -710,7 +710,7 @@
         <v>1006135000000</v>
       </c>
       <c r="N5" t="n">
-        <v>830725131520</v>
+        <v>836296632832</v>
       </c>
     </row>
     <row r="6">
@@ -728,13 +728,13 @@
         <v>7.4</v>
       </c>
       <c r="D6" t="n">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E6" t="n">
         <v>653.0713101160862</v>
       </c>
       <c r="F6" t="n">
-        <v>56.5</v>
+        <v>56.2</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>1810139000</v>
       </c>
       <c r="N6" t="n">
-        <v>24452269800</v>
+        <v>24404418000</v>
       </c>
     </row>
     <row r="7">
@@ -780,13 +780,13 @@
         <v>1.4</v>
       </c>
       <c r="D7" t="n">
-        <v>7378</v>
+        <v>7464</v>
       </c>
       <c r="E7" t="n">
         <v>2697.360927565142</v>
       </c>
       <c r="F7" t="n">
-        <v>173.5</v>
+        <v>176.7</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -814,7 +814,7 @@
         <v>8148000000</v>
       </c>
       <c r="N7" t="n">
-        <v>575256757600</v>
+        <v>581962108800</v>
       </c>
     </row>
     <row r="8">
@@ -829,16 +829,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="D8" t="n">
-        <v>4000</v>
+        <v>3985</v>
       </c>
       <c r="E8" t="n">
         <v>7960</v>
       </c>
       <c r="F8" t="n">
-        <v>-49.7</v>
+        <v>-49.9</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         <v>34259000000</v>
       </c>
       <c r="N8" t="n">
-        <v>152877600000</v>
+        <v>152303910500</v>
       </c>
     </row>
     <row r="9">
@@ -881,16 +881,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>50.3</v>
+        <v>48.9</v>
       </c>
       <c r="D9" t="n">
-        <v>6620</v>
+        <v>6810</v>
       </c>
       <c r="E9" t="n">
         <v>2920</v>
       </c>
       <c r="F9" t="n">
-        <v>126.7</v>
+        <v>133.2</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>26036000000</v>
       </c>
       <c r="N9" t="n">
-        <v>51783692200</v>
+        <v>53269931100</v>
       </c>
     </row>
     <row r="10">
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>95.59999999999999</v>
+        <v>95.5</v>
       </c>
       <c r="D10" t="n">
-        <v>1869</v>
+        <v>1872</v>
       </c>
       <c r="E10" t="n">
         <v>2298.672482457804</v>
       </c>
       <c r="F10" t="n">
-        <v>-18.7</v>
+        <v>-18.6</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>44925000000</v>
       </c>
       <c r="N10" t="n">
-        <v>46980492300</v>
+        <v>47055902400</v>
       </c>
     </row>
     <row r="11">
@@ -985,16 +985,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>47.1</v>
+        <v>47.3</v>
       </c>
       <c r="D11" t="n">
-        <v>835.7000122070312</v>
+        <v>838.0999755859375</v>
       </c>
       <c r="E11" t="n">
         <v>590</v>
       </c>
       <c r="F11" t="n">
-        <v>41.6</v>
+        <v>42.1</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>362887000000</v>
       </c>
       <c r="N11" t="n">
-        <v>770731864244</v>
+        <v>766801134463</v>
       </c>
     </row>
     <row r="12">
@@ -1037,16 +1037,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>29.2</v>
+        <v>28.7</v>
       </c>
       <c r="D12" t="n">
-        <v>2022</v>
+        <v>2056</v>
       </c>
       <c r="E12" t="n">
         <v>1347.74653160027</v>
       </c>
       <c r="F12" t="n">
-        <v>50</v>
+        <v>52.6</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1074,7 +1074,7 @@
         <v>14143000000</v>
       </c>
       <c r="N12" t="n">
-        <v>48456421200</v>
+        <v>49271217600</v>
       </c>
     </row>
     <row r="13">
@@ -1089,16 +1089,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>49.9</v>
+        <v>50.9</v>
       </c>
       <c r="D13" t="n">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="E13" t="n">
         <v>290.3401328717133</v>
       </c>
       <c r="F13" t="n">
-        <v>6.8</v>
+        <v>4.7</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         <v>5368822000</v>
       </c>
       <c r="N13" t="n">
-        <v>10758953000</v>
+        <v>10550715200</v>
       </c>
     </row>
     <row r="14">
@@ -1141,16 +1141,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="D14" t="n">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E14" t="n">
         <v>421.6950726175476</v>
       </c>
       <c r="F14" t="n">
-        <v>30.7</v>
+        <v>30.2</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>2256815000</v>
       </c>
       <c r="N14" t="n">
-        <v>15434942600</v>
+        <v>15378917400</v>
       </c>
     </row>
     <row r="15">
@@ -1193,16 +1193,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>55.5</v>
+        <v>55.2</v>
       </c>
       <c r="D15" t="n">
-        <v>5660</v>
+        <v>5694</v>
       </c>
       <c r="E15" t="n">
         <v>3405.914389596362</v>
       </c>
       <c r="F15" t="n">
-        <v>66.2</v>
+        <v>67.2</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>193706000000</v>
       </c>
       <c r="N15" t="n">
-        <v>349076538000</v>
+        <v>351173464200</v>
       </c>
     </row>
     <row r="16">
@@ -1245,16 +1245,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>55.5</v>
+        <v>55.2</v>
       </c>
       <c r="D16" t="n">
-        <v>5660</v>
+        <v>5694</v>
       </c>
       <c r="E16" t="n">
         <v>2714.613787300615</v>
       </c>
       <c r="F16" t="n">
-        <v>108.5</v>
+        <v>109.8</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>193706000000</v>
       </c>
       <c r="N16" t="n">
-        <v>349076538000</v>
+        <v>351173464200</v>
       </c>
     </row>
     <row r="17">
@@ -1297,16 +1297,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.5</v>
+        <v>1712.5</v>
       </c>
       <c r="E17" t="n">
         <v>1512.21980974841</v>
       </c>
       <c r="F17" t="n">
-        <v>12.5</v>
+        <v>13.2</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1334,7 +1334,7 @@
         <v>91015000000</v>
       </c>
       <c r="N17" t="n">
-        <v>559825842112</v>
+        <v>563445051200</v>
       </c>
     </row>
     <row r="18">
@@ -1349,16 +1349,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>59.1</v>
+        <v>57.6</v>
       </c>
       <c r="D18" t="n">
-        <v>3383</v>
+        <v>3471</v>
       </c>
       <c r="E18" t="n">
         <v>2420</v>
       </c>
       <c r="F18" t="n">
-        <v>39.8</v>
+        <v>43.4</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>414670000000</v>
       </c>
       <c r="N18" t="n">
-        <v>701810116000</v>
+        <v>720065892000</v>
       </c>
     </row>
     <row r="19">
@@ -1401,16 +1401,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>45.4</v>
+        <v>44.4</v>
       </c>
       <c r="D19" t="n">
-        <v>3253</v>
+        <v>3325</v>
       </c>
       <c r="E19" t="n">
         <v>1598.889989734285</v>
       </c>
       <c r="F19" t="n">
-        <v>103.5</v>
+        <v>108</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>178465000000</v>
       </c>
       <c r="N19" t="n">
-        <v>393238905000</v>
+        <v>401942625000</v>
       </c>
     </row>
     <row r="20">
@@ -1453,16 +1453,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>82.90000000000001</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>1139</v>
+        <v>1129</v>
       </c>
       <c r="E20" t="n">
         <v>668.9358717434869</v>
       </c>
       <c r="F20" t="n">
-        <v>70.3</v>
+        <v>68.8</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>15118000000</v>
       </c>
       <c r="N20" t="n">
-        <v>18243363000</v>
+        <v>18083193000</v>
       </c>
     </row>
     <row r="21">
@@ -1505,16 +1505,16 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>72.5</v>
+        <v>73.8</v>
       </c>
       <c r="D21" t="n">
-        <v>2106</v>
+        <v>2045</v>
       </c>
       <c r="E21" t="n">
         <v>1270</v>
       </c>
       <c r="F21" t="n">
-        <v>65.8</v>
+        <v>61</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>26544000000</v>
       </c>
       <c r="N21" t="n">
-        <v>36604175400</v>
+        <v>35964188000</v>
       </c>
     </row>
     <row r="22">
@@ -1557,16 +1557,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>72.5</v>
+        <v>73.8</v>
       </c>
       <c r="D22" t="n">
-        <v>2106</v>
+        <v>2045</v>
       </c>
       <c r="E22" t="n">
         <v>1170</v>
       </c>
       <c r="F22" t="n">
-        <v>80</v>
+        <v>74.8</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>26544000000</v>
       </c>
       <c r="N22" t="n">
-        <v>36604175400</v>
+        <v>35964188000</v>
       </c>
     </row>
     <row r="23">
@@ -1609,16 +1609,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>66</v>
+        <v>65.5</v>
       </c>
       <c r="D23" t="n">
-        <v>6074</v>
+        <v>6120</v>
       </c>
       <c r="E23" t="n">
         <v>4137.137750115735</v>
       </c>
       <c r="F23" t="n">
-        <v>46.8</v>
+        <v>47.9</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>284031000000</v>
       </c>
       <c r="N23" t="n">
-        <v>430061649504</v>
+        <v>433318619520</v>
       </c>
     </row>
     <row r="24">
@@ -1661,16 +1661,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>69.8</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>1850</v>
+        <v>1815</v>
       </c>
       <c r="E24" t="n">
         <v>1257.709264012363</v>
       </c>
       <c r="F24" t="n">
-        <v>47.1</v>
+        <v>44.3</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>261172000000</v>
       </c>
       <c r="N24" t="n">
-        <v>374356764800</v>
+        <v>367274339520</v>
       </c>
     </row>
     <row r="25">
@@ -1713,16 +1713,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>69.8</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>1850</v>
+        <v>1815</v>
       </c>
       <c r="E25" t="n">
         <v>1217.254500469243</v>
       </c>
       <c r="F25" t="n">
-        <v>52</v>
+        <v>49.1</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>261172000000</v>
       </c>
       <c r="N25" t="n">
-        <v>374356764800</v>
+        <v>367274339520</v>
       </c>
     </row>
     <row r="26">
@@ -1765,16 +1765,16 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>58.8</v>
+        <v>58.5</v>
       </c>
       <c r="D26" t="n">
-        <v>3820</v>
+        <v>3840</v>
       </c>
       <c r="E26" t="n">
         <v>2387</v>
       </c>
       <c r="F26" t="n">
-        <v>60</v>
+        <v>60.9</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>105205000000</v>
       </c>
       <c r="N26" t="n">
-        <v>178854310000</v>
+        <v>179790720000</v>
       </c>
     </row>
     <row r="27">
@@ -1820,13 +1820,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>5824</v>
+        <v>5834</v>
       </c>
       <c r="E27" t="n">
         <v>2420.370957920882</v>
       </c>
       <c r="F27" t="n">
-        <v>140.6</v>
+        <v>141</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>28931000000</v>
       </c>
       <c r="N27" t="n">
-        <v>293955334400</v>
+        <v>294460065400</v>
       </c>
     </row>
     <row r="28">
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>68.90000000000001</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="E28" t="n">
         <v>930</v>
       </c>
       <c r="F28" t="n">
-        <v>9.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>20765000000</v>
       </c>
       <c r="N28" t="n">
-        <v>30129474000</v>
+        <v>29834087000</v>
       </c>
     </row>
     <row r="29">
@@ -1973,16 +1973,16 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>51.8</v>
+        <v>53.5</v>
       </c>
       <c r="D30" t="n">
-        <v>2975</v>
+        <v>2880</v>
       </c>
       <c r="E30" t="n">
         <v>3155.301177013616</v>
       </c>
       <c r="F30" t="n">
-        <v>-5.7</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>98642000000</v>
       </c>
       <c r="N30" t="n">
-        <v>190412792500</v>
+        <v>184332384000</v>
       </c>
     </row>
     <row r="31">
@@ -2025,16 +2025,16 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>26.5</v>
+        <v>26.3</v>
       </c>
       <c r="D31" t="n">
-        <v>5490</v>
+        <v>5530</v>
       </c>
       <c r="E31" t="n">
         <v>2617.980935875217</v>
       </c>
       <c r="F31" t="n">
-        <v>109.7</v>
+        <v>111.2</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>53152000000</v>
       </c>
       <c r="N31" t="n">
-        <v>200848905000</v>
+        <v>202312285000</v>
       </c>
     </row>
     <row r="32">
@@ -2077,16 +2077,16 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>44.7</v>
+        <v>44.9</v>
       </c>
       <c r="D32" t="n">
-        <v>1456.5</v>
+        <v>1449.5</v>
       </c>
       <c r="E32" t="n">
         <v>1111.90611839092</v>
       </c>
       <c r="F32" t="n">
-        <v>31</v>
+        <v>30.4</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>101020000000</v>
       </c>
       <c r="N32" t="n">
-        <v>226176972000</v>
+        <v>225089956000</v>
       </c>
     </row>
     <row r="33">
@@ -2129,16 +2129,16 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="D33" t="n">
-        <v>2485</v>
+        <v>2474</v>
       </c>
       <c r="E33" t="n">
         <v>1678.083113259255</v>
       </c>
       <c r="F33" t="n">
-        <v>48.1</v>
+        <v>47.4</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
         <v>19554000000</v>
       </c>
       <c r="N33" t="n">
-        <v>81935917000</v>
+        <v>81573222800</v>
       </c>
     </row>
     <row r="34">
@@ -2184,7 +2184,7 @@
         <v>40.6</v>
       </c>
       <c r="D34" t="n">
-        <v>2976</v>
+        <v>2973.5</v>
       </c>
       <c r="E34" t="n">
         <v>2560</v>
@@ -2218,7 +2218,7 @@
         <v>180306000000</v>
       </c>
       <c r="N34" t="n">
-        <v>443938824192</v>
+        <v>443565891712</v>
       </c>
     </row>
     <row r="35">
@@ -2233,16 +2233,16 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="D35" t="n">
-        <v>3100</v>
+        <v>3117</v>
       </c>
       <c r="E35" t="n">
         <v>4156.179843576074</v>
       </c>
       <c r="F35" t="n">
-        <v>-25.4</v>
+        <v>-25</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2270,7 +2270,7 @@
         <v>90923000000</v>
       </c>
       <c r="N35" t="n">
-        <v>804719724800</v>
+        <v>809132703936</v>
       </c>
     </row>
     <row r="36">
@@ -2285,16 +2285,16 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>72.40000000000001</v>
+        <v>72.7</v>
       </c>
       <c r="D36" t="n">
-        <v>3930</v>
+        <v>3915</v>
       </c>
       <c r="E36" t="n">
         <v>3530</v>
       </c>
       <c r="F36" t="n">
-        <v>11.3</v>
+        <v>10.9</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>107738000000</v>
       </c>
       <c r="N36" t="n">
-        <v>148824384000</v>
+        <v>148256352000</v>
       </c>
     </row>
     <row r="37">
@@ -2337,16 +2337,16 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>63.4</v>
+        <v>62.4</v>
       </c>
       <c r="D37" t="n">
-        <v>860</v>
+        <v>874</v>
       </c>
       <c r="E37" t="n">
         <v>3590.021519088228</v>
       </c>
       <c r="F37" t="n">
-        <v>-76</v>
+        <v>-75.7</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         <v>48088000000</v>
       </c>
       <c r="N37" t="n">
-        <v>75824397440</v>
+        <v>77058748096</v>
       </c>
     </row>
     <row r="38">
@@ -2389,16 +2389,16 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>31.2</v>
+        <v>31.3</v>
       </c>
       <c r="D38" t="n">
-        <v>3045</v>
+        <v>3030</v>
       </c>
       <c r="E38" t="n">
         <v>2480</v>
       </c>
       <c r="F38" t="n">
-        <v>22.8</v>
+        <v>22.2</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>20277000000</v>
       </c>
       <c r="N38" t="n">
-        <v>65012272500</v>
+        <v>64692015000</v>
       </c>
     </row>
     <row r="39">
@@ -2441,16 +2441,16 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>31.2</v>
+        <v>31.3</v>
       </c>
       <c r="D39" t="n">
-        <v>3045</v>
+        <v>3030</v>
       </c>
       <c r="E39" t="n">
         <v>2504.338645418327</v>
       </c>
       <c r="F39" t="n">
-        <v>21.6</v>
+        <v>21</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         <v>20277000000</v>
       </c>
       <c r="N39" t="n">
-        <v>65012272500</v>
+        <v>64692015000</v>
       </c>
     </row>
     <row r="40">
@@ -2493,16 +2493,16 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>31.2</v>
+        <v>31.3</v>
       </c>
       <c r="D40" t="n">
-        <v>3045</v>
+        <v>3030</v>
       </c>
       <c r="E40" t="n">
         <v>2880</v>
       </c>
       <c r="F40" t="n">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>20277000000</v>
       </c>
       <c r="N40" t="n">
-        <v>65012272500</v>
+        <v>64692015000</v>
       </c>
     </row>
     <row r="41">
@@ -2545,16 +2545,16 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>276.1</v>
+        <v>276.9</v>
       </c>
       <c r="D41" t="n">
-        <v>2279.5</v>
+        <v>2273</v>
       </c>
       <c r="E41" t="n">
         <v>2190</v>
       </c>
       <c r="F41" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>870891000000</v>
       </c>
       <c r="N41" t="n">
-        <v>315439471264</v>
+        <v>314539994816</v>
       </c>
     </row>
     <row r="42">
@@ -2597,10 +2597,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>38.1</v>
+        <v>38.4</v>
       </c>
       <c r="D42" t="n">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
@@ -2630,7 +2630,7 @@
         <v>35403000000</v>
       </c>
       <c r="N42" t="n">
-        <v>92916450000</v>
+        <v>92090526000</v>
       </c>
     </row>
     <row r="43">
@@ -2645,10 +2645,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>38.1</v>
+        <v>38.4</v>
       </c>
       <c r="D43" t="n">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
@@ -2678,7 +2678,7 @@
         <v>35403000000</v>
       </c>
       <c r="N43" t="n">
-        <v>92916450000</v>
+        <v>92090526000</v>
       </c>
     </row>
     <row r="44">
@@ -2693,16 +2693,16 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>56</v>
+        <v>56.4</v>
       </c>
       <c r="D44" t="n">
-        <v>3445</v>
+        <v>3425</v>
       </c>
       <c r="E44" t="n">
         <v>1410</v>
       </c>
       <c r="F44" t="n">
-        <v>144.3</v>
+        <v>142.9</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>82575000000</v>
       </c>
       <c r="N44" t="n">
-        <v>147391913500</v>
+        <v>146536227500</v>
       </c>
     </row>
     <row r="45">
@@ -2745,16 +2745,16 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>77.2</v>
+        <v>76.3</v>
       </c>
       <c r="D45" t="n">
-        <v>2320</v>
+        <v>2347</v>
       </c>
       <c r="E45" t="n">
         <v>1303.446424801713</v>
       </c>
       <c r="F45" t="n">
-        <v>78</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>91090000000</v>
       </c>
       <c r="N45" t="n">
-        <v>118059696000</v>
+        <v>119433666600</v>
       </c>
     </row>
     <row r="46">
@@ -2800,7 +2800,7 @@
         <v>42.8</v>
       </c>
       <c r="D46" t="n">
-        <v>2374</v>
+        <v>2373.5</v>
       </c>
       <c r="E46" t="n">
         <v>2032.365850102071</v>
@@ -2834,7 +2834,7 @@
         <v>323730000000</v>
       </c>
       <c r="N46" t="n">
-        <v>756137992000</v>
+        <v>755978738000</v>
       </c>
     </row>
     <row r="47">
@@ -2849,10 +2849,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>781.2</v>
+        <v>788.8</v>
       </c>
       <c r="D47" t="n">
-        <v>3655</v>
+        <v>3620</v>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
@@ -2882,7 +2882,7 @@
         <v>609113000000</v>
       </c>
       <c r="N47" t="n">
-        <v>77970653000</v>
+        <v>77224012000</v>
       </c>
     </row>
     <row r="48">
@@ -2897,16 +2897,16 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>115.3</v>
+        <v>114.7</v>
       </c>
       <c r="D48" t="n">
-        <v>1858</v>
+        <v>1867</v>
       </c>
       <c r="E48" t="n">
         <v>1469.167707232735</v>
       </c>
       <c r="F48" t="n">
-        <v>26.5</v>
+        <v>27.1</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>133437000000</v>
       </c>
       <c r="N48" t="n">
-        <v>115751170400</v>
+        <v>116311859600</v>
       </c>
     </row>
     <row r="49">
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>115.3</v>
+        <v>114.7</v>
       </c>
       <c r="D49" t="n">
-        <v>1858</v>
+        <v>1867</v>
       </c>
       <c r="E49" t="n">
         <v>1489.94784546053</v>
       </c>
       <c r="F49" t="n">
-        <v>24.7</v>
+        <v>25.3</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>133437000000</v>
       </c>
       <c r="N49" t="n">
-        <v>115751170400</v>
+        <v>116311859600</v>
       </c>
     </row>
     <row r="50">
@@ -3001,16 +3001,16 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>99</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>1478</v>
+        <v>1484</v>
       </c>
       <c r="E50" t="n">
         <v>1212.640316205534</v>
       </c>
       <c r="F50" t="n">
-        <v>21.9</v>
+        <v>22.4</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>13446000000</v>
       </c>
       <c r="N50" t="n">
-        <v>13583780700</v>
+        <v>13638924600</v>
       </c>
     </row>
     <row r="51">
@@ -3056,13 +3056,13 @@
         <v>10.1</v>
       </c>
       <c r="D51" t="n">
-        <v>1641</v>
+        <v>1650.5</v>
       </c>
       <c r="E51" t="n">
         <v>1344.518957928979</v>
       </c>
       <c r="F51" t="n">
-        <v>22.1</v>
+        <v>22.8</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>55269000000</v>
       </c>
       <c r="N51" t="n">
-        <v>545875368000</v>
+        <v>549035524000</v>
       </c>
     </row>
     <row r="52">
@@ -3105,16 +3105,16 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="D52" t="n">
-        <v>1133.5</v>
+        <v>1136</v>
       </c>
       <c r="E52" t="n">
         <v>2968.770104870396</v>
       </c>
       <c r="F52" t="n">
-        <v>-61.8</v>
+        <v>-61.7</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         <v>364930000000</v>
       </c>
       <c r="N52" t="n">
-        <v>1099013235296</v>
+        <v>1101437172736</v>
       </c>
     </row>
     <row r="53">
@@ -3157,16 +3157,16 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>82.90000000000001</v>
+        <v>83.3</v>
       </c>
       <c r="D53" t="n">
-        <v>2190</v>
+        <v>2180</v>
       </c>
       <c r="E53" t="n">
         <v>1190</v>
       </c>
       <c r="F53" t="n">
-        <v>84</v>
+        <v>83.2</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>39477000000</v>
       </c>
       <c r="N53" t="n">
-        <v>47636223000</v>
+        <v>47418706000</v>
       </c>
     </row>
     <row r="54">
@@ -3209,16 +3209,16 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>39.8</v>
+        <v>38.8</v>
       </c>
       <c r="D54" t="n">
-        <v>5478</v>
+        <v>5616</v>
       </c>
       <c r="E54" t="n">
         <v>1716.713876475349</v>
       </c>
       <c r="F54" t="n">
-        <v>219.1</v>
+        <v>227.1</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>564005000000</v>
       </c>
       <c r="N54" t="n">
-        <v>1417443456000</v>
+        <v>1453151232000</v>
       </c>
     </row>
     <row r="55">
@@ -3261,16 +3261,16 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>118.7</v>
+        <v>120.9</v>
       </c>
       <c r="D55" t="n">
-        <v>1144</v>
+        <v>1123</v>
       </c>
       <c r="E55" t="n">
         <v>438.851170934559</v>
       </c>
       <c r="F55" t="n">
-        <v>160.7</v>
+        <v>155.9</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>79323000000</v>
       </c>
       <c r="N55" t="n">
-        <v>66828704800</v>
+        <v>65601954100</v>
       </c>
     </row>
     <row r="56">
@@ -3313,16 +3313,16 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>55.3</v>
+        <v>55.9</v>
       </c>
       <c r="D56" t="n">
-        <v>1315</v>
+        <v>1302</v>
       </c>
       <c r="E56" t="n">
         <v>1605.189780306002</v>
       </c>
       <c r="F56" t="n">
-        <v>-18.1</v>
+        <v>-18.9</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>48290000000</v>
       </c>
       <c r="N56" t="n">
-        <v>87261296000</v>
+        <v>86398636800</v>
       </c>
     </row>
     <row r="57">
@@ -3365,16 +3365,16 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>79.09999999999999</v>
+        <v>80.3</v>
       </c>
       <c r="D57" t="n">
-        <v>7350</v>
+        <v>7240</v>
       </c>
       <c r="E57" t="n">
         <v>4549.503641591014</v>
       </c>
       <c r="F57" t="n">
-        <v>61.6</v>
+        <v>59.1</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         <v>96906000000</v>
       </c>
       <c r="N57" t="n">
-        <v>122486280000</v>
+        <v>120653152000</v>
       </c>
     </row>
     <row r="58">
@@ -3417,16 +3417,16 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="D58" t="n">
-        <v>16340</v>
+        <v>16500</v>
       </c>
       <c r="E58" t="n">
         <v>13739.64575539568</v>
       </c>
       <c r="F58" t="n">
-        <v>18.9</v>
+        <v>20.1</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>265431000000</v>
       </c>
       <c r="N58" t="n">
-        <v>1082876310000</v>
+        <v>1093479750000</v>
       </c>
     </row>
     <row r="59">
@@ -3469,16 +3469,16 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="D59" t="n">
-        <v>16340</v>
+        <v>16500</v>
       </c>
       <c r="E59" t="n">
         <v>12975.86280814577</v>
       </c>
       <c r="F59" t="n">
-        <v>25.9</v>
+        <v>27.2</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>265431000000</v>
       </c>
       <c r="N59" t="n">
-        <v>1082876310000</v>
+        <v>1093479750000</v>
       </c>
     </row>
     <row r="60">
@@ -3524,13 +3524,13 @@
         <v>35.3</v>
       </c>
       <c r="D60" t="n">
-        <v>1735</v>
+        <v>1731</v>
       </c>
       <c r="E60" t="n">
         <v>1529.631984751819</v>
       </c>
       <c r="F60" t="n">
-        <v>13.4</v>
+        <v>13.2</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         <v>4358822000</v>
       </c>
       <c r="N60" t="n">
-        <v>12362308750</v>
+        <v>12333807750</v>
       </c>
     </row>
     <row r="61">
@@ -3576,13 +3576,13 @@
         <v>35.3</v>
       </c>
       <c r="D61" t="n">
-        <v>1735</v>
+        <v>1731</v>
       </c>
       <c r="E61" t="n">
         <v>1449.995380693296</v>
       </c>
       <c r="F61" t="n">
-        <v>19.7</v>
+        <v>19.4</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>4358822000</v>
       </c>
       <c r="N61" t="n">
-        <v>12362308750</v>
+        <v>12333807750</v>
       </c>
     </row>
     <row r="62">
@@ -3625,16 +3625,16 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>106.3</v>
+        <v>106.5</v>
       </c>
       <c r="D62" t="n">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="E62" t="n">
         <v>1160.8</v>
       </c>
       <c r="F62" t="n">
-        <v>37.4</v>
+        <v>37.1</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>458473000000</v>
       </c>
       <c r="N62" t="n">
-        <v>431380484480</v>
+        <v>430298652544</v>
       </c>
     </row>
     <row r="63">
@@ -3677,16 +3677,16 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="D63" t="n">
-        <v>3533</v>
+        <v>3594</v>
       </c>
       <c r="E63" t="n">
         <v>2561.705402476645</v>
       </c>
       <c r="F63" t="n">
-        <v>37.9</v>
+        <v>40.3</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3714,7 +3714,7 @@
         <v>81977000000</v>
       </c>
       <c r="N63" t="n">
-        <v>646447142000</v>
+        <v>657608556000</v>
       </c>
     </row>
     <row r="64">
@@ -3729,16 +3729,16 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>41.5</v>
+        <v>41.6</v>
       </c>
       <c r="D64" t="n">
-        <v>2218</v>
+        <v>2213</v>
       </c>
       <c r="E64" t="n">
         <v>1710</v>
       </c>
       <c r="F64" t="n">
-        <v>29.7</v>
+        <v>29.4</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>15543000000</v>
       </c>
       <c r="N64" t="n">
-        <v>37422539600</v>
+        <v>37338178600</v>
       </c>
     </row>
     <row r="65">
@@ -3781,16 +3781,16 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>41.5</v>
+        <v>41.6</v>
       </c>
       <c r="D65" t="n">
-        <v>2218</v>
+        <v>2213</v>
       </c>
       <c r="E65" t="n">
         <v>1710</v>
       </c>
       <c r="F65" t="n">
-        <v>29.7</v>
+        <v>29.4</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>15543000000</v>
       </c>
       <c r="N65" t="n">
-        <v>37422539600</v>
+        <v>37338178600</v>
       </c>
     </row>
     <row r="66">
@@ -3833,16 +3833,16 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>33.2</v>
+        <v>32.7</v>
       </c>
       <c r="D66" t="n">
-        <v>4280</v>
+        <v>4350</v>
       </c>
       <c r="E66" t="n">
         <v>1492.806001579363</v>
       </c>
       <c r="F66" t="n">
-        <v>186.7</v>
+        <v>191.4</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3870,7 +3870,7 @@
         <v>106485000000</v>
       </c>
       <c r="N66" t="n">
-        <v>320334888000</v>
+        <v>325574010000</v>
       </c>
     </row>
     <row r="67">
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="D67" t="n">
-        <v>10015</v>
+        <v>9983</v>
       </c>
       <c r="E67" t="n">
         <v>6272.971195510064</v>
       </c>
       <c r="F67" t="n">
-        <v>59.7</v>
+        <v>59.1</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         <v>153254000000</v>
       </c>
       <c r="N67" t="n">
-        <v>1203252175000</v>
+        <v>1199407535000</v>
       </c>
     </row>
     <row r="68">
@@ -3937,16 +3937,16 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>52.7</v>
+        <v>53.1</v>
       </c>
       <c r="D68" t="n">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="E68" t="n">
         <v>896.0103264198827</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.8</v>
+        <v>-2.6</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>8417495000</v>
       </c>
       <c r="N68" t="n">
-        <v>15970064000</v>
+        <v>15843029400</v>
       </c>
     </row>
     <row r="69">
@@ -3989,16 +3989,16 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>77.59999999999999</v>
+        <v>77.3</v>
       </c>
       <c r="D69" t="n">
-        <v>2358</v>
+        <v>2365</v>
       </c>
       <c r="E69" t="n">
         <v>3610</v>
       </c>
       <c r="F69" t="n">
-        <v>-34.7</v>
+        <v>-34.5</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -4026,7 +4026,7 @@
         <v>122147000000</v>
       </c>
       <c r="N69" t="n">
-        <v>157458751200</v>
+        <v>157926186000</v>
       </c>
     </row>
   </sheetData>

--- a/docs/アクティビスト銘柄_資産判定.xlsx
+++ b/docs/アクティビスト銘柄_資産判定.xlsx
@@ -517,16 +517,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>88.90000000000001</v>
+        <v>89.8</v>
       </c>
       <c r="D2" t="n">
-        <v>2965</v>
+        <v>2936</v>
       </c>
       <c r="E2" t="n">
         <v>1600</v>
       </c>
       <c r="F2" t="n">
-        <v>85.3</v>
+        <v>83.5</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -554,7 +554,7 @@
         <v>88496000000</v>
       </c>
       <c r="N2" t="n">
-        <v>99506882500</v>
+        <v>98533628000</v>
       </c>
     </row>
     <row r="3">
@@ -569,16 +569,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>56.2</v>
+        <v>56.5</v>
       </c>
       <c r="D3" t="n">
-        <v>5270</v>
+        <v>5250</v>
       </c>
       <c r="E3" t="n">
         <v>4265.455132343447</v>
       </c>
       <c r="F3" t="n">
-        <v>23.6</v>
+        <v>23.1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
         <v>14129000000</v>
       </c>
       <c r="N3" t="n">
-        <v>25123618300</v>
+        <v>25028272500</v>
       </c>
     </row>
     <row r="4">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="D4" t="n">
-        <v>2195</v>
+        <v>2216</v>
       </c>
       <c r="E4" t="n">
         <v>2269.918722577861</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.3</v>
+        <v>-2.4</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>90811000000</v>
       </c>
       <c r="N4" t="n">
-        <v>451605902560</v>
+        <v>455855593728</v>
       </c>
     </row>
     <row r="5">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>120.3</v>
+        <v>117.7</v>
       </c>
       <c r="D5" t="n">
-        <v>2927</v>
+        <v>2992</v>
       </c>
       <c r="E5" t="n">
         <v>4991.027246539169</v>
       </c>
       <c r="F5" t="n">
-        <v>-41.4</v>
+        <v>-40.1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -710,7 +710,7 @@
         <v>1006135000000</v>
       </c>
       <c r="N5" t="n">
-        <v>836296632832</v>
+        <v>854868303872</v>
       </c>
     </row>
     <row r="6">
@@ -728,13 +728,13 @@
         <v>7.4</v>
       </c>
       <c r="D6" t="n">
-        <v>1020</v>
+        <v>1028</v>
       </c>
       <c r="E6" t="n">
         <v>653.0713101160862</v>
       </c>
       <c r="F6" t="n">
-        <v>56.2</v>
+        <v>57.4</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>1810139000</v>
       </c>
       <c r="N6" t="n">
-        <v>24404418000</v>
+        <v>24595825200</v>
       </c>
     </row>
     <row r="7">
@@ -780,13 +780,13 @@
         <v>1.4</v>
       </c>
       <c r="D7" t="n">
-        <v>7464</v>
+        <v>7394</v>
       </c>
       <c r="E7" t="n">
         <v>2697.360927565142</v>
       </c>
       <c r="F7" t="n">
-        <v>176.7</v>
+        <v>174.1</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -814,7 +814,7 @@
         <v>8148000000</v>
       </c>
       <c r="N7" t="n">
-        <v>581962108800</v>
+        <v>576504264800</v>
       </c>
     </row>
     <row r="8">
@@ -829,16 +829,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="D8" t="n">
-        <v>3985</v>
+        <v>3975</v>
       </c>
       <c r="E8" t="n">
         <v>7960</v>
       </c>
       <c r="F8" t="n">
-        <v>-49.9</v>
+        <v>-50.1</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         <v>34259000000</v>
       </c>
       <c r="N8" t="n">
-        <v>152303910500</v>
+        <v>151921717500</v>
       </c>
     </row>
     <row r="9">
@@ -881,16 +881,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>48.9</v>
+        <v>48</v>
       </c>
       <c r="D9" t="n">
-        <v>6810</v>
+        <v>6930</v>
       </c>
       <c r="E9" t="n">
         <v>2920</v>
       </c>
       <c r="F9" t="n">
-        <v>133.2</v>
+        <v>137.3</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>26036000000</v>
       </c>
       <c r="N9" t="n">
-        <v>53269931100</v>
+        <v>54208608300</v>
       </c>
     </row>
     <row r="10">
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>95.5</v>
+        <v>95.7</v>
       </c>
       <c r="D10" t="n">
-        <v>1872</v>
+        <v>1867</v>
       </c>
       <c r="E10" t="n">
         <v>2298.672482457804</v>
       </c>
       <c r="F10" t="n">
-        <v>-18.6</v>
+        <v>-18.8</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>44925000000</v>
       </c>
       <c r="N10" t="n">
-        <v>47055902400</v>
+        <v>46930218900</v>
       </c>
     </row>
     <row r="11">
@@ -985,16 +985,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>47.3</v>
+        <v>47.5</v>
       </c>
       <c r="D11" t="n">
-        <v>838.0999755859375</v>
+        <v>834.5</v>
       </c>
       <c r="E11" t="n">
         <v>590</v>
       </c>
       <c r="F11" t="n">
-        <v>42.1</v>
+        <v>41.4</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>362887000000</v>
       </c>
       <c r="N11" t="n">
-        <v>766801134463</v>
+        <v>763507416000</v>
       </c>
     </row>
     <row r="12">
@@ -1037,16 +1037,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>28.7</v>
+        <v>28.4</v>
       </c>
       <c r="D12" t="n">
-        <v>2056</v>
+        <v>2077</v>
       </c>
       <c r="E12" t="n">
         <v>1347.74653160027</v>
       </c>
       <c r="F12" t="n">
-        <v>52.6</v>
+        <v>54.1</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1074,7 +1074,7 @@
         <v>14143000000</v>
       </c>
       <c r="N12" t="n">
-        <v>49271217600</v>
+        <v>49774474200</v>
       </c>
     </row>
     <row r="13">
@@ -1089,16 +1089,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>50.9</v>
+        <v>51.4</v>
       </c>
       <c r="D13" t="n">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E13" t="n">
         <v>290.3401328717133</v>
       </c>
       <c r="F13" t="n">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         <v>5368822000</v>
       </c>
       <c r="N13" t="n">
-        <v>10550715200</v>
+        <v>10446596300</v>
       </c>
     </row>
     <row r="14">
@@ -1141,16 +1141,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>14.7</v>
+        <v>14.4</v>
       </c>
       <c r="D14" t="n">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="E14" t="n">
         <v>421.6950726175476</v>
       </c>
       <c r="F14" t="n">
-        <v>30.2</v>
+        <v>32.8</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>2256815000</v>
       </c>
       <c r="N14" t="n">
-        <v>15378917400</v>
+        <v>15687056000</v>
       </c>
     </row>
     <row r="15">
@@ -1196,13 +1196,13 @@
         <v>55.2</v>
       </c>
       <c r="D15" t="n">
-        <v>5694</v>
+        <v>5685</v>
       </c>
       <c r="E15" t="n">
         <v>3405.914389596362</v>
       </c>
       <c r="F15" t="n">
-        <v>67.2</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>193706000000</v>
       </c>
       <c r="N15" t="n">
-        <v>351173464200</v>
+        <v>350618395500</v>
       </c>
     </row>
     <row r="16">
@@ -1248,13 +1248,13 @@
         <v>55.2</v>
       </c>
       <c r="D16" t="n">
-        <v>5694</v>
+        <v>5685</v>
       </c>
       <c r="E16" t="n">
         <v>2714.613787300615</v>
       </c>
       <c r="F16" t="n">
-        <v>109.8</v>
+        <v>109.4</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>193706000000</v>
       </c>
       <c r="N16" t="n">
-        <v>351173464200</v>
+        <v>350618395500</v>
       </c>
     </row>
     <row r="17">
@@ -1297,16 +1297,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="D17" t="n">
-        <v>1712.5</v>
+        <v>1720.5</v>
       </c>
       <c r="E17" t="n">
         <v>1512.21980974841</v>
       </c>
       <c r="F17" t="n">
-        <v>13.2</v>
+        <v>13.8</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1334,7 +1334,7 @@
         <v>91015000000</v>
       </c>
       <c r="N17" t="n">
-        <v>563445051200</v>
+        <v>566077203264</v>
       </c>
     </row>
     <row r="18">
@@ -1349,16 +1349,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>57.6</v>
+        <v>54.1</v>
       </c>
       <c r="D18" t="n">
-        <v>3471</v>
+        <v>3697</v>
       </c>
       <c r="E18" t="n">
         <v>2420</v>
       </c>
       <c r="F18" t="n">
-        <v>43.4</v>
+        <v>52.8</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>414670000000</v>
       </c>
       <c r="N18" t="n">
-        <v>720065892000</v>
+        <v>766950044000</v>
       </c>
     </row>
     <row r="19">
@@ -1401,16 +1401,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>44.4</v>
+        <v>43.5</v>
       </c>
       <c r="D19" t="n">
-        <v>3325</v>
+        <v>3390</v>
       </c>
       <c r="E19" t="n">
         <v>1598.889989734285</v>
       </c>
       <c r="F19" t="n">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>178465000000</v>
       </c>
       <c r="N19" t="n">
-        <v>401942625000</v>
+        <v>409800150000</v>
       </c>
     </row>
     <row r="20">
@@ -1453,16 +1453,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>83.59999999999999</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>1129</v>
+        <v>1103</v>
       </c>
       <c r="E20" t="n">
         <v>668.9358717434869</v>
       </c>
       <c r="F20" t="n">
-        <v>68.8</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>15118000000</v>
       </c>
       <c r="N20" t="n">
-        <v>18083193000</v>
+        <v>17666751000</v>
       </c>
     </row>
     <row r="21">
@@ -1505,16 +1505,16 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>73.8</v>
+        <v>74.2</v>
       </c>
       <c r="D21" t="n">
-        <v>2045</v>
+        <v>2034</v>
       </c>
       <c r="E21" t="n">
         <v>1270</v>
       </c>
       <c r="F21" t="n">
-        <v>61</v>
+        <v>60.2</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>26544000000</v>
       </c>
       <c r="N21" t="n">
-        <v>35964188000</v>
+        <v>35770737600</v>
       </c>
     </row>
     <row r="22">
@@ -1557,16 +1557,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>73.8</v>
+        <v>74.2</v>
       </c>
       <c r="D22" t="n">
-        <v>2045</v>
+        <v>2034</v>
       </c>
       <c r="E22" t="n">
         <v>1170</v>
       </c>
       <c r="F22" t="n">
-        <v>74.8</v>
+        <v>73.8</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>26544000000</v>
       </c>
       <c r="N22" t="n">
-        <v>35964188000</v>
+        <v>35770737600</v>
       </c>
     </row>
     <row r="23">
@@ -1609,16 +1609,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>65.5</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>6120</v>
+        <v>6116</v>
       </c>
       <c r="E23" t="n">
         <v>4137.137750115735</v>
       </c>
       <c r="F23" t="n">
-        <v>47.9</v>
+        <v>47.8</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>284031000000</v>
       </c>
       <c r="N23" t="n">
-        <v>433318619520</v>
+        <v>433035404736</v>
       </c>
     </row>
     <row r="24">
@@ -1661,16 +1661,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>71.09999999999999</v>
+        <v>71.3</v>
       </c>
       <c r="D24" t="n">
-        <v>1815</v>
+        <v>1811</v>
       </c>
       <c r="E24" t="n">
         <v>1257.709264012363</v>
       </c>
       <c r="F24" t="n">
-        <v>44.3</v>
+        <v>44</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>261172000000</v>
       </c>
       <c r="N24" t="n">
-        <v>367274339520</v>
+        <v>366464919488</v>
       </c>
     </row>
     <row r="25">
@@ -1713,16 +1713,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>71.09999999999999</v>
+        <v>71.3</v>
       </c>
       <c r="D25" t="n">
-        <v>1815</v>
+        <v>1811</v>
       </c>
       <c r="E25" t="n">
         <v>1217.254500469243</v>
       </c>
       <c r="F25" t="n">
-        <v>49.1</v>
+        <v>48.8</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>261172000000</v>
       </c>
       <c r="N25" t="n">
-        <v>367274339520</v>
+        <v>366464919488</v>
       </c>
     </row>
     <row r="26">
@@ -1765,16 +1765,16 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>58.5</v>
+        <v>57.3</v>
       </c>
       <c r="D26" t="n">
-        <v>3840</v>
+        <v>3920</v>
       </c>
       <c r="E26" t="n">
         <v>2387</v>
       </c>
       <c r="F26" t="n">
-        <v>60.9</v>
+        <v>64.2</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>105205000000</v>
       </c>
       <c r="N26" t="n">
-        <v>179790720000</v>
+        <v>183536360000</v>
       </c>
     </row>
     <row r="27">
@@ -1820,13 +1820,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>5834</v>
+        <v>5866</v>
       </c>
       <c r="E27" t="n">
         <v>2420.370957920882</v>
       </c>
       <c r="F27" t="n">
-        <v>141</v>
+        <v>142.4</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>28931000000</v>
       </c>
       <c r="N27" t="n">
-        <v>294460065400</v>
+        <v>296075204600</v>
       </c>
     </row>
     <row r="28">
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>69.59999999999999</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>1010</v>
+        <v>1025</v>
       </c>
       <c r="E28" t="n">
         <v>930</v>
       </c>
       <c r="F28" t="n">
-        <v>8.6</v>
+        <v>10.2</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>20765000000</v>
       </c>
       <c r="N28" t="n">
-        <v>29834087000</v>
+        <v>30277167500</v>
       </c>
     </row>
     <row r="29">
@@ -1921,16 +1921,16 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="D29" t="n">
-        <v>1484</v>
+        <v>1495</v>
       </c>
       <c r="E29" t="n">
         <v>1267.324164058639</v>
       </c>
       <c r="F29" t="n">
-        <v>17.1</v>
+        <v>18</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>3080243000</v>
       </c>
       <c r="N29" t="n">
-        <v>14524249320</v>
+        <v>14631908850</v>
       </c>
     </row>
     <row r="30">
@@ -1973,16 +1973,16 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>53.5</v>
+        <v>53.9</v>
       </c>
       <c r="D30" t="n">
-        <v>2880</v>
+        <v>2860</v>
       </c>
       <c r="E30" t="n">
         <v>3155.301177013616</v>
       </c>
       <c r="F30" t="n">
-        <v>-8.699999999999999</v>
+        <v>-9.4</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>98642000000</v>
       </c>
       <c r="N30" t="n">
-        <v>184332384000</v>
+        <v>183052298000</v>
       </c>
     </row>
     <row r="31">
@@ -2080,13 +2080,13 @@
         <v>44.9</v>
       </c>
       <c r="D32" t="n">
-        <v>1449.5</v>
+        <v>1448.5</v>
       </c>
       <c r="E32" t="n">
         <v>1111.90611839092</v>
       </c>
       <c r="F32" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>101020000000</v>
       </c>
       <c r="N32" t="n">
-        <v>225089956000</v>
+        <v>224934668000</v>
       </c>
     </row>
     <row r="33">
@@ -2129,16 +2129,16 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="D33" t="n">
-        <v>2474</v>
+        <v>2458</v>
       </c>
       <c r="E33" t="n">
         <v>1678.083113259255</v>
       </c>
       <c r="F33" t="n">
-        <v>47.4</v>
+        <v>46.5</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
         <v>19554000000</v>
       </c>
       <c r="N33" t="n">
-        <v>81573222800</v>
+        <v>81045667600</v>
       </c>
     </row>
     <row r="34">
@@ -2181,16 +2181,16 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="D34" t="n">
-        <v>2973.5</v>
+        <v>2973</v>
       </c>
       <c r="E34" t="n">
         <v>2560</v>
       </c>
       <c r="F34" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>180306000000</v>
       </c>
       <c r="N34" t="n">
-        <v>443565891712</v>
+        <v>443491305216</v>
       </c>
     </row>
     <row r="35">
@@ -2233,16 +2233,16 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="D35" t="n">
-        <v>3117</v>
+        <v>3191</v>
       </c>
       <c r="E35" t="n">
         <v>4156.179843576074</v>
       </c>
       <c r="F35" t="n">
-        <v>-25</v>
+        <v>-23.2</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2270,7 +2270,7 @@
         <v>90923000000</v>
       </c>
       <c r="N35" t="n">
-        <v>809132703936</v>
+        <v>828342142528</v>
       </c>
     </row>
     <row r="36">
@@ -2285,16 +2285,16 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>72.7</v>
+        <v>73</v>
       </c>
       <c r="D36" t="n">
-        <v>3915</v>
+        <v>3898</v>
       </c>
       <c r="E36" t="n">
         <v>3530</v>
       </c>
       <c r="F36" t="n">
-        <v>10.9</v>
+        <v>10.4</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>107738000000</v>
       </c>
       <c r="N36" t="n">
-        <v>148256352000</v>
+        <v>147612582400</v>
       </c>
     </row>
     <row r="37">
@@ -2389,16 +2389,16 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>31.3</v>
+        <v>31.1</v>
       </c>
       <c r="D38" t="n">
-        <v>3030</v>
+        <v>3055</v>
       </c>
       <c r="E38" t="n">
         <v>2480</v>
       </c>
       <c r="F38" t="n">
-        <v>22.2</v>
+        <v>23.2</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>20277000000</v>
       </c>
       <c r="N38" t="n">
-        <v>64692015000</v>
+        <v>65225777500</v>
       </c>
     </row>
     <row r="39">
@@ -2441,16 +2441,16 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>31.3</v>
+        <v>31.1</v>
       </c>
       <c r="D39" t="n">
-        <v>3030</v>
+        <v>3055</v>
       </c>
       <c r="E39" t="n">
         <v>2504.338645418327</v>
       </c>
       <c r="F39" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         <v>20277000000</v>
       </c>
       <c r="N39" t="n">
-        <v>64692015000</v>
+        <v>65225777500</v>
       </c>
     </row>
     <row r="40">
@@ -2493,16 +2493,16 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>31.3</v>
+        <v>31.1</v>
       </c>
       <c r="D40" t="n">
-        <v>3030</v>
+        <v>3055</v>
       </c>
       <c r="E40" t="n">
         <v>2880</v>
       </c>
       <c r="F40" t="n">
-        <v>5.2</v>
+        <v>6.1</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>20277000000</v>
       </c>
       <c r="N40" t="n">
-        <v>64692015000</v>
+        <v>65225777500</v>
       </c>
     </row>
     <row r="41">
@@ -2545,16 +2545,16 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>276.9</v>
+        <v>274.6</v>
       </c>
       <c r="D41" t="n">
-        <v>2273</v>
+        <v>2291.5</v>
       </c>
       <c r="E41" t="n">
         <v>2190</v>
       </c>
       <c r="F41" t="n">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>870891000000</v>
       </c>
       <c r="N41" t="n">
-        <v>314539994816</v>
+        <v>317100043168</v>
       </c>
     </row>
     <row r="42">
@@ -2597,10 +2597,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>38.4</v>
+        <v>38.1</v>
       </c>
       <c r="D42" t="n">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
@@ -2630,7 +2630,7 @@
         <v>35403000000</v>
       </c>
       <c r="N42" t="n">
-        <v>92090526000</v>
+        <v>92916450000</v>
       </c>
     </row>
     <row r="43">
@@ -2645,10 +2645,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>38.4</v>
+        <v>38.1</v>
       </c>
       <c r="D43" t="n">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
@@ -2678,7 +2678,7 @@
         <v>35403000000</v>
       </c>
       <c r="N43" t="n">
-        <v>92090526000</v>
+        <v>92916450000</v>
       </c>
     </row>
     <row r="44">
@@ -2696,13 +2696,13 @@
         <v>56.4</v>
       </c>
       <c r="D44" t="n">
-        <v>3425</v>
+        <v>3420</v>
       </c>
       <c r="E44" t="n">
         <v>1410</v>
       </c>
       <c r="F44" t="n">
-        <v>142.9</v>
+        <v>142.6</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>82575000000</v>
       </c>
       <c r="N44" t="n">
-        <v>146536227500</v>
+        <v>146322306000</v>
       </c>
     </row>
     <row r="45">
@@ -2745,16 +2745,16 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>76.3</v>
+        <v>77</v>
       </c>
       <c r="D45" t="n">
-        <v>2347</v>
+        <v>2325</v>
       </c>
       <c r="E45" t="n">
         <v>1303.446424801713</v>
       </c>
       <c r="F45" t="n">
-        <v>80.09999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>91090000000</v>
       </c>
       <c r="N45" t="n">
-        <v>119433666600</v>
+        <v>118314135000</v>
       </c>
     </row>
     <row r="46">
@@ -2797,16 +2797,16 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>42.8</v>
+        <v>43.1</v>
       </c>
       <c r="D46" t="n">
-        <v>2373.5</v>
+        <v>2360.5</v>
       </c>
       <c r="E46" t="n">
         <v>2032.365850102071</v>
       </c>
       <c r="F46" t="n">
-        <v>16.8</v>
+        <v>16.1</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>323730000000</v>
       </c>
       <c r="N46" t="n">
-        <v>755978738000</v>
+        <v>751838134000</v>
       </c>
     </row>
     <row r="47">
@@ -2849,10 +2849,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>788.8</v>
+        <v>779.1</v>
       </c>
       <c r="D47" t="n">
-        <v>3620</v>
+        <v>3665</v>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
@@ -2882,7 +2882,7 @@
         <v>609113000000</v>
       </c>
       <c r="N47" t="n">
-        <v>77224012000</v>
+        <v>78183979000</v>
       </c>
     </row>
     <row r="48">
@@ -2897,16 +2897,16 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>114.7</v>
+        <v>114.1</v>
       </c>
       <c r="D48" t="n">
-        <v>1867</v>
+        <v>1877</v>
       </c>
       <c r="E48" t="n">
         <v>1469.167707232735</v>
       </c>
       <c r="F48" t="n">
-        <v>27.1</v>
+        <v>27.8</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>133437000000</v>
       </c>
       <c r="N48" t="n">
-        <v>116311859600</v>
+        <v>116934847600</v>
       </c>
     </row>
     <row r="49">
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>114.7</v>
+        <v>114.1</v>
       </c>
       <c r="D49" t="n">
-        <v>1867</v>
+        <v>1877</v>
       </c>
       <c r="E49" t="n">
         <v>1489.94784546053</v>
       </c>
       <c r="F49" t="n">
-        <v>25.3</v>
+        <v>26</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>133437000000</v>
       </c>
       <c r="N49" t="n">
-        <v>116311859600</v>
+        <v>116934847600</v>
       </c>
     </row>
     <row r="50">
@@ -3001,16 +3001,16 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>98.59999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="D50" t="n">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="E50" t="n">
         <v>1212.640316205534</v>
       </c>
       <c r="F50" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>13446000000</v>
       </c>
       <c r="N50" t="n">
-        <v>13638924600</v>
+        <v>13648115250</v>
       </c>
     </row>
     <row r="51">
@@ -3056,13 +3056,13 @@
         <v>10.1</v>
       </c>
       <c r="D51" t="n">
-        <v>1650.5</v>
+        <v>1646.5</v>
       </c>
       <c r="E51" t="n">
         <v>1344.518957928979</v>
       </c>
       <c r="F51" t="n">
-        <v>22.8</v>
+        <v>22.5</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>55269000000</v>
       </c>
       <c r="N51" t="n">
-        <v>549035524000</v>
+        <v>547704932000</v>
       </c>
     </row>
     <row r="52">
@@ -3105,16 +3105,16 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>33.1</v>
+        <v>33.7</v>
       </c>
       <c r="D52" t="n">
-        <v>1136</v>
+        <v>1118</v>
       </c>
       <c r="E52" t="n">
         <v>2968.770104870396</v>
       </c>
       <c r="F52" t="n">
-        <v>-61.7</v>
+        <v>-62.3</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         <v>364930000000</v>
       </c>
       <c r="N52" t="n">
-        <v>1101437172736</v>
+        <v>1083984823168</v>
       </c>
     </row>
     <row r="53">
@@ -3157,16 +3157,16 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>83.3</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>2180</v>
+        <v>2190</v>
       </c>
       <c r="E53" t="n">
         <v>1190</v>
       </c>
       <c r="F53" t="n">
-        <v>83.2</v>
+        <v>84</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>39477000000</v>
       </c>
       <c r="N53" t="n">
-        <v>47418706000</v>
+        <v>47636223000</v>
       </c>
     </row>
     <row r="54">
@@ -3209,16 +3209,16 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>38.8</v>
+        <v>38.3</v>
       </c>
       <c r="D54" t="n">
-        <v>5616</v>
+        <v>5687</v>
       </c>
       <c r="E54" t="n">
         <v>1716.713876475349</v>
       </c>
       <c r="F54" t="n">
-        <v>227.1</v>
+        <v>231.3</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>564005000000</v>
       </c>
       <c r="N54" t="n">
-        <v>1453151232000</v>
+        <v>1471522624000</v>
       </c>
     </row>
     <row r="55">
@@ -3261,16 +3261,16 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>120.9</v>
+        <v>120.4</v>
       </c>
       <c r="D55" t="n">
-        <v>1123</v>
+        <v>1128</v>
       </c>
       <c r="E55" t="n">
         <v>438.851170934559</v>
       </c>
       <c r="F55" t="n">
-        <v>155.9</v>
+        <v>157</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>79323000000</v>
       </c>
       <c r="N55" t="n">
-        <v>65601954100</v>
+        <v>65894037600</v>
       </c>
     </row>
     <row r="56">
@@ -3313,16 +3313,16 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>55.9</v>
+        <v>56</v>
       </c>
       <c r="D56" t="n">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="E56" t="n">
         <v>1605.189780306002</v>
       </c>
       <c r="F56" t="n">
-        <v>-18.9</v>
+        <v>-19</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>48290000000</v>
       </c>
       <c r="N56" t="n">
-        <v>86398636800</v>
+        <v>86265920000</v>
       </c>
     </row>
     <row r="57">
@@ -3365,16 +3365,16 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>80.3</v>
+        <v>80.7</v>
       </c>
       <c r="D57" t="n">
-        <v>7240</v>
+        <v>7210</v>
       </c>
       <c r="E57" t="n">
         <v>4549.503641591014</v>
       </c>
       <c r="F57" t="n">
-        <v>59.1</v>
+        <v>58.5</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         <v>96906000000</v>
       </c>
       <c r="N57" t="n">
-        <v>120653152000</v>
+        <v>120153208000</v>
       </c>
     </row>
     <row r="58">
@@ -3417,16 +3417,16 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="D58" t="n">
-        <v>16500</v>
+        <v>16555</v>
       </c>
       <c r="E58" t="n">
         <v>13739.64575539568</v>
       </c>
       <c r="F58" t="n">
-        <v>20.1</v>
+        <v>20.5</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>265431000000</v>
       </c>
       <c r="N58" t="n">
-        <v>1093479750000</v>
+        <v>1097124682500</v>
       </c>
     </row>
     <row r="59">
@@ -3469,16 +3469,16 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="D59" t="n">
-        <v>16500</v>
+        <v>16555</v>
       </c>
       <c r="E59" t="n">
         <v>12975.86280814577</v>
       </c>
       <c r="F59" t="n">
-        <v>27.2</v>
+        <v>27.6</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>265431000000</v>
       </c>
       <c r="N59" t="n">
-        <v>1093479750000</v>
+        <v>1097124682500</v>
       </c>
     </row>
     <row r="60">
@@ -3521,16 +3521,16 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>35.3</v>
+        <v>35.4</v>
       </c>
       <c r="D60" t="n">
-        <v>1731</v>
+        <v>1727</v>
       </c>
       <c r="E60" t="n">
         <v>1529.631984751819</v>
       </c>
       <c r="F60" t="n">
-        <v>13.2</v>
+        <v>12.9</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         <v>4358822000</v>
       </c>
       <c r="N60" t="n">
-        <v>12333807750</v>
+        <v>12305306750</v>
       </c>
     </row>
     <row r="61">
@@ -3573,16 +3573,16 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>35.3</v>
+        <v>35.4</v>
       </c>
       <c r="D61" t="n">
-        <v>1731</v>
+        <v>1727</v>
       </c>
       <c r="E61" t="n">
         <v>1449.995380693296</v>
       </c>
       <c r="F61" t="n">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>4358822000</v>
       </c>
       <c r="N61" t="n">
-        <v>12333807750</v>
+        <v>12305306750</v>
       </c>
     </row>
     <row r="62">
@@ -3625,16 +3625,16 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>106.5</v>
+        <v>106.4</v>
       </c>
       <c r="D62" t="n">
-        <v>1591</v>
+        <v>1593.5</v>
       </c>
       <c r="E62" t="n">
         <v>1160.8</v>
       </c>
       <c r="F62" t="n">
-        <v>37.1</v>
+        <v>37.3</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>458473000000</v>
       </c>
       <c r="N62" t="n">
-        <v>430298652544</v>
+        <v>430974797504</v>
       </c>
     </row>
     <row r="63">
@@ -3677,16 +3677,16 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D63" t="n">
-        <v>3594</v>
+        <v>3607</v>
       </c>
       <c r="E63" t="n">
         <v>2561.705402476645</v>
       </c>
       <c r="F63" t="n">
-        <v>40.3</v>
+        <v>40.8</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3714,7 +3714,7 @@
         <v>81977000000</v>
       </c>
       <c r="N63" t="n">
-        <v>657608556000</v>
+        <v>659987218000</v>
       </c>
     </row>
     <row r="64">
@@ -3729,16 +3729,16 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="D64" t="n">
-        <v>2213</v>
+        <v>2206</v>
       </c>
       <c r="E64" t="n">
         <v>1710</v>
       </c>
       <c r="F64" t="n">
-        <v>29.4</v>
+        <v>29</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>15543000000</v>
       </c>
       <c r="N64" t="n">
-        <v>37338178600</v>
+        <v>37220073200</v>
       </c>
     </row>
     <row r="65">
@@ -3781,16 +3781,16 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="D65" t="n">
-        <v>2213</v>
+        <v>2206</v>
       </c>
       <c r="E65" t="n">
         <v>1710</v>
       </c>
       <c r="F65" t="n">
-        <v>29.4</v>
+        <v>29</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>15543000000</v>
       </c>
       <c r="N65" t="n">
-        <v>37338178600</v>
+        <v>37220073200</v>
       </c>
     </row>
     <row r="66">
@@ -3833,16 +3833,16 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>32.7</v>
+        <v>33</v>
       </c>
       <c r="D66" t="n">
-        <v>4350</v>
+        <v>4310</v>
       </c>
       <c r="E66" t="n">
         <v>1492.806001579363</v>
       </c>
       <c r="F66" t="n">
-        <v>191.4</v>
+        <v>188.7</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3870,7 +3870,7 @@
         <v>106485000000</v>
       </c>
       <c r="N66" t="n">
-        <v>325574010000</v>
+        <v>322580226000</v>
       </c>
     </row>
     <row r="67">
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="D67" t="n">
-        <v>9983</v>
+        <v>10040</v>
       </c>
       <c r="E67" t="n">
         <v>6272.971195510064</v>
       </c>
       <c r="F67" t="n">
-        <v>59.1</v>
+        <v>60.1</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         <v>153254000000</v>
       </c>
       <c r="N67" t="n">
-        <v>1199407535000</v>
+        <v>1206255800000</v>
       </c>
     </row>
     <row r="68">
@@ -3937,16 +3937,16 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>53.1</v>
+        <v>53.2</v>
       </c>
       <c r="D68" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E68" t="n">
         <v>896.0103264198827</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.6</v>
+        <v>-2.7</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>8417495000</v>
       </c>
       <c r="N68" t="n">
-        <v>15843029400</v>
+        <v>15824881600</v>
       </c>
     </row>
     <row r="69">
@@ -3989,10 +3989,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>77.3</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>2365</v>
+        <v>2363</v>
       </c>
       <c r="E69" t="n">
         <v>3610</v>
@@ -4026,7 +4026,7 @@
         <v>122147000000</v>
       </c>
       <c r="N69" t="n">
-        <v>157926186000</v>
+        <v>157792633200</v>
       </c>
     </row>
   </sheetData>

--- a/docs/アクティビスト銘柄_資産判定.xlsx
+++ b/docs/アクティビスト銘柄_資産判定.xlsx
@@ -517,16 +517,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>89.8</v>
+        <v>87</v>
       </c>
       <c r="D2" t="n">
-        <v>2936</v>
+        <v>3030</v>
       </c>
       <c r="E2" t="n">
         <v>1600</v>
       </c>
       <c r="F2" t="n">
-        <v>83.5</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -554,7 +554,7 @@
         <v>88496000000</v>
       </c>
       <c r="N2" t="n">
-        <v>98533628000</v>
+        <v>101688315000</v>
       </c>
     </row>
     <row r="3">
@@ -624,13 +624,13 @@
         <v>19.9</v>
       </c>
       <c r="D4" t="n">
-        <v>2216</v>
+        <v>2220.5</v>
       </c>
       <c r="E4" t="n">
         <v>2269.918722577861</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.4</v>
+        <v>-2.2</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>90811000000</v>
       </c>
       <c r="N4" t="n">
-        <v>455855593728</v>
+        <v>456781293264</v>
       </c>
     </row>
     <row r="5">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>117.7</v>
+        <v>120.1</v>
       </c>
       <c r="D5" t="n">
-        <v>2992</v>
+        <v>2937</v>
       </c>
       <c r="E5" t="n">
         <v>4991.027246539169</v>
       </c>
       <c r="F5" t="n">
-        <v>-40.1</v>
+        <v>-41.2</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -710,7 +710,7 @@
         <v>1006135000000</v>
       </c>
       <c r="N5" t="n">
-        <v>854868303872</v>
+        <v>837702888000</v>
       </c>
     </row>
     <row r="6">
@@ -725,16 +725,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="D6" t="n">
-        <v>1028</v>
+        <v>1069</v>
       </c>
       <c r="E6" t="n">
         <v>653.0713101160862</v>
       </c>
       <c r="F6" t="n">
-        <v>57.4</v>
+        <v>63.7</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>1810139000</v>
       </c>
       <c r="N6" t="n">
-        <v>24595825200</v>
+        <v>25576787100</v>
       </c>
     </row>
     <row r="7">
@@ -780,13 +780,13 @@
         <v>1.4</v>
       </c>
       <c r="D7" t="n">
-        <v>7394</v>
+        <v>7450</v>
       </c>
       <c r="E7" t="n">
         <v>2697.360927565142</v>
       </c>
       <c r="F7" t="n">
-        <v>174.1</v>
+        <v>176.2</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -814,7 +814,7 @@
         <v>8148000000</v>
       </c>
       <c r="N7" t="n">
-        <v>576504264800</v>
+        <v>580870540000</v>
       </c>
     </row>
     <row r="8">
@@ -832,7 +832,7 @@
         <v>22.6</v>
       </c>
       <c r="D8" t="n">
-        <v>3975</v>
+        <v>3970</v>
       </c>
       <c r="E8" t="n">
         <v>7960</v>
@@ -866,7 +866,7 @@
         <v>34259000000</v>
       </c>
       <c r="N8" t="n">
-        <v>151921717500</v>
+        <v>151730621000</v>
       </c>
     </row>
     <row r="9">
@@ -881,16 +881,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>48</v>
+        <v>48.5</v>
       </c>
       <c r="D9" t="n">
-        <v>6930</v>
+        <v>6860</v>
       </c>
       <c r="E9" t="n">
         <v>2920</v>
       </c>
       <c r="F9" t="n">
-        <v>137.3</v>
+        <v>134.9</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>26036000000</v>
       </c>
       <c r="N9" t="n">
-        <v>54208608300</v>
+        <v>53661046600</v>
       </c>
     </row>
     <row r="10">
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>95.7</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>1867</v>
+        <v>1851</v>
       </c>
       <c r="E10" t="n">
         <v>2298.672482457804</v>
       </c>
       <c r="F10" t="n">
-        <v>-18.8</v>
+        <v>-19.5</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>44925000000</v>
       </c>
       <c r="N10" t="n">
-        <v>46930218900</v>
+        <v>46528031700</v>
       </c>
     </row>
     <row r="11">
@@ -985,16 +985,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>47.5</v>
+        <v>47.6</v>
       </c>
       <c r="D11" t="n">
-        <v>834.5</v>
+        <v>832.7999877929688</v>
       </c>
       <c r="E11" t="n">
         <v>590</v>
       </c>
       <c r="F11" t="n">
-        <v>41.4</v>
+        <v>41.2</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>362887000000</v>
       </c>
       <c r="N11" t="n">
-        <v>763507416000</v>
+        <v>761952027231</v>
       </c>
     </row>
     <row r="12">
@@ -1037,16 +1037,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="D12" t="n">
-        <v>2077</v>
+        <v>2084</v>
       </c>
       <c r="E12" t="n">
         <v>1347.74653160027</v>
       </c>
       <c r="F12" t="n">
-        <v>54.1</v>
+        <v>54.6</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1074,7 +1074,7 @@
         <v>14143000000</v>
       </c>
       <c r="N12" t="n">
-        <v>49774474200</v>
+        <v>49942226400</v>
       </c>
     </row>
     <row r="13">
@@ -1089,16 +1089,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>51.4</v>
+        <v>51.7</v>
       </c>
       <c r="D13" t="n">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E13" t="n">
         <v>290.3401328717133</v>
       </c>
       <c r="F13" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         <v>5368822000</v>
       </c>
       <c r="N13" t="n">
-        <v>10446596300</v>
+        <v>10377183700</v>
       </c>
     </row>
     <row r="14">
@@ -1141,16 +1141,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>14.4</v>
+        <v>13.5</v>
       </c>
       <c r="D14" t="n">
-        <v>560</v>
+        <v>598</v>
       </c>
       <c r="E14" t="n">
         <v>421.6950726175476</v>
       </c>
       <c r="F14" t="n">
-        <v>32.8</v>
+        <v>41.8</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>2256815000</v>
       </c>
       <c r="N14" t="n">
-        <v>15687056000</v>
+        <v>16751534800</v>
       </c>
     </row>
     <row r="15">
@@ -1193,16 +1193,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>55.2</v>
+        <v>51.9</v>
       </c>
       <c r="D15" t="n">
-        <v>5685</v>
+        <v>5688</v>
       </c>
       <c r="E15" t="n">
         <v>3405.914389596362</v>
       </c>
       <c r="F15" t="n">
-        <v>66.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>193706000000</v>
       </c>
       <c r="N15" t="n">
-        <v>350618395500</v>
+        <v>373438814400</v>
       </c>
     </row>
     <row r="16">
@@ -1245,16 +1245,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>55.2</v>
+        <v>51.9</v>
       </c>
       <c r="D16" t="n">
-        <v>5685</v>
+        <v>5688</v>
       </c>
       <c r="E16" t="n">
         <v>2714.613787300615</v>
       </c>
       <c r="F16" t="n">
-        <v>109.4</v>
+        <v>109.5</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>193706000000</v>
       </c>
       <c r="N16" t="n">
-        <v>350618395500</v>
+        <v>373438814400</v>
       </c>
     </row>
     <row r="17">
@@ -1297,16 +1297,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="D17" t="n">
-        <v>1720.5</v>
+        <v>1762</v>
       </c>
       <c r="E17" t="n">
         <v>1512.21980974841</v>
       </c>
       <c r="F17" t="n">
-        <v>13.8</v>
+        <v>16.5</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1334,7 +1334,7 @@
         <v>91015000000</v>
       </c>
       <c r="N17" t="n">
-        <v>566077203264</v>
+        <v>579731492096</v>
       </c>
     </row>
     <row r="18">
@@ -1349,16 +1349,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>54.1</v>
+        <v>54.8</v>
       </c>
       <c r="D18" t="n">
-        <v>3697</v>
+        <v>3646</v>
       </c>
       <c r="E18" t="n">
         <v>2420</v>
       </c>
       <c r="F18" t="n">
-        <v>52.8</v>
+        <v>50.7</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>414670000000</v>
       </c>
       <c r="N18" t="n">
-        <v>766950044000</v>
+        <v>756369992000</v>
       </c>
     </row>
     <row r="19">
@@ -1401,16 +1401,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>43.5</v>
+        <v>43.7</v>
       </c>
       <c r="D19" t="n">
-        <v>3390</v>
+        <v>3380</v>
       </c>
       <c r="E19" t="n">
         <v>1598.889989734285</v>
       </c>
       <c r="F19" t="n">
-        <v>112</v>
+        <v>111.4</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>178465000000</v>
       </c>
       <c r="N19" t="n">
-        <v>409800150000</v>
+        <v>408591300000</v>
       </c>
     </row>
     <row r="20">
@@ -1453,16 +1453,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>85.59999999999999</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>1103</v>
+        <v>1090</v>
       </c>
       <c r="E20" t="n">
         <v>668.9358717434869</v>
       </c>
       <c r="F20" t="n">
-        <v>64.90000000000001</v>
+        <v>62.9</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>15118000000</v>
       </c>
       <c r="N20" t="n">
-        <v>17666751000</v>
+        <v>17458530000</v>
       </c>
     </row>
     <row r="21">
@@ -1505,16 +1505,16 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>74.2</v>
+        <v>75.5</v>
       </c>
       <c r="D21" t="n">
-        <v>2034</v>
+        <v>2024</v>
       </c>
       <c r="E21" t="n">
         <v>1270</v>
       </c>
       <c r="F21" t="n">
-        <v>60.2</v>
+        <v>59.4</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>26544000000</v>
       </c>
       <c r="N21" t="n">
-        <v>35770737600</v>
+        <v>35178941600</v>
       </c>
     </row>
     <row r="22">
@@ -1557,16 +1557,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>74.2</v>
+        <v>75.5</v>
       </c>
       <c r="D22" t="n">
-        <v>2034</v>
+        <v>2024</v>
       </c>
       <c r="E22" t="n">
         <v>1170</v>
       </c>
       <c r="F22" t="n">
-        <v>73.8</v>
+        <v>73</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>26544000000</v>
       </c>
       <c r="N22" t="n">
-        <v>35770737600</v>
+        <v>35178941600</v>
       </c>
     </row>
     <row r="23">
@@ -1609,16 +1609,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>65.59999999999999</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>6116</v>
+        <v>6085</v>
       </c>
       <c r="E23" t="n">
         <v>4137.137750115735</v>
       </c>
       <c r="F23" t="n">
-        <v>47.8</v>
+        <v>47.1</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>284031000000</v>
       </c>
       <c r="N23" t="n">
-        <v>433035404736</v>
+        <v>430840490160</v>
       </c>
     </row>
     <row r="24">
@@ -1661,16 +1661,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>71.3</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>1811</v>
+        <v>1808</v>
       </c>
       <c r="E24" t="n">
         <v>1257.709264012363</v>
       </c>
       <c r="F24" t="n">
-        <v>44</v>
+        <v>43.8</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>261172000000</v>
       </c>
       <c r="N24" t="n">
-        <v>366464919488</v>
+        <v>365857854464</v>
       </c>
     </row>
     <row r="25">
@@ -1713,16 +1713,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>71.3</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>1811</v>
+        <v>1808</v>
       </c>
       <c r="E25" t="n">
         <v>1217.254500469243</v>
       </c>
       <c r="F25" t="n">
-        <v>48.8</v>
+        <v>48.5</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>261172000000</v>
       </c>
       <c r="N25" t="n">
-        <v>366464919488</v>
+        <v>365857854464</v>
       </c>
     </row>
     <row r="26">
@@ -1765,16 +1765,16 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>57.3</v>
+        <v>56.2</v>
       </c>
       <c r="D26" t="n">
-        <v>3920</v>
+        <v>4000</v>
       </c>
       <c r="E26" t="n">
         <v>2387</v>
       </c>
       <c r="F26" t="n">
-        <v>64.2</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>105205000000</v>
       </c>
       <c r="N26" t="n">
-        <v>183536360000</v>
+        <v>187282000000</v>
       </c>
     </row>
     <row r="27">
@@ -1820,13 +1820,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>5866</v>
+        <v>5857</v>
       </c>
       <c r="E27" t="n">
         <v>2420.370957920882</v>
       </c>
       <c r="F27" t="n">
-        <v>142.4</v>
+        <v>142</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>28931000000</v>
       </c>
       <c r="N27" t="n">
-        <v>296075204600</v>
+        <v>294255680000</v>
       </c>
     </row>
     <row r="28">
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>68.59999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="D28" t="n">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E28" t="n">
         <v>930</v>
       </c>
       <c r="F28" t="n">
-        <v>10.2</v>
+        <v>10</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>20765000000</v>
       </c>
       <c r="N28" t="n">
-        <v>30277167500</v>
+        <v>30218090100</v>
       </c>
     </row>
     <row r="29">
@@ -1921,16 +1921,16 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>21.1</v>
+        <v>21.6</v>
       </c>
       <c r="D29" t="n">
-        <v>1495</v>
+        <v>1455</v>
       </c>
       <c r="E29" t="n">
         <v>1267.324164058639</v>
       </c>
       <c r="F29" t="n">
-        <v>18</v>
+        <v>14.8</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>3080243000</v>
       </c>
       <c r="N29" t="n">
-        <v>14631908850</v>
+        <v>14240419650</v>
       </c>
     </row>
     <row r="30">
@@ -1973,16 +1973,16 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>53.9</v>
+        <v>53.8</v>
       </c>
       <c r="D30" t="n">
-        <v>2860</v>
+        <v>2864</v>
       </c>
       <c r="E30" t="n">
         <v>3155.301177013616</v>
       </c>
       <c r="F30" t="n">
-        <v>-9.4</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>98642000000</v>
       </c>
       <c r="N30" t="n">
-        <v>183052298000</v>
+        <v>183308315200</v>
       </c>
     </row>
     <row r="31">
@@ -2025,16 +2025,16 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="D31" t="n">
-        <v>5530</v>
+        <v>5500</v>
       </c>
       <c r="E31" t="n">
         <v>2617.980935875217</v>
       </c>
       <c r="F31" t="n">
-        <v>111.2</v>
+        <v>110.1</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>53152000000</v>
       </c>
       <c r="N31" t="n">
-        <v>202312285000</v>
+        <v>201044800000</v>
       </c>
     </row>
     <row r="32">
@@ -2077,16 +2077,16 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>44.9</v>
+        <v>45.4</v>
       </c>
       <c r="D32" t="n">
-        <v>1448.5</v>
+        <v>1445.5</v>
       </c>
       <c r="E32" t="n">
         <v>1111.90611839092</v>
       </c>
       <c r="F32" t="n">
-        <v>30.3</v>
+        <v>30</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>101020000000</v>
       </c>
       <c r="N32" t="n">
-        <v>224934668000</v>
+        <v>222705294000</v>
       </c>
     </row>
     <row r="33">
@@ -2129,16 +2129,16 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>24.1</v>
+        <v>24.3</v>
       </c>
       <c r="D33" t="n">
-        <v>2458</v>
+        <v>2442</v>
       </c>
       <c r="E33" t="n">
         <v>1678.083113259255</v>
       </c>
       <c r="F33" t="n">
-        <v>46.5</v>
+        <v>45.5</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
         <v>19554000000</v>
       </c>
       <c r="N33" t="n">
-        <v>81045667600</v>
+        <v>80518112400</v>
       </c>
     </row>
     <row r="34">
@@ -2236,13 +2236,13 @@
         <v>11</v>
       </c>
       <c r="D35" t="n">
-        <v>3191</v>
+        <v>3170</v>
       </c>
       <c r="E35" t="n">
         <v>4156.179843576074</v>
       </c>
       <c r="F35" t="n">
-        <v>-23.2</v>
+        <v>-23.7</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2270,7 +2270,7 @@
         <v>90923000000</v>
       </c>
       <c r="N35" t="n">
-        <v>828342142528</v>
+        <v>822890815360</v>
       </c>
     </row>
     <row r="36">
@@ -2285,16 +2285,16 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>73</v>
+        <v>72.7</v>
       </c>
       <c r="D36" t="n">
-        <v>3898</v>
+        <v>3892</v>
       </c>
       <c r="E36" t="n">
         <v>3530</v>
       </c>
       <c r="F36" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>107738000000</v>
       </c>
       <c r="N36" t="n">
-        <v>147612582400</v>
+        <v>148162212800</v>
       </c>
     </row>
     <row r="37">
@@ -2337,16 +2337,16 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>62.4</v>
+        <v>63.4</v>
       </c>
       <c r="D37" t="n">
-        <v>874</v>
+        <v>860</v>
       </c>
       <c r="E37" t="n">
         <v>3590.021519088228</v>
       </c>
       <c r="F37" t="n">
-        <v>-75.7</v>
+        <v>-76</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         <v>48088000000</v>
       </c>
       <c r="N37" t="n">
-        <v>77058748096</v>
+        <v>75824397440</v>
       </c>
     </row>
     <row r="38">
@@ -2389,16 +2389,16 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>31.1</v>
+        <v>31.3</v>
       </c>
       <c r="D38" t="n">
-        <v>3055</v>
+        <v>3035</v>
       </c>
       <c r="E38" t="n">
         <v>2480</v>
       </c>
       <c r="F38" t="n">
-        <v>23.2</v>
+        <v>22.4</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>20277000000</v>
       </c>
       <c r="N38" t="n">
-        <v>65225777500</v>
+        <v>64798767500</v>
       </c>
     </row>
     <row r="39">
@@ -2441,16 +2441,16 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>31.1</v>
+        <v>31.3</v>
       </c>
       <c r="D39" t="n">
-        <v>3055</v>
+        <v>3035</v>
       </c>
       <c r="E39" t="n">
         <v>2504.338645418327</v>
       </c>
       <c r="F39" t="n">
-        <v>22</v>
+        <v>21.2</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         <v>20277000000</v>
       </c>
       <c r="N39" t="n">
-        <v>65225777500</v>
+        <v>64798767500</v>
       </c>
     </row>
     <row r="40">
@@ -2493,16 +2493,16 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>31.1</v>
+        <v>31.3</v>
       </c>
       <c r="D40" t="n">
-        <v>3055</v>
+        <v>3035</v>
       </c>
       <c r="E40" t="n">
         <v>2880</v>
       </c>
       <c r="F40" t="n">
-        <v>6.1</v>
+        <v>5.4</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>20277000000</v>
       </c>
       <c r="N40" t="n">
-        <v>65225777500</v>
+        <v>64798767500</v>
       </c>
     </row>
     <row r="41">
@@ -2545,16 +2545,16 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>274.6</v>
+        <v>275.7</v>
       </c>
       <c r="D41" t="n">
-        <v>2291.5</v>
+        <v>2282.5</v>
       </c>
       <c r="E41" t="n">
         <v>2190</v>
       </c>
       <c r="F41" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>870891000000</v>
       </c>
       <c r="N41" t="n">
-        <v>317100043168</v>
+        <v>315854614240</v>
       </c>
     </row>
     <row r="42">
@@ -2597,10 +2597,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>38.1</v>
+        <v>38.6</v>
       </c>
       <c r="D42" t="n">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
@@ -2630,7 +2630,7 @@
         <v>35403000000</v>
       </c>
       <c r="N42" t="n">
-        <v>92916450000</v>
+        <v>91815218000</v>
       </c>
     </row>
     <row r="43">
@@ -2645,10 +2645,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>38.1</v>
+        <v>38.6</v>
       </c>
       <c r="D43" t="n">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
@@ -2678,7 +2678,7 @@
         <v>35403000000</v>
       </c>
       <c r="N43" t="n">
-        <v>92916450000</v>
+        <v>91815218000</v>
       </c>
     </row>
     <row r="44">
@@ -2693,16 +2693,16 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>56.4</v>
+        <v>58.7</v>
       </c>
       <c r="D44" t="n">
-        <v>3420</v>
+        <v>3370</v>
       </c>
       <c r="E44" t="n">
         <v>1410</v>
       </c>
       <c r="F44" t="n">
-        <v>142.6</v>
+        <v>139</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>82575000000</v>
       </c>
       <c r="N44" t="n">
-        <v>146322306000</v>
+        <v>140576854000</v>
       </c>
     </row>
     <row r="45">
@@ -2745,16 +2745,16 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>77</v>
+        <v>75.8</v>
       </c>
       <c r="D45" t="n">
-        <v>2325</v>
+        <v>2361</v>
       </c>
       <c r="E45" t="n">
         <v>1303.446424801713</v>
       </c>
       <c r="F45" t="n">
-        <v>78.40000000000001</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>91090000000</v>
       </c>
       <c r="N45" t="n">
-        <v>118314135000</v>
+        <v>120146095800</v>
       </c>
     </row>
     <row r="46">
@@ -2797,16 +2797,16 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>43.1</v>
+        <v>43.5</v>
       </c>
       <c r="D46" t="n">
-        <v>2360.5</v>
+        <v>2349</v>
       </c>
       <c r="E46" t="n">
         <v>2032.365850102071</v>
       </c>
       <c r="F46" t="n">
-        <v>16.1</v>
+        <v>15.6</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>323730000000</v>
       </c>
       <c r="N46" t="n">
-        <v>751838134000</v>
+        <v>744825580416</v>
       </c>
     </row>
     <row r="47">
@@ -2849,10 +2849,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>779.1</v>
+        <v>782.3</v>
       </c>
       <c r="D47" t="n">
-        <v>3665</v>
+        <v>3650</v>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
@@ -2882,7 +2882,7 @@
         <v>609113000000</v>
       </c>
       <c r="N47" t="n">
-        <v>78183979000</v>
+        <v>77863990000</v>
       </c>
     </row>
     <row r="48">
@@ -2897,16 +2897,16 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>114.1</v>
+        <v>112.8</v>
       </c>
       <c r="D48" t="n">
-        <v>1877</v>
+        <v>1899</v>
       </c>
       <c r="E48" t="n">
         <v>1469.167707232735</v>
       </c>
       <c r="F48" t="n">
-        <v>27.8</v>
+        <v>29.3</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>133437000000</v>
       </c>
       <c r="N48" t="n">
-        <v>116934847600</v>
+        <v>118305421200</v>
       </c>
     </row>
     <row r="49">
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>114.1</v>
+        <v>112.8</v>
       </c>
       <c r="D49" t="n">
-        <v>1877</v>
+        <v>1899</v>
       </c>
       <c r="E49" t="n">
         <v>1489.94784546053</v>
       </c>
       <c r="F49" t="n">
-        <v>26</v>
+        <v>27.5</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>133437000000</v>
       </c>
       <c r="N49" t="n">
-        <v>116934847600</v>
+        <v>118305421200</v>
       </c>
     </row>
     <row r="50">
@@ -3004,7 +3004,7 @@
         <v>98.5</v>
       </c>
       <c r="D50" t="n">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="E50" t="n">
         <v>1212.640316205534</v>
@@ -3038,7 +3038,7 @@
         <v>13446000000</v>
       </c>
       <c r="N50" t="n">
-        <v>13648115250</v>
+        <v>13657305900</v>
       </c>
     </row>
     <row r="51">
@@ -3053,16 +3053,16 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="D51" t="n">
-        <v>1646.5</v>
+        <v>1656</v>
       </c>
       <c r="E51" t="n">
         <v>1344.518957928979</v>
       </c>
       <c r="F51" t="n">
-        <v>22.5</v>
+        <v>23.2</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>55269000000</v>
       </c>
       <c r="N51" t="n">
-        <v>547704932000</v>
+        <v>550865088000</v>
       </c>
     </row>
     <row r="52">
@@ -3105,16 +3105,16 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>33.7</v>
+        <v>33.8</v>
       </c>
       <c r="D52" t="n">
-        <v>1118</v>
+        <v>1114.5</v>
       </c>
       <c r="E52" t="n">
         <v>2968.770104870396</v>
       </c>
       <c r="F52" t="n">
-        <v>-62.3</v>
+        <v>-62.5</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         <v>364930000000</v>
       </c>
       <c r="N52" t="n">
-        <v>1083984823168</v>
+        <v>1080591310752</v>
       </c>
     </row>
     <row r="53">
@@ -3157,16 +3157,16 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>82.90000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="D53" t="n">
-        <v>2190</v>
+        <v>2174</v>
       </c>
       <c r="E53" t="n">
         <v>1190</v>
       </c>
       <c r="F53" t="n">
-        <v>84</v>
+        <v>82.7</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>39477000000</v>
       </c>
       <c r="N53" t="n">
-        <v>47636223000</v>
+        <v>47288195800</v>
       </c>
     </row>
     <row r="54">
@@ -3209,16 +3209,16 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>38.3</v>
+        <v>39.3</v>
       </c>
       <c r="D54" t="n">
-        <v>5687</v>
+        <v>5641</v>
       </c>
       <c r="E54" t="n">
         <v>1716.713876475349</v>
       </c>
       <c r="F54" t="n">
-        <v>231.3</v>
+        <v>228.6</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>564005000000</v>
       </c>
       <c r="N54" t="n">
-        <v>1471522624000</v>
+        <v>1433502202000</v>
       </c>
     </row>
     <row r="55">
@@ -3261,16 +3261,16 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>120.4</v>
+        <v>120.9</v>
       </c>
       <c r="D55" t="n">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="E55" t="n">
         <v>438.851170934559</v>
       </c>
       <c r="F55" t="n">
-        <v>157</v>
+        <v>155.9</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>79323000000</v>
       </c>
       <c r="N55" t="n">
-        <v>65894037600</v>
+        <v>65601954100</v>
       </c>
     </row>
     <row r="56">
@@ -3313,16 +3313,16 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>56</v>
+        <v>55.2</v>
       </c>
       <c r="D56" t="n">
-        <v>1300</v>
+        <v>1318</v>
       </c>
       <c r="E56" t="n">
         <v>1605.189780306002</v>
       </c>
       <c r="F56" t="n">
-        <v>-19</v>
+        <v>-17.9</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>48290000000</v>
       </c>
       <c r="N56" t="n">
-        <v>86265920000</v>
+        <v>87460371200</v>
       </c>
     </row>
     <row r="57">
@@ -3365,16 +3365,16 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>80.7</v>
+        <v>80</v>
       </c>
       <c r="D57" t="n">
-        <v>7210</v>
+        <v>7290</v>
       </c>
       <c r="E57" t="n">
         <v>4549.503641591014</v>
       </c>
       <c r="F57" t="n">
-        <v>58.5</v>
+        <v>60.2</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         <v>96906000000</v>
       </c>
       <c r="N57" t="n">
-        <v>120153208000</v>
+        <v>121081797000</v>
       </c>
     </row>
     <row r="58">
@@ -3417,16 +3417,16 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>24.2</v>
+        <v>24.4</v>
       </c>
       <c r="D58" t="n">
-        <v>16555</v>
+        <v>16415</v>
       </c>
       <c r="E58" t="n">
         <v>13739.64575539568</v>
       </c>
       <c r="F58" t="n">
-        <v>20.5</v>
+        <v>19.5</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>265431000000</v>
       </c>
       <c r="N58" t="n">
-        <v>1097124682500</v>
+        <v>1087846672500</v>
       </c>
     </row>
     <row r="59">
@@ -3469,16 +3469,16 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>24.2</v>
+        <v>24.4</v>
       </c>
       <c r="D59" t="n">
-        <v>16555</v>
+        <v>16415</v>
       </c>
       <c r="E59" t="n">
         <v>12975.86280814577</v>
       </c>
       <c r="F59" t="n">
-        <v>27.6</v>
+        <v>26.5</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>265431000000</v>
       </c>
       <c r="N59" t="n">
-        <v>1097124682500</v>
+        <v>1087846672500</v>
       </c>
     </row>
     <row r="60">
@@ -3521,16 +3521,16 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>35.4</v>
+        <v>35.6</v>
       </c>
       <c r="D60" t="n">
-        <v>1727</v>
+        <v>1718</v>
       </c>
       <c r="E60" t="n">
         <v>1529.631984751819</v>
       </c>
       <c r="F60" t="n">
-        <v>12.9</v>
+        <v>12.3</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         <v>4358822000</v>
       </c>
       <c r="N60" t="n">
-        <v>12305306750</v>
+        <v>12241179500</v>
       </c>
     </row>
     <row r="61">
@@ -3573,16 +3573,16 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>35.4</v>
+        <v>35.6</v>
       </c>
       <c r="D61" t="n">
-        <v>1727</v>
+        <v>1718</v>
       </c>
       <c r="E61" t="n">
         <v>1449.995380693296</v>
       </c>
       <c r="F61" t="n">
-        <v>19.1</v>
+        <v>18.5</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>4358822000</v>
       </c>
       <c r="N61" t="n">
-        <v>12305306750</v>
+        <v>12241179500</v>
       </c>
     </row>
     <row r="62">
@@ -3625,16 +3625,16 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>106.4</v>
+        <v>107</v>
       </c>
       <c r="D62" t="n">
-        <v>1593.5</v>
+        <v>1584.5</v>
       </c>
       <c r="E62" t="n">
         <v>1160.8</v>
       </c>
       <c r="F62" t="n">
-        <v>37.3</v>
+        <v>36.5</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>458473000000</v>
       </c>
       <c r="N62" t="n">
-        <v>430974797504</v>
+        <v>428540675648</v>
       </c>
     </row>
     <row r="63">
@@ -3677,16 +3677,16 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="D63" t="n">
-        <v>3607</v>
+        <v>3684</v>
       </c>
       <c r="E63" t="n">
         <v>2561.705402476645</v>
       </c>
       <c r="F63" t="n">
-        <v>40.8</v>
+        <v>43.8</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3714,7 +3714,7 @@
         <v>81977000000</v>
       </c>
       <c r="N63" t="n">
-        <v>659987218000</v>
+        <v>674076216000</v>
       </c>
     </row>
     <row r="64">
@@ -3729,16 +3729,16 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="D64" t="n">
-        <v>2206</v>
+        <v>2207</v>
       </c>
       <c r="E64" t="n">
         <v>1710</v>
       </c>
       <c r="F64" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>15543000000</v>
       </c>
       <c r="N64" t="n">
-        <v>37220073200</v>
+        <v>37236945400</v>
       </c>
     </row>
     <row r="65">
@@ -3781,16 +3781,16 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="D65" t="n">
-        <v>2206</v>
+        <v>2207</v>
       </c>
       <c r="E65" t="n">
         <v>1710</v>
       </c>
       <c r="F65" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>15543000000</v>
       </c>
       <c r="N65" t="n">
-        <v>37220073200</v>
+        <v>37236945400</v>
       </c>
     </row>
     <row r="66">
@@ -3833,16 +3833,16 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>33</v>
+        <v>33.7</v>
       </c>
       <c r="D66" t="n">
-        <v>4310</v>
+        <v>4220</v>
       </c>
       <c r="E66" t="n">
         <v>1492.806001579363</v>
       </c>
       <c r="F66" t="n">
-        <v>188.7</v>
+        <v>182.7</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3870,7 +3870,7 @@
         <v>106485000000</v>
       </c>
       <c r="N66" t="n">
-        <v>322580226000</v>
+        <v>315844212000</v>
       </c>
     </row>
     <row r="67">
@@ -3888,13 +3888,13 @@
         <v>12.7</v>
       </c>
       <c r="D67" t="n">
-        <v>10040</v>
+        <v>10035</v>
       </c>
       <c r="E67" t="n">
         <v>6272.971195510064</v>
       </c>
       <c r="F67" t="n">
-        <v>60.1</v>
+        <v>60</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         <v>153254000000</v>
       </c>
       <c r="N67" t="n">
-        <v>1206255800000</v>
+        <v>1205655075000</v>
       </c>
     </row>
     <row r="68">
@@ -3937,16 +3937,16 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>53.2</v>
+        <v>53</v>
       </c>
       <c r="D68" t="n">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="E68" t="n">
         <v>896.0103264198827</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.7</v>
+        <v>-2.3</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>8417495000</v>
       </c>
       <c r="N68" t="n">
-        <v>15824881600</v>
+        <v>15879325000</v>
       </c>
     </row>
     <row r="69">
@@ -3989,16 +3989,16 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>77.40000000000001</v>
+        <v>77.8</v>
       </c>
       <c r="D69" t="n">
-        <v>2363</v>
+        <v>2351</v>
       </c>
       <c r="E69" t="n">
         <v>3610</v>
       </c>
       <c r="F69" t="n">
-        <v>-34.5</v>
+        <v>-34.9</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -4026,7 +4026,7 @@
         <v>122147000000</v>
       </c>
       <c r="N69" t="n">
-        <v>157792633200</v>
+        <v>156991316400</v>
       </c>
     </row>
   </sheetData>

--- a/docs/アクティビスト銘柄_資産判定.xlsx
+++ b/docs/アクティビスト銘柄_資産判定.xlsx
@@ -517,16 +517,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>87</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>3030</v>
+        <v>3010</v>
       </c>
       <c r="E2" t="n">
         <v>1600</v>
       </c>
       <c r="F2" t="n">
-        <v>89.40000000000001</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -554,7 +554,7 @@
         <v>88496000000</v>
       </c>
       <c r="N2" t="n">
-        <v>101688315000</v>
+        <v>101017105000</v>
       </c>
     </row>
     <row r="3">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>2220.5</v>
+        <v>2211</v>
       </c>
       <c r="E4" t="n">
         <v>2269.918722577861</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.2</v>
+        <v>-2.6</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>90811000000</v>
       </c>
       <c r="N4" t="n">
-        <v>456781293264</v>
+        <v>454827038688</v>
       </c>
     </row>
     <row r="5">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>120.1</v>
+        <v>119.6</v>
       </c>
       <c r="D5" t="n">
-        <v>2937</v>
+        <v>2949</v>
       </c>
       <c r="E5" t="n">
         <v>4991.027246539169</v>
       </c>
       <c r="F5" t="n">
-        <v>-41.2</v>
+        <v>-40.9</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -710,7 +710,7 @@
         <v>1006135000000</v>
       </c>
       <c r="N5" t="n">
-        <v>837702888000</v>
+        <v>841125576000</v>
       </c>
     </row>
     <row r="6">
@@ -725,16 +725,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>1069</v>
+        <v>1074</v>
       </c>
       <c r="E6" t="n">
         <v>653.0713101160862</v>
       </c>
       <c r="F6" t="n">
-        <v>63.7</v>
+        <v>64.5</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>1810139000</v>
       </c>
       <c r="N6" t="n">
-        <v>25576787100</v>
+        <v>25702216200</v>
       </c>
     </row>
     <row r="7">
@@ -832,7 +832,7 @@
         <v>22.6</v>
       </c>
       <c r="D8" t="n">
-        <v>3970</v>
+        <v>3975</v>
       </c>
       <c r="E8" t="n">
         <v>7960</v>
@@ -866,7 +866,7 @@
         <v>34259000000</v>
       </c>
       <c r="N8" t="n">
-        <v>151730621000</v>
+        <v>151921717500</v>
       </c>
     </row>
     <row r="9">
@@ -881,16 +881,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>48.5</v>
+        <v>49</v>
       </c>
       <c r="D9" t="n">
-        <v>6860</v>
+        <v>6790</v>
       </c>
       <c r="E9" t="n">
         <v>2920</v>
       </c>
       <c r="F9" t="n">
-        <v>134.9</v>
+        <v>132.5</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>26036000000</v>
       </c>
       <c r="N9" t="n">
-        <v>53661046600</v>
+        <v>53113484900</v>
       </c>
     </row>
     <row r="10">
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>96.59999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="D10" t="n">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="E10" t="n">
         <v>2298.672482457804</v>
       </c>
       <c r="F10" t="n">
-        <v>-19.5</v>
+        <v>-19.6</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>44925000000</v>
       </c>
       <c r="N10" t="n">
-        <v>46528031700</v>
+        <v>46477758300</v>
       </c>
     </row>
     <row r="11">
@@ -985,16 +985,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>47.6</v>
+        <v>47.7</v>
       </c>
       <c r="D11" t="n">
-        <v>832.7999877929688</v>
+        <v>831.5999755859375</v>
       </c>
       <c r="E11" t="n">
         <v>590</v>
       </c>
       <c r="F11" t="n">
-        <v>41.2</v>
+        <v>40.9</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>362887000000</v>
       </c>
       <c r="N11" t="n">
-        <v>761952027231</v>
+        <v>760854102463</v>
       </c>
     </row>
     <row r="12">
@@ -1037,16 +1037,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>28.3</v>
+        <v>28.9</v>
       </c>
       <c r="D12" t="n">
-        <v>2084</v>
+        <v>2040</v>
       </c>
       <c r="E12" t="n">
         <v>1347.74653160027</v>
       </c>
       <c r="F12" t="n">
-        <v>54.6</v>
+        <v>51.4</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1074,7 +1074,7 @@
         <v>14143000000</v>
       </c>
       <c r="N12" t="n">
-        <v>49942226400</v>
+        <v>48887784000</v>
       </c>
     </row>
     <row r="13">
@@ -1089,16 +1089,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>51.7</v>
+        <v>51.6</v>
       </c>
       <c r="D13" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E13" t="n">
         <v>290.3401328717133</v>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         <v>5368822000</v>
       </c>
       <c r="N13" t="n">
-        <v>10377183700</v>
+        <v>10411890000</v>
       </c>
     </row>
     <row r="14">
@@ -1141,16 +1141,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="D14" t="n">
-        <v>598</v>
+        <v>621</v>
       </c>
       <c r="E14" t="n">
         <v>421.6950726175476</v>
       </c>
       <c r="F14" t="n">
-        <v>41.8</v>
+        <v>47.3</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>2256815000</v>
       </c>
       <c r="N14" t="n">
-        <v>16751534800</v>
+        <v>17395824600</v>
       </c>
     </row>
     <row r="15">
@@ -1193,16 +1193,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>51.9</v>
+        <v>52</v>
       </c>
       <c r="D15" t="n">
-        <v>5688</v>
+        <v>5676</v>
       </c>
       <c r="E15" t="n">
         <v>3405.914389596362</v>
       </c>
       <c r="F15" t="n">
-        <v>67</v>
+        <v>66.7</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>193706000000</v>
       </c>
       <c r="N15" t="n">
-        <v>373438814400</v>
+        <v>372650968800</v>
       </c>
     </row>
     <row r="16">
@@ -1245,16 +1245,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>51.9</v>
+        <v>52</v>
       </c>
       <c r="D16" t="n">
-        <v>5688</v>
+        <v>5676</v>
       </c>
       <c r="E16" t="n">
         <v>2714.613787300615</v>
       </c>
       <c r="F16" t="n">
-        <v>109.5</v>
+        <v>109.1</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>193706000000</v>
       </c>
       <c r="N16" t="n">
-        <v>373438814400</v>
+        <v>372650968800</v>
       </c>
     </row>
     <row r="17">
@@ -1297,16 +1297,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="D17" t="n">
-        <v>1762</v>
+        <v>1773</v>
       </c>
       <c r="E17" t="n">
         <v>1512.21980974841</v>
       </c>
       <c r="F17" t="n">
-        <v>16.5</v>
+        <v>17.2</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1334,7 +1334,7 @@
         <v>91015000000</v>
       </c>
       <c r="N17" t="n">
-        <v>579731492096</v>
+        <v>583350701184</v>
       </c>
     </row>
     <row r="18">
@@ -1349,16 +1349,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>54.8</v>
+        <v>56.1</v>
       </c>
       <c r="D18" t="n">
-        <v>3646</v>
+        <v>3563</v>
       </c>
       <c r="E18" t="n">
         <v>2420</v>
       </c>
       <c r="F18" t="n">
-        <v>50.7</v>
+        <v>47.2</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>414670000000</v>
       </c>
       <c r="N18" t="n">
-        <v>756369992000</v>
+        <v>739151476000</v>
       </c>
     </row>
     <row r="19">
@@ -1401,16 +1401,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>43.7</v>
+        <v>43.5</v>
       </c>
       <c r="D19" t="n">
-        <v>3380</v>
+        <v>3394</v>
       </c>
       <c r="E19" t="n">
         <v>1598.889989734285</v>
       </c>
       <c r="F19" t="n">
-        <v>111.4</v>
+        <v>112.3</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>178465000000</v>
       </c>
       <c r="N19" t="n">
-        <v>408591300000</v>
+        <v>410283690000</v>
       </c>
     </row>
     <row r="20">
@@ -1453,16 +1453,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>86.59999999999999</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>1090</v>
+        <v>1096</v>
       </c>
       <c r="E20" t="n">
         <v>668.9358717434869</v>
       </c>
       <c r="F20" t="n">
-        <v>62.9</v>
+        <v>63.8</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>15118000000</v>
       </c>
       <c r="N20" t="n">
-        <v>17458530000</v>
+        <v>17554632000</v>
       </c>
     </row>
     <row r="21">
@@ -1505,16 +1505,16 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>75.5</v>
+        <v>74.2</v>
       </c>
       <c r="D21" t="n">
-        <v>2024</v>
+        <v>2058</v>
       </c>
       <c r="E21" t="n">
         <v>1270</v>
       </c>
       <c r="F21" t="n">
-        <v>59.4</v>
+        <v>62</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>26544000000</v>
       </c>
       <c r="N21" t="n">
-        <v>35178941600</v>
+        <v>35769892200</v>
       </c>
     </row>
     <row r="22">
@@ -1557,16 +1557,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>75.5</v>
+        <v>74.2</v>
       </c>
       <c r="D22" t="n">
-        <v>2024</v>
+        <v>2058</v>
       </c>
       <c r="E22" t="n">
         <v>1170</v>
       </c>
       <c r="F22" t="n">
-        <v>73</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>26544000000</v>
       </c>
       <c r="N22" t="n">
-        <v>35178941600</v>
+        <v>35769892200</v>
       </c>
     </row>
     <row r="23">
@@ -1609,16 +1609,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>65.90000000000001</v>
+        <v>66</v>
       </c>
       <c r="D23" t="n">
-        <v>6085</v>
+        <v>6078</v>
       </c>
       <c r="E23" t="n">
         <v>4137.137750115735</v>
       </c>
       <c r="F23" t="n">
-        <v>47.1</v>
+        <v>46.9</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>284031000000</v>
       </c>
       <c r="N23" t="n">
-        <v>430840490160</v>
+        <v>430344864288</v>
       </c>
     </row>
     <row r="24">
@@ -1661,16 +1661,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>71.40000000000001</v>
+        <v>70.8</v>
       </c>
       <c r="D24" t="n">
-        <v>1808</v>
+        <v>1823.5</v>
       </c>
       <c r="E24" t="n">
         <v>1257.709264012363</v>
       </c>
       <c r="F24" t="n">
-        <v>43.8</v>
+        <v>45</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>261172000000</v>
       </c>
       <c r="N24" t="n">
-        <v>365857854464</v>
+        <v>368994357088</v>
       </c>
     </row>
     <row r="25">
@@ -1713,16 +1713,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>71.40000000000001</v>
+        <v>70.8</v>
       </c>
       <c r="D25" t="n">
-        <v>1808</v>
+        <v>1823.5</v>
       </c>
       <c r="E25" t="n">
         <v>1217.254500469243</v>
       </c>
       <c r="F25" t="n">
-        <v>48.5</v>
+        <v>49.8</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>261172000000</v>
       </c>
       <c r="N25" t="n">
-        <v>365857854464</v>
+        <v>368994357088</v>
       </c>
     </row>
     <row r="26">
@@ -1765,16 +1765,16 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>56.2</v>
+        <v>56.7</v>
       </c>
       <c r="D26" t="n">
-        <v>4000</v>
+        <v>3960</v>
       </c>
       <c r="E26" t="n">
         <v>2387</v>
       </c>
       <c r="F26" t="n">
-        <v>67.59999999999999</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>105205000000</v>
       </c>
       <c r="N26" t="n">
-        <v>187282000000</v>
+        <v>185409180000</v>
       </c>
     </row>
     <row r="27">
@@ -1817,16 +1817,16 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="D27" t="n">
-        <v>5857</v>
+        <v>5819</v>
       </c>
       <c r="E27" t="n">
         <v>2420.370957920882</v>
       </c>
       <c r="F27" t="n">
-        <v>142</v>
+        <v>140.4</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>28931000000</v>
       </c>
       <c r="N27" t="n">
-        <v>294255680000</v>
+        <v>292346560000</v>
       </c>
     </row>
     <row r="28">
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>68.7</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="E28" t="n">
         <v>930</v>
       </c>
       <c r="F28" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>20765000000</v>
       </c>
       <c r="N28" t="n">
-        <v>30218090100</v>
+        <v>30070396600</v>
       </c>
     </row>
     <row r="29">
@@ -1924,13 +1924,13 @@
         <v>21.6</v>
       </c>
       <c r="D29" t="n">
-        <v>1455</v>
+        <v>1460</v>
       </c>
       <c r="E29" t="n">
         <v>1267.324164058639</v>
       </c>
       <c r="F29" t="n">
-        <v>14.8</v>
+        <v>15.2</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>3080243000</v>
       </c>
       <c r="N29" t="n">
-        <v>14240419650</v>
+        <v>14289355800</v>
       </c>
     </row>
     <row r="30">
@@ -1976,13 +1976,13 @@
         <v>53.8</v>
       </c>
       <c r="D30" t="n">
-        <v>2864</v>
+        <v>2867</v>
       </c>
       <c r="E30" t="n">
         <v>3155.301177013616</v>
       </c>
       <c r="F30" t="n">
-        <v>-9.199999999999999</v>
+        <v>-9.1</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>98642000000</v>
       </c>
       <c r="N30" t="n">
-        <v>183308315200</v>
+        <v>183500328100</v>
       </c>
     </row>
     <row r="31">
@@ -2025,16 +2025,16 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>26.4</v>
+        <v>26.5</v>
       </c>
       <c r="D31" t="n">
-        <v>5500</v>
+        <v>5490</v>
       </c>
       <c r="E31" t="n">
         <v>2617.980935875217</v>
       </c>
       <c r="F31" t="n">
-        <v>110.1</v>
+        <v>109.7</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>53152000000</v>
       </c>
       <c r="N31" t="n">
-        <v>201044800000</v>
+        <v>200679264000</v>
       </c>
     </row>
     <row r="32">
@@ -2080,7 +2080,7 @@
         <v>45.4</v>
       </c>
       <c r="D32" t="n">
-        <v>1445.5</v>
+        <v>1445</v>
       </c>
       <c r="E32" t="n">
         <v>1111.90611839092</v>
@@ -2114,7 +2114,7 @@
         <v>101020000000</v>
       </c>
       <c r="N32" t="n">
-        <v>222705294000</v>
+        <v>222628260000</v>
       </c>
     </row>
     <row r="33">
@@ -2129,16 +2129,16 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="D33" t="n">
-        <v>2442</v>
+        <v>2433</v>
       </c>
       <c r="E33" t="n">
         <v>1678.083113259255</v>
       </c>
       <c r="F33" t="n">
-        <v>45.5</v>
+        <v>45</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
         <v>19554000000</v>
       </c>
       <c r="N33" t="n">
-        <v>80518112400</v>
+        <v>80221362600</v>
       </c>
     </row>
     <row r="34">
@@ -2181,16 +2181,16 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="D34" t="n">
-        <v>2973</v>
+        <v>2975.5</v>
       </c>
       <c r="E34" t="n">
         <v>2560</v>
       </c>
       <c r="F34" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>180306000000</v>
       </c>
       <c r="N34" t="n">
-        <v>443491305216</v>
+        <v>443876139696</v>
       </c>
     </row>
     <row r="35">
@@ -2236,13 +2236,13 @@
         <v>11</v>
       </c>
       <c r="D35" t="n">
-        <v>3170</v>
+        <v>3177</v>
       </c>
       <c r="E35" t="n">
         <v>4156.179843576074</v>
       </c>
       <c r="F35" t="n">
-        <v>-23.7</v>
+        <v>-23.6</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2270,7 +2270,7 @@
         <v>90923000000</v>
       </c>
       <c r="N35" t="n">
-        <v>822890815360</v>
+        <v>824707924416</v>
       </c>
     </row>
     <row r="36">
@@ -2285,16 +2285,16 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>72.7</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>3892</v>
+        <v>3899</v>
       </c>
       <c r="E36" t="n">
         <v>3530</v>
       </c>
       <c r="F36" t="n">
-        <v>10.3</v>
+        <v>10.5</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>107738000000</v>
       </c>
       <c r="N36" t="n">
-        <v>148162212800</v>
+        <v>148428691600</v>
       </c>
     </row>
     <row r="37">
@@ -2337,16 +2337,16 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>63.4</v>
+        <v>63.7</v>
       </c>
       <c r="D37" t="n">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="E37" t="n">
         <v>3590.021519088228</v>
       </c>
       <c r="F37" t="n">
-        <v>-76</v>
+        <v>-76.2</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         <v>48088000000</v>
       </c>
       <c r="N37" t="n">
-        <v>75824397440</v>
+        <v>75471725824</v>
       </c>
     </row>
     <row r="38">
@@ -2389,16 +2389,16 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>31.3</v>
+        <v>31.2</v>
       </c>
       <c r="D38" t="n">
-        <v>3035</v>
+        <v>3065</v>
       </c>
       <c r="E38" t="n">
         <v>2480</v>
       </c>
       <c r="F38" t="n">
-        <v>22.4</v>
+        <v>23.6</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>20277000000</v>
       </c>
       <c r="N38" t="n">
-        <v>64798767500</v>
+        <v>65062900500</v>
       </c>
     </row>
     <row r="39">
@@ -2441,16 +2441,16 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>31.3</v>
+        <v>31.2</v>
       </c>
       <c r="D39" t="n">
-        <v>3035</v>
+        <v>3065</v>
       </c>
       <c r="E39" t="n">
         <v>2504.338645418327</v>
       </c>
       <c r="F39" t="n">
-        <v>21.2</v>
+        <v>22.4</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         <v>20277000000</v>
       </c>
       <c r="N39" t="n">
-        <v>64798767500</v>
+        <v>65062900500</v>
       </c>
     </row>
     <row r="40">
@@ -2493,16 +2493,16 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>31.3</v>
+        <v>31.2</v>
       </c>
       <c r="D40" t="n">
-        <v>3035</v>
+        <v>3065</v>
       </c>
       <c r="E40" t="n">
         <v>2880</v>
       </c>
       <c r="F40" t="n">
-        <v>5.4</v>
+        <v>6.4</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>20277000000</v>
       </c>
       <c r="N40" t="n">
-        <v>64798767500</v>
+        <v>65062900500</v>
       </c>
     </row>
     <row r="41">
@@ -2545,16 +2545,16 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>275.7</v>
+        <v>275.1</v>
       </c>
       <c r="D41" t="n">
-        <v>2282.5</v>
+        <v>2288</v>
       </c>
       <c r="E41" t="n">
         <v>2190</v>
       </c>
       <c r="F41" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>870891000000</v>
       </c>
       <c r="N41" t="n">
-        <v>315854614240</v>
+        <v>316615709696</v>
       </c>
     </row>
     <row r="42">
@@ -2597,10 +2597,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>38.6</v>
+        <v>38.9</v>
       </c>
       <c r="D42" t="n">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
@@ -2630,7 +2630,7 @@
         <v>35403000000</v>
       </c>
       <c r="N42" t="n">
-        <v>91815218000</v>
+        <v>91126948000</v>
       </c>
     </row>
     <row r="43">
@@ -2645,10 +2645,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>38.6</v>
+        <v>38.9</v>
       </c>
       <c r="D43" t="n">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
@@ -2678,7 +2678,7 @@
         <v>35403000000</v>
       </c>
       <c r="N43" t="n">
-        <v>91815218000</v>
+        <v>91126948000</v>
       </c>
     </row>
     <row r="44">
@@ -2693,16 +2693,16 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>58.7</v>
+        <v>59.7</v>
       </c>
       <c r="D44" t="n">
-        <v>3370</v>
+        <v>3315</v>
       </c>
       <c r="E44" t="n">
         <v>1410</v>
       </c>
       <c r="F44" t="n">
-        <v>139</v>
+        <v>135.1</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>82575000000</v>
       </c>
       <c r="N44" t="n">
-        <v>140576854000</v>
+        <v>138282573000</v>
       </c>
     </row>
     <row r="45">
@@ -2797,16 +2797,16 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>43.5</v>
+        <v>43.3</v>
       </c>
       <c r="D46" t="n">
-        <v>2349</v>
+        <v>2357</v>
       </c>
       <c r="E46" t="n">
         <v>2032.365850102071</v>
       </c>
       <c r="F46" t="n">
-        <v>15.6</v>
+        <v>16</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>323730000000</v>
       </c>
       <c r="N46" t="n">
-        <v>744825580416</v>
+        <v>747362236288</v>
       </c>
     </row>
     <row r="47">
@@ -2849,10 +2849,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>782.3</v>
+        <v>786.6</v>
       </c>
       <c r="D47" t="n">
-        <v>3650</v>
+        <v>3630</v>
       </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
@@ -2882,7 +2882,7 @@
         <v>609113000000</v>
       </c>
       <c r="N47" t="n">
-        <v>77863990000</v>
+        <v>77437338000</v>
       </c>
     </row>
     <row r="48">
@@ -2897,16 +2897,16 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>112.8</v>
+        <v>112.6</v>
       </c>
       <c r="D48" t="n">
-        <v>1899</v>
+        <v>1903</v>
       </c>
       <c r="E48" t="n">
         <v>1469.167707232735</v>
       </c>
       <c r="F48" t="n">
-        <v>29.3</v>
+        <v>29.5</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         <v>133437000000</v>
       </c>
       <c r="N48" t="n">
-        <v>118305421200</v>
+        <v>118554616400</v>
       </c>
     </row>
     <row r="49">
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>112.8</v>
+        <v>112.6</v>
       </c>
       <c r="D49" t="n">
-        <v>1899</v>
+        <v>1903</v>
       </c>
       <c r="E49" t="n">
         <v>1489.94784546053</v>
       </c>
       <c r="F49" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>133437000000</v>
       </c>
       <c r="N49" t="n">
-        <v>118305421200</v>
+        <v>118554616400</v>
       </c>
     </row>
     <row r="50">
@@ -3001,16 +3001,16 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>98.5</v>
+        <v>100.2</v>
       </c>
       <c r="D50" t="n">
-        <v>1486</v>
+        <v>1460</v>
       </c>
       <c r="E50" t="n">
         <v>1212.640316205534</v>
       </c>
       <c r="F50" t="n">
-        <v>22.5</v>
+        <v>20.4</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>13446000000</v>
       </c>
       <c r="N50" t="n">
-        <v>13657305900</v>
+        <v>13418349000</v>
       </c>
     </row>
     <row r="51">
@@ -3053,16 +3053,16 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>10</v>
+        <v>10.3</v>
       </c>
       <c r="D51" t="n">
-        <v>1656</v>
+        <v>1619.5</v>
       </c>
       <c r="E51" t="n">
         <v>1344.518957928979</v>
       </c>
       <c r="F51" t="n">
-        <v>23.2</v>
+        <v>20.5</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>55269000000</v>
       </c>
       <c r="N51" t="n">
-        <v>550865088000</v>
+        <v>538723436000</v>
       </c>
     </row>
     <row r="52">
@@ -3105,16 +3105,16 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>33.8</v>
+        <v>33.5</v>
       </c>
       <c r="D52" t="n">
-        <v>1114.5</v>
+        <v>1122.5</v>
       </c>
       <c r="E52" t="n">
         <v>2968.770104870396</v>
       </c>
       <c r="F52" t="n">
-        <v>-62.5</v>
+        <v>-62.2</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         <v>364930000000</v>
       </c>
       <c r="N52" t="n">
-        <v>1080591310752</v>
+        <v>1088347910560</v>
       </c>
     </row>
     <row r="53">
@@ -3157,16 +3157,16 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>83.5</v>
+        <v>82.3</v>
       </c>
       <c r="D53" t="n">
-        <v>2174</v>
+        <v>2204</v>
       </c>
       <c r="E53" t="n">
         <v>1190</v>
       </c>
       <c r="F53" t="n">
-        <v>82.7</v>
+        <v>85.2</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>39477000000</v>
       </c>
       <c r="N53" t="n">
-        <v>47288195800</v>
+        <v>47940746800</v>
       </c>
     </row>
     <row r="54">
@@ -3209,16 +3209,16 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>39.3</v>
+        <v>39.5</v>
       </c>
       <c r="D54" t="n">
-        <v>5641</v>
+        <v>5620</v>
       </c>
       <c r="E54" t="n">
         <v>1716.713876475349</v>
       </c>
       <c r="F54" t="n">
-        <v>228.6</v>
+        <v>227.4</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>564005000000</v>
       </c>
       <c r="N54" t="n">
-        <v>1433502202000</v>
+        <v>1428165640000</v>
       </c>
     </row>
     <row r="55">
@@ -3261,16 +3261,16 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>120.9</v>
+        <v>120.3</v>
       </c>
       <c r="D55" t="n">
-        <v>1123</v>
+        <v>1129</v>
       </c>
       <c r="E55" t="n">
         <v>438.851170934559</v>
       </c>
       <c r="F55" t="n">
-        <v>155.9</v>
+        <v>157.3</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>79323000000</v>
       </c>
       <c r="N55" t="n">
-        <v>65601954100</v>
+        <v>65952454300</v>
       </c>
     </row>
     <row r="56">
@@ -3313,16 +3313,16 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>55.2</v>
+        <v>55.3</v>
       </c>
       <c r="D56" t="n">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="E56" t="n">
         <v>1605.189780306002</v>
       </c>
       <c r="F56" t="n">
-        <v>-17.9</v>
+        <v>-18.1</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>48290000000</v>
       </c>
       <c r="N56" t="n">
-        <v>87460371200</v>
+        <v>87261296000</v>
       </c>
     </row>
     <row r="57">
@@ -3417,16 +3417,16 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="D58" t="n">
-        <v>16415</v>
+        <v>16380</v>
       </c>
       <c r="E58" t="n">
         <v>13739.64575539568</v>
       </c>
       <c r="F58" t="n">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>265431000000</v>
       </c>
       <c r="N58" t="n">
-        <v>1087846672500</v>
+        <v>1085527170000</v>
       </c>
     </row>
     <row r="59">
@@ -3469,16 +3469,16 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="D59" t="n">
-        <v>16415</v>
+        <v>16380</v>
       </c>
       <c r="E59" t="n">
         <v>12975.86280814577</v>
       </c>
       <c r="F59" t="n">
-        <v>26.5</v>
+        <v>26.2</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>265431000000</v>
       </c>
       <c r="N59" t="n">
-        <v>1087846672500</v>
+        <v>1085527170000</v>
       </c>
     </row>
     <row r="60">
@@ -3521,16 +3521,16 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>35.6</v>
+        <v>34.5</v>
       </c>
       <c r="D60" t="n">
-        <v>1718</v>
+        <v>1772</v>
       </c>
       <c r="E60" t="n">
         <v>1529.631984751819</v>
       </c>
       <c r="F60" t="n">
-        <v>12.3</v>
+        <v>15.8</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         <v>4358822000</v>
       </c>
       <c r="N60" t="n">
-        <v>12241179500</v>
+        <v>12625943000</v>
       </c>
     </row>
     <row r="61">
@@ -3573,16 +3573,16 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>35.6</v>
+        <v>34.5</v>
       </c>
       <c r="D61" t="n">
-        <v>1718</v>
+        <v>1772</v>
       </c>
       <c r="E61" t="n">
         <v>1449.995380693296</v>
       </c>
       <c r="F61" t="n">
-        <v>18.5</v>
+        <v>22.2</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>4358822000</v>
       </c>
       <c r="N61" t="n">
-        <v>12241179500</v>
+        <v>12625943000</v>
       </c>
     </row>
     <row r="62">
@@ -3625,16 +3625,16 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>107</v>
+        <v>107.6</v>
       </c>
       <c r="D62" t="n">
-        <v>1584.5</v>
+        <v>1582.5</v>
       </c>
       <c r="E62" t="n">
         <v>1160.8</v>
       </c>
       <c r="F62" t="n">
-        <v>36.5</v>
+        <v>36.3</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>458473000000</v>
       </c>
       <c r="N62" t="n">
-        <v>428540675648</v>
+        <v>426233740320</v>
       </c>
     </row>
     <row r="63">
@@ -3677,16 +3677,16 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D63" t="n">
-        <v>3684</v>
+        <v>3692</v>
       </c>
       <c r="E63" t="n">
         <v>2561.705402476645</v>
       </c>
       <c r="F63" t="n">
-        <v>43.8</v>
+        <v>44.1</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3714,7 +3714,7 @@
         <v>81977000000</v>
       </c>
       <c r="N63" t="n">
-        <v>674076216000</v>
+        <v>675540008000</v>
       </c>
     </row>
     <row r="64">
@@ -3729,16 +3729,16 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>41.7</v>
+        <v>41.1</v>
       </c>
       <c r="D64" t="n">
-        <v>2207</v>
+        <v>2240</v>
       </c>
       <c r="E64" t="n">
         <v>1710</v>
       </c>
       <c r="F64" t="n">
-        <v>29.1</v>
+        <v>31</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>15543000000</v>
       </c>
       <c r="N64" t="n">
-        <v>37236945400</v>
+        <v>37793728000</v>
       </c>
     </row>
     <row r="65">
@@ -3781,16 +3781,16 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>41.7</v>
+        <v>41.1</v>
       </c>
       <c r="D65" t="n">
-        <v>2207</v>
+        <v>2240</v>
       </c>
       <c r="E65" t="n">
         <v>1710</v>
       </c>
       <c r="F65" t="n">
-        <v>29.1</v>
+        <v>31</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>15543000000</v>
       </c>
       <c r="N65" t="n">
-        <v>37236945400</v>
+        <v>37793728000</v>
       </c>
     </row>
     <row r="66">
@@ -3833,16 +3833,16 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="D66" t="n">
-        <v>4220</v>
+        <v>4240</v>
       </c>
       <c r="E66" t="n">
         <v>1492.806001579363</v>
       </c>
       <c r="F66" t="n">
-        <v>182.7</v>
+        <v>184</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3870,7 +3870,7 @@
         <v>106485000000</v>
       </c>
       <c r="N66" t="n">
-        <v>315844212000</v>
+        <v>317341104000</v>
       </c>
     </row>
     <row r="67">
@@ -3888,13 +3888,13 @@
         <v>12.7</v>
       </c>
       <c r="D67" t="n">
-        <v>10035</v>
+        <v>10045</v>
       </c>
       <c r="E67" t="n">
         <v>6272.971195510064</v>
       </c>
       <c r="F67" t="n">
-        <v>60</v>
+        <v>60.1</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         <v>153254000000</v>
       </c>
       <c r="N67" t="n">
-        <v>1205655075000</v>
+        <v>1206856525000</v>
       </c>
     </row>
     <row r="68">
@@ -3937,16 +3937,16 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>53</v>
+        <v>52.3</v>
       </c>
       <c r="D68" t="n">
-        <v>875</v>
+        <v>887</v>
       </c>
       <c r="E68" t="n">
         <v>896.0103264198827</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.3</v>
+        <v>-1</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>8417495000</v>
       </c>
       <c r="N68" t="n">
-        <v>15879325000</v>
+        <v>16097098600</v>
       </c>
     </row>
     <row r="69">
@@ -3989,16 +3989,16 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>77.8</v>
+        <v>76.5</v>
       </c>
       <c r="D69" t="n">
-        <v>2351</v>
+        <v>2392</v>
       </c>
       <c r="E69" t="n">
         <v>3610</v>
       </c>
       <c r="F69" t="n">
-        <v>-34.9</v>
+        <v>-33.7</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -4026,7 +4026,7 @@
         <v>122147000000</v>
       </c>
       <c r="N69" t="n">
-        <v>156991316400</v>
+        <v>159729148800</v>
       </c>
     </row>
   </sheetData>

--- a/docs/アクティビスト銘柄_資産判定.xlsx
+++ b/docs/アクティビスト銘柄_資産判定.xlsx
@@ -985,7 +985,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>47.7</v>
+        <v>47.6</v>
       </c>
       <c r="D11" t="n">
         <v>831.5999755859375</v>
@@ -1022,7 +1022,7 @@
         <v>362887000000</v>
       </c>
       <c r="N11" t="n">
-        <v>760854102463</v>
+        <v>761952665989</v>
       </c>
     </row>
     <row r="12">
@@ -1765,7 +1765,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>56.7</v>
+        <v>56.2</v>
       </c>
       <c r="D26" t="n">
         <v>3960</v>
@@ -1802,7 +1802,7 @@
         <v>105205000000</v>
       </c>
       <c r="N26" t="n">
-        <v>185409180000</v>
+        <v>187282260000</v>
       </c>
     </row>
     <row r="27">
@@ -1817,7 +1817,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D27" t="n">
         <v>5819</v>
@@ -1854,7 +1854,7 @@
         <v>28931000000</v>
       </c>
       <c r="N27" t="n">
-        <v>292346560000</v>
+        <v>294255192000</v>
       </c>
     </row>
     <row r="28">
@@ -1869,7 +1869,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>69.09999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="D28" t="n">
         <v>1018</v>
@@ -1906,7 +1906,7 @@
         <v>20765000000</v>
       </c>
       <c r="N28" t="n">
-        <v>30070396600</v>
+        <v>30218108400</v>
       </c>
     </row>
     <row r="29">
@@ -3053,7 +3053,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>10.3</v>
+        <v>10</v>
       </c>
       <c r="D51" t="n">
         <v>1619.5</v>
@@ -3090,7 +3090,7 @@
         <v>55269000000</v>
       </c>
       <c r="N51" t="n">
-        <v>538723436000</v>
+        <v>550864814544</v>
       </c>
     </row>
     <row r="52">

--- a/docs/アクティビスト銘柄_資産判定.xlsx
+++ b/docs/アクティビスト銘柄_資産判定.xlsx
@@ -1765,7 +1765,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>56.2</v>
+        <v>56.7</v>
       </c>
       <c r="D26" t="n">
         <v>3960</v>
@@ -1802,7 +1802,7 @@
         <v>105205000000</v>
       </c>
       <c r="N26" t="n">
-        <v>187282260000</v>
+        <v>185409180000</v>
       </c>
     </row>
     <row r="27">
@@ -1869,7 +1869,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>68.7</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="D28" t="n">
         <v>1018</v>
@@ -1906,7 +1906,7 @@
         <v>20765000000</v>
       </c>
       <c r="N28" t="n">
-        <v>30218108400</v>
+        <v>30070396600</v>
       </c>
     </row>
     <row r="29">

--- a/docs/アクティビスト銘柄_資産判定.xlsx
+++ b/docs/アクティビスト銘柄_資産判定.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N69"/>
+  <dimension ref="A1:N70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>87.59999999999999</v>
+        <v>88</v>
       </c>
       <c r="D2" t="n">
         <v>3010</v>
@@ -554,7 +554,7 @@
         <v>88496000000</v>
       </c>
       <c r="N2" t="n">
-        <v>101017105000</v>
+        <v>100585170000</v>
       </c>
     </row>
     <row r="3">
@@ -985,7 +985,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>47.6</v>
+        <v>47.7</v>
       </c>
       <c r="D11" t="n">
         <v>831.5999755859375</v>
@@ -1022,7 +1022,7 @@
         <v>362887000000</v>
       </c>
       <c r="N11" t="n">
-        <v>761952665989</v>
+        <v>760854102463</v>
       </c>
     </row>
     <row r="12">
@@ -1817,7 +1817,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="D27" t="n">
         <v>5819</v>
@@ -1854,7 +1854,7 @@
         <v>28931000000</v>
       </c>
       <c r="N27" t="n">
-        <v>294255192000</v>
+        <v>292346560000</v>
       </c>
     </row>
     <row r="28">
@@ -2840,101 +2840,101 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>株式会社おきなわフィナンシャルグループ</t>
+          <t>イワブチ株式会社</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>7350</t>
+          <t>5983</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>786.6</v>
+        <v>89.3</v>
       </c>
       <c r="D47" t="n">
-        <v>3630</v>
-      </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
+        <v>9160</v>
+      </c>
+      <c r="E47" t="n">
+        <v>7040.15625</v>
+      </c>
+      <c r="F47" t="n">
+        <v>30.1</v>
+      </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>ＳＥＮＪＩＮ　ＣＡＰＩＴＡＬ　ＰＴＹ　ＬＴＤ</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2023-05-16</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>590636000000</v>
+        <v>4688085000</v>
       </c>
       <c r="J47" t="n">
-        <v>18477000000</v>
+        <v>1422820000</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>2670408000</v>
       </c>
       <c r="L47" t="n">
-        <v>159392000000</v>
+        <v>16426704000</v>
       </c>
       <c r="M47" t="n">
-        <v>609113000000</v>
+        <v>8781313000</v>
       </c>
       <c r="N47" t="n">
-        <v>77437338000</v>
+        <v>9836191200</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>アークランズ株式会社</t>
+          <t>株式会社おきなわフィナンシャルグループ</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>9842</t>
+          <t>7350</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>112.6</v>
+        <v>786.6</v>
       </c>
       <c r="D48" t="n">
-        <v>1903</v>
-      </c>
-      <c r="E48" t="n">
-        <v>1469.167707232735</v>
-      </c>
-      <c r="F48" t="n">
-        <v>29.5</v>
-      </c>
+        <v>3630</v>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2023-03-30</t>
+          <t>2023-05-16</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>25605000000</v>
+        <v>590636000000</v>
       </c>
       <c r="J48" t="n">
-        <v>95781000000</v>
+        <v>18477000000</v>
       </c>
       <c r="K48" t="n">
-        <v>12051000000</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>91048000000</v>
+        <v>159392000000</v>
       </c>
       <c r="M48" t="n">
-        <v>133437000000</v>
+        <v>609113000000</v>
       </c>
       <c r="N48" t="n">
-        <v>118554616400</v>
+        <v>77437338000</v>
       </c>
     </row>
     <row r="49">
@@ -2955,10 +2955,10 @@
         <v>1903</v>
       </c>
       <c r="E49" t="n">
-        <v>1489.94784546053</v>
+        <v>1469.167707232735</v>
       </c>
       <c r="F49" t="n">
-        <v>27.7</v>
+        <v>29.5</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2022-09-27</t>
+          <t>2023-03-30</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -2992,25 +2992,25 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>三井住建道路株式会社</t>
+          <t>アークランズ株式会社</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1776</t>
+          <t>9842</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>100.2</v>
+        <v>112.6</v>
       </c>
       <c r="D50" t="n">
-        <v>1460</v>
+        <v>1903</v>
       </c>
       <c r="E50" t="n">
-        <v>1212.640316205534</v>
+        <v>1489.94784546053</v>
       </c>
       <c r="F50" t="n">
-        <v>20.4</v>
+        <v>27.7</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -3019,102 +3019,102 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2022-09-27</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>10677000000</v>
+        <v>25605000000</v>
       </c>
       <c r="J50" t="n">
-        <v>2762000000</v>
+        <v>95781000000</v>
       </c>
       <c r="K50" t="n">
-        <v>7000000</v>
+        <v>12051000000</v>
       </c>
       <c r="L50" t="n">
-        <v>12543000000</v>
+        <v>91048000000</v>
       </c>
       <c r="M50" t="n">
-        <v>13446000000</v>
+        <v>133437000000</v>
       </c>
       <c r="N50" t="n">
-        <v>13418349000</v>
+        <v>118554616400</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>参天製薬株式会社</t>
+          <t>三井住建道路株式会社</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>4536</t>
+          <t>1776</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>10</v>
+        <v>100.2</v>
       </c>
       <c r="D51" t="n">
-        <v>1619.5</v>
+        <v>1460</v>
       </c>
       <c r="E51" t="n">
-        <v>1344.518957928979</v>
+        <v>1212.640316205534</v>
       </c>
       <c r="F51" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2024-04-19</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>34203000000</v>
+        <v>10677000000</v>
       </c>
       <c r="J51" t="n">
-        <v>6796000000</v>
+        <v>2762000000</v>
       </c>
       <c r="K51" t="n">
-        <v>14270000000</v>
+        <v>7000000</v>
       </c>
       <c r="L51" t="n">
-        <v>294231000000</v>
+        <v>12543000000</v>
       </c>
       <c r="M51" t="n">
-        <v>55269000000</v>
+        <v>13446000000</v>
       </c>
       <c r="N51" t="n">
-        <v>550864814544</v>
+        <v>13418349000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ヤマハ発動機株式会社</t>
+          <t>参天製薬株式会社</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>7272</t>
+          <t>4536</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>33.5</v>
+        <v>10.3</v>
       </c>
       <c r="D52" t="n">
-        <v>1122.5</v>
+        <v>1619.5</v>
       </c>
       <c r="E52" t="n">
-        <v>2968.770104870396</v>
+        <v>1344.518957928979</v>
       </c>
       <c r="F52" t="n">
-        <v>-62.2</v>
+        <v>20.5</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -3123,206 +3123,206 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2023-01-16</t>
+          <t>2024-04-19</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>267180000000</v>
+        <v>34203000000</v>
       </c>
       <c r="J52" t="n">
-        <v>48711000000</v>
+        <v>6796000000</v>
       </c>
       <c r="K52" t="n">
-        <v>49039000000</v>
+        <v>14270000000</v>
       </c>
       <c r="L52" t="n">
-        <v>749158000000</v>
+        <v>294231000000</v>
       </c>
       <c r="M52" t="n">
-        <v>364930000000</v>
+        <v>55269000000</v>
       </c>
       <c r="N52" t="n">
-        <v>1088347910560</v>
+        <v>538723436000</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>日本特殊塗料株式会社</t>
+          <t>ヤマハ発動機株式会社</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>4619</t>
+          <t>7272</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>82.3</v>
+        <v>33.5</v>
       </c>
       <c r="D53" t="n">
-        <v>2204</v>
+        <v>1122.5</v>
       </c>
       <c r="E53" t="n">
-        <v>1190</v>
+        <v>2968.770104870396</v>
       </c>
       <c r="F53" t="n">
-        <v>85.2</v>
+        <v>-62.2</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2023-01-16</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>6518000000</v>
+        <v>267180000000</v>
       </c>
       <c r="J53" t="n">
-        <v>9792000000</v>
+        <v>48711000000</v>
       </c>
       <c r="K53" t="n">
-        <v>23167000000</v>
+        <v>49039000000</v>
       </c>
       <c r="L53" t="n">
-        <v>47154000000</v>
+        <v>749158000000</v>
       </c>
       <c r="M53" t="n">
-        <v>39477000000</v>
+        <v>364930000000</v>
       </c>
       <c r="N53" t="n">
-        <v>47940746800</v>
+        <v>1088347910560</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>株式会社西武ホールディングス</t>
+          <t>日本特殊塗料株式会社</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>9024</t>
+          <t>4619</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>39.5</v>
+        <v>82.3</v>
       </c>
       <c r="D54" t="n">
-        <v>5620</v>
+        <v>2204</v>
       </c>
       <c r="E54" t="n">
-        <v>1716.713876475349</v>
+        <v>1190</v>
       </c>
       <c r="F54" t="n">
-        <v>227.4</v>
+        <v>85.2</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2024-05-07</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>28538000000</v>
+        <v>6518000000</v>
       </c>
       <c r="J54" t="n">
-        <v>485513000000</v>
+        <v>9792000000</v>
       </c>
       <c r="K54" t="n">
-        <v>49954000000</v>
+        <v>23167000000</v>
       </c>
       <c r="L54" t="n">
-        <v>385687000000</v>
+        <v>47154000000</v>
       </c>
       <c r="M54" t="n">
-        <v>564005000000</v>
+        <v>39477000000</v>
       </c>
       <c r="N54" t="n">
-        <v>1428165640000</v>
+        <v>47940746800</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>株式会社ＴＳＩホールディングス</t>
+          <t>株式会社西武ホールディングス</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>3608</t>
+          <t>9024</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>120.3</v>
+        <v>39.5</v>
       </c>
       <c r="D55" t="n">
-        <v>1129</v>
+        <v>5620</v>
       </c>
       <c r="E55" t="n">
-        <v>438.851170934559</v>
+        <v>1716.713876475349</v>
       </c>
       <c r="F55" t="n">
-        <v>157.3</v>
+        <v>227.4</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2024-05-07</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>49761000000</v>
+        <v>28538000000</v>
       </c>
       <c r="J55" t="n">
-        <v>4425000000</v>
+        <v>485513000000</v>
       </c>
       <c r="K55" t="n">
-        <v>25137000000</v>
+        <v>49954000000</v>
       </c>
       <c r="L55" t="n">
-        <v>97430000000</v>
+        <v>385687000000</v>
       </c>
       <c r="M55" t="n">
-        <v>79323000000</v>
+        <v>564005000000</v>
       </c>
       <c r="N55" t="n">
-        <v>65952454300</v>
+        <v>1428165640000</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>コニシ株式会社</t>
+          <t>株式会社ＴＳＩホールディングス</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>4956</t>
+          <t>3608</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>55.3</v>
+        <v>120.3</v>
       </c>
       <c r="D56" t="n">
-        <v>1315</v>
+        <v>1129</v>
       </c>
       <c r="E56" t="n">
-        <v>1605.189780306002</v>
+        <v>438.851170934559</v>
       </c>
       <c r="F56" t="n">
-        <v>-18.1</v>
+        <v>157.3</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3331,50 +3331,50 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2023-01-11</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>23721000000</v>
+        <v>49761000000</v>
       </c>
       <c r="J56" t="n">
-        <v>13167000000</v>
+        <v>4425000000</v>
       </c>
       <c r="K56" t="n">
-        <v>11402000000</v>
+        <v>25137000000</v>
       </c>
       <c r="L56" t="n">
-        <v>68785000000</v>
+        <v>97430000000</v>
       </c>
       <c r="M56" t="n">
-        <v>48290000000</v>
+        <v>79323000000</v>
       </c>
       <c r="N56" t="n">
-        <v>87261296000</v>
+        <v>65952454300</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>倉敷紡績株式会社</t>
+          <t>コニシ株式会社</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>3106</t>
+          <t>4956</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>80</v>
+        <v>55.3</v>
       </c>
       <c r="D57" t="n">
-        <v>7290</v>
+        <v>1315</v>
       </c>
       <c r="E57" t="n">
-        <v>4549.503641591014</v>
+        <v>1605.189780306002</v>
       </c>
       <c r="F57" t="n">
-        <v>60.2</v>
+        <v>-18.1</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3383,78 +3383,78 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2023-01-11</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>22059000000</v>
+        <v>23721000000</v>
       </c>
       <c r="J57" t="n">
-        <v>21438000000</v>
+        <v>13167000000</v>
       </c>
       <c r="K57" t="n">
-        <v>53409000000</v>
+        <v>11402000000</v>
       </c>
       <c r="L57" t="n">
-        <v>95004000000</v>
+        <v>68785000000</v>
       </c>
       <c r="M57" t="n">
-        <v>96906000000</v>
+        <v>48290000000</v>
       </c>
       <c r="N57" t="n">
-        <v>121081797000</v>
+        <v>87261296000</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>大東建託株式会社</t>
+          <t>倉敷紡績株式会社</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1878</t>
+          <t>3106</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>24.5</v>
+        <v>80</v>
       </c>
       <c r="D58" t="n">
-        <v>16380</v>
+        <v>7290</v>
       </c>
       <c r="E58" t="n">
-        <v>13739.64575539568</v>
+        <v>4549.503641591014</v>
       </c>
       <c r="F58" t="n">
-        <v>19.2</v>
+        <v>60.2</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>198760000000</v>
+        <v>22059000000</v>
       </c>
       <c r="J58" t="n">
-        <v>62873000000</v>
+        <v>21438000000</v>
       </c>
       <c r="K58" t="n">
-        <v>3798000000</v>
+        <v>53409000000</v>
       </c>
       <c r="L58" t="n">
-        <v>308206000000</v>
+        <v>95004000000</v>
       </c>
       <c r="M58" t="n">
-        <v>265431000000</v>
+        <v>96906000000</v>
       </c>
       <c r="N58" t="n">
-        <v>1085527170000</v>
+        <v>121081797000</v>
       </c>
     </row>
     <row r="59">
@@ -3475,10 +3475,10 @@
         <v>16380</v>
       </c>
       <c r="E59" t="n">
-        <v>12975.86280814577</v>
+        <v>13739.64575539568</v>
       </c>
       <c r="F59" t="n">
-        <v>26.2</v>
+        <v>19.2</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2023-06-02</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -3512,53 +3512,53 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ブロードメディア株式会社</t>
+          <t>大東建託株式会社</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>4347</t>
+          <t>1878</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>34.5</v>
+        <v>24.5</v>
       </c>
       <c r="D60" t="n">
-        <v>1772</v>
+        <v>16380</v>
       </c>
       <c r="E60" t="n">
-        <v>1529.631984751819</v>
+        <v>12975.86280814577</v>
       </c>
       <c r="F60" t="n">
-        <v>15.8</v>
+        <v>26.2</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2024-07-03</t>
+          <t>2023-06-02</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>3368262000</v>
+        <v>198760000000</v>
       </c>
       <c r="J60" t="n">
-        <v>826293000</v>
+        <v>62873000000</v>
       </c>
       <c r="K60" t="n">
-        <v>164267000</v>
+        <v>3798000000</v>
       </c>
       <c r="L60" t="n">
-        <v>3706507000</v>
+        <v>308206000000</v>
       </c>
       <c r="M60" t="n">
-        <v>4358822000</v>
+        <v>265431000000</v>
       </c>
       <c r="N60" t="n">
-        <v>12625943000</v>
+        <v>1085527170000</v>
       </c>
     </row>
     <row r="61">
@@ -3579,10 +3579,10 @@
         <v>1772</v>
       </c>
       <c r="E61" t="n">
-        <v>1449.995380693296</v>
+        <v>1529.631984751819</v>
       </c>
       <c r="F61" t="n">
-        <v>22.2</v>
+        <v>15.8</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2024-05-22</t>
+          <t>2024-07-03</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -3616,157 +3616,157 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>京浜急行電鉄株式会社</t>
+          <t>ブロードメディア株式会社</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>9006</t>
+          <t>4347</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>107.6</v>
+        <v>34.5</v>
       </c>
       <c r="D62" t="n">
-        <v>1582.5</v>
+        <v>1772</v>
       </c>
       <c r="E62" t="n">
-        <v>1160.8</v>
+        <v>1449.995380693296</v>
       </c>
       <c r="F62" t="n">
-        <v>36.3</v>
+        <v>22.2</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2024-05-22</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>57450000000</v>
+        <v>3368262000</v>
       </c>
       <c r="J62" t="n">
-        <v>297923000000</v>
+        <v>826293000</v>
       </c>
       <c r="K62" t="n">
-        <v>103100000000</v>
+        <v>164267000</v>
       </c>
       <c r="L62" t="n">
-        <v>249065000000</v>
+        <v>3706507000</v>
       </c>
       <c r="M62" t="n">
-        <v>458473000000</v>
+        <v>4358822000</v>
       </c>
       <c r="N62" t="n">
-        <v>426233740320</v>
+        <v>12625943000</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>日鉄ソリューションズ株式会社</t>
+          <t>京浜急行電鉄株式会社</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2327</t>
+          <t>9006</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>12.1</v>
+        <v>107.6</v>
       </c>
       <c r="D63" t="n">
-        <v>3692</v>
+        <v>1582.5</v>
       </c>
       <c r="E63" t="n">
-        <v>2561.705402476645</v>
+        <v>1160.8</v>
       </c>
       <c r="F63" t="n">
-        <v>44.1</v>
+        <v>36.3</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>78579000000</v>
+        <v>57450000000</v>
       </c>
       <c r="J63" t="n">
-        <v>2398000000</v>
+        <v>297923000000</v>
       </c>
       <c r="K63" t="n">
-        <v>1000000000</v>
+        <v>103100000000</v>
       </c>
       <c r="L63" t="n">
-        <v>186128000000</v>
+        <v>249065000000</v>
       </c>
       <c r="M63" t="n">
-        <v>81977000000</v>
+        <v>458473000000</v>
       </c>
       <c r="N63" t="n">
-        <v>675540008000</v>
+        <v>426233740320</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ＮＩＴＴＯＫＵ株式会社</t>
+          <t>日鉄ソリューションズ株式会社</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>6145</t>
+          <t>2327</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>41.1</v>
+        <v>12.1</v>
       </c>
       <c r="D64" t="n">
-        <v>2240</v>
+        <v>3692</v>
       </c>
       <c r="E64" t="n">
-        <v>1710</v>
+        <v>2561.705402476645</v>
       </c>
       <c r="F64" t="n">
-        <v>31</v>
+        <v>44.1</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2024-08-19</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>10110000000</v>
+        <v>78579000000</v>
       </c>
       <c r="J64" t="n">
-        <v>5132000000</v>
+        <v>2398000000</v>
       </c>
       <c r="K64" t="n">
-        <v>301000000</v>
+        <v>1000000000</v>
       </c>
       <c r="L64" t="n">
-        <v>31726000000</v>
+        <v>186128000000</v>
       </c>
       <c r="M64" t="n">
-        <v>15543000000</v>
+        <v>81977000000</v>
       </c>
       <c r="N64" t="n">
-        <v>37793728000</v>
+        <v>675540008000</v>
       </c>
     </row>
     <row r="65">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -3824,77 +3824,77 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>三井倉庫ホールディングス株式会社</t>
+          <t>ＮＩＴＴＯＫＵ株式会社</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>9302</t>
+          <t>6145</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>33.6</v>
+        <v>41.1</v>
       </c>
       <c r="D66" t="n">
-        <v>4240</v>
+        <v>2240</v>
       </c>
       <c r="E66" t="n">
-        <v>1492.806001579363</v>
+        <v>1710</v>
       </c>
       <c r="F66" t="n">
-        <v>184</v>
+        <v>31</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2024-09-03</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>22718000000</v>
+        <v>10110000000</v>
       </c>
       <c r="J66" t="n">
-        <v>68374000000</v>
+        <v>5132000000</v>
       </c>
       <c r="K66" t="n">
-        <v>15393000000</v>
+        <v>301000000</v>
       </c>
       <c r="L66" t="n">
-        <v>68529000000</v>
+        <v>31726000000</v>
       </c>
       <c r="M66" t="n">
-        <v>106485000000</v>
+        <v>15543000000</v>
       </c>
       <c r="N66" t="n">
-        <v>317341104000</v>
+        <v>37793728000</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>株式会社スクウェア・エニックス・ホールディングス</t>
+          <t>三井倉庫ホールディングス株式会社</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>9684</t>
+          <t>9302</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>12.7</v>
+        <v>33.6</v>
       </c>
       <c r="D67" t="n">
-        <v>10045</v>
+        <v>4240</v>
       </c>
       <c r="E67" t="n">
-        <v>6272.971195510064</v>
+        <v>1492.806001579363</v>
       </c>
       <c r="F67" t="n">
-        <v>60.1</v>
+        <v>184</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3903,129 +3903,181 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>144061000000</v>
+        <v>22718000000</v>
       </c>
       <c r="J67" t="n">
-        <v>4462000000</v>
+        <v>68374000000</v>
       </c>
       <c r="K67" t="n">
-        <v>4731000000</v>
+        <v>15393000000</v>
       </c>
       <c r="L67" t="n">
-        <v>243278000000</v>
+        <v>68529000000</v>
       </c>
       <c r="M67" t="n">
-        <v>153254000000</v>
+        <v>106485000000</v>
       </c>
       <c r="N67" t="n">
-        <v>1206856525000</v>
+        <v>317341104000</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ヘリオス テクノ ホールディング株式会社</t>
+          <t>株式会社スクウェア・エニックス・ホールディングス</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>6927</t>
+          <t>9684</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>52.3</v>
+        <v>12.7</v>
       </c>
       <c r="D68" t="n">
-        <v>887</v>
+        <v>10045</v>
       </c>
       <c r="E68" t="n">
-        <v>896.0103264198827</v>
+        <v>6272.971195510064</v>
       </c>
       <c r="F68" t="n">
-        <v>-1</v>
+        <v>60.1</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>6417163000</v>
+        <v>144061000000</v>
       </c>
       <c r="J68" t="n">
-        <v>658172000</v>
+        <v>4462000000</v>
       </c>
       <c r="K68" t="n">
-        <v>1342160000</v>
+        <v>4731000000</v>
       </c>
       <c r="L68" t="n">
-        <v>13418044000</v>
+        <v>243278000000</v>
       </c>
       <c r="M68" t="n">
-        <v>8417495000</v>
+        <v>153254000000</v>
       </c>
       <c r="N68" t="n">
-        <v>16097098600</v>
+        <v>1206856525000</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
+          <t>ヘリオス テクノ ホールディング株式会社</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>6927</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>52.3</v>
+      </c>
+      <c r="D69" t="n">
+        <v>887</v>
+      </c>
+      <c r="E69" t="n">
+        <v>896.0103264198827</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>6417163000</v>
+      </c>
+      <c r="J69" t="n">
+        <v>658172000</v>
+      </c>
+      <c r="K69" t="n">
+        <v>1342160000</v>
+      </c>
+      <c r="L69" t="n">
+        <v>13418044000</v>
+      </c>
+      <c r="M69" t="n">
+        <v>8417495000</v>
+      </c>
+      <c r="N69" t="n">
+        <v>16097098600</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
           <t>平和不動産株式会社</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t>8803</t>
         </is>
       </c>
-      <c r="C69" t="n">
+      <c r="C70" t="n">
         <v>76.5</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D70" t="n">
         <v>2392</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E70" t="n">
         <v>3610</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F70" t="n">
         <v>-33.7</v>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>2024-07-22</t>
         </is>
       </c>
-      <c r="I69" t="n">
+      <c r="I70" t="n">
         <v>29585000000</v>
       </c>
-      <c r="J69" t="n">
+      <c r="J70" t="n">
         <v>84557000000</v>
       </c>
-      <c r="K69" t="n">
+      <c r="K70" t="n">
         <v>8005000000</v>
       </c>
-      <c r="L69" t="n">
+      <c r="L70" t="n">
         <v>118639000000</v>
       </c>
-      <c r="M69" t="n">
+      <c r="M70" t="n">
         <v>122147000000</v>
       </c>
-      <c r="N69" t="n">
+      <c r="N70" t="n">
         <v>159729148800</v>
       </c>
     </row>

--- a/docs/アクティビスト銘柄_資産判定.xlsx
+++ b/docs/アクティビスト銘柄_資産判定.xlsx
@@ -1505,7 +1505,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>74.2</v>
+        <v>73.3</v>
       </c>
       <c r="D21" t="n">
         <v>2058</v>
@@ -1542,7 +1542,7 @@
         <v>26544000000</v>
       </c>
       <c r="N21" t="n">
-        <v>35769892200</v>
+        <v>36192811200</v>
       </c>
     </row>
     <row r="22">
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>74.2</v>
+        <v>73.3</v>
       </c>
       <c r="D22" t="n">
         <v>2058</v>
@@ -1594,7 +1594,7 @@
         <v>26544000000</v>
       </c>
       <c r="N22" t="n">
-        <v>35769892200</v>
+        <v>36192811200</v>
       </c>
     </row>
     <row r="23">

--- a/docs/アクティビスト銘柄_資産判定.xlsx
+++ b/docs/アクティビスト銘柄_資産判定.xlsx
@@ -517,16 +517,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>88</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>3010</v>
+        <v>2988</v>
       </c>
       <c r="E2" t="n">
         <v>1600</v>
       </c>
       <c r="F2" t="n">
-        <v>88.09999999999999</v>
+        <v>86.8</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -554,7 +554,7 @@
         <v>88496000000</v>
       </c>
       <c r="N2" t="n">
-        <v>100585170000</v>
+        <v>99849996000</v>
       </c>
     </row>
     <row r="3">
@@ -569,16 +569,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>56.5</v>
+        <v>56.6</v>
       </c>
       <c r="D3" t="n">
-        <v>5250</v>
+        <v>5240</v>
       </c>
       <c r="E3" t="n">
         <v>4265.455132343447</v>
       </c>
       <c r="F3" t="n">
-        <v>23.1</v>
+        <v>22.8</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
         <v>14129000000</v>
       </c>
       <c r="N3" t="n">
-        <v>25028272500</v>
+        <v>24980599600</v>
       </c>
     </row>
     <row r="4">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="D4" t="n">
-        <v>2211</v>
+        <v>2224.5</v>
       </c>
       <c r="E4" t="n">
         <v>2269.918722577861</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.6</v>
+        <v>-2</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>90811000000</v>
       </c>
       <c r="N4" t="n">
-        <v>454827038688</v>
+        <v>457604137296</v>
       </c>
     </row>
     <row r="5">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>119.6</v>
+        <v>118.1</v>
       </c>
       <c r="D5" t="n">
-        <v>2949</v>
+        <v>2986.5</v>
       </c>
       <c r="E5" t="n">
         <v>4991.027246539169</v>
       </c>
       <c r="F5" t="n">
-        <v>-40.9</v>
+        <v>-40.2</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -710,7 +710,7 @@
         <v>1006135000000</v>
       </c>
       <c r="N5" t="n">
-        <v>841125576000</v>
+        <v>851821476000</v>
       </c>
     </row>
     <row r="6">
@@ -725,16 +725,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="D6" t="n">
-        <v>1074</v>
+        <v>1090</v>
       </c>
       <c r="E6" t="n">
         <v>653.0713101160862</v>
       </c>
       <c r="F6" t="n">
-        <v>64.5</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>1810139000</v>
       </c>
       <c r="N6" t="n">
-        <v>25702216200</v>
+        <v>26085117000</v>
       </c>
     </row>
     <row r="7">
@@ -780,13 +780,13 @@
         <v>1.4</v>
       </c>
       <c r="D7" t="n">
-        <v>7450</v>
+        <v>7514</v>
       </c>
       <c r="E7" t="n">
         <v>2697.360927565142</v>
       </c>
       <c r="F7" t="n">
-        <v>176.2</v>
+        <v>178.6</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -814,7 +814,7 @@
         <v>8148000000</v>
       </c>
       <c r="N7" t="n">
-        <v>580870540000</v>
+        <v>585860568800</v>
       </c>
     </row>
     <row r="8">
@@ -829,16 +829,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>22.6</v>
+        <v>22.3</v>
       </c>
       <c r="D8" t="n">
-        <v>3975</v>
+        <v>4020</v>
       </c>
       <c r="E8" t="n">
         <v>7960</v>
       </c>
       <c r="F8" t="n">
-        <v>-50.1</v>
+        <v>-49.5</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         <v>34259000000</v>
       </c>
       <c r="N8" t="n">
-        <v>151921717500</v>
+        <v>153641586000</v>
       </c>
     </row>
     <row r="9">
@@ -881,16 +881,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>49</v>
+        <v>49.5</v>
       </c>
       <c r="D9" t="n">
-        <v>6790</v>
+        <v>6720</v>
       </c>
       <c r="E9" t="n">
         <v>2920</v>
       </c>
       <c r="F9" t="n">
-        <v>132.5</v>
+        <v>130.1</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>26036000000</v>
       </c>
       <c r="N9" t="n">
-        <v>53113484900</v>
+        <v>52565923200</v>
       </c>
     </row>
     <row r="10">
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>96.7</v>
+        <v>96.8</v>
       </c>
       <c r="D10" t="n">
-        <v>1849</v>
+        <v>1866</v>
       </c>
       <c r="E10" t="n">
         <v>2298.672482457804</v>
       </c>
       <c r="F10" t="n">
-        <v>-19.6</v>
+        <v>-18.8</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>44925000000</v>
       </c>
       <c r="N10" t="n">
-        <v>46477758300</v>
+        <v>46429252200</v>
       </c>
     </row>
     <row r="11">
@@ -985,16 +985,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>47.7</v>
+        <v>47.4</v>
       </c>
       <c r="D11" t="n">
-        <v>831.5999755859375</v>
+        <v>836.4000244140625</v>
       </c>
       <c r="E11" t="n">
         <v>590</v>
       </c>
       <c r="F11" t="n">
-        <v>40.9</v>
+        <v>41.8</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>362887000000</v>
       </c>
       <c r="N11" t="n">
-        <v>760854102463</v>
+        <v>765245801537</v>
       </c>
     </row>
     <row r="12">
@@ -1037,16 +1037,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="D12" t="n">
-        <v>2040</v>
+        <v>2031</v>
       </c>
       <c r="E12" t="n">
         <v>1347.74653160027</v>
       </c>
       <c r="F12" t="n">
-        <v>51.4</v>
+        <v>50.7</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1074,7 +1074,7 @@
         <v>14143000000</v>
       </c>
       <c r="N12" t="n">
-        <v>48887784000</v>
+        <v>48672102600</v>
       </c>
     </row>
     <row r="13">
@@ -1089,16 +1089,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>51.6</v>
+        <v>51.2</v>
       </c>
       <c r="D13" t="n">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E13" t="n">
         <v>290.3401328717133</v>
       </c>
       <c r="F13" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         <v>5368822000</v>
       </c>
       <c r="N13" t="n">
-        <v>10411890000</v>
+        <v>10481302600</v>
       </c>
     </row>
     <row r="14">
@@ -1144,13 +1144,13 @@
         <v>13</v>
       </c>
       <c r="D14" t="n">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E14" t="n">
         <v>421.6950726175476</v>
       </c>
       <c r="F14" t="n">
-        <v>47.3</v>
+        <v>47.5</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>2256815000</v>
       </c>
       <c r="N14" t="n">
-        <v>17395824600</v>
+        <v>17423837200</v>
       </c>
     </row>
     <row r="15">
@@ -1193,16 +1193,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>52</v>
+        <v>52.3</v>
       </c>
       <c r="D15" t="n">
-        <v>5676</v>
+        <v>5636</v>
       </c>
       <c r="E15" t="n">
         <v>3405.914389596362</v>
       </c>
       <c r="F15" t="n">
-        <v>66.7</v>
+        <v>65.5</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>193706000000</v>
       </c>
       <c r="N15" t="n">
-        <v>372650968800</v>
+        <v>370024816800</v>
       </c>
     </row>
     <row r="16">
@@ -1245,16 +1245,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>52</v>
+        <v>52.3</v>
       </c>
       <c r="D16" t="n">
-        <v>5676</v>
+        <v>5636</v>
       </c>
       <c r="E16" t="n">
         <v>2714.613787300615</v>
       </c>
       <c r="F16" t="n">
-        <v>109.1</v>
+        <v>107.6</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>193706000000</v>
       </c>
       <c r="N16" t="n">
-        <v>372650968800</v>
+        <v>370024816800</v>
       </c>
     </row>
     <row r="17">
@@ -1297,16 +1297,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="D17" t="n">
-        <v>1773</v>
+        <v>1760</v>
       </c>
       <c r="E17" t="n">
         <v>1512.21980974841</v>
       </c>
       <c r="F17" t="n">
-        <v>17.2</v>
+        <v>16.4</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1334,7 +1334,7 @@
         <v>91015000000</v>
       </c>
       <c r="N17" t="n">
-        <v>583350701184</v>
+        <v>579073454080</v>
       </c>
     </row>
     <row r="18">
@@ -1349,16 +1349,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>56.1</v>
+        <v>57.3</v>
       </c>
       <c r="D18" t="n">
-        <v>3563</v>
+        <v>3491</v>
       </c>
       <c r="E18" t="n">
         <v>2420</v>
       </c>
       <c r="F18" t="n">
-        <v>47.2</v>
+        <v>44.3</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>414670000000</v>
       </c>
       <c r="N18" t="n">
-        <v>739151476000</v>
+        <v>724214932000</v>
       </c>
     </row>
     <row r="19">
@@ -1401,16 +1401,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="D19" t="n">
-        <v>3394</v>
+        <v>3415</v>
       </c>
       <c r="E19" t="n">
         <v>1598.889989734285</v>
       </c>
       <c r="F19" t="n">
-        <v>112.3</v>
+        <v>113.6</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>178465000000</v>
       </c>
       <c r="N19" t="n">
-        <v>410283690000</v>
+        <v>412822275000</v>
       </c>
     </row>
     <row r="20">
@@ -1453,16 +1453,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>86.09999999999999</v>
+        <v>88</v>
       </c>
       <c r="D20" t="n">
-        <v>1096</v>
+        <v>1073</v>
       </c>
       <c r="E20" t="n">
         <v>668.9358717434869</v>
       </c>
       <c r="F20" t="n">
-        <v>63.8</v>
+        <v>60.4</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>15118000000</v>
       </c>
       <c r="N20" t="n">
-        <v>17554632000</v>
+        <v>17186241000</v>
       </c>
     </row>
     <row r="21">
@@ -1505,16 +1505,16 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>73.3</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>2058</v>
+        <v>2051</v>
       </c>
       <c r="E21" t="n">
         <v>1270</v>
       </c>
       <c r="F21" t="n">
-        <v>62</v>
+        <v>61.5</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>26544000000</v>
       </c>
       <c r="N21" t="n">
-        <v>36192811200</v>
+        <v>36069706400</v>
       </c>
     </row>
     <row r="22">
@@ -1557,16 +1557,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>73.3</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>2058</v>
+        <v>2051</v>
       </c>
       <c r="E22" t="n">
         <v>1170</v>
       </c>
       <c r="F22" t="n">
-        <v>75.90000000000001</v>
+        <v>75.3</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>26544000000</v>
       </c>
       <c r="N22" t="n">
-        <v>36192811200</v>
+        <v>36069706400</v>
       </c>
     </row>
     <row r="23">
@@ -1609,16 +1609,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>66</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>6078</v>
+        <v>6070</v>
       </c>
       <c r="E23" t="n">
         <v>4137.137750115735</v>
       </c>
       <c r="F23" t="n">
-        <v>46.9</v>
+        <v>46.7</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>284031000000</v>
       </c>
       <c r="N23" t="n">
-        <v>430344864288</v>
+        <v>426785973280</v>
       </c>
     </row>
     <row r="24">
@@ -1661,16 +1661,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>70.8</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>1823.5</v>
+        <v>1814.5</v>
       </c>
       <c r="E24" t="n">
         <v>1257.709264012363</v>
       </c>
       <c r="F24" t="n">
-        <v>45</v>
+        <v>44.3</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>261172000000</v>
       </c>
       <c r="N24" t="n">
-        <v>368994357088</v>
+        <v>367173162016</v>
       </c>
     </row>
     <row r="25">
@@ -1713,16 +1713,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>70.8</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>1823.5</v>
+        <v>1814.5</v>
       </c>
       <c r="E25" t="n">
         <v>1217.254500469243</v>
       </c>
       <c r="F25" t="n">
-        <v>49.8</v>
+        <v>49.1</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>261172000000</v>
       </c>
       <c r="N25" t="n">
-        <v>368994357088</v>
+        <v>367173162016</v>
       </c>
     </row>
     <row r="26">
@@ -1765,16 +1765,16 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>56.7</v>
+        <v>55.6</v>
       </c>
       <c r="D26" t="n">
-        <v>3960</v>
+        <v>4040</v>
       </c>
       <c r="E26" t="n">
         <v>2387</v>
       </c>
       <c r="F26" t="n">
-        <v>65.90000000000001</v>
+        <v>69.3</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>105205000000</v>
       </c>
       <c r="N26" t="n">
-        <v>185409180000</v>
+        <v>189154820000</v>
       </c>
     </row>
     <row r="27">
@@ -1817,16 +1817,16 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>5819</v>
+        <v>5901</v>
       </c>
       <c r="E27" t="n">
         <v>2420.370957920882</v>
       </c>
       <c r="F27" t="n">
-        <v>140.4</v>
+        <v>143.8</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>28931000000</v>
       </c>
       <c r="N27" t="n">
-        <v>292346560000</v>
+        <v>296466240000</v>
       </c>
     </row>
     <row r="28">
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>69.09999999999999</v>
+        <v>56.8</v>
       </c>
       <c r="D28" t="n">
-        <v>1018</v>
+        <v>1006</v>
       </c>
       <c r="E28" t="n">
         <v>930</v>
       </c>
       <c r="F28" t="n">
-        <v>9.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>20765000000</v>
       </c>
       <c r="N28" t="n">
-        <v>30070396600</v>
+        <v>36528463600</v>
       </c>
     </row>
     <row r="29">
@@ -1973,16 +1973,16 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>53.8</v>
+        <v>54.6</v>
       </c>
       <c r="D30" t="n">
-        <v>2867</v>
+        <v>2824</v>
       </c>
       <c r="E30" t="n">
         <v>3155.301177013616</v>
       </c>
       <c r="F30" t="n">
-        <v>-9.1</v>
+        <v>-10.5</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>98642000000</v>
       </c>
       <c r="N30" t="n">
-        <v>183500328100</v>
+        <v>180748143200</v>
       </c>
     </row>
     <row r="31">
@@ -2025,16 +2025,16 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>26.5</v>
+        <v>26.2</v>
       </c>
       <c r="D31" t="n">
-        <v>5490</v>
+        <v>5550</v>
       </c>
       <c r="E31" t="n">
         <v>2617.980935875217</v>
       </c>
       <c r="F31" t="n">
-        <v>109.7</v>
+        <v>112</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>53152000000</v>
       </c>
       <c r="N31" t="n">
-        <v>200679264000</v>
+        <v>202872480000</v>
       </c>
     </row>
     <row r="32">
@@ -2077,16 +2077,16 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>45.4</v>
+        <v>45.2</v>
       </c>
       <c r="D32" t="n">
-        <v>1445</v>
+        <v>1450.5</v>
       </c>
       <c r="E32" t="n">
         <v>1111.90611839092</v>
       </c>
       <c r="F32" t="n">
-        <v>30</v>
+        <v>30.5</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>101020000000</v>
       </c>
       <c r="N32" t="n">
-        <v>222628260000</v>
+        <v>223475634000</v>
       </c>
     </row>
     <row r="33">
@@ -2132,7 +2132,7 @@
         <v>24.4</v>
       </c>
       <c r="D33" t="n">
-        <v>2433</v>
+        <v>2434</v>
       </c>
       <c r="E33" t="n">
         <v>1678.083113259255</v>
@@ -2166,7 +2166,7 @@
         <v>19554000000</v>
       </c>
       <c r="N33" t="n">
-        <v>80221362600</v>
+        <v>80254334800</v>
       </c>
     </row>
     <row r="34">
@@ -2181,16 +2181,16 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>40.6</v>
+        <v>40.4</v>
       </c>
       <c r="D34" t="n">
-        <v>2975.5</v>
+        <v>2994</v>
       </c>
       <c r="E34" t="n">
         <v>2560</v>
       </c>
       <c r="F34" t="n">
-        <v>16.2</v>
+        <v>17</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>180306000000</v>
       </c>
       <c r="N34" t="n">
-        <v>443876139696</v>
+        <v>446635914048</v>
       </c>
     </row>
     <row r="35">
@@ -2233,16 +2233,16 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="D35" t="n">
-        <v>3177</v>
+        <v>3221</v>
       </c>
       <c r="E35" t="n">
         <v>4156.179843576074</v>
       </c>
       <c r="F35" t="n">
-        <v>-23.6</v>
+        <v>-22.5</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2270,7 +2270,7 @@
         <v>90923000000</v>
       </c>
       <c r="N35" t="n">
-        <v>824707924416</v>
+        <v>836129752768</v>
       </c>
     </row>
     <row r="36">
@@ -2285,16 +2285,16 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>72.59999999999999</v>
+        <v>72.8</v>
       </c>
       <c r="D36" t="n">
-        <v>3899</v>
+        <v>3885</v>
       </c>
       <c r="E36" t="n">
         <v>3530</v>
       </c>
       <c r="F36" t="n">
-        <v>10.5</v>
+        <v>10.1</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>107738000000</v>
       </c>
       <c r="N36" t="n">
-        <v>148428691600</v>
+        <v>147895734000</v>
       </c>
     </row>
     <row r="37">
@@ -2337,16 +2337,16 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>63.7</v>
+        <v>63.5</v>
       </c>
       <c r="D37" t="n">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="E37" t="n">
         <v>3590.021519088228</v>
       </c>
       <c r="F37" t="n">
-        <v>-76.2</v>
+        <v>-76.09999999999999</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         <v>48088000000</v>
       </c>
       <c r="N37" t="n">
-        <v>75471725824</v>
+        <v>75736229536</v>
       </c>
     </row>
     <row r="38">
@@ -2389,16 +2389,16 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>31.2</v>
+        <v>31</v>
       </c>
       <c r="D38" t="n">
-        <v>3065</v>
+        <v>3080</v>
       </c>
       <c r="E38" t="n">
         <v>2480</v>
       </c>
       <c r="F38" t="n">
-        <v>23.6</v>
+        <v>24.2</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>20277000000</v>
       </c>
       <c r="N38" t="n">
-        <v>65062900500</v>
+        <v>65381316000</v>
       </c>
     </row>
     <row r="39">
@@ -2441,16 +2441,16 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>31.2</v>
+        <v>31</v>
       </c>
       <c r="D39" t="n">
-        <v>3065</v>
+        <v>3080</v>
       </c>
       <c r="E39" t="n">
         <v>2504.338645418327</v>
       </c>
       <c r="F39" t="n">
-        <v>22.4</v>
+        <v>23</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         <v>20277000000</v>
       </c>
       <c r="N39" t="n">
-        <v>65062900500</v>
+        <v>65381316000</v>
       </c>
     </row>
     <row r="40">
@@ -2493,16 +2493,16 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>31.2</v>
+        <v>31</v>
       </c>
       <c r="D40" t="n">
-        <v>3065</v>
+        <v>3080</v>
       </c>
       <c r="E40" t="n">
         <v>2880</v>
       </c>
       <c r="F40" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>20277000000</v>
       </c>
       <c r="N40" t="n">
-        <v>65062900500</v>
+        <v>65381316000</v>
       </c>
     </row>
     <row r="41">
@@ -2545,16 +2545,16 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>275.1</v>
+        <v>272.2</v>
       </c>
       <c r="D41" t="n">
-        <v>2288</v>
+        <v>2312</v>
       </c>
       <c r="E41" t="n">
         <v>2190</v>
       </c>
       <c r="F41" t="n">
-        <v>4.5</v>
+        <v>5.6</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>870891000000</v>
       </c>
       <c r="N41" t="n">
-        <v>316615709696</v>
+        <v>319936853504</v>
       </c>
     </row>
     <row r="42">
@@ -2597,10 +2597,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>38.9</v>
+        <v>38.7</v>
       </c>
       <c r="D42" t="n">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
@@ -2630,7 +2630,7 @@
         <v>35403000000</v>
       </c>
       <c r="N42" t="n">
-        <v>91126948000</v>
+        <v>91539910000</v>
       </c>
     </row>
     <row r="43">
@@ -2645,10 +2645,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>38.9</v>
+        <v>38.7</v>
       </c>
       <c r="D43" t="n">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
@@ -2678,7 +2678,7 @@
         <v>35403000000</v>
       </c>
       <c r="N43" t="n">
-        <v>91126948000</v>
+        <v>91539910000</v>
       </c>
     </row>
     <row r="44">
@@ -2693,16 +2693,16 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>59.7</v>
+        <v>59.3</v>
       </c>
       <c r="D44" t="n">
-        <v>3315</v>
+        <v>3340</v>
       </c>
       <c r="E44" t="n">
         <v>1410</v>
       </c>
       <c r="F44" t="n">
-        <v>135.1</v>
+        <v>136.9</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>82575000000</v>
       </c>
       <c r="N44" t="n">
-        <v>138282573000</v>
+        <v>139325428000</v>
       </c>
     </row>
     <row r="45">
@@ -2745,16 +2745,16 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>75.8</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>2361</v>
+        <v>2373</v>
       </c>
       <c r="E45" t="n">
         <v>1303.446424801713</v>
       </c>
       <c r="F45" t="n">
-        <v>81.09999999999999</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>91090000000</v>
       </c>
       <c r="N45" t="n">
-        <v>120146095800</v>
+        <v>120756749400</v>
       </c>
     </row>
     <row r="46">
@@ -2800,7 +2800,7 @@
         <v>43.3</v>
       </c>
       <c r="D46" t="n">
-        <v>2357</v>
+        <v>2357.5</v>
       </c>
       <c r="E46" t="n">
         <v>2032.365850102071</v>
@@ -2834,7 +2834,7 @@
         <v>323730000000</v>
       </c>
       <c r="N46" t="n">
-        <v>747362236288</v>
+        <v>747520777280</v>
       </c>
     </row>
     <row r="47">
@@ -2849,16 +2849,16 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>89.3</v>
+        <v>81.3</v>
       </c>
       <c r="D47" t="n">
-        <v>9160</v>
+        <v>10060</v>
       </c>
       <c r="E47" t="n">
         <v>7040.15625</v>
       </c>
       <c r="F47" t="n">
-        <v>30.1</v>
+        <v>42.9</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>8781313000</v>
       </c>
       <c r="N47" t="n">
-        <v>9836191200</v>
+        <v>10802629200</v>
       </c>
     </row>
     <row r="48">
@@ -2901,10 +2901,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>786.6</v>
+        <v>785.5</v>
       </c>
       <c r="D48" t="n">
-        <v>3630</v>
+        <v>3635</v>
       </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
@@ -2934,7 +2934,7 @@
         <v>609113000000</v>
       </c>
       <c r="N48" t="n">
-        <v>77437338000</v>
+        <v>77544001000</v>
       </c>
     </row>
     <row r="49">
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>112.6</v>
+        <v>112.1</v>
       </c>
       <c r="D49" t="n">
-        <v>1903</v>
+        <v>1910</v>
       </c>
       <c r="E49" t="n">
         <v>1469.167707232735</v>
       </c>
       <c r="F49" t="n">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         <v>133437000000</v>
       </c>
       <c r="N49" t="n">
-        <v>118554616400</v>
+        <v>118990708000</v>
       </c>
     </row>
     <row r="50">
@@ -3001,16 +3001,16 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>112.6</v>
+        <v>112.1</v>
       </c>
       <c r="D50" t="n">
-        <v>1903</v>
+        <v>1910</v>
       </c>
       <c r="E50" t="n">
         <v>1489.94784546053</v>
       </c>
       <c r="F50" t="n">
-        <v>27.7</v>
+        <v>28.2</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>133437000000</v>
       </c>
       <c r="N50" t="n">
-        <v>118554616400</v>
+        <v>118990708000</v>
       </c>
     </row>
     <row r="51">
@@ -3053,16 +3053,16 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>100.2</v>
+        <v>98.2</v>
       </c>
       <c r="D51" t="n">
-        <v>1460</v>
+        <v>1490</v>
       </c>
       <c r="E51" t="n">
         <v>1212.640316205534</v>
       </c>
       <c r="F51" t="n">
-        <v>20.4</v>
+        <v>22.9</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>13446000000</v>
       </c>
       <c r="N51" t="n">
-        <v>13418349000</v>
+        <v>13694068500</v>
       </c>
     </row>
     <row r="52">
@@ -3105,16 +3105,16 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="D52" t="n">
-        <v>1619.5</v>
+        <v>1650</v>
       </c>
       <c r="E52" t="n">
         <v>1344.518957928979</v>
       </c>
       <c r="F52" t="n">
-        <v>20.5</v>
+        <v>22.7</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         <v>55269000000</v>
       </c>
       <c r="N52" t="n">
-        <v>538723436000</v>
+        <v>540559800000</v>
       </c>
     </row>
     <row r="53">
@@ -3160,13 +3160,13 @@
         <v>33.5</v>
       </c>
       <c r="D53" t="n">
-        <v>1122.5</v>
+        <v>1124</v>
       </c>
       <c r="E53" t="n">
         <v>2968.770104870396</v>
       </c>
       <c r="F53" t="n">
-        <v>-62.2</v>
+        <v>-62.1</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>364930000000</v>
       </c>
       <c r="N53" t="n">
-        <v>1088347910560</v>
+        <v>1089802273024</v>
       </c>
     </row>
     <row r="54">
@@ -3209,16 +3209,16 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>82.3</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>2204</v>
+        <v>2230</v>
       </c>
       <c r="E54" t="n">
         <v>1190</v>
       </c>
       <c r="F54" t="n">
-        <v>85.2</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>39477000000</v>
       </c>
       <c r="N54" t="n">
-        <v>47940746800</v>
+        <v>48506291000</v>
       </c>
     </row>
     <row r="55">
@@ -3261,16 +3261,16 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>39.5</v>
+        <v>39.4</v>
       </c>
       <c r="D55" t="n">
-        <v>5620</v>
+        <v>5634</v>
       </c>
       <c r="E55" t="n">
         <v>1716.713876475349</v>
       </c>
       <c r="F55" t="n">
-        <v>227.4</v>
+        <v>228.2</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>564005000000</v>
       </c>
       <c r="N55" t="n">
-        <v>1428165640000</v>
+        <v>1431723348000</v>
       </c>
     </row>
     <row r="56">
@@ -3313,16 +3313,16 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>120.3</v>
+        <v>120.7</v>
       </c>
       <c r="D56" t="n">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="E56" t="n">
         <v>438.851170934559</v>
       </c>
       <c r="F56" t="n">
-        <v>157.3</v>
+        <v>156.4</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>79323000000</v>
       </c>
       <c r="N56" t="n">
-        <v>65952454300</v>
+        <v>65718787500</v>
       </c>
     </row>
     <row r="57">
@@ -3365,10 +3365,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>55.3</v>
+        <v>55.4</v>
       </c>
       <c r="D57" t="n">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="E57" t="n">
         <v>1605.189780306002</v>
@@ -3402,7 +3402,7 @@
         <v>48290000000</v>
       </c>
       <c r="N57" t="n">
-        <v>87261296000</v>
+        <v>87194937600</v>
       </c>
     </row>
     <row r="58">
@@ -3417,16 +3417,16 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D58" t="n">
-        <v>7290</v>
+        <v>7200</v>
       </c>
       <c r="E58" t="n">
         <v>4549.503641591014</v>
       </c>
       <c r="F58" t="n">
-        <v>60.2</v>
+        <v>58.3</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>96906000000</v>
       </c>
       <c r="N58" t="n">
-        <v>121081797000</v>
+        <v>119586960000</v>
       </c>
     </row>
     <row r="59">
@@ -3469,16 +3469,16 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="D59" t="n">
-        <v>16380</v>
+        <v>16290</v>
       </c>
       <c r="E59" t="n">
         <v>13739.64575539568</v>
       </c>
       <c r="F59" t="n">
-        <v>19.2</v>
+        <v>18.6</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>265431000000</v>
       </c>
       <c r="N59" t="n">
-        <v>1085527170000</v>
+        <v>1079562735000</v>
       </c>
     </row>
     <row r="60">
@@ -3521,16 +3521,16 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="D60" t="n">
-        <v>16380</v>
+        <v>16290</v>
       </c>
       <c r="E60" t="n">
         <v>12975.86280814577</v>
       </c>
       <c r="F60" t="n">
-        <v>26.2</v>
+        <v>25.5</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         <v>265431000000</v>
       </c>
       <c r="N60" t="n">
-        <v>1085527170000</v>
+        <v>1079562735000</v>
       </c>
     </row>
     <row r="61">
@@ -3573,16 +3573,16 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>34.5</v>
+        <v>35.5</v>
       </c>
       <c r="D61" t="n">
-        <v>1772</v>
+        <v>1724</v>
       </c>
       <c r="E61" t="n">
         <v>1529.631984751819</v>
       </c>
       <c r="F61" t="n">
-        <v>15.8</v>
+        <v>12.7</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>4358822000</v>
       </c>
       <c r="N61" t="n">
-        <v>12625943000</v>
+        <v>12283931000</v>
       </c>
     </row>
     <row r="62">
@@ -3625,16 +3625,16 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>34.5</v>
+        <v>35.5</v>
       </c>
       <c r="D62" t="n">
-        <v>1772</v>
+        <v>1724</v>
       </c>
       <c r="E62" t="n">
         <v>1449.995380693296</v>
       </c>
       <c r="F62" t="n">
-        <v>22.2</v>
+        <v>18.9</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>4358822000</v>
       </c>
       <c r="N62" t="n">
-        <v>12625943000</v>
+        <v>12283931000</v>
       </c>
     </row>
     <row r="63">
@@ -3677,16 +3677,16 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>107.6</v>
+        <v>107.2</v>
       </c>
       <c r="D63" t="n">
-        <v>1582.5</v>
+        <v>1588</v>
       </c>
       <c r="E63" t="n">
         <v>1160.8</v>
       </c>
       <c r="F63" t="n">
-        <v>36.3</v>
+        <v>36.8</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3714,7 +3714,7 @@
         <v>458473000000</v>
       </c>
       <c r="N63" t="n">
-        <v>426233740320</v>
+        <v>427715121408</v>
       </c>
     </row>
     <row r="64">
@@ -3729,16 +3729,16 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D64" t="n">
-        <v>3692</v>
+        <v>3719</v>
       </c>
       <c r="E64" t="n">
         <v>2561.705402476645</v>
       </c>
       <c r="F64" t="n">
-        <v>44.1</v>
+        <v>45.2</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>81977000000</v>
       </c>
       <c r="N64" t="n">
-        <v>675540008000</v>
+        <v>680480306000</v>
       </c>
     </row>
     <row r="65">
@@ -3781,16 +3781,16 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>41.1</v>
+        <v>40.7</v>
       </c>
       <c r="D65" t="n">
-        <v>2240</v>
+        <v>2263</v>
       </c>
       <c r="E65" t="n">
         <v>1710</v>
       </c>
       <c r="F65" t="n">
-        <v>31</v>
+        <v>32.3</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>15543000000</v>
       </c>
       <c r="N65" t="n">
-        <v>37793728000</v>
+        <v>38181788600</v>
       </c>
     </row>
     <row r="66">
@@ -3833,16 +3833,16 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>41.1</v>
+        <v>40.7</v>
       </c>
       <c r="D66" t="n">
-        <v>2240</v>
+        <v>2263</v>
       </c>
       <c r="E66" t="n">
         <v>1710</v>
       </c>
       <c r="F66" t="n">
-        <v>31</v>
+        <v>32.3</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3870,7 +3870,7 @@
         <v>15543000000</v>
       </c>
       <c r="N66" t="n">
-        <v>37793728000</v>
+        <v>38181788600</v>
       </c>
     </row>
     <row r="67">
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>33.6</v>
+        <v>33</v>
       </c>
       <c r="D67" t="n">
-        <v>4240</v>
+        <v>4310</v>
       </c>
       <c r="E67" t="n">
         <v>1492.806001579363</v>
       </c>
       <c r="F67" t="n">
-        <v>184</v>
+        <v>188.7</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         <v>106485000000</v>
       </c>
       <c r="N67" t="n">
-        <v>317341104000</v>
+        <v>322580226000</v>
       </c>
     </row>
     <row r="68">
@@ -3937,16 +3937,16 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="D68" t="n">
-        <v>10045</v>
+        <v>10115</v>
       </c>
       <c r="E68" t="n">
         <v>6272.971195510064</v>
       </c>
       <c r="F68" t="n">
-        <v>60.1</v>
+        <v>61.2</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>153254000000</v>
       </c>
       <c r="N68" t="n">
-        <v>1206856525000</v>
+        <v>1215266675000</v>
       </c>
     </row>
     <row r="69">
@@ -3989,16 +3989,16 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>52.3</v>
+        <v>51.3</v>
       </c>
       <c r="D69" t="n">
-        <v>887</v>
+        <v>904</v>
       </c>
       <c r="E69" t="n">
         <v>896.0103264198827</v>
       </c>
       <c r="F69" t="n">
-        <v>-1</v>
+        <v>0.9</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -4026,7 +4026,7 @@
         <v>8417495000</v>
       </c>
       <c r="N69" t="n">
-        <v>16097098600</v>
+        <v>16405611200</v>
       </c>
     </row>
     <row r="70">
@@ -4041,16 +4041,16 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>76.5</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>2392</v>
+        <v>2389</v>
       </c>
       <c r="E70" t="n">
         <v>3610</v>
       </c>
       <c r="F70" t="n">
-        <v>-33.7</v>
+        <v>-33.8</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>122147000000</v>
       </c>
       <c r="N70" t="n">
-        <v>159729148800</v>
+        <v>159528819600</v>
       </c>
     </row>
   </sheetData>

--- a/docs/アクティビスト銘柄_資産判定.xlsx
+++ b/docs/アクティビスト銘柄_資産判定.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N70"/>
+  <dimension ref="A1:N71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,16 +517,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>88.59999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>2988</v>
+        <v>2850</v>
       </c>
       <c r="E2" t="n">
         <v>1600</v>
       </c>
       <c r="F2" t="n">
-        <v>86.8</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -554,7 +554,7 @@
         <v>88496000000</v>
       </c>
       <c r="N2" t="n">
-        <v>99849996000</v>
+        <v>95238450000</v>
       </c>
     </row>
     <row r="3">
@@ -569,16 +569,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>56.6</v>
+        <v>57.2</v>
       </c>
       <c r="D3" t="n">
-        <v>5240</v>
+        <v>5180</v>
       </c>
       <c r="E3" t="n">
         <v>4265.455132343447</v>
       </c>
       <c r="F3" t="n">
-        <v>22.8</v>
+        <v>21.4</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
         <v>14129000000</v>
       </c>
       <c r="N3" t="n">
-        <v>24980599600</v>
+        <v>24694562200</v>
       </c>
     </row>
     <row r="4">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19.8</v>
+        <v>20.3</v>
       </c>
       <c r="D4" t="n">
-        <v>2224.5</v>
+        <v>2175</v>
       </c>
       <c r="E4" t="n">
         <v>2269.918722577861</v>
       </c>
       <c r="F4" t="n">
-        <v>-2</v>
+        <v>-4.2</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>90811000000</v>
       </c>
       <c r="N4" t="n">
-        <v>457604137296</v>
+        <v>447420900825</v>
       </c>
     </row>
     <row r="5">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>118.1</v>
+        <v>117.9</v>
       </c>
       <c r="D5" t="n">
-        <v>2986.5</v>
+        <v>2993</v>
       </c>
       <c r="E5" t="n">
         <v>4991.027246539169</v>
       </c>
       <c r="F5" t="n">
-        <v>-40.2</v>
+        <v>-40</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -710,7 +710,7 @@
         <v>1006135000000</v>
       </c>
       <c r="N5" t="n">
-        <v>851821476000</v>
+        <v>853676168278</v>
       </c>
     </row>
     <row r="6">
@@ -725,16 +725,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>1090</v>
+        <v>1073</v>
       </c>
       <c r="E6" t="n">
         <v>653.0713101160862</v>
       </c>
       <c r="F6" t="n">
-        <v>66.90000000000001</v>
+        <v>64.3</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>1810139000</v>
       </c>
       <c r="N6" t="n">
-        <v>26085117000</v>
+        <v>25678251637</v>
       </c>
     </row>
     <row r="7">
@@ -780,13 +780,13 @@
         <v>1.4</v>
       </c>
       <c r="D7" t="n">
-        <v>7514</v>
+        <v>7490</v>
       </c>
       <c r="E7" t="n">
         <v>2697.360927565142</v>
       </c>
       <c r="F7" t="n">
-        <v>178.6</v>
+        <v>177.7</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -814,7 +814,7 @@
         <v>8148000000</v>
       </c>
       <c r="N7" t="n">
-        <v>585860568800</v>
+        <v>583989450310</v>
       </c>
     </row>
     <row r="8">
@@ -829,16 +829,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="D8" t="n">
-        <v>4020</v>
+        <v>3990</v>
       </c>
       <c r="E8" t="n">
         <v>7960</v>
       </c>
       <c r="F8" t="n">
-        <v>-49.5</v>
+        <v>-49.9</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         <v>34259000000</v>
       </c>
       <c r="N8" t="n">
-        <v>153641586000</v>
+        <v>152495110740</v>
       </c>
     </row>
     <row r="9">
@@ -881,16 +881,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>49.5</v>
+        <v>50.3</v>
       </c>
       <c r="D9" t="n">
-        <v>6720</v>
+        <v>6620</v>
       </c>
       <c r="E9" t="n">
         <v>2920</v>
       </c>
       <c r="F9" t="n">
-        <v>130.1</v>
+        <v>126.7</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>26036000000</v>
       </c>
       <c r="N9" t="n">
-        <v>52565923200</v>
+        <v>51783692200</v>
       </c>
     </row>
     <row r="10">
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>96.8</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>1866</v>
+        <v>1863</v>
       </c>
       <c r="E10" t="n">
         <v>2298.672482457804</v>
       </c>
       <c r="F10" t="n">
-        <v>-18.8</v>
+        <v>-19</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>44925000000</v>
       </c>
       <c r="N10" t="n">
-        <v>46429252200</v>
+        <v>46354607100</v>
       </c>
     </row>
     <row r="11">
@@ -985,16 +985,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>47.4</v>
+        <v>47.3</v>
       </c>
       <c r="D11" t="n">
-        <v>836.4000244140625</v>
+        <v>837.7000122070312</v>
       </c>
       <c r="E11" t="n">
         <v>590</v>
       </c>
       <c r="F11" t="n">
-        <v>41.8</v>
+        <v>42</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>362887000000</v>
       </c>
       <c r="N11" t="n">
-        <v>765245801537</v>
+        <v>766435541901</v>
       </c>
     </row>
     <row r="12">
@@ -1037,16 +1037,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>29.1</v>
+        <v>29.4</v>
       </c>
       <c r="D12" t="n">
-        <v>2031</v>
+        <v>2010</v>
       </c>
       <c r="E12" t="n">
         <v>1347.74653160027</v>
       </c>
       <c r="F12" t="n">
-        <v>50.7</v>
+        <v>49.1</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1074,7 +1074,7 @@
         <v>14143000000</v>
       </c>
       <c r="N12" t="n">
-        <v>48672102600</v>
+        <v>48168864090</v>
       </c>
     </row>
     <row r="13">
@@ -1089,16 +1089,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>51.2</v>
+        <v>51.6</v>
       </c>
       <c r="D13" t="n">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E13" t="n">
         <v>290.3401328717133</v>
       </c>
       <c r="F13" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         <v>5368822000</v>
       </c>
       <c r="N13" t="n">
-        <v>10481302600</v>
+        <v>10411881900</v>
       </c>
     </row>
     <row r="14">
@@ -1144,13 +1144,13 @@
         <v>13</v>
       </c>
       <c r="D14" t="n">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="E14" t="n">
         <v>421.6950726175476</v>
       </c>
       <c r="F14" t="n">
-        <v>47.5</v>
+        <v>46.8</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>2256815000</v>
       </c>
       <c r="N14" t="n">
-        <v>17423837200</v>
+        <v>17339799400</v>
       </c>
     </row>
     <row r="15">
@@ -1193,16 +1193,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>52.3</v>
+        <v>53.7</v>
       </c>
       <c r="D15" t="n">
-        <v>5636</v>
+        <v>5496</v>
       </c>
       <c r="E15" t="n">
         <v>3405.914389596362</v>
       </c>
       <c r="F15" t="n">
-        <v>65.5</v>
+        <v>61.4</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>193706000000</v>
       </c>
       <c r="N15" t="n">
-        <v>370024816800</v>
+        <v>360833284800</v>
       </c>
     </row>
     <row r="16">
@@ -1245,16 +1245,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>52.3</v>
+        <v>53.7</v>
       </c>
       <c r="D16" t="n">
-        <v>5636</v>
+        <v>5496</v>
       </c>
       <c r="E16" t="n">
         <v>2714.613787300615</v>
       </c>
       <c r="F16" t="n">
-        <v>107.6</v>
+        <v>102.5</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>193706000000</v>
       </c>
       <c r="N16" t="n">
-        <v>370024816800</v>
+        <v>360833284800</v>
       </c>
     </row>
     <row r="17">
@@ -1297,16 +1297,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="D17" t="n">
-        <v>1760</v>
+        <v>1739</v>
       </c>
       <c r="E17" t="n">
         <v>1512.21980974841</v>
       </c>
       <c r="F17" t="n">
-        <v>16.4</v>
+        <v>15</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1334,7 +1334,7 @@
         <v>91015000000</v>
       </c>
       <c r="N17" t="n">
-        <v>579073454080</v>
+        <v>572164054912</v>
       </c>
     </row>
     <row r="18">
@@ -1349,16 +1349,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>57.3</v>
+        <v>57.1</v>
       </c>
       <c r="D18" t="n">
-        <v>3491</v>
+        <v>3499</v>
       </c>
       <c r="E18" t="n">
         <v>2420</v>
       </c>
       <c r="F18" t="n">
-        <v>44.3</v>
+        <v>44.6</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>414670000000</v>
       </c>
       <c r="N18" t="n">
-        <v>724214932000</v>
+        <v>725874901399</v>
       </c>
     </row>
     <row r="19">
@@ -1401,16 +1401,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>43.2</v>
+        <v>43.1</v>
       </c>
       <c r="D19" t="n">
-        <v>3415</v>
+        <v>3424</v>
       </c>
       <c r="E19" t="n">
         <v>1598.889989734285</v>
       </c>
       <c r="F19" t="n">
-        <v>113.6</v>
+        <v>114.1</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>178465000000</v>
       </c>
       <c r="N19" t="n">
-        <v>412822275000</v>
+        <v>413911650688</v>
       </c>
     </row>
     <row r="20">
@@ -1453,16 +1453,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>88</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>1073</v>
+        <v>1050</v>
       </c>
       <c r="E20" t="n">
         <v>668.9358717434869</v>
       </c>
       <c r="F20" t="n">
-        <v>60.4</v>
+        <v>57</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>15118000000</v>
       </c>
       <c r="N20" t="n">
-        <v>17186241000</v>
+        <v>16817850000</v>
       </c>
     </row>
     <row r="21">
@@ -1505,16 +1505,16 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>73.59999999999999</v>
+        <v>75.2</v>
       </c>
       <c r="D21" t="n">
-        <v>2051</v>
+        <v>2032</v>
       </c>
       <c r="E21" t="n">
         <v>1270</v>
       </c>
       <c r="F21" t="n">
-        <v>61.5</v>
+        <v>60</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>26544000000</v>
       </c>
       <c r="N21" t="n">
-        <v>36069706400</v>
+        <v>35317905488</v>
       </c>
     </row>
     <row r="22">
@@ -1557,16 +1557,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>73.59999999999999</v>
+        <v>75.2</v>
       </c>
       <c r="D22" t="n">
-        <v>2051</v>
+        <v>2032</v>
       </c>
       <c r="E22" t="n">
         <v>1170</v>
       </c>
       <c r="F22" t="n">
-        <v>75.3</v>
+        <v>73.7</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>26544000000</v>
       </c>
       <c r="N22" t="n">
-        <v>36069706400</v>
+        <v>35317905488</v>
       </c>
     </row>
     <row r="23">
@@ -1609,16 +1609,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>66.59999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="D23" t="n">
-        <v>6070</v>
+        <v>5884</v>
       </c>
       <c r="E23" t="n">
         <v>4137.137750115735</v>
       </c>
       <c r="F23" t="n">
-        <v>46.7</v>
+        <v>42.2</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>284031000000</v>
       </c>
       <c r="N23" t="n">
-        <v>426785973280</v>
+        <v>413708329436</v>
       </c>
     </row>
     <row r="24">
@@ -1661,16 +1661,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>71.09999999999999</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>1814.5</v>
+        <v>1847.5</v>
       </c>
       <c r="E24" t="n">
         <v>1257.709264012363</v>
       </c>
       <c r="F24" t="n">
-        <v>44.3</v>
+        <v>46.9</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>261172000000</v>
       </c>
       <c r="N24" t="n">
-        <v>367173162016</v>
+        <v>373850662970</v>
       </c>
     </row>
     <row r="25">
@@ -1713,16 +1713,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>71.09999999999999</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>1814.5</v>
+        <v>1847.5</v>
       </c>
       <c r="E25" t="n">
         <v>1217.254500469243</v>
       </c>
       <c r="F25" t="n">
-        <v>49.1</v>
+        <v>51.8</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>261172000000</v>
       </c>
       <c r="N25" t="n">
-        <v>367173162016</v>
+        <v>373850662970</v>
       </c>
     </row>
     <row r="26">
@@ -1765,16 +1765,16 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>55.6</v>
+        <v>56.5</v>
       </c>
       <c r="D26" t="n">
-        <v>4040</v>
+        <v>3975</v>
       </c>
       <c r="E26" t="n">
         <v>2387</v>
       </c>
       <c r="F26" t="n">
-        <v>69.3</v>
+        <v>66.5</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>105205000000</v>
       </c>
       <c r="N26" t="n">
-        <v>189154820000</v>
+        <v>186111594825</v>
       </c>
     </row>
     <row r="27">
@@ -1820,13 +1820,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>5901</v>
+        <v>5892</v>
       </c>
       <c r="E27" t="n">
         <v>2420.370957920882</v>
       </c>
       <c r="F27" t="n">
-        <v>143.8</v>
+        <v>143.4</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>28931000000</v>
       </c>
       <c r="N27" t="n">
-        <v>296466240000</v>
+        <v>296013826644</v>
       </c>
     </row>
     <row r="28">
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>56.8</v>
+        <v>58.4</v>
       </c>
       <c r="D28" t="n">
-        <v>1006</v>
+        <v>980</v>
       </c>
       <c r="E28" t="n">
         <v>930</v>
       </c>
       <c r="F28" t="n">
-        <v>8.199999999999999</v>
+        <v>5.4</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>20765000000</v>
       </c>
       <c r="N28" t="n">
-        <v>36528463600</v>
+        <v>35584405640</v>
       </c>
     </row>
     <row r="29">
@@ -1921,16 +1921,16 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="D29" t="n">
-        <v>1460</v>
+        <v>1441</v>
       </c>
       <c r="E29" t="n">
         <v>1267.324164058639</v>
       </c>
       <c r="F29" t="n">
-        <v>15.2</v>
+        <v>13.7</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>3080243000</v>
       </c>
       <c r="N29" t="n">
-        <v>14289355800</v>
+        <v>14103398430</v>
       </c>
     </row>
     <row r="30">
@@ -1973,16 +1973,16 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>54.6</v>
+        <v>55</v>
       </c>
       <c r="D30" t="n">
-        <v>2824</v>
+        <v>2802</v>
       </c>
       <c r="E30" t="n">
         <v>3155.301177013616</v>
       </c>
       <c r="F30" t="n">
-        <v>-10.5</v>
+        <v>-11.2</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>98642000000</v>
       </c>
       <c r="N30" t="n">
-        <v>180748143200</v>
+        <v>179340048600</v>
       </c>
     </row>
     <row r="31">
@@ -2025,16 +2025,16 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="D31" t="n">
-        <v>5550</v>
+        <v>5510</v>
       </c>
       <c r="E31" t="n">
         <v>2617.980935875217</v>
       </c>
       <c r="F31" t="n">
-        <v>112</v>
+        <v>110.5</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>53152000000</v>
       </c>
       <c r="N31" t="n">
-        <v>202872480000</v>
+        <v>201410336000</v>
       </c>
     </row>
     <row r="32">
@@ -2077,16 +2077,16 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>45.2</v>
+        <v>45.6</v>
       </c>
       <c r="D32" t="n">
-        <v>1450.5</v>
+        <v>1437</v>
       </c>
       <c r="E32" t="n">
         <v>1111.90611839092</v>
       </c>
       <c r="F32" t="n">
-        <v>30.5</v>
+        <v>29.2</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>101020000000</v>
       </c>
       <c r="N32" t="n">
-        <v>223475634000</v>
+        <v>221396335347</v>
       </c>
     </row>
     <row r="33">
@@ -2129,16 +2129,16 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>24.4</v>
+        <v>24.2</v>
       </c>
       <c r="D33" t="n">
-        <v>2434</v>
+        <v>2449</v>
       </c>
       <c r="E33" t="n">
         <v>1678.083113259255</v>
       </c>
       <c r="F33" t="n">
-        <v>45</v>
+        <v>45.9</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
         <v>19554000000</v>
       </c>
       <c r="N33" t="n">
-        <v>80254334800</v>
+        <v>80748841881</v>
       </c>
     </row>
     <row r="34">
@@ -2181,16 +2181,16 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="D34" t="n">
-        <v>2994</v>
+        <v>2968.5</v>
       </c>
       <c r="E34" t="n">
         <v>2560</v>
       </c>
       <c r="F34" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>180306000000</v>
       </c>
       <c r="N34" t="n">
-        <v>446635914048</v>
+        <v>442831829508</v>
       </c>
     </row>
     <row r="35">
@@ -2233,16 +2233,16 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="D35" t="n">
-        <v>3221</v>
+        <v>3229</v>
       </c>
       <c r="E35" t="n">
         <v>4156.179843576074</v>
       </c>
       <c r="F35" t="n">
-        <v>-22.5</v>
+        <v>-22.3</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2270,7 +2270,7 @@
         <v>90923000000</v>
       </c>
       <c r="N35" t="n">
-        <v>836129752768</v>
+        <v>838207795325</v>
       </c>
     </row>
     <row r="36">
@@ -2285,16 +2285,16 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>72.8</v>
+        <v>73.5</v>
       </c>
       <c r="D36" t="n">
-        <v>3885</v>
+        <v>3850</v>
       </c>
       <c r="E36" t="n">
         <v>3530</v>
       </c>
       <c r="F36" t="n">
-        <v>10.1</v>
+        <v>9.1</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>107738000000</v>
       </c>
       <c r="N36" t="n">
-        <v>147895734000</v>
+        <v>146563147500</v>
       </c>
     </row>
     <row r="37">
@@ -2337,16 +2337,16 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>63.5</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="E37" t="n">
         <v>3590.021519088228</v>
       </c>
       <c r="F37" t="n">
-        <v>-76.09999999999999</v>
+        <v>-76.3</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2374,7 +2374,7 @@
         <v>48088000000</v>
       </c>
       <c r="N37" t="n">
-        <v>75736229536</v>
+        <v>75030886304</v>
       </c>
     </row>
     <row r="38">
@@ -2389,16 +2389,16 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>31</v>
+        <v>31.4</v>
       </c>
       <c r="D38" t="n">
-        <v>3080</v>
+        <v>3040</v>
       </c>
       <c r="E38" t="n">
         <v>2480</v>
       </c>
       <c r="F38" t="n">
-        <v>24.2</v>
+        <v>22.6</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>20277000000</v>
       </c>
       <c r="N38" t="n">
-        <v>65381316000</v>
+        <v>64532208000</v>
       </c>
     </row>
     <row r="39">
@@ -2441,16 +2441,16 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>31</v>
+        <v>31.4</v>
       </c>
       <c r="D39" t="n">
-        <v>3080</v>
+        <v>3040</v>
       </c>
       <c r="E39" t="n">
         <v>2504.338645418327</v>
       </c>
       <c r="F39" t="n">
-        <v>23</v>
+        <v>21.4</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         <v>20277000000</v>
       </c>
       <c r="N39" t="n">
-        <v>65381316000</v>
+        <v>64532208000</v>
       </c>
     </row>
     <row r="40">
@@ -2493,16 +2493,16 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>31</v>
+        <v>31.4</v>
       </c>
       <c r="D40" t="n">
-        <v>3080</v>
+        <v>3040</v>
       </c>
       <c r="E40" t="n">
         <v>2880</v>
       </c>
       <c r="F40" t="n">
-        <v>6.9</v>
+        <v>5.6</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>20277000000</v>
       </c>
       <c r="N40" t="n">
-        <v>65381316000</v>
+        <v>64532208000</v>
       </c>
     </row>
     <row r="41">
@@ -2545,16 +2545,16 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>272.2</v>
+        <v>272.7</v>
       </c>
       <c r="D41" t="n">
-        <v>2312</v>
+        <v>2307.5</v>
       </c>
       <c r="E41" t="n">
         <v>2190</v>
       </c>
       <c r="F41" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>870891000000</v>
       </c>
       <c r="N41" t="n">
-        <v>319936853504</v>
+        <v>319314365175</v>
       </c>
     </row>
     <row r="42">
@@ -2597,10 +2597,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>38.7</v>
+        <v>38.9</v>
       </c>
       <c r="D42" t="n">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
@@ -2630,7 +2630,7 @@
         <v>35403000000</v>
       </c>
       <c r="N42" t="n">
-        <v>91539910000</v>
+        <v>91126973818</v>
       </c>
     </row>
     <row r="43">
@@ -2645,10 +2645,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>38.7</v>
+        <v>38.9</v>
       </c>
       <c r="D43" t="n">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
@@ -2678,7 +2678,7 @@
         <v>35403000000</v>
       </c>
       <c r="N43" t="n">
-        <v>91539910000</v>
+        <v>91126973818</v>
       </c>
     </row>
     <row r="44">
@@ -2693,16 +2693,16 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>59.3</v>
+        <v>62.6</v>
       </c>
       <c r="D44" t="n">
-        <v>3340</v>
+        <v>3160</v>
       </c>
       <c r="E44" t="n">
         <v>1410</v>
       </c>
       <c r="F44" t="n">
-        <v>136.9</v>
+        <v>124.1</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>82575000000</v>
       </c>
       <c r="N44" t="n">
-        <v>139325428000</v>
+        <v>131817014200</v>
       </c>
     </row>
     <row r="45">
@@ -2745,16 +2745,16 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>75.40000000000001</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>2373</v>
+        <v>2337</v>
       </c>
       <c r="E45" t="n">
         <v>1303.446424801713</v>
       </c>
       <c r="F45" t="n">
-        <v>82.09999999999999</v>
+        <v>79.3</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>91090000000</v>
       </c>
       <c r="N45" t="n">
-        <v>120756749400</v>
+        <v>118924788600</v>
       </c>
     </row>
     <row r="46">
@@ -2797,16 +2797,16 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>43.3</v>
+        <v>43.8</v>
       </c>
       <c r="D46" t="n">
-        <v>2357.5</v>
+        <v>2331</v>
       </c>
       <c r="E46" t="n">
         <v>2032.365850102071</v>
       </c>
       <c r="F46" t="n">
-        <v>16</v>
+        <v>14.7</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>323730000000</v>
       </c>
       <c r="N46" t="n">
-        <v>747520777280</v>
+        <v>739118748060</v>
       </c>
     </row>
     <row r="47">
@@ -2849,16 +2849,16 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>81.3</v>
+        <v>82.3</v>
       </c>
       <c r="D47" t="n">
-        <v>10060</v>
+        <v>9940</v>
       </c>
       <c r="E47" t="n">
         <v>7040.15625</v>
       </c>
       <c r="F47" t="n">
-        <v>42.9</v>
+        <v>41.2</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2886,107 +2886,107 @@
         <v>8781313000</v>
       </c>
       <c r="N47" t="n">
-        <v>10802629200</v>
+        <v>10673770800</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>株式会社おきなわフィナンシャルグループ</t>
+          <t>イワブチ株式会社</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>7350</t>
+          <t>5983</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>785.5</v>
+        <v>82.3</v>
       </c>
       <c r="D48" t="n">
-        <v>3635</v>
-      </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
+        <v>9940</v>
+      </c>
+      <c r="E48" t="n">
+        <v>7040.15625</v>
+      </c>
+      <c r="F48" t="n">
+        <v>41.2</v>
+      </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>ＳＥＮＪＩＮ　ＣＡＰＩＴＡＬ　ＰＴＹ　ＬＴＤ</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2023-05-16</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>590636000000</v>
+        <v>4688085000</v>
       </c>
       <c r="J48" t="n">
-        <v>18477000000</v>
+        <v>1422820000</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>2670408000</v>
       </c>
       <c r="L48" t="n">
-        <v>159392000000</v>
+        <v>16426704000</v>
       </c>
       <c r="M48" t="n">
-        <v>609113000000</v>
+        <v>8781313000</v>
       </c>
       <c r="N48" t="n">
-        <v>77544001000</v>
+        <v>10673770800</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>アークランズ株式会社</t>
+          <t>株式会社おきなわフィナンシャルグループ</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>9842</t>
+          <t>7350</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>112.1</v>
+        <v>792</v>
       </c>
       <c r="D49" t="n">
-        <v>1910</v>
-      </c>
-      <c r="E49" t="n">
-        <v>1469.167707232735</v>
-      </c>
-      <c r="F49" t="n">
-        <v>30</v>
-      </c>
+        <v>3605</v>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2023-03-30</t>
+          <t>2023-05-16</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>25605000000</v>
+        <v>590636000000</v>
       </c>
       <c r="J49" t="n">
-        <v>95781000000</v>
+        <v>18477000000</v>
       </c>
       <c r="K49" t="n">
-        <v>12051000000</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>91048000000</v>
+        <v>159392000000</v>
       </c>
       <c r="M49" t="n">
-        <v>133437000000</v>
+        <v>609113000000</v>
       </c>
       <c r="N49" t="n">
-        <v>118990708000</v>
+        <v>76904023000</v>
       </c>
     </row>
     <row r="50">
@@ -3001,16 +3001,16 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>112.1</v>
+        <v>112.6</v>
       </c>
       <c r="D50" t="n">
-        <v>1910</v>
+        <v>1902</v>
       </c>
       <c r="E50" t="n">
-        <v>1489.94784546053</v>
+        <v>1469.167707232735</v>
       </c>
       <c r="F50" t="n">
-        <v>28.2</v>
+        <v>29.5</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -3019,7 +3019,7 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2022-09-27</t>
+          <t>2023-03-30</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -3038,31 +3038,31 @@
         <v>133437000000</v>
       </c>
       <c r="N50" t="n">
-        <v>118990708000</v>
+        <v>118492317600</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>三井住建道路株式会社</t>
+          <t>アークランズ株式会社</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1776</t>
+          <t>9842</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>98.2</v>
+        <v>112.6</v>
       </c>
       <c r="D51" t="n">
-        <v>1490</v>
+        <v>1902</v>
       </c>
       <c r="E51" t="n">
-        <v>1212.640316205534</v>
+        <v>1489.94784546053</v>
       </c>
       <c r="F51" t="n">
-        <v>22.9</v>
+        <v>27.7</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -3071,102 +3071,102 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2022-09-27</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>10677000000</v>
+        <v>25605000000</v>
       </c>
       <c r="J51" t="n">
-        <v>2762000000</v>
+        <v>95781000000</v>
       </c>
       <c r="K51" t="n">
-        <v>7000000</v>
+        <v>12051000000</v>
       </c>
       <c r="L51" t="n">
-        <v>12543000000</v>
+        <v>91048000000</v>
       </c>
       <c r="M51" t="n">
-        <v>13446000000</v>
+        <v>133437000000</v>
       </c>
       <c r="N51" t="n">
-        <v>13694068500</v>
+        <v>118492317600</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>参天製薬株式会社</t>
+          <t>三井住建道路株式会社</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>4536</t>
+          <t>1776</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>10.2</v>
+        <v>99.7</v>
       </c>
       <c r="D52" t="n">
-        <v>1650</v>
+        <v>1468</v>
       </c>
       <c r="E52" t="n">
-        <v>1344.518957928979</v>
+        <v>1212.640316205534</v>
       </c>
       <c r="F52" t="n">
-        <v>22.7</v>
+        <v>21.1</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2024-04-19</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>34203000000</v>
+        <v>10677000000</v>
       </c>
       <c r="J52" t="n">
-        <v>6796000000</v>
+        <v>2762000000</v>
       </c>
       <c r="K52" t="n">
-        <v>14270000000</v>
+        <v>7000000</v>
       </c>
       <c r="L52" t="n">
-        <v>294231000000</v>
+        <v>12543000000</v>
       </c>
       <c r="M52" t="n">
-        <v>55269000000</v>
+        <v>13446000000</v>
       </c>
       <c r="N52" t="n">
-        <v>540559800000</v>
+        <v>13491874200</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ヤマハ発動機株式会社</t>
+          <t>参天製薬株式会社</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>7272</t>
+          <t>4536</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>33.5</v>
+        <v>10.3</v>
       </c>
       <c r="D53" t="n">
-        <v>1124</v>
+        <v>1638.5</v>
       </c>
       <c r="E53" t="n">
-        <v>2968.770104870396</v>
+        <v>1344.518957928979</v>
       </c>
       <c r="F53" t="n">
-        <v>-62.1</v>
+        <v>21.9</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -3175,206 +3175,206 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2023-01-16</t>
+          <t>2024-04-19</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>267180000000</v>
+        <v>34203000000</v>
       </c>
       <c r="J53" t="n">
-        <v>48711000000</v>
+        <v>6796000000</v>
       </c>
       <c r="K53" t="n">
-        <v>49039000000</v>
+        <v>14270000000</v>
       </c>
       <c r="L53" t="n">
-        <v>749158000000</v>
+        <v>294231000000</v>
       </c>
       <c r="M53" t="n">
-        <v>364930000000</v>
+        <v>55269000000</v>
       </c>
       <c r="N53" t="n">
-        <v>1089802273024</v>
+        <v>536791883506</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>日本特殊塗料株式会社</t>
+          <t>ヤマハ発動機株式会社</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>4619</t>
+          <t>7272</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>81.40000000000001</v>
+        <v>33.8</v>
       </c>
       <c r="D54" t="n">
-        <v>2230</v>
+        <v>1114.5</v>
       </c>
       <c r="E54" t="n">
-        <v>1190</v>
+        <v>2968.770104870396</v>
       </c>
       <c r="F54" t="n">
-        <v>87.40000000000001</v>
+        <v>-62.5</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2023-01-16</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>6518000000</v>
+        <v>267180000000</v>
       </c>
       <c r="J54" t="n">
-        <v>9792000000</v>
+        <v>48711000000</v>
       </c>
       <c r="K54" t="n">
-        <v>23167000000</v>
+        <v>49039000000</v>
       </c>
       <c r="L54" t="n">
-        <v>47154000000</v>
+        <v>749158000000</v>
       </c>
       <c r="M54" t="n">
-        <v>39477000000</v>
+        <v>364930000000</v>
       </c>
       <c r="N54" t="n">
-        <v>48506291000</v>
+        <v>1080591493530</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>株式会社西武ホールディングス</t>
+          <t>日本特殊塗料株式会社</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>9024</t>
+          <t>4619</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>39.4</v>
+        <v>81.5</v>
       </c>
       <c r="D55" t="n">
-        <v>5634</v>
+        <v>2227</v>
       </c>
       <c r="E55" t="n">
-        <v>1716.713876475349</v>
+        <v>1190</v>
       </c>
       <c r="F55" t="n">
-        <v>228.2</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2024-05-07</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>28538000000</v>
+        <v>6518000000</v>
       </c>
       <c r="J55" t="n">
-        <v>485513000000</v>
+        <v>9792000000</v>
       </c>
       <c r="K55" t="n">
-        <v>49954000000</v>
+        <v>23167000000</v>
       </c>
       <c r="L55" t="n">
-        <v>385687000000</v>
+        <v>47154000000</v>
       </c>
       <c r="M55" t="n">
-        <v>564005000000</v>
+        <v>39477000000</v>
       </c>
       <c r="N55" t="n">
-        <v>1431723348000</v>
+        <v>48441035900</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>株式会社ＴＳＩホールディングス</t>
+          <t>株式会社西武ホールディングス</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>3608</t>
+          <t>9024</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>120.7</v>
+        <v>38.9</v>
       </c>
       <c r="D56" t="n">
-        <v>1125</v>
+        <v>5703</v>
       </c>
       <c r="E56" t="n">
-        <v>438.851170934559</v>
+        <v>1716.713876475349</v>
       </c>
       <c r="F56" t="n">
-        <v>156.4</v>
+        <v>232.2</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2024-05-07</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>49761000000</v>
+        <v>28538000000</v>
       </c>
       <c r="J56" t="n">
-        <v>4425000000</v>
+        <v>485513000000</v>
       </c>
       <c r="K56" t="n">
-        <v>25137000000</v>
+        <v>49954000000</v>
       </c>
       <c r="L56" t="n">
-        <v>97430000000</v>
+        <v>385687000000</v>
       </c>
       <c r="M56" t="n">
-        <v>79323000000</v>
+        <v>564005000000</v>
       </c>
       <c r="N56" t="n">
-        <v>65718787500</v>
+        <v>1449258199428</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>コニシ株式会社</t>
+          <t>株式会社ＴＳＩホールディングス</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>4956</t>
+          <t>3608</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>55.4</v>
+        <v>124.3</v>
       </c>
       <c r="D57" t="n">
-        <v>1314</v>
+        <v>1092</v>
       </c>
       <c r="E57" t="n">
-        <v>1605.189780306002</v>
+        <v>438.851170934559</v>
       </c>
       <c r="F57" t="n">
-        <v>-18.1</v>
+        <v>148.8</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3383,50 +3383,50 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2023-01-11</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>23721000000</v>
+        <v>49761000000</v>
       </c>
       <c r="J57" t="n">
-        <v>13167000000</v>
+        <v>4425000000</v>
       </c>
       <c r="K57" t="n">
-        <v>11402000000</v>
+        <v>25137000000</v>
       </c>
       <c r="L57" t="n">
-        <v>68785000000</v>
+        <v>97430000000</v>
       </c>
       <c r="M57" t="n">
-        <v>48290000000</v>
+        <v>79323000000</v>
       </c>
       <c r="N57" t="n">
-        <v>87194937600</v>
+        <v>63790985076</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>倉敷紡績株式会社</t>
+          <t>コニシ株式会社</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>3106</t>
+          <t>4956</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>81</v>
+        <v>55.8</v>
       </c>
       <c r="D58" t="n">
-        <v>7200</v>
+        <v>1305</v>
       </c>
       <c r="E58" t="n">
-        <v>4549.503641591014</v>
+        <v>1605.189780306002</v>
       </c>
       <c r="F58" t="n">
-        <v>58.3</v>
+        <v>-18.7</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3435,78 +3435,78 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2023-01-11</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>22059000000</v>
+        <v>23721000000</v>
       </c>
       <c r="J58" t="n">
-        <v>21438000000</v>
+        <v>13167000000</v>
       </c>
       <c r="K58" t="n">
-        <v>53409000000</v>
+        <v>11402000000</v>
       </c>
       <c r="L58" t="n">
-        <v>95004000000</v>
+        <v>68785000000</v>
       </c>
       <c r="M58" t="n">
-        <v>96906000000</v>
+        <v>48290000000</v>
       </c>
       <c r="N58" t="n">
-        <v>119586960000</v>
+        <v>86597712000</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>大東建託株式会社</t>
+          <t>倉敷紡績株式会社</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1878</t>
+          <t>3106</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>24.6</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>16290</v>
+        <v>7040</v>
       </c>
       <c r="E59" t="n">
-        <v>13739.64575539568</v>
+        <v>4549.503641591014</v>
       </c>
       <c r="F59" t="n">
-        <v>18.6</v>
+        <v>54.7</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>198760000000</v>
+        <v>22059000000</v>
       </c>
       <c r="J59" t="n">
-        <v>62873000000</v>
+        <v>21438000000</v>
       </c>
       <c r="K59" t="n">
-        <v>3798000000</v>
+        <v>53409000000</v>
       </c>
       <c r="L59" t="n">
-        <v>308206000000</v>
+        <v>95004000000</v>
       </c>
       <c r="M59" t="n">
-        <v>265431000000</v>
+        <v>96906000000</v>
       </c>
       <c r="N59" t="n">
-        <v>1079562735000</v>
+        <v>116929472000</v>
       </c>
     </row>
     <row r="60">
@@ -3521,16 +3521,16 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="D60" t="n">
-        <v>16290</v>
+        <v>16330</v>
       </c>
       <c r="E60" t="n">
-        <v>12975.86280814577</v>
+        <v>13739.64575539568</v>
       </c>
       <c r="F60" t="n">
-        <v>25.5</v>
+        <v>18.9</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2023-06-02</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -3558,59 +3558,59 @@
         <v>265431000000</v>
       </c>
       <c r="N60" t="n">
-        <v>1079562735000</v>
+        <v>1082213595000</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ブロードメディア株式会社</t>
+          <t>大東建託株式会社</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>4347</t>
+          <t>1878</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>35.5</v>
+        <v>24.5</v>
       </c>
       <c r="D61" t="n">
-        <v>1724</v>
+        <v>16330</v>
       </c>
       <c r="E61" t="n">
-        <v>1529.631984751819</v>
+        <v>12975.86280814577</v>
       </c>
       <c r="F61" t="n">
-        <v>12.7</v>
+        <v>25.8</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2024-07-03</t>
+          <t>2023-06-02</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>3368262000</v>
+        <v>198760000000</v>
       </c>
       <c r="J61" t="n">
-        <v>826293000</v>
+        <v>62873000000</v>
       </c>
       <c r="K61" t="n">
-        <v>164267000</v>
+        <v>3798000000</v>
       </c>
       <c r="L61" t="n">
-        <v>3706507000</v>
+        <v>308206000000</v>
       </c>
       <c r="M61" t="n">
-        <v>4358822000</v>
+        <v>265431000000</v>
       </c>
       <c r="N61" t="n">
-        <v>12283931000</v>
+        <v>1082213595000</v>
       </c>
     </row>
     <row r="62">
@@ -3625,16 +3625,16 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>35.5</v>
+        <v>35.9</v>
       </c>
       <c r="D62" t="n">
-        <v>1724</v>
+        <v>1705</v>
       </c>
       <c r="E62" t="n">
-        <v>1449.995380693296</v>
+        <v>1529.631984751819</v>
       </c>
       <c r="F62" t="n">
-        <v>18.9</v>
+        <v>11.5</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3643,7 +3643,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2024-05-22</t>
+          <t>2024-07-03</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -3662,163 +3662,163 @@
         <v>4358822000</v>
       </c>
       <c r="N62" t="n">
-        <v>12283931000</v>
+        <v>12148551250</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>京浜急行電鉄株式会社</t>
+          <t>ブロードメディア株式会社</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>9006</t>
+          <t>4347</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>107.2</v>
+        <v>35.9</v>
       </c>
       <c r="D63" t="n">
-        <v>1588</v>
+        <v>1705</v>
       </c>
       <c r="E63" t="n">
-        <v>1160.8</v>
+        <v>1449.995380693296</v>
       </c>
       <c r="F63" t="n">
-        <v>36.8</v>
+        <v>17.6</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2024-05-22</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>57450000000</v>
+        <v>3368262000</v>
       </c>
       <c r="J63" t="n">
-        <v>297923000000</v>
+        <v>826293000</v>
       </c>
       <c r="K63" t="n">
-        <v>103100000000</v>
+        <v>164267000</v>
       </c>
       <c r="L63" t="n">
-        <v>249065000000</v>
+        <v>3706507000</v>
       </c>
       <c r="M63" t="n">
-        <v>458473000000</v>
+        <v>4358822000</v>
       </c>
       <c r="N63" t="n">
-        <v>427715121408</v>
+        <v>12148551250</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>日鉄ソリューションズ株式会社</t>
+          <t>京浜急行電鉄株式会社</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2327</t>
+          <t>9006</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>12</v>
+        <v>107.3</v>
       </c>
       <c r="D64" t="n">
-        <v>3719</v>
+        <v>1586</v>
       </c>
       <c r="E64" t="n">
-        <v>2561.705402476645</v>
+        <v>1160.8</v>
       </c>
       <c r="F64" t="n">
-        <v>45.2</v>
+        <v>36.6</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>78579000000</v>
+        <v>57450000000</v>
       </c>
       <c r="J64" t="n">
-        <v>2398000000</v>
+        <v>297923000000</v>
       </c>
       <c r="K64" t="n">
-        <v>1000000000</v>
+        <v>103100000000</v>
       </c>
       <c r="L64" t="n">
-        <v>186128000000</v>
+        <v>249065000000</v>
       </c>
       <c r="M64" t="n">
-        <v>81977000000</v>
+        <v>458473000000</v>
       </c>
       <c r="N64" t="n">
-        <v>680480306000</v>
+        <v>427176237540</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ＮＩＴＴＯＫＵ株式会社</t>
+          <t>日鉄ソリューションズ株式会社</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>6145</t>
+          <t>2327</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>40.7</v>
+        <v>12.2</v>
       </c>
       <c r="D65" t="n">
-        <v>2263</v>
+        <v>3683</v>
       </c>
       <c r="E65" t="n">
-        <v>1710</v>
+        <v>2561.705402476645</v>
       </c>
       <c r="F65" t="n">
-        <v>32.3</v>
+        <v>43.8</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2024-08-19</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>10110000000</v>
+        <v>78579000000</v>
       </c>
       <c r="J65" t="n">
-        <v>5132000000</v>
+        <v>2398000000</v>
       </c>
       <c r="K65" t="n">
-        <v>301000000</v>
+        <v>1000000000</v>
       </c>
       <c r="L65" t="n">
-        <v>31726000000</v>
+        <v>186128000000</v>
       </c>
       <c r="M65" t="n">
-        <v>15543000000</v>
+        <v>81977000000</v>
       </c>
       <c r="N65" t="n">
-        <v>38181788600</v>
+        <v>673894004381</v>
       </c>
     </row>
     <row r="66">
@@ -3833,16 +3833,16 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>40.7</v>
+        <v>41.4</v>
       </c>
       <c r="D66" t="n">
-        <v>2263</v>
+        <v>2225</v>
       </c>
       <c r="E66" t="n">
         <v>1710</v>
       </c>
       <c r="F66" t="n">
-        <v>32.3</v>
+        <v>30.1</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3851,7 +3851,7 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -3870,83 +3870,83 @@
         <v>15543000000</v>
       </c>
       <c r="N66" t="n">
-        <v>38181788600</v>
+        <v>37540645000</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>三井倉庫ホールディングス株式会社</t>
+          <t>ＮＩＴＴＯＫＵ株式会社</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>9302</t>
+          <t>6145</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>33</v>
+        <v>41.4</v>
       </c>
       <c r="D67" t="n">
-        <v>4310</v>
+        <v>2225</v>
       </c>
       <c r="E67" t="n">
-        <v>1492.806001579363</v>
+        <v>1710</v>
       </c>
       <c r="F67" t="n">
-        <v>188.7</v>
+        <v>30.1</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2024-09-03</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>22718000000</v>
+        <v>10110000000</v>
       </c>
       <c r="J67" t="n">
-        <v>68374000000</v>
+        <v>5132000000</v>
       </c>
       <c r="K67" t="n">
-        <v>15393000000</v>
+        <v>301000000</v>
       </c>
       <c r="L67" t="n">
-        <v>68529000000</v>
+        <v>31726000000</v>
       </c>
       <c r="M67" t="n">
-        <v>106485000000</v>
+        <v>15543000000</v>
       </c>
       <c r="N67" t="n">
-        <v>322580226000</v>
+        <v>37540645000</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>株式会社スクウェア・エニックス・ホールディングス</t>
+          <t>三井倉庫ホールディングス株式会社</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>9684</t>
+          <t>9302</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>12.6</v>
+        <v>33.2</v>
       </c>
       <c r="D68" t="n">
-        <v>10115</v>
+        <v>4285</v>
       </c>
       <c r="E68" t="n">
-        <v>6272.971195510064</v>
+        <v>1492.806001579363</v>
       </c>
       <c r="F68" t="n">
-        <v>61.2</v>
+        <v>187</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3955,130 +3955,182 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>144061000000</v>
+        <v>22718000000</v>
       </c>
       <c r="J68" t="n">
-        <v>4462000000</v>
+        <v>68374000000</v>
       </c>
       <c r="K68" t="n">
-        <v>4731000000</v>
+        <v>15393000000</v>
       </c>
       <c r="L68" t="n">
-        <v>243278000000</v>
+        <v>68529000000</v>
       </c>
       <c r="M68" t="n">
-        <v>153254000000</v>
+        <v>106485000000</v>
       </c>
       <c r="N68" t="n">
-        <v>1215266675000</v>
+        <v>320708935315</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ヘリオス テクノ ホールディング株式会社</t>
+          <t>株式会社スクウェア・エニックス・ホールディングス</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>6927</t>
+          <t>9684</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>51.3</v>
+        <v>12.4</v>
       </c>
       <c r="D69" t="n">
-        <v>904</v>
+        <v>10255</v>
       </c>
       <c r="E69" t="n">
-        <v>896.0103264198827</v>
+        <v>6272.971195510064</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9</v>
+        <v>63.5</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>6417163000</v>
+        <v>144061000000</v>
       </c>
       <c r="J69" t="n">
-        <v>658172000</v>
+        <v>4462000000</v>
       </c>
       <c r="K69" t="n">
-        <v>1342160000</v>
+        <v>4731000000</v>
       </c>
       <c r="L69" t="n">
-        <v>13418044000</v>
+        <v>243278000000</v>
       </c>
       <c r="M69" t="n">
-        <v>8417495000</v>
+        <v>153254000000</v>
       </c>
       <c r="N69" t="n">
-        <v>16405611200</v>
+        <v>1232087436475</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
+          <t>ヘリオス テクノ ホールディング株式会社</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>6927</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="D70" t="n">
+        <v>886</v>
+      </c>
+      <c r="E70" t="n">
+        <v>896.0103264198827</v>
+      </c>
+      <c r="F70" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>6417163000</v>
+      </c>
+      <c r="J70" t="n">
+        <v>658172000</v>
+      </c>
+      <c r="K70" t="n">
+        <v>1342160000</v>
+      </c>
+      <c r="L70" t="n">
+        <v>13418044000</v>
+      </c>
+      <c r="M70" t="n">
+        <v>8417495000</v>
+      </c>
+      <c r="N70" t="n">
+        <v>16078928650</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
           <t>平和不動産株式会社</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B71" t="inlineStr">
         <is>
           <t>8803</t>
         </is>
       </c>
-      <c r="C70" t="n">
-        <v>76.59999999999999</v>
-      </c>
-      <c r="D70" t="n">
-        <v>2389</v>
-      </c>
-      <c r="E70" t="n">
+      <c r="C71" t="n">
+        <v>76.8</v>
+      </c>
+      <c r="D71" t="n">
+        <v>2381</v>
+      </c>
+      <c r="E71" t="n">
         <v>3610</v>
       </c>
-      <c r="F70" t="n">
-        <v>-33.8</v>
-      </c>
-      <c r="G70" t="inlineStr">
+      <c r="F71" t="n">
+        <v>-34</v>
+      </c>
+      <c r="G71" t="inlineStr">
         <is>
           <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>2024-07-22</t>
         </is>
       </c>
-      <c r="I70" t="n">
+      <c r="I71" t="n">
         <v>29585000000</v>
       </c>
-      <c r="J70" t="n">
+      <c r="J71" t="n">
         <v>84557000000</v>
       </c>
-      <c r="K70" t="n">
+      <c r="K71" t="n">
         <v>8005000000</v>
       </c>
-      <c r="L70" t="n">
+      <c r="L71" t="n">
         <v>118639000000</v>
       </c>
-      <c r="M70" t="n">
+      <c r="M71" t="n">
         <v>122147000000</v>
       </c>
-      <c r="N70" t="n">
-        <v>159528819600</v>
+      <c r="N71" t="n">
+        <v>158994608400</v>
       </c>
     </row>
   </sheetData>

--- a/docs/アクティビスト銘柄_資産判定.xlsx
+++ b/docs/アクティビスト銘柄_資産判定.xlsx
@@ -517,16 +517,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>92.90000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="D2" t="n">
-        <v>2850</v>
+        <v>2855</v>
       </c>
       <c r="E2" t="n">
         <v>1600</v>
       </c>
       <c r="F2" t="n">
-        <v>78.09999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -554,7 +554,7 @@
         <v>88496000000</v>
       </c>
       <c r="N2" t="n">
-        <v>95238450000</v>
+        <v>95405535000</v>
       </c>
     </row>
     <row r="3">
@@ -569,16 +569,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>57.2</v>
+        <v>57.7</v>
       </c>
       <c r="D3" t="n">
-        <v>5180</v>
+        <v>5140</v>
       </c>
       <c r="E3" t="n">
         <v>4265.455132343447</v>
       </c>
       <c r="F3" t="n">
-        <v>21.4</v>
+        <v>20.5</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
         <v>14129000000</v>
       </c>
       <c r="N3" t="n">
-        <v>24694562200</v>
+        <v>24503870600</v>
       </c>
     </row>
     <row r="4">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="D4" t="n">
-        <v>2175</v>
+        <v>2187</v>
       </c>
       <c r="E4" t="n">
         <v>2269.918722577861</v>
       </c>
       <c r="F4" t="n">
-        <v>-4.2</v>
+        <v>-3.7</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>90811000000</v>
       </c>
       <c r="N4" t="n">
-        <v>447420900825</v>
+        <v>449889429933</v>
       </c>
     </row>
     <row r="5">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>117.9</v>
+        <v>117</v>
       </c>
       <c r="D5" t="n">
-        <v>2993</v>
+        <v>3015</v>
       </c>
       <c r="E5" t="n">
         <v>4991.027246539169</v>
       </c>
       <c r="F5" t="n">
-        <v>-40</v>
+        <v>-39.6</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -710,7 +710,7 @@
         <v>1006135000000</v>
       </c>
       <c r="N5" t="n">
-        <v>853676168278</v>
+        <v>859951101690</v>
       </c>
     </row>
     <row r="6">
@@ -725,16 +725,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="D6" t="n">
-        <v>1073</v>
+        <v>1066</v>
       </c>
       <c r="E6" t="n">
         <v>653.0713101160862</v>
       </c>
       <c r="F6" t="n">
-        <v>64.3</v>
+        <v>63.2</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>1810139000</v>
       </c>
       <c r="N6" t="n">
-        <v>25678251637</v>
+        <v>25510732754</v>
       </c>
     </row>
     <row r="7">
@@ -780,13 +780,13 @@
         <v>1.4</v>
       </c>
       <c r="D7" t="n">
-        <v>7490</v>
+        <v>7529</v>
       </c>
       <c r="E7" t="n">
         <v>2697.360927565142</v>
       </c>
       <c r="F7" t="n">
-        <v>177.7</v>
+        <v>179.1</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -814,7 +814,7 @@
         <v>8148000000</v>
       </c>
       <c r="N7" t="n">
-        <v>583989450310</v>
+        <v>587030249851</v>
       </c>
     </row>
     <row r="8">
@@ -829,16 +829,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>22.5</v>
+        <v>22.3</v>
       </c>
       <c r="D8" t="n">
-        <v>3990</v>
+        <v>4015</v>
       </c>
       <c r="E8" t="n">
         <v>7960</v>
       </c>
       <c r="F8" t="n">
-        <v>-49.9</v>
+        <v>-49.6</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         <v>34259000000</v>
       </c>
       <c r="N8" t="n">
-        <v>152495110740</v>
+        <v>153450593890</v>
       </c>
     </row>
     <row r="9">
@@ -881,16 +881,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>50.3</v>
+        <v>50.7</v>
       </c>
       <c r="D9" t="n">
-        <v>6620</v>
+        <v>6560</v>
       </c>
       <c r="E9" t="n">
         <v>2920</v>
       </c>
       <c r="F9" t="n">
-        <v>126.7</v>
+        <v>124.7</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>26036000000</v>
       </c>
       <c r="N9" t="n">
-        <v>51783692200</v>
+        <v>51314353600</v>
       </c>
     </row>
     <row r="10">
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>96.90000000000001</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>1863</v>
+        <v>1870</v>
       </c>
       <c r="E10" t="n">
         <v>2298.672482457804</v>
       </c>
       <c r="F10" t="n">
-        <v>-19</v>
+        <v>-18.6</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>44925000000</v>
       </c>
       <c r="N10" t="n">
-        <v>46354607100</v>
+        <v>46528779000</v>
       </c>
     </row>
     <row r="11">
@@ -985,16 +985,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>47.3</v>
+        <v>47.5</v>
       </c>
       <c r="D11" t="n">
-        <v>837.7000122070312</v>
+        <v>834.4000244140625</v>
       </c>
       <c r="E11" t="n">
         <v>590</v>
       </c>
       <c r="F11" t="n">
-        <v>42</v>
+        <v>41.4</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>362887000000</v>
       </c>
       <c r="N11" t="n">
-        <v>766435541901</v>
+        <v>763416289310</v>
       </c>
     </row>
     <row r="12">
@@ -1037,16 +1037,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="D12" t="n">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="E12" t="n">
         <v>1347.74653160027</v>
       </c>
       <c r="F12" t="n">
-        <v>49.1</v>
+        <v>49.6</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1074,7 +1074,7 @@
         <v>14143000000</v>
       </c>
       <c r="N12" t="n">
-        <v>48168864090</v>
+        <v>48312651744</v>
       </c>
     </row>
     <row r="13">
@@ -1089,16 +1089,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>51.6</v>
+        <v>51.9</v>
       </c>
       <c r="D13" t="n">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E13" t="n">
         <v>290.3401328717133</v>
       </c>
       <c r="F13" t="n">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         <v>5368822000</v>
       </c>
       <c r="N13" t="n">
-        <v>10411881900</v>
+        <v>10342469354</v>
       </c>
     </row>
     <row r="14">
@@ -1144,13 +1144,13 @@
         <v>13</v>
       </c>
       <c r="D14" t="n">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E14" t="n">
         <v>421.6950726175476</v>
       </c>
       <c r="F14" t="n">
-        <v>46.8</v>
+        <v>46.6</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>2256815000</v>
       </c>
       <c r="N14" t="n">
-        <v>17339799400</v>
+        <v>17311786800</v>
       </c>
     </row>
     <row r="15">
@@ -1193,16 +1193,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>53.7</v>
+        <v>53.4</v>
       </c>
       <c r="D15" t="n">
-        <v>5496</v>
+        <v>5520</v>
       </c>
       <c r="E15" t="n">
         <v>3405.914389596362</v>
       </c>
       <c r="F15" t="n">
-        <v>61.4</v>
+        <v>62.1</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>193706000000</v>
       </c>
       <c r="N15" t="n">
-        <v>360833284800</v>
+        <v>362408976000</v>
       </c>
     </row>
     <row r="16">
@@ -1245,16 +1245,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>53.7</v>
+        <v>53.4</v>
       </c>
       <c r="D16" t="n">
-        <v>5496</v>
+        <v>5520</v>
       </c>
       <c r="E16" t="n">
         <v>2714.613787300615</v>
       </c>
       <c r="F16" t="n">
-        <v>102.5</v>
+        <v>103.3</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>193706000000</v>
       </c>
       <c r="N16" t="n">
-        <v>360833284800</v>
+        <v>362408976000</v>
       </c>
     </row>
     <row r="17">
@@ -1297,16 +1297,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="D17" t="n">
-        <v>1739</v>
+        <v>1761</v>
       </c>
       <c r="E17" t="n">
         <v>1512.21980974841</v>
       </c>
       <c r="F17" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1334,7 +1334,7 @@
         <v>91015000000</v>
       </c>
       <c r="N17" t="n">
-        <v>572164054912</v>
+        <v>579402473088</v>
       </c>
     </row>
     <row r="18">
@@ -1349,16 +1349,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>57.1</v>
+        <v>57.7</v>
       </c>
       <c r="D18" t="n">
-        <v>3499</v>
+        <v>3464</v>
       </c>
       <c r="E18" t="n">
         <v>2420</v>
       </c>
       <c r="F18" t="n">
-        <v>44.6</v>
+        <v>43.1</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>414670000000</v>
       </c>
       <c r="N18" t="n">
-        <v>725874901399</v>
+        <v>718614077864</v>
       </c>
     </row>
     <row r="19">
@@ -1401,16 +1401,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>43.1</v>
+        <v>43.4</v>
       </c>
       <c r="D19" t="n">
-        <v>3424</v>
+        <v>3402</v>
       </c>
       <c r="E19" t="n">
         <v>1598.889989734285</v>
       </c>
       <c r="F19" t="n">
-        <v>114.1</v>
+        <v>112.8</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>178465000000</v>
       </c>
       <c r="N19" t="n">
-        <v>413911650688</v>
+        <v>411252171624</v>
       </c>
     </row>
     <row r="20">
@@ -1453,16 +1453,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>89.90000000000001</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>1050</v>
+        <v>1038</v>
       </c>
       <c r="E20" t="n">
         <v>668.9358717434869</v>
       </c>
       <c r="F20" t="n">
-        <v>57</v>
+        <v>55.2</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>15118000000</v>
       </c>
       <c r="N20" t="n">
-        <v>16817850000</v>
+        <v>16625646000</v>
       </c>
     </row>
     <row r="21">
@@ -1505,16 +1505,16 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>75.2</v>
+        <v>75.5</v>
       </c>
       <c r="D21" t="n">
-        <v>2032</v>
+        <v>2024</v>
       </c>
       <c r="E21" t="n">
         <v>1270</v>
       </c>
       <c r="F21" t="n">
-        <v>60</v>
+        <v>59.4</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>26544000000</v>
       </c>
       <c r="N21" t="n">
-        <v>35317905488</v>
+        <v>35178858616</v>
       </c>
     </row>
     <row r="22">
@@ -1557,16 +1557,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>75.2</v>
+        <v>75.5</v>
       </c>
       <c r="D22" t="n">
-        <v>2032</v>
+        <v>2024</v>
       </c>
       <c r="E22" t="n">
         <v>1170</v>
       </c>
       <c r="F22" t="n">
-        <v>73.7</v>
+        <v>73</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>26544000000</v>
       </c>
       <c r="N22" t="n">
-        <v>35317905488</v>
+        <v>35178858616</v>
       </c>
     </row>
     <row r="23">
@@ -1609,16 +1609,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>68.7</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>5884</v>
+        <v>5909</v>
       </c>
       <c r="E23" t="n">
         <v>4137.137750115735</v>
       </c>
       <c r="F23" t="n">
-        <v>42.2</v>
+        <v>42.8</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>284031000000</v>
       </c>
       <c r="N23" t="n">
-        <v>413708329436</v>
+        <v>415466097661</v>
       </c>
     </row>
     <row r="24">
@@ -1661,16 +1661,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>69.90000000000001</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>1847.5</v>
+        <v>1861</v>
       </c>
       <c r="E24" t="n">
         <v>1257.709264012363</v>
       </c>
       <c r="F24" t="n">
-        <v>46.9</v>
+        <v>48</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>261172000000</v>
       </c>
       <c r="N24" t="n">
-        <v>373850662970</v>
+        <v>376582454012</v>
       </c>
     </row>
     <row r="25">
@@ -1713,16 +1713,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>69.90000000000001</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>1847.5</v>
+        <v>1861</v>
       </c>
       <c r="E25" t="n">
         <v>1217.254500469243</v>
       </c>
       <c r="F25" t="n">
-        <v>51.8</v>
+        <v>52.9</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>261172000000</v>
       </c>
       <c r="N25" t="n">
-        <v>373850662970</v>
+        <v>376582454012</v>
       </c>
     </row>
     <row r="26">
@@ -1765,16 +1765,16 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>56.5</v>
+        <v>55.3</v>
       </c>
       <c r="D26" t="n">
-        <v>3975</v>
+        <v>4065</v>
       </c>
       <c r="E26" t="n">
         <v>2387</v>
       </c>
       <c r="F26" t="n">
-        <v>66.5</v>
+        <v>70.3</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>105205000000</v>
       </c>
       <c r="N26" t="n">
-        <v>186111594825</v>
+        <v>190325442255</v>
       </c>
     </row>
     <row r="27">
@@ -1820,13 +1820,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>5892</v>
+        <v>5853</v>
       </c>
       <c r="E27" t="n">
         <v>2420.370957920882</v>
       </c>
       <c r="F27" t="n">
-        <v>143.4</v>
+        <v>141.8</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>28931000000</v>
       </c>
       <c r="N27" t="n">
-        <v>296013826644</v>
+        <v>294054468321</v>
       </c>
     </row>
     <row r="28">
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>58.4</v>
+        <v>58.8</v>
       </c>
       <c r="D28" t="n">
-        <v>980</v>
+        <v>973</v>
       </c>
       <c r="E28" t="n">
         <v>930</v>
       </c>
       <c r="F28" t="n">
-        <v>5.4</v>
+        <v>4.6</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>20765000000</v>
       </c>
       <c r="N28" t="n">
-        <v>35584405640</v>
+        <v>35330231314</v>
       </c>
     </row>
     <row r="29">
@@ -1924,13 +1924,13 @@
         <v>21.8</v>
       </c>
       <c r="D29" t="n">
-        <v>1441</v>
+        <v>1445</v>
       </c>
       <c r="E29" t="n">
         <v>1267.324164058639</v>
       </c>
       <c r="F29" t="n">
-        <v>13.7</v>
+        <v>14</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>3080243000</v>
       </c>
       <c r="N29" t="n">
-        <v>14103398430</v>
+        <v>14142547350</v>
       </c>
     </row>
     <row r="30">
@@ -1973,16 +1973,16 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>55</v>
+        <v>54.7</v>
       </c>
       <c r="D30" t="n">
-        <v>2802</v>
+        <v>2815</v>
       </c>
       <c r="E30" t="n">
         <v>3155.301177013616</v>
       </c>
       <c r="F30" t="n">
-        <v>-11.2</v>
+        <v>-10.8</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>98642000000</v>
       </c>
       <c r="N30" t="n">
-        <v>179340048600</v>
+        <v>180172104500</v>
       </c>
     </row>
     <row r="31">
@@ -2028,13 +2028,13 @@
         <v>26.4</v>
       </c>
       <c r="D31" t="n">
-        <v>5510</v>
+        <v>5500</v>
       </c>
       <c r="E31" t="n">
         <v>2617.980935875217</v>
       </c>
       <c r="F31" t="n">
-        <v>110.5</v>
+        <v>110.1</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>53152000000</v>
       </c>
       <c r="N31" t="n">
-        <v>201410336000</v>
+        <v>201044800000</v>
       </c>
     </row>
     <row r="32">
@@ -2077,16 +2077,16 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>45.6</v>
+        <v>45.5</v>
       </c>
       <c r="D32" t="n">
-        <v>1437</v>
+        <v>1440.5</v>
       </c>
       <c r="E32" t="n">
         <v>1111.90611839092</v>
       </c>
       <c r="F32" t="n">
-        <v>29.2</v>
+        <v>29.6</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>101020000000</v>
       </c>
       <c r="N32" t="n">
-        <v>221396335347</v>
+        <v>221935574856</v>
       </c>
     </row>
     <row r="33">
@@ -2129,16 +2129,16 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="D33" t="n">
-        <v>2449</v>
+        <v>2464</v>
       </c>
       <c r="E33" t="n">
         <v>1678.083113259255</v>
       </c>
       <c r="F33" t="n">
-        <v>45.9</v>
+        <v>46.8</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
         <v>19554000000</v>
       </c>
       <c r="N33" t="n">
-        <v>80748841881</v>
+        <v>81243424416</v>
       </c>
     </row>
     <row r="34">
@@ -2181,16 +2181,16 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>40.7</v>
+        <v>39.9</v>
       </c>
       <c r="D34" t="n">
-        <v>2968.5</v>
+        <v>3031</v>
       </c>
       <c r="E34" t="n">
         <v>2560</v>
       </c>
       <c r="F34" t="n">
-        <v>16</v>
+        <v>18.4</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>180306000000</v>
       </c>
       <c r="N34" t="n">
-        <v>442831829508</v>
+        <v>452155390008</v>
       </c>
     </row>
     <row r="35">
@@ -2233,16 +2233,16 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="D35" t="n">
-        <v>3229</v>
+        <v>3265</v>
       </c>
       <c r="E35" t="n">
         <v>4156.179843576074</v>
       </c>
       <c r="F35" t="n">
-        <v>-22.3</v>
+        <v>-21.4</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2270,7 +2270,7 @@
         <v>90923000000</v>
       </c>
       <c r="N35" t="n">
-        <v>838207795325</v>
+        <v>847552942625</v>
       </c>
     </row>
     <row r="36">
@@ -2285,16 +2285,16 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>73.5</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>3850</v>
+        <v>3845</v>
       </c>
       <c r="E36" t="n">
         <v>3530</v>
       </c>
       <c r="F36" t="n">
-        <v>9.1</v>
+        <v>8.9</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>107738000000</v>
       </c>
       <c r="N36" t="n">
-        <v>146563147500</v>
+        <v>146372805750</v>
       </c>
     </row>
     <row r="37">
@@ -2389,16 +2389,16 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>31.4</v>
+        <v>31.2</v>
       </c>
       <c r="D38" t="n">
-        <v>3040</v>
+        <v>3065</v>
       </c>
       <c r="E38" t="n">
         <v>2480</v>
       </c>
       <c r="F38" t="n">
-        <v>22.6</v>
+        <v>23.6</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>20277000000</v>
       </c>
       <c r="N38" t="n">
-        <v>64532208000</v>
+        <v>65062900500</v>
       </c>
     </row>
     <row r="39">
@@ -2441,16 +2441,16 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>31.4</v>
+        <v>31.2</v>
       </c>
       <c r="D39" t="n">
-        <v>3040</v>
+        <v>3065</v>
       </c>
       <c r="E39" t="n">
         <v>2504.338645418327</v>
       </c>
       <c r="F39" t="n">
-        <v>21.4</v>
+        <v>22.4</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         <v>20277000000</v>
       </c>
       <c r="N39" t="n">
-        <v>64532208000</v>
+        <v>65062900500</v>
       </c>
     </row>
     <row r="40">
@@ -2493,16 +2493,16 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>31.4</v>
+        <v>31.2</v>
       </c>
       <c r="D40" t="n">
-        <v>3040</v>
+        <v>3065</v>
       </c>
       <c r="E40" t="n">
         <v>2880</v>
       </c>
       <c r="F40" t="n">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>20277000000</v>
       </c>
       <c r="N40" t="n">
-        <v>64532208000</v>
+        <v>65062900500</v>
       </c>
     </row>
     <row r="41">
@@ -2545,16 +2545,16 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>272.7</v>
+        <v>271.5</v>
       </c>
       <c r="D41" t="n">
-        <v>2307.5</v>
+        <v>2318</v>
       </c>
       <c r="E41" t="n">
         <v>2190</v>
       </c>
       <c r="F41" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>870891000000</v>
       </c>
       <c r="N41" t="n">
-        <v>319314365175</v>
+        <v>320767366620</v>
       </c>
     </row>
     <row r="42">
@@ -2693,16 +2693,16 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>62.6</v>
+        <v>62.3</v>
       </c>
       <c r="D44" t="n">
-        <v>3160</v>
+        <v>3175</v>
       </c>
       <c r="E44" t="n">
         <v>1410</v>
       </c>
       <c r="F44" t="n">
-        <v>124.1</v>
+        <v>125.2</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>82575000000</v>
       </c>
       <c r="N44" t="n">
-        <v>131817014200</v>
+        <v>132442727875</v>
       </c>
     </row>
     <row r="45">
@@ -2745,16 +2745,16 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>76.59999999999999</v>
+        <v>75.7</v>
       </c>
       <c r="D45" t="n">
-        <v>2337</v>
+        <v>2365</v>
       </c>
       <c r="E45" t="n">
         <v>1303.446424801713</v>
       </c>
       <c r="F45" t="n">
-        <v>79.3</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>91090000000</v>
       </c>
       <c r="N45" t="n">
-        <v>118924788600</v>
+        <v>120349647000</v>
       </c>
     </row>
     <row r="46">
@@ -2797,16 +2797,16 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>43.8</v>
+        <v>43.9</v>
       </c>
       <c r="D46" t="n">
-        <v>2331</v>
+        <v>2325.5</v>
       </c>
       <c r="E46" t="n">
         <v>2032.365850102071</v>
       </c>
       <c r="F46" t="n">
-        <v>14.7</v>
+        <v>14.4</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>323730000000</v>
       </c>
       <c r="N46" t="n">
-        <v>739118748060</v>
+        <v>737374795630</v>
       </c>
     </row>
     <row r="47">
@@ -2849,16 +2849,16 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>82.3</v>
+        <v>74.8</v>
       </c>
       <c r="D47" t="n">
-        <v>9940</v>
+        <v>10930</v>
       </c>
       <c r="E47" t="n">
         <v>7040.15625</v>
       </c>
       <c r="F47" t="n">
-        <v>41.2</v>
+        <v>55.3</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>8781313000</v>
       </c>
       <c r="N47" t="n">
-        <v>10673770800</v>
+        <v>11736852600</v>
       </c>
     </row>
     <row r="48">
@@ -2901,16 +2901,16 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>82.3</v>
+        <v>74.8</v>
       </c>
       <c r="D48" t="n">
-        <v>9940</v>
+        <v>10930</v>
       </c>
       <c r="E48" t="n">
         <v>7040.15625</v>
       </c>
       <c r="F48" t="n">
-        <v>41.2</v>
+        <v>55.3</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>8781313000</v>
       </c>
       <c r="N48" t="n">
-        <v>10673770800</v>
+        <v>11736852600</v>
       </c>
     </row>
     <row r="49">
@@ -2953,10 +2953,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>792</v>
+        <v>783.4</v>
       </c>
       <c r="D49" t="n">
-        <v>3605</v>
+        <v>3645</v>
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
@@ -2986,7 +2986,7 @@
         <v>609113000000</v>
       </c>
       <c r="N49" t="n">
-        <v>76904023000</v>
+        <v>77757327000</v>
       </c>
     </row>
     <row r="50">
@@ -3001,16 +3001,16 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>112.6</v>
+        <v>112.7</v>
       </c>
       <c r="D50" t="n">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="E50" t="n">
         <v>1469.167707232735</v>
       </c>
       <c r="F50" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>133437000000</v>
       </c>
       <c r="N50" t="n">
-        <v>118492317600</v>
+        <v>118367720000</v>
       </c>
     </row>
     <row r="51">
@@ -3053,16 +3053,16 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>112.6</v>
+        <v>112.7</v>
       </c>
       <c r="D51" t="n">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="E51" t="n">
         <v>1489.94784546053</v>
       </c>
       <c r="F51" t="n">
-        <v>27.7</v>
+        <v>27.5</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>133437000000</v>
       </c>
       <c r="N51" t="n">
-        <v>118492317600</v>
+        <v>118367720000</v>
       </c>
     </row>
     <row r="52">
@@ -3105,16 +3105,16 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>99.7</v>
+        <v>100.7</v>
       </c>
       <c r="D52" t="n">
-        <v>1468</v>
+        <v>1453</v>
       </c>
       <c r="E52" t="n">
         <v>1212.640316205534</v>
       </c>
       <c r="F52" t="n">
-        <v>21.1</v>
+        <v>19.8</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         <v>13446000000</v>
       </c>
       <c r="N52" t="n">
-        <v>13491874200</v>
+        <v>13354014450</v>
       </c>
     </row>
     <row r="53">
@@ -3157,16 +3157,16 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="D53" t="n">
-        <v>1638.5</v>
+        <v>1650</v>
       </c>
       <c r="E53" t="n">
         <v>1344.518957928979</v>
       </c>
       <c r="F53" t="n">
-        <v>21.9</v>
+        <v>22.7</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         <v>55269000000</v>
       </c>
       <c r="N53" t="n">
-        <v>536791883506</v>
+        <v>540559418850</v>
       </c>
     </row>
     <row r="54">
@@ -3209,16 +3209,16 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>33.8</v>
+        <v>33.9</v>
       </c>
       <c r="D54" t="n">
-        <v>1114.5</v>
+        <v>1110</v>
       </c>
       <c r="E54" t="n">
         <v>2968.770104870396</v>
       </c>
       <c r="F54" t="n">
-        <v>-62.5</v>
+        <v>-62.6</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>364930000000</v>
       </c>
       <c r="N54" t="n">
-        <v>1080591493530</v>
+        <v>1076228405400</v>
       </c>
     </row>
     <row r="55">
@@ -3261,16 +3261,16 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>81.5</v>
+        <v>82.3</v>
       </c>
       <c r="D55" t="n">
-        <v>2227</v>
+        <v>2206</v>
       </c>
       <c r="E55" t="n">
         <v>1190</v>
       </c>
       <c r="F55" t="n">
-        <v>87.09999999999999</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>39477000000</v>
       </c>
       <c r="N55" t="n">
-        <v>48441035900</v>
+        <v>47984250200</v>
       </c>
     </row>
     <row r="56">
@@ -3316,13 +3316,13 @@
         <v>38.9</v>
       </c>
       <c r="D56" t="n">
-        <v>5703</v>
+        <v>5699</v>
       </c>
       <c r="E56" t="n">
         <v>1716.713876475349</v>
       </c>
       <c r="F56" t="n">
-        <v>232.2</v>
+        <v>232</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>564005000000</v>
       </c>
       <c r="N56" t="n">
-        <v>1449258199428</v>
+        <v>1448241711124</v>
       </c>
     </row>
     <row r="57">
@@ -3365,16 +3365,16 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>124.3</v>
+        <v>124.9</v>
       </c>
       <c r="D57" t="n">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="E57" t="n">
         <v>438.851170934559</v>
       </c>
       <c r="F57" t="n">
-        <v>148.8</v>
+        <v>147.7</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         <v>79323000000</v>
       </c>
       <c r="N57" t="n">
-        <v>63790985076</v>
+        <v>63498901811</v>
       </c>
     </row>
     <row r="58">
@@ -3417,16 +3417,16 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>55.8</v>
+        <v>55.3</v>
       </c>
       <c r="D58" t="n">
-        <v>1305</v>
+        <v>1315</v>
       </c>
       <c r="E58" t="n">
         <v>1605.189780306002</v>
       </c>
       <c r="F58" t="n">
-        <v>-18.7</v>
+        <v>-18.1</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>48290000000</v>
       </c>
       <c r="N58" t="n">
-        <v>86597712000</v>
+        <v>87261296000</v>
       </c>
     </row>
     <row r="59">
@@ -3469,16 +3469,16 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>82.90000000000001</v>
+        <v>82.5</v>
       </c>
       <c r="D59" t="n">
-        <v>7040</v>
+        <v>7070</v>
       </c>
       <c r="E59" t="n">
         <v>4549.503641591014</v>
       </c>
       <c r="F59" t="n">
-        <v>54.7</v>
+        <v>55.4</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>96906000000</v>
       </c>
       <c r="N59" t="n">
-        <v>116929472000</v>
+        <v>117427751000</v>
       </c>
     </row>
     <row r="60">
@@ -3524,13 +3524,13 @@
         <v>24.5</v>
       </c>
       <c r="D60" t="n">
-        <v>16330</v>
+        <v>16350</v>
       </c>
       <c r="E60" t="n">
         <v>13739.64575539568</v>
       </c>
       <c r="F60" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         <v>265431000000</v>
       </c>
       <c r="N60" t="n">
-        <v>1082213595000</v>
+        <v>1083539025000</v>
       </c>
     </row>
     <row r="61">
@@ -3576,13 +3576,13 @@
         <v>24.5</v>
       </c>
       <c r="D61" t="n">
-        <v>16330</v>
+        <v>16350</v>
       </c>
       <c r="E61" t="n">
         <v>12975.86280814577</v>
       </c>
       <c r="F61" t="n">
-        <v>25.8</v>
+        <v>26</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>265431000000</v>
       </c>
       <c r="N61" t="n">
-        <v>1082213595000</v>
+        <v>1083539025000</v>
       </c>
     </row>
     <row r="62">
@@ -3625,16 +3625,16 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>35.9</v>
+        <v>35.4</v>
       </c>
       <c r="D62" t="n">
-        <v>1705</v>
+        <v>1726</v>
       </c>
       <c r="E62" t="n">
         <v>1529.631984751819</v>
       </c>
       <c r="F62" t="n">
-        <v>11.5</v>
+        <v>12.8</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>4358822000</v>
       </c>
       <c r="N62" t="n">
-        <v>12148551250</v>
+        <v>12298181500</v>
       </c>
     </row>
     <row r="63">
@@ -3677,16 +3677,16 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>35.9</v>
+        <v>35.4</v>
       </c>
       <c r="D63" t="n">
-        <v>1705</v>
+        <v>1726</v>
       </c>
       <c r="E63" t="n">
         <v>1449.995380693296</v>
       </c>
       <c r="F63" t="n">
-        <v>17.6</v>
+        <v>19</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3714,7 +3714,7 @@
         <v>4358822000</v>
       </c>
       <c r="N63" t="n">
-        <v>12148551250</v>
+        <v>12298181500</v>
       </c>
     </row>
     <row r="64">
@@ -3729,16 +3729,16 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>107.3</v>
+        <v>107.7</v>
       </c>
       <c r="D64" t="n">
-        <v>1586</v>
+        <v>1580.5</v>
       </c>
       <c r="E64" t="n">
         <v>1160.8</v>
       </c>
       <c r="F64" t="n">
-        <v>36.6</v>
+        <v>36.2</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>458473000000</v>
       </c>
       <c r="N64" t="n">
-        <v>427176237540</v>
+        <v>425694857145</v>
       </c>
     </row>
     <row r="65">
@@ -3781,16 +3781,16 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="D65" t="n">
-        <v>3683</v>
+        <v>3807</v>
       </c>
       <c r="E65" t="n">
         <v>2561.705402476645</v>
       </c>
       <c r="F65" t="n">
-        <v>43.8</v>
+        <v>48.6</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>81977000000</v>
       </c>
       <c r="N65" t="n">
-        <v>673894004381</v>
+        <v>696582806049</v>
       </c>
     </row>
     <row r="66">
@@ -3833,16 +3833,16 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>41.4</v>
+        <v>40.8</v>
       </c>
       <c r="D66" t="n">
-        <v>2225</v>
+        <v>2258</v>
       </c>
       <c r="E66" t="n">
         <v>1710</v>
       </c>
       <c r="F66" t="n">
-        <v>30.1</v>
+        <v>32</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3870,7 +3870,7 @@
         <v>15543000000</v>
       </c>
       <c r="N66" t="n">
-        <v>37540645000</v>
+        <v>38097427600</v>
       </c>
     </row>
     <row r="67">
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>41.4</v>
+        <v>40.8</v>
       </c>
       <c r="D67" t="n">
-        <v>2225</v>
+        <v>2258</v>
       </c>
       <c r="E67" t="n">
         <v>1710</v>
       </c>
       <c r="F67" t="n">
-        <v>30.1</v>
+        <v>32</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         <v>15543000000</v>
       </c>
       <c r="N67" t="n">
-        <v>37540645000</v>
+        <v>38097427600</v>
       </c>
     </row>
     <row r="68">
@@ -3937,16 +3937,16 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>33.2</v>
+        <v>33</v>
       </c>
       <c r="D68" t="n">
-        <v>4285</v>
+        <v>4305</v>
       </c>
       <c r="E68" t="n">
         <v>1492.806001579363</v>
       </c>
       <c r="F68" t="n">
-        <v>187</v>
+        <v>188.4</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>106485000000</v>
       </c>
       <c r="N68" t="n">
-        <v>320708935315</v>
+        <v>322205826495</v>
       </c>
     </row>
     <row r="69">
@@ -3989,16 +3989,16 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="D69" t="n">
-        <v>10255</v>
+        <v>10130</v>
       </c>
       <c r="E69" t="n">
         <v>6272.971195510064</v>
       </c>
       <c r="F69" t="n">
-        <v>63.5</v>
+        <v>61.5</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -4026,7 +4026,7 @@
         <v>153254000000</v>
       </c>
       <c r="N69" t="n">
-        <v>1232087436475</v>
+        <v>1217069305850</v>
       </c>
     </row>
     <row r="70">
@@ -4041,16 +4041,16 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>52.4</v>
+        <v>51.4</v>
       </c>
       <c r="D70" t="n">
-        <v>886</v>
+        <v>903</v>
       </c>
       <c r="E70" t="n">
         <v>896.0103264198827</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.1</v>
+        <v>0.8</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>8417495000</v>
       </c>
       <c r="N70" t="n">
-        <v>16078928650</v>
+        <v>16387440825</v>
       </c>
     </row>
     <row r="71">
@@ -4093,16 +4093,16 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>76.8</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>2381</v>
+        <v>2389</v>
       </c>
       <c r="E71" t="n">
         <v>3610</v>
       </c>
       <c r="F71" t="n">
-        <v>-34</v>
+        <v>-33.8</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>122147000000</v>
       </c>
       <c r="N71" t="n">
-        <v>158994608400</v>
+        <v>159528819600</v>
       </c>
     </row>
   </sheetData>

--- a/docs/アクティビスト銘柄_資産判定.xlsx
+++ b/docs/アクティビスト銘柄_資産判定.xlsx
@@ -517,16 +517,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>92.8</v>
+        <v>95</v>
       </c>
       <c r="D2" t="n">
-        <v>2855</v>
+        <v>2787</v>
       </c>
       <c r="E2" t="n">
         <v>1600</v>
       </c>
       <c r="F2" t="n">
-        <v>78.40000000000001</v>
+        <v>74.2</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -554,7 +554,7 @@
         <v>88496000000</v>
       </c>
       <c r="N2" t="n">
-        <v>95405535000</v>
+        <v>93133179000</v>
       </c>
     </row>
     <row r="3">
@@ -624,13 +624,13 @@
         <v>20.2</v>
       </c>
       <c r="D4" t="n">
-        <v>2187</v>
+        <v>2183.5</v>
       </c>
       <c r="E4" t="n">
         <v>2269.918722577861</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.7</v>
+        <v>-3.8</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>90811000000</v>
       </c>
       <c r="N4" t="n">
-        <v>449889429933</v>
+        <v>449169442276</v>
       </c>
     </row>
     <row r="5">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D5" t="n">
-        <v>3015</v>
+        <v>3040</v>
       </c>
       <c r="E5" t="n">
         <v>4991.027246539169</v>
       </c>
       <c r="F5" t="n">
-        <v>-39.6</v>
+        <v>-39.1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -710,7 +710,7 @@
         <v>1006135000000</v>
       </c>
       <c r="N5" t="n">
-        <v>859951101690</v>
+        <v>867081707840</v>
       </c>
     </row>
     <row r="6">
@@ -725,16 +725,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="D6" t="n">
-        <v>1066</v>
+        <v>1051</v>
       </c>
       <c r="E6" t="n">
         <v>653.0713101160862</v>
       </c>
       <c r="F6" t="n">
-        <v>63.2</v>
+        <v>60.9</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>1810139000</v>
       </c>
       <c r="N6" t="n">
-        <v>25510732754</v>
+        <v>25151763719</v>
       </c>
     </row>
     <row r="7">
@@ -780,13 +780,13 @@
         <v>1.4</v>
       </c>
       <c r="D7" t="n">
-        <v>7529</v>
+        <v>7429</v>
       </c>
       <c r="E7" t="n">
         <v>2697.360927565142</v>
       </c>
       <c r="F7" t="n">
-        <v>179.1</v>
+        <v>175.4</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -814,7 +814,7 @@
         <v>8148000000</v>
       </c>
       <c r="N7" t="n">
-        <v>587030249851</v>
+        <v>579233327951</v>
       </c>
     </row>
     <row r="8">
@@ -829,16 +829,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="D8" t="n">
-        <v>4015</v>
+        <v>3995</v>
       </c>
       <c r="E8" t="n">
         <v>7960</v>
       </c>
       <c r="F8" t="n">
-        <v>-49.6</v>
+        <v>-49.8</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         <v>34259000000</v>
       </c>
       <c r="N8" t="n">
-        <v>153450593890</v>
+        <v>152686207370</v>
       </c>
     </row>
     <row r="9">
@@ -881,16 +881,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>50.7</v>
+        <v>50.5</v>
       </c>
       <c r="D9" t="n">
-        <v>6560</v>
+        <v>6590</v>
       </c>
       <c r="E9" t="n">
         <v>2920</v>
       </c>
       <c r="F9" t="n">
-        <v>124.7</v>
+        <v>125.7</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>26036000000</v>
       </c>
       <c r="N9" t="n">
-        <v>51314353600</v>
+        <v>51549022900</v>
       </c>
     </row>
     <row r="10">
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>96.59999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="D10" t="n">
-        <v>1870</v>
+        <v>1837</v>
       </c>
       <c r="E10" t="n">
         <v>2298.672482457804</v>
       </c>
       <c r="F10" t="n">
-        <v>-18.6</v>
+        <v>-20.1</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>44925000000</v>
       </c>
       <c r="N10" t="n">
-        <v>46528779000</v>
+        <v>45707682900</v>
       </c>
     </row>
     <row r="11">
@@ -985,16 +985,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>47.5</v>
+        <v>48.2</v>
       </c>
       <c r="D11" t="n">
-        <v>834.4000244140625</v>
+        <v>822.5999755859375</v>
       </c>
       <c r="E11" t="n">
         <v>590</v>
       </c>
       <c r="F11" t="n">
-        <v>41.4</v>
+        <v>39.4</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>362887000000</v>
       </c>
       <c r="N11" t="n">
-        <v>763416289310</v>
+        <v>752620089374</v>
       </c>
     </row>
     <row r="12">
@@ -1040,13 +1040,13 @@
         <v>29.3</v>
       </c>
       <c r="D12" t="n">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="E12" t="n">
         <v>1347.74653160027</v>
       </c>
       <c r="F12" t="n">
-        <v>49.6</v>
+        <v>49.4</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1074,7 +1074,7 @@
         <v>14143000000</v>
       </c>
       <c r="N12" t="n">
-        <v>48312651744</v>
+        <v>48264722526</v>
       </c>
     </row>
     <row r="13">
@@ -1089,16 +1089,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>51.9</v>
+        <v>51.7</v>
       </c>
       <c r="D13" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E13" t="n">
         <v>290.3401328717133</v>
       </c>
       <c r="F13" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         <v>5368822000</v>
       </c>
       <c r="N13" t="n">
-        <v>10342469354</v>
+        <v>10377175627</v>
       </c>
     </row>
     <row r="14">
@@ -1141,16 +1141,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="D14" t="n">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="E14" t="n">
         <v>421.6950726175476</v>
       </c>
       <c r="F14" t="n">
-        <v>46.6</v>
+        <v>45.8</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>2256815000</v>
       </c>
       <c r="N14" t="n">
-        <v>17311786800</v>
+        <v>17227749000</v>
       </c>
     </row>
     <row r="15">
@@ -1193,16 +1193,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>53.4</v>
+        <v>53.5</v>
       </c>
       <c r="D15" t="n">
-        <v>5520</v>
+        <v>5511</v>
       </c>
       <c r="E15" t="n">
         <v>3405.914389596362</v>
       </c>
       <c r="F15" t="n">
-        <v>62.1</v>
+        <v>61.8</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>193706000000</v>
       </c>
       <c r="N15" t="n">
-        <v>362408976000</v>
+        <v>361818091800</v>
       </c>
     </row>
     <row r="16">
@@ -1245,16 +1245,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>53.4</v>
+        <v>53.5</v>
       </c>
       <c r="D16" t="n">
-        <v>5520</v>
+        <v>5511</v>
       </c>
       <c r="E16" t="n">
         <v>2714.613787300615</v>
       </c>
       <c r="F16" t="n">
-        <v>103.3</v>
+        <v>103</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>193706000000</v>
       </c>
       <c r="N16" t="n">
-        <v>362408976000</v>
+        <v>361818091800</v>
       </c>
     </row>
     <row r="17">
@@ -1297,16 +1297,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>15.7</v>
+        <v>14.7</v>
       </c>
       <c r="D17" t="n">
-        <v>1761</v>
+        <v>1880</v>
       </c>
       <c r="E17" t="n">
         <v>1512.21980974841</v>
       </c>
       <c r="F17" t="n">
-        <v>16.5</v>
+        <v>24.3</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1334,7 +1334,7 @@
         <v>91015000000</v>
       </c>
       <c r="N17" t="n">
-        <v>579402473088</v>
+        <v>618555735040</v>
       </c>
     </row>
     <row r="18">
@@ -1349,16 +1349,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>57.7</v>
+        <v>57.3</v>
       </c>
       <c r="D18" t="n">
-        <v>3464</v>
+        <v>3489</v>
       </c>
       <c r="E18" t="n">
         <v>2420</v>
       </c>
       <c r="F18" t="n">
-        <v>43.1</v>
+        <v>44.2</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>414670000000</v>
       </c>
       <c r="N18" t="n">
-        <v>718614077864</v>
+        <v>723800380389</v>
       </c>
     </row>
     <row r="19">
@@ -1404,13 +1404,13 @@
         <v>43.4</v>
       </c>
       <c r="D19" t="n">
-        <v>3402</v>
+        <v>3401</v>
       </c>
       <c r="E19" t="n">
         <v>1598.889989734285</v>
       </c>
       <c r="F19" t="n">
-        <v>112.8</v>
+        <v>112.7</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>178465000000</v>
       </c>
       <c r="N19" t="n">
-        <v>411252171624</v>
+        <v>411131286212</v>
       </c>
     </row>
     <row r="20">
@@ -1453,16 +1453,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>90.90000000000001</v>
+        <v>91.3</v>
       </c>
       <c r="D20" t="n">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="E20" t="n">
         <v>668.9358717434869</v>
       </c>
       <c r="F20" t="n">
-        <v>55.2</v>
+        <v>54.6</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>15118000000</v>
       </c>
       <c r="N20" t="n">
-        <v>16625646000</v>
+        <v>16561578000</v>
       </c>
     </row>
     <row r="21">
@@ -1609,16 +1609,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>68.40000000000001</v>
+        <v>69.7</v>
       </c>
       <c r="D23" t="n">
-        <v>5909</v>
+        <v>5797</v>
       </c>
       <c r="E23" t="n">
         <v>4137.137750115735</v>
       </c>
       <c r="F23" t="n">
-        <v>42.8</v>
+        <v>40.1</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>284031000000</v>
       </c>
       <c r="N23" t="n">
-        <v>415466097661</v>
+        <v>407591296013</v>
       </c>
     </row>
     <row r="24">
@@ -1661,16 +1661,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>69.40000000000001</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>1861</v>
+        <v>1868.5</v>
       </c>
       <c r="E24" t="n">
         <v>1257.709264012363</v>
       </c>
       <c r="F24" t="n">
-        <v>48</v>
+        <v>48.6</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>261172000000</v>
       </c>
       <c r="N24" t="n">
-        <v>376582454012</v>
+        <v>378100115702</v>
       </c>
     </row>
     <row r="25">
@@ -1713,16 +1713,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>69.40000000000001</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>1861</v>
+        <v>1868.5</v>
       </c>
       <c r="E25" t="n">
         <v>1217.254500469243</v>
       </c>
       <c r="F25" t="n">
-        <v>52.9</v>
+        <v>53.5</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>261172000000</v>
       </c>
       <c r="N25" t="n">
-        <v>376582454012</v>
+        <v>378100115702</v>
       </c>
     </row>
     <row r="26">
@@ -1765,16 +1765,16 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>55.3</v>
+        <v>55.6</v>
       </c>
       <c r="D26" t="n">
-        <v>4065</v>
+        <v>4040</v>
       </c>
       <c r="E26" t="n">
         <v>2387</v>
       </c>
       <c r="F26" t="n">
-        <v>70.3</v>
+        <v>69.3</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>105205000000</v>
       </c>
       <c r="N26" t="n">
-        <v>190325442255</v>
+        <v>189154929080</v>
       </c>
     </row>
     <row r="27">
@@ -1817,16 +1817,16 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>9.800000000000001</v>
+        <v>10.2</v>
       </c>
       <c r="D27" t="n">
-        <v>5853</v>
+        <v>5673</v>
       </c>
       <c r="E27" t="n">
         <v>2420.370957920882</v>
       </c>
       <c r="F27" t="n">
-        <v>141.8</v>
+        <v>134.4</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>28931000000</v>
       </c>
       <c r="N27" t="n">
-        <v>294054468321</v>
+        <v>285011276061</v>
       </c>
     </row>
     <row r="28">
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>58.8</v>
+        <v>59.1</v>
       </c>
       <c r="D28" t="n">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="E28" t="n">
         <v>930</v>
       </c>
       <c r="F28" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>20765000000</v>
       </c>
       <c r="N28" t="n">
-        <v>35330231314</v>
+        <v>35148678224</v>
       </c>
     </row>
     <row r="29">
@@ -1921,16 +1921,16 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="D29" t="n">
-        <v>1445</v>
+        <v>1430</v>
       </c>
       <c r="E29" t="n">
         <v>1267.324164058639</v>
       </c>
       <c r="F29" t="n">
-        <v>14</v>
+        <v>12.8</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>3080243000</v>
       </c>
       <c r="N29" t="n">
-        <v>14142547350</v>
+        <v>13995738900</v>
       </c>
     </row>
     <row r="30">
@@ -1973,16 +1973,16 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>54.7</v>
+        <v>54.3</v>
       </c>
       <c r="D30" t="n">
-        <v>2815</v>
+        <v>2837</v>
       </c>
       <c r="E30" t="n">
         <v>3155.301177013616</v>
       </c>
       <c r="F30" t="n">
-        <v>-10.8</v>
+        <v>-10.1</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>98642000000</v>
       </c>
       <c r="N30" t="n">
-        <v>180172104500</v>
+        <v>181580199100</v>
       </c>
     </row>
     <row r="31">
@@ -2025,16 +2025,16 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>26.4</v>
+        <v>26.8</v>
       </c>
       <c r="D31" t="n">
-        <v>5500</v>
+        <v>5430</v>
       </c>
       <c r="E31" t="n">
         <v>2617.980935875217</v>
       </c>
       <c r="F31" t="n">
-        <v>110.1</v>
+        <v>107.4</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>53152000000</v>
       </c>
       <c r="N31" t="n">
-        <v>201044800000</v>
+        <v>198486048000</v>
       </c>
     </row>
     <row r="32">
@@ -2077,16 +2077,16 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>45.5</v>
+        <v>45.6</v>
       </c>
       <c r="D32" t="n">
-        <v>1440.5</v>
+        <v>1436.5</v>
       </c>
       <c r="E32" t="n">
         <v>1111.90611839092</v>
       </c>
       <c r="F32" t="n">
-        <v>29.6</v>
+        <v>29.2</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         <v>101020000000</v>
       </c>
       <c r="N32" t="n">
-        <v>221935574856</v>
+        <v>221319301132</v>
       </c>
     </row>
     <row r="33">
@@ -2129,16 +2129,16 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="D33" t="n">
-        <v>2464</v>
+        <v>2453</v>
       </c>
       <c r="E33" t="n">
         <v>1678.083113259255</v>
       </c>
       <c r="F33" t="n">
-        <v>46.8</v>
+        <v>46.2</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
         <v>19554000000</v>
       </c>
       <c r="N33" t="n">
-        <v>81243424416</v>
+        <v>80880730557</v>
       </c>
     </row>
     <row r="34">
@@ -2181,16 +2181,16 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>39.9</v>
+        <v>40.3</v>
       </c>
       <c r="D34" t="n">
-        <v>3031</v>
+        <v>3002</v>
       </c>
       <c r="E34" t="n">
         <v>2560</v>
       </c>
       <c r="F34" t="n">
-        <v>18.4</v>
+        <v>17.3</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>180306000000</v>
       </c>
       <c r="N34" t="n">
-        <v>452155390008</v>
+        <v>447829257936</v>
       </c>
     </row>
     <row r="35">
@@ -2236,13 +2236,13 @@
         <v>10.7</v>
       </c>
       <c r="D35" t="n">
-        <v>3265</v>
+        <v>3282</v>
       </c>
       <c r="E35" t="n">
         <v>4156.179843576074</v>
       </c>
       <c r="F35" t="n">
-        <v>-21.4</v>
+        <v>-21</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2270,7 +2270,7 @@
         <v>90923000000</v>
       </c>
       <c r="N35" t="n">
-        <v>847552942625</v>
+        <v>851965928850</v>
       </c>
     </row>
     <row r="36">
@@ -2285,16 +2285,16 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>73.59999999999999</v>
+        <v>73.3</v>
       </c>
       <c r="D36" t="n">
-        <v>3845</v>
+        <v>3860</v>
       </c>
       <c r="E36" t="n">
         <v>3530</v>
       </c>
       <c r="F36" t="n">
-        <v>8.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         <v>107738000000</v>
       </c>
       <c r="N36" t="n">
-        <v>146372805750</v>
+        <v>146943831000</v>
       </c>
     </row>
     <row r="37">
@@ -2337,10 +2337,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>64.09999999999999</v>
+        <v>64.2</v>
       </c>
       <c r="D37" t="n">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E37" t="n">
         <v>3590.021519088228</v>
@@ -2374,7 +2374,7 @@
         <v>48088000000</v>
       </c>
       <c r="N37" t="n">
-        <v>75030886304</v>
+        <v>74942718400</v>
       </c>
     </row>
     <row r="38">
@@ -2389,16 +2389,16 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>31.2</v>
+        <v>31.6</v>
       </c>
       <c r="D38" t="n">
-        <v>3065</v>
+        <v>3020</v>
       </c>
       <c r="E38" t="n">
         <v>2480</v>
       </c>
       <c r="F38" t="n">
-        <v>23.6</v>
+        <v>21.8</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2426,7 +2426,7 @@
         <v>20277000000</v>
       </c>
       <c r="N38" t="n">
-        <v>65062900500</v>
+        <v>64107654000</v>
       </c>
     </row>
     <row r="39">
@@ -2441,16 +2441,16 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>31.2</v>
+        <v>31.6</v>
       </c>
       <c r="D39" t="n">
-        <v>3065</v>
+        <v>3020</v>
       </c>
       <c r="E39" t="n">
         <v>2504.338645418327</v>
       </c>
       <c r="F39" t="n">
-        <v>22.4</v>
+        <v>20.6</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         <v>20277000000</v>
       </c>
       <c r="N39" t="n">
-        <v>65062900500</v>
+        <v>64107654000</v>
       </c>
     </row>
     <row r="40">
@@ -2493,16 +2493,16 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>31.2</v>
+        <v>31.6</v>
       </c>
       <c r="D40" t="n">
-        <v>3065</v>
+        <v>3020</v>
       </c>
       <c r="E40" t="n">
         <v>2880</v>
       </c>
       <c r="F40" t="n">
-        <v>6.4</v>
+        <v>4.9</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>20277000000</v>
       </c>
       <c r="N40" t="n">
-        <v>65062900500</v>
+        <v>64107654000</v>
       </c>
     </row>
     <row r="41">
@@ -2545,16 +2545,16 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>271.5</v>
+        <v>266.7</v>
       </c>
       <c r="D41" t="n">
-        <v>2318</v>
+        <v>2360</v>
       </c>
       <c r="E41" t="n">
         <v>2190</v>
       </c>
       <c r="F41" t="n">
-        <v>5.8</v>
+        <v>7.8</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>870891000000</v>
       </c>
       <c r="N41" t="n">
-        <v>320767366620</v>
+        <v>326579372400</v>
       </c>
     </row>
     <row r="42">
@@ -2597,10 +2597,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>38.9</v>
+        <v>38.7</v>
       </c>
       <c r="D42" t="n">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
@@ -2630,7 +2630,7 @@
         <v>35403000000</v>
       </c>
       <c r="N42" t="n">
-        <v>91126973818</v>
+        <v>91402281896</v>
       </c>
     </row>
     <row r="43">
@@ -2645,10 +2645,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>38.9</v>
+        <v>38.7</v>
       </c>
       <c r="D43" t="n">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
@@ -2678,7 +2678,7 @@
         <v>35403000000</v>
       </c>
       <c r="N43" t="n">
-        <v>91126973818</v>
+        <v>91402281896</v>
       </c>
     </row>
     <row r="44">
@@ -2693,16 +2693,16 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>62.3</v>
+        <v>63.2</v>
       </c>
       <c r="D44" t="n">
-        <v>3175</v>
+        <v>3130</v>
       </c>
       <c r="E44" t="n">
         <v>1410</v>
       </c>
       <c r="F44" t="n">
-        <v>125.2</v>
+        <v>122</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2730,7 +2730,7 @@
         <v>82575000000</v>
       </c>
       <c r="N44" t="n">
-        <v>132442727875</v>
+        <v>130565586850</v>
       </c>
     </row>
     <row r="45">
@@ -2745,16 +2745,16 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>75.7</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>2365</v>
+        <v>2337</v>
       </c>
       <c r="E45" t="n">
         <v>1303.446424801713</v>
       </c>
       <c r="F45" t="n">
-        <v>81.40000000000001</v>
+        <v>79.3</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
         <v>91090000000</v>
       </c>
       <c r="N45" t="n">
-        <v>120349647000</v>
+        <v>118924788600</v>
       </c>
     </row>
     <row r="46">
@@ -2797,16 +2797,16 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>43.9</v>
+        <v>44.5</v>
       </c>
       <c r="D46" t="n">
-        <v>2325.5</v>
+        <v>2296.5</v>
       </c>
       <c r="E46" t="n">
         <v>2032.365850102071</v>
       </c>
       <c r="F46" t="n">
-        <v>14.4</v>
+        <v>13</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2834,7 +2834,7 @@
         <v>323730000000</v>
       </c>
       <c r="N46" t="n">
-        <v>737374795630</v>
+        <v>728179410090</v>
       </c>
     </row>
     <row r="47">
@@ -2849,16 +2849,16 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>74.8</v>
+        <v>72.8</v>
       </c>
       <c r="D47" t="n">
-        <v>10930</v>
+        <v>11240</v>
       </c>
       <c r="E47" t="n">
         <v>7040.15625</v>
       </c>
       <c r="F47" t="n">
-        <v>55.3</v>
+        <v>59.7</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         <v>8781313000</v>
       </c>
       <c r="N47" t="n">
-        <v>11736852600</v>
+        <v>12069736800</v>
       </c>
     </row>
     <row r="48">
@@ -2901,16 +2901,16 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>74.8</v>
+        <v>72.8</v>
       </c>
       <c r="D48" t="n">
-        <v>10930</v>
+        <v>11240</v>
       </c>
       <c r="E48" t="n">
         <v>7040.15625</v>
       </c>
       <c r="F48" t="n">
-        <v>55.3</v>
+        <v>59.7</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>8781313000</v>
       </c>
       <c r="N48" t="n">
-        <v>11736852600</v>
+        <v>12069736800</v>
       </c>
     </row>
     <row r="49">
@@ -2953,10 +2953,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>783.4</v>
+        <v>775.9</v>
       </c>
       <c r="D49" t="n">
-        <v>3645</v>
+        <v>3680</v>
       </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
@@ -2986,7 +2986,7 @@
         <v>609113000000</v>
       </c>
       <c r="N49" t="n">
-        <v>77757327000</v>
+        <v>78503968000</v>
       </c>
     </row>
     <row r="50">
@@ -3001,16 +3001,16 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>112.7</v>
+        <v>113.3</v>
       </c>
       <c r="D50" t="n">
-        <v>1900</v>
+        <v>1891</v>
       </c>
       <c r="E50" t="n">
         <v>1469.167707232735</v>
       </c>
       <c r="F50" t="n">
-        <v>29.3</v>
+        <v>28.7</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>133437000000</v>
       </c>
       <c r="N50" t="n">
-        <v>118367720000</v>
+        <v>117807030800</v>
       </c>
     </row>
     <row r="51">
@@ -3053,16 +3053,16 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>112.7</v>
+        <v>113.3</v>
       </c>
       <c r="D51" t="n">
-        <v>1900</v>
+        <v>1891</v>
       </c>
       <c r="E51" t="n">
         <v>1489.94784546053</v>
       </c>
       <c r="F51" t="n">
-        <v>27.5</v>
+        <v>26.9</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         <v>133437000000</v>
       </c>
       <c r="N51" t="n">
-        <v>118367720000</v>
+        <v>117807030800</v>
       </c>
     </row>
     <row r="52">
@@ -3105,16 +3105,16 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>100.7</v>
+        <v>99.5</v>
       </c>
       <c r="D52" t="n">
-        <v>1453</v>
+        <v>1470</v>
       </c>
       <c r="E52" t="n">
         <v>1212.640316205534</v>
       </c>
       <c r="F52" t="n">
-        <v>19.8</v>
+        <v>21.2</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -3142,7 +3142,7 @@
         <v>13446000000</v>
       </c>
       <c r="N52" t="n">
-        <v>13354014450</v>
+        <v>13510255500</v>
       </c>
     </row>
     <row r="53">
@@ -3209,16 +3209,16 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>33.9</v>
+        <v>34</v>
       </c>
       <c r="D54" t="n">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="E54" t="n">
         <v>2968.770104870396</v>
       </c>
       <c r="F54" t="n">
-        <v>-62.6</v>
+        <v>-62.7</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>364930000000</v>
       </c>
       <c r="N54" t="n">
-        <v>1076228405400</v>
+        <v>1072350104840</v>
       </c>
     </row>
     <row r="55">
@@ -3261,16 +3261,16 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>82.3</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>2206</v>
+        <v>2197</v>
       </c>
       <c r="E55" t="n">
         <v>1190</v>
       </c>
       <c r="F55" t="n">
-        <v>85.40000000000001</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>39477000000</v>
       </c>
       <c r="N55" t="n">
-        <v>47984250200</v>
+        <v>47788484900</v>
       </c>
     </row>
     <row r="56">
@@ -3313,16 +3313,16 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>38.9</v>
+        <v>39.7</v>
       </c>
       <c r="D56" t="n">
-        <v>5699</v>
+        <v>5596</v>
       </c>
       <c r="E56" t="n">
         <v>1716.713876475349</v>
       </c>
       <c r="F56" t="n">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>564005000000</v>
       </c>
       <c r="N56" t="n">
-        <v>1448241711124</v>
+        <v>1422067137296</v>
       </c>
     </row>
     <row r="57">
@@ -3365,16 +3365,16 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>124.9</v>
+        <v>126.2</v>
       </c>
       <c r="D57" t="n">
-        <v>1087</v>
+        <v>1076</v>
       </c>
       <c r="E57" t="n">
         <v>438.851170934559</v>
       </c>
       <c r="F57" t="n">
-        <v>147.7</v>
+        <v>145.2</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3402,7 +3402,7 @@
         <v>79323000000</v>
       </c>
       <c r="N57" t="n">
-        <v>63498901811</v>
+        <v>62856318628</v>
       </c>
     </row>
     <row r="58">
@@ -3417,16 +3417,16 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>55.3</v>
+        <v>56.1</v>
       </c>
       <c r="D58" t="n">
-        <v>1315</v>
+        <v>1297</v>
       </c>
       <c r="E58" t="n">
         <v>1605.189780306002</v>
       </c>
       <c r="F58" t="n">
-        <v>-18.1</v>
+        <v>-19.2</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3454,7 +3454,7 @@
         <v>48290000000</v>
       </c>
       <c r="N58" t="n">
-        <v>87261296000</v>
+        <v>86066844800</v>
       </c>
     </row>
     <row r="59">
@@ -3521,16 +3521,16 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>24.5</v>
+        <v>24.2</v>
       </c>
       <c r="D60" t="n">
-        <v>16350</v>
+        <v>16570</v>
       </c>
       <c r="E60" t="n">
         <v>13739.64575539568</v>
       </c>
       <c r="F60" t="n">
-        <v>19</v>
+        <v>20.6</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         <v>265431000000</v>
       </c>
       <c r="N60" t="n">
-        <v>1083539025000</v>
+        <v>1098118755000</v>
       </c>
     </row>
     <row r="61">
@@ -3573,16 +3573,16 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>24.5</v>
+        <v>24.2</v>
       </c>
       <c r="D61" t="n">
-        <v>16350</v>
+        <v>16570</v>
       </c>
       <c r="E61" t="n">
         <v>12975.86280814577</v>
       </c>
       <c r="F61" t="n">
-        <v>26</v>
+        <v>27.7</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         <v>265431000000</v>
       </c>
       <c r="N61" t="n">
-        <v>1083539025000</v>
+        <v>1098118755000</v>
       </c>
     </row>
     <row r="62">
@@ -3625,16 +3625,16 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>35.4</v>
+        <v>35.3</v>
       </c>
       <c r="D62" t="n">
-        <v>1726</v>
+        <v>1733</v>
       </c>
       <c r="E62" t="n">
         <v>1529.631984751819</v>
       </c>
       <c r="F62" t="n">
-        <v>12.8</v>
+        <v>13.3</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>4358822000</v>
       </c>
       <c r="N62" t="n">
-        <v>12298181500</v>
+        <v>12348058250</v>
       </c>
     </row>
     <row r="63">
@@ -3677,16 +3677,16 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>35.4</v>
+        <v>35.3</v>
       </c>
       <c r="D63" t="n">
-        <v>1726</v>
+        <v>1733</v>
       </c>
       <c r="E63" t="n">
         <v>1449.995380693296</v>
       </c>
       <c r="F63" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3714,7 +3714,7 @@
         <v>4358822000</v>
       </c>
       <c r="N63" t="n">
-        <v>12298181500</v>
+        <v>12348058250</v>
       </c>
     </row>
     <row r="64">
@@ -3729,16 +3729,16 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>107.7</v>
+        <v>110.5</v>
       </c>
       <c r="D64" t="n">
-        <v>1580.5</v>
+        <v>1540</v>
       </c>
       <c r="E64" t="n">
         <v>1160.8</v>
       </c>
       <c r="F64" t="n">
-        <v>36.2</v>
+        <v>32.7</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3766,7 +3766,7 @@
         <v>458473000000</v>
       </c>
       <c r="N64" t="n">
-        <v>425694857145</v>
+        <v>414786510600</v>
       </c>
     </row>
     <row r="65">
@@ -3781,16 +3781,16 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="D65" t="n">
-        <v>3807</v>
+        <v>3714</v>
       </c>
       <c r="E65" t="n">
         <v>2561.705402476645</v>
       </c>
       <c r="F65" t="n">
-        <v>48.6</v>
+        <v>45</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3818,7 +3818,7 @@
         <v>81977000000</v>
       </c>
       <c r="N65" t="n">
-        <v>696582806049</v>
+        <v>679566204798</v>
       </c>
     </row>
     <row r="66">
@@ -3833,16 +3833,16 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="D66" t="n">
-        <v>2258</v>
+        <v>2265</v>
       </c>
       <c r="E66" t="n">
         <v>1710</v>
       </c>
       <c r="F66" t="n">
-        <v>32</v>
+        <v>32.5</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3870,7 +3870,7 @@
         <v>15543000000</v>
       </c>
       <c r="N66" t="n">
-        <v>38097427600</v>
+        <v>38215533000</v>
       </c>
     </row>
     <row r="67">
@@ -3885,16 +3885,16 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="D67" t="n">
-        <v>2258</v>
+        <v>2265</v>
       </c>
       <c r="E67" t="n">
         <v>1710</v>
       </c>
       <c r="F67" t="n">
-        <v>32</v>
+        <v>32.5</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3922,7 +3922,7 @@
         <v>15543000000</v>
       </c>
       <c r="N67" t="n">
-        <v>38097427600</v>
+        <v>38215533000</v>
       </c>
     </row>
     <row r="68">
@@ -3937,16 +3937,16 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>33</v>
+        <v>33.2</v>
       </c>
       <c r="D68" t="n">
-        <v>4305</v>
+        <v>4280</v>
       </c>
       <c r="E68" t="n">
         <v>1492.806001579363</v>
       </c>
       <c r="F68" t="n">
-        <v>188.4</v>
+        <v>186.7</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3974,7 +3974,7 @@
         <v>106485000000</v>
       </c>
       <c r="N68" t="n">
-        <v>322205826495</v>
+        <v>320334712520</v>
       </c>
     </row>
     <row r="69">
@@ -3989,16 +3989,16 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="D69" t="n">
-        <v>10130</v>
+        <v>9848</v>
       </c>
       <c r="E69" t="n">
         <v>6272.971195510064</v>
       </c>
       <c r="F69" t="n">
-        <v>61.5</v>
+        <v>57</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -4026,7 +4026,7 @@
         <v>153254000000</v>
       </c>
       <c r="N69" t="n">
-        <v>1217069305850</v>
+        <v>1183188403160</v>
       </c>
     </row>
     <row r="70">
@@ -4041,16 +4041,16 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>51.4</v>
+        <v>51.6</v>
       </c>
       <c r="D70" t="n">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="E70" t="n">
         <v>896.0103264198827</v>
       </c>
       <c r="F70" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>8417495000</v>
       </c>
       <c r="N70" t="n">
-        <v>16387440825</v>
+        <v>16314849725</v>
       </c>
     </row>
     <row r="71">
@@ -4093,16 +4093,16 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>76.59999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="D71" t="n">
-        <v>2389</v>
+        <v>2392</v>
       </c>
       <c r="E71" t="n">
         <v>3610</v>
       </c>
       <c r="F71" t="n">
-        <v>-33.8</v>
+        <v>-33.7</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         <v>122147000000</v>
       </c>
       <c r="N71" t="n">
-        <v>159528819600</v>
+        <v>159729148800</v>
       </c>
     </row>
   </sheetData>

--- a/docs/アクティビスト銘柄_資産判定.xlsx
+++ b/docs/アクティビスト銘柄_資産判定.xlsx
@@ -2782,7 +2782,7 @@
         <v>91090000000</v>
       </c>
       <c r="N45" t="n">
-        <v>118924788600</v>
+        <v>118924751208</v>
       </c>
     </row>
     <row r="46">
@@ -2849,7 +2849,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>72.8</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="D47" t="n">
         <v>11240</v>
@@ -2886,7 +2886,7 @@
         <v>8781313000</v>
       </c>
       <c r="N47" t="n">
-        <v>12069736800</v>
+        <v>11878308360</v>
       </c>
     </row>
     <row r="48">
@@ -2901,7 +2901,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>72.8</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="D48" t="n">
         <v>11240</v>
@@ -2938,7 +2938,7 @@
         <v>8781313000</v>
       </c>
       <c r="N48" t="n">
-        <v>12069736800</v>
+        <v>11878308360</v>
       </c>
     </row>
     <row r="49">

--- a/docs/アクティビスト銘柄_資産判定.xlsx
+++ b/docs/アクティビスト銘柄_資産判定.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N71"/>
+  <dimension ref="A1:N97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -820,1169 +820,1169 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>株式会社クレハ</t>
+          <t>セーレン株式会社</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4023</t>
+          <t>3569</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>22.4</v>
+        <v>38.2</v>
       </c>
       <c r="D8" t="n">
-        <v>3995</v>
+        <v>3075</v>
       </c>
       <c r="E8" t="n">
-        <v>7960</v>
+        <v>1359.655069733296</v>
       </c>
       <c r="F8" t="n">
-        <v>-49.8</v>
+        <v>126.2</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2023-10-04</t>
+          <t>2024-08-30</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>4999000000</v>
+        <v>39498000000</v>
       </c>
       <c r="J8" t="n">
-        <v>6059000000</v>
+        <v>26026000000</v>
       </c>
       <c r="K8" t="n">
-        <v>23201000000</v>
+        <v>3317000000</v>
       </c>
       <c r="L8" t="n">
-        <v>148872000000</v>
+        <v>80897000000</v>
       </c>
       <c r="M8" t="n">
-        <v>34259000000</v>
+        <v>68841000000</v>
       </c>
       <c r="N8" t="n">
-        <v>152686207370</v>
+        <v>180289417875</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>三井松島ホールディングス株式会社</t>
+          <t>太陽ホールディングス株式会社</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1518</t>
+          <t>4626</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>50.5</v>
+        <v>20.1</v>
       </c>
       <c r="D9" t="n">
-        <v>6590</v>
+        <v>7990</v>
       </c>
       <c r="E9" t="n">
-        <v>2920</v>
+        <v>3565.648720929983</v>
       </c>
       <c r="F9" t="n">
-        <v>125.7</v>
+        <v>124.1</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2024-05-02</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>19293000000</v>
+        <v>54309000000</v>
       </c>
       <c r="J9" t="n">
-        <v>3587000000</v>
+        <v>30690000000</v>
       </c>
       <c r="K9" t="n">
-        <v>3156000000</v>
+        <v>4437000000</v>
       </c>
       <c r="L9" t="n">
-        <v>30287000000</v>
+        <v>76497000000</v>
       </c>
       <c r="M9" t="n">
-        <v>26036000000</v>
+        <v>89436000000</v>
       </c>
       <c r="N9" t="n">
-        <v>51549022900</v>
+        <v>444015158410</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>株式会社パイオラックス</t>
+          <t>株式会社内田洋行</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5988</t>
+          <t>8057</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>98.3</v>
+        <v>23.9</v>
       </c>
       <c r="D10" t="n">
-        <v>1837</v>
+        <v>12530</v>
       </c>
       <c r="E10" t="n">
-        <v>2298.672482457804</v>
+        <v>3496.825336379792</v>
       </c>
       <c r="F10" t="n">
-        <v>-20.1</v>
+        <v>258.3</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2024-08-06</t>
+          <t>2022-12-19</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>31161000000</v>
+        <v>24890000000</v>
       </c>
       <c r="J10" t="n">
-        <v>12144000000</v>
+        <v>3100000000</v>
       </c>
       <c r="K10" t="n">
-        <v>1620000000</v>
+        <v>1500000000</v>
       </c>
       <c r="L10" t="n">
-        <v>93746000000</v>
+        <v>42315000000</v>
       </c>
       <c r="M10" t="n">
-        <v>44925000000</v>
+        <v>29490000000</v>
       </c>
       <c r="N10" t="n">
-        <v>45707682900</v>
+        <v>123471121200</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>王子ホールディングス株式会社</t>
+          <t>株式会社クレハ</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3861</t>
+          <t>4023</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>48.2</v>
+        <v>22.4</v>
       </c>
       <c r="D11" t="n">
-        <v>822.5999755859375</v>
+        <v>3995</v>
       </c>
       <c r="E11" t="n">
-        <v>590</v>
+        <v>7960</v>
       </c>
       <c r="F11" t="n">
-        <v>39.4</v>
+        <v>-49.8</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2023-10-04</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>135669000000</v>
+        <v>4999000000</v>
       </c>
       <c r="J11" t="n">
-        <v>222446000000</v>
+        <v>6059000000</v>
       </c>
       <c r="K11" t="n">
-        <v>4772000000</v>
+        <v>23201000000</v>
       </c>
       <c r="L11" t="n">
-        <v>865606000000</v>
+        <v>148872000000</v>
       </c>
       <c r="M11" t="n">
-        <v>362887000000</v>
+        <v>34259000000</v>
       </c>
       <c r="N11" t="n">
-        <v>752620089374</v>
+        <v>152686207370</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>株式会社青山財産ネットワークス</t>
+          <t>三井松島ホールディングス株式会社</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>8929</t>
+          <t>1518</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>29.3</v>
+        <v>50.5</v>
       </c>
       <c r="D12" t="n">
-        <v>2014</v>
+        <v>6590</v>
       </c>
       <c r="E12" t="n">
-        <v>1347.74653160027</v>
+        <v>2920</v>
       </c>
       <c r="F12" t="n">
-        <v>49.4</v>
+        <v>125.7</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2024-06-11</t>
+          <t>2024-05-02</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>9424000000</v>
+        <v>19293000000</v>
       </c>
       <c r="J12" t="n">
-        <v>2205000000</v>
+        <v>3587000000</v>
       </c>
       <c r="K12" t="n">
-        <v>2514000000</v>
+        <v>3156000000</v>
       </c>
       <c r="L12" t="n">
-        <v>6566000000</v>
+        <v>30287000000</v>
       </c>
       <c r="M12" t="n">
-        <v>14143000000</v>
+        <v>26036000000</v>
       </c>
       <c r="N12" t="n">
-        <v>48264722526</v>
+        <v>51549022900</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>わかもと製薬株式会社</t>
+          <t>株式会社セプテーニ・ホールディングス</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4512</t>
+          <t>4293</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>51.7</v>
+        <v>12.1</v>
       </c>
       <c r="D13" t="n">
-        <v>299</v>
+        <v>429</v>
       </c>
       <c r="E13" t="n">
-        <v>290.3401328717133</v>
+        <v>448.6811097117532</v>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>-4.4</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2023-12-21</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>2843762000</v>
+        <v>9080380000</v>
       </c>
       <c r="J13" t="n">
-        <v>82947000</v>
+        <v>123425000</v>
       </c>
       <c r="K13" t="n">
-        <v>2442113000</v>
+        <v>1600720000</v>
       </c>
       <c r="L13" t="n">
-        <v>11385570000</v>
+        <v>11068271000</v>
       </c>
       <c r="M13" t="n">
-        <v>5368822000</v>
+        <v>10804525000</v>
       </c>
       <c r="N13" t="n">
-        <v>10377175627</v>
+        <v>88985371761</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>株式会社シンクロ・フード</t>
+          <t>芝浦機械株式会社</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3963</t>
+          <t>6104</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>13.1</v>
+        <v>77.8</v>
       </c>
       <c r="D14" t="n">
-        <v>615</v>
+        <v>4325</v>
       </c>
       <c r="E14" t="n">
-        <v>421.6950726175476</v>
+        <v>3449.780346820809</v>
       </c>
       <c r="F14" t="n">
-        <v>45.8</v>
+        <v>25.4</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>2173723000</v>
+        <v>42417000000</v>
       </c>
       <c r="J14" t="n">
-        <v>67951000</v>
+        <v>19144000000</v>
       </c>
       <c r="K14" t="n">
-        <v>15141000</v>
+        <v>18000000000</v>
       </c>
       <c r="L14" t="n">
-        <v>2505194000</v>
+        <v>82152000000</v>
       </c>
       <c r="M14" t="n">
-        <v>2256815000</v>
+        <v>79561000000</v>
       </c>
       <c r="N14" t="n">
-        <v>17227749000</v>
+        <v>102204304225</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>東邦ホールディングス株式会社</t>
+          <t>株式会社パイオラックス</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>8129</t>
+          <t>5988</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>53.5</v>
+        <v>98.3</v>
       </c>
       <c r="D15" t="n">
-        <v>5511</v>
+        <v>1837</v>
       </c>
       <c r="E15" t="n">
-        <v>3405.914389596362</v>
+        <v>2298.672482457804</v>
       </c>
       <c r="F15" t="n">
-        <v>61.8</v>
+        <v>-20.1</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2024-07-16</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>88882000000</v>
+        <v>31161000000</v>
       </c>
       <c r="J15" t="n">
-        <v>34612000000</v>
+        <v>12144000000</v>
       </c>
       <c r="K15" t="n">
-        <v>70212000000</v>
+        <v>1620000000</v>
       </c>
       <c r="L15" t="n">
-        <v>237405000000</v>
+        <v>93746000000</v>
       </c>
       <c r="M15" t="n">
-        <v>193706000000</v>
+        <v>44925000000</v>
       </c>
       <c r="N15" t="n">
-        <v>361818091800</v>
+        <v>45707682900</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>東邦ホールディングス株式会社</t>
+          <t>王子ホールディングス株式会社</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>8129</t>
+          <t>3861</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>53.5</v>
+        <v>48.2</v>
       </c>
       <c r="D16" t="n">
-        <v>5511</v>
+        <v>822.5999755859375</v>
       </c>
       <c r="E16" t="n">
-        <v>2714.613787300615</v>
+        <v>590</v>
       </c>
       <c r="F16" t="n">
-        <v>103</v>
+        <v>39.4</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>88882000000</v>
+        <v>135669000000</v>
       </c>
       <c r="J16" t="n">
-        <v>34612000000</v>
+        <v>222446000000</v>
       </c>
       <c r="K16" t="n">
-        <v>70212000000</v>
+        <v>4772000000</v>
       </c>
       <c r="L16" t="n">
-        <v>237405000000</v>
+        <v>865606000000</v>
       </c>
       <c r="M16" t="n">
-        <v>193706000000</v>
+        <v>362887000000</v>
       </c>
       <c r="N16" t="n">
-        <v>361818091800</v>
+        <v>752620089374</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>株式会社ニコン</t>
+          <t>株式会社青山財産ネットワークス</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>7731</t>
+          <t>8929</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>14.7</v>
+        <v>29.3</v>
       </c>
       <c r="D17" t="n">
-        <v>1880</v>
+        <v>2014</v>
       </c>
       <c r="E17" t="n">
-        <v>1512.21980974841</v>
+        <v>1347.74653160027</v>
       </c>
       <c r="F17" t="n">
-        <v>24.3</v>
+        <v>49.4</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2024-04-22</t>
+          <t>2024-06-11</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>78718000000</v>
+        <v>9424000000</v>
       </c>
       <c r="J17" t="n">
-        <v>8297000000</v>
+        <v>2205000000</v>
       </c>
       <c r="K17" t="n">
-        <v>4000000000</v>
+        <v>2514000000</v>
       </c>
       <c r="L17" t="n">
-        <v>342155000000</v>
+        <v>6566000000</v>
       </c>
       <c r="M17" t="n">
-        <v>91015000000</v>
+        <v>14143000000</v>
       </c>
       <c r="N17" t="n">
-        <v>618555735040</v>
+        <v>48264722526</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>株式会社フジ・メディア・ホールディングス</t>
+          <t>わかもと製薬株式会社</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4676</t>
+          <t>4512</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>57.3</v>
+        <v>51.7</v>
       </c>
       <c r="D18" t="n">
-        <v>3489</v>
+        <v>299</v>
       </c>
       <c r="E18" t="n">
-        <v>2420</v>
+        <v>290.3401328717133</v>
       </c>
       <c r="F18" t="n">
-        <v>44.2</v>
+        <v>3</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>株式会社レノ代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-02-19</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>118591000000</v>
+        <v>2843762000</v>
       </c>
       <c r="J18" t="n">
-        <v>174618000000</v>
+        <v>82947000</v>
       </c>
       <c r="K18" t="n">
-        <v>121461000000</v>
+        <v>2442113000</v>
       </c>
       <c r="L18" t="n">
-        <v>784429000000</v>
+        <v>11385570000</v>
       </c>
       <c r="M18" t="n">
-        <v>414670000000</v>
+        <v>5368822000</v>
       </c>
       <c r="N18" t="n">
-        <v>723800380389</v>
+        <v>10377175627</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ニッコンホールディングス株式会社</t>
+          <t>株式会社シンクロ・フード</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>9072</t>
+          <t>3963</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>43.4</v>
+        <v>13.1</v>
       </c>
       <c r="D19" t="n">
-        <v>3401</v>
+        <v>615</v>
       </c>
       <c r="E19" t="n">
-        <v>1598.889989734285</v>
+        <v>421.6950726175476</v>
       </c>
       <c r="F19" t="n">
-        <v>112.7</v>
+        <v>45.8</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2023-09-04</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>30366000000</v>
+        <v>2173723000</v>
       </c>
       <c r="J19" t="n">
-        <v>115109000000</v>
+        <v>67951000</v>
       </c>
       <c r="K19" t="n">
-        <v>32990000000</v>
+        <v>15141000</v>
       </c>
       <c r="L19" t="n">
-        <v>208290000000</v>
+        <v>2505194000</v>
       </c>
       <c r="M19" t="n">
-        <v>178465000000</v>
+        <v>2256815000</v>
       </c>
       <c r="N19" t="n">
-        <v>411131286212</v>
+        <v>17227749000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>アツギ株式会社</t>
+          <t>東邦ホールディングス株式会社</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3529</t>
+          <t>8129</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>91.3</v>
+        <v>53.5</v>
       </c>
       <c r="D20" t="n">
-        <v>1034</v>
+        <v>5511</v>
       </c>
       <c r="E20" t="n">
-        <v>668.9358717434869</v>
+        <v>3405.914389596362</v>
       </c>
       <c r="F20" t="n">
-        <v>54.6</v>
+        <v>61.8</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2024-08-01</t>
+          <t>2024-07-16</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>7403000000</v>
+        <v>88882000000</v>
       </c>
       <c r="J20" t="n">
-        <v>1639000000</v>
+        <v>34612000000</v>
       </c>
       <c r="K20" t="n">
-        <v>6076000000</v>
+        <v>70212000000</v>
       </c>
       <c r="L20" t="n">
-        <v>33956000000</v>
+        <v>237405000000</v>
       </c>
       <c r="M20" t="n">
-        <v>15118000000</v>
+        <v>193706000000</v>
       </c>
       <c r="N20" t="n">
-        <v>16561578000</v>
+        <v>361818091800</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>大平洋金属株式会社</t>
+          <t>東邦ホールディングス株式会社</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>5541</t>
+          <t>8129</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>75.5</v>
+        <v>53.5</v>
       </c>
       <c r="D21" t="n">
-        <v>2024</v>
+        <v>5511</v>
       </c>
       <c r="E21" t="n">
-        <v>1270</v>
+        <v>2714.613787300615</v>
       </c>
       <c r="F21" t="n">
-        <v>59.4</v>
+        <v>103</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2024-07-25</t>
+          <t>2024-06-17</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>22286000000</v>
+        <v>88882000000</v>
       </c>
       <c r="J21" t="n">
-        <v>2059000000</v>
+        <v>34612000000</v>
       </c>
       <c r="K21" t="n">
-        <v>2199000000</v>
+        <v>70212000000</v>
       </c>
       <c r="L21" t="n">
-        <v>67014000000</v>
+        <v>237405000000</v>
       </c>
       <c r="M21" t="n">
-        <v>26544000000</v>
+        <v>193706000000</v>
       </c>
       <c r="N21" t="n">
-        <v>35178858616</v>
+        <v>361818091800</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>大平洋金属株式会社</t>
+          <t>株式会社ニコン</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>5541</t>
+          <t>7731</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>75.5</v>
+        <v>14.7</v>
       </c>
       <c r="D22" t="n">
-        <v>2024</v>
+        <v>1880</v>
       </c>
       <c r="E22" t="n">
-        <v>1170</v>
+        <v>1512.21980974841</v>
       </c>
       <c r="F22" t="n">
-        <v>73</v>
+        <v>24.3</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2024-01-18</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>22286000000</v>
+        <v>78718000000</v>
       </c>
       <c r="J22" t="n">
-        <v>2059000000</v>
+        <v>8297000000</v>
       </c>
       <c r="K22" t="n">
-        <v>2199000000</v>
+        <v>4000000000</v>
       </c>
       <c r="L22" t="n">
-        <v>67014000000</v>
+        <v>342155000000</v>
       </c>
       <c r="M22" t="n">
-        <v>26544000000</v>
+        <v>91015000000</v>
       </c>
       <c r="N22" t="n">
-        <v>35178858616</v>
+        <v>618555735040</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>株式会社スズケン</t>
+          <t>株式会社クスリのアオキホールディングス</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>9987</t>
+          <t>3549</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>69.7</v>
+        <v>35.5</v>
       </c>
       <c r="D23" t="n">
-        <v>5797</v>
+        <v>3978</v>
       </c>
       <c r="E23" t="n">
-        <v>4137.137750115735</v>
+        <v>6646.195827570309</v>
       </c>
       <c r="F23" t="n">
-        <v>40.1</v>
+        <v>-40.1</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2023-05-15</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>168818000000</v>
+        <v>15734000000</v>
       </c>
       <c r="J23" t="n">
-        <v>54931000000</v>
+        <v>120105000000</v>
       </c>
       <c r="K23" t="n">
-        <v>60282000000</v>
+        <v>3356000000</v>
       </c>
       <c r="L23" t="n">
-        <v>417912000000</v>
+        <v>77669000000</v>
       </c>
       <c r="M23" t="n">
-        <v>284031000000</v>
+        <v>139195000000</v>
       </c>
       <c r="N23" t="n">
-        <v>407591296013</v>
+        <v>392080698126</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>アルプスアルパイン株式会社</t>
+          <t>株式会社フジ・メディア・ホールディングス</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>6770</t>
+          <t>4676</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>69.09999999999999</v>
+        <v>57.3</v>
       </c>
       <c r="D24" t="n">
-        <v>1868.5</v>
+        <v>3489</v>
       </c>
       <c r="E24" t="n">
-        <v>1257.709264012363</v>
+        <v>2420</v>
       </c>
       <c r="F24" t="n">
-        <v>48.6</v>
+        <v>44.2</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>株式会社レノ代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2023-05-08</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>151748000000</v>
+        <v>118591000000</v>
       </c>
       <c r="J24" t="n">
-        <v>37620000000</v>
+        <v>174618000000</v>
       </c>
       <c r="K24" t="n">
-        <v>71804000000</v>
+        <v>121461000000</v>
       </c>
       <c r="L24" t="n">
-        <v>378379000000</v>
+        <v>784429000000</v>
       </c>
       <c r="M24" t="n">
-        <v>261172000000</v>
+        <v>414670000000</v>
       </c>
       <c r="N24" t="n">
-        <v>378100115702</v>
+        <v>723800380389</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>アルプスアルパイン株式会社</t>
+          <t>ニッコンホールディングス株式会社</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>6770</t>
+          <t>9072</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>69.09999999999999</v>
+        <v>43.4</v>
       </c>
       <c r="D25" t="n">
-        <v>1868.5</v>
+        <v>3401</v>
       </c>
       <c r="E25" t="n">
-        <v>1217.254500469243</v>
+        <v>1598.889989734285</v>
       </c>
       <c r="F25" t="n">
-        <v>53.5</v>
+        <v>112.7</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2023-01-24</t>
+          <t>2023-09-04</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>151748000000</v>
+        <v>30366000000</v>
       </c>
       <c r="J25" t="n">
-        <v>37620000000</v>
+        <v>115109000000</v>
       </c>
       <c r="K25" t="n">
-        <v>71804000000</v>
+        <v>32990000000</v>
       </c>
       <c r="L25" t="n">
-        <v>378379000000</v>
+        <v>208290000000</v>
       </c>
       <c r="M25" t="n">
-        <v>261172000000</v>
+        <v>178465000000</v>
       </c>
       <c r="N25" t="n">
-        <v>378100115702</v>
+        <v>411131286212</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>株式会社フェローテックホールディングス</t>
+          <t>ライフネット生命保険株式会社</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>6890</t>
+          <t>7157</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>55.6</v>
+        <v>1.9</v>
       </c>
       <c r="D26" t="n">
-        <v>4040</v>
+        <v>2084</v>
       </c>
       <c r="E26" t="n">
-        <v>2387</v>
+        <v>887.288318673809</v>
       </c>
       <c r="F26" t="n">
-        <v>69.3</v>
+        <v>134.9</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2023-05-24</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>30202000000</v>
+        <v>3059000000</v>
       </c>
       <c r="J26" t="n">
-        <v>66583000000</v>
+        <v>65000000</v>
       </c>
       <c r="K26" t="n">
-        <v>8420000000</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>78239000000</v>
+        <v>15806000000</v>
       </c>
       <c r="M26" t="n">
-        <v>105205000000</v>
+        <v>3124000000</v>
       </c>
       <c r="N26" t="n">
-        <v>189154929080</v>
+        <v>167382591128</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>株式会社ワコールホールディングス</t>
+          <t>株式会社メルカリ</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3591</t>
+          <t>4385</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10.2</v>
+        <v>38.1</v>
       </c>
       <c r="D27" t="n">
-        <v>5673</v>
+        <v>2268.5</v>
       </c>
       <c r="E27" t="n">
-        <v>2420.370957920882</v>
+        <v>2006.059650428343</v>
       </c>
       <c r="F27" t="n">
-        <v>134.4</v>
+        <v>13.1</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2024-06-04</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>12443000000</v>
+        <v>141008000000</v>
       </c>
       <c r="J27" t="n">
-        <v>16412000000</v>
+        <v>1051000000</v>
       </c>
       <c r="K27" t="n">
-        <v>76000000</v>
+        <v>43000000</v>
       </c>
       <c r="L27" t="n">
-        <v>140106000000</v>
+        <v>35368000000</v>
       </c>
       <c r="M27" t="n">
-        <v>28931000000</v>
+        <v>142102000000</v>
       </c>
       <c r="N27" t="n">
-        <v>285011276061</v>
+        <v>373445939354</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>新光商事株式会社</t>
+          <t>アツギ株式会社</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>8141</t>
+          <t>3529</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>59.1</v>
+        <v>91.3</v>
       </c>
       <c r="D28" t="n">
-        <v>968</v>
+        <v>1034</v>
       </c>
       <c r="E28" t="n">
-        <v>930</v>
+        <v>668.9358717434869</v>
       </c>
       <c r="F28" t="n">
-        <v>4.1</v>
+        <v>54.6</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>17596000000</v>
+        <v>7403000000</v>
       </c>
       <c r="J28" t="n">
-        <v>174000000</v>
+        <v>1639000000</v>
       </c>
       <c r="K28" t="n">
-        <v>2995000000</v>
+        <v>6076000000</v>
       </c>
       <c r="L28" t="n">
-        <v>50340000000</v>
+        <v>33956000000</v>
       </c>
       <c r="M28" t="n">
-        <v>20765000000</v>
+        <v>15118000000</v>
       </c>
       <c r="N28" t="n">
-        <v>35148678224</v>
+        <v>16561578000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ジェイドグループ株式会社</t>
+          <t>大平洋金属株式会社</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3558</t>
+          <t>5541</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>22</v>
+        <v>75.5</v>
       </c>
       <c r="D29" t="n">
-        <v>1430</v>
+        <v>2024</v>
       </c>
       <c r="E29" t="n">
-        <v>1267.324164058639</v>
+        <v>1270</v>
       </c>
       <c r="F29" t="n">
-        <v>12.8</v>
+        <v>59.4</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2023-03-22</t>
+          <t>2024-07-25</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>2776277000</v>
+        <v>22286000000</v>
       </c>
       <c r="J29" t="n">
-        <v>280430000</v>
+        <v>2059000000</v>
       </c>
       <c r="K29" t="n">
-        <v>23536000</v>
+        <v>2199000000</v>
       </c>
       <c r="L29" t="n">
-        <v>4370371000</v>
+        <v>67014000000</v>
       </c>
       <c r="M29" t="n">
-        <v>3080243000</v>
+        <v>26544000000</v>
       </c>
       <c r="N29" t="n">
-        <v>13995738900</v>
+        <v>35178858616</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>愛知製鋼株式会社</t>
+          <t>大平洋金属株式会社</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>5482</t>
+          <t>5541</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>54.3</v>
+        <v>75.5</v>
       </c>
       <c r="D30" t="n">
-        <v>2837</v>
+        <v>2024</v>
       </c>
       <c r="E30" t="n">
-        <v>3155.301177013616</v>
+        <v>1170</v>
       </c>
       <c r="F30" t="n">
-        <v>-10.1</v>
+        <v>73</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1991,362 +1991,362 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-01-18</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>54163000000</v>
+        <v>22286000000</v>
       </c>
       <c r="J30" t="n">
-        <v>11000000000</v>
+        <v>2059000000</v>
       </c>
       <c r="K30" t="n">
-        <v>33479000000</v>
+        <v>2199000000</v>
       </c>
       <c r="L30" t="n">
-        <v>179716000000</v>
+        <v>67014000000</v>
       </c>
       <c r="M30" t="n">
-        <v>98642000000</v>
+        <v>26544000000</v>
       </c>
       <c r="N30" t="n">
-        <v>181580199100</v>
+        <v>35178858616</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>株式会社エクセディ</t>
+          <t>株式会社スズケン</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>7278</t>
+          <t>9987</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>26.8</v>
+        <v>69.7</v>
       </c>
       <c r="D31" t="n">
-        <v>5430</v>
+        <v>5797</v>
       </c>
       <c r="E31" t="n">
-        <v>2617.980935875217</v>
+        <v>4137.137750115735</v>
       </c>
       <c r="F31" t="n">
-        <v>107.4</v>
+        <v>40.1</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2024-06-10</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>43070000000</v>
+        <v>168818000000</v>
       </c>
       <c r="J31" t="n">
-        <v>6829000000</v>
+        <v>54931000000</v>
       </c>
       <c r="K31" t="n">
-        <v>3253000000</v>
+        <v>60282000000</v>
       </c>
       <c r="L31" t="n">
-        <v>113343000000</v>
+        <v>417912000000</v>
       </c>
       <c r="M31" t="n">
-        <v>53152000000</v>
+        <v>284031000000</v>
       </c>
       <c r="N31" t="n">
-        <v>198486048000</v>
+        <v>407591296013</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>日本化薬株式会社</t>
+          <t>アルプスアルパイン株式会社</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>4272</t>
+          <t>6770</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>45.6</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>1436.5</v>
+        <v>1868.5</v>
       </c>
       <c r="E32" t="n">
-        <v>1111.90611839092</v>
+        <v>1257.709264012363</v>
       </c>
       <c r="F32" t="n">
-        <v>29.2</v>
+        <v>48.6</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2023-05-08</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>47483000000</v>
+        <v>151748000000</v>
       </c>
       <c r="J32" t="n">
-        <v>44109000000</v>
+        <v>37620000000</v>
       </c>
       <c r="K32" t="n">
-        <v>9428000000</v>
+        <v>71804000000</v>
       </c>
       <c r="L32" t="n">
-        <v>228273000000</v>
+        <v>378379000000</v>
       </c>
       <c r="M32" t="n">
-        <v>101020000000</v>
+        <v>261172000000</v>
       </c>
       <c r="N32" t="n">
-        <v>221319301132</v>
+        <v>378100115702</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>栄研化学株式会社</t>
+          <t>アルプスアルパイン株式会社</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4549</t>
+          <t>6770</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>24.2</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>2453</v>
+        <v>1868.5</v>
       </c>
       <c r="E33" t="n">
-        <v>1678.083113259255</v>
+        <v>1217.254500469243</v>
       </c>
       <c r="F33" t="n">
-        <v>46.2</v>
+        <v>53.5</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>6968000000</v>
+        <v>151748000000</v>
       </c>
       <c r="J33" t="n">
-        <v>11989000000</v>
+        <v>37620000000</v>
       </c>
       <c r="K33" t="n">
-        <v>597000000</v>
+        <v>71804000000</v>
       </c>
       <c r="L33" t="n">
-        <v>41672000000</v>
+        <v>378379000000</v>
       </c>
       <c r="M33" t="n">
-        <v>19554000000</v>
+        <v>261172000000</v>
       </c>
       <c r="N33" t="n">
-        <v>80880730557</v>
+        <v>378100115702</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>スタンレー電気株式会社</t>
+          <t>小林製薬株式会社</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>6923</t>
+          <t>4967</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>40.3</v>
+        <v>19.9</v>
       </c>
       <c r="D34" t="n">
-        <v>3002</v>
+        <v>5415</v>
       </c>
       <c r="E34" t="n">
-        <v>2560</v>
+        <v>5066.092575838703</v>
       </c>
       <c r="F34" t="n">
-        <v>17.3</v>
+        <v>6.9</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2024-07-22</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>101399000000</v>
+        <v>61157000000</v>
       </c>
       <c r="J34" t="n">
-        <v>74909000000</v>
+        <v>10611000000</v>
       </c>
       <c r="K34" t="n">
-        <v>3998000000</v>
+        <v>8300000000</v>
       </c>
       <c r="L34" t="n">
-        <v>444651000000</v>
+        <v>182583000000</v>
       </c>
       <c r="M34" t="n">
-        <v>180306000000</v>
+        <v>80068000000</v>
       </c>
       <c r="N34" t="n">
-        <v>447829257936</v>
+        <v>402544704885</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>株式会社電通グループ</t>
+          <t>小林製薬株式会社</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4324</t>
+          <t>4967</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>10.7</v>
+        <v>19.9</v>
       </c>
       <c r="D35" t="n">
-        <v>3282</v>
+        <v>5415</v>
       </c>
       <c r="E35" t="n">
-        <v>4156.179843576074</v>
+        <v>2148.936934940886</v>
       </c>
       <c r="F35" t="n">
-        <v>-21</v>
+        <v>152</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2023-03-10</t>
+          <t>2024-07-22</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>86652000000</v>
+        <v>61157000000</v>
       </c>
       <c r="J35" t="n">
-        <v>3784000000</v>
+        <v>10611000000</v>
       </c>
       <c r="K35" t="n">
-        <v>487000000</v>
+        <v>8300000000</v>
       </c>
       <c r="L35" t="n">
-        <v>616425000000</v>
+        <v>182583000000</v>
       </c>
       <c r="M35" t="n">
-        <v>90923000000</v>
+        <v>80068000000</v>
       </c>
       <c r="N35" t="n">
-        <v>851965928850</v>
+        <v>402544704885</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>科研製薬株式会社</t>
+          <t>株式会社パソナグループ</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4521</t>
+          <t>2168</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>73.3</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>3860</v>
+        <v>2183</v>
       </c>
       <c r="E36" t="n">
-        <v>3530</v>
+        <v>2122.579027791042</v>
       </c>
       <c r="F36" t="n">
-        <v>9.300000000000001</v>
+        <v>2.8</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2024-05-29</t>
+          <t>2024-07-25</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>77305000000</v>
+        <v>52298000000</v>
       </c>
       <c r="J36" t="n">
-        <v>15734000000</v>
+        <v>8021000000</v>
       </c>
       <c r="K36" t="n">
-        <v>14699000000</v>
+        <v>14500000000</v>
       </c>
       <c r="L36" t="n">
-        <v>136257000000</v>
+        <v>49795000000</v>
       </c>
       <c r="M36" t="n">
-        <v>107738000000</v>
+        <v>74819000000</v>
       </c>
       <c r="N36" t="n">
-        <v>146943831000</v>
+        <v>82570433802</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>大豊建設株式会社</t>
+          <t>株式会社フェローテックホールディングス</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1822</t>
+          <t>6890</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>64.2</v>
+        <v>55.6</v>
       </c>
       <c r="D37" t="n">
-        <v>850</v>
+        <v>4040</v>
       </c>
       <c r="E37" t="n">
-        <v>3590.021519088228</v>
+        <v>2387</v>
       </c>
       <c r="F37" t="n">
-        <v>-76.3</v>
+        <v>69.3</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2355,102 +2355,102 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2022-09-14</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>28203000000</v>
+        <v>30202000000</v>
       </c>
       <c r="J37" t="n">
-        <v>8895000000</v>
+        <v>66583000000</v>
       </c>
       <c r="K37" t="n">
-        <v>10990000000</v>
+        <v>8420000000</v>
       </c>
       <c r="L37" t="n">
-        <v>74130000000</v>
+        <v>78239000000</v>
       </c>
       <c r="M37" t="n">
-        <v>48088000000</v>
+        <v>105205000000</v>
       </c>
       <c r="N37" t="n">
-        <v>74942718400</v>
+        <v>189154929080</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>イリソ電子工業株式会社</t>
+          <t>株式会社ワコールホールディングス</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>6908</t>
+          <t>3591</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>31.6</v>
+        <v>10.2</v>
       </c>
       <c r="D38" t="n">
-        <v>3020</v>
+        <v>5673</v>
       </c>
       <c r="E38" t="n">
-        <v>2480</v>
+        <v>2420.370957920882</v>
       </c>
       <c r="F38" t="n">
-        <v>21.8</v>
+        <v>134.4</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2024-06-04</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>14260000000</v>
+        <v>12443000000</v>
       </c>
       <c r="J38" t="n">
-        <v>5778000000</v>
+        <v>16412000000</v>
       </c>
       <c r="K38" t="n">
-        <v>239000000</v>
+        <v>76000000</v>
       </c>
       <c r="L38" t="n">
-        <v>54731000000</v>
+        <v>140106000000</v>
       </c>
       <c r="M38" t="n">
-        <v>20277000000</v>
+        <v>28931000000</v>
       </c>
       <c r="N38" t="n">
-        <v>64107654000</v>
+        <v>285011276061</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>イリソ電子工業株式会社</t>
+          <t>新光商事株式会社</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>6908</t>
+          <t>8141</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>31.6</v>
+        <v>59.1</v>
       </c>
       <c r="D39" t="n">
-        <v>3020</v>
+        <v>968</v>
       </c>
       <c r="E39" t="n">
-        <v>2504.338645418327</v>
+        <v>930</v>
       </c>
       <c r="F39" t="n">
-        <v>20.6</v>
+        <v>4.1</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2459,102 +2459,102 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>14260000000</v>
+        <v>17596000000</v>
       </c>
       <c r="J39" t="n">
-        <v>5778000000</v>
+        <v>174000000</v>
       </c>
       <c r="K39" t="n">
-        <v>239000000</v>
+        <v>2995000000</v>
       </c>
       <c r="L39" t="n">
-        <v>54731000000</v>
+        <v>50340000000</v>
       </c>
       <c r="M39" t="n">
-        <v>20277000000</v>
+        <v>20765000000</v>
       </c>
       <c r="N39" t="n">
-        <v>64107654000</v>
+        <v>35148678224</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>イリソ電子工業株式会社</t>
+          <t>ジェイドグループ株式会社</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>6908</t>
+          <t>3558</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>31.6</v>
+        <v>22</v>
       </c>
       <c r="D40" t="n">
-        <v>3020</v>
+        <v>1430</v>
       </c>
       <c r="E40" t="n">
-        <v>2880</v>
+        <v>1267.324164058639</v>
       </c>
       <c r="F40" t="n">
-        <v>4.9</v>
+        <v>12.8</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2023-03-22</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>14260000000</v>
+        <v>2776277000</v>
       </c>
       <c r="J40" t="n">
-        <v>5778000000</v>
+        <v>280430000</v>
       </c>
       <c r="K40" t="n">
-        <v>239000000</v>
+        <v>23536000</v>
       </c>
       <c r="L40" t="n">
-        <v>54731000000</v>
+        <v>4370371000</v>
       </c>
       <c r="M40" t="n">
-        <v>20277000000</v>
+        <v>3080243000</v>
       </c>
       <c r="N40" t="n">
-        <v>64107654000</v>
+        <v>13995738900</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>株式会社あおぞら銀行</t>
+          <t>愛知製鋼株式会社</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>8304</t>
+          <t>5482</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>266.7</v>
+        <v>54.3</v>
       </c>
       <c r="D41" t="n">
-        <v>2360</v>
+        <v>2837</v>
       </c>
       <c r="E41" t="n">
-        <v>2190</v>
+        <v>3155.301177013616</v>
       </c>
       <c r="F41" t="n">
-        <v>7.8</v>
+        <v>-10.1</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2563,403 +2563,415 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2024-02-20</t>
+          <t>2024-09-13</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>847732000000</v>
+        <v>54163000000</v>
       </c>
       <c r="J41" t="n">
-        <v>23159000000</v>
+        <v>11000000000</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>33479000000</v>
       </c>
       <c r="L41" t="n">
-        <v>490006000000</v>
+        <v>179716000000</v>
       </c>
       <c r="M41" t="n">
-        <v>870891000000</v>
+        <v>98642000000</v>
       </c>
       <c r="N41" t="n">
-        <v>326579372400</v>
+        <v>181580199100</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>株式会社東北新社</t>
+          <t>カシオ計算機株式会社</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2329</t>
+          <t>6952</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>38.7</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>664</v>
-      </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
+        <v>1223</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1188.162962482466</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2.9</v>
+      </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2023-03-13</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>30866000000</v>
+        <v>137053000000</v>
       </c>
       <c r="J42" t="n">
-        <v>4464000000</v>
+        <v>12759000000</v>
       </c>
       <c r="K42" t="n">
-        <v>73000000</v>
+        <v>45698000000</v>
       </c>
       <c r="L42" t="n">
-        <v>72266000000</v>
+        <v>211895000000</v>
       </c>
       <c r="M42" t="n">
-        <v>35403000000</v>
+        <v>195510000000</v>
       </c>
       <c r="N42" t="n">
-        <v>91402281896</v>
+        <v>278900719071</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>株式会社東北新社</t>
+          <t>株式会社エクセディ</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2329</t>
+          <t>7278</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>38.7</v>
+        <v>26.8</v>
       </c>
       <c r="D43" t="n">
-        <v>664</v>
-      </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
+        <v>5430</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2617.980935875217</v>
+      </c>
+      <c r="F43" t="n">
+        <v>107.4</v>
+      </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2023-03-13</t>
+          <t>2024-06-10</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>30866000000</v>
+        <v>43070000000</v>
       </c>
       <c r="J43" t="n">
-        <v>4464000000</v>
+        <v>6829000000</v>
       </c>
       <c r="K43" t="n">
-        <v>73000000</v>
+        <v>3253000000</v>
       </c>
       <c r="L43" t="n">
-        <v>72266000000</v>
+        <v>113343000000</v>
       </c>
       <c r="M43" t="n">
-        <v>35403000000</v>
+        <v>53152000000</v>
       </c>
       <c r="N43" t="n">
-        <v>91402281896</v>
+        <v>198486048000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>月島ホールディングス株式会社</t>
+          <t>日本化薬株式会社</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>6332</t>
+          <t>4272</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>63.2</v>
+        <v>45.6</v>
       </c>
       <c r="D44" t="n">
-        <v>3130</v>
+        <v>1436.5</v>
       </c>
       <c r="E44" t="n">
-        <v>1410</v>
+        <v>1111.90611839092</v>
       </c>
       <c r="F44" t="n">
-        <v>122</v>
+        <v>29.2</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>33870000000</v>
+        <v>47483000000</v>
       </c>
       <c r="J44" t="n">
-        <v>23318000000</v>
+        <v>44109000000</v>
       </c>
       <c r="K44" t="n">
-        <v>25387000000</v>
+        <v>9428000000</v>
       </c>
       <c r="L44" t="n">
-        <v>71784000000</v>
+        <v>228273000000</v>
       </c>
       <c r="M44" t="n">
-        <v>82575000000</v>
+        <v>101020000000</v>
       </c>
       <c r="N44" t="n">
-        <v>130565586850</v>
+        <v>221319301132</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ホシデン株式会社</t>
+          <t>栄研化学株式会社</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>6804</t>
+          <t>4549</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>76.59999999999999</v>
+        <v>24.2</v>
       </c>
       <c r="D45" t="n">
-        <v>2337</v>
+        <v>2453</v>
       </c>
       <c r="E45" t="n">
-        <v>1303.446424801713</v>
+        <v>1678.083113259255</v>
       </c>
       <c r="F45" t="n">
-        <v>79.3</v>
+        <v>46.2</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2023-02-13</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>69522000000</v>
+        <v>6968000000</v>
       </c>
       <c r="J45" t="n">
-        <v>6944000000</v>
+        <v>11989000000</v>
       </c>
       <c r="K45" t="n">
-        <v>14624000000</v>
+        <v>597000000</v>
       </c>
       <c r="L45" t="n">
-        <v>109250000000</v>
+        <v>41672000000</v>
       </c>
       <c r="M45" t="n">
-        <v>91090000000</v>
+        <v>19554000000</v>
       </c>
       <c r="N45" t="n">
-        <v>118924751208</v>
+        <v>80880730557</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>東ソー株式会社</t>
+          <t>花王株式会社</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>4042</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>44.5</v>
+        <v>6.5</v>
       </c>
       <c r="D46" t="n">
-        <v>2296.5</v>
+        <v>6664</v>
       </c>
       <c r="E46" t="n">
-        <v>2032.365850102071</v>
+        <v>6116.356643776557</v>
       </c>
       <c r="F46" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2024-06-04</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>148397000000</v>
+        <v>118328000000</v>
       </c>
       <c r="J46" t="n">
-        <v>104609000000</v>
+        <v>63976000000</v>
       </c>
       <c r="K46" t="n">
-        <v>70724000000</v>
+        <v>19009000000</v>
       </c>
       <c r="L46" t="n">
-        <v>661679000000</v>
+        <v>805867000000</v>
       </c>
       <c r="M46" t="n">
-        <v>323730000000</v>
+        <v>201313000000</v>
       </c>
       <c r="N46" t="n">
-        <v>728179410090</v>
+        <v>3080305244856</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>イワブチ株式会社</t>
+          <t>サンケン電気株式会社</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>5983</t>
+          <t>6707</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>73.90000000000001</v>
+        <v>58.8</v>
       </c>
       <c r="D47" t="n">
-        <v>11240</v>
+        <v>7733</v>
       </c>
       <c r="E47" t="n">
-        <v>7040.15625</v>
+        <v>5478.947585152067</v>
       </c>
       <c r="F47" t="n">
-        <v>59.7</v>
+        <v>41.1</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>ＳＥＮＪＩＮ　ＣＡＰＩＴＡＬ　ＰＴＹ　ＬＴＤ</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>4688085000</v>
+        <v>59812000000</v>
       </c>
       <c r="J47" t="n">
-        <v>1422820000</v>
+        <v>29348000000</v>
       </c>
       <c r="K47" t="n">
-        <v>2670408000</v>
+        <v>3029000000</v>
       </c>
       <c r="L47" t="n">
-        <v>16426704000</v>
+        <v>113250000000</v>
       </c>
       <c r="M47" t="n">
-        <v>8781313000</v>
+        <v>92189000000</v>
       </c>
       <c r="N47" t="n">
-        <v>11878308360</v>
+        <v>156753323100</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>イワブチ株式会社</t>
+          <t>スタンレー電気株式会社</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>5983</t>
+          <t>6923</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>73.90000000000001</v>
+        <v>40.3</v>
       </c>
       <c r="D48" t="n">
-        <v>11240</v>
+        <v>3002</v>
       </c>
       <c r="E48" t="n">
-        <v>7040.15625</v>
+        <v>2560</v>
       </c>
       <c r="F48" t="n">
-        <v>59.7</v>
+        <v>17.3</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>ＳＥＮＪＩＮ　ＣＡＰＩＴＡＬ　ＰＴＹ　ＬＴＤ</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>4688085000</v>
+        <v>101399000000</v>
       </c>
       <c r="J48" t="n">
-        <v>1422820000</v>
+        <v>74909000000</v>
       </c>
       <c r="K48" t="n">
-        <v>2670408000</v>
+        <v>3998000000</v>
       </c>
       <c r="L48" t="n">
-        <v>16426704000</v>
+        <v>444651000000</v>
       </c>
       <c r="M48" t="n">
-        <v>8781313000</v>
+        <v>180306000000</v>
       </c>
       <c r="N48" t="n">
-        <v>11878308360</v>
+        <v>447829257936</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>株式会社おきなわフィナンシャルグループ</t>
+          <t>株式会社電通グループ</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>7350</t>
+          <t>4324</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>775.9</v>
+        <v>10.7</v>
       </c>
       <c r="D49" t="n">
-        <v>3680</v>
-      </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
+        <v>3282</v>
+      </c>
+      <c r="E49" t="n">
+        <v>4156.179843576074</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-21</v>
+      </c>
       <c r="G49" t="inlineStr">
         <is>
           <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
@@ -2967,50 +2979,50 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2023-05-16</t>
+          <t>2023-03-10</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>590636000000</v>
+        <v>86652000000</v>
       </c>
       <c r="J49" t="n">
-        <v>18477000000</v>
+        <v>3784000000</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>487000000</v>
       </c>
       <c r="L49" t="n">
-        <v>159392000000</v>
+        <v>616425000000</v>
       </c>
       <c r="M49" t="n">
-        <v>609113000000</v>
+        <v>90923000000</v>
       </c>
       <c r="N49" t="n">
-        <v>78503968000</v>
+        <v>851965928850</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>アークランズ株式会社</t>
+          <t>科研製薬株式会社</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>9842</t>
+          <t>4521</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>113.3</v>
+        <v>73.3</v>
       </c>
       <c r="D50" t="n">
-        <v>1891</v>
+        <v>3860</v>
       </c>
       <c r="E50" t="n">
-        <v>1469.167707232735</v>
+        <v>3530</v>
       </c>
       <c r="F50" t="n">
-        <v>28.7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -3019,102 +3031,102 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2023-03-30</t>
+          <t>2024-05-29</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>25605000000</v>
+        <v>77305000000</v>
       </c>
       <c r="J50" t="n">
-        <v>95781000000</v>
+        <v>15734000000</v>
       </c>
       <c r="K50" t="n">
-        <v>12051000000</v>
+        <v>14699000000</v>
       </c>
       <c r="L50" t="n">
-        <v>91048000000</v>
+        <v>136257000000</v>
       </c>
       <c r="M50" t="n">
-        <v>133437000000</v>
+        <v>107738000000</v>
       </c>
       <c r="N50" t="n">
-        <v>117807030800</v>
+        <v>146943831000</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>アークランズ株式会社</t>
+          <t>株式会社ＡＣＳＬ</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>9842</t>
+          <t>6232</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>113.3</v>
+        <v>13</v>
       </c>
       <c r="D51" t="n">
-        <v>1891</v>
+        <v>1031</v>
       </c>
       <c r="E51" t="n">
-        <v>1489.94784546053</v>
+        <v>913.2768512341561</v>
       </c>
       <c r="F51" t="n">
-        <v>26.9</v>
+        <v>12.9</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2022-09-27</t>
+          <t>2023-11-29</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>25605000000</v>
+        <v>1891731000</v>
       </c>
       <c r="J51" t="n">
-        <v>95781000000</v>
+        <v>68181000</v>
       </c>
       <c r="K51" t="n">
-        <v>12051000000</v>
+        <v>241987000</v>
       </c>
       <c r="L51" t="n">
-        <v>91048000000</v>
+        <v>3572642000</v>
       </c>
       <c r="M51" t="n">
-        <v>133437000000</v>
+        <v>2201899000</v>
       </c>
       <c r="N51" t="n">
-        <v>117807030800</v>
+        <v>16904276000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>三井住建道路株式会社</t>
+          <t>イリソ電子工業株式会社</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1776</t>
+          <t>6908</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>99.5</v>
+        <v>31.6</v>
       </c>
       <c r="D52" t="n">
-        <v>1470</v>
+        <v>3020</v>
       </c>
       <c r="E52" t="n">
-        <v>1212.640316205534</v>
+        <v>2480</v>
       </c>
       <c r="F52" t="n">
-        <v>21.2</v>
+        <v>21.8</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -3123,154 +3135,154 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>10677000000</v>
+        <v>14260000000</v>
       </c>
       <c r="J52" t="n">
-        <v>2762000000</v>
+        <v>5778000000</v>
       </c>
       <c r="K52" t="n">
-        <v>7000000</v>
+        <v>239000000</v>
       </c>
       <c r="L52" t="n">
-        <v>12543000000</v>
+        <v>54731000000</v>
       </c>
       <c r="M52" t="n">
-        <v>13446000000</v>
+        <v>20277000000</v>
       </c>
       <c r="N52" t="n">
-        <v>13510255500</v>
+        <v>64107654000</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>参天製薬株式会社</t>
+          <t>イリソ電子工業株式会社</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>4536</t>
+          <t>6908</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>10.2</v>
+        <v>31.6</v>
       </c>
       <c r="D53" t="n">
-        <v>1650</v>
+        <v>3020</v>
       </c>
       <c r="E53" t="n">
-        <v>1344.518957928979</v>
+        <v>2504.338645418327</v>
       </c>
       <c r="F53" t="n">
-        <v>22.7</v>
+        <v>20.6</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2024-04-19</t>
+          <t>2024-10-22</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>34203000000</v>
+        <v>14260000000</v>
       </c>
       <c r="J53" t="n">
-        <v>6796000000</v>
+        <v>5778000000</v>
       </c>
       <c r="K53" t="n">
-        <v>14270000000</v>
+        <v>239000000</v>
       </c>
       <c r="L53" t="n">
-        <v>294231000000</v>
+        <v>54731000000</v>
       </c>
       <c r="M53" t="n">
-        <v>55269000000</v>
+        <v>20277000000</v>
       </c>
       <c r="N53" t="n">
-        <v>540559418850</v>
+        <v>64107654000</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ヤマハ発動機株式会社</t>
+          <t>イリソ電子工業株式会社</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>7272</t>
+          <t>6908</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>34</v>
+        <v>31.6</v>
       </c>
       <c r="D54" t="n">
-        <v>1106</v>
+        <v>3020</v>
       </c>
       <c r="E54" t="n">
-        <v>2968.770104870396</v>
+        <v>2880</v>
       </c>
       <c r="F54" t="n">
-        <v>-62.7</v>
+        <v>4.9</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2023-01-16</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>267180000000</v>
+        <v>14260000000</v>
       </c>
       <c r="J54" t="n">
-        <v>48711000000</v>
+        <v>5778000000</v>
       </c>
       <c r="K54" t="n">
-        <v>49039000000</v>
+        <v>239000000</v>
       </c>
       <c r="L54" t="n">
-        <v>749158000000</v>
+        <v>54731000000</v>
       </c>
       <c r="M54" t="n">
-        <v>364930000000</v>
+        <v>20277000000</v>
       </c>
       <c r="N54" t="n">
-        <v>1072350104840</v>
+        <v>64107654000</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>日本特殊塗料株式会社</t>
+          <t>株式会社あおぞら銀行</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>4619</t>
+          <t>8304</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>82.59999999999999</v>
+        <v>266.7</v>
       </c>
       <c r="D55" t="n">
-        <v>2197</v>
+        <v>2360</v>
       </c>
       <c r="E55" t="n">
-        <v>1190</v>
+        <v>2190</v>
       </c>
       <c r="F55" t="n">
-        <v>84.59999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3279,51 +3291,47 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2024-02-20</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>6518000000</v>
+        <v>847732000000</v>
       </c>
       <c r="J55" t="n">
-        <v>9792000000</v>
+        <v>23159000000</v>
       </c>
       <c r="K55" t="n">
-        <v>23167000000</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>47154000000</v>
+        <v>490006000000</v>
       </c>
       <c r="M55" t="n">
-        <v>39477000000</v>
+        <v>870891000000</v>
       </c>
       <c r="N55" t="n">
-        <v>47788484900</v>
+        <v>326579372400</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>株式会社西武ホールディングス</t>
+          <t>株式会社東北新社</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>9024</t>
+          <t>2329</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>39.7</v>
+        <v>38.7</v>
       </c>
       <c r="D56" t="n">
-        <v>5596</v>
-      </c>
-      <c r="E56" t="n">
-        <v>1716.713876475349</v>
-      </c>
-      <c r="F56" t="n">
-        <v>226</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
           <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
@@ -3331,570 +3339,562 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2024-05-07</t>
+          <t>2023-03-13</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>28538000000</v>
+        <v>30866000000</v>
       </c>
       <c r="J56" t="n">
-        <v>485513000000</v>
+        <v>4464000000</v>
       </c>
       <c r="K56" t="n">
-        <v>49954000000</v>
+        <v>73000000</v>
       </c>
       <c r="L56" t="n">
-        <v>385687000000</v>
+        <v>72266000000</v>
       </c>
       <c r="M56" t="n">
-        <v>564005000000</v>
+        <v>35403000000</v>
       </c>
       <c r="N56" t="n">
-        <v>1422067137296</v>
+        <v>91402281896</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>株式会社ＴＳＩホールディングス</t>
+          <t>株式会社東北新社</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>3608</t>
+          <t>2329</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>126.2</v>
+        <v>38.7</v>
       </c>
       <c r="D57" t="n">
-        <v>1076</v>
-      </c>
-      <c r="E57" t="n">
-        <v>438.851170934559</v>
-      </c>
-      <c r="F57" t="n">
-        <v>145.2</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2023-03-13</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>49761000000</v>
+        <v>30866000000</v>
       </c>
       <c r="J57" t="n">
-        <v>4425000000</v>
+        <v>4464000000</v>
       </c>
       <c r="K57" t="n">
-        <v>25137000000</v>
+        <v>73000000</v>
       </c>
       <c r="L57" t="n">
-        <v>97430000000</v>
+        <v>72266000000</v>
       </c>
       <c r="M57" t="n">
-        <v>79323000000</v>
+        <v>35403000000</v>
       </c>
       <c r="N57" t="n">
-        <v>62856318628</v>
+        <v>91402281896</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>コニシ株式会社</t>
+          <t>株式会社トプコン</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>4956</t>
+          <t>7732</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>56.1</v>
+        <v>10.8</v>
       </c>
       <c r="D58" t="n">
-        <v>1297</v>
+        <v>3288</v>
       </c>
       <c r="E58" t="n">
-        <v>1605.189780306002</v>
+        <v>2085.872134468915</v>
       </c>
       <c r="F58" t="n">
-        <v>-19.2</v>
+        <v>57.6</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2023-01-11</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>23721000000</v>
+        <v>20446000000</v>
       </c>
       <c r="J58" t="n">
-        <v>13167000000</v>
+        <v>10856000000</v>
       </c>
       <c r="K58" t="n">
-        <v>11402000000</v>
+        <v>6017000000</v>
       </c>
       <c r="L58" t="n">
-        <v>68785000000</v>
+        <v>70687000000</v>
       </c>
       <c r="M58" t="n">
-        <v>48290000000</v>
+        <v>37319000000</v>
       </c>
       <c r="N58" t="n">
-        <v>86066844800</v>
+        <v>346783018944</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>倉敷紡績株式会社</t>
+          <t>月島ホールディングス株式会社</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>3106</t>
+          <t>6332</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>82.5</v>
+        <v>63.2</v>
       </c>
       <c r="D59" t="n">
-        <v>7070</v>
+        <v>3130</v>
       </c>
       <c r="E59" t="n">
-        <v>4549.503641591014</v>
+        <v>1410</v>
       </c>
       <c r="F59" t="n">
-        <v>55.4</v>
+        <v>122</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>22059000000</v>
+        <v>33870000000</v>
       </c>
       <c r="J59" t="n">
-        <v>21438000000</v>
+        <v>23318000000</v>
       </c>
       <c r="K59" t="n">
-        <v>53409000000</v>
+        <v>25387000000</v>
       </c>
       <c r="L59" t="n">
-        <v>95004000000</v>
+        <v>71784000000</v>
       </c>
       <c r="M59" t="n">
-        <v>96906000000</v>
+        <v>82575000000</v>
       </c>
       <c r="N59" t="n">
-        <v>117427751000</v>
+        <v>130565586850</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>大東建託株式会社</t>
+          <t>東京都競馬株式会社</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1878</t>
+          <t>9672</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>24.2</v>
+        <v>36.2</v>
       </c>
       <c r="D60" t="n">
-        <v>16570</v>
+        <v>5250</v>
       </c>
       <c r="E60" t="n">
-        <v>13739.64575539568</v>
+        <v>3891.73752540545</v>
       </c>
       <c r="F60" t="n">
-        <v>20.6</v>
+        <v>34.9</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2023-03-28</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>198760000000</v>
+        <v>15161482000</v>
       </c>
       <c r="J60" t="n">
-        <v>62873000000</v>
+        <v>32537201000</v>
       </c>
       <c r="K60" t="n">
-        <v>3798000000</v>
+        <v>3000000000</v>
       </c>
       <c r="L60" t="n">
-        <v>308206000000</v>
+        <v>70534868000</v>
       </c>
       <c r="M60" t="n">
-        <v>265431000000</v>
+        <v>50698683000</v>
       </c>
       <c r="N60" t="n">
-        <v>1098118755000</v>
+        <v>140131950000</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>大東建託株式会社</t>
+          <t>ホシデン株式会社</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1878</t>
+          <t>6804</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>24.2</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>16570</v>
+        <v>2337</v>
       </c>
       <c r="E61" t="n">
-        <v>12975.86280814577</v>
+        <v>1303.446424801713</v>
       </c>
       <c r="F61" t="n">
-        <v>27.7</v>
+        <v>79.3</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2023-06-02</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>198760000000</v>
+        <v>69522000000</v>
       </c>
       <c r="J61" t="n">
-        <v>62873000000</v>
+        <v>6944000000</v>
       </c>
       <c r="K61" t="n">
-        <v>3798000000</v>
+        <v>14624000000</v>
       </c>
       <c r="L61" t="n">
-        <v>308206000000</v>
+        <v>109250000000</v>
       </c>
       <c r="M61" t="n">
-        <v>265431000000</v>
+        <v>91090000000</v>
       </c>
       <c r="N61" t="n">
-        <v>1098118755000</v>
+        <v>118924751208</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ブロードメディア株式会社</t>
+          <t>東ソー株式会社</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>4347</t>
+          <t>4042</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>35.3</v>
+        <v>44.5</v>
       </c>
       <c r="D62" t="n">
-        <v>1733</v>
+        <v>2296.5</v>
       </c>
       <c r="E62" t="n">
-        <v>1529.631984751819</v>
+        <v>2032.365850102071</v>
       </c>
       <c r="F62" t="n">
-        <v>13.3</v>
+        <v>13</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2024-07-03</t>
+          <t>2024-06-04</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>3368262000</v>
+        <v>148397000000</v>
       </c>
       <c r="J62" t="n">
-        <v>826293000</v>
+        <v>104609000000</v>
       </c>
       <c r="K62" t="n">
-        <v>164267000</v>
+        <v>70724000000</v>
       </c>
       <c r="L62" t="n">
-        <v>3706507000</v>
+        <v>661679000000</v>
       </c>
       <c r="M62" t="n">
-        <v>4358822000</v>
+        <v>323730000000</v>
       </c>
       <c r="N62" t="n">
-        <v>12348058250</v>
+        <v>728179410090</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ブロードメディア株式会社</t>
+          <t>エン・ジャパン株式会社</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>4347</t>
+          <t>4849</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>35.3</v>
+        <v>44.1</v>
       </c>
       <c r="D63" t="n">
-        <v>1733</v>
+        <v>1698</v>
       </c>
       <c r="E63" t="n">
-        <v>1449.995380693296</v>
+        <v>1746.940387696806</v>
       </c>
       <c r="F63" t="n">
-        <v>19.5</v>
+        <v>-2.8</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2024-05-22</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>3368262000</v>
+        <v>26835000000</v>
       </c>
       <c r="J63" t="n">
-        <v>826293000</v>
+        <v>1019000000</v>
       </c>
       <c r="K63" t="n">
-        <v>164267000</v>
+        <v>2000000000</v>
       </c>
       <c r="L63" t="n">
-        <v>3706507000</v>
+        <v>36856000000</v>
       </c>
       <c r="M63" t="n">
-        <v>4358822000</v>
+        <v>29854000000</v>
       </c>
       <c r="N63" t="n">
-        <v>12348058250</v>
+        <v>67666828200</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>京浜急行電鉄株式会社</t>
+          <t>イワブチ株式会社</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>9006</t>
+          <t>5983</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>110.5</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>1540</v>
+        <v>11240</v>
       </c>
       <c r="E64" t="n">
-        <v>1160.8</v>
+        <v>7040.15625</v>
       </c>
       <c r="F64" t="n">
-        <v>32.7</v>
+        <v>59.7</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>ＳＥＮＪＩＮ　ＣＡＰＩＴＡＬ　ＰＴＹ　ＬＴＤ</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>57450000000</v>
+        <v>4688085000</v>
       </c>
       <c r="J64" t="n">
-        <v>297923000000</v>
+        <v>1422820000</v>
       </c>
       <c r="K64" t="n">
-        <v>103100000000</v>
+        <v>2670408000</v>
       </c>
       <c r="L64" t="n">
-        <v>249065000000</v>
+        <v>16426704000</v>
       </c>
       <c r="M64" t="n">
-        <v>458473000000</v>
+        <v>8781313000</v>
       </c>
       <c r="N64" t="n">
-        <v>414786510600</v>
+        <v>11878308360</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>日鉄ソリューションズ株式会社</t>
+          <t>イワブチ株式会社</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2327</t>
+          <t>5983</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>12.1</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>3714</v>
+        <v>11240</v>
       </c>
       <c r="E65" t="n">
-        <v>2561.705402476645</v>
+        <v>7040.15625</v>
       </c>
       <c r="F65" t="n">
-        <v>45</v>
+        <v>59.7</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>ＳＥＮＪＩＮ　ＣＡＰＩＴＡＬ　ＰＴＹ　ＬＴＤ</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>78579000000</v>
+        <v>4688085000</v>
       </c>
       <c r="J65" t="n">
-        <v>2398000000</v>
+        <v>1422820000</v>
       </c>
       <c r="K65" t="n">
-        <v>1000000000</v>
+        <v>2670408000</v>
       </c>
       <c r="L65" t="n">
-        <v>186128000000</v>
+        <v>16426704000</v>
       </c>
       <c r="M65" t="n">
-        <v>81977000000</v>
+        <v>8781313000</v>
       </c>
       <c r="N65" t="n">
-        <v>679566204798</v>
+        <v>11878308360</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ＮＩＴＴＯＫＵ株式会社</t>
+          <t>株式会社おきなわフィナンシャルグループ</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>6145</t>
+          <t>7350</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>40.7</v>
+        <v>775.9</v>
       </c>
       <c r="D66" t="n">
-        <v>2265</v>
-      </c>
-      <c r="E66" t="n">
-        <v>1710</v>
-      </c>
-      <c r="F66" t="n">
-        <v>32.5</v>
-      </c>
+        <v>3680</v>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2023-05-16</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>10110000000</v>
+        <v>590636000000</v>
       </c>
       <c r="J66" t="n">
-        <v>5132000000</v>
+        <v>18477000000</v>
       </c>
       <c r="K66" t="n">
-        <v>301000000</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>31726000000</v>
+        <v>159392000000</v>
       </c>
       <c r="M66" t="n">
-        <v>15543000000</v>
+        <v>609113000000</v>
       </c>
       <c r="N66" t="n">
-        <v>38215533000</v>
+        <v>78503968000</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ＮＩＴＴＯＫＵ株式会社</t>
+          <t>アークランズ株式会社</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>6145</t>
+          <t>9842</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>40.7</v>
+        <v>113.3</v>
       </c>
       <c r="D67" t="n">
-        <v>2265</v>
+        <v>1891</v>
       </c>
       <c r="E67" t="n">
-        <v>1710</v>
+        <v>1469.167707232735</v>
       </c>
       <c r="F67" t="n">
-        <v>32.5</v>
+        <v>28.7</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3903,233 +3903,1585 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2023-03-30</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>10110000000</v>
+        <v>25605000000</v>
       </c>
       <c r="J67" t="n">
-        <v>5132000000</v>
+        <v>95781000000</v>
       </c>
       <c r="K67" t="n">
-        <v>301000000</v>
+        <v>12051000000</v>
       </c>
       <c r="L67" t="n">
-        <v>31726000000</v>
+        <v>91048000000</v>
       </c>
       <c r="M67" t="n">
-        <v>15543000000</v>
+        <v>133437000000</v>
       </c>
       <c r="N67" t="n">
-        <v>38215533000</v>
+        <v>117807030800</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>三井倉庫ホールディングス株式会社</t>
+          <t>アークランズ株式会社</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>9302</t>
+          <t>9842</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>33.2</v>
+        <v>113.3</v>
       </c>
       <c r="D68" t="n">
-        <v>4280</v>
+        <v>1891</v>
       </c>
       <c r="E68" t="n">
-        <v>1492.806001579363</v>
+        <v>1489.94784546053</v>
       </c>
       <c r="F68" t="n">
-        <v>186.7</v>
+        <v>26.9</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2022-09-27</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>22718000000</v>
+        <v>25605000000</v>
       </c>
       <c r="J68" t="n">
-        <v>68374000000</v>
+        <v>95781000000</v>
       </c>
       <c r="K68" t="n">
-        <v>15393000000</v>
+        <v>12051000000</v>
       </c>
       <c r="L68" t="n">
-        <v>68529000000</v>
+        <v>91048000000</v>
       </c>
       <c r="M68" t="n">
-        <v>106485000000</v>
+        <v>133437000000</v>
       </c>
       <c r="N68" t="n">
-        <v>320334712520</v>
+        <v>117807030800</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>株式会社スクウェア・エニックス・ホールディングス</t>
+          <t>三井住建道路株式会社</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>9684</t>
+          <t>1776</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>13</v>
+        <v>99.5</v>
       </c>
       <c r="D69" t="n">
-        <v>9848</v>
+        <v>1470</v>
       </c>
       <c r="E69" t="n">
-        <v>6272.971195510064</v>
+        <v>1212.640316205534</v>
       </c>
       <c r="F69" t="n">
-        <v>57</v>
+        <v>21.2</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>144061000000</v>
+        <v>10677000000</v>
       </c>
       <c r="J69" t="n">
-        <v>4462000000</v>
+        <v>2762000000</v>
       </c>
       <c r="K69" t="n">
-        <v>4731000000</v>
+        <v>7000000</v>
       </c>
       <c r="L69" t="n">
-        <v>243278000000</v>
+        <v>12543000000</v>
       </c>
       <c r="M69" t="n">
-        <v>153254000000</v>
+        <v>13446000000</v>
       </c>
       <c r="N69" t="n">
-        <v>1183188403160</v>
+        <v>13510255500</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ヘリオス テクノ ホールディング株式会社</t>
+          <t>参天製薬株式会社</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>6927</t>
+          <t>4536</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>51.6</v>
+        <v>10.2</v>
       </c>
       <c r="D70" t="n">
-        <v>899</v>
+        <v>1650</v>
       </c>
       <c r="E70" t="n">
-        <v>896.0103264198827</v>
+        <v>1344.518957928979</v>
       </c>
       <c r="F70" t="n">
-        <v>0.3</v>
+        <v>22.7</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2024-04-19</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>6417163000</v>
+        <v>34203000000</v>
       </c>
       <c r="J70" t="n">
-        <v>658172000</v>
+        <v>6796000000</v>
       </c>
       <c r="K70" t="n">
-        <v>1342160000</v>
+        <v>14270000000</v>
       </c>
       <c r="L70" t="n">
-        <v>13418044000</v>
+        <v>294231000000</v>
       </c>
       <c r="M70" t="n">
-        <v>8417495000</v>
+        <v>55269000000</v>
       </c>
       <c r="N70" t="n">
-        <v>16314849725</v>
+        <v>540559418850</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
+          <t>コクヨ株式会社</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>7984</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="D71" t="n">
+        <v>927</v>
+      </c>
+      <c r="E71" t="n">
+        <v>2157.626835069302</v>
+      </c>
+      <c r="F71" t="n">
+        <v>-57</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>90577000000</v>
+      </c>
+      <c r="J71" t="n">
+        <v>21360000000</v>
+      </c>
+      <c r="K71" t="n">
+        <v>30086000000</v>
+      </c>
+      <c r="L71" t="n">
+        <v>226335000000</v>
+      </c>
+      <c r="M71" t="n">
+        <v>142023000000</v>
+      </c>
+      <c r="N71" t="n">
+        <v>407380834602</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>ヤマハ発動機株式会社</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>7272</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>34</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1106</v>
+      </c>
+      <c r="E72" t="n">
+        <v>2968.770104870396</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-62.7</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>2023-01-16</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>267180000000</v>
+      </c>
+      <c r="J72" t="n">
+        <v>48711000000</v>
+      </c>
+      <c r="K72" t="n">
+        <v>49039000000</v>
+      </c>
+      <c r="L72" t="n">
+        <v>749158000000</v>
+      </c>
+      <c r="M72" t="n">
+        <v>364930000000</v>
+      </c>
+      <c r="N72" t="n">
+        <v>1072350104840</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>相模ゴム工業株式会社</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>5194</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>44.9</v>
+      </c>
+      <c r="D73" t="n">
+        <v>955</v>
+      </c>
+      <c r="E73" t="n">
+        <v>933.1435874692879</v>
+      </c>
+      <c r="F73" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>2023-08-28</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>1474580000</v>
+      </c>
+      <c r="J73" t="n">
+        <v>2373852000</v>
+      </c>
+      <c r="K73" t="n">
+        <v>804741000</v>
+      </c>
+      <c r="L73" t="n">
+        <v>7569765000</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4653173000</v>
+      </c>
+      <c r="N73" t="n">
+        <v>10367862000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>日本特殊塗料株式会社</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>4619</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="D74" t="n">
+        <v>2197</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1190</v>
+      </c>
+      <c r="F74" t="n">
+        <v>84.59999999999999</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>2025-04-07</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>6518000000</v>
+      </c>
+      <c r="J74" t="n">
+        <v>9792000000</v>
+      </c>
+      <c r="K74" t="n">
+        <v>23167000000</v>
+      </c>
+      <c r="L74" t="n">
+        <v>47154000000</v>
+      </c>
+      <c r="M74" t="n">
+        <v>39477000000</v>
+      </c>
+      <c r="N74" t="n">
+        <v>47788484900</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>株式会社西武ホールディングス</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>9024</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="D75" t="n">
+        <v>5596</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1716.713876475349</v>
+      </c>
+      <c r="F75" t="n">
+        <v>226</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>2024-05-07</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>28538000000</v>
+      </c>
+      <c r="J75" t="n">
+        <v>485513000000</v>
+      </c>
+      <c r="K75" t="n">
+        <v>49954000000</v>
+      </c>
+      <c r="L75" t="n">
+        <v>385687000000</v>
+      </c>
+      <c r="M75" t="n">
+        <v>564005000000</v>
+      </c>
+      <c r="N75" t="n">
+        <v>1422067137296</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>株式会社ＴＳＩホールディングス</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>3608</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>126.2</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1076</v>
+      </c>
+      <c r="E76" t="n">
+        <v>438.851170934559</v>
+      </c>
+      <c r="F76" t="n">
+        <v>145.2</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>49761000000</v>
+      </c>
+      <c r="J76" t="n">
+        <v>4425000000</v>
+      </c>
+      <c r="K76" t="n">
+        <v>25137000000</v>
+      </c>
+      <c r="L76" t="n">
+        <v>97430000000</v>
+      </c>
+      <c r="M76" t="n">
+        <v>79323000000</v>
+      </c>
+      <c r="N76" t="n">
+        <v>62856318628</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>コニシ株式会社</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>4956</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>56.1</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1297</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1605.189780306002</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-19.2</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>2023-01-11</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>23721000000</v>
+      </c>
+      <c r="J77" t="n">
+        <v>13167000000</v>
+      </c>
+      <c r="K77" t="n">
+        <v>11402000000</v>
+      </c>
+      <c r="L77" t="n">
+        <v>68785000000</v>
+      </c>
+      <c r="M77" t="n">
+        <v>48290000000</v>
+      </c>
+      <c r="N77" t="n">
+        <v>86066844800</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>倉敷紡績株式会社</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>3106</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="D78" t="n">
+        <v>7070</v>
+      </c>
+      <c r="E78" t="n">
+        <v>4549.503641591014</v>
+      </c>
+      <c r="F78" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>2025-04-28</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>22059000000</v>
+      </c>
+      <c r="J78" t="n">
+        <v>21438000000</v>
+      </c>
+      <c r="K78" t="n">
+        <v>53409000000</v>
+      </c>
+      <c r="L78" t="n">
+        <v>95004000000</v>
+      </c>
+      <c r="M78" t="n">
+        <v>96906000000</v>
+      </c>
+      <c r="N78" t="n">
+        <v>117427751000</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>日本ゼオン株式会社</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>4205</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1666.5</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1721.078563209627</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>48152000000</v>
+      </c>
+      <c r="J79" t="n">
+        <v>45247000000</v>
+      </c>
+      <c r="K79" t="n">
+        <v>85316000000</v>
+      </c>
+      <c r="L79" t="n">
+        <v>298246000000</v>
+      </c>
+      <c r="M79" t="n">
+        <v>178715000000</v>
+      </c>
+      <c r="N79" t="n">
+        <v>324063847041</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>大東建託株式会社</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>1878</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="D80" t="n">
+        <v>16570</v>
+      </c>
+      <c r="E80" t="n">
+        <v>13739.64575539568</v>
+      </c>
+      <c r="F80" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>2025-05-22</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>198760000000</v>
+      </c>
+      <c r="J80" t="n">
+        <v>62873000000</v>
+      </c>
+      <c r="K80" t="n">
+        <v>3798000000</v>
+      </c>
+      <c r="L80" t="n">
+        <v>308206000000</v>
+      </c>
+      <c r="M80" t="n">
+        <v>265431000000</v>
+      </c>
+      <c r="N80" t="n">
+        <v>1098118755000</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>大東建託株式会社</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>1878</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="D81" t="n">
+        <v>16570</v>
+      </c>
+      <c r="E81" t="n">
+        <v>12975.86280814577</v>
+      </c>
+      <c r="F81" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>2023-06-02</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>198760000000</v>
+      </c>
+      <c r="J81" t="n">
+        <v>62873000000</v>
+      </c>
+      <c r="K81" t="n">
+        <v>3798000000</v>
+      </c>
+      <c r="L81" t="n">
+        <v>308206000000</v>
+      </c>
+      <c r="M81" t="n">
+        <v>265431000000</v>
+      </c>
+      <c r="N81" t="n">
+        <v>1098118755000</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>株式会社ツルハホールディングス</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>3391</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="D82" t="n">
+        <v>2366</v>
+      </c>
+      <c r="E82" t="n">
+        <v>4544.200649553184</v>
+      </c>
+      <c r="F82" t="n">
+        <v>-47.9</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>2023-05-08</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>116398000000</v>
+      </c>
+      <c r="J82" t="n">
+        <v>83437000000</v>
+      </c>
+      <c r="K82" t="n">
+        <v>34181000000</v>
+      </c>
+      <c r="L82" t="n">
+        <v>276528000000</v>
+      </c>
+      <c r="M82" t="n">
+        <v>234016000000</v>
+      </c>
+      <c r="N82" t="n">
+        <v>576161375790</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>株式会社ツルハホールディングス</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>3391</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="D83" t="n">
+        <v>2366</v>
+      </c>
+      <c r="E83" t="n">
+        <v>8262.359904024779</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-71.40000000000001</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>2022-12-19</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>116398000000</v>
+      </c>
+      <c r="J83" t="n">
+        <v>83437000000</v>
+      </c>
+      <c r="K83" t="n">
+        <v>34181000000</v>
+      </c>
+      <c r="L83" t="n">
+        <v>276528000000</v>
+      </c>
+      <c r="M83" t="n">
+        <v>234016000000</v>
+      </c>
+      <c r="N83" t="n">
+        <v>576161375790</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>株式会社アインホールディングス</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>9627</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>35</v>
+      </c>
+      <c r="D84" t="n">
+        <v>6960</v>
+      </c>
+      <c r="E84" t="n">
+        <v>2836.942753814942</v>
+      </c>
+      <c r="F84" t="n">
+        <v>145.3</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>55009000000</v>
+      </c>
+      <c r="J84" t="n">
+        <v>27122000000</v>
+      </c>
+      <c r="K84" t="n">
+        <v>3345000000</v>
+      </c>
+      <c r="L84" t="n">
+        <v>115837000000</v>
+      </c>
+      <c r="M84" t="n">
+        <v>85476000000</v>
+      </c>
+      <c r="N84" t="n">
+        <v>244109646000</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>ＤＩＣ株式会社</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>4631</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>69.5</v>
+      </c>
+      <c r="D85" t="n">
+        <v>3607</v>
+      </c>
+      <c r="E85" t="n">
+        <v>2566.284807227078</v>
+      </c>
+      <c r="F85" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>2023-12-21</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>41354000000</v>
+      </c>
+      <c r="J85" t="n">
+        <v>133062000000</v>
+      </c>
+      <c r="K85" t="n">
+        <v>63071000000</v>
+      </c>
+      <c r="L85" t="n">
+        <v>351364000000</v>
+      </c>
+      <c r="M85" t="n">
+        <v>237487000000</v>
+      </c>
+      <c r="N85" t="n">
+        <v>341514201078</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>株式会社熊谷組</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>1861</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="D86" t="n">
+        <v>4890</v>
+      </c>
+      <c r="E86" t="n">
+        <v>2776.401128792723</v>
+      </c>
+      <c r="F86" t="n">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>2023-05-24</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>71335000000</v>
+      </c>
+      <c r="J86" t="n">
+        <v>17897000000</v>
+      </c>
+      <c r="K86" t="n">
+        <v>48586000000</v>
+      </c>
+      <c r="L86" t="n">
+        <v>163835000000</v>
+      </c>
+      <c r="M86" t="n">
+        <v>137818000000</v>
+      </c>
+      <c r="N86" t="n">
+        <v>209887602000</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>カルビー株式会社</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2229</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="D87" t="n">
+        <v>3017</v>
+      </c>
+      <c r="E87" t="n">
+        <v>2919.137515755844</v>
+      </c>
+      <c r="F87" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>47282000000</v>
+      </c>
+      <c r="J87" t="n">
+        <v>38670000000</v>
+      </c>
+      <c r="K87" t="n">
+        <v>3183000000</v>
+      </c>
+      <c r="L87" t="n">
+        <v>182740000000</v>
+      </c>
+      <c r="M87" t="n">
+        <v>89135000000</v>
+      </c>
+      <c r="N87" t="n">
+        <v>376934880728</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>ブロードメディア株式会社</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>4347</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1733</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1529.631984751819</v>
+      </c>
+      <c r="F88" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>2024-07-03</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>3368262000</v>
+      </c>
+      <c r="J88" t="n">
+        <v>826293000</v>
+      </c>
+      <c r="K88" t="n">
+        <v>164267000</v>
+      </c>
+      <c r="L88" t="n">
+        <v>3706507000</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4358822000</v>
+      </c>
+      <c r="N88" t="n">
+        <v>12348058250</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>ブロードメディア株式会社</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>4347</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1733</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1449.995380693296</v>
+      </c>
+      <c r="F89" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>2024-05-22</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>3368262000</v>
+      </c>
+      <c r="J89" t="n">
+        <v>826293000</v>
+      </c>
+      <c r="K89" t="n">
+        <v>164267000</v>
+      </c>
+      <c r="L89" t="n">
+        <v>3706507000</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4358822000</v>
+      </c>
+      <c r="N89" t="n">
+        <v>12348058250</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>京浜急行電鉄株式会社</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>9006</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>110.5</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1540</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1160.8</v>
+      </c>
+      <c r="F90" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>57450000000</v>
+      </c>
+      <c r="J90" t="n">
+        <v>297923000000</v>
+      </c>
+      <c r="K90" t="n">
+        <v>103100000000</v>
+      </c>
+      <c r="L90" t="n">
+        <v>249065000000</v>
+      </c>
+      <c r="M90" t="n">
+        <v>458473000000</v>
+      </c>
+      <c r="N90" t="n">
+        <v>414786510600</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>日鉄ソリューションズ株式会社</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2327</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="D91" t="n">
+        <v>3714</v>
+      </c>
+      <c r="E91" t="n">
+        <v>2561.705402476645</v>
+      </c>
+      <c r="F91" t="n">
+        <v>45</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>2024-08-19</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>78579000000</v>
+      </c>
+      <c r="J91" t="n">
+        <v>2398000000</v>
+      </c>
+      <c r="K91" t="n">
+        <v>1000000000</v>
+      </c>
+      <c r="L91" t="n">
+        <v>186128000000</v>
+      </c>
+      <c r="M91" t="n">
+        <v>81977000000</v>
+      </c>
+      <c r="N91" t="n">
+        <v>679566204798</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>ＮＩＴＴＯＫＵ株式会社</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>6145</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="D92" t="n">
+        <v>2265</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1710</v>
+      </c>
+      <c r="F92" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>10110000000</v>
+      </c>
+      <c r="J92" t="n">
+        <v>5132000000</v>
+      </c>
+      <c r="K92" t="n">
+        <v>301000000</v>
+      </c>
+      <c r="L92" t="n">
+        <v>31726000000</v>
+      </c>
+      <c r="M92" t="n">
+        <v>15543000000</v>
+      </c>
+      <c r="N92" t="n">
+        <v>38215533000</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>ＮＩＴＴＯＫＵ株式会社</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>6145</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="D93" t="n">
+        <v>2265</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1710</v>
+      </c>
+      <c r="F93" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>10110000000</v>
+      </c>
+      <c r="J93" t="n">
+        <v>5132000000</v>
+      </c>
+      <c r="K93" t="n">
+        <v>301000000</v>
+      </c>
+      <c r="L93" t="n">
+        <v>31726000000</v>
+      </c>
+      <c r="M93" t="n">
+        <v>15543000000</v>
+      </c>
+      <c r="N93" t="n">
+        <v>38215533000</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>三井倉庫ホールディングス株式会社</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>9302</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="D94" t="n">
+        <v>4280</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1492.806001579363</v>
+      </c>
+      <c r="F94" t="n">
+        <v>186.7</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>2025-04-28</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>22718000000</v>
+      </c>
+      <c r="J94" t="n">
+        <v>68374000000</v>
+      </c>
+      <c r="K94" t="n">
+        <v>15393000000</v>
+      </c>
+      <c r="L94" t="n">
+        <v>68529000000</v>
+      </c>
+      <c r="M94" t="n">
+        <v>106485000000</v>
+      </c>
+      <c r="N94" t="n">
+        <v>320334712520</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>株式会社スクウェア・エニックス・ホールディングス</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>9684</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>13</v>
+      </c>
+      <c r="D95" t="n">
+        <v>9848</v>
+      </c>
+      <c r="E95" t="n">
+        <v>6272.971195510064</v>
+      </c>
+      <c r="F95" t="n">
+        <v>57</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>2025-04-21</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>144061000000</v>
+      </c>
+      <c r="J95" t="n">
+        <v>4462000000</v>
+      </c>
+      <c r="K95" t="n">
+        <v>4731000000</v>
+      </c>
+      <c r="L95" t="n">
+        <v>243278000000</v>
+      </c>
+      <c r="M95" t="n">
+        <v>153254000000</v>
+      </c>
+      <c r="N95" t="n">
+        <v>1183188403160</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>ヘリオス テクノ ホールディング株式会社</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>6927</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="D96" t="n">
+        <v>899</v>
+      </c>
+      <c r="E96" t="n">
+        <v>896.0103264198827</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>6417163000</v>
+      </c>
+      <c r="J96" t="n">
+        <v>658172000</v>
+      </c>
+      <c r="K96" t="n">
+        <v>1342160000</v>
+      </c>
+      <c r="L96" t="n">
+        <v>13418044000</v>
+      </c>
+      <c r="M96" t="n">
+        <v>8417495000</v>
+      </c>
+      <c r="N96" t="n">
+        <v>16314849725</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
           <t>平和不動産株式会社</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B97" t="inlineStr">
         <is>
           <t>8803</t>
         </is>
       </c>
-      <c r="C71" t="n">
+      <c r="C97" t="n">
         <v>76.5</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D97" t="n">
         <v>2392</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E97" t="n">
         <v>3610</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F97" t="n">
         <v>-33.7</v>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>2024-07-22</t>
         </is>
       </c>
-      <c r="I71" t="n">
+      <c r="I97" t="n">
         <v>29585000000</v>
       </c>
-      <c r="J71" t="n">
+      <c r="J97" t="n">
         <v>84557000000</v>
       </c>
-      <c r="K71" t="n">
+      <c r="K97" t="n">
         <v>8005000000</v>
       </c>
-      <c r="L71" t="n">
+      <c r="L97" t="n">
         <v>118639000000</v>
       </c>
-      <c r="M71" t="n">
+      <c r="M97" t="n">
         <v>122147000000</v>
       </c>
-      <c r="N71" t="n">
+      <c r="N97" t="n">
         <v>159729148800</v>
       </c>
     </row>

--- a/docs/アクティビスト銘柄_資産判定.xlsx
+++ b/docs/アクティビスト銘柄_資産判定.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N97"/>
+  <dimension ref="A1:N98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,16 +517,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>95</v>
+        <v>93.2</v>
       </c>
       <c r="D2" t="n">
-        <v>2787</v>
+        <v>2840</v>
       </c>
       <c r="E2" t="n">
         <v>1600</v>
       </c>
       <c r="F2" t="n">
-        <v>74.2</v>
+        <v>77.5</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -554,7 +554,7 @@
         <v>88496000000</v>
       </c>
       <c r="N2" t="n">
-        <v>93133179000</v>
+        <v>94904280000</v>
       </c>
     </row>
     <row r="3">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="D4" t="n">
-        <v>2183.5</v>
+        <v>2178.5</v>
       </c>
       <c r="E4" t="n">
         <v>2269.918722577861</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.8</v>
+        <v>-4</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>90811000000</v>
       </c>
       <c r="N4" t="n">
-        <v>449169442276</v>
+        <v>448140888482</v>
       </c>
     </row>
     <row r="5">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>116</v>
+        <v>114.4</v>
       </c>
       <c r="D5" t="n">
-        <v>3040</v>
+        <v>3084</v>
       </c>
       <c r="E5" t="n">
         <v>4991.027246539169</v>
       </c>
       <c r="F5" t="n">
-        <v>-39.1</v>
+        <v>-38.2</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -710,7 +710,7 @@
         <v>1006135000000</v>
       </c>
       <c r="N5" t="n">
-        <v>867081707840</v>
+        <v>879631574664</v>
       </c>
     </row>
     <row r="6">
@@ -728,13 +728,13 @@
         <v>7.2</v>
       </c>
       <c r="D6" t="n">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="E6" t="n">
         <v>653.0713101160862</v>
       </c>
       <c r="F6" t="n">
-        <v>60.9</v>
+        <v>60.8</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
         <v>1810139000</v>
       </c>
       <c r="N6" t="n">
-        <v>25151763719</v>
+        <v>25127832450</v>
       </c>
     </row>
     <row r="7">
@@ -780,13 +780,13 @@
         <v>1.4</v>
       </c>
       <c r="D7" t="n">
-        <v>7429</v>
+        <v>7284</v>
       </c>
       <c r="E7" t="n">
         <v>2697.360927565142</v>
       </c>
       <c r="F7" t="n">
-        <v>175.4</v>
+        <v>170</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -814,7 +814,7 @@
         <v>8148000000</v>
       </c>
       <c r="N7" t="n">
-        <v>579233327951</v>
+        <v>567927791196</v>
       </c>
     </row>
     <row r="8">
@@ -829,16 +829,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>38.2</v>
+        <v>37.9</v>
       </c>
       <c r="D8" t="n">
-        <v>3075</v>
+        <v>3095</v>
       </c>
       <c r="E8" t="n">
         <v>1359.655069733296</v>
       </c>
       <c r="F8" t="n">
-        <v>126.2</v>
+        <v>127.6</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         <v>68841000000</v>
       </c>
       <c r="N8" t="n">
-        <v>180289417875</v>
+        <v>181462031975</v>
       </c>
     </row>
     <row r="9">
@@ -881,16 +881,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>20.1</v>
+        <v>19.7</v>
       </c>
       <c r="D9" t="n">
-        <v>7990</v>
+        <v>8150</v>
       </c>
       <c r="E9" t="n">
         <v>3565.648720929983</v>
       </c>
       <c r="F9" t="n">
-        <v>124.1</v>
+        <v>128.6</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>89436000000</v>
       </c>
       <c r="N9" t="n">
-        <v>444015158410</v>
+        <v>452906575850</v>
       </c>
     </row>
     <row r="10">
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>23.9</v>
+        <v>23.6</v>
       </c>
       <c r="D10" t="n">
-        <v>12530</v>
+        <v>12700</v>
       </c>
       <c r="E10" t="n">
         <v>3496.825336379792</v>
       </c>
       <c r="F10" t="n">
-        <v>258.3</v>
+        <v>263.2</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>29490000000</v>
       </c>
       <c r="N10" t="n">
-        <v>123471121200</v>
+        <v>125146308000</v>
       </c>
     </row>
     <row r="11">
@@ -985,16 +985,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>22.4</v>
+        <v>22.2</v>
       </c>
       <c r="D11" t="n">
-        <v>3995</v>
+        <v>4045</v>
       </c>
       <c r="E11" t="n">
         <v>7960</v>
       </c>
       <c r="F11" t="n">
-        <v>-49.8</v>
+        <v>-49.2</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>34259000000</v>
       </c>
       <c r="N11" t="n">
-        <v>152686207370</v>
+        <v>154597173670</v>
       </c>
     </row>
     <row r="12">
@@ -1037,16 +1037,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>50.5</v>
+        <v>49.5</v>
       </c>
       <c r="D12" t="n">
-        <v>6590</v>
+        <v>6720</v>
       </c>
       <c r="E12" t="n">
         <v>2920</v>
       </c>
       <c r="F12" t="n">
-        <v>125.7</v>
+        <v>130.1</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1074,7 +1074,7 @@
         <v>26036000000</v>
       </c>
       <c r="N12" t="n">
-        <v>51549022900</v>
+        <v>52565923200</v>
       </c>
     </row>
     <row r="13">
@@ -1089,16 +1089,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="E13" t="n">
         <v>448.6811097117532</v>
       </c>
       <c r="F13" t="n">
-        <v>-4.4</v>
+        <v>-3.3</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         <v>10804525000</v>
       </c>
       <c r="N13" t="n">
-        <v>88985371761</v>
+        <v>90022497306</v>
       </c>
     </row>
     <row r="14">
@@ -1144,13 +1144,13 @@
         <v>77.8</v>
       </c>
       <c r="D14" t="n">
-        <v>4325</v>
+        <v>4330</v>
       </c>
       <c r="E14" t="n">
         <v>3449.780346820809</v>
       </c>
       <c r="F14" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>79561000000</v>
       </c>
       <c r="N14" t="n">
-        <v>102204304225</v>
+        <v>102322459490</v>
       </c>
     </row>
     <row r="15">
@@ -1193,16 +1193,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>98.3</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>1837</v>
+        <v>1860</v>
       </c>
       <c r="E15" t="n">
         <v>2298.672482457804</v>
       </c>
       <c r="F15" t="n">
-        <v>-20.1</v>
+        <v>-19.1</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>44925000000</v>
       </c>
       <c r="N15" t="n">
-        <v>45707682900</v>
+        <v>46279962000</v>
       </c>
     </row>
     <row r="16">
@@ -1245,16 +1245,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>48.2</v>
+        <v>47.9</v>
       </c>
       <c r="D16" t="n">
-        <v>822.5999755859375</v>
+        <v>828.2000122070312</v>
       </c>
       <c r="E16" t="n">
         <v>590</v>
       </c>
       <c r="F16" t="n">
-        <v>39.4</v>
+        <v>40.4</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>362887000000</v>
       </c>
       <c r="N16" t="n">
-        <v>752620089374</v>
+        <v>757743721987</v>
       </c>
     </row>
     <row r="17">
@@ -1300,13 +1300,13 @@
         <v>29.3</v>
       </c>
       <c r="D17" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E17" t="n">
         <v>1347.74653160027</v>
       </c>
       <c r="F17" t="n">
-        <v>49.4</v>
+        <v>49.5</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1334,7 +1334,7 @@
         <v>14143000000</v>
       </c>
       <c r="N17" t="n">
-        <v>48264722526</v>
+        <v>48288687135</v>
       </c>
     </row>
     <row r="18">
@@ -1349,16 +1349,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>51.7</v>
+        <v>52.3</v>
       </c>
       <c r="D18" t="n">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E18" t="n">
         <v>290.3401328717133</v>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>5368822000</v>
       </c>
       <c r="N18" t="n">
-        <v>10377175627</v>
+        <v>10273056808</v>
       </c>
     </row>
     <row r="19">
@@ -1404,13 +1404,13 @@
         <v>13.1</v>
       </c>
       <c r="D19" t="n">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E19" t="n">
         <v>421.6950726175476</v>
       </c>
       <c r="F19" t="n">
-        <v>45.8</v>
+        <v>45.4</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>2256815000</v>
       </c>
       <c r="N19" t="n">
-        <v>17227749000</v>
+        <v>17171723800</v>
       </c>
     </row>
     <row r="20">
@@ -1453,16 +1453,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>53.5</v>
+        <v>53.4</v>
       </c>
       <c r="D20" t="n">
-        <v>5511</v>
+        <v>5524</v>
       </c>
       <c r="E20" t="n">
         <v>3405.914389596362</v>
       </c>
       <c r="F20" t="n">
-        <v>61.8</v>
+        <v>62.2</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>193706000000</v>
       </c>
       <c r="N20" t="n">
-        <v>361818091800</v>
+        <v>362671591200</v>
       </c>
     </row>
     <row r="21">
@@ -1505,16 +1505,16 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>53.5</v>
+        <v>53.4</v>
       </c>
       <c r="D21" t="n">
-        <v>5511</v>
+        <v>5524</v>
       </c>
       <c r="E21" t="n">
         <v>2714.613787300615</v>
       </c>
       <c r="F21" t="n">
-        <v>103</v>
+        <v>103.5</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>193706000000</v>
       </c>
       <c r="N21" t="n">
-        <v>361818091800</v>
+        <v>362671591200</v>
       </c>
     </row>
     <row r="22">
@@ -1557,16 +1557,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>14.7</v>
+        <v>15</v>
       </c>
       <c r="D22" t="n">
-        <v>1880</v>
+        <v>1838.5</v>
       </c>
       <c r="E22" t="n">
         <v>1512.21980974841</v>
       </c>
       <c r="F22" t="n">
-        <v>24.3</v>
+        <v>21.6</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>91015000000</v>
       </c>
       <c r="N22" t="n">
-        <v>618555735040</v>
+        <v>604901446208</v>
       </c>
     </row>
     <row r="23">
@@ -1609,16 +1609,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>35.5</v>
+        <v>35.7</v>
       </c>
       <c r="D23" t="n">
-        <v>3978</v>
+        <v>3960</v>
       </c>
       <c r="E23" t="n">
         <v>6646.195827570309</v>
       </c>
       <c r="F23" t="n">
-        <v>-40.1</v>
+        <v>-40.4</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
         <v>139195000000</v>
       </c>
       <c r="N23" t="n">
-        <v>392080698126</v>
+        <v>390306577320</v>
       </c>
     </row>
     <row r="24">
@@ -1661,16 +1661,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>57.3</v>
+        <v>58.2</v>
       </c>
       <c r="D24" t="n">
-        <v>3489</v>
+        <v>3432</v>
       </c>
       <c r="E24" t="n">
         <v>2420</v>
       </c>
       <c r="F24" t="n">
-        <v>44.2</v>
+        <v>41.8</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>414670000000</v>
       </c>
       <c r="N24" t="n">
-        <v>723800380389</v>
+        <v>711975610632</v>
       </c>
     </row>
     <row r="25">
@@ -1713,16 +1713,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>43.4</v>
+        <v>42.9</v>
       </c>
       <c r="D25" t="n">
-        <v>3401</v>
+        <v>3445</v>
       </c>
       <c r="E25" t="n">
         <v>1598.889989734285</v>
       </c>
       <c r="F25" t="n">
-        <v>112.7</v>
+        <v>115.5</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>178465000000</v>
       </c>
       <c r="N25" t="n">
-        <v>411131286212</v>
+        <v>416450244340</v>
       </c>
     </row>
     <row r="26">
@@ -1768,13 +1768,13 @@
         <v>1.9</v>
       </c>
       <c r="D26" t="n">
-        <v>2084</v>
+        <v>2032</v>
       </c>
       <c r="E26" t="n">
         <v>887.288318673809</v>
       </c>
       <c r="F26" t="n">
-        <v>134.9</v>
+        <v>129</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1802,163 +1802,163 @@
         <v>3124000000</v>
       </c>
       <c r="N26" t="n">
-        <v>167382591128</v>
+        <v>163206058144</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>株式会社メルカリ</t>
+          <t>株式会社髙島屋</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4385</t>
+          <t>8233</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>38.1</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>2268.5</v>
+        <v>1644.5</v>
       </c>
       <c r="E27" t="n">
-        <v>2006.059650428343</v>
+        <v>1101.400153022188</v>
       </c>
       <c r="F27" t="n">
-        <v>13.1</v>
+        <v>49.3</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>141008000000</v>
+        <v>105320000000</v>
       </c>
       <c r="J27" t="n">
-        <v>1051000000</v>
+        <v>191580000000</v>
       </c>
       <c r="K27" t="n">
-        <v>43000000</v>
+        <v>101495000000</v>
       </c>
       <c r="L27" t="n">
-        <v>35368000000</v>
+        <v>415111000000</v>
       </c>
       <c r="M27" t="n">
-        <v>142102000000</v>
+        <v>398395000000</v>
       </c>
       <c r="N27" t="n">
-        <v>373445939354</v>
+        <v>492247859389</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>アツギ株式会社</t>
+          <t>株式会社メルカリ</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3529</t>
+          <t>4385</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>91.3</v>
+        <v>37.9</v>
       </c>
       <c r="D28" t="n">
-        <v>1034</v>
+        <v>2278</v>
       </c>
       <c r="E28" t="n">
-        <v>668.9358717434869</v>
+        <v>2006.059650428343</v>
       </c>
       <c r="F28" t="n">
-        <v>54.6</v>
+        <v>13.6</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2024-08-01</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>7403000000</v>
+        <v>141008000000</v>
       </c>
       <c r="J28" t="n">
-        <v>1639000000</v>
+        <v>1051000000</v>
       </c>
       <c r="K28" t="n">
-        <v>6076000000</v>
+        <v>43000000</v>
       </c>
       <c r="L28" t="n">
-        <v>33956000000</v>
+        <v>35368000000</v>
       </c>
       <c r="M28" t="n">
-        <v>15118000000</v>
+        <v>142102000000</v>
       </c>
       <c r="N28" t="n">
-        <v>16561578000</v>
+        <v>375009852258</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>大平洋金属株式会社</t>
+          <t>アツギ株式会社</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>5541</t>
+          <t>3529</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>75.5</v>
+        <v>91.7</v>
       </c>
       <c r="D29" t="n">
-        <v>2024</v>
+        <v>1029</v>
       </c>
       <c r="E29" t="n">
-        <v>1270</v>
+        <v>668.9358717434869</v>
       </c>
       <c r="F29" t="n">
-        <v>59.4</v>
+        <v>53.8</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2024-07-25</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>22286000000</v>
+        <v>7403000000</v>
       </c>
       <c r="J29" t="n">
-        <v>2059000000</v>
+        <v>1639000000</v>
       </c>
       <c r="K29" t="n">
-        <v>2199000000</v>
+        <v>6076000000</v>
       </c>
       <c r="L29" t="n">
-        <v>67014000000</v>
+        <v>33956000000</v>
       </c>
       <c r="M29" t="n">
-        <v>26544000000</v>
+        <v>15118000000</v>
       </c>
       <c r="N29" t="n">
-        <v>35178858616</v>
+        <v>16481493000</v>
       </c>
     </row>
     <row r="30">
@@ -1973,16 +1973,16 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>75.5</v>
+        <v>75</v>
       </c>
       <c r="D30" t="n">
-        <v>2024</v>
+        <v>2035</v>
       </c>
       <c r="E30" t="n">
-        <v>1170</v>
+        <v>1270</v>
       </c>
       <c r="F30" t="n">
-        <v>73</v>
+        <v>60.2</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2024-01-18</t>
+          <t>2024-07-25</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -2010,111 +2010,111 @@
         <v>26544000000</v>
       </c>
       <c r="N30" t="n">
-        <v>35178858616</v>
+        <v>35370048065</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>株式会社スズケン</t>
+          <t>大平洋金属株式会社</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>9987</t>
+          <t>5541</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>69.7</v>
+        <v>75</v>
       </c>
       <c r="D31" t="n">
-        <v>5797</v>
+        <v>2035</v>
       </c>
       <c r="E31" t="n">
-        <v>4137.137750115735</v>
+        <v>1170</v>
       </c>
       <c r="F31" t="n">
-        <v>40.1</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2024-01-18</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>168818000000</v>
+        <v>22286000000</v>
       </c>
       <c r="J31" t="n">
-        <v>54931000000</v>
+        <v>2059000000</v>
       </c>
       <c r="K31" t="n">
-        <v>60282000000</v>
+        <v>2199000000</v>
       </c>
       <c r="L31" t="n">
-        <v>417912000000</v>
+        <v>67014000000</v>
       </c>
       <c r="M31" t="n">
-        <v>284031000000</v>
+        <v>26544000000</v>
       </c>
       <c r="N31" t="n">
-        <v>407591296013</v>
+        <v>35370048065</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>アルプスアルパイン株式会社</t>
+          <t>株式会社スズケン</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>6770</t>
+          <t>9987</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>69.09999999999999</v>
+        <v>69</v>
       </c>
       <c r="D32" t="n">
-        <v>1868.5</v>
+        <v>5855</v>
       </c>
       <c r="E32" t="n">
-        <v>1257.709264012363</v>
+        <v>4137.137750115735</v>
       </c>
       <c r="F32" t="n">
-        <v>48.6</v>
+        <v>41.5</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2023-05-08</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>151748000000</v>
+        <v>168818000000</v>
       </c>
       <c r="J32" t="n">
-        <v>37620000000</v>
+        <v>54931000000</v>
       </c>
       <c r="K32" t="n">
-        <v>71804000000</v>
+        <v>60282000000</v>
       </c>
       <c r="L32" t="n">
-        <v>378379000000</v>
+        <v>417912000000</v>
       </c>
       <c r="M32" t="n">
-        <v>261172000000</v>
+        <v>284031000000</v>
       </c>
       <c r="N32" t="n">
-        <v>378100115702</v>
+        <v>411669318295</v>
       </c>
     </row>
     <row r="33">
@@ -2129,16 +2129,16 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>69.09999999999999</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>1868.5</v>
+        <v>1910.5</v>
       </c>
       <c r="E33" t="n">
-        <v>1217.254500469243</v>
+        <v>1257.709264012363</v>
       </c>
       <c r="F33" t="n">
-        <v>53.5</v>
+        <v>51.9</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2023-01-24</t>
+          <t>2023-05-08</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -2166,59 +2166,59 @@
         <v>261172000000</v>
       </c>
       <c r="N33" t="n">
-        <v>378100115702</v>
+        <v>386599021166</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>小林製薬株式会社</t>
+          <t>アルプスアルパイン株式会社</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>4967</t>
+          <t>6770</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>19.9</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>5415</v>
+        <v>1910.5</v>
       </c>
       <c r="E34" t="n">
-        <v>5066.092575838703</v>
+        <v>1217.254500469243</v>
       </c>
       <c r="F34" t="n">
-        <v>6.9</v>
+        <v>57</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2024-07-22</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>61157000000</v>
+        <v>151748000000</v>
       </c>
       <c r="J34" t="n">
-        <v>10611000000</v>
+        <v>37620000000</v>
       </c>
       <c r="K34" t="n">
-        <v>8300000000</v>
+        <v>71804000000</v>
       </c>
       <c r="L34" t="n">
-        <v>182583000000</v>
+        <v>378379000000</v>
       </c>
       <c r="M34" t="n">
-        <v>80068000000</v>
+        <v>261172000000</v>
       </c>
       <c r="N34" t="n">
-        <v>402544704885</v>
+        <v>386599021166</v>
       </c>
     </row>
     <row r="35">
@@ -2236,13 +2236,13 @@
         <v>19.9</v>
       </c>
       <c r="D35" t="n">
-        <v>5415</v>
+        <v>5423</v>
       </c>
       <c r="E35" t="n">
         <v>2148.936934940886</v>
       </c>
       <c r="F35" t="n">
-        <v>152</v>
+        <v>152.4</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2270,31 +2270,31 @@
         <v>80068000000</v>
       </c>
       <c r="N35" t="n">
-        <v>402544704885</v>
+        <v>403139415437</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>株式会社パソナグループ</t>
+          <t>小林製薬株式会社</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2168</t>
+          <t>4967</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>90.59999999999999</v>
+        <v>19.9</v>
       </c>
       <c r="D36" t="n">
-        <v>2183</v>
+        <v>5423</v>
       </c>
       <c r="E36" t="n">
-        <v>2122.579027791042</v>
+        <v>5066.092575838703</v>
       </c>
       <c r="F36" t="n">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2303,570 +2303,570 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2024-07-25</t>
+          <t>2024-07-22</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>52298000000</v>
+        <v>61157000000</v>
       </c>
       <c r="J36" t="n">
-        <v>8021000000</v>
+        <v>10611000000</v>
       </c>
       <c r="K36" t="n">
-        <v>14500000000</v>
+        <v>8300000000</v>
       </c>
       <c r="L36" t="n">
-        <v>49795000000</v>
+        <v>182583000000</v>
       </c>
       <c r="M36" t="n">
-        <v>74819000000</v>
+        <v>80068000000</v>
       </c>
       <c r="N36" t="n">
-        <v>82570433802</v>
+        <v>403139415437</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>株式会社フェローテックホールディングス</t>
+          <t>株式会社パソナグループ</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>6890</t>
+          <t>2168</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>55.6</v>
+        <v>90.5</v>
       </c>
       <c r="D37" t="n">
-        <v>4040</v>
+        <v>2186</v>
       </c>
       <c r="E37" t="n">
-        <v>2387</v>
+        <v>2122.579027791042</v>
       </c>
       <c r="F37" t="n">
-        <v>69.3</v>
+        <v>3</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2024-07-25</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>30202000000</v>
+        <v>52298000000</v>
       </c>
       <c r="J37" t="n">
-        <v>66583000000</v>
+        <v>8021000000</v>
       </c>
       <c r="K37" t="n">
-        <v>8420000000</v>
+        <v>14500000000</v>
       </c>
       <c r="L37" t="n">
-        <v>78239000000</v>
+        <v>49795000000</v>
       </c>
       <c r="M37" t="n">
-        <v>105205000000</v>
+        <v>74819000000</v>
       </c>
       <c r="N37" t="n">
-        <v>189154929080</v>
+        <v>82683906684</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>株式会社ワコールホールディングス</t>
+          <t>株式会社フェローテックホールディングス</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>3591</t>
+          <t>6890</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>10.2</v>
+        <v>54.1</v>
       </c>
       <c r="D38" t="n">
-        <v>5673</v>
+        <v>4155</v>
       </c>
       <c r="E38" t="n">
-        <v>2420.370957920882</v>
+        <v>2387</v>
       </c>
       <c r="F38" t="n">
-        <v>134.4</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2024-06-04</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>12443000000</v>
+        <v>30202000000</v>
       </c>
       <c r="J38" t="n">
-        <v>16412000000</v>
+        <v>66583000000</v>
       </c>
       <c r="K38" t="n">
-        <v>76000000</v>
+        <v>8420000000</v>
       </c>
       <c r="L38" t="n">
-        <v>140106000000</v>
+        <v>78239000000</v>
       </c>
       <c r="M38" t="n">
-        <v>28931000000</v>
+        <v>105205000000</v>
       </c>
       <c r="N38" t="n">
-        <v>285011276061</v>
+        <v>194539289685</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>新光商事株式会社</t>
+          <t>株式会社ワコールホールディングス</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>8141</t>
+          <t>3591</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>59.1</v>
+        <v>10.3</v>
       </c>
       <c r="D39" t="n">
-        <v>968</v>
+        <v>5616</v>
       </c>
       <c r="E39" t="n">
-        <v>930</v>
+        <v>2420.370957920882</v>
       </c>
       <c r="F39" t="n">
-        <v>4.1</v>
+        <v>132</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-06-04</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>17596000000</v>
+        <v>12443000000</v>
       </c>
       <c r="J39" t="n">
-        <v>174000000</v>
+        <v>16412000000</v>
       </c>
       <c r="K39" t="n">
-        <v>2995000000</v>
+        <v>76000000</v>
       </c>
       <c r="L39" t="n">
-        <v>50340000000</v>
+        <v>140106000000</v>
       </c>
       <c r="M39" t="n">
-        <v>20765000000</v>
+        <v>28931000000</v>
       </c>
       <c r="N39" t="n">
-        <v>35148678224</v>
+        <v>282147598512</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ジェイドグループ株式会社</t>
+          <t>新光商事株式会社</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>3558</t>
+          <t>8141</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>22</v>
+        <v>58.8</v>
       </c>
       <c r="D40" t="n">
-        <v>1430</v>
+        <v>972</v>
       </c>
       <c r="E40" t="n">
-        <v>1267.324164058639</v>
+        <v>930</v>
       </c>
       <c r="F40" t="n">
-        <v>12.8</v>
+        <v>4.5</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2023-03-22</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>2776277000</v>
+        <v>17596000000</v>
       </c>
       <c r="J40" t="n">
-        <v>280430000</v>
+        <v>174000000</v>
       </c>
       <c r="K40" t="n">
-        <v>23536000</v>
+        <v>2995000000</v>
       </c>
       <c r="L40" t="n">
-        <v>4370371000</v>
+        <v>50340000000</v>
       </c>
       <c r="M40" t="n">
-        <v>3080243000</v>
+        <v>20765000000</v>
       </c>
       <c r="N40" t="n">
-        <v>13995738900</v>
+        <v>35293920696</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>愛知製鋼株式会社</t>
+          <t>ジェイドグループ株式会社</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>5482</t>
+          <t>3558</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>54.3</v>
+        <v>22</v>
       </c>
       <c r="D41" t="n">
-        <v>2837</v>
+        <v>1428</v>
       </c>
       <c r="E41" t="n">
-        <v>3155.301177013616</v>
+        <v>1267.324164058639</v>
       </c>
       <c r="F41" t="n">
-        <v>-10.1</v>
+        <v>12.7</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2023-03-22</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>54163000000</v>
+        <v>2776277000</v>
       </c>
       <c r="J41" t="n">
-        <v>11000000000</v>
+        <v>280430000</v>
       </c>
       <c r="K41" t="n">
-        <v>33479000000</v>
+        <v>23536000</v>
       </c>
       <c r="L41" t="n">
-        <v>179716000000</v>
+        <v>4370371000</v>
       </c>
       <c r="M41" t="n">
-        <v>98642000000</v>
+        <v>3080243000</v>
       </c>
       <c r="N41" t="n">
-        <v>181580199100</v>
+        <v>13976164440</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>カシオ計算機株式会社</t>
+          <t>愛知製鋼株式会社</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>6952</t>
+          <t>5482</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>70.09999999999999</v>
+        <v>55.3</v>
       </c>
       <c r="D42" t="n">
-        <v>1223</v>
+        <v>2788</v>
       </c>
       <c r="E42" t="n">
-        <v>1188.162962482466</v>
+        <v>3155.301177013616</v>
       </c>
       <c r="F42" t="n">
-        <v>2.9</v>
+        <v>-11.6</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2024-09-13</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>137053000000</v>
+        <v>54163000000</v>
       </c>
       <c r="J42" t="n">
-        <v>12759000000</v>
+        <v>11000000000</v>
       </c>
       <c r="K42" t="n">
-        <v>45698000000</v>
+        <v>33479000000</v>
       </c>
       <c r="L42" t="n">
-        <v>211895000000</v>
+        <v>179716000000</v>
       </c>
       <c r="M42" t="n">
-        <v>195510000000</v>
+        <v>98642000000</v>
       </c>
       <c r="N42" t="n">
-        <v>278900719071</v>
+        <v>178443988400</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>株式会社エクセディ</t>
+          <t>カシオ計算機株式会社</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>7278</t>
+          <t>6952</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>26.8</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>5430</v>
+        <v>1250</v>
       </c>
       <c r="E43" t="n">
-        <v>2617.980935875217</v>
+        <v>1188.162962482466</v>
       </c>
       <c r="F43" t="n">
-        <v>107.4</v>
+        <v>5.2</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2024-06-10</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>43070000000</v>
+        <v>137053000000</v>
       </c>
       <c r="J43" t="n">
-        <v>6829000000</v>
+        <v>12759000000</v>
       </c>
       <c r="K43" t="n">
-        <v>3253000000</v>
+        <v>45698000000</v>
       </c>
       <c r="L43" t="n">
-        <v>113343000000</v>
+        <v>211895000000</v>
       </c>
       <c r="M43" t="n">
-        <v>53152000000</v>
+        <v>195510000000</v>
       </c>
       <c r="N43" t="n">
-        <v>198486048000</v>
+        <v>285057971250</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>日本化薬株式会社</t>
+          <t>株式会社エクセディ</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>4272</t>
+          <t>7278</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>45.6</v>
+        <v>27</v>
       </c>
       <c r="D44" t="n">
-        <v>1436.5</v>
+        <v>5390</v>
       </c>
       <c r="E44" t="n">
-        <v>1111.90611839092</v>
+        <v>2617.980935875217</v>
       </c>
       <c r="F44" t="n">
-        <v>29.2</v>
+        <v>105.9</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-06-10</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>47483000000</v>
+        <v>43070000000</v>
       </c>
       <c r="J44" t="n">
-        <v>44109000000</v>
+        <v>6829000000</v>
       </c>
       <c r="K44" t="n">
-        <v>9428000000</v>
+        <v>3253000000</v>
       </c>
       <c r="L44" t="n">
-        <v>228273000000</v>
+        <v>113343000000</v>
       </c>
       <c r="M44" t="n">
-        <v>101020000000</v>
+        <v>53152000000</v>
       </c>
       <c r="N44" t="n">
-        <v>221319301132</v>
+        <v>197023904000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>栄研化学株式会社</t>
+          <t>日本化薬株式会社</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>4549</t>
+          <t>4272</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>24.2</v>
+        <v>45.9</v>
       </c>
       <c r="D45" t="n">
-        <v>2453</v>
+        <v>1428</v>
       </c>
       <c r="E45" t="n">
-        <v>1678.083113259255</v>
+        <v>1111.90611839092</v>
       </c>
       <c r="F45" t="n">
-        <v>46.2</v>
+        <v>28.4</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>6968000000</v>
+        <v>47483000000</v>
       </c>
       <c r="J45" t="n">
-        <v>11989000000</v>
+        <v>44109000000</v>
       </c>
       <c r="K45" t="n">
-        <v>597000000</v>
+        <v>9428000000</v>
       </c>
       <c r="L45" t="n">
-        <v>41672000000</v>
+        <v>228273000000</v>
       </c>
       <c r="M45" t="n">
-        <v>19554000000</v>
+        <v>101020000000</v>
       </c>
       <c r="N45" t="n">
-        <v>80880730557</v>
+        <v>220009719468</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>花王株式会社</t>
+          <t>栄研化学株式会社</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>4452</t>
+          <t>4549</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>6.5</v>
+        <v>24.2</v>
       </c>
       <c r="D46" t="n">
-        <v>6664</v>
+        <v>2450</v>
       </c>
       <c r="E46" t="n">
-        <v>6116.356643776557</v>
+        <v>1678.083113259255</v>
       </c>
       <c r="F46" t="n">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>118328000000</v>
+        <v>6968000000</v>
       </c>
       <c r="J46" t="n">
-        <v>63976000000</v>
+        <v>11989000000</v>
       </c>
       <c r="K46" t="n">
-        <v>19009000000</v>
+        <v>597000000</v>
       </c>
       <c r="L46" t="n">
-        <v>805867000000</v>
+        <v>41672000000</v>
       </c>
       <c r="M46" t="n">
-        <v>201313000000</v>
+        <v>19554000000</v>
       </c>
       <c r="N46" t="n">
-        <v>3080305244856</v>
+        <v>80781814050</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>サンケン電気株式会社</t>
+          <t>花王株式会社</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>6707</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>58.8</v>
+        <v>6.7</v>
       </c>
       <c r="D47" t="n">
-        <v>7733</v>
+        <v>6546</v>
       </c>
       <c r="E47" t="n">
-        <v>5478.947585152067</v>
+        <v>6116.356643776557</v>
       </c>
       <c r="F47" t="n">
-        <v>41.1</v>
+        <v>7</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2875,286 +2875,286 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>59812000000</v>
+        <v>118328000000</v>
       </c>
       <c r="J47" t="n">
-        <v>29348000000</v>
+        <v>63976000000</v>
       </c>
       <c r="K47" t="n">
-        <v>3029000000</v>
+        <v>19009000000</v>
       </c>
       <c r="L47" t="n">
-        <v>113250000000</v>
+        <v>805867000000</v>
       </c>
       <c r="M47" t="n">
-        <v>92189000000</v>
+        <v>201313000000</v>
       </c>
       <c r="N47" t="n">
-        <v>156753323100</v>
+        <v>3025762024734</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>スタンレー電気株式会社</t>
+          <t>サンケン電気株式会社</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>6923</t>
+          <t>6707</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>40.3</v>
+        <v>58.9</v>
       </c>
       <c r="D48" t="n">
-        <v>3002</v>
+        <v>7726</v>
       </c>
       <c r="E48" t="n">
-        <v>2560</v>
+        <v>5478.947585152067</v>
       </c>
       <c r="F48" t="n">
-        <v>17.3</v>
+        <v>41</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>101399000000</v>
+        <v>59812000000</v>
       </c>
       <c r="J48" t="n">
-        <v>74909000000</v>
+        <v>29348000000</v>
       </c>
       <c r="K48" t="n">
-        <v>3998000000</v>
+        <v>3029000000</v>
       </c>
       <c r="L48" t="n">
-        <v>444651000000</v>
+        <v>113250000000</v>
       </c>
       <c r="M48" t="n">
-        <v>180306000000</v>
+        <v>92189000000</v>
       </c>
       <c r="N48" t="n">
-        <v>447829257936</v>
+        <v>156611428200</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>株式会社電通グループ</t>
+          <t>スタンレー電気株式会社</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>4324</t>
+          <t>6923</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>10.7</v>
+        <v>39.3</v>
       </c>
       <c r="D49" t="n">
-        <v>3282</v>
+        <v>3073</v>
       </c>
       <c r="E49" t="n">
-        <v>4156.179843576074</v>
+        <v>2560</v>
       </c>
       <c r="F49" t="n">
-        <v>-21</v>
+        <v>20</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2023-03-10</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>86652000000</v>
+        <v>101399000000</v>
       </c>
       <c r="J49" t="n">
-        <v>3784000000</v>
+        <v>74909000000</v>
       </c>
       <c r="K49" t="n">
-        <v>487000000</v>
+        <v>3998000000</v>
       </c>
       <c r="L49" t="n">
-        <v>616425000000</v>
+        <v>444651000000</v>
       </c>
       <c r="M49" t="n">
-        <v>90923000000</v>
+        <v>180306000000</v>
       </c>
       <c r="N49" t="n">
-        <v>851965928850</v>
+        <v>458420822664</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>科研製薬株式会社</t>
+          <t>株式会社電通グループ</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>4521</t>
+          <t>4324</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>73.3</v>
+        <v>10.5</v>
       </c>
       <c r="D50" t="n">
-        <v>3860</v>
+        <v>3326</v>
       </c>
       <c r="E50" t="n">
-        <v>3530</v>
+        <v>4156.179843576074</v>
       </c>
       <c r="F50" t="n">
-        <v>9.300000000000001</v>
+        <v>-20</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2024-05-29</t>
+          <t>2023-03-10</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>77305000000</v>
+        <v>86652000000</v>
       </c>
       <c r="J50" t="n">
-        <v>15734000000</v>
+        <v>3784000000</v>
       </c>
       <c r="K50" t="n">
-        <v>14699000000</v>
+        <v>487000000</v>
       </c>
       <c r="L50" t="n">
-        <v>136257000000</v>
+        <v>616425000000</v>
       </c>
       <c r="M50" t="n">
-        <v>107738000000</v>
+        <v>90923000000</v>
       </c>
       <c r="N50" t="n">
-        <v>146943831000</v>
+        <v>863387775550</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>株式会社ＡＣＳＬ</t>
+          <t>科研製薬株式会社</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>6232</t>
+          <t>4521</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>13</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>1031</v>
+        <v>3846</v>
       </c>
       <c r="E51" t="n">
-        <v>913.2768512341561</v>
+        <v>3530</v>
       </c>
       <c r="F51" t="n">
-        <v>12.9</v>
+        <v>9</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2023-11-29</t>
+          <t>2024-05-29</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>1891731000</v>
+        <v>77305000000</v>
       </c>
       <c r="J51" t="n">
-        <v>68181000</v>
+        <v>15734000000</v>
       </c>
       <c r="K51" t="n">
-        <v>241987000</v>
+        <v>14699000000</v>
       </c>
       <c r="L51" t="n">
-        <v>3572642000</v>
+        <v>136257000000</v>
       </c>
       <c r="M51" t="n">
-        <v>2201899000</v>
+        <v>107738000000</v>
       </c>
       <c r="N51" t="n">
-        <v>16904276000</v>
+        <v>146410874100</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>イリソ電子工業株式会社</t>
+          <t>株式会社ＡＣＳＬ</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>6908</t>
+          <t>6232</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>31.6</v>
+        <v>13.1</v>
       </c>
       <c r="D52" t="n">
-        <v>3020</v>
+        <v>1028</v>
       </c>
       <c r="E52" t="n">
-        <v>2480</v>
+        <v>913.2768512341561</v>
       </c>
       <c r="F52" t="n">
-        <v>21.8</v>
+        <v>12.6</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2023-11-29</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>14260000000</v>
+        <v>1891731000</v>
       </c>
       <c r="J52" t="n">
-        <v>5778000000</v>
+        <v>68181000</v>
       </c>
       <c r="K52" t="n">
-        <v>239000000</v>
+        <v>241987000</v>
       </c>
       <c r="L52" t="n">
-        <v>54731000000</v>
+        <v>3572642000</v>
       </c>
       <c r="M52" t="n">
-        <v>20277000000</v>
+        <v>2201899000</v>
       </c>
       <c r="N52" t="n">
-        <v>64107654000</v>
+        <v>16855088000</v>
       </c>
     </row>
     <row r="53">
@@ -3169,16 +3169,16 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="D53" t="n">
-        <v>3020</v>
+        <v>3030</v>
       </c>
       <c r="E53" t="n">
-        <v>2504.338645418327</v>
+        <v>2480</v>
       </c>
       <c r="F53" t="n">
-        <v>20.6</v>
+        <v>22.2</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -3206,7 +3206,7 @@
         <v>20277000000</v>
       </c>
       <c r="N53" t="n">
-        <v>64107654000</v>
+        <v>64319931000</v>
       </c>
     </row>
     <row r="54">
@@ -3221,16 +3221,16 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="D54" t="n">
-        <v>3020</v>
+        <v>3030</v>
       </c>
       <c r="E54" t="n">
-        <v>2880</v>
+        <v>2504.338645418327</v>
       </c>
       <c r="F54" t="n">
-        <v>4.9</v>
+        <v>21</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -3239,7 +3239,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-10-22</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -3258,31 +3258,31 @@
         <v>20277000000</v>
       </c>
       <c r="N54" t="n">
-        <v>64107654000</v>
+        <v>64319931000</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>株式会社あおぞら銀行</t>
+          <t>イリソ電子工業株式会社</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>8304</t>
+          <t>6908</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>266.7</v>
+        <v>31.5</v>
       </c>
       <c r="D55" t="n">
-        <v>2360</v>
+        <v>3030</v>
       </c>
       <c r="E55" t="n">
-        <v>2190</v>
+        <v>2880</v>
       </c>
       <c r="F55" t="n">
-        <v>7.8</v>
+        <v>5.2</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3291,74 +3291,78 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2024-02-20</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>847732000000</v>
+        <v>14260000000</v>
       </c>
       <c r="J55" t="n">
-        <v>23159000000</v>
+        <v>5778000000</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>239000000</v>
       </c>
       <c r="L55" t="n">
-        <v>490006000000</v>
+        <v>54731000000</v>
       </c>
       <c r="M55" t="n">
-        <v>870891000000</v>
+        <v>20277000000</v>
       </c>
       <c r="N55" t="n">
-        <v>326579372400</v>
+        <v>64319931000</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>株式会社東北新社</t>
+          <t>株式会社あおぞら銀行</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2329</t>
+          <t>8304</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>38.7</v>
+        <v>263.7</v>
       </c>
       <c r="D56" t="n">
-        <v>664</v>
-      </c>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
+        <v>2387</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2190</v>
+      </c>
+      <c r="F56" t="n">
+        <v>9</v>
+      </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2023-03-13</t>
+          <t>2024-02-20</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>30866000000</v>
+        <v>847732000000</v>
       </c>
       <c r="J56" t="n">
-        <v>4464000000</v>
+        <v>23159000000</v>
       </c>
       <c r="K56" t="n">
-        <v>73000000</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>72266000000</v>
+        <v>490006000000</v>
       </c>
       <c r="M56" t="n">
-        <v>35403000000</v>
+        <v>870891000000</v>
       </c>
       <c r="N56" t="n">
-        <v>91402281896</v>
+        <v>330315661830</v>
       </c>
     </row>
     <row r="57">
@@ -3373,10 +3377,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>38.7</v>
+        <v>39</v>
       </c>
       <c r="D57" t="n">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
@@ -3406,371 +3410,367 @@
         <v>35403000000</v>
       </c>
       <c r="N57" t="n">
-        <v>91402281896</v>
+        <v>90851665740</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>株式会社トプコン</t>
+          <t>株式会社東北新社</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>7732</t>
+          <t>2329</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>10.8</v>
+        <v>39</v>
       </c>
       <c r="D58" t="n">
-        <v>3288</v>
-      </c>
-      <c r="E58" t="n">
-        <v>2085.872134468915</v>
-      </c>
-      <c r="F58" t="n">
-        <v>57.6</v>
-      </c>
+        <v>660</v>
+      </c>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2023-03-13</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>20446000000</v>
+        <v>30866000000</v>
       </c>
       <c r="J58" t="n">
-        <v>10856000000</v>
+        <v>4464000000</v>
       </c>
       <c r="K58" t="n">
-        <v>6017000000</v>
+        <v>73000000</v>
       </c>
       <c r="L58" t="n">
-        <v>70687000000</v>
+        <v>72266000000</v>
       </c>
       <c r="M58" t="n">
-        <v>37319000000</v>
+        <v>35403000000</v>
       </c>
       <c r="N58" t="n">
-        <v>346783018944</v>
+        <v>90851665740</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>月島ホールディングス株式会社</t>
+          <t>株式会社トプコン</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>6332</t>
+          <t>7732</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>63.2</v>
+        <v>10.8</v>
       </c>
       <c r="D59" t="n">
-        <v>3130</v>
+        <v>3277</v>
       </c>
       <c r="E59" t="n">
-        <v>1410</v>
+        <v>2085.872134468915</v>
       </c>
       <c r="F59" t="n">
-        <v>122</v>
+        <v>57.1</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>33870000000</v>
+        <v>20446000000</v>
       </c>
       <c r="J59" t="n">
-        <v>23318000000</v>
+        <v>10856000000</v>
       </c>
       <c r="K59" t="n">
-        <v>25387000000</v>
+        <v>6017000000</v>
       </c>
       <c r="L59" t="n">
-        <v>71784000000</v>
+        <v>70687000000</v>
       </c>
       <c r="M59" t="n">
-        <v>82575000000</v>
+        <v>37319000000</v>
       </c>
       <c r="N59" t="n">
-        <v>130565586850</v>
+        <v>345622856776</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>東京都競馬株式会社</t>
+          <t>月島ホールディングス株式会社</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>9672</t>
+          <t>6332</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>36.2</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>5250</v>
+        <v>3050</v>
       </c>
       <c r="E60" t="n">
-        <v>3891.73752540545</v>
+        <v>1410</v>
       </c>
       <c r="F60" t="n">
-        <v>34.9</v>
+        <v>116.3</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>15161482000</v>
+        <v>33870000000</v>
       </c>
       <c r="J60" t="n">
-        <v>32537201000</v>
+        <v>23318000000</v>
       </c>
       <c r="K60" t="n">
-        <v>3000000000</v>
+        <v>25387000000</v>
       </c>
       <c r="L60" t="n">
-        <v>70534868000</v>
+        <v>71784000000</v>
       </c>
       <c r="M60" t="n">
-        <v>50698683000</v>
+        <v>82575000000</v>
       </c>
       <c r="N60" t="n">
-        <v>140131950000</v>
+        <v>127228447250</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ホシデン株式会社</t>
+          <t>東京都競馬株式会社</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>6804</t>
+          <t>9672</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>76.59999999999999</v>
+        <v>35.6</v>
       </c>
       <c r="D61" t="n">
-        <v>2337</v>
+        <v>5340</v>
       </c>
       <c r="E61" t="n">
-        <v>1303.446424801713</v>
+        <v>3891.73752540545</v>
       </c>
       <c r="F61" t="n">
-        <v>79.3</v>
+        <v>37.2</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2023-02-13</t>
+          <t>2023-03-28</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>69522000000</v>
+        <v>15161482000</v>
       </c>
       <c r="J61" t="n">
-        <v>6944000000</v>
+        <v>32537201000</v>
       </c>
       <c r="K61" t="n">
-        <v>14624000000</v>
+        <v>3000000000</v>
       </c>
       <c r="L61" t="n">
-        <v>109250000000</v>
+        <v>70534868000</v>
       </c>
       <c r="M61" t="n">
-        <v>91090000000</v>
+        <v>50698683000</v>
       </c>
       <c r="N61" t="n">
-        <v>118924751208</v>
+        <v>142534212000</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>東ソー株式会社</t>
+          <t>ホシデン株式会社</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>4042</t>
+          <t>6804</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>44.5</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>2296.5</v>
+        <v>2359</v>
       </c>
       <c r="E62" t="n">
-        <v>2032.365850102071</v>
+        <v>1303.446424801713</v>
       </c>
       <c r="F62" t="n">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2024-06-04</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>148397000000</v>
+        <v>69522000000</v>
       </c>
       <c r="J62" t="n">
-        <v>104609000000</v>
+        <v>6944000000</v>
       </c>
       <c r="K62" t="n">
-        <v>70724000000</v>
+        <v>14624000000</v>
       </c>
       <c r="L62" t="n">
-        <v>661679000000</v>
+        <v>109250000000</v>
       </c>
       <c r="M62" t="n">
-        <v>323730000000</v>
+        <v>91090000000</v>
       </c>
       <c r="N62" t="n">
-        <v>728179410090</v>
+        <v>120044282456</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>エン・ジャパン株式会社</t>
+          <t>東ソー株式会社</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>4849</t>
+          <t>4042</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>44.1</v>
+        <v>43.8</v>
       </c>
       <c r="D63" t="n">
-        <v>1698</v>
+        <v>2329.5</v>
       </c>
       <c r="E63" t="n">
-        <v>1746.940387696806</v>
+        <v>2032.365850102071</v>
       </c>
       <c r="F63" t="n">
-        <v>-2.8</v>
+        <v>14.6</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2024-06-04</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>26835000000</v>
+        <v>148397000000</v>
       </c>
       <c r="J63" t="n">
-        <v>1019000000</v>
+        <v>104609000000</v>
       </c>
       <c r="K63" t="n">
-        <v>2000000000</v>
+        <v>70724000000</v>
       </c>
       <c r="L63" t="n">
-        <v>36856000000</v>
+        <v>661679000000</v>
       </c>
       <c r="M63" t="n">
-        <v>29854000000</v>
+        <v>323730000000</v>
       </c>
       <c r="N63" t="n">
-        <v>67666828200</v>
+        <v>738643124670</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>イワブチ株式会社</t>
+          <t>エン・ジャパン株式会社</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>5983</t>
+          <t>4849</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>73.90000000000001</v>
+        <v>44.2</v>
       </c>
       <c r="D64" t="n">
-        <v>11240</v>
+        <v>1694</v>
       </c>
       <c r="E64" t="n">
-        <v>7040.15625</v>
+        <v>1746.940387696806</v>
       </c>
       <c r="F64" t="n">
-        <v>59.7</v>
+        <v>-3</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>ＳＥＮＪＩＮ　ＣＡＰＩＴＡＬ　ＰＴＹ　ＬＴＤ</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>4688085000</v>
+        <v>26835000000</v>
       </c>
       <c r="J64" t="n">
-        <v>1422820000</v>
+        <v>1019000000</v>
       </c>
       <c r="K64" t="n">
-        <v>2670408000</v>
+        <v>2000000000</v>
       </c>
       <c r="L64" t="n">
-        <v>16426704000</v>
+        <v>36856000000</v>
       </c>
       <c r="M64" t="n">
-        <v>8781313000</v>
+        <v>29854000000</v>
       </c>
       <c r="N64" t="n">
-        <v>11878308360</v>
+        <v>67507424600</v>
       </c>
     </row>
     <row r="65">
@@ -3785,16 +3785,16 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>73.90000000000001</v>
+        <v>76.8</v>
       </c>
       <c r="D65" t="n">
-        <v>11240</v>
+        <v>10820</v>
       </c>
       <c r="E65" t="n">
         <v>7040.15625</v>
       </c>
       <c r="F65" t="n">
-        <v>59.7</v>
+        <v>53.7</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3822,107 +3822,107 @@
         <v>8781313000</v>
       </c>
       <c r="N65" t="n">
-        <v>11878308360</v>
+        <v>11434456980</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>株式会社おきなわフィナンシャルグループ</t>
+          <t>イワブチ株式会社</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>7350</t>
+          <t>5983</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>775.9</v>
+        <v>76.8</v>
       </c>
       <c r="D66" t="n">
-        <v>3680</v>
-      </c>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
+        <v>10820</v>
+      </c>
+      <c r="E66" t="n">
+        <v>7040.15625</v>
+      </c>
+      <c r="F66" t="n">
+        <v>53.7</v>
+      </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>ＳＥＮＪＩＮ　ＣＡＰＩＴＡＬ　ＰＴＹ　ＬＴＤ</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2023-05-16</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>590636000000</v>
+        <v>4688085000</v>
       </c>
       <c r="J66" t="n">
-        <v>18477000000</v>
+        <v>1422820000</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>2670408000</v>
       </c>
       <c r="L66" t="n">
-        <v>159392000000</v>
+        <v>16426704000</v>
       </c>
       <c r="M66" t="n">
-        <v>609113000000</v>
+        <v>8781313000</v>
       </c>
       <c r="N66" t="n">
-        <v>78503968000</v>
+        <v>11434456980</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>アークランズ株式会社</t>
+          <t>株式会社おきなわフィナンシャルグループ</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>9842</t>
+          <t>7350</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>113.3</v>
+        <v>768.6</v>
       </c>
       <c r="D67" t="n">
-        <v>1891</v>
-      </c>
-      <c r="E67" t="n">
-        <v>1469.167707232735</v>
-      </c>
-      <c r="F67" t="n">
-        <v>28.7</v>
-      </c>
+        <v>3715</v>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2023-03-30</t>
+          <t>2023-05-16</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>25605000000</v>
+        <v>590636000000</v>
       </c>
       <c r="J67" t="n">
-        <v>95781000000</v>
+        <v>18477000000</v>
       </c>
       <c r="K67" t="n">
-        <v>12051000000</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>91048000000</v>
+        <v>159392000000</v>
       </c>
       <c r="M67" t="n">
-        <v>133437000000</v>
+        <v>609113000000</v>
       </c>
       <c r="N67" t="n">
-        <v>117807030800</v>
+        <v>79250609000</v>
       </c>
     </row>
     <row r="68">
@@ -3937,16 +3937,16 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>113.3</v>
+        <v>112.8</v>
       </c>
       <c r="D68" t="n">
-        <v>1891</v>
+        <v>1899</v>
       </c>
       <c r="E68" t="n">
-        <v>1489.94784546053</v>
+        <v>1469.167707232735</v>
       </c>
       <c r="F68" t="n">
-        <v>26.9</v>
+        <v>29.3</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2022-09-27</t>
+          <t>2023-03-30</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -3974,31 +3974,31 @@
         <v>133437000000</v>
       </c>
       <c r="N68" t="n">
-        <v>117807030800</v>
+        <v>118305421200</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>三井住建道路株式会社</t>
+          <t>アークランズ株式会社</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1776</t>
+          <t>9842</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>99.5</v>
+        <v>112.8</v>
       </c>
       <c r="D69" t="n">
-        <v>1470</v>
+        <v>1899</v>
       </c>
       <c r="E69" t="n">
-        <v>1212.640316205534</v>
+        <v>1489.94784546053</v>
       </c>
       <c r="F69" t="n">
-        <v>21.2</v>
+        <v>27.5</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -4007,414 +4007,414 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2022-09-27</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>10677000000</v>
+        <v>25605000000</v>
       </c>
       <c r="J69" t="n">
-        <v>2762000000</v>
+        <v>95781000000</v>
       </c>
       <c r="K69" t="n">
-        <v>7000000</v>
+        <v>12051000000</v>
       </c>
       <c r="L69" t="n">
-        <v>12543000000</v>
+        <v>91048000000</v>
       </c>
       <c r="M69" t="n">
-        <v>13446000000</v>
+        <v>133437000000</v>
       </c>
       <c r="N69" t="n">
-        <v>13510255500</v>
+        <v>118305421200</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>参天製薬株式会社</t>
+          <t>三井住建道路株式会社</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>4536</t>
+          <t>1776</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>10.2</v>
+        <v>99.8</v>
       </c>
       <c r="D70" t="n">
-        <v>1650</v>
+        <v>1466</v>
       </c>
       <c r="E70" t="n">
-        <v>1344.518957928979</v>
+        <v>1212.640316205534</v>
       </c>
       <c r="F70" t="n">
-        <v>22.7</v>
+        <v>20.9</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2024-04-19</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>34203000000</v>
+        <v>10677000000</v>
       </c>
       <c r="J70" t="n">
-        <v>6796000000</v>
+        <v>2762000000</v>
       </c>
       <c r="K70" t="n">
-        <v>14270000000</v>
+        <v>7000000</v>
       </c>
       <c r="L70" t="n">
-        <v>294231000000</v>
+        <v>12543000000</v>
       </c>
       <c r="M70" t="n">
-        <v>55269000000</v>
+        <v>13446000000</v>
       </c>
       <c r="N70" t="n">
-        <v>540559418850</v>
+        <v>13473492900</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>コクヨ株式会社</t>
+          <t>参天製薬株式会社</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>7984</t>
+          <t>4536</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>34.9</v>
+        <v>10.2</v>
       </c>
       <c r="D71" t="n">
-        <v>927</v>
+        <v>1646</v>
       </c>
       <c r="E71" t="n">
-        <v>2157.626835069302</v>
+        <v>1344.518957928979</v>
       </c>
       <c r="F71" t="n">
-        <v>-57</v>
+        <v>22.4</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-04-19</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>90577000000</v>
+        <v>34203000000</v>
       </c>
       <c r="J71" t="n">
-        <v>21360000000</v>
+        <v>6796000000</v>
       </c>
       <c r="K71" t="n">
-        <v>30086000000</v>
+        <v>14270000000</v>
       </c>
       <c r="L71" t="n">
-        <v>226335000000</v>
+        <v>294231000000</v>
       </c>
       <c r="M71" t="n">
-        <v>142023000000</v>
+        <v>55269000000</v>
       </c>
       <c r="N71" t="n">
-        <v>407380834602</v>
+        <v>539248971774</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ヤマハ発動機株式会社</t>
+          <t>コクヨ株式会社</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>7272</t>
+          <t>7984</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>34</v>
+        <v>35.3</v>
       </c>
       <c r="D72" t="n">
-        <v>1106</v>
+        <v>915.7000122070312</v>
       </c>
       <c r="E72" t="n">
-        <v>2968.770104870396</v>
+        <v>2157.626835069302</v>
       </c>
       <c r="F72" t="n">
-        <v>-62.7</v>
+        <v>-57.6</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2023-01-16</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>267180000000</v>
+        <v>90577000000</v>
       </c>
       <c r="J72" t="n">
-        <v>48711000000</v>
+        <v>21360000000</v>
       </c>
       <c r="K72" t="n">
-        <v>49039000000</v>
+        <v>30086000000</v>
       </c>
       <c r="L72" t="n">
-        <v>749158000000</v>
+        <v>226335000000</v>
       </c>
       <c r="M72" t="n">
-        <v>364930000000</v>
+        <v>142023000000</v>
       </c>
       <c r="N72" t="n">
-        <v>1072350104840</v>
+        <v>402414924723</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>相模ゴム工業株式会社</t>
+          <t>ヤマハ発動機株式会社</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>5194</t>
+          <t>7272</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>44.9</v>
+        <v>33.8</v>
       </c>
       <c r="D73" t="n">
-        <v>955</v>
+        <v>1113</v>
       </c>
       <c r="E73" t="n">
-        <v>933.1435874692879</v>
+        <v>2968.770104870396</v>
       </c>
       <c r="F73" t="n">
-        <v>2.3</v>
+        <v>-62.5</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2023-08-28</t>
+          <t>2023-01-16</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>1474580000</v>
+        <v>267180000000</v>
       </c>
       <c r="J73" t="n">
-        <v>2373852000</v>
+        <v>48711000000</v>
       </c>
       <c r="K73" t="n">
-        <v>804741000</v>
+        <v>49039000000</v>
       </c>
       <c r="L73" t="n">
-        <v>7569765000</v>
+        <v>749158000000</v>
       </c>
       <c r="M73" t="n">
-        <v>4653173000</v>
+        <v>364930000000</v>
       </c>
       <c r="N73" t="n">
-        <v>10367862000</v>
+        <v>1079137130820</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>日本特殊塗料株式会社</t>
+          <t>相模ゴム工業株式会社</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>4619</t>
+          <t>5194</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>82.59999999999999</v>
+        <v>44.9</v>
       </c>
       <c r="D74" t="n">
-        <v>2197</v>
+        <v>955</v>
       </c>
       <c r="E74" t="n">
-        <v>1190</v>
+        <v>933.1435874692879</v>
       </c>
       <c r="F74" t="n">
-        <v>84.59999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2023-08-28</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>6518000000</v>
+        <v>1474580000</v>
       </c>
       <c r="J74" t="n">
-        <v>9792000000</v>
+        <v>2373852000</v>
       </c>
       <c r="K74" t="n">
-        <v>23167000000</v>
+        <v>804741000</v>
       </c>
       <c r="L74" t="n">
-        <v>47154000000</v>
+        <v>7569765000</v>
       </c>
       <c r="M74" t="n">
-        <v>39477000000</v>
+        <v>4653173000</v>
       </c>
       <c r="N74" t="n">
-        <v>47788484900</v>
+        <v>10367862000</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>株式会社西武ホールディングス</t>
+          <t>日本特殊塗料株式会社</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>9024</t>
+          <t>4619</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>39.7</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>5596</v>
+        <v>2185</v>
       </c>
       <c r="E75" t="n">
-        <v>1716.713876475349</v>
+        <v>1190</v>
       </c>
       <c r="F75" t="n">
-        <v>226</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2024-05-07</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>28538000000</v>
+        <v>6518000000</v>
       </c>
       <c r="J75" t="n">
-        <v>485513000000</v>
+        <v>9792000000</v>
       </c>
       <c r="K75" t="n">
-        <v>49954000000</v>
+        <v>23167000000</v>
       </c>
       <c r="L75" t="n">
-        <v>385687000000</v>
+        <v>47154000000</v>
       </c>
       <c r="M75" t="n">
-        <v>564005000000</v>
+        <v>39477000000</v>
       </c>
       <c r="N75" t="n">
-        <v>1422067137296</v>
+        <v>47527464500</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>株式会社ＴＳＩホールディングス</t>
+          <t>株式会社西武ホールディングス</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>3608</t>
+          <t>9024</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>126.2</v>
+        <v>40.1</v>
       </c>
       <c r="D76" t="n">
-        <v>1076</v>
+        <v>5541</v>
       </c>
       <c r="E76" t="n">
-        <v>438.851170934559</v>
+        <v>1716.713876475349</v>
       </c>
       <c r="F76" t="n">
-        <v>145.2</v>
+        <v>222.8</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2024-05-07</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>49761000000</v>
+        <v>28538000000</v>
       </c>
       <c r="J76" t="n">
-        <v>4425000000</v>
+        <v>485513000000</v>
       </c>
       <c r="K76" t="n">
-        <v>25137000000</v>
+        <v>49954000000</v>
       </c>
       <c r="L76" t="n">
-        <v>97430000000</v>
+        <v>385687000000</v>
       </c>
       <c r="M76" t="n">
-        <v>79323000000</v>
+        <v>564005000000</v>
       </c>
       <c r="N76" t="n">
-        <v>62856318628</v>
+        <v>1408090423116</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>コニシ株式会社</t>
+          <t>株式会社ＴＳＩホールディングス</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>4956</t>
+          <t>3608</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>56.1</v>
+        <v>125.4</v>
       </c>
       <c r="D77" t="n">
-        <v>1297</v>
+        <v>1083</v>
       </c>
       <c r="E77" t="n">
-        <v>1605.189780306002</v>
+        <v>438.851170934559</v>
       </c>
       <c r="F77" t="n">
-        <v>-19.2</v>
+        <v>146.8</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4423,50 +4423,50 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2023-01-11</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>23721000000</v>
+        <v>49761000000</v>
       </c>
       <c r="J77" t="n">
-        <v>13167000000</v>
+        <v>4425000000</v>
       </c>
       <c r="K77" t="n">
-        <v>11402000000</v>
+        <v>25137000000</v>
       </c>
       <c r="L77" t="n">
-        <v>68785000000</v>
+        <v>97430000000</v>
       </c>
       <c r="M77" t="n">
-        <v>48290000000</v>
+        <v>79323000000</v>
       </c>
       <c r="N77" t="n">
-        <v>86066844800</v>
+        <v>63265235199</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>倉敷紡績株式会社</t>
+          <t>コニシ株式会社</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>3106</t>
+          <t>4956</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>82.5</v>
+        <v>55.8</v>
       </c>
       <c r="D78" t="n">
-        <v>7070</v>
+        <v>1303</v>
       </c>
       <c r="E78" t="n">
-        <v>4549.503641591014</v>
+        <v>1605.189780306002</v>
       </c>
       <c r="F78" t="n">
-        <v>55.4</v>
+        <v>-18.8</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4475,130 +4475,130 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2023-01-11</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>22059000000</v>
+        <v>23721000000</v>
       </c>
       <c r="J78" t="n">
-        <v>21438000000</v>
+        <v>13167000000</v>
       </c>
       <c r="K78" t="n">
-        <v>53409000000</v>
+        <v>11402000000</v>
       </c>
       <c r="L78" t="n">
-        <v>95004000000</v>
+        <v>68785000000</v>
       </c>
       <c r="M78" t="n">
-        <v>96906000000</v>
+        <v>48290000000</v>
       </c>
       <c r="N78" t="n">
-        <v>117427751000</v>
+        <v>86464995200</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>日本ゼオン株式会社</t>
+          <t>倉敷紡績株式会社</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>4205</t>
+          <t>3106</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>55.1</v>
+        <v>82.8</v>
       </c>
       <c r="D79" t="n">
-        <v>1666.5</v>
+        <v>7050</v>
       </c>
       <c r="E79" t="n">
-        <v>1721.078563209627</v>
+        <v>4549.503641591014</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.2</v>
+        <v>55</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>48152000000</v>
+        <v>22059000000</v>
       </c>
       <c r="J79" t="n">
-        <v>45247000000</v>
+        <v>21438000000</v>
       </c>
       <c r="K79" t="n">
-        <v>85316000000</v>
+        <v>53409000000</v>
       </c>
       <c r="L79" t="n">
-        <v>298246000000</v>
+        <v>95004000000</v>
       </c>
       <c r="M79" t="n">
-        <v>178715000000</v>
+        <v>96906000000</v>
       </c>
       <c r="N79" t="n">
-        <v>324063847041</v>
+        <v>117095565000</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>大東建託株式会社</t>
+          <t>日本ゼオン株式会社</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1878</t>
+          <t>4205</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>24.2</v>
+        <v>54.2</v>
       </c>
       <c r="D80" t="n">
-        <v>16570</v>
+        <v>1695</v>
       </c>
       <c r="E80" t="n">
-        <v>13739.64575539568</v>
+        <v>1721.078563209627</v>
       </c>
       <c r="F80" t="n">
-        <v>20.6</v>
+        <v>-1.5</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2024-08-30</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>198760000000</v>
+        <v>48152000000</v>
       </c>
       <c r="J80" t="n">
-        <v>62873000000</v>
+        <v>45247000000</v>
       </c>
       <c r="K80" t="n">
-        <v>3798000000</v>
+        <v>85316000000</v>
       </c>
       <c r="L80" t="n">
-        <v>308206000000</v>
+        <v>298246000000</v>
       </c>
       <c r="M80" t="n">
-        <v>265431000000</v>
+        <v>178715000000</v>
       </c>
       <c r="N80" t="n">
-        <v>1098118755000</v>
+        <v>329605893030</v>
       </c>
     </row>
     <row r="81">
@@ -4613,16 +4613,16 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>24.2</v>
+        <v>24.4</v>
       </c>
       <c r="D81" t="n">
-        <v>16570</v>
+        <v>16440</v>
       </c>
       <c r="E81" t="n">
-        <v>12975.86280814577</v>
+        <v>13739.64575539568</v>
       </c>
       <c r="F81" t="n">
-        <v>27.7</v>
+        <v>19.7</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2023-06-02</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -4650,59 +4650,59 @@
         <v>265431000000</v>
       </c>
       <c r="N81" t="n">
-        <v>1098118755000</v>
+        <v>1089503460000</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>株式会社ツルハホールディングス</t>
+          <t>大東建託株式会社</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>3391</t>
+          <t>1878</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>40.6</v>
+        <v>24.4</v>
       </c>
       <c r="D82" t="n">
-        <v>2366</v>
+        <v>16440</v>
       </c>
       <c r="E82" t="n">
-        <v>4544.200649553184</v>
+        <v>12975.86280814577</v>
       </c>
       <c r="F82" t="n">
-        <v>-47.9</v>
+        <v>26.7</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2023-05-08</t>
+          <t>2023-06-02</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>116398000000</v>
+        <v>198760000000</v>
       </c>
       <c r="J82" t="n">
-        <v>83437000000</v>
+        <v>62873000000</v>
       </c>
       <c r="K82" t="n">
-        <v>34181000000</v>
+        <v>3798000000</v>
       </c>
       <c r="L82" t="n">
-        <v>276528000000</v>
+        <v>308206000000</v>
       </c>
       <c r="M82" t="n">
-        <v>234016000000</v>
+        <v>265431000000</v>
       </c>
       <c r="N82" t="n">
-        <v>576161375790</v>
+        <v>1089503460000</v>
       </c>
     </row>
     <row r="83">
@@ -4717,16 +4717,16 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>40.6</v>
+        <v>41</v>
       </c>
       <c r="D83" t="n">
-        <v>2366</v>
+        <v>2345</v>
       </c>
       <c r="E83" t="n">
-        <v>8262.359904024779</v>
+        <v>4544.200649553184</v>
       </c>
       <c r="F83" t="n">
-        <v>-71.40000000000001</v>
+        <v>-48.4</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2022-12-19</t>
+          <t>2023-05-08</t>
         </is>
       </c>
       <c r="I83" t="n">
@@ -4754,31 +4754,31 @@
         <v>234016000000</v>
       </c>
       <c r="N83" t="n">
-        <v>576161375790</v>
+        <v>571047517425</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>株式会社アインホールディングス</t>
+          <t>株式会社ツルハホールディングス</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>9627</t>
+          <t>3391</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D84" t="n">
-        <v>6960</v>
+        <v>2345</v>
       </c>
       <c r="E84" t="n">
-        <v>2836.942753814942</v>
+        <v>8262.359904024779</v>
       </c>
       <c r="F84" t="n">
-        <v>145.3</v>
+        <v>-71.59999999999999</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4787,50 +4787,50 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2022-12-19</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>55009000000</v>
+        <v>116398000000</v>
       </c>
       <c r="J84" t="n">
-        <v>27122000000</v>
+        <v>83437000000</v>
       </c>
       <c r="K84" t="n">
-        <v>3345000000</v>
+        <v>34181000000</v>
       </c>
       <c r="L84" t="n">
-        <v>115837000000</v>
+        <v>276528000000</v>
       </c>
       <c r="M84" t="n">
-        <v>85476000000</v>
+        <v>234016000000</v>
       </c>
       <c r="N84" t="n">
-        <v>244109646000</v>
+        <v>571047517425</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ＤＩＣ株式会社</t>
+          <t>株式会社アインホールディングス</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>4631</t>
+          <t>9627</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>69.5</v>
+        <v>35</v>
       </c>
       <c r="D85" t="n">
-        <v>3607</v>
+        <v>6969</v>
       </c>
       <c r="E85" t="n">
-        <v>2566.284807227078</v>
+        <v>2836.942753814942</v>
       </c>
       <c r="F85" t="n">
-        <v>40.6</v>
+        <v>145.7</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4839,50 +4839,50 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2023-12-21</t>
+          <t>2024-03-04</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>41354000000</v>
+        <v>55009000000</v>
       </c>
       <c r="J85" t="n">
-        <v>133062000000</v>
+        <v>27122000000</v>
       </c>
       <c r="K85" t="n">
-        <v>63071000000</v>
+        <v>3345000000</v>
       </c>
       <c r="L85" t="n">
-        <v>351364000000</v>
+        <v>115837000000</v>
       </c>
       <c r="M85" t="n">
-        <v>237487000000</v>
+        <v>85476000000</v>
       </c>
       <c r="N85" t="n">
-        <v>341514201078</v>
+        <v>244425305025</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>株式会社熊谷組</t>
+          <t>ＤＩＣ株式会社</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>1861</t>
+          <t>4631</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>65.7</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>4890</v>
+        <v>3639</v>
       </c>
       <c r="E86" t="n">
-        <v>2776.401128792723</v>
+        <v>2566.284807227078</v>
       </c>
       <c r="F86" t="n">
-        <v>76.09999999999999</v>
+        <v>41.8</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4891,50 +4891,50 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2023-05-24</t>
+          <t>2023-12-21</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>71335000000</v>
+        <v>41354000000</v>
       </c>
       <c r="J86" t="n">
-        <v>17897000000</v>
+        <v>133062000000</v>
       </c>
       <c r="K86" t="n">
-        <v>48586000000</v>
+        <v>63071000000</v>
       </c>
       <c r="L86" t="n">
-        <v>163835000000</v>
+        <v>351364000000</v>
       </c>
       <c r="M86" t="n">
-        <v>137818000000</v>
+        <v>237487000000</v>
       </c>
       <c r="N86" t="n">
-        <v>209887602000</v>
+        <v>344543991606</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>カルビー株式会社</t>
+          <t>株式会社熊谷組</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2229</t>
+          <t>1861</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>23.6</v>
+        <v>65.3</v>
       </c>
       <c r="D87" t="n">
-        <v>3017</v>
+        <v>4920</v>
       </c>
       <c r="E87" t="n">
-        <v>2919.137515755844</v>
+        <v>2776.401128792723</v>
       </c>
       <c r="F87" t="n">
-        <v>3.4</v>
+        <v>77.2</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4943,78 +4943,78 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2023-05-24</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>47282000000</v>
+        <v>71335000000</v>
       </c>
       <c r="J87" t="n">
-        <v>38670000000</v>
+        <v>17897000000</v>
       </c>
       <c r="K87" t="n">
-        <v>3183000000</v>
+        <v>48586000000</v>
       </c>
       <c r="L87" t="n">
-        <v>182740000000</v>
+        <v>163835000000</v>
       </c>
       <c r="M87" t="n">
-        <v>89135000000</v>
+        <v>137818000000</v>
       </c>
       <c r="N87" t="n">
-        <v>376934880728</v>
+        <v>211175256000</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ブロードメディア株式会社</t>
+          <t>カルビー株式会社</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>4347</t>
+          <t>2229</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>35.3</v>
+        <v>24.1</v>
       </c>
       <c r="D88" t="n">
-        <v>1733</v>
+        <v>2956</v>
       </c>
       <c r="E88" t="n">
-        <v>1529.631984751819</v>
+        <v>2919.137515755844</v>
       </c>
       <c r="F88" t="n">
-        <v>13.3</v>
+        <v>1.3</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2024-07-03</t>
+          <t>2025-09-09</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>3368262000</v>
+        <v>47282000000</v>
       </c>
       <c r="J88" t="n">
-        <v>826293000</v>
+        <v>38670000000</v>
       </c>
       <c r="K88" t="n">
-        <v>164267000</v>
+        <v>3183000000</v>
       </c>
       <c r="L88" t="n">
-        <v>3706507000</v>
+        <v>182740000000</v>
       </c>
       <c r="M88" t="n">
-        <v>4358822000</v>
+        <v>89135000000</v>
       </c>
       <c r="N88" t="n">
-        <v>12348058250</v>
+        <v>369313724704</v>
       </c>
     </row>
     <row r="89">
@@ -5029,16 +5029,16 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>35.3</v>
+        <v>35.5</v>
       </c>
       <c r="D89" t="n">
-        <v>1733</v>
+        <v>1721</v>
       </c>
       <c r="E89" t="n">
-        <v>1449.995380693296</v>
+        <v>1529.631984751819</v>
       </c>
       <c r="F89" t="n">
-        <v>19.5</v>
+        <v>12.5</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -5047,7 +5047,7 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2024-05-22</t>
+          <t>2024-07-03</t>
         </is>
       </c>
       <c r="I89" t="n">
@@ -5066,163 +5066,163 @@
         <v>4358822000</v>
       </c>
       <c r="N89" t="n">
-        <v>12348058250</v>
+        <v>12262555250</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>京浜急行電鉄株式会社</t>
+          <t>ブロードメディア株式会社</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>9006</t>
+          <t>4347</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>110.5</v>
+        <v>35.5</v>
       </c>
       <c r="D90" t="n">
-        <v>1540</v>
+        <v>1721</v>
       </c>
       <c r="E90" t="n">
-        <v>1160.8</v>
+        <v>1449.995380693296</v>
       </c>
       <c r="F90" t="n">
-        <v>32.7</v>
+        <v>18.7</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2024-05-22</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>57450000000</v>
+        <v>3368262000</v>
       </c>
       <c r="J90" t="n">
-        <v>297923000000</v>
+        <v>826293000</v>
       </c>
       <c r="K90" t="n">
-        <v>103100000000</v>
+        <v>164267000</v>
       </c>
       <c r="L90" t="n">
-        <v>249065000000</v>
+        <v>3706507000</v>
       </c>
       <c r="M90" t="n">
-        <v>458473000000</v>
+        <v>4358822000</v>
       </c>
       <c r="N90" t="n">
-        <v>414786510600</v>
+        <v>12262555250</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>日鉄ソリューションズ株式会社</t>
+          <t>京浜急行電鉄株式会社</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2327</t>
+          <t>9006</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>12.1</v>
+        <v>109.9</v>
       </c>
       <c r="D91" t="n">
-        <v>3714</v>
+        <v>1548.5</v>
       </c>
       <c r="E91" t="n">
-        <v>2561.705402476645</v>
+        <v>1160.8</v>
       </c>
       <c r="F91" t="n">
-        <v>45</v>
+        <v>33.4</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>78579000000</v>
+        <v>57450000000</v>
       </c>
       <c r="J91" t="n">
-        <v>2398000000</v>
+        <v>297923000000</v>
       </c>
       <c r="K91" t="n">
-        <v>1000000000</v>
+        <v>103100000000</v>
       </c>
       <c r="L91" t="n">
-        <v>186128000000</v>
+        <v>249065000000</v>
       </c>
       <c r="M91" t="n">
-        <v>81977000000</v>
+        <v>458473000000</v>
       </c>
       <c r="N91" t="n">
-        <v>679566204798</v>
+        <v>417075916665</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ＮＩＴＴＯＫＵ株式会社</t>
+          <t>日鉄ソリューションズ株式会社</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>6145</t>
+          <t>2327</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>40.7</v>
+        <v>12</v>
       </c>
       <c r="D92" t="n">
-        <v>2265</v>
+        <v>3720</v>
       </c>
       <c r="E92" t="n">
-        <v>1710</v>
+        <v>2561.705402476645</v>
       </c>
       <c r="F92" t="n">
-        <v>32.5</v>
+        <v>45.2</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2024-08-19</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>10110000000</v>
+        <v>78579000000</v>
       </c>
       <c r="J92" t="n">
-        <v>5132000000</v>
+        <v>2398000000</v>
       </c>
       <c r="K92" t="n">
-        <v>301000000</v>
+        <v>1000000000</v>
       </c>
       <c r="L92" t="n">
-        <v>31726000000</v>
+        <v>186128000000</v>
       </c>
       <c r="M92" t="n">
-        <v>15543000000</v>
+        <v>81977000000</v>
       </c>
       <c r="N92" t="n">
-        <v>38215533000</v>
+        <v>680664050040</v>
       </c>
     </row>
     <row r="93">
@@ -5237,16 +5237,16 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>40.7</v>
+        <v>39.2</v>
       </c>
       <c r="D93" t="n">
-        <v>2265</v>
+        <v>2349</v>
       </c>
       <c r="E93" t="n">
         <v>1710</v>
       </c>
       <c r="F93" t="n">
-        <v>32.5</v>
+        <v>37.4</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="I93" t="n">
@@ -5274,83 +5274,83 @@
         <v>15543000000</v>
       </c>
       <c r="N93" t="n">
-        <v>38215533000</v>
+        <v>39632797800</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>三井倉庫ホールディングス株式会社</t>
+          <t>ＮＩＴＴＯＫＵ株式会社</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>9302</t>
+          <t>6145</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>33.2</v>
+        <v>39.2</v>
       </c>
       <c r="D94" t="n">
-        <v>4280</v>
+        <v>2349</v>
       </c>
       <c r="E94" t="n">
-        <v>1492.806001579363</v>
+        <v>1710</v>
       </c>
       <c r="F94" t="n">
-        <v>186.7</v>
+        <v>37.4</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2024-09-03</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>22718000000</v>
+        <v>10110000000</v>
       </c>
       <c r="J94" t="n">
-        <v>68374000000</v>
+        <v>5132000000</v>
       </c>
       <c r="K94" t="n">
-        <v>15393000000</v>
+        <v>301000000</v>
       </c>
       <c r="L94" t="n">
-        <v>68529000000</v>
+        <v>31726000000</v>
       </c>
       <c r="M94" t="n">
-        <v>106485000000</v>
+        <v>15543000000</v>
       </c>
       <c r="N94" t="n">
-        <v>320334712520</v>
+        <v>39632797800</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>株式会社スクウェア・エニックス・ホールディングス</t>
+          <t>三井倉庫ホールディングス株式会社</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>9684</t>
+          <t>9302</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>13</v>
+        <v>34.1</v>
       </c>
       <c r="D95" t="n">
-        <v>9848</v>
+        <v>4175</v>
       </c>
       <c r="E95" t="n">
-        <v>6272.971195510064</v>
+        <v>1492.806001579363</v>
       </c>
       <c r="F95" t="n">
-        <v>57</v>
+        <v>179.7</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -5359,130 +5359,182 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>144061000000</v>
+        <v>22718000000</v>
       </c>
       <c r="J95" t="n">
-        <v>4462000000</v>
+        <v>68374000000</v>
       </c>
       <c r="K95" t="n">
-        <v>4731000000</v>
+        <v>15393000000</v>
       </c>
       <c r="L95" t="n">
-        <v>243278000000</v>
+        <v>68529000000</v>
       </c>
       <c r="M95" t="n">
-        <v>153254000000</v>
+        <v>106485000000</v>
       </c>
       <c r="N95" t="n">
-        <v>1183188403160</v>
+        <v>312476033825</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ヘリオス テクノ ホールディング株式会社</t>
+          <t>株式会社スクウェア・エニックス・ホールディングス</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>6927</t>
+          <t>9684</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>51.6</v>
+        <v>13.1</v>
       </c>
       <c r="D96" t="n">
-        <v>899</v>
+        <v>9712</v>
       </c>
       <c r="E96" t="n">
-        <v>896.0103264198827</v>
+        <v>6272.971195510064</v>
       </c>
       <c r="F96" t="n">
-        <v>0.3</v>
+        <v>54.8</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>6417163000</v>
+        <v>144061000000</v>
       </c>
       <c r="J96" t="n">
-        <v>658172000</v>
+        <v>4462000000</v>
       </c>
       <c r="K96" t="n">
-        <v>1342160000</v>
+        <v>4731000000</v>
       </c>
       <c r="L96" t="n">
-        <v>13418044000</v>
+        <v>243278000000</v>
       </c>
       <c r="M96" t="n">
-        <v>8417495000</v>
+        <v>153254000000</v>
       </c>
       <c r="N96" t="n">
-        <v>16314849725</v>
+        <v>1166848677040</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
+          <t>ヘリオス テクノ ホールディング株式会社</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>6927</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>50.7</v>
+      </c>
+      <c r="D97" t="n">
+        <v>914</v>
+      </c>
+      <c r="E97" t="n">
+        <v>896.0103264198827</v>
+      </c>
+      <c r="F97" t="n">
+        <v>2</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>6417163000</v>
+      </c>
+      <c r="J97" t="n">
+        <v>658172000</v>
+      </c>
+      <c r="K97" t="n">
+        <v>1342160000</v>
+      </c>
+      <c r="L97" t="n">
+        <v>13418044000</v>
+      </c>
+      <c r="M97" t="n">
+        <v>8417495000</v>
+      </c>
+      <c r="N97" t="n">
+        <v>16587066350</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
           <t>平和不動産株式会社</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B98" t="inlineStr">
         <is>
           <t>8803</t>
         </is>
       </c>
-      <c r="C97" t="n">
+      <c r="C98" t="n">
         <v>76.5</v>
       </c>
-      <c r="D97" t="n">
-        <v>2392</v>
-      </c>
-      <c r="E97" t="n">
+      <c r="D98" t="n">
+        <v>2391</v>
+      </c>
+      <c r="E98" t="n">
         <v>3610</v>
       </c>
-      <c r="F97" t="n">
-        <v>-33.7</v>
-      </c>
-      <c r="G97" t="inlineStr">
+      <c r="F98" t="n">
+        <v>-33.8</v>
+      </c>
+      <c r="G98" t="inlineStr">
         <is>
           <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>2024-07-22</t>
         </is>
       </c>
-      <c r="I97" t="n">
+      <c r="I98" t="n">
         <v>29585000000</v>
       </c>
-      <c r="J97" t="n">
+      <c r="J98" t="n">
         <v>84557000000</v>
       </c>
-      <c r="K97" t="n">
+      <c r="K98" t="n">
         <v>8005000000</v>
       </c>
-      <c r="L97" t="n">
+      <c r="L98" t="n">
         <v>118639000000</v>
       </c>
-      <c r="M97" t="n">
+      <c r="M98" t="n">
         <v>122147000000</v>
       </c>
-      <c r="N97" t="n">
-        <v>159729148800</v>
+      <c r="N98" t="n">
+        <v>159662372400</v>
       </c>
     </row>
   </sheetData>

--- a/docs/アクティビスト銘柄_資産判定.xlsx
+++ b/docs/アクティビスト銘柄_資産判定.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N98"/>
+  <dimension ref="A1:N123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -612,1325 +612,1325 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>エクシオグループ株式会社</t>
+          <t>株式会社ホギメディカル</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1951</t>
+          <t>3593</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20.3</v>
+        <v>42</v>
       </c>
       <c r="D4" t="n">
-        <v>2178.5</v>
+        <v>5290</v>
       </c>
       <c r="E4" t="n">
-        <v>2269.918722577861</v>
+        <v>3361.304411567078</v>
       </c>
       <c r="F4" t="n">
-        <v>-4</v>
+        <v>57.4</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2023-04-26</t>
+          <t>2023-05-25</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>41246000000</v>
+        <v>19911000000</v>
       </c>
       <c r="J4" t="n">
-        <v>49565000000</v>
+        <v>19534000000</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>9213000000</v>
       </c>
       <c r="L4" t="n">
-        <v>288884000000</v>
+        <v>95951000000</v>
       </c>
       <c r="M4" t="n">
-        <v>90811000000</v>
+        <v>48658000000</v>
       </c>
       <c r="N4" t="n">
-        <v>448140888482</v>
+        <v>115776299910</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>株式会社京都フィナンシャルグループ</t>
+          <t>アニコム ホールディングス株式会社</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5844</t>
+          <t>8715</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>114.4</v>
+        <v>51</v>
       </c>
       <c r="D5" t="n">
-        <v>3084</v>
+        <v>833</v>
       </c>
       <c r="E5" t="n">
-        <v>4991.027246539169</v>
+        <v>656.2604975855553</v>
       </c>
       <c r="F5" t="n">
-        <v>-38.2</v>
+        <v>26.9</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2023-10-02</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>929545000000</v>
+        <v>28833000000</v>
       </c>
       <c r="J5" t="n">
-        <v>76590000000</v>
+        <v>3032000000</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1141082000000</v>
+        <v>25717000000</v>
       </c>
       <c r="M5" t="n">
-        <v>1006135000000</v>
+        <v>31865000000</v>
       </c>
       <c r="N5" t="n">
-        <v>879631574664</v>
+        <v>62498612218</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>シェアリングテクノロジー株式会社</t>
+          <t>エクシオグループ株式会社</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3989</t>
+          <t>1951</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7.2</v>
+        <v>20.2</v>
       </c>
       <c r="D6" t="n">
-        <v>1050</v>
+        <v>2178.5</v>
       </c>
       <c r="E6" t="n">
-        <v>653.0713101160862</v>
+        <v>2269.918722577861</v>
       </c>
       <c r="F6" t="n">
-        <v>60.8</v>
+        <v>-4</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2023-04-26</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1779899000</v>
+        <v>41246000000</v>
       </c>
       <c r="J6" t="n">
-        <v>30240000</v>
+        <v>49565000000</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>906167000</v>
+        <v>288884000000</v>
       </c>
       <c r="M6" t="n">
-        <v>1810139000</v>
+        <v>90811000000</v>
       </c>
       <c r="N6" t="n">
-        <v>25127832450</v>
+        <v>449169443293</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>サッポロホールディングス株式会社</t>
+          <t>株式会社京都フィナンシャルグループ</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2501</t>
+          <t>5844</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.4</v>
+        <v>114.4</v>
       </c>
       <c r="D7" t="n">
-        <v>7284</v>
+        <v>3084</v>
       </c>
       <c r="E7" t="n">
-        <v>2697.360927565142</v>
+        <v>4991.027246539169</v>
       </c>
       <c r="F7" t="n">
-        <v>170</v>
+        <v>-38.2</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2023-10-12</t>
+          <t>2023-10-02</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>3451000000</v>
+        <v>929545000000</v>
       </c>
       <c r="J7" t="n">
-        <v>28000000</v>
+        <v>76590000000</v>
       </c>
       <c r="K7" t="n">
-        <v>4669000000</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>137956000000</v>
+        <v>1141082000000</v>
       </c>
       <c r="M7" t="n">
-        <v>8148000000</v>
+        <v>1006135000000</v>
       </c>
       <c r="N7" t="n">
-        <v>567927791196</v>
+        <v>879631574664</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>セーレン株式会社</t>
+          <t>トーセイ株式会社</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3569</t>
+          <t>8923</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>37.9</v>
+        <v>46.9</v>
       </c>
       <c r="D8" t="n">
-        <v>3095</v>
+        <v>3410</v>
       </c>
       <c r="E8" t="n">
-        <v>1359.655069733296</v>
+        <v>1752.426893379333</v>
       </c>
       <c r="F8" t="n">
-        <v>127.6</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>39498000000</v>
+        <v>25212066000</v>
       </c>
       <c r="J8" t="n">
-        <v>26026000000</v>
+        <v>44735708000</v>
       </c>
       <c r="K8" t="n">
-        <v>3317000000</v>
+        <v>7615447000</v>
       </c>
       <c r="L8" t="n">
-        <v>80897000000</v>
+        <v>51737131000</v>
       </c>
       <c r="M8" t="n">
-        <v>68841000000</v>
+        <v>77563221000</v>
       </c>
       <c r="N8" t="n">
-        <v>181462031975</v>
+        <v>165333168000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>太陽ホールディングス株式会社</t>
+          <t>トーセイ株式会社</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4626</t>
+          <t>8923</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>19.7</v>
+        <v>46.9</v>
       </c>
       <c r="D9" t="n">
-        <v>8150</v>
+        <v>3410</v>
       </c>
       <c r="E9" t="n">
-        <v>3565.648720929983</v>
+        <v>1576.721867844292</v>
       </c>
       <c r="F9" t="n">
-        <v>128.6</v>
+        <v>116.3</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2024-05-27</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>54309000000</v>
+        <v>25212066000</v>
       </c>
       <c r="J9" t="n">
-        <v>30690000000</v>
+        <v>44735708000</v>
       </c>
       <c r="K9" t="n">
-        <v>4437000000</v>
+        <v>7615447000</v>
       </c>
       <c r="L9" t="n">
-        <v>76497000000</v>
+        <v>51737131000</v>
       </c>
       <c r="M9" t="n">
-        <v>89436000000</v>
+        <v>77563221000</v>
       </c>
       <c r="N9" t="n">
-        <v>452906575850</v>
+        <v>165333168000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>株式会社内田洋行</t>
+          <t>シェアリングテクノロジー株式会社</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>8057</t>
+          <t>3989</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>23.6</v>
+        <v>7.2</v>
       </c>
       <c r="D10" t="n">
-        <v>12700</v>
+        <v>1050</v>
       </c>
       <c r="E10" t="n">
-        <v>3496.825336379792</v>
+        <v>653.0713101160862</v>
       </c>
       <c r="F10" t="n">
-        <v>263.2</v>
+        <v>60.8</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2022-12-19</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>24890000000</v>
+        <v>1779899000</v>
       </c>
       <c r="J10" t="n">
-        <v>3100000000</v>
+        <v>30240000</v>
       </c>
       <c r="K10" t="n">
-        <v>1500000000</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>42315000000</v>
+        <v>906167000</v>
       </c>
       <c r="M10" t="n">
-        <v>29490000000</v>
+        <v>1810139000</v>
       </c>
       <c r="N10" t="n">
-        <v>125146308000</v>
+        <v>25151764050</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>株式会社クレハ</t>
+          <t>サッポロホールディングス株式会社</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4023</t>
+          <t>2501</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>22.2</v>
+        <v>1.4</v>
       </c>
       <c r="D11" t="n">
-        <v>4045</v>
+        <v>7284</v>
       </c>
       <c r="E11" t="n">
-        <v>7960</v>
+        <v>2697.360927565142</v>
       </c>
       <c r="F11" t="n">
-        <v>-49.2</v>
+        <v>170</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2023-10-04</t>
+          <t>2023-10-12</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>4999000000</v>
+        <v>3451000000</v>
       </c>
       <c r="J11" t="n">
-        <v>6059000000</v>
+        <v>28000000</v>
       </c>
       <c r="K11" t="n">
-        <v>23201000000</v>
+        <v>4669000000</v>
       </c>
       <c r="L11" t="n">
-        <v>148872000000</v>
+        <v>137956000000</v>
       </c>
       <c r="M11" t="n">
-        <v>34259000000</v>
+        <v>8148000000</v>
       </c>
       <c r="N11" t="n">
-        <v>154597173670</v>
+        <v>579233331300</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>三井松島ホールディングス株式会社</t>
+          <t>株式会社ダイドーリミテッド</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1518</t>
+          <t>3205</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>49.5</v>
+        <v>82.7</v>
       </c>
       <c r="D12" t="n">
-        <v>6720</v>
+        <v>982</v>
       </c>
       <c r="E12" t="n">
-        <v>2920</v>
+        <v>193.0499177180472</v>
       </c>
       <c r="F12" t="n">
-        <v>130.1</v>
+        <v>408.7</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2024-05-02</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>19293000000</v>
+        <v>7723000000</v>
       </c>
       <c r="J12" t="n">
-        <v>3587000000</v>
+        <v>9807000000</v>
       </c>
       <c r="K12" t="n">
-        <v>3156000000</v>
+        <v>4567000000</v>
       </c>
       <c r="L12" t="n">
-        <v>30287000000</v>
+        <v>10628000000</v>
       </c>
       <c r="M12" t="n">
-        <v>26036000000</v>
+        <v>22097000000</v>
       </c>
       <c r="N12" t="n">
-        <v>52565923200</v>
+        <v>26717274000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>株式会社セプテーニ・ホールディングス</t>
+          <t>株式会社イエローハット</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4293</t>
+          <t>9882</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>12</v>
+        <v>34.1</v>
       </c>
       <c r="D13" t="n">
-        <v>434</v>
+        <v>1699</v>
       </c>
       <c r="E13" t="n">
-        <v>448.6811097117532</v>
+        <v>2112.609181636727</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.3</v>
+        <v>-19.6</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2023-12-21</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>9080380000</v>
+        <v>14029000000</v>
       </c>
       <c r="J13" t="n">
-        <v>123425000</v>
+        <v>27205000000</v>
       </c>
       <c r="K13" t="n">
-        <v>1600720000</v>
+        <v>9801000000</v>
       </c>
       <c r="L13" t="n">
-        <v>11068271000</v>
+        <v>91386000000</v>
       </c>
       <c r="M13" t="n">
-        <v>10804525000</v>
+        <v>51035000000</v>
       </c>
       <c r="N13" t="n">
-        <v>90022497306</v>
+        <v>149552595906</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>芝浦機械株式会社</t>
+          <t>株式会社イワキ</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>6104</t>
+          <t>6237</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>77.8</v>
+        <v>18.8</v>
       </c>
       <c r="D14" t="n">
-        <v>4330</v>
+        <v>2670</v>
       </c>
       <c r="E14" t="n">
-        <v>3449.780346820809</v>
+        <v>1361.432492253209</v>
       </c>
       <c r="F14" t="n">
-        <v>25.5</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-08-19</t>
+          <t>2023-11-09</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>42417000000</v>
+        <v>6936133000</v>
       </c>
       <c r="J14" t="n">
-        <v>19144000000</v>
+        <v>3861988000</v>
       </c>
       <c r="K14" t="n">
-        <v>18000000000</v>
+        <v>326566000</v>
       </c>
       <c r="L14" t="n">
-        <v>82152000000</v>
+        <v>22520477000</v>
       </c>
       <c r="M14" t="n">
-        <v>79561000000</v>
+        <v>11124687000</v>
       </c>
       <c r="N14" t="n">
-        <v>102322459490</v>
+        <v>59113813350</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>株式会社パイオラックス</t>
+          <t>セーレン株式会社</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>5988</t>
+          <t>3569</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>97.09999999999999</v>
+        <v>37.9</v>
       </c>
       <c r="D15" t="n">
-        <v>1860</v>
+        <v>3095</v>
       </c>
       <c r="E15" t="n">
-        <v>2298.672482457804</v>
+        <v>1359.655069733296</v>
       </c>
       <c r="F15" t="n">
-        <v>-19.1</v>
+        <v>127.6</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2024-08-06</t>
+          <t>2024-08-30</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>31161000000</v>
+        <v>39498000000</v>
       </c>
       <c r="J15" t="n">
-        <v>12144000000</v>
+        <v>26026000000</v>
       </c>
       <c r="K15" t="n">
-        <v>1620000000</v>
+        <v>3317000000</v>
       </c>
       <c r="L15" t="n">
-        <v>93746000000</v>
+        <v>80897000000</v>
       </c>
       <c r="M15" t="n">
-        <v>44925000000</v>
+        <v>68841000000</v>
       </c>
       <c r="N15" t="n">
-        <v>46279962000</v>
+        <v>181462031975</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>王子ホールディングス株式会社</t>
+          <t>東亜道路工業株式会社</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3861</t>
+          <t>1882</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>47.9</v>
+        <v>42.9</v>
       </c>
       <c r="D16" t="n">
-        <v>828.2000122070312</v>
+        <v>1602</v>
       </c>
       <c r="E16" t="n">
-        <v>590</v>
+        <v>3767.430178069353</v>
       </c>
       <c r="F16" t="n">
-        <v>40.4</v>
+        <v>-57.5</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2023-05-31</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>135669000000</v>
+        <v>12764000000</v>
       </c>
       <c r="J16" t="n">
-        <v>222446000000</v>
+        <v>13764000000</v>
       </c>
       <c r="K16" t="n">
-        <v>4772000000</v>
+        <v>5437000000</v>
       </c>
       <c r="L16" t="n">
-        <v>865606000000</v>
+        <v>48166000000</v>
       </c>
       <c r="M16" t="n">
-        <v>362887000000</v>
+        <v>31965000000</v>
       </c>
       <c r="N16" t="n">
-        <v>757743721987</v>
+        <v>74493679248</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>株式会社青山財産ネットワークス</t>
+          <t>太陽ホールディングス株式会社</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>8929</t>
+          <t>4626</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>29.3</v>
+        <v>19.7</v>
       </c>
       <c r="D17" t="n">
-        <v>2015</v>
+        <v>8150</v>
       </c>
       <c r="E17" t="n">
-        <v>1347.74653160027</v>
+        <v>3565.648720929983</v>
       </c>
       <c r="F17" t="n">
-        <v>49.5</v>
+        <v>128.6</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2024-06-11</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>9424000000</v>
+        <v>54309000000</v>
       </c>
       <c r="J17" t="n">
-        <v>2205000000</v>
+        <v>30690000000</v>
       </c>
       <c r="K17" t="n">
-        <v>2514000000</v>
+        <v>4437000000</v>
       </c>
       <c r="L17" t="n">
-        <v>6566000000</v>
+        <v>76497000000</v>
       </c>
       <c r="M17" t="n">
-        <v>14143000000</v>
+        <v>89436000000</v>
       </c>
       <c r="N17" t="n">
-        <v>48288687135</v>
+        <v>452906575850</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>わかもと製薬株式会社</t>
+          <t>株式会社内田洋行</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4512</t>
+          <t>8057</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>52.3</v>
+        <v>23.6</v>
       </c>
       <c r="D18" t="n">
-        <v>296</v>
+        <v>12700</v>
       </c>
       <c r="E18" t="n">
-        <v>290.3401328717133</v>
+        <v>3496.825336379792</v>
       </c>
       <c r="F18" t="n">
-        <v>1.9</v>
+        <v>263.2</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2022-12-19</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>2843762000</v>
+        <v>24890000000</v>
       </c>
       <c r="J18" t="n">
-        <v>82947000</v>
+        <v>3100000000</v>
       </c>
       <c r="K18" t="n">
-        <v>2442113000</v>
+        <v>1500000000</v>
       </c>
       <c r="L18" t="n">
-        <v>11385570000</v>
+        <v>42315000000</v>
       </c>
       <c r="M18" t="n">
-        <v>5368822000</v>
+        <v>29490000000</v>
       </c>
       <c r="N18" t="n">
-        <v>10273056808</v>
+        <v>125146308000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>株式会社シンクロ・フード</t>
+          <t>株式会社クレハ</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3963</t>
+          <t>4023</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>13.1</v>
+        <v>22.2</v>
       </c>
       <c r="D19" t="n">
-        <v>613</v>
+        <v>4045</v>
       </c>
       <c r="E19" t="n">
-        <v>421.6950726175476</v>
+        <v>7960</v>
       </c>
       <c r="F19" t="n">
-        <v>45.4</v>
+        <v>-49.2</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2023-10-04</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>2173723000</v>
+        <v>4999000000</v>
       </c>
       <c r="J19" t="n">
-        <v>67951000</v>
+        <v>6059000000</v>
       </c>
       <c r="K19" t="n">
-        <v>15141000</v>
+        <v>23201000000</v>
       </c>
       <c r="L19" t="n">
-        <v>2505194000</v>
+        <v>148872000000</v>
       </c>
       <c r="M19" t="n">
-        <v>2256815000</v>
+        <v>34259000000</v>
       </c>
       <c r="N19" t="n">
-        <v>17171723800</v>
+        <v>154597173670</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>東邦ホールディングス株式会社</t>
+          <t>三井松島ホールディングス株式会社</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>8129</t>
+          <t>1518</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>53.4</v>
+        <v>49.5</v>
       </c>
       <c r="D20" t="n">
-        <v>5524</v>
+        <v>6720</v>
       </c>
       <c r="E20" t="n">
-        <v>3405.914389596362</v>
+        <v>2920</v>
       </c>
       <c r="F20" t="n">
-        <v>62.2</v>
+        <v>130.1</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2024-07-16</t>
+          <t>2024-05-02</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>88882000000</v>
+        <v>19293000000</v>
       </c>
       <c r="J20" t="n">
-        <v>34612000000</v>
+        <v>3587000000</v>
       </c>
       <c r="K20" t="n">
-        <v>70212000000</v>
+        <v>3156000000</v>
       </c>
       <c r="L20" t="n">
-        <v>237405000000</v>
+        <v>30287000000</v>
       </c>
       <c r="M20" t="n">
-        <v>193706000000</v>
+        <v>26036000000</v>
       </c>
       <c r="N20" t="n">
-        <v>362671591200</v>
+        <v>52565923200</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>東邦ホールディングス株式会社</t>
+          <t>株式会社セプテーニ・ホールディングス</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>8129</t>
+          <t>4293</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>53.4</v>
+        <v>12</v>
       </c>
       <c r="D21" t="n">
-        <v>5524</v>
+        <v>434</v>
       </c>
       <c r="E21" t="n">
-        <v>2714.613787300615</v>
+        <v>448.6811097117532</v>
       </c>
       <c r="F21" t="n">
-        <v>103.5</v>
+        <v>-3.3</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2023-12-21</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>88882000000</v>
+        <v>9080380000</v>
       </c>
       <c r="J21" t="n">
-        <v>34612000000</v>
+        <v>123425000</v>
       </c>
       <c r="K21" t="n">
-        <v>70212000000</v>
+        <v>1600720000</v>
       </c>
       <c r="L21" t="n">
-        <v>237405000000</v>
+        <v>11068271000</v>
       </c>
       <c r="M21" t="n">
-        <v>193706000000</v>
+        <v>10804525000</v>
       </c>
       <c r="N21" t="n">
-        <v>362671591200</v>
+        <v>90022497306</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>株式会社ニコン</t>
+          <t>芝浦機械株式会社</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>7731</t>
+          <t>6104</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>15</v>
+        <v>77.8</v>
       </c>
       <c r="D22" t="n">
-        <v>1838.5</v>
+        <v>4330</v>
       </c>
       <c r="E22" t="n">
-        <v>1512.21980974841</v>
+        <v>3449.780346820809</v>
       </c>
       <c r="F22" t="n">
-        <v>21.6</v>
+        <v>25.5</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2024-04-22</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>78718000000</v>
+        <v>42417000000</v>
       </c>
       <c r="J22" t="n">
-        <v>8297000000</v>
+        <v>19144000000</v>
       </c>
       <c r="K22" t="n">
-        <v>4000000000</v>
+        <v>18000000000</v>
       </c>
       <c r="L22" t="n">
-        <v>342155000000</v>
+        <v>82152000000</v>
       </c>
       <c r="M22" t="n">
-        <v>91015000000</v>
+        <v>79561000000</v>
       </c>
       <c r="N22" t="n">
-        <v>604901446208</v>
+        <v>102322459490</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>株式会社クスリのアオキホールディングス</t>
+          <t>株式会社パイオラックス</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3549</t>
+          <t>5988</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>35.7</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>3960</v>
+        <v>1860</v>
       </c>
       <c r="E23" t="n">
-        <v>6646.195827570309</v>
+        <v>2298.672482457804</v>
       </c>
       <c r="F23" t="n">
-        <v>-40.4</v>
+        <v>-19.1</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2023-05-15</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>15734000000</v>
+        <v>31161000000</v>
       </c>
       <c r="J23" t="n">
-        <v>120105000000</v>
+        <v>12144000000</v>
       </c>
       <c r="K23" t="n">
-        <v>3356000000</v>
+        <v>1620000000</v>
       </c>
       <c r="L23" t="n">
-        <v>77669000000</v>
+        <v>93746000000</v>
       </c>
       <c r="M23" t="n">
-        <v>139195000000</v>
+        <v>44925000000</v>
       </c>
       <c r="N23" t="n">
-        <v>390306577320</v>
+        <v>46279962000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>株式会社フジ・メディア・ホールディングス</t>
+          <t>東京瓦斯株式会社</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4676</t>
+          <t>9531</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>58.2</v>
+        <v>25.4</v>
       </c>
       <c r="D24" t="n">
-        <v>3432</v>
+        <v>5338</v>
       </c>
       <c r="E24" t="n">
-        <v>2420</v>
+        <v>3322.047887165483</v>
       </c>
       <c r="F24" t="n">
-        <v>41.8</v>
+        <v>60.7</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>株式会社レノ代表取締役　福島啓修</t>
+          <t>エリオット・インベストメント・マネージメント・エルピー（Ｅｌｌｉｏｔｔ　Ｉｎｖｅｓｔｍｅｎｔ　Ｍａｎａｇｅｍｅｎｔ　Ｌ．Ｐ．）</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2024-11-12</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>118591000000</v>
+        <v>157811000000</v>
       </c>
       <c r="J24" t="n">
-        <v>174618000000</v>
+        <v>318445000000</v>
       </c>
       <c r="K24" t="n">
-        <v>121461000000</v>
+        <v>103000000</v>
       </c>
       <c r="L24" t="n">
-        <v>784429000000</v>
+        <v>1178271000000</v>
       </c>
       <c r="M24" t="n">
-        <v>414670000000</v>
+        <v>476359000000</v>
       </c>
       <c r="N24" t="n">
-        <v>711975610632</v>
+        <v>1872169868508</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ニッコンホールディングス株式会社</t>
+          <t>王子ホールディングス株式会社</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>9072</t>
+          <t>3861</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>42.9</v>
+        <v>47.9</v>
       </c>
       <c r="D25" t="n">
-        <v>3445</v>
+        <v>828.2000122070312</v>
       </c>
       <c r="E25" t="n">
-        <v>1598.889989734285</v>
+        <v>590</v>
       </c>
       <c r="F25" t="n">
-        <v>115.5</v>
+        <v>40.4</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2023-09-04</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>30366000000</v>
+        <v>135669000000</v>
       </c>
       <c r="J25" t="n">
-        <v>115109000000</v>
+        <v>222446000000</v>
       </c>
       <c r="K25" t="n">
-        <v>32990000000</v>
+        <v>4772000000</v>
       </c>
       <c r="L25" t="n">
-        <v>208290000000</v>
+        <v>865606000000</v>
       </c>
       <c r="M25" t="n">
-        <v>178465000000</v>
+        <v>362887000000</v>
       </c>
       <c r="N25" t="n">
-        <v>416450244340</v>
+        <v>757743721987</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ライフネット生命保険株式会社</t>
+          <t>三和ホールディングス株式会社</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>7157</t>
+          <t>5929</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1.9</v>
+        <v>12.7</v>
       </c>
       <c r="D26" t="n">
-        <v>2032</v>
+        <v>4419</v>
       </c>
       <c r="E26" t="n">
-        <v>887.288318673809</v>
+        <v>1306.206628354146</v>
       </c>
       <c r="F26" t="n">
-        <v>129</v>
+        <v>238.3</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2023-05-24</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>3059000000</v>
+        <v>87795000000</v>
       </c>
       <c r="J26" t="n">
-        <v>65000000</v>
+        <v>21341000000</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>11848000000</v>
       </c>
       <c r="L26" t="n">
-        <v>15806000000</v>
+        <v>181387000000</v>
       </c>
       <c r="M26" t="n">
-        <v>3124000000</v>
+        <v>120984000000</v>
       </c>
       <c r="N26" t="n">
-        <v>163206058144</v>
+        <v>953043136047</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>株式会社髙島屋</t>
+          <t>株式会社青山財産ネットワークス</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>8233</t>
+          <t>8929</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>80.90000000000001</v>
+        <v>29.3</v>
       </c>
       <c r="D27" t="n">
-        <v>1644.5</v>
+        <v>2015</v>
       </c>
       <c r="E27" t="n">
-        <v>1101.400153022188</v>
+        <v>1347.74653160027</v>
       </c>
       <c r="F27" t="n">
-        <v>49.3</v>
+        <v>49.5</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2024-06-11</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>105320000000</v>
+        <v>9424000000</v>
       </c>
       <c r="J27" t="n">
-        <v>191580000000</v>
+        <v>2205000000</v>
       </c>
       <c r="K27" t="n">
-        <v>101495000000</v>
+        <v>2514000000</v>
       </c>
       <c r="L27" t="n">
-        <v>415111000000</v>
+        <v>6566000000</v>
       </c>
       <c r="M27" t="n">
-        <v>398395000000</v>
+        <v>14143000000</v>
       </c>
       <c r="N27" t="n">
-        <v>492247859389</v>
+        <v>48288687135</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>株式会社メルカリ</t>
+          <t>わかもと製薬株式会社</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4385</t>
+          <t>4512</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>37.9</v>
+        <v>51.7</v>
       </c>
       <c r="D28" t="n">
-        <v>2278</v>
+        <v>296</v>
       </c>
       <c r="E28" t="n">
-        <v>2006.059650428343</v>
+        <v>290.3401328717133</v>
       </c>
       <c r="F28" t="n">
-        <v>13.6</v>
+        <v>1.9</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2025-02-19</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>141008000000</v>
+        <v>2843762000</v>
       </c>
       <c r="J28" t="n">
-        <v>1051000000</v>
+        <v>82947000</v>
       </c>
       <c r="K28" t="n">
-        <v>43000000</v>
+        <v>2442113000</v>
       </c>
       <c r="L28" t="n">
-        <v>35368000000</v>
+        <v>11385570000</v>
       </c>
       <c r="M28" t="n">
-        <v>142102000000</v>
+        <v>5368822000</v>
       </c>
       <c r="N28" t="n">
-        <v>375009852258</v>
+        <v>10377175696</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>アツギ株式会社</t>
+          <t>株式会社シンクロ・フード</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3529</t>
+          <t>3963</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>91.7</v>
+        <v>13.1</v>
       </c>
       <c r="D29" t="n">
-        <v>1029</v>
+        <v>613</v>
       </c>
       <c r="E29" t="n">
-        <v>668.9358717434869</v>
+        <v>421.6950726175476</v>
       </c>
       <c r="F29" t="n">
-        <v>53.8</v>
+        <v>45.4</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1939,362 +1939,365 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2024-08-01</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>7403000000</v>
+        <v>2173723000</v>
       </c>
       <c r="J29" t="n">
-        <v>1639000000</v>
+        <v>67951000</v>
       </c>
       <c r="K29" t="n">
-        <v>6076000000</v>
+        <v>15141000</v>
       </c>
       <c r="L29" t="n">
-        <v>33956000000</v>
+        <v>2505194000</v>
       </c>
       <c r="M29" t="n">
-        <v>15118000000</v>
+        <v>2256815000</v>
       </c>
       <c r="N29" t="n">
-        <v>16481493000</v>
+        <v>17227723189</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>大平洋金属株式会社</t>
+          <t>山洋電気株式会社</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>5541</t>
+          <t>6516</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>75</v>
+        <v>16.6</v>
       </c>
       <c r="D30" t="n">
-        <v>2035</v>
+        <v>10300</v>
       </c>
       <c r="E30" t="n">
-        <v>1270</v>
+        <v>7052.737306843267</v>
       </c>
       <c r="F30" t="n">
-        <v>60.2</v>
+        <v>46</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2024-07-25</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>22286000000</v>
+        <v>3903000000</v>
       </c>
       <c r="J30" t="n">
-        <v>2059000000</v>
+        <v>6200000000</v>
       </c>
       <c r="K30" t="n">
-        <v>2199000000</v>
+        <v>10330000000</v>
       </c>
       <c r="L30" t="n">
-        <v>67014000000</v>
+        <v>47152000000</v>
       </c>
       <c r="M30" t="n">
-        <v>26544000000</v>
+        <v>20433000000</v>
       </c>
       <c r="N30" t="n">
-        <v>35370048065</v>
+        <v>123037362500</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>大平洋金属株式会社</t>
+          <t>あいホールディングス株式会社</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>5541</t>
+          <t>3076</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>75</v>
+        <v>20.5</v>
       </c>
       <c r="D31" t="n">
-        <v>2035</v>
+        <v>2804</v>
       </c>
       <c r="E31" t="n">
-        <v>1170</v>
+        <v>2007.754513143541</v>
       </c>
       <c r="F31" t="n">
-        <v>73.90000000000001</v>
+        <v>39.7</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2024-01-18</t>
+          <t>2025-05-02</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>22286000000</v>
+        <v>25461000000</v>
       </c>
       <c r="J31" t="n">
-        <v>2059000000</v>
+        <v>1728000000</v>
       </c>
       <c r="K31" t="n">
-        <v>2199000000</v>
+        <v>3490000000</v>
       </c>
       <c r="L31" t="n">
-        <v>67014000000</v>
+        <v>49530000000</v>
       </c>
       <c r="M31" t="n">
-        <v>26544000000</v>
+        <v>30679000000</v>
       </c>
       <c r="N31" t="n">
-        <v>35370048065</v>
+        <v>149861137136</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>株式会社スズケン</t>
+          <t>ノリタケ株式会社
+（旧会社名　株式会社ノリタケカンパニーリミテド）
+（注）2024年６月24日開催の第143回定時株主総会の決議により、
+　　　2024年７月25日から会社名を上記のとおり変更いたしました。</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>9987</t>
+          <t>5331</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>69</v>
+        <v>58.5</v>
       </c>
       <c r="D32" t="n">
-        <v>5855</v>
+        <v>4720</v>
       </c>
       <c r="E32" t="n">
-        <v>4137.137750115735</v>
+        <v>3573.410502159827</v>
       </c>
       <c r="F32" t="n">
-        <v>41.5</v>
+        <v>32.1</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2025-07-10</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>168818000000</v>
+        <v>9741000000</v>
       </c>
       <c r="J32" t="n">
-        <v>54931000000</v>
+        <v>18560000000</v>
       </c>
       <c r="K32" t="n">
-        <v>60282000000</v>
+        <v>47524000000</v>
       </c>
       <c r="L32" t="n">
-        <v>417912000000</v>
+        <v>113988000000</v>
       </c>
       <c r="M32" t="n">
-        <v>284031000000</v>
+        <v>75825000000</v>
       </c>
       <c r="N32" t="n">
-        <v>411669318295</v>
+        <v>129616864000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>アルプスアルパイン株式会社</t>
+          <t>東邦ホールディングス株式会社</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>6770</t>
+          <t>8129</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>67.59999999999999</v>
+        <v>53.4</v>
       </c>
       <c r="D33" t="n">
-        <v>1910.5</v>
+        <v>5524</v>
       </c>
       <c r="E33" t="n">
-        <v>1257.709264012363</v>
+        <v>3405.914389596362</v>
       </c>
       <c r="F33" t="n">
-        <v>51.9</v>
+        <v>62.2</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2023-05-08</t>
+          <t>2024-07-16</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>151748000000</v>
+        <v>88882000000</v>
       </c>
       <c r="J33" t="n">
-        <v>37620000000</v>
+        <v>34612000000</v>
       </c>
       <c r="K33" t="n">
-        <v>71804000000</v>
+        <v>70212000000</v>
       </c>
       <c r="L33" t="n">
-        <v>378379000000</v>
+        <v>237405000000</v>
       </c>
       <c r="M33" t="n">
-        <v>261172000000</v>
+        <v>193706000000</v>
       </c>
       <c r="N33" t="n">
-        <v>386599021166</v>
+        <v>362671591200</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>アルプスアルパイン株式会社</t>
+          <t>東邦ホールディングス株式会社</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>6770</t>
+          <t>8129</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>67.59999999999999</v>
+        <v>53.4</v>
       </c>
       <c r="D34" t="n">
-        <v>1910.5</v>
+        <v>5524</v>
       </c>
       <c r="E34" t="n">
-        <v>1217.254500469243</v>
+        <v>2714.613787300615</v>
       </c>
       <c r="F34" t="n">
-        <v>57</v>
+        <v>103.5</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2023-01-24</t>
+          <t>2024-06-17</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>151748000000</v>
+        <v>88882000000</v>
       </c>
       <c r="J34" t="n">
-        <v>37620000000</v>
+        <v>34612000000</v>
       </c>
       <c r="K34" t="n">
-        <v>71804000000</v>
+        <v>70212000000</v>
       </c>
       <c r="L34" t="n">
-        <v>378379000000</v>
+        <v>237405000000</v>
       </c>
       <c r="M34" t="n">
-        <v>261172000000</v>
+        <v>193706000000</v>
       </c>
       <c r="N34" t="n">
-        <v>386599021166</v>
+        <v>362671591200</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>小林製薬株式会社</t>
+          <t>株式会社ニコン</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>4967</t>
+          <t>7731</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>19.9</v>
+        <v>14.7</v>
       </c>
       <c r="D35" t="n">
-        <v>5423</v>
+        <v>1838.5</v>
       </c>
       <c r="E35" t="n">
-        <v>2148.936934940886</v>
+        <v>1512.21980974841</v>
       </c>
       <c r="F35" t="n">
-        <v>152.4</v>
+        <v>21.6</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2024-07-22</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>61157000000</v>
+        <v>78718000000</v>
       </c>
       <c r="J35" t="n">
-        <v>10611000000</v>
+        <v>8297000000</v>
       </c>
       <c r="K35" t="n">
-        <v>8300000000</v>
+        <v>4000000000</v>
       </c>
       <c r="L35" t="n">
-        <v>182583000000</v>
+        <v>342155000000</v>
       </c>
       <c r="M35" t="n">
-        <v>80068000000</v>
+        <v>91015000000</v>
       </c>
       <c r="N35" t="n">
-        <v>403139415437</v>
+        <v>618555855174</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>小林製薬株式会社</t>
+          <t>株式会社クスリのアオキホールディングス</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4967</t>
+          <t>3549</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>19.9</v>
+        <v>35.5</v>
       </c>
       <c r="D36" t="n">
-        <v>5423</v>
+        <v>3960</v>
       </c>
       <c r="E36" t="n">
-        <v>5066.092575838703</v>
+        <v>6646.195827570309</v>
       </c>
       <c r="F36" t="n">
-        <v>7</v>
+        <v>-40.4</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2303,206 +2306,206 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2024-07-22</t>
+          <t>2023-05-15</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>61157000000</v>
+        <v>15734000000</v>
       </c>
       <c r="J36" t="n">
-        <v>10611000000</v>
+        <v>120105000000</v>
       </c>
       <c r="K36" t="n">
-        <v>8300000000</v>
+        <v>3356000000</v>
       </c>
       <c r="L36" t="n">
-        <v>182583000000</v>
+        <v>77669000000</v>
       </c>
       <c r="M36" t="n">
-        <v>80068000000</v>
+        <v>139195000000</v>
       </c>
       <c r="N36" t="n">
-        <v>403139415437</v>
+        <v>392080696920</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>株式会社パソナグループ</t>
+          <t>株式会社フジ・メディア・ホールディングス</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2168</t>
+          <t>4676</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>90.5</v>
+        <v>57.3</v>
       </c>
       <c r="D37" t="n">
-        <v>2186</v>
+        <v>3432</v>
       </c>
       <c r="E37" t="n">
-        <v>2122.579027791042</v>
+        <v>2420</v>
       </c>
       <c r="F37" t="n">
-        <v>3</v>
+        <v>41.8</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社レノ代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2024-07-25</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>52298000000</v>
+        <v>118591000000</v>
       </c>
       <c r="J37" t="n">
-        <v>8021000000</v>
+        <v>174618000000</v>
       </c>
       <c r="K37" t="n">
-        <v>14500000000</v>
+        <v>121461000000</v>
       </c>
       <c r="L37" t="n">
-        <v>49795000000</v>
+        <v>784429000000</v>
       </c>
       <c r="M37" t="n">
-        <v>74819000000</v>
+        <v>414670000000</v>
       </c>
       <c r="N37" t="n">
-        <v>82683906684</v>
+        <v>723800381304</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>株式会社フェローテックホールディングス</t>
+          <t>ニッコンホールディングス株式会社</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>6890</t>
+          <t>9072</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>54.1</v>
+        <v>42.9</v>
       </c>
       <c r="D38" t="n">
-        <v>4155</v>
+        <v>3445</v>
       </c>
       <c r="E38" t="n">
-        <v>2387</v>
+        <v>1598.889989734285</v>
       </c>
       <c r="F38" t="n">
-        <v>74.09999999999999</v>
+        <v>115.5</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2023-09-04</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>30202000000</v>
+        <v>30366000000</v>
       </c>
       <c r="J38" t="n">
-        <v>66583000000</v>
+        <v>115109000000</v>
       </c>
       <c r="K38" t="n">
-        <v>8420000000</v>
+        <v>32990000000</v>
       </c>
       <c r="L38" t="n">
-        <v>78239000000</v>
+        <v>208290000000</v>
       </c>
       <c r="M38" t="n">
-        <v>105205000000</v>
+        <v>178465000000</v>
       </c>
       <c r="N38" t="n">
-        <v>194539289685</v>
+        <v>416450244340</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>株式会社ワコールホールディングス</t>
+          <t>ライフネット生命保険株式会社</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>3591</t>
+          <t>7157</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>10.3</v>
+        <v>1.9</v>
       </c>
       <c r="D39" t="n">
-        <v>5616</v>
+        <v>2032</v>
       </c>
       <c r="E39" t="n">
-        <v>2420.370957920882</v>
+        <v>887.288318673809</v>
       </c>
       <c r="F39" t="n">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2024-06-04</t>
+          <t>2023-05-24</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>12443000000</v>
+        <v>3059000000</v>
       </c>
       <c r="J39" t="n">
-        <v>16412000000</v>
+        <v>65000000</v>
       </c>
       <c r="K39" t="n">
-        <v>76000000</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>140106000000</v>
+        <v>15806000000</v>
       </c>
       <c r="M39" t="n">
-        <v>28931000000</v>
+        <v>3124000000</v>
       </c>
       <c r="N39" t="n">
-        <v>282147598512</v>
+        <v>167382590304</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>新光商事株式会社</t>
+          <t>株式会社髙島屋</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>8141</t>
+          <t>8233</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>58.8</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>972</v>
+        <v>1644.5</v>
       </c>
       <c r="E40" t="n">
-        <v>930</v>
+        <v>1101.400153022188</v>
       </c>
       <c r="F40" t="n">
-        <v>4.5</v>
+        <v>49.3</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2511,206 +2514,206 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>17596000000</v>
+        <v>105320000000</v>
       </c>
       <c r="J40" t="n">
-        <v>174000000</v>
+        <v>191580000000</v>
       </c>
       <c r="K40" t="n">
-        <v>2995000000</v>
+        <v>101495000000</v>
       </c>
       <c r="L40" t="n">
-        <v>50340000000</v>
+        <v>415111000000</v>
       </c>
       <c r="M40" t="n">
-        <v>20765000000</v>
+        <v>398395000000</v>
       </c>
       <c r="N40" t="n">
-        <v>35293920696</v>
+        <v>492247859389</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ジェイドグループ株式会社</t>
+          <t>センコーグループホールディングス株式会社</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>3558</t>
+          <t>9069</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>22</v>
+        <v>53.9</v>
       </c>
       <c r="D41" t="n">
-        <v>1428</v>
+        <v>2058</v>
       </c>
       <c r="E41" t="n">
-        <v>1267.324164058639</v>
+        <v>1556.090471804319</v>
       </c>
       <c r="F41" t="n">
-        <v>12.7</v>
+        <v>32.3</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2023-03-22</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>2776277000</v>
+        <v>50371000000</v>
       </c>
       <c r="J41" t="n">
-        <v>280430000</v>
+        <v>118947000000</v>
       </c>
       <c r="K41" t="n">
-        <v>23536000</v>
+        <v>22276000000</v>
       </c>
       <c r="L41" t="n">
-        <v>4370371000</v>
+        <v>146120000000</v>
       </c>
       <c r="M41" t="n">
-        <v>3080243000</v>
+        <v>191594000000</v>
       </c>
       <c r="N41" t="n">
-        <v>13976164440</v>
+        <v>355227961662</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>愛知製鋼株式会社</t>
+          <t>株式会社メルカリ</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5482</t>
+          <t>4385</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>55.3</v>
+        <v>37.9</v>
       </c>
       <c r="D42" t="n">
-        <v>2788</v>
+        <v>2278</v>
       </c>
       <c r="E42" t="n">
-        <v>3155.301177013616</v>
+        <v>2006.059650428343</v>
       </c>
       <c r="F42" t="n">
-        <v>-11.6</v>
+        <v>13.6</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>54163000000</v>
+        <v>141008000000</v>
       </c>
       <c r="J42" t="n">
-        <v>11000000000</v>
+        <v>1051000000</v>
       </c>
       <c r="K42" t="n">
-        <v>33479000000</v>
+        <v>43000000</v>
       </c>
       <c r="L42" t="n">
-        <v>179716000000</v>
+        <v>35368000000</v>
       </c>
       <c r="M42" t="n">
-        <v>98642000000</v>
+        <v>142102000000</v>
       </c>
       <c r="N42" t="n">
-        <v>178443988400</v>
+        <v>375009852258</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>カシオ計算機株式会社</t>
+          <t>アツギ株式会社</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>6952</t>
+          <t>3529</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>68.59999999999999</v>
+        <v>91.3</v>
       </c>
       <c r="D43" t="n">
-        <v>1250</v>
+        <v>1029</v>
       </c>
       <c r="E43" t="n">
-        <v>1188.162962482466</v>
+        <v>668.9358717434869</v>
       </c>
       <c r="F43" t="n">
-        <v>5.2</v>
+        <v>53.8</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>137053000000</v>
+        <v>7403000000</v>
       </c>
       <c r="J43" t="n">
-        <v>12759000000</v>
+        <v>1639000000</v>
       </c>
       <c r="K43" t="n">
-        <v>45698000000</v>
+        <v>6076000000</v>
       </c>
       <c r="L43" t="n">
-        <v>211895000000</v>
+        <v>33956000000</v>
       </c>
       <c r="M43" t="n">
-        <v>195510000000</v>
+        <v>15118000000</v>
       </c>
       <c r="N43" t="n">
-        <v>285057971250</v>
+        <v>16561599621</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>株式会社エクセディ</t>
+          <t>大平洋金属株式会社</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>7278</t>
+          <t>5541</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="D44" t="n">
-        <v>5390</v>
+        <v>2035</v>
       </c>
       <c r="E44" t="n">
-        <v>2617.980935875217</v>
+        <v>1270</v>
       </c>
       <c r="F44" t="n">
-        <v>105.9</v>
+        <v>60.2</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2719,466 +2722,466 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2024-06-10</t>
+          <t>2024-07-25</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>43070000000</v>
+        <v>22286000000</v>
       </c>
       <c r="J44" t="n">
-        <v>6829000000</v>
+        <v>2059000000</v>
       </c>
       <c r="K44" t="n">
-        <v>3253000000</v>
+        <v>2199000000</v>
       </c>
       <c r="L44" t="n">
-        <v>113343000000</v>
+        <v>67014000000</v>
       </c>
       <c r="M44" t="n">
-        <v>53152000000</v>
+        <v>26544000000</v>
       </c>
       <c r="N44" t="n">
-        <v>197023904000</v>
+        <v>35370048065</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>日本化薬株式会社</t>
+          <t>大平洋金属株式会社</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>4272</t>
+          <t>5541</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>45.9</v>
+        <v>75</v>
       </c>
       <c r="D45" t="n">
-        <v>1428</v>
+        <v>2035</v>
       </c>
       <c r="E45" t="n">
-        <v>1111.90611839092</v>
+        <v>1170</v>
       </c>
       <c r="F45" t="n">
-        <v>28.4</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-01-18</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>47483000000</v>
+        <v>22286000000</v>
       </c>
       <c r="J45" t="n">
-        <v>44109000000</v>
+        <v>2059000000</v>
       </c>
       <c r="K45" t="n">
-        <v>9428000000</v>
+        <v>2199000000</v>
       </c>
       <c r="L45" t="n">
-        <v>228273000000</v>
+        <v>67014000000</v>
       </c>
       <c r="M45" t="n">
-        <v>101020000000</v>
+        <v>26544000000</v>
       </c>
       <c r="N45" t="n">
-        <v>220009719468</v>
+        <v>35370048065</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>栄研化学株式会社</t>
+          <t>株式会社スズケン</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>4549</t>
+          <t>9987</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>24.2</v>
+        <v>69</v>
       </c>
       <c r="D46" t="n">
-        <v>2450</v>
+        <v>5855</v>
       </c>
       <c r="E46" t="n">
-        <v>1678.083113259255</v>
+        <v>4137.137750115735</v>
       </c>
       <c r="F46" t="n">
-        <v>46</v>
+        <v>41.5</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>6968000000</v>
+        <v>168818000000</v>
       </c>
       <c r="J46" t="n">
-        <v>11989000000</v>
+        <v>54931000000</v>
       </c>
       <c r="K46" t="n">
-        <v>597000000</v>
+        <v>60282000000</v>
       </c>
       <c r="L46" t="n">
-        <v>41672000000</v>
+        <v>417912000000</v>
       </c>
       <c r="M46" t="n">
-        <v>19554000000</v>
+        <v>284031000000</v>
       </c>
       <c r="N46" t="n">
-        <v>80781814050</v>
+        <v>411669318295</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>花王株式会社</t>
+          <t>アルプスアルパイン株式会社</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>4452</t>
+          <t>6770</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>6.7</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>6546</v>
+        <v>1910.5</v>
       </c>
       <c r="E47" t="n">
-        <v>6116.356643776557</v>
+        <v>1257.709264012363</v>
       </c>
       <c r="F47" t="n">
-        <v>7</v>
+        <v>51.9</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2023-05-08</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>118328000000</v>
+        <v>151748000000</v>
       </c>
       <c r="J47" t="n">
-        <v>63976000000</v>
+        <v>37620000000</v>
       </c>
       <c r="K47" t="n">
-        <v>19009000000</v>
+        <v>71804000000</v>
       </c>
       <c r="L47" t="n">
-        <v>805867000000</v>
+        <v>378379000000</v>
       </c>
       <c r="M47" t="n">
-        <v>201313000000</v>
+        <v>261172000000</v>
       </c>
       <c r="N47" t="n">
-        <v>3025762024734</v>
+        <v>386599021166</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>サンケン電気株式会社</t>
+          <t>アルプスアルパイン株式会社</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>6707</t>
+          <t>6770</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>58.9</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>7726</v>
+        <v>1910.5</v>
       </c>
       <c r="E48" t="n">
-        <v>5478.947585152067</v>
+        <v>1217.254500469243</v>
       </c>
       <c r="F48" t="n">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>59812000000</v>
+        <v>151748000000</v>
       </c>
       <c r="J48" t="n">
-        <v>29348000000</v>
+        <v>37620000000</v>
       </c>
       <c r="K48" t="n">
-        <v>3029000000</v>
+        <v>71804000000</v>
       </c>
       <c r="L48" t="n">
-        <v>113250000000</v>
+        <v>378379000000</v>
       </c>
       <c r="M48" t="n">
-        <v>92189000000</v>
+        <v>261172000000</v>
       </c>
       <c r="N48" t="n">
-        <v>156611428200</v>
+        <v>386599021166</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>スタンレー電気株式会社</t>
+          <t>小林製薬株式会社</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>6923</t>
+          <t>4967</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>39.3</v>
+        <v>19.9</v>
       </c>
       <c r="D49" t="n">
-        <v>3073</v>
+        <v>5423</v>
       </c>
       <c r="E49" t="n">
-        <v>2560</v>
+        <v>5066.092575838703</v>
       </c>
       <c r="F49" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2024-07-22</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>101399000000</v>
+        <v>61157000000</v>
       </c>
       <c r="J49" t="n">
-        <v>74909000000</v>
+        <v>10611000000</v>
       </c>
       <c r="K49" t="n">
-        <v>3998000000</v>
+        <v>8300000000</v>
       </c>
       <c r="L49" t="n">
-        <v>444651000000</v>
+        <v>182583000000</v>
       </c>
       <c r="M49" t="n">
-        <v>180306000000</v>
+        <v>80068000000</v>
       </c>
       <c r="N49" t="n">
-        <v>458420822664</v>
+        <v>403139415437</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>株式会社電通グループ</t>
+          <t>小林製薬株式会社</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>4324</t>
+          <t>4967</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>10.5</v>
+        <v>19.9</v>
       </c>
       <c r="D50" t="n">
-        <v>3326</v>
+        <v>5423</v>
       </c>
       <c r="E50" t="n">
-        <v>4156.179843576074</v>
+        <v>2148.936934940886</v>
       </c>
       <c r="F50" t="n">
-        <v>-20</v>
+        <v>152.4</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2023-03-10</t>
+          <t>2024-07-22</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>86652000000</v>
+        <v>61157000000</v>
       </c>
       <c r="J50" t="n">
-        <v>3784000000</v>
+        <v>10611000000</v>
       </c>
       <c r="K50" t="n">
-        <v>487000000</v>
+        <v>8300000000</v>
       </c>
       <c r="L50" t="n">
-        <v>616425000000</v>
+        <v>182583000000</v>
       </c>
       <c r="M50" t="n">
-        <v>90923000000</v>
+        <v>80068000000</v>
       </c>
       <c r="N50" t="n">
-        <v>863387775550</v>
+        <v>403139415437</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>科研製薬株式会社</t>
+          <t>株式会社パソナグループ</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>4521</t>
+          <t>2168</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>73.59999999999999</v>
+        <v>90.5</v>
       </c>
       <c r="D51" t="n">
-        <v>3846</v>
+        <v>2186</v>
       </c>
       <c r="E51" t="n">
-        <v>3530</v>
+        <v>2122.579027791042</v>
       </c>
       <c r="F51" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2024-05-29</t>
+          <t>2024-07-25</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>77305000000</v>
+        <v>52298000000</v>
       </c>
       <c r="J51" t="n">
-        <v>15734000000</v>
+        <v>8021000000</v>
       </c>
       <c r="K51" t="n">
-        <v>14699000000</v>
+        <v>14500000000</v>
       </c>
       <c r="L51" t="n">
-        <v>136257000000</v>
+        <v>49795000000</v>
       </c>
       <c r="M51" t="n">
-        <v>107738000000</v>
+        <v>74819000000</v>
       </c>
       <c r="N51" t="n">
-        <v>146410874100</v>
+        <v>82683906684</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>株式会社ＡＣＳＬ</t>
+          <t>ニッタ株式会社</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>6232</t>
+          <t>5186</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>13.1</v>
+        <v>40.8</v>
       </c>
       <c r="D52" t="n">
-        <v>1028</v>
+        <v>4065</v>
       </c>
       <c r="E52" t="n">
-        <v>913.2768512341561</v>
+        <v>3096.322467304314</v>
       </c>
       <c r="F52" t="n">
-        <v>12.6</v>
+        <v>31.3</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2023-11-29</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>1891731000</v>
+        <v>27527000000</v>
       </c>
       <c r="J52" t="n">
-        <v>68181000</v>
+        <v>13414000000</v>
       </c>
       <c r="K52" t="n">
-        <v>241987000</v>
+        <v>5499000000</v>
       </c>
       <c r="L52" t="n">
-        <v>3572642000</v>
+        <v>108639000000</v>
       </c>
       <c r="M52" t="n">
-        <v>2201899000</v>
+        <v>46440000000</v>
       </c>
       <c r="N52" t="n">
-        <v>16855088000</v>
+        <v>113696578470</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>イリソ電子工業株式会社</t>
+          <t>株式会社フェローテックホールディングス</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>6908</t>
+          <t>6890</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>31.5</v>
+        <v>54.1</v>
       </c>
       <c r="D53" t="n">
-        <v>3030</v>
+        <v>4155</v>
       </c>
       <c r="E53" t="n">
-        <v>2480</v>
+        <v>2387</v>
       </c>
       <c r="F53" t="n">
-        <v>22.2</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -3187,154 +3190,154 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>14260000000</v>
+        <v>30202000000</v>
       </c>
       <c r="J53" t="n">
-        <v>5778000000</v>
+        <v>66583000000</v>
       </c>
       <c r="K53" t="n">
-        <v>239000000</v>
+        <v>8420000000</v>
       </c>
       <c r="L53" t="n">
-        <v>54731000000</v>
+        <v>78239000000</v>
       </c>
       <c r="M53" t="n">
-        <v>20277000000</v>
+        <v>105205000000</v>
       </c>
       <c r="N53" t="n">
-        <v>64319931000</v>
+        <v>194539289685</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>イリソ電子工業株式会社</t>
+          <t>株式会社ワコールホールディングス</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>6908</t>
+          <t>3591</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>31.5</v>
+        <v>10.2</v>
       </c>
       <c r="D54" t="n">
-        <v>3030</v>
+        <v>5616</v>
       </c>
       <c r="E54" t="n">
-        <v>2504.338645418327</v>
+        <v>2420.370957920882</v>
       </c>
       <c r="F54" t="n">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-06-04</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>14260000000</v>
+        <v>12443000000</v>
       </c>
       <c r="J54" t="n">
-        <v>5778000000</v>
+        <v>16412000000</v>
       </c>
       <c r="K54" t="n">
-        <v>239000000</v>
+        <v>76000000</v>
       </c>
       <c r="L54" t="n">
-        <v>54731000000</v>
+        <v>140106000000</v>
       </c>
       <c r="M54" t="n">
-        <v>20277000000</v>
+        <v>28931000000</v>
       </c>
       <c r="N54" t="n">
-        <v>64319931000</v>
+        <v>285011275536</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>イリソ電子工業株式会社</t>
+          <t>ガンホー・オンライン・エンターテイメント株式会社</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>6908</t>
+          <t>3765</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>31.5</v>
+        <v>65.3</v>
       </c>
       <c r="D55" t="n">
-        <v>3030</v>
+        <v>2846</v>
       </c>
       <c r="E55" t="n">
-        <v>2880</v>
+        <v>2939.562915943684</v>
       </c>
       <c r="F55" t="n">
-        <v>5.2</v>
+        <v>-3.2</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2024-10-08</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>14260000000</v>
+        <v>95979000000</v>
       </c>
       <c r="J55" t="n">
-        <v>5778000000</v>
+        <v>1240000000</v>
       </c>
       <c r="K55" t="n">
-        <v>239000000</v>
+        <v>3835000000</v>
       </c>
       <c r="L55" t="n">
-        <v>54731000000</v>
+        <v>104727000000</v>
       </c>
       <c r="M55" t="n">
-        <v>20277000000</v>
+        <v>101054000000</v>
       </c>
       <c r="N55" t="n">
-        <v>64319931000</v>
+        <v>154643284144</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>株式会社あおぞら銀行</t>
+          <t>新光商事株式会社</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>8304</t>
+          <t>8141</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>263.7</v>
+        <v>58.8</v>
       </c>
       <c r="D56" t="n">
-        <v>2387</v>
+        <v>972</v>
       </c>
       <c r="E56" t="n">
-        <v>2190</v>
+        <v>930</v>
       </c>
       <c r="F56" t="n">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3343,146 +3346,154 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2024-02-20</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>847732000000</v>
+        <v>17596000000</v>
       </c>
       <c r="J56" t="n">
-        <v>23159000000</v>
+        <v>174000000</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>2995000000</v>
       </c>
       <c r="L56" t="n">
-        <v>490006000000</v>
+        <v>50340000000</v>
       </c>
       <c r="M56" t="n">
-        <v>870891000000</v>
+        <v>20765000000</v>
       </c>
       <c r="N56" t="n">
-        <v>330315661830</v>
+        <v>35293920696</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>株式会社東北新社</t>
+          <t>ジェイドグループ株式会社</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2329</t>
+          <t>3558</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D57" t="n">
-        <v>660</v>
-      </c>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
+        <v>1428</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1267.324164058639</v>
+      </c>
+      <c r="F57" t="n">
+        <v>12.7</v>
+      </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2023-03-13</t>
+          <t>2023-03-22</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>30866000000</v>
+        <v>2776277000</v>
       </c>
       <c r="J57" t="n">
-        <v>4464000000</v>
+        <v>280430000</v>
       </c>
       <c r="K57" t="n">
-        <v>73000000</v>
+        <v>23536000</v>
       </c>
       <c r="L57" t="n">
-        <v>72266000000</v>
+        <v>4370371000</v>
       </c>
       <c r="M57" t="n">
-        <v>35403000000</v>
+        <v>3080243000</v>
       </c>
       <c r="N57" t="n">
-        <v>90851665740</v>
+        <v>13995736608</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>株式会社東北新社</t>
+          <t>愛知製鋼株式会社</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2329</t>
+          <t>5482</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>39</v>
+        <v>54.3</v>
       </c>
       <c r="D58" t="n">
-        <v>660</v>
-      </c>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
+        <v>2788</v>
+      </c>
+      <c r="E58" t="n">
+        <v>3155.301177013616</v>
+      </c>
+      <c r="F58" t="n">
+        <v>-11.6</v>
+      </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2023-03-13</t>
+          <t>2024-09-13</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>30866000000</v>
+        <v>54163000000</v>
       </c>
       <c r="J58" t="n">
-        <v>4464000000</v>
+        <v>11000000000</v>
       </c>
       <c r="K58" t="n">
-        <v>73000000</v>
+        <v>33479000000</v>
       </c>
       <c r="L58" t="n">
-        <v>72266000000</v>
+        <v>179716000000</v>
       </c>
       <c r="M58" t="n">
-        <v>35403000000</v>
+        <v>98642000000</v>
       </c>
       <c r="N58" t="n">
-        <v>90851665740</v>
+        <v>181580245844</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>株式会社トプコン</t>
+          <t>カシオ計算機株式会社</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>7732</t>
+          <t>6952</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>10.8</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>3277</v>
+        <v>1250</v>
       </c>
       <c r="E59" t="n">
-        <v>2085.872134468915</v>
+        <v>1188.162962482466</v>
       </c>
       <c r="F59" t="n">
-        <v>57.1</v>
+        <v>5.2</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3491,50 +3502,50 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>20446000000</v>
+        <v>137053000000</v>
       </c>
       <c r="J59" t="n">
-        <v>10856000000</v>
+        <v>12759000000</v>
       </c>
       <c r="K59" t="n">
-        <v>6017000000</v>
+        <v>45698000000</v>
       </c>
       <c r="L59" t="n">
-        <v>70687000000</v>
+        <v>211895000000</v>
       </c>
       <c r="M59" t="n">
-        <v>37319000000</v>
+        <v>195510000000</v>
       </c>
       <c r="N59" t="n">
-        <v>345622856776</v>
+        <v>285057971250</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>月島ホールディングス株式会社</t>
+          <t>株式会社エクセディ</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>6332</t>
+          <t>7278</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>64.90000000000001</v>
+        <v>26.8</v>
       </c>
       <c r="D60" t="n">
-        <v>3050</v>
+        <v>5390</v>
       </c>
       <c r="E60" t="n">
-        <v>1410</v>
+        <v>2617.980935875217</v>
       </c>
       <c r="F60" t="n">
-        <v>116.3</v>
+        <v>105.9</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3543,154 +3554,154 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2024-06-10</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>33870000000</v>
+        <v>43070000000</v>
       </c>
       <c r="J60" t="n">
-        <v>23318000000</v>
+        <v>6829000000</v>
       </c>
       <c r="K60" t="n">
-        <v>25387000000</v>
+        <v>3253000000</v>
       </c>
       <c r="L60" t="n">
-        <v>71784000000</v>
+        <v>113343000000</v>
       </c>
       <c r="M60" t="n">
-        <v>82575000000</v>
+        <v>53152000000</v>
       </c>
       <c r="N60" t="n">
-        <v>127228447250</v>
+        <v>198486157100</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>東京都競馬株式会社</t>
+          <t>マクニカホールディングス株式会社</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>9672</t>
+          <t>3132</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>35.6</v>
+        <v>9.5</v>
       </c>
       <c r="D61" t="n">
-        <v>5340</v>
+        <v>2127</v>
       </c>
       <c r="E61" t="n">
-        <v>3891.73752540545</v>
+        <v>1141.512891683109</v>
       </c>
       <c r="F61" t="n">
-        <v>37.2</v>
+        <v>86.3</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2025-03-03</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>15161482000</v>
+        <v>25438000000</v>
       </c>
       <c r="J61" t="n">
-        <v>32537201000</v>
+        <v>2290000000</v>
       </c>
       <c r="K61" t="n">
-        <v>3000000000</v>
+        <v>8223000000</v>
       </c>
       <c r="L61" t="n">
-        <v>70534868000</v>
+        <v>146010000000</v>
       </c>
       <c r="M61" t="n">
-        <v>50698683000</v>
+        <v>35951000000</v>
       </c>
       <c r="N61" t="n">
-        <v>142534212000</v>
+        <v>379487983947</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ホシデン株式会社</t>
+          <t>マクニカホールディングス株式会社</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>6804</t>
+          <t>3132</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>75.90000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="D62" t="n">
-        <v>2359</v>
+        <v>2127</v>
       </c>
       <c r="E62" t="n">
-        <v>1303.446424801713</v>
+        <v>1842.11261309207</v>
       </c>
       <c r="F62" t="n">
-        <v>81</v>
+        <v>15.5</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2023-02-13</t>
+          <t>2022-12-15</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>69522000000</v>
+        <v>25438000000</v>
       </c>
       <c r="J62" t="n">
-        <v>6944000000</v>
+        <v>2290000000</v>
       </c>
       <c r="K62" t="n">
-        <v>14624000000</v>
+        <v>8223000000</v>
       </c>
       <c r="L62" t="n">
-        <v>109250000000</v>
+        <v>146010000000</v>
       </c>
       <c r="M62" t="n">
-        <v>91090000000</v>
+        <v>35951000000</v>
       </c>
       <c r="N62" t="n">
-        <v>120044282456</v>
+        <v>379487983947</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>東ソー株式会社</t>
+          <t>日本化薬株式会社</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>4042</t>
+          <t>4272</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>43.8</v>
+        <v>45.6</v>
       </c>
       <c r="D63" t="n">
-        <v>2329.5</v>
+        <v>1428</v>
       </c>
       <c r="E63" t="n">
-        <v>2032.365850102071</v>
+        <v>1111.90611839092</v>
       </c>
       <c r="F63" t="n">
-        <v>14.6</v>
+        <v>28.4</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3699,254 +3710,258 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2024-06-04</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>148397000000</v>
+        <v>47483000000</v>
       </c>
       <c r="J63" t="n">
-        <v>104609000000</v>
+        <v>44109000000</v>
       </c>
       <c r="K63" t="n">
-        <v>70724000000</v>
+        <v>9428000000</v>
       </c>
       <c r="L63" t="n">
-        <v>661679000000</v>
+        <v>228273000000</v>
       </c>
       <c r="M63" t="n">
-        <v>323730000000</v>
+        <v>101020000000</v>
       </c>
       <c r="N63" t="n">
-        <v>738643124670</v>
+        <v>221319301140</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>エン・ジャパン株式会社</t>
+          <t>栄研化学株式会社</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>4849</t>
+          <t>4549</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>44.2</v>
+        <v>24.2</v>
       </c>
       <c r="D64" t="n">
-        <v>1694</v>
+        <v>2450</v>
       </c>
       <c r="E64" t="n">
-        <v>1746.940387696806</v>
+        <v>1678.083113259255</v>
       </c>
       <c r="F64" t="n">
-        <v>-3</v>
+        <v>46</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>26835000000</v>
+        <v>6968000000</v>
       </c>
       <c r="J64" t="n">
-        <v>1019000000</v>
+        <v>11989000000</v>
       </c>
       <c r="K64" t="n">
-        <v>2000000000</v>
+        <v>597000000</v>
       </c>
       <c r="L64" t="n">
-        <v>36856000000</v>
+        <v>41672000000</v>
       </c>
       <c r="M64" t="n">
-        <v>29854000000</v>
+        <v>19554000000</v>
       </c>
       <c r="N64" t="n">
-        <v>67507424600</v>
+        <v>80880730350</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>イワブチ株式会社</t>
+          <t>花王株式会社</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>5983</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>76.8</v>
+        <v>6.5</v>
       </c>
       <c r="D65" t="n">
-        <v>10820</v>
+        <v>6546</v>
       </c>
       <c r="E65" t="n">
-        <v>7040.15625</v>
+        <v>6116.356643776557</v>
       </c>
       <c r="F65" t="n">
-        <v>53.7</v>
+        <v>7</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>ＳＥＮＪＩＮ　ＣＡＰＩＴＡＬ　ＰＴＹ　ＬＴＤ</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>4688085000</v>
+        <v>118328000000</v>
       </c>
       <c r="J65" t="n">
-        <v>1422820000</v>
+        <v>63976000000</v>
       </c>
       <c r="K65" t="n">
-        <v>2670408000</v>
+        <v>19009000000</v>
       </c>
       <c r="L65" t="n">
-        <v>16426704000</v>
+        <v>805867000000</v>
       </c>
       <c r="M65" t="n">
-        <v>8781313000</v>
+        <v>201313000000</v>
       </c>
       <c r="N65" t="n">
-        <v>11434456980</v>
+        <v>3080305247442</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>イワブチ株式会社</t>
+          <t>サンケン電気株式会社</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>5983</t>
+          <t>6707</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>76.8</v>
+        <v>58.8</v>
       </c>
       <c r="D66" t="n">
-        <v>10820</v>
+        <v>7726</v>
       </c>
       <c r="E66" t="n">
-        <v>7040.15625</v>
+        <v>5478.947585152067</v>
       </c>
       <c r="F66" t="n">
-        <v>53.7</v>
+        <v>41</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>ＳＥＮＪＩＮ　ＣＡＰＩＴＡＬ　ＰＴＹ　ＬＴＤ</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>4688085000</v>
+        <v>59812000000</v>
       </c>
       <c r="J66" t="n">
-        <v>1422820000</v>
+        <v>29348000000</v>
       </c>
       <c r="K66" t="n">
-        <v>2670408000</v>
+        <v>3029000000</v>
       </c>
       <c r="L66" t="n">
-        <v>16426704000</v>
+        <v>113250000000</v>
       </c>
       <c r="M66" t="n">
-        <v>8781313000</v>
+        <v>92189000000</v>
       </c>
       <c r="N66" t="n">
-        <v>11434456980</v>
+        <v>156753277560</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>株式会社おきなわフィナンシャルグループ</t>
+          <t>京阪神ビルディング株式会社</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>7350</t>
+          <t>8818</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>768.6</v>
+        <v>114.1</v>
       </c>
       <c r="D67" t="n">
-        <v>3715</v>
-      </c>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
+        <v>1731</v>
+      </c>
+      <c r="E67" t="n">
+        <v>1341.977644710579</v>
+      </c>
+      <c r="F67" t="n">
+        <v>29</v>
+      </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2023-05-16</t>
+          <t>2024-02-07</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>590636000000</v>
+        <v>21550649000</v>
       </c>
       <c r="J67" t="n">
-        <v>18477000000</v>
+        <v>56970145000</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>17382863000</v>
       </c>
       <c r="L67" t="n">
-        <v>159392000000</v>
+        <v>70539690000</v>
       </c>
       <c r="M67" t="n">
-        <v>609113000000</v>
+        <v>95903657000</v>
       </c>
       <c r="N67" t="n">
-        <v>79250609000</v>
+        <v>84074306490</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>アークランズ株式会社</t>
+          <t>スタンレー電気株式会社</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>9842</t>
+          <t>6923</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>112.8</v>
+        <v>39.3</v>
       </c>
       <c r="D68" t="n">
-        <v>1899</v>
+        <v>3073</v>
       </c>
       <c r="E68" t="n">
-        <v>1469.167707232735</v>
+        <v>2560</v>
       </c>
       <c r="F68" t="n">
-        <v>29.3</v>
+        <v>20</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3955,102 +3970,102 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2023-03-30</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>25605000000</v>
+        <v>101399000000</v>
       </c>
       <c r="J68" t="n">
-        <v>95781000000</v>
+        <v>74909000000</v>
       </c>
       <c r="K68" t="n">
-        <v>12051000000</v>
+        <v>3998000000</v>
       </c>
       <c r="L68" t="n">
-        <v>91048000000</v>
+        <v>444651000000</v>
       </c>
       <c r="M68" t="n">
-        <v>133437000000</v>
+        <v>180306000000</v>
       </c>
       <c r="N68" t="n">
-        <v>118305421200</v>
+        <v>458420822664</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>アークランズ株式会社</t>
+          <t>株式会社電通グループ</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>9842</t>
+          <t>4324</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>112.8</v>
+        <v>10.5</v>
       </c>
       <c r="D69" t="n">
-        <v>1899</v>
+        <v>3326</v>
       </c>
       <c r="E69" t="n">
-        <v>1489.94784546053</v>
+        <v>4156.179843576074</v>
       </c>
       <c r="F69" t="n">
-        <v>27.5</v>
+        <v>-20</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2022-09-27</t>
+          <t>2023-03-10</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>25605000000</v>
+        <v>86652000000</v>
       </c>
       <c r="J69" t="n">
-        <v>95781000000</v>
+        <v>3784000000</v>
       </c>
       <c r="K69" t="n">
-        <v>12051000000</v>
+        <v>487000000</v>
       </c>
       <c r="L69" t="n">
-        <v>91048000000</v>
+        <v>616425000000</v>
       </c>
       <c r="M69" t="n">
-        <v>133437000000</v>
+        <v>90923000000</v>
       </c>
       <c r="N69" t="n">
-        <v>118305421200</v>
+        <v>863387775550</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>三井住建道路株式会社</t>
+          <t>科研製薬株式会社</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1776</t>
+          <t>4521</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>99.8</v>
+        <v>73.3</v>
       </c>
       <c r="D70" t="n">
-        <v>1466</v>
+        <v>3846</v>
       </c>
       <c r="E70" t="n">
-        <v>1212.640316205534</v>
+        <v>3530</v>
       </c>
       <c r="F70" t="n">
-        <v>20.9</v>
+        <v>9</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -4059,102 +4074,102 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2024-05-29</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>10677000000</v>
+        <v>77305000000</v>
       </c>
       <c r="J70" t="n">
-        <v>2762000000</v>
+        <v>15734000000</v>
       </c>
       <c r="K70" t="n">
-        <v>7000000</v>
+        <v>14699000000</v>
       </c>
       <c r="L70" t="n">
-        <v>12543000000</v>
+        <v>136257000000</v>
       </c>
       <c r="M70" t="n">
-        <v>13446000000</v>
+        <v>107738000000</v>
       </c>
       <c r="N70" t="n">
-        <v>13473492900</v>
+        <v>146943829704</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>参天製薬株式会社</t>
+          <t>リンナイ株式会社</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>4536</t>
+          <t>5947</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>10.2</v>
+        <v>46.1</v>
       </c>
       <c r="D71" t="n">
-        <v>1646</v>
+        <v>3612</v>
       </c>
       <c r="E71" t="n">
-        <v>1344.518957928979</v>
+        <v>2844.704547285864</v>
       </c>
       <c r="F71" t="n">
-        <v>22.4</v>
+        <v>27</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2024-04-19</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>34203000000</v>
+        <v>166524000000</v>
       </c>
       <c r="J71" t="n">
-        <v>6796000000</v>
+        <v>60632000000</v>
       </c>
       <c r="K71" t="n">
-        <v>14270000000</v>
+        <v>8068000000</v>
       </c>
       <c r="L71" t="n">
-        <v>294231000000</v>
+        <v>371318000000</v>
       </c>
       <c r="M71" t="n">
-        <v>55269000000</v>
+        <v>235224000000</v>
       </c>
       <c r="N71" t="n">
-        <v>539248971774</v>
+        <v>509811867936</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>コクヨ株式会社</t>
+          <t>株式会社ＡＣＳＬ</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>7984</t>
+          <t>6232</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>35.3</v>
+        <v>13</v>
       </c>
       <c r="D72" t="n">
-        <v>915.7000122070312</v>
+        <v>1028</v>
       </c>
       <c r="E72" t="n">
-        <v>2157.626835069302</v>
+        <v>913.2768512341561</v>
       </c>
       <c r="F72" t="n">
-        <v>-57.6</v>
+        <v>12.6</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -4163,154 +4178,154 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2023-11-29</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>90577000000</v>
+        <v>1891731000</v>
       </c>
       <c r="J72" t="n">
-        <v>21360000000</v>
+        <v>68181000</v>
       </c>
       <c r="K72" t="n">
-        <v>30086000000</v>
+        <v>241987000</v>
       </c>
       <c r="L72" t="n">
-        <v>226335000000</v>
+        <v>3572642000</v>
       </c>
       <c r="M72" t="n">
-        <v>142023000000</v>
+        <v>2201899000</v>
       </c>
       <c r="N72" t="n">
-        <v>402414924723</v>
+        <v>16904315836</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ヤマハ発動機株式会社</t>
+          <t>イリソ電子工業株式会社</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>7272</t>
+          <t>6908</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>33.8</v>
+        <v>31.5</v>
       </c>
       <c r="D73" t="n">
-        <v>1113</v>
+        <v>3030</v>
       </c>
       <c r="E73" t="n">
-        <v>2968.770104870396</v>
+        <v>2480</v>
       </c>
       <c r="F73" t="n">
-        <v>-62.5</v>
+        <v>22.2</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2023-01-16</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>267180000000</v>
+        <v>14260000000</v>
       </c>
       <c r="J73" t="n">
-        <v>48711000000</v>
+        <v>5778000000</v>
       </c>
       <c r="K73" t="n">
-        <v>49039000000</v>
+        <v>239000000</v>
       </c>
       <c r="L73" t="n">
-        <v>749158000000</v>
+        <v>54731000000</v>
       </c>
       <c r="M73" t="n">
-        <v>364930000000</v>
+        <v>20277000000</v>
       </c>
       <c r="N73" t="n">
-        <v>1079137130820</v>
+        <v>64319931000</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>相模ゴム工業株式会社</t>
+          <t>イリソ電子工業株式会社</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>5194</t>
+          <t>6908</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>44.9</v>
+        <v>31.5</v>
       </c>
       <c r="D74" t="n">
-        <v>955</v>
+        <v>3030</v>
       </c>
       <c r="E74" t="n">
-        <v>933.1435874692879</v>
+        <v>2504.338645418327</v>
       </c>
       <c r="F74" t="n">
-        <v>2.3</v>
+        <v>21</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2023-08-28</t>
+          <t>2024-10-22</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>1474580000</v>
+        <v>14260000000</v>
       </c>
       <c r="J74" t="n">
-        <v>2373852000</v>
+        <v>5778000000</v>
       </c>
       <c r="K74" t="n">
-        <v>804741000</v>
+        <v>239000000</v>
       </c>
       <c r="L74" t="n">
-        <v>7569765000</v>
+        <v>54731000000</v>
       </c>
       <c r="M74" t="n">
-        <v>4653173000</v>
+        <v>20277000000</v>
       </c>
       <c r="N74" t="n">
-        <v>10367862000</v>
+        <v>64319931000</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>日本特殊塗料株式会社</t>
+          <t>イリソ電子工業株式会社</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>4619</t>
+          <t>6908</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>83.09999999999999</v>
+        <v>31.5</v>
       </c>
       <c r="D75" t="n">
-        <v>2185</v>
+        <v>3030</v>
       </c>
       <c r="E75" t="n">
-        <v>1190</v>
+        <v>2880</v>
       </c>
       <c r="F75" t="n">
-        <v>83.59999999999999</v>
+        <v>5.2</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -4319,518 +4334,510 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>6518000000</v>
+        <v>14260000000</v>
       </c>
       <c r="J75" t="n">
-        <v>9792000000</v>
+        <v>5778000000</v>
       </c>
       <c r="K75" t="n">
-        <v>23167000000</v>
+        <v>239000000</v>
       </c>
       <c r="L75" t="n">
-        <v>47154000000</v>
+        <v>54731000000</v>
       </c>
       <c r="M75" t="n">
-        <v>39477000000</v>
+        <v>20277000000</v>
       </c>
       <c r="N75" t="n">
-        <v>47527464500</v>
+        <v>64319931000</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>株式会社西武ホールディングス</t>
+          <t>株式会社あおぞら銀行</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>9024</t>
+          <t>8304</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>40.1</v>
+        <v>263.7</v>
       </c>
       <c r="D76" t="n">
-        <v>5541</v>
+        <v>2387</v>
       </c>
       <c r="E76" t="n">
-        <v>1716.713876475349</v>
+        <v>2190</v>
       </c>
       <c r="F76" t="n">
-        <v>222.8</v>
+        <v>9</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2024-05-07</t>
+          <t>2024-02-20</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>28538000000</v>
+        <v>847732000000</v>
       </c>
       <c r="J76" t="n">
-        <v>485513000000</v>
+        <v>23159000000</v>
       </c>
       <c r="K76" t="n">
-        <v>49954000000</v>
+        <v>0</v>
       </c>
       <c r="L76" t="n">
-        <v>385687000000</v>
+        <v>490006000000</v>
       </c>
       <c r="M76" t="n">
-        <v>564005000000</v>
+        <v>870891000000</v>
       </c>
       <c r="N76" t="n">
-        <v>1408090423116</v>
+        <v>330315661830</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>株式会社ＴＳＩホールディングス</t>
+          <t>株式会社東北新社</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>3608</t>
+          <t>2329</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>125.4</v>
+        <v>38.7</v>
       </c>
       <c r="D77" t="n">
-        <v>1083</v>
-      </c>
-      <c r="E77" t="n">
-        <v>438.851170934559</v>
-      </c>
-      <c r="F77" t="n">
-        <v>146.8</v>
-      </c>
+        <v>660</v>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2023-03-13</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>49761000000</v>
+        <v>30866000000</v>
       </c>
       <c r="J77" t="n">
-        <v>4425000000</v>
+        <v>4464000000</v>
       </c>
       <c r="K77" t="n">
-        <v>25137000000</v>
+        <v>73000000</v>
       </c>
       <c r="L77" t="n">
-        <v>97430000000</v>
+        <v>72266000000</v>
       </c>
       <c r="M77" t="n">
-        <v>79323000000</v>
+        <v>35403000000</v>
       </c>
       <c r="N77" t="n">
-        <v>63265235199</v>
+        <v>91402281960</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>コニシ株式会社</t>
+          <t>株式会社東北新社</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>4956</t>
+          <t>2329</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>55.8</v>
+        <v>38.7</v>
       </c>
       <c r="D78" t="n">
-        <v>1303</v>
-      </c>
-      <c r="E78" t="n">
-        <v>1605.189780306002</v>
-      </c>
-      <c r="F78" t="n">
-        <v>-18.8</v>
-      </c>
+        <v>660</v>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2023-01-11</t>
+          <t>2023-03-13</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>23721000000</v>
+        <v>30866000000</v>
       </c>
       <c r="J78" t="n">
-        <v>13167000000</v>
+        <v>4464000000</v>
       </c>
       <c r="K78" t="n">
-        <v>11402000000</v>
+        <v>73000000</v>
       </c>
       <c r="L78" t="n">
-        <v>68785000000</v>
+        <v>72266000000</v>
       </c>
       <c r="M78" t="n">
-        <v>48290000000</v>
+        <v>35403000000</v>
       </c>
       <c r="N78" t="n">
-        <v>86464995200</v>
+        <v>91402281960</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>倉敷紡績株式会社</t>
+          <t>株式会社トプコン</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>3106</t>
+          <t>7732</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>82.8</v>
+        <v>10.8</v>
       </c>
       <c r="D79" t="n">
-        <v>7050</v>
+        <v>3277</v>
       </c>
       <c r="E79" t="n">
-        <v>4549.503641591014</v>
+        <v>2085.872134468915</v>
       </c>
       <c r="F79" t="n">
-        <v>55</v>
+        <v>57.1</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>22059000000</v>
+        <v>20446000000</v>
       </c>
       <c r="J79" t="n">
-        <v>21438000000</v>
+        <v>10856000000</v>
       </c>
       <c r="K79" t="n">
-        <v>53409000000</v>
+        <v>6017000000</v>
       </c>
       <c r="L79" t="n">
-        <v>95004000000</v>
+        <v>70687000000</v>
       </c>
       <c r="M79" t="n">
-        <v>96906000000</v>
+        <v>37319000000</v>
       </c>
       <c r="N79" t="n">
-        <v>117095565000</v>
+        <v>346783019640</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>日本ゼオン株式会社</t>
+          <t>月島ホールディングス株式会社</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>4205</t>
+          <t>6332</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>54.2</v>
+        <v>63.2</v>
       </c>
       <c r="D80" t="n">
-        <v>1695</v>
+        <v>3050</v>
       </c>
       <c r="E80" t="n">
-        <v>1721.078563209627</v>
+        <v>1410</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.5</v>
+        <v>116.3</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>48152000000</v>
+        <v>33870000000</v>
       </c>
       <c r="J80" t="n">
-        <v>45247000000</v>
+        <v>23318000000</v>
       </c>
       <c r="K80" t="n">
-        <v>85316000000</v>
+        <v>25387000000</v>
       </c>
       <c r="L80" t="n">
-        <v>298246000000</v>
+        <v>71784000000</v>
       </c>
       <c r="M80" t="n">
-        <v>178715000000</v>
+        <v>82575000000</v>
       </c>
       <c r="N80" t="n">
-        <v>329605893030</v>
+        <v>130565586450</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>大東建託株式会社</t>
+          <t>東京都競馬株式会社</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1878</t>
+          <t>9672</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>24.4</v>
+        <v>35.6</v>
       </c>
       <c r="D81" t="n">
-        <v>16440</v>
+        <v>5340</v>
       </c>
       <c r="E81" t="n">
-        <v>13739.64575539568</v>
+        <v>3891.73752540545</v>
       </c>
       <c r="F81" t="n">
-        <v>19.7</v>
+        <v>37.2</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2023-03-28</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>198760000000</v>
+        <v>15161482000</v>
       </c>
       <c r="J81" t="n">
-        <v>62873000000</v>
+        <v>32537201000</v>
       </c>
       <c r="K81" t="n">
-        <v>3798000000</v>
+        <v>3000000000</v>
       </c>
       <c r="L81" t="n">
-        <v>308206000000</v>
+        <v>70534868000</v>
       </c>
       <c r="M81" t="n">
-        <v>265431000000</v>
+        <v>50698683000</v>
       </c>
       <c r="N81" t="n">
-        <v>1089503460000</v>
+        <v>142534212000</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>大東建託株式会社</t>
+          <t>ホシデン株式会社</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>1878</t>
+          <t>6804</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>24.4</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>16440</v>
+        <v>2359</v>
       </c>
       <c r="E82" t="n">
-        <v>12975.86280814577</v>
+        <v>1303.446424801713</v>
       </c>
       <c r="F82" t="n">
-        <v>26.7</v>
+        <v>81</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2023-06-02</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>198760000000</v>
+        <v>69522000000</v>
       </c>
       <c r="J82" t="n">
-        <v>62873000000</v>
+        <v>6944000000</v>
       </c>
       <c r="K82" t="n">
-        <v>3798000000</v>
+        <v>14624000000</v>
       </c>
       <c r="L82" t="n">
-        <v>308206000000</v>
+        <v>109250000000</v>
       </c>
       <c r="M82" t="n">
-        <v>265431000000</v>
+        <v>91090000000</v>
       </c>
       <c r="N82" t="n">
-        <v>1089503460000</v>
+        <v>120044282456</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>株式会社ツルハホールディングス</t>
+          <t>大阪製鐵株式会社</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>3391</t>
+          <t>5449</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>41</v>
+        <v>85.2</v>
       </c>
       <c r="D83" t="n">
-        <v>2345</v>
+        <v>2819</v>
       </c>
       <c r="E83" t="n">
-        <v>4544.200649553184</v>
+        <v>1748.071046781136</v>
       </c>
       <c r="F83" t="n">
-        <v>-48.4</v>
+        <v>61.3</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2023-05-08</t>
+          <t>2023-12-19</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>116398000000</v>
+        <v>62621000000</v>
       </c>
       <c r="J83" t="n">
-        <v>83437000000</v>
+        <v>8568000000</v>
       </c>
       <c r="K83" t="n">
-        <v>34181000000</v>
+        <v>669000000</v>
       </c>
       <c r="L83" t="n">
-        <v>276528000000</v>
+        <v>148514000000</v>
       </c>
       <c r="M83" t="n">
-        <v>234016000000</v>
+        <v>71858000000</v>
       </c>
       <c r="N83" t="n">
-        <v>571047517425</v>
+        <v>84341629991</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>株式会社ツルハホールディングス</t>
+          <t>東ソー株式会社</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>3391</t>
+          <t>4042</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>41</v>
+        <v>43.8</v>
       </c>
       <c r="D84" t="n">
-        <v>2345</v>
+        <v>2329.5</v>
       </c>
       <c r="E84" t="n">
-        <v>8262.359904024779</v>
+        <v>2032.365850102071</v>
       </c>
       <c r="F84" t="n">
-        <v>-71.59999999999999</v>
+        <v>14.6</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2022-12-19</t>
+          <t>2024-06-04</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>116398000000</v>
+        <v>148397000000</v>
       </c>
       <c r="J84" t="n">
-        <v>83437000000</v>
+        <v>104609000000</v>
       </c>
       <c r="K84" t="n">
-        <v>34181000000</v>
+        <v>70724000000</v>
       </c>
       <c r="L84" t="n">
-        <v>276528000000</v>
+        <v>661679000000</v>
       </c>
       <c r="M84" t="n">
-        <v>234016000000</v>
+        <v>323730000000</v>
       </c>
       <c r="N84" t="n">
-        <v>571047517425</v>
+        <v>738643124670</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>株式会社アインホールディングス</t>
+          <t>エン・ジャパン株式会社</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>9627</t>
+          <t>4849</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>35</v>
+        <v>44.1</v>
       </c>
       <c r="D85" t="n">
-        <v>6969</v>
+        <v>1694</v>
       </c>
       <c r="E85" t="n">
-        <v>2836.942753814942</v>
+        <v>1746.940387696806</v>
       </c>
       <c r="F85" t="n">
-        <v>145.7</v>
+        <v>-3</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4839,310 +4846,306 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>55009000000</v>
+        <v>26835000000</v>
       </c>
       <c r="J85" t="n">
-        <v>27122000000</v>
+        <v>1019000000</v>
       </c>
       <c r="K85" t="n">
-        <v>3345000000</v>
+        <v>2000000000</v>
       </c>
       <c r="L85" t="n">
-        <v>115837000000</v>
+        <v>36856000000</v>
       </c>
       <c r="M85" t="n">
-        <v>85476000000</v>
+        <v>29854000000</v>
       </c>
       <c r="N85" t="n">
-        <v>244425305025</v>
+        <v>67666787650</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ＤＩＣ株式会社</t>
+          <t>江崎グリコ株式会社</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>4631</t>
+          <t>2206</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>68.90000000000001</v>
+        <v>54</v>
       </c>
       <c r="D86" t="n">
-        <v>3639</v>
+        <v>5200</v>
       </c>
       <c r="E86" t="n">
-        <v>2566.284807227078</v>
+        <v>4154.626869982095</v>
       </c>
       <c r="F86" t="n">
-        <v>41.8</v>
+        <v>25.2</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2023-12-21</t>
+          <t>2024-07-10</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>41354000000</v>
+        <v>92449000000</v>
       </c>
       <c r="J86" t="n">
-        <v>133062000000</v>
+        <v>40203000000</v>
       </c>
       <c r="K86" t="n">
-        <v>63071000000</v>
+        <v>46840000000</v>
       </c>
       <c r="L86" t="n">
-        <v>351364000000</v>
+        <v>222551000000</v>
       </c>
       <c r="M86" t="n">
-        <v>237487000000</v>
+        <v>179492000000</v>
       </c>
       <c r="N86" t="n">
-        <v>344543991606</v>
+        <v>332449494000</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>株式会社熊谷組</t>
+          <t>イワブチ株式会社</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>1861</t>
+          <t>5983</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>65.3</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="D87" t="n">
-        <v>4920</v>
+        <v>10820</v>
       </c>
       <c r="E87" t="n">
-        <v>2776.401128792723</v>
+        <v>7040.15625</v>
       </c>
       <c r="F87" t="n">
-        <v>77.2</v>
+        <v>53.7</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>ＳＥＮＪＩＮ　ＣＡＰＩＴＡＬ　ＰＴＹ　ＬＴＤ</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2023-05-24</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>71335000000</v>
+        <v>4688085000</v>
       </c>
       <c r="J87" t="n">
-        <v>17897000000</v>
+        <v>1422820000</v>
       </c>
       <c r="K87" t="n">
-        <v>48586000000</v>
+        <v>2670408000</v>
       </c>
       <c r="L87" t="n">
-        <v>163835000000</v>
+        <v>16426704000</v>
       </c>
       <c r="M87" t="n">
-        <v>137818000000</v>
+        <v>8781313000</v>
       </c>
       <c r="N87" t="n">
-        <v>211175256000</v>
+        <v>11878304200</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>カルビー株式会社</t>
+          <t>イワブチ株式会社</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2229</t>
+          <t>5983</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>24.1</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>2956</v>
+        <v>10820</v>
       </c>
       <c r="E88" t="n">
-        <v>2919.137515755844</v>
+        <v>7040.15625</v>
       </c>
       <c r="F88" t="n">
-        <v>1.3</v>
+        <v>53.7</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>ＳＥＮＪＩＮ　ＣＡＰＩＴＡＬ　ＰＴＹ　ＬＴＤ</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>47282000000</v>
+        <v>4688085000</v>
       </c>
       <c r="J88" t="n">
-        <v>38670000000</v>
+        <v>1422820000</v>
       </c>
       <c r="K88" t="n">
-        <v>3183000000</v>
+        <v>2670408000</v>
       </c>
       <c r="L88" t="n">
-        <v>182740000000</v>
+        <v>16426704000</v>
       </c>
       <c r="M88" t="n">
-        <v>89135000000</v>
+        <v>8781313000</v>
       </c>
       <c r="N88" t="n">
-        <v>369313724704</v>
+        <v>11878304200</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ブロードメディア株式会社</t>
+          <t>株式会社おきなわフィナンシャルグループ</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>4347</t>
+          <t>7350</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>35.5</v>
+        <v>768.6</v>
       </c>
       <c r="D89" t="n">
-        <v>1721</v>
-      </c>
-      <c r="E89" t="n">
-        <v>1529.631984751819</v>
-      </c>
-      <c r="F89" t="n">
-        <v>12.5</v>
-      </c>
+        <v>3715</v>
+      </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2024-07-03</t>
+          <t>2023-05-16</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>3368262000</v>
+        <v>590636000000</v>
       </c>
       <c r="J89" t="n">
-        <v>826293000</v>
+        <v>18477000000</v>
       </c>
       <c r="K89" t="n">
-        <v>164267000</v>
+        <v>0</v>
       </c>
       <c r="L89" t="n">
-        <v>3706507000</v>
+        <v>159392000000</v>
       </c>
       <c r="M89" t="n">
-        <v>4358822000</v>
+        <v>609113000000</v>
       </c>
       <c r="N89" t="n">
-        <v>12262555250</v>
+        <v>79250609000</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ブロードメディア株式会社</t>
+          <t>アークランズ株式会社</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>4347</t>
+          <t>9842</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>35.5</v>
+        <v>112.8</v>
       </c>
       <c r="D90" t="n">
-        <v>1721</v>
+        <v>1899</v>
       </c>
       <c r="E90" t="n">
-        <v>1449.995380693296</v>
+        <v>1469.167707232735</v>
       </c>
       <c r="F90" t="n">
-        <v>18.7</v>
+        <v>29.3</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2024-05-22</t>
+          <t>2023-03-30</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>3368262000</v>
+        <v>25605000000</v>
       </c>
       <c r="J90" t="n">
-        <v>826293000</v>
+        <v>95781000000</v>
       </c>
       <c r="K90" t="n">
-        <v>164267000</v>
+        <v>12051000000</v>
       </c>
       <c r="L90" t="n">
-        <v>3706507000</v>
+        <v>91048000000</v>
       </c>
       <c r="M90" t="n">
-        <v>4358822000</v>
+        <v>133437000000</v>
       </c>
       <c r="N90" t="n">
-        <v>12262555250</v>
+        <v>118305421200</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>京浜急行電鉄株式会社</t>
+          <t>アークランズ株式会社</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>9006</t>
+          <t>9842</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>109.9</v>
+        <v>112.8</v>
       </c>
       <c r="D91" t="n">
-        <v>1548.5</v>
+        <v>1899</v>
       </c>
       <c r="E91" t="n">
-        <v>1160.8</v>
+        <v>1489.94784546053</v>
       </c>
       <c r="F91" t="n">
-        <v>33.4</v>
+        <v>27.5</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -5151,390 +5154,1690 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2022-09-27</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>57450000000</v>
+        <v>25605000000</v>
       </c>
       <c r="J91" t="n">
-        <v>297923000000</v>
+        <v>95781000000</v>
       </c>
       <c r="K91" t="n">
-        <v>103100000000</v>
+        <v>12051000000</v>
       </c>
       <c r="L91" t="n">
-        <v>249065000000</v>
+        <v>91048000000</v>
       </c>
       <c r="M91" t="n">
-        <v>458473000000</v>
+        <v>133437000000</v>
       </c>
       <c r="N91" t="n">
-        <v>417075916665</v>
+        <v>118305421200</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>日鉄ソリューションズ株式会社</t>
+          <t>三井住建道路株式会社</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2327</t>
+          <t>1776</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>12</v>
+        <v>99.5</v>
       </c>
       <c r="D92" t="n">
-        <v>3720</v>
+        <v>1466</v>
       </c>
       <c r="E92" t="n">
-        <v>2561.705402476645</v>
+        <v>1212.640316205534</v>
       </c>
       <c r="F92" t="n">
-        <v>45.2</v>
+        <v>20.9</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>78579000000</v>
+        <v>10677000000</v>
       </c>
       <c r="J92" t="n">
-        <v>2398000000</v>
+        <v>2762000000</v>
       </c>
       <c r="K92" t="n">
-        <v>1000000000</v>
+        <v>7000000</v>
       </c>
       <c r="L92" t="n">
-        <v>186128000000</v>
+        <v>12543000000</v>
       </c>
       <c r="M92" t="n">
-        <v>81977000000</v>
+        <v>13446000000</v>
       </c>
       <c r="N92" t="n">
-        <v>680664050040</v>
+        <v>13510251384</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ＮＩＴＴＯＫＵ株式会社</t>
+          <t>参天製薬株式会社</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>6145</t>
+          <t>4536</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>39.2</v>
+        <v>10.2</v>
       </c>
       <c r="D93" t="n">
-        <v>2349</v>
+        <v>1646</v>
       </c>
       <c r="E93" t="n">
-        <v>1710</v>
+        <v>1344.518957928979</v>
       </c>
       <c r="F93" t="n">
-        <v>37.4</v>
+        <v>22.4</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2024-04-19</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>10110000000</v>
+        <v>34203000000</v>
       </c>
       <c r="J93" t="n">
-        <v>5132000000</v>
+        <v>6796000000</v>
       </c>
       <c r="K93" t="n">
-        <v>301000000</v>
+        <v>14270000000</v>
       </c>
       <c r="L93" t="n">
-        <v>31726000000</v>
+        <v>294231000000</v>
       </c>
       <c r="M93" t="n">
-        <v>15543000000</v>
+        <v>55269000000</v>
       </c>
       <c r="N93" t="n">
-        <v>39632797800</v>
+        <v>540559418214</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ＮＩＴＴＯＫＵ株式会社</t>
+          <t>コクヨ株式会社</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>6145</t>
+          <t>7984</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>39.2</v>
+        <v>34.9</v>
       </c>
       <c r="D94" t="n">
-        <v>2349</v>
+        <v>915.7000122070312</v>
       </c>
       <c r="E94" t="n">
-        <v>1710</v>
+        <v>2157.626835069302</v>
       </c>
       <c r="F94" t="n">
-        <v>37.4</v>
+        <v>-57.6</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>10110000000</v>
+        <v>90577000000</v>
       </c>
       <c r="J94" t="n">
-        <v>5132000000</v>
+        <v>21360000000</v>
       </c>
       <c r="K94" t="n">
-        <v>301000000</v>
+        <v>30086000000</v>
       </c>
       <c r="L94" t="n">
-        <v>31726000000</v>
+        <v>226335000000</v>
       </c>
       <c r="M94" t="n">
-        <v>15543000000</v>
+        <v>142023000000</v>
       </c>
       <c r="N94" t="n">
-        <v>39632797800</v>
+        <v>407380840061</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>三井倉庫ホールディングス株式会社</t>
+          <t>ヤマハ発動機株式会社</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>9302</t>
+          <t>7272</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>34.1</v>
+        <v>33.8</v>
       </c>
       <c r="D95" t="n">
-        <v>4175</v>
+        <v>1113</v>
       </c>
       <c r="E95" t="n">
-        <v>1492.806001579363</v>
+        <v>2968.770104870396</v>
       </c>
       <c r="F95" t="n">
-        <v>179.7</v>
+        <v>-62.5</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2023-01-16</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>22718000000</v>
+        <v>267180000000</v>
       </c>
       <c r="J95" t="n">
-        <v>68374000000</v>
+        <v>48711000000</v>
       </c>
       <c r="K95" t="n">
-        <v>15393000000</v>
+        <v>49039000000</v>
       </c>
       <c r="L95" t="n">
-        <v>68529000000</v>
+        <v>749158000000</v>
       </c>
       <c r="M95" t="n">
-        <v>106485000000</v>
+        <v>364930000000</v>
       </c>
       <c r="N95" t="n">
-        <v>312476033825</v>
+        <v>1079137130820</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>株式会社スクウェア・エニックス・ホールディングス</t>
+          <t>相模ゴム工業株式会社</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>9684</t>
+          <t>5194</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>13.1</v>
+        <v>44.9</v>
       </c>
       <c r="D96" t="n">
-        <v>9712</v>
+        <v>955</v>
       </c>
       <c r="E96" t="n">
-        <v>6272.971195510064</v>
+        <v>933.1435874692879</v>
       </c>
       <c r="F96" t="n">
-        <v>54.8</v>
+        <v>2.3</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2023-08-28</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>144061000000</v>
+        <v>1474580000</v>
       </c>
       <c r="J96" t="n">
-        <v>4462000000</v>
+        <v>2373852000</v>
       </c>
       <c r="K96" t="n">
-        <v>4731000000</v>
+        <v>804741000</v>
       </c>
       <c r="L96" t="n">
-        <v>243278000000</v>
+        <v>7569765000</v>
       </c>
       <c r="M96" t="n">
-        <v>153254000000</v>
+        <v>4653173000</v>
       </c>
       <c r="N96" t="n">
-        <v>1166848677040</v>
+        <v>10367862000</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>ヘリオス テクノ ホールディング株式会社</t>
+          <t>日本特殊塗料株式会社</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>6927</t>
+          <t>4619</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>50.7</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>914</v>
+        <v>2185</v>
       </c>
       <c r="E97" t="n">
-        <v>896.0103264198827</v>
+        <v>1190</v>
       </c>
       <c r="F97" t="n">
-        <v>2</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>6417163000</v>
+        <v>6518000000</v>
       </c>
       <c r="J97" t="n">
-        <v>658172000</v>
+        <v>9792000000</v>
       </c>
       <c r="K97" t="n">
-        <v>1342160000</v>
+        <v>23167000000</v>
       </c>
       <c r="L97" t="n">
-        <v>13418044000</v>
+        <v>47154000000</v>
       </c>
       <c r="M97" t="n">
-        <v>8417495000</v>
+        <v>39477000000</v>
       </c>
       <c r="N97" t="n">
-        <v>16587066350</v>
+        <v>47788436530</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
+          <t>株式会社西武ホールディングス</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>9024</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>39.7</v>
+      </c>
+      <c r="D98" t="n">
+        <v>5541</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1716.713876475349</v>
+      </c>
+      <c r="F98" t="n">
+        <v>222.8</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>2024-05-07</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>28538000000</v>
+      </c>
+      <c r="J98" t="n">
+        <v>485513000000</v>
+      </c>
+      <c r="K98" t="n">
+        <v>49954000000</v>
+      </c>
+      <c r="L98" t="n">
+        <v>385687000000</v>
+      </c>
+      <c r="M98" t="n">
+        <v>564005000000</v>
+      </c>
+      <c r="N98" t="n">
+        <v>1422067135713</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>株式会社ＴＳＩホールディングス</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>3608</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>125.4</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1083</v>
+      </c>
+      <c r="E99" t="n">
+        <v>438.851170934559</v>
+      </c>
+      <c r="F99" t="n">
+        <v>146.8</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>2023-02-24</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>49761000000</v>
+      </c>
+      <c r="J99" t="n">
+        <v>4425000000</v>
+      </c>
+      <c r="K99" t="n">
+        <v>25137000000</v>
+      </c>
+      <c r="L99" t="n">
+        <v>97430000000</v>
+      </c>
+      <c r="M99" t="n">
+        <v>79323000000</v>
+      </c>
+      <c r="N99" t="n">
+        <v>63265235199</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>コニシ株式会社</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>4956</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1303</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1605.189780306002</v>
+      </c>
+      <c r="F100" t="n">
+        <v>-18.8</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>2023-01-11</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>23721000000</v>
+      </c>
+      <c r="J100" t="n">
+        <v>13167000000</v>
+      </c>
+      <c r="K100" t="n">
+        <v>11402000000</v>
+      </c>
+      <c r="L100" t="n">
+        <v>68785000000</v>
+      </c>
+      <c r="M100" t="n">
+        <v>48290000000</v>
+      </c>
+      <c r="N100" t="n">
+        <v>86464995200</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>倉敷紡績株式会社</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>3106</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="D101" t="n">
+        <v>7050</v>
+      </c>
+      <c r="E101" t="n">
+        <v>4549.503641591014</v>
+      </c>
+      <c r="F101" t="n">
+        <v>55</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>2025-04-28</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>22059000000</v>
+      </c>
+      <c r="J101" t="n">
+        <v>21438000000</v>
+      </c>
+      <c r="K101" t="n">
+        <v>53409000000</v>
+      </c>
+      <c r="L101" t="n">
+        <v>95004000000</v>
+      </c>
+      <c r="M101" t="n">
+        <v>96906000000</v>
+      </c>
+      <c r="N101" t="n">
+        <v>117427803300</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>日本ゼオン株式会社</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>4205</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1695</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1721.078563209627</v>
+      </c>
+      <c r="F102" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>2024-08-30</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>48152000000</v>
+      </c>
+      <c r="J102" t="n">
+        <v>45247000000</v>
+      </c>
+      <c r="K102" t="n">
+        <v>85316000000</v>
+      </c>
+      <c r="L102" t="n">
+        <v>298246000000</v>
+      </c>
+      <c r="M102" t="n">
+        <v>178715000000</v>
+      </c>
+      <c r="N102" t="n">
+        <v>329605893030</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>大東建託株式会社</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>1878</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="D103" t="n">
+        <v>16440</v>
+      </c>
+      <c r="E103" t="n">
+        <v>13739.64575539568</v>
+      </c>
+      <c r="F103" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>2025-05-22</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>198760000000</v>
+      </c>
+      <c r="J103" t="n">
+        <v>62873000000</v>
+      </c>
+      <c r="K103" t="n">
+        <v>3798000000</v>
+      </c>
+      <c r="L103" t="n">
+        <v>308206000000</v>
+      </c>
+      <c r="M103" t="n">
+        <v>265431000000</v>
+      </c>
+      <c r="N103" t="n">
+        <v>1098118891320</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>大東建託株式会社</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>1878</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="D104" t="n">
+        <v>16440</v>
+      </c>
+      <c r="E104" t="n">
+        <v>12975.86280814577</v>
+      </c>
+      <c r="F104" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>2023-06-02</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>198760000000</v>
+      </c>
+      <c r="J104" t="n">
+        <v>62873000000</v>
+      </c>
+      <c r="K104" t="n">
+        <v>3798000000</v>
+      </c>
+      <c r="L104" t="n">
+        <v>308206000000</v>
+      </c>
+      <c r="M104" t="n">
+        <v>265431000000</v>
+      </c>
+      <c r="N104" t="n">
+        <v>1098118891320</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>株式会社ツルハホールディングス</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>3391</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="D105" t="n">
+        <v>2345</v>
+      </c>
+      <c r="E105" t="n">
+        <v>4544.200649553184</v>
+      </c>
+      <c r="F105" t="n">
+        <v>-48.4</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>2023-05-08</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>116398000000</v>
+      </c>
+      <c r="J105" t="n">
+        <v>83437000000</v>
+      </c>
+      <c r="K105" t="n">
+        <v>34181000000</v>
+      </c>
+      <c r="L105" t="n">
+        <v>276528000000</v>
+      </c>
+      <c r="M105" t="n">
+        <v>234016000000</v>
+      </c>
+      <c r="N105" t="n">
+        <v>576161376175</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>株式会社ツルハホールディングス</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>3391</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="D106" t="n">
+        <v>2345</v>
+      </c>
+      <c r="E106" t="n">
+        <v>8262.359904024779</v>
+      </c>
+      <c r="F106" t="n">
+        <v>-71.59999999999999</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>2022-12-19</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>116398000000</v>
+      </c>
+      <c r="J106" t="n">
+        <v>83437000000</v>
+      </c>
+      <c r="K106" t="n">
+        <v>34181000000</v>
+      </c>
+      <c r="L106" t="n">
+        <v>276528000000</v>
+      </c>
+      <c r="M106" t="n">
+        <v>234016000000</v>
+      </c>
+      <c r="N106" t="n">
+        <v>576161376175</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>株式会社アインホールディングス</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>9627</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>35</v>
+      </c>
+      <c r="D107" t="n">
+        <v>6969</v>
+      </c>
+      <c r="E107" t="n">
+        <v>2836.942753814942</v>
+      </c>
+      <c r="F107" t="n">
+        <v>145.7</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>55009000000</v>
+      </c>
+      <c r="J107" t="n">
+        <v>27122000000</v>
+      </c>
+      <c r="K107" t="n">
+        <v>3345000000</v>
+      </c>
+      <c r="L107" t="n">
+        <v>115837000000</v>
+      </c>
+      <c r="M107" t="n">
+        <v>85476000000</v>
+      </c>
+      <c r="N107" t="n">
+        <v>244425305025</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>ＤＩＣ株式会社</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>4631</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="D108" t="n">
+        <v>3639</v>
+      </c>
+      <c r="E108" t="n">
+        <v>2566.284807227078</v>
+      </c>
+      <c r="F108" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>2023-12-21</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>41354000000</v>
+      </c>
+      <c r="J108" t="n">
+        <v>133062000000</v>
+      </c>
+      <c r="K108" t="n">
+        <v>63071000000</v>
+      </c>
+      <c r="L108" t="n">
+        <v>351364000000</v>
+      </c>
+      <c r="M108" t="n">
+        <v>237487000000</v>
+      </c>
+      <c r="N108" t="n">
+        <v>344543991606</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>株式会社熊谷組</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>1861</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="D109" t="n">
+        <v>4920</v>
+      </c>
+      <c r="E109" t="n">
+        <v>2776.401128792723</v>
+      </c>
+      <c r="F109" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>2023-05-24</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>71335000000</v>
+      </c>
+      <c r="J109" t="n">
+        <v>17897000000</v>
+      </c>
+      <c r="K109" t="n">
+        <v>48586000000</v>
+      </c>
+      <c r="L109" t="n">
+        <v>163835000000</v>
+      </c>
+      <c r="M109" t="n">
+        <v>137818000000</v>
+      </c>
+      <c r="N109" t="n">
+        <v>211175256000</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>カルビー株式会社</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2229</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="D110" t="n">
+        <v>2956</v>
+      </c>
+      <c r="E110" t="n">
+        <v>2919.137515755844</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>47282000000</v>
+      </c>
+      <c r="J110" t="n">
+        <v>38670000000</v>
+      </c>
+      <c r="K110" t="n">
+        <v>3183000000</v>
+      </c>
+      <c r="L110" t="n">
+        <v>182740000000</v>
+      </c>
+      <c r="M110" t="n">
+        <v>89135000000</v>
+      </c>
+      <c r="N110" t="n">
+        <v>376934880948</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>株式会社オリエントコーポレーション</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>8585</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>247.3</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1003</v>
+      </c>
+      <c r="E111" t="n">
+        <v>798.3805136422309</v>
+      </c>
+      <c r="F111" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>株式会社ストラテジックキャピタル</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>385176000000</v>
+      </c>
+      <c r="J111" t="n">
+        <v>19135000000</v>
+      </c>
+      <c r="K111" t="n">
+        <v>24938000000</v>
+      </c>
+      <c r="L111" t="n">
+        <v>228464000000</v>
+      </c>
+      <c r="M111" t="n">
+        <v>429249000000</v>
+      </c>
+      <c r="N111" t="n">
+        <v>173608228886</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>ブロードメディア株式会社</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>4347</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1721</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1529.631984751819</v>
+      </c>
+      <c r="F112" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>2024-07-03</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>3368262000</v>
+      </c>
+      <c r="J112" t="n">
+        <v>826293000</v>
+      </c>
+      <c r="K112" t="n">
+        <v>164267000</v>
+      </c>
+      <c r="L112" t="n">
+        <v>3706507000</v>
+      </c>
+      <c r="M112" t="n">
+        <v>4358822000</v>
+      </c>
+      <c r="N112" t="n">
+        <v>12348056251</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>ブロードメディア株式会社</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>4347</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1721</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1449.995380693296</v>
+      </c>
+      <c r="F113" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>2024-05-22</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>3368262000</v>
+      </c>
+      <c r="J113" t="n">
+        <v>826293000</v>
+      </c>
+      <c r="K113" t="n">
+        <v>164267000</v>
+      </c>
+      <c r="L113" t="n">
+        <v>3706507000</v>
+      </c>
+      <c r="M113" t="n">
+        <v>4358822000</v>
+      </c>
+      <c r="N113" t="n">
+        <v>12348056251</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>京浜急行電鉄株式会社</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>9006</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>109.9</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1548.5</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1160.8</v>
+      </c>
+      <c r="F114" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>57450000000</v>
+      </c>
+      <c r="J114" t="n">
+        <v>297923000000</v>
+      </c>
+      <c r="K114" t="n">
+        <v>103100000000</v>
+      </c>
+      <c r="L114" t="n">
+        <v>249065000000</v>
+      </c>
+      <c r="M114" t="n">
+        <v>458473000000</v>
+      </c>
+      <c r="N114" t="n">
+        <v>417075916665</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>日鉄ソリューションズ株式会社</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2327</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>12</v>
+      </c>
+      <c r="D115" t="n">
+        <v>3720</v>
+      </c>
+      <c r="E115" t="n">
+        <v>2561.705402476645</v>
+      </c>
+      <c r="F115" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>2024-08-19</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>78579000000</v>
+      </c>
+      <c r="J115" t="n">
+        <v>2398000000</v>
+      </c>
+      <c r="K115" t="n">
+        <v>1000000000</v>
+      </c>
+      <c r="L115" t="n">
+        <v>186128000000</v>
+      </c>
+      <c r="M115" t="n">
+        <v>81977000000</v>
+      </c>
+      <c r="N115" t="n">
+        <v>680664050040</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>ＮＩＴＴＯＫＵ株式会社</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>6145</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="D116" t="n">
+        <v>2349</v>
+      </c>
+      <c r="E116" t="n">
+        <v>1710</v>
+      </c>
+      <c r="F116" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>2025-06-30</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>10110000000</v>
+      </c>
+      <c r="J116" t="n">
+        <v>5132000000</v>
+      </c>
+      <c r="K116" t="n">
+        <v>301000000</v>
+      </c>
+      <c r="L116" t="n">
+        <v>31726000000</v>
+      </c>
+      <c r="M116" t="n">
+        <v>15543000000</v>
+      </c>
+      <c r="N116" t="n">
+        <v>39632797800</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>ＮＩＴＴＯＫＵ株式会社</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>6145</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="D117" t="n">
+        <v>2349</v>
+      </c>
+      <c r="E117" t="n">
+        <v>1710</v>
+      </c>
+      <c r="F117" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>2024-09-03</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>10110000000</v>
+      </c>
+      <c r="J117" t="n">
+        <v>5132000000</v>
+      </c>
+      <c r="K117" t="n">
+        <v>301000000</v>
+      </c>
+      <c r="L117" t="n">
+        <v>31726000000</v>
+      </c>
+      <c r="M117" t="n">
+        <v>15543000000</v>
+      </c>
+      <c r="N117" t="n">
+        <v>39632797800</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>三井倉庫ホールディングス株式会社</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>9302</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="D118" t="n">
+        <v>4175</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1492.806001579363</v>
+      </c>
+      <c r="F118" t="n">
+        <v>179.7</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>2025-04-28</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>22718000000</v>
+      </c>
+      <c r="J118" t="n">
+        <v>68374000000</v>
+      </c>
+      <c r="K118" t="n">
+        <v>15393000000</v>
+      </c>
+      <c r="L118" t="n">
+        <v>68529000000</v>
+      </c>
+      <c r="M118" t="n">
+        <v>106485000000</v>
+      </c>
+      <c r="N118" t="n">
+        <v>320334711475</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>株式会社淀川製鋼所</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>5451</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>33.6</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1342</v>
+      </c>
+      <c r="E119" t="n">
+        <v>3234.727863989046</v>
+      </c>
+      <c r="F119" t="n">
+        <v>-58.5</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>株式会社ストラテジックキャピタル</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>2023-09-08</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>43116000000</v>
+      </c>
+      <c r="J119" t="n">
+        <v>18353000000</v>
+      </c>
+      <c r="K119" t="n">
+        <v>4009000000</v>
+      </c>
+      <c r="L119" t="n">
+        <v>180296000000</v>
+      </c>
+      <c r="M119" t="n">
+        <v>65478000000</v>
+      </c>
+      <c r="N119" t="n">
+        <v>195046803380</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>株式会社ゴールドクレスト</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>8871</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>71.59999999999999</v>
+      </c>
+      <c r="D120" t="n">
+        <v>3375</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1789.870000553189</v>
+      </c>
+      <c r="F120" t="n">
+        <v>88.59999999999999</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>株式会社ストラテジックキャピタル</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>2023-08-01</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>69004000000</v>
+      </c>
+      <c r="J120" t="n">
+        <v>12099000000</v>
+      </c>
+      <c r="K120" t="n">
+        <v>23000000</v>
+      </c>
+      <c r="L120" t="n">
+        <v>122540000000</v>
+      </c>
+      <c r="M120" t="n">
+        <v>81126000000</v>
+      </c>
+      <c r="N120" t="n">
+        <v>113331561750</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>株式会社スクウェア・エニックス・ホールディングス</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>9684</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>13</v>
+      </c>
+      <c r="D121" t="n">
+        <v>9712</v>
+      </c>
+      <c r="E121" t="n">
+        <v>6272.971195510064</v>
+      </c>
+      <c r="F121" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>2025-04-21</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>144061000000</v>
+      </c>
+      <c r="J121" t="n">
+        <v>4462000000</v>
+      </c>
+      <c r="K121" t="n">
+        <v>4731000000</v>
+      </c>
+      <c r="L121" t="n">
+        <v>243278000000</v>
+      </c>
+      <c r="M121" t="n">
+        <v>153254000000</v>
+      </c>
+      <c r="N121" t="n">
+        <v>1183188398352</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>ヘリオス テクノ ホールディング株式会社</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>6927</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>50.7</v>
+      </c>
+      <c r="D122" t="n">
+        <v>914</v>
+      </c>
+      <c r="E122" t="n">
+        <v>896.0103264198827</v>
+      </c>
+      <c r="F122" t="n">
+        <v>2</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>6417163000</v>
+      </c>
+      <c r="J122" t="n">
+        <v>658172000</v>
+      </c>
+      <c r="K122" t="n">
+        <v>1342160000</v>
+      </c>
+      <c r="L122" t="n">
+        <v>13418044000</v>
+      </c>
+      <c r="M122" t="n">
+        <v>8417495000</v>
+      </c>
+      <c r="N122" t="n">
+        <v>16587066350</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
           <t>平和不動産株式会社</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B123" t="inlineStr">
         <is>
           <t>8803</t>
         </is>
       </c>
-      <c r="C98" t="n">
+      <c r="C123" t="n">
         <v>76.5</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D123" t="n">
         <v>2391</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E123" t="n">
         <v>3610</v>
       </c>
-      <c r="F98" t="n">
+      <c r="F123" t="n">
         <v>-33.8</v>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
+      <c r="H123" t="inlineStr">
         <is>
           <t>2024-07-22</t>
         </is>
       </c>
-      <c r="I98" t="n">
+      <c r="I123" t="n">
         <v>29585000000</v>
       </c>
-      <c r="J98" t="n">
+      <c r="J123" t="n">
         <v>84557000000</v>
       </c>
-      <c r="K98" t="n">
+      <c r="K123" t="n">
         <v>8005000000</v>
       </c>
-      <c r="L98" t="n">
+      <c r="L123" t="n">
         <v>118639000000</v>
       </c>
-      <c r="M98" t="n">
+      <c r="M123" t="n">
         <v>122147000000</v>
       </c>
-      <c r="N98" t="n">
-        <v>159662372400</v>
+      <c r="N123" t="n">
+        <v>159729253452</v>
       </c>
     </row>
   </sheetData>

--- a/docs/アクティビスト銘柄_資産判定.xlsx
+++ b/docs/アクティビスト銘柄_資産判定.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N123"/>
+  <dimension ref="A1:N125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,16 +517,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>93.2</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>2840</v>
+        <v>2850</v>
       </c>
       <c r="E2" t="n">
         <v>1600</v>
       </c>
       <c r="F2" t="n">
-        <v>77.5</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -554,7 +554,7 @@
         <v>88496000000</v>
       </c>
       <c r="N2" t="n">
-        <v>94904280000</v>
+        <v>95238450000</v>
       </c>
     </row>
     <row r="3">
@@ -569,16 +569,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>57.7</v>
+        <v>57.4</v>
       </c>
       <c r="D3" t="n">
-        <v>5140</v>
+        <v>5160</v>
       </c>
       <c r="E3" t="n">
         <v>4265.455132343447</v>
       </c>
       <c r="F3" t="n">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
         <v>14129000000</v>
       </c>
       <c r="N3" t="n">
-        <v>24503870600</v>
+        <v>24599216400</v>
       </c>
     </row>
     <row r="4">
@@ -621,16 +621,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>42</v>
+        <v>42.2</v>
       </c>
       <c r="D4" t="n">
-        <v>5290</v>
+        <v>5270</v>
       </c>
       <c r="E4" t="n">
         <v>3361.304411567078</v>
       </c>
       <c r="F4" t="n">
-        <v>57.4</v>
+        <v>56.8</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>48658000000</v>
       </c>
       <c r="N4" t="n">
-        <v>115776299910</v>
+        <v>115338582330</v>
       </c>
     </row>
     <row r="5">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>51</v>
+        <v>53.2</v>
       </c>
       <c r="D5" t="n">
-        <v>833</v>
+        <v>811</v>
       </c>
       <c r="E5" t="n">
         <v>656.2604975855553</v>
       </c>
       <c r="F5" t="n">
-        <v>26.9</v>
+        <v>23.6</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -710,7 +710,7 @@
         <v>31865000000</v>
       </c>
       <c r="N5" t="n">
-        <v>62498612218</v>
+        <v>59912972108</v>
       </c>
     </row>
     <row r="6">
@@ -728,7 +728,7 @@
         <v>20.2</v>
       </c>
       <c r="D6" t="n">
-        <v>2178.5</v>
+        <v>2180</v>
       </c>
       <c r="E6" t="n">
         <v>2269.918722577861</v>
@@ -762,7 +762,7 @@
         <v>90811000000</v>
       </c>
       <c r="N6" t="n">
-        <v>449169443293</v>
+        <v>448449454620</v>
       </c>
     </row>
     <row r="7">
@@ -777,16 +777,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>114.4</v>
+        <v>115.8</v>
       </c>
       <c r="D7" t="n">
-        <v>3084</v>
+        <v>3047</v>
       </c>
       <c r="E7" t="n">
         <v>4991.027246539169</v>
       </c>
       <c r="F7" t="n">
-        <v>-38.2</v>
+        <v>-39</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -814,7 +814,7 @@
         <v>1006135000000</v>
       </c>
       <c r="N7" t="n">
-        <v>879631574664</v>
+        <v>869078277562</v>
       </c>
     </row>
     <row r="8">
@@ -829,16 +829,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>46.9</v>
+        <v>47.2</v>
       </c>
       <c r="D8" t="n">
-        <v>3410</v>
+        <v>3390</v>
       </c>
       <c r="E8" t="n">
         <v>1752.426893379333</v>
       </c>
       <c r="F8" t="n">
-        <v>94.59999999999999</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         <v>77563221000</v>
       </c>
       <c r="N8" t="n">
-        <v>165333168000</v>
+        <v>164363472000</v>
       </c>
     </row>
     <row r="9">
@@ -881,16 +881,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>46.9</v>
+        <v>47.2</v>
       </c>
       <c r="D9" t="n">
-        <v>3410</v>
+        <v>3390</v>
       </c>
       <c r="E9" t="n">
         <v>1576.721867844292</v>
       </c>
       <c r="F9" t="n">
-        <v>116.3</v>
+        <v>115</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>77563221000</v>
       </c>
       <c r="N9" t="n">
-        <v>165333168000</v>
+        <v>164363472000</v>
       </c>
     </row>
     <row r="10">
@@ -970,7 +970,7 @@
         <v>1810139000</v>
       </c>
       <c r="N10" t="n">
-        <v>25151764050</v>
+        <v>25127832450</v>
       </c>
     </row>
     <row r="11">
@@ -988,13 +988,13 @@
         <v>1.4</v>
       </c>
       <c r="D11" t="n">
-        <v>7284</v>
+        <v>7320</v>
       </c>
       <c r="E11" t="n">
         <v>2697.360927565142</v>
       </c>
       <c r="F11" t="n">
-        <v>170</v>
+        <v>171.4</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1022,7 +1022,7 @@
         <v>8148000000</v>
       </c>
       <c r="N11" t="n">
-        <v>579233331300</v>
+        <v>570734683080</v>
       </c>
     </row>
     <row r="12">
@@ -1037,16 +1037,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>82.7</v>
+        <v>83</v>
       </c>
       <c r="D12" t="n">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="E12" t="n">
         <v>193.0499177180472</v>
       </c>
       <c r="F12" t="n">
-        <v>408.7</v>
+        <v>406.6</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1074,7 +1074,7 @@
         <v>22097000000</v>
       </c>
       <c r="N12" t="n">
-        <v>26717274000</v>
+        <v>26608446000</v>
       </c>
     </row>
     <row r="13">
@@ -1089,16 +1089,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>34.1</v>
+        <v>34.6</v>
       </c>
       <c r="D13" t="n">
-        <v>1699</v>
+        <v>1693</v>
       </c>
       <c r="E13" t="n">
         <v>2112.609181636727</v>
       </c>
       <c r="F13" t="n">
-        <v>-19.6</v>
+        <v>-19.9</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1126,7 +1126,7 @@
         <v>51035000000</v>
       </c>
       <c r="N13" t="n">
-        <v>149552595906</v>
+        <v>147634137240</v>
       </c>
     </row>
     <row r="14">
@@ -1141,16 +1141,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>18.8</v>
+        <v>19.2</v>
       </c>
       <c r="D14" t="n">
-        <v>2670</v>
+        <v>2620</v>
       </c>
       <c r="E14" t="n">
         <v>1361.432492253209</v>
       </c>
       <c r="F14" t="n">
-        <v>96.09999999999999</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>11124687000</v>
       </c>
       <c r="N14" t="n">
-        <v>59113813350</v>
+        <v>57941711340</v>
       </c>
     </row>
     <row r="15">
@@ -1193,16 +1193,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>37.9</v>
+        <v>38.4</v>
       </c>
       <c r="D15" t="n">
-        <v>3095</v>
+        <v>3055</v>
       </c>
       <c r="E15" t="n">
         <v>1359.655069733296</v>
       </c>
       <c r="F15" t="n">
-        <v>127.6</v>
+        <v>124.7</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>68841000000</v>
       </c>
       <c r="N15" t="n">
-        <v>181462031975</v>
+        <v>179116803775</v>
       </c>
     </row>
     <row r="16">
@@ -1245,16 +1245,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>42.9</v>
+        <v>43.3</v>
       </c>
       <c r="D16" t="n">
-        <v>1602</v>
+        <v>1598</v>
       </c>
       <c r="E16" t="n">
         <v>3767.430178069353</v>
       </c>
       <c r="F16" t="n">
-        <v>-57.5</v>
+        <v>-57.6</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1282,7 +1282,7 @@
         <v>31965000000</v>
       </c>
       <c r="N16" t="n">
-        <v>74493679248</v>
+        <v>73755204208</v>
       </c>
     </row>
     <row r="17">
@@ -1300,13 +1300,13 @@
         <v>19.7</v>
       </c>
       <c r="D17" t="n">
-        <v>8150</v>
+        <v>8160</v>
       </c>
       <c r="E17" t="n">
         <v>3565.648720929983</v>
       </c>
       <c r="F17" t="n">
-        <v>128.6</v>
+        <v>128.9</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1334,7 +1334,7 @@
         <v>89436000000</v>
       </c>
       <c r="N17" t="n">
-        <v>452906575850</v>
+        <v>453462289440</v>
       </c>
     </row>
     <row r="18">
@@ -1349,16 +1349,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>23.6</v>
+        <v>23.8</v>
       </c>
       <c r="D18" t="n">
-        <v>12700</v>
+        <v>12590</v>
       </c>
       <c r="E18" t="n">
         <v>3496.825336379792</v>
       </c>
       <c r="F18" t="n">
-        <v>263.2</v>
+        <v>260</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         <v>29490000000</v>
       </c>
       <c r="N18" t="n">
-        <v>125146308000</v>
+        <v>124062363600</v>
       </c>
     </row>
     <row r="19">
@@ -1404,7 +1404,7 @@
         <v>22.2</v>
       </c>
       <c r="D19" t="n">
-        <v>4045</v>
+        <v>4040</v>
       </c>
       <c r="E19" t="n">
         <v>7960</v>
@@ -1438,7 +1438,7 @@
         <v>34259000000</v>
       </c>
       <c r="N19" t="n">
-        <v>154597173670</v>
+        <v>154406077040</v>
       </c>
     </row>
     <row r="20">
@@ -1453,16 +1453,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>49.5</v>
+        <v>49.8</v>
       </c>
       <c r="D20" t="n">
-        <v>6720</v>
+        <v>6680</v>
       </c>
       <c r="E20" t="n">
         <v>2920</v>
       </c>
       <c r="F20" t="n">
-        <v>130.1</v>
+        <v>128.8</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1490,7 +1490,7 @@
         <v>26036000000</v>
       </c>
       <c r="N20" t="n">
-        <v>52565923200</v>
+        <v>52253030800</v>
       </c>
     </row>
     <row r="21">
@@ -1505,16 +1505,16 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D21" t="n">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E21" t="n">
         <v>448.6811097117532</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.3</v>
+        <v>-3.9</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>10804525000</v>
       </c>
       <c r="N21" t="n">
-        <v>90022497306</v>
+        <v>89400221979</v>
       </c>
     </row>
     <row r="22">
@@ -1557,16 +1557,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>77.8</v>
+        <v>78.8</v>
       </c>
       <c r="D22" t="n">
-        <v>4330</v>
+        <v>4270</v>
       </c>
       <c r="E22" t="n">
         <v>3449.780346820809</v>
       </c>
       <c r="F22" t="n">
-        <v>25.5</v>
+        <v>23.8</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         <v>79561000000</v>
       </c>
       <c r="N22" t="n">
-        <v>102322459490</v>
+        <v>100904596310</v>
       </c>
     </row>
     <row r="23">
@@ -1612,7 +1612,7 @@
         <v>97.09999999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>1860</v>
+        <v>1859</v>
       </c>
       <c r="E23" t="n">
         <v>2298.672482457804</v>
@@ -1646,7 +1646,7 @@
         <v>44925000000</v>
       </c>
       <c r="N23" t="n">
-        <v>46279962000</v>
+        <v>46255080300</v>
       </c>
     </row>
     <row r="24">
@@ -1661,16 +1661,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>25.4</v>
+        <v>25.6</v>
       </c>
       <c r="D24" t="n">
-        <v>5338</v>
+        <v>5364</v>
       </c>
       <c r="E24" t="n">
         <v>3322.047887165483</v>
       </c>
       <c r="F24" t="n">
-        <v>60.7</v>
+        <v>61.5</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1698,7 +1698,7 @@
         <v>476359000000</v>
       </c>
       <c r="N24" t="n">
-        <v>1872169868508</v>
+        <v>1863484721928</v>
       </c>
     </row>
     <row r="25">
@@ -1713,16 +1713,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>47.9</v>
+        <v>48.1</v>
       </c>
       <c r="D25" t="n">
-        <v>828.2000122070312</v>
+        <v>824</v>
       </c>
       <c r="E25" t="n">
         <v>590</v>
       </c>
       <c r="F25" t="n">
-        <v>40.4</v>
+        <v>39.7</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>362887000000</v>
       </c>
       <c r="N25" t="n">
-        <v>757743721987</v>
+        <v>753901011488</v>
       </c>
     </row>
     <row r="26">
@@ -1765,16 +1765,16 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="D26" t="n">
-        <v>4419</v>
+        <v>4402</v>
       </c>
       <c r="E26" t="n">
         <v>1306.206628354146</v>
       </c>
       <c r="F26" t="n">
-        <v>238.3</v>
+        <v>237</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>120984000000</v>
       </c>
       <c r="N26" t="n">
-        <v>953043136047</v>
+        <v>934989052332</v>
       </c>
     </row>
     <row r="27">
@@ -1817,16 +1817,16 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>29.3</v>
+        <v>29.1</v>
       </c>
       <c r="D27" t="n">
-        <v>2015</v>
+        <v>2031</v>
       </c>
       <c r="E27" t="n">
         <v>1347.74653160027</v>
       </c>
       <c r="F27" t="n">
-        <v>49.5</v>
+        <v>50.7</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1854,7 +1854,7 @@
         <v>14143000000</v>
       </c>
       <c r="N27" t="n">
-        <v>48288687135</v>
+        <v>48672120879</v>
       </c>
     </row>
     <row r="28">
@@ -1869,16 +1869,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>51.7</v>
+        <v>53.7</v>
       </c>
       <c r="D28" t="n">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="E28" t="n">
         <v>290.3401328717133</v>
       </c>
       <c r="F28" t="n">
-        <v>1.9</v>
+        <v>-0.8</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1906,7 +1906,7 @@
         <v>5368822000</v>
       </c>
       <c r="N28" t="n">
-        <v>10377175696</v>
+        <v>9995406624</v>
       </c>
     </row>
     <row r="29">
@@ -1921,16 +1921,16 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>13.1</v>
+        <v>13.5</v>
       </c>
       <c r="D29" t="n">
-        <v>613</v>
+        <v>595</v>
       </c>
       <c r="E29" t="n">
         <v>421.6950726175476</v>
       </c>
       <c r="F29" t="n">
-        <v>45.4</v>
+        <v>41.1</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         <v>2256815000</v>
       </c>
       <c r="N29" t="n">
-        <v>17227723189</v>
+        <v>16667472010</v>
       </c>
     </row>
     <row r="30">
@@ -1973,16 +1973,16 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>16.6</v>
+        <v>16.9</v>
       </c>
       <c r="D30" t="n">
-        <v>10300</v>
+        <v>10210</v>
       </c>
       <c r="E30" t="n">
         <v>7052.737306843267</v>
       </c>
       <c r="F30" t="n">
-        <v>46</v>
+        <v>44.8</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>20433000000</v>
       </c>
       <c r="N30" t="n">
-        <v>123037362500</v>
+        <v>120789568360</v>
       </c>
     </row>
     <row r="31">
@@ -2025,16 +2025,16 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>20.5</v>
+        <v>20.8</v>
       </c>
       <c r="D31" t="n">
-        <v>2804</v>
+        <v>2768</v>
       </c>
       <c r="E31" t="n">
         <v>2007.754513143541</v>
       </c>
       <c r="F31" t="n">
-        <v>39.7</v>
+        <v>37.9</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>30679000000</v>
       </c>
       <c r="N31" t="n">
-        <v>149861137136</v>
+        <v>147463785552</v>
       </c>
     </row>
     <row r="32">
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>58.5</v>
+        <v>58.7</v>
       </c>
       <c r="D32" t="n">
-        <v>4720</v>
+        <v>4705</v>
       </c>
       <c r="E32" t="n">
         <v>3573.410502159827</v>
       </c>
       <c r="F32" t="n">
-        <v>32.1</v>
+        <v>31.7</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>75825000000</v>
       </c>
       <c r="N32" t="n">
-        <v>129616864000</v>
+        <v>129204946000</v>
       </c>
     </row>
     <row r="33">
@@ -2132,16 +2132,16 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>53.4</v>
+        <v>53.8</v>
       </c>
       <c r="D33" t="n">
-        <v>5524</v>
+        <v>5482</v>
       </c>
       <c r="E33" t="n">
         <v>3405.914389596362</v>
       </c>
       <c r="F33" t="n">
-        <v>62.2</v>
+        <v>61</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2169,7 +2169,7 @@
         <v>193706000000</v>
       </c>
       <c r="N33" t="n">
-        <v>362671591200</v>
+        <v>359914131600</v>
       </c>
     </row>
     <row r="34">
@@ -2184,16 +2184,16 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>53.4</v>
+        <v>53.8</v>
       </c>
       <c r="D34" t="n">
-        <v>5524</v>
+        <v>5482</v>
       </c>
       <c r="E34" t="n">
         <v>2714.613787300615</v>
       </c>
       <c r="F34" t="n">
-        <v>103.5</v>
+        <v>101.9</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2221,7 +2221,7 @@
         <v>193706000000</v>
       </c>
       <c r="N34" t="n">
-        <v>362671591200</v>
+        <v>359914131600</v>
       </c>
     </row>
     <row r="35">
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>14.7</v>
+        <v>15.4</v>
       </c>
       <c r="D35" t="n">
-        <v>1838.5</v>
+        <v>1800</v>
       </c>
       <c r="E35" t="n">
         <v>1512.21980974841</v>
       </c>
       <c r="F35" t="n">
-        <v>21.6</v>
+        <v>19</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
         <v>91015000000</v>
       </c>
       <c r="N35" t="n">
-        <v>618555855174</v>
+        <v>592234329600</v>
       </c>
     </row>
     <row r="36">
@@ -2288,16 +2288,16 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>35.5</v>
+        <v>34.6</v>
       </c>
       <c r="D36" t="n">
-        <v>3960</v>
+        <v>4079</v>
       </c>
       <c r="E36" t="n">
         <v>6646.195827570309</v>
       </c>
       <c r="F36" t="n">
-        <v>-40.4</v>
+        <v>-38.6</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2325,7 +2325,7 @@
         <v>139195000000</v>
       </c>
       <c r="N36" t="n">
-        <v>392080696920</v>
+        <v>402035487093</v>
       </c>
     </row>
     <row r="37">
@@ -2340,16 +2340,16 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>57.3</v>
+        <v>58.1</v>
       </c>
       <c r="D37" t="n">
-        <v>3432</v>
+        <v>3442</v>
       </c>
       <c r="E37" t="n">
         <v>2420</v>
       </c>
       <c r="F37" t="n">
-        <v>41.8</v>
+        <v>42.2</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         <v>414670000000</v>
       </c>
       <c r="N37" t="n">
-        <v>723800381304</v>
+        <v>714050131642</v>
       </c>
     </row>
     <row r="38">
@@ -2392,16 +2392,16 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>42.9</v>
+        <v>43.3</v>
       </c>
       <c r="D38" t="n">
-        <v>3445</v>
+        <v>3412</v>
       </c>
       <c r="E38" t="n">
         <v>1598.889989734285</v>
       </c>
       <c r="F38" t="n">
-        <v>115.5</v>
+        <v>113.4</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2429,7 +2429,7 @@
         <v>178465000000</v>
       </c>
       <c r="N38" t="n">
-        <v>416450244340</v>
+        <v>412461025744</v>
       </c>
     </row>
     <row r="39">
@@ -2444,16 +2444,16 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>2032</v>
+        <v>1987</v>
       </c>
       <c r="E39" t="n">
         <v>887.288318673809</v>
       </c>
       <c r="F39" t="n">
-        <v>129</v>
+        <v>123.9</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         <v>3124000000</v>
       </c>
       <c r="N39" t="n">
-        <v>167382590304</v>
+        <v>159591750754</v>
       </c>
     </row>
     <row r="40">
@@ -2496,16 +2496,16 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>80.90000000000001</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>1644.5</v>
+        <v>1614.5</v>
       </c>
       <c r="E40" t="n">
         <v>1101.400153022188</v>
       </c>
       <c r="F40" t="n">
-        <v>49.3</v>
+        <v>46.6</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>398395000000</v>
       </c>
       <c r="N40" t="n">
-        <v>492247859389</v>
+        <v>483267965329</v>
       </c>
     </row>
     <row r="41">
@@ -2548,16 +2548,16 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>53.9</v>
+        <v>54.7</v>
       </c>
       <c r="D41" t="n">
-        <v>2058</v>
+        <v>2051</v>
       </c>
       <c r="E41" t="n">
         <v>1556.090471804319</v>
       </c>
       <c r="F41" t="n">
-        <v>32.3</v>
+        <v>31.8</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         <v>191594000000</v>
       </c>
       <c r="N41" t="n">
-        <v>355227961662</v>
+        <v>350275264374</v>
       </c>
     </row>
     <row r="42">
@@ -2600,16 +2600,16 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>37.9</v>
+        <v>39.1</v>
       </c>
       <c r="D42" t="n">
-        <v>2278</v>
+        <v>2205.5</v>
       </c>
       <c r="E42" t="n">
         <v>2006.059650428343</v>
       </c>
       <c r="F42" t="n">
-        <v>13.6</v>
+        <v>9.9</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>142102000000</v>
       </c>
       <c r="N42" t="n">
-        <v>375009852258</v>
+        <v>363074727460</v>
       </c>
     </row>
     <row r="43">
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>91.3</v>
+        <v>93</v>
       </c>
       <c r="D43" t="n">
-        <v>1029</v>
+        <v>1015</v>
       </c>
       <c r="E43" t="n">
         <v>668.9358717434869</v>
       </c>
       <c r="F43" t="n">
-        <v>53.8</v>
+        <v>51.7</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2689,7 +2689,7 @@
         <v>15118000000</v>
       </c>
       <c r="N43" t="n">
-        <v>16561599621</v>
+        <v>16257276315</v>
       </c>
     </row>
     <row r="44">
@@ -2704,16 +2704,16 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>75</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>2035</v>
+        <v>2040</v>
       </c>
       <c r="E44" t="n">
         <v>1270</v>
       </c>
       <c r="F44" t="n">
-        <v>60.2</v>
+        <v>60.6</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>26544000000</v>
       </c>
       <c r="N44" t="n">
-        <v>35370048065</v>
+        <v>35456952360</v>
       </c>
     </row>
     <row r="45">
@@ -2756,16 +2756,16 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>75</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>2035</v>
+        <v>2040</v>
       </c>
       <c r="E45" t="n">
         <v>1170</v>
       </c>
       <c r="F45" t="n">
-        <v>73.90000000000001</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>26544000000</v>
       </c>
       <c r="N45" t="n">
-        <v>35370048065</v>
+        <v>35456952360</v>
       </c>
     </row>
     <row r="46">
@@ -2808,16 +2808,16 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>69</v>
+        <v>69.8</v>
       </c>
       <c r="D46" t="n">
-        <v>5855</v>
+        <v>5787</v>
       </c>
       <c r="E46" t="n">
         <v>4137.137750115735</v>
       </c>
       <c r="F46" t="n">
-        <v>41.5</v>
+        <v>39.9</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>284031000000</v>
       </c>
       <c r="N46" t="n">
-        <v>411669318295</v>
+        <v>406888188723</v>
       </c>
     </row>
     <row r="47">
@@ -2860,16 +2860,16 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>67.59999999999999</v>
+        <v>67.7</v>
       </c>
       <c r="D47" t="n">
-        <v>1910.5</v>
+        <v>1906.5</v>
       </c>
       <c r="E47" t="n">
         <v>1257.709264012363</v>
       </c>
       <c r="F47" t="n">
-        <v>51.9</v>
+        <v>51.6</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
         <v>261172000000</v>
       </c>
       <c r="N47" t="n">
-        <v>386599021166</v>
+        <v>385789601598</v>
       </c>
     </row>
     <row r="48">
@@ -2912,16 +2912,16 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>67.59999999999999</v>
+        <v>67.7</v>
       </c>
       <c r="D48" t="n">
-        <v>1910.5</v>
+        <v>1906.5</v>
       </c>
       <c r="E48" t="n">
         <v>1217.254500469243</v>
       </c>
       <c r="F48" t="n">
-        <v>57</v>
+        <v>56.6</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         <v>261172000000</v>
       </c>
       <c r="N48" t="n">
-        <v>386599021166</v>
+        <v>385789601598</v>
       </c>
     </row>
     <row r="49">
@@ -2964,16 +2964,16 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="D49" t="n">
-        <v>5423</v>
+        <v>5374</v>
       </c>
       <c r="E49" t="n">
         <v>5066.092575838703</v>
       </c>
       <c r="F49" t="n">
-        <v>7</v>
+        <v>6.1</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -3001,7 +3001,7 @@
         <v>80068000000</v>
       </c>
       <c r="N49" t="n">
-        <v>403139415437</v>
+        <v>399496813306</v>
       </c>
     </row>
     <row r="50">
@@ -3016,16 +3016,16 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="D50" t="n">
-        <v>5423</v>
+        <v>5374</v>
       </c>
       <c r="E50" t="n">
         <v>2148.936934940886</v>
       </c>
       <c r="F50" t="n">
-        <v>152.4</v>
+        <v>150.1</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>80068000000</v>
       </c>
       <c r="N50" t="n">
-        <v>403139415437</v>
+        <v>399496813306</v>
       </c>
     </row>
     <row r="51">
@@ -3068,16 +3068,16 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>90.5</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>2186</v>
+        <v>2201</v>
       </c>
       <c r="E51" t="n">
         <v>2122.579027791042</v>
       </c>
       <c r="F51" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -3105,7 +3105,7 @@
         <v>74819000000</v>
       </c>
       <c r="N51" t="n">
-        <v>82683906684</v>
+        <v>83251271094</v>
       </c>
     </row>
     <row r="52">
@@ -3120,7 +3120,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>40.8</v>
+        <v>41.2</v>
       </c>
       <c r="D52" t="n">
         <v>4065</v>
@@ -3157,7 +3157,7 @@
         <v>46440000000</v>
       </c>
       <c r="N52" t="n">
-        <v>113696578470</v>
+        <v>112588695240</v>
       </c>
     </row>
     <row r="53">
@@ -3172,16 +3172,16 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>54.1</v>
+        <v>52</v>
       </c>
       <c r="D53" t="n">
-        <v>4155</v>
+        <v>4320</v>
       </c>
       <c r="E53" t="n">
         <v>2387</v>
       </c>
       <c r="F53" t="n">
-        <v>74.09999999999999</v>
+        <v>81</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -3209,7 +3209,7 @@
         <v>105205000000</v>
       </c>
       <c r="N53" t="n">
-        <v>194539289685</v>
+        <v>202264676640</v>
       </c>
     </row>
     <row r="54">
@@ -3224,16 +3224,16 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>10.2</v>
+        <v>10</v>
       </c>
       <c r="D54" t="n">
-        <v>5616</v>
+        <v>5741</v>
       </c>
       <c r="E54" t="n">
         <v>2420.370957920882</v>
       </c>
       <c r="F54" t="n">
-        <v>132</v>
+        <v>137.2</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         <v>28931000000</v>
       </c>
       <c r="N54" t="n">
-        <v>285011275536</v>
+        <v>288427593137</v>
       </c>
     </row>
     <row r="55">
@@ -3276,16 +3276,16 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>65.3</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>2846</v>
+        <v>2770.5</v>
       </c>
       <c r="E55" t="n">
         <v>2939.562915943684</v>
       </c>
       <c r="F55" t="n">
-        <v>-3.2</v>
+        <v>-5.8</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>101054000000</v>
       </c>
       <c r="N55" t="n">
-        <v>154643284144</v>
+        <v>150540835812</v>
       </c>
     </row>
     <row r="56">
@@ -3328,16 +3328,16 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>58.8</v>
+        <v>59.4</v>
       </c>
       <c r="D56" t="n">
-        <v>972</v>
+        <v>963</v>
       </c>
       <c r="E56" t="n">
         <v>930</v>
       </c>
       <c r="F56" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3365,7 +3365,7 @@
         <v>20765000000</v>
       </c>
       <c r="N56" t="n">
-        <v>35293920696</v>
+        <v>34967125134</v>
       </c>
     </row>
     <row r="57">
@@ -3380,16 +3380,16 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>22</v>
+        <v>22.3</v>
       </c>
       <c r="D57" t="n">
-        <v>1428</v>
+        <v>1413</v>
       </c>
       <c r="E57" t="n">
         <v>1267.324164058639</v>
       </c>
       <c r="F57" t="n">
-        <v>12.7</v>
+        <v>11.5</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>3080243000</v>
       </c>
       <c r="N57" t="n">
-        <v>13995736608</v>
+        <v>13829353164</v>
       </c>
     </row>
     <row r="58">
@@ -3432,16 +3432,16 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>54.3</v>
+        <v>53.5</v>
       </c>
       <c r="D58" t="n">
-        <v>2788</v>
+        <v>2830</v>
       </c>
       <c r="E58" t="n">
         <v>3155.301177013616</v>
       </c>
       <c r="F58" t="n">
-        <v>-11.6</v>
+        <v>-10.3</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
         <v>98642000000</v>
       </c>
       <c r="N58" t="n">
-        <v>181580245844</v>
+        <v>184315672790</v>
       </c>
     </row>
     <row r="59">
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>68.59999999999999</v>
+        <v>69.7</v>
       </c>
       <c r="D59" t="n">
-        <v>1250</v>
+        <v>1229.5</v>
       </c>
       <c r="E59" t="n">
         <v>1188.162962482466</v>
       </c>
       <c r="F59" t="n">
-        <v>5.2</v>
+        <v>3.5</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         <v>195510000000</v>
       </c>
       <c r="N59" t="n">
-        <v>285057971250</v>
+        <v>280383020522</v>
       </c>
     </row>
     <row r="60">
@@ -3536,7 +3536,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>26.8</v>
+        <v>27</v>
       </c>
       <c r="D60" t="n">
         <v>5390</v>
@@ -3573,7 +3573,7 @@
         <v>53152000000</v>
       </c>
       <c r="N60" t="n">
-        <v>198486157100</v>
+        <v>197024011800</v>
       </c>
     </row>
     <row r="61">
@@ -3588,16 +3588,16 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="D61" t="n">
-        <v>2127</v>
+        <v>2107.5</v>
       </c>
       <c r="E61" t="n">
         <v>1141.512891683109</v>
       </c>
       <c r="F61" t="n">
-        <v>86.3</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>35951000000</v>
       </c>
       <c r="N61" t="n">
-        <v>379487983947</v>
+        <v>376008898058</v>
       </c>
     </row>
     <row r="62">
@@ -3640,16 +3640,16 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="D62" t="n">
-        <v>2127</v>
+        <v>2107.5</v>
       </c>
       <c r="E62" t="n">
         <v>1842.11261309207</v>
       </c>
       <c r="F62" t="n">
-        <v>15.5</v>
+        <v>14.4</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
         <v>35951000000</v>
       </c>
       <c r="N62" t="n">
-        <v>379487983947</v>
+        <v>376008898058</v>
       </c>
     </row>
     <row r="63">
@@ -3692,16 +3692,16 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>45.6</v>
+        <v>46.3</v>
       </c>
       <c r="D63" t="n">
-        <v>1428</v>
+        <v>1417</v>
       </c>
       <c r="E63" t="n">
         <v>1111.90611839092</v>
       </c>
       <c r="F63" t="n">
-        <v>28.4</v>
+        <v>27.4</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3729,343 +3729,343 @@
         <v>101020000000</v>
       </c>
       <c r="N63" t="n">
-        <v>221319301140</v>
+        <v>218314966727</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>栄研化学株式会社</t>
+          <t>株式会社メルカリ</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>4549</t>
+          <t>4385</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>24.2</v>
+        <v>47.8</v>
       </c>
       <c r="D64" t="n">
-        <v>2450</v>
+        <v>2205.5</v>
       </c>
       <c r="E64" t="n">
-        <v>1678.083113259255</v>
+        <v>2006.059650428343</v>
       </c>
       <c r="F64" t="n">
-        <v>46</v>
+        <v>9.9</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-11-06</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>6968000000</v>
+        <v>171463000000</v>
       </c>
       <c r="J64" t="n">
-        <v>11989000000</v>
+        <v>434000000</v>
       </c>
       <c r="K64" t="n">
-        <v>597000000</v>
+        <v>1543000000</v>
       </c>
       <c r="L64" t="n">
-        <v>41672000000</v>
+        <v>40013000000</v>
       </c>
       <c r="M64" t="n">
-        <v>19554000000</v>
+        <v>173440000000</v>
       </c>
       <c r="N64" t="n">
-        <v>80880730350</v>
+        <v>363074727460</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>花王株式会社</t>
+          <t>株式会社マンダム</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>4452</t>
+          <t>4917</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>6.5</v>
+        <v>32.5</v>
       </c>
       <c r="D65" t="n">
-        <v>6546</v>
+        <v>2362</v>
       </c>
       <c r="E65" t="n">
-        <v>6116.356643776557</v>
+        <v>2040</v>
       </c>
       <c r="F65" t="n">
-        <v>7</v>
+        <v>15.8</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>118328000000</v>
+        <v>13040000000</v>
       </c>
       <c r="J65" t="n">
-        <v>63976000000</v>
+        <v>15066000000</v>
       </c>
       <c r="K65" t="n">
-        <v>19009000000</v>
+        <v>6576000000</v>
       </c>
       <c r="L65" t="n">
-        <v>805867000000</v>
+        <v>69713000000</v>
       </c>
       <c r="M65" t="n">
-        <v>201313000000</v>
+        <v>34682000000</v>
       </c>
       <c r="N65" t="n">
-        <v>3080305247442</v>
+        <v>106614118364</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>サンケン電気株式会社</t>
+          <t>栄研化学株式会社</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>6707</t>
+          <t>4549</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>58.8</v>
+        <v>24.2</v>
       </c>
       <c r="D66" t="n">
-        <v>7726</v>
+        <v>2453</v>
       </c>
       <c r="E66" t="n">
-        <v>5478.947585152067</v>
+        <v>1678.083113259255</v>
       </c>
       <c r="F66" t="n">
-        <v>41</v>
+        <v>46.2</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>59812000000</v>
+        <v>6968000000</v>
       </c>
       <c r="J66" t="n">
-        <v>29348000000</v>
+        <v>11989000000</v>
       </c>
       <c r="K66" t="n">
-        <v>3029000000</v>
+        <v>597000000</v>
       </c>
       <c r="L66" t="n">
-        <v>113250000000</v>
+        <v>41672000000</v>
       </c>
       <c r="M66" t="n">
-        <v>92189000000</v>
+        <v>19554000000</v>
       </c>
       <c r="N66" t="n">
-        <v>156753277560</v>
+        <v>80880730557</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>京阪神ビルディング株式会社</t>
+          <t>花王株式会社</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>8818</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>114.1</v>
+        <v>6.5</v>
       </c>
       <c r="D67" t="n">
-        <v>1731</v>
+        <v>6549</v>
       </c>
       <c r="E67" t="n">
-        <v>1341.977644710579</v>
+        <v>6116.356643776557</v>
       </c>
       <c r="F67" t="n">
-        <v>29</v>
+        <v>7.1</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2024-02-07</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>21550649000</v>
+        <v>118328000000</v>
       </c>
       <c r="J67" t="n">
-        <v>56970145000</v>
+        <v>63976000000</v>
       </c>
       <c r="K67" t="n">
-        <v>17382863000</v>
+        <v>19009000000</v>
       </c>
       <c r="L67" t="n">
-        <v>70539690000</v>
+        <v>805867000000</v>
       </c>
       <c r="M67" t="n">
-        <v>95903657000</v>
+        <v>201313000000</v>
       </c>
       <c r="N67" t="n">
-        <v>84074306490</v>
+        <v>3081716936373</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>スタンレー電気株式会社</t>
+          <t>サンケン電気株式会社</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>6923</t>
+          <t>6707</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>39.3</v>
+        <v>58.8</v>
       </c>
       <c r="D68" t="n">
-        <v>3073</v>
+        <v>7739</v>
       </c>
       <c r="E68" t="n">
-        <v>2560</v>
+        <v>5478.947585152067</v>
       </c>
       <c r="F68" t="n">
-        <v>20</v>
+        <v>41.2</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>101399000000</v>
+        <v>59812000000</v>
       </c>
       <c r="J68" t="n">
-        <v>74909000000</v>
+        <v>29348000000</v>
       </c>
       <c r="K68" t="n">
-        <v>3998000000</v>
+        <v>3029000000</v>
       </c>
       <c r="L68" t="n">
-        <v>444651000000</v>
+        <v>113250000000</v>
       </c>
       <c r="M68" t="n">
-        <v>180306000000</v>
+        <v>92189000000</v>
       </c>
       <c r="N68" t="n">
-        <v>458420822664</v>
+        <v>156874900866</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>株式会社電通グループ</t>
+          <t>京阪神ビルディング株式会社</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>4324</t>
+          <t>8818</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>10.5</v>
+        <v>114.1</v>
       </c>
       <c r="D69" t="n">
-        <v>3326</v>
+        <v>1730</v>
       </c>
       <c r="E69" t="n">
-        <v>4156.179843576074</v>
+        <v>1341.977644710579</v>
       </c>
       <c r="F69" t="n">
-        <v>-20</v>
+        <v>28.9</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2023-03-10</t>
+          <t>2024-02-07</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>86652000000</v>
+        <v>21550649000</v>
       </c>
       <c r="J69" t="n">
-        <v>3784000000</v>
+        <v>56970145000</v>
       </c>
       <c r="K69" t="n">
-        <v>487000000</v>
+        <v>17382863000</v>
       </c>
       <c r="L69" t="n">
-        <v>616425000000</v>
+        <v>70539690000</v>
       </c>
       <c r="M69" t="n">
-        <v>90923000000</v>
+        <v>95903657000</v>
       </c>
       <c r="N69" t="n">
-        <v>863387775550</v>
+        <v>84025736700</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>科研製薬株式会社</t>
+          <t>スタンレー電気株式会社</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>4521</t>
+          <t>6923</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>73.3</v>
+        <v>39.8</v>
       </c>
       <c r="D70" t="n">
-        <v>3846</v>
+        <v>3040</v>
       </c>
       <c r="E70" t="n">
-        <v>3530</v>
+        <v>2560</v>
       </c>
       <c r="F70" t="n">
-        <v>9</v>
+        <v>18.8</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -4074,234 +4074,234 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2024-05-29</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>77305000000</v>
+        <v>101399000000</v>
       </c>
       <c r="J70" t="n">
-        <v>15734000000</v>
+        <v>74909000000</v>
       </c>
       <c r="K70" t="n">
-        <v>14699000000</v>
+        <v>3998000000</v>
       </c>
       <c r="L70" t="n">
-        <v>136257000000</v>
+        <v>444651000000</v>
       </c>
       <c r="M70" t="n">
-        <v>107738000000</v>
+        <v>180306000000</v>
       </c>
       <c r="N70" t="n">
-        <v>146943829704</v>
+        <v>453497982720</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>リンナイ株式会社</t>
+          <t>株式会社電通グループ</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>5947</t>
+          <t>4324</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>46.1</v>
+        <v>10.7</v>
       </c>
       <c r="D71" t="n">
-        <v>3612</v>
+        <v>3274</v>
       </c>
       <c r="E71" t="n">
-        <v>2844.704547285864</v>
+        <v>4156.179843576074</v>
       </c>
       <c r="F71" t="n">
-        <v>27</v>
+        <v>-21.2</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>ダルトン・インベストメンツ・エルエルシー</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2023-03-10</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>166524000000</v>
+        <v>86652000000</v>
       </c>
       <c r="J71" t="n">
-        <v>60632000000</v>
+        <v>3784000000</v>
       </c>
       <c r="K71" t="n">
-        <v>8068000000</v>
+        <v>487000000</v>
       </c>
       <c r="L71" t="n">
-        <v>371318000000</v>
+        <v>616425000000</v>
       </c>
       <c r="M71" t="n">
-        <v>235224000000</v>
+        <v>90923000000</v>
       </c>
       <c r="N71" t="n">
-        <v>509811867936</v>
+        <v>849889229450</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>株式会社ＡＣＳＬ</t>
+          <t>科研製薬株式会社</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>6232</t>
+          <t>4521</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>13</v>
+        <v>73.7</v>
       </c>
       <c r="D72" t="n">
-        <v>1028</v>
+        <v>3842</v>
       </c>
       <c r="E72" t="n">
-        <v>913.2768512341561</v>
+        <v>3530</v>
       </c>
       <c r="F72" t="n">
-        <v>12.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2023-11-29</t>
+          <t>2024-05-29</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>1891731000</v>
+        <v>77305000000</v>
       </c>
       <c r="J72" t="n">
-        <v>68181000</v>
+        <v>15734000000</v>
       </c>
       <c r="K72" t="n">
-        <v>241987000</v>
+        <v>14699000000</v>
       </c>
       <c r="L72" t="n">
-        <v>3572642000</v>
+        <v>136257000000</v>
       </c>
       <c r="M72" t="n">
-        <v>2201899000</v>
+        <v>107738000000</v>
       </c>
       <c r="N72" t="n">
-        <v>16904315836</v>
+        <v>146258600700</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>イリソ電子工業株式会社</t>
+          <t>リンナイ株式会社</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>6908</t>
+          <t>5947</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>31.5</v>
+        <v>46.4</v>
       </c>
       <c r="D73" t="n">
-        <v>3030</v>
+        <v>3588</v>
       </c>
       <c r="E73" t="n">
-        <v>2480</v>
+        <v>2844.704547285864</v>
       </c>
       <c r="F73" t="n">
-        <v>22.2</v>
+        <v>26.1</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>14260000000</v>
+        <v>166524000000</v>
       </c>
       <c r="J73" t="n">
-        <v>5778000000</v>
+        <v>60632000000</v>
       </c>
       <c r="K73" t="n">
-        <v>239000000</v>
+        <v>8068000000</v>
       </c>
       <c r="L73" t="n">
-        <v>54731000000</v>
+        <v>371318000000</v>
       </c>
       <c r="M73" t="n">
-        <v>20277000000</v>
+        <v>235224000000</v>
       </c>
       <c r="N73" t="n">
-        <v>64319931000</v>
+        <v>506424413664</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>イリソ電子工業株式会社</t>
+          <t>株式会社ＡＣＳＬ</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>6908</t>
+          <t>6232</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>31.5</v>
+        <v>12.4</v>
       </c>
       <c r="D74" t="n">
-        <v>3030</v>
+        <v>1048</v>
       </c>
       <c r="E74" t="n">
-        <v>2504.338645418327</v>
+        <v>913.2768512341561</v>
       </c>
       <c r="F74" t="n">
-        <v>21</v>
+        <v>14.8</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2023-11-29</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>14260000000</v>
+        <v>1891731000</v>
       </c>
       <c r="J74" t="n">
-        <v>5778000000</v>
+        <v>68181000</v>
       </c>
       <c r="K74" t="n">
-        <v>239000000</v>
+        <v>241987000</v>
       </c>
       <c r="L74" t="n">
-        <v>54731000000</v>
+        <v>3572642000</v>
       </c>
       <c r="M74" t="n">
-        <v>20277000000</v>
+        <v>2201899000</v>
       </c>
       <c r="N74" t="n">
-        <v>64319931000</v>
+        <v>17731781672</v>
       </c>
     </row>
     <row r="75">
@@ -4319,13 +4319,13 @@
         <v>31.5</v>
       </c>
       <c r="D75" t="n">
-        <v>3030</v>
+        <v>3035</v>
       </c>
       <c r="E75" t="n">
-        <v>2880</v>
+        <v>2480</v>
       </c>
       <c r="F75" t="n">
-        <v>5.2</v>
+        <v>22.4</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -4334,7 +4334,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -4353,31 +4353,31 @@
         <v>20277000000</v>
       </c>
       <c r="N75" t="n">
-        <v>64319931000</v>
+        <v>64426069500</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>株式会社あおぞら銀行</t>
+          <t>イリソ電子工業株式会社</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>8304</t>
+          <t>6908</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>263.7</v>
+        <v>31.5</v>
       </c>
       <c r="D76" t="n">
-        <v>2387</v>
+        <v>3035</v>
       </c>
       <c r="E76" t="n">
-        <v>2190</v>
+        <v>2504.338645418327</v>
       </c>
       <c r="F76" t="n">
-        <v>9</v>
+        <v>21.2</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4386,250 +4386,250 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2024-02-20</t>
+          <t>2024-10-22</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>847732000000</v>
+        <v>14260000000</v>
       </c>
       <c r="J76" t="n">
-        <v>23159000000</v>
+        <v>5778000000</v>
       </c>
       <c r="K76" t="n">
-        <v>0</v>
+        <v>239000000</v>
       </c>
       <c r="L76" t="n">
-        <v>490006000000</v>
+        <v>54731000000</v>
       </c>
       <c r="M76" t="n">
-        <v>870891000000</v>
+        <v>20277000000</v>
       </c>
       <c r="N76" t="n">
-        <v>330315661830</v>
+        <v>64426069500</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>株式会社東北新社</t>
+          <t>イリソ電子工業株式会社</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2329</t>
+          <t>6908</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>38.7</v>
+        <v>31.5</v>
       </c>
       <c r="D77" t="n">
-        <v>660</v>
-      </c>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
+        <v>3035</v>
+      </c>
+      <c r="E77" t="n">
+        <v>2880</v>
+      </c>
+      <c r="F77" t="n">
+        <v>5.4</v>
+      </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2023-03-13</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>30866000000</v>
+        <v>14260000000</v>
       </c>
       <c r="J77" t="n">
-        <v>4464000000</v>
+        <v>5778000000</v>
       </c>
       <c r="K77" t="n">
-        <v>73000000</v>
+        <v>239000000</v>
       </c>
       <c r="L77" t="n">
-        <v>72266000000</v>
+        <v>54731000000</v>
       </c>
       <c r="M77" t="n">
-        <v>35403000000</v>
+        <v>20277000000</v>
       </c>
       <c r="N77" t="n">
-        <v>91402281960</v>
+        <v>64426069500</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>株式会社東北新社</t>
+          <t>株式会社あおぞら銀行</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2329</t>
+          <t>8304</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>38.7</v>
+        <v>266.6</v>
       </c>
       <c r="D78" t="n">
-        <v>660</v>
-      </c>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
+        <v>2361</v>
+      </c>
+      <c r="E78" t="n">
+        <v>2190</v>
+      </c>
+      <c r="F78" t="n">
+        <v>7.8</v>
+      </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2023-03-13</t>
+          <t>2024-02-20</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>30866000000</v>
+        <v>847732000000</v>
       </c>
       <c r="J78" t="n">
-        <v>4464000000</v>
+        <v>23159000000</v>
       </c>
       <c r="K78" t="n">
-        <v>73000000</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
-        <v>72266000000</v>
+        <v>490006000000</v>
       </c>
       <c r="M78" t="n">
-        <v>35403000000</v>
+        <v>870891000000</v>
       </c>
       <c r="N78" t="n">
-        <v>91402281960</v>
+        <v>326717753490</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>株式会社トプコン</t>
+          <t>株式会社東北新社</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>7732</t>
+          <t>2329</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>10.8</v>
+        <v>39.1</v>
       </c>
       <c r="D79" t="n">
-        <v>3277</v>
-      </c>
-      <c r="E79" t="n">
-        <v>2085.872134468915</v>
-      </c>
-      <c r="F79" t="n">
-        <v>57.1</v>
-      </c>
+        <v>657</v>
+      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2023-03-13</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>20446000000</v>
+        <v>30866000000</v>
       </c>
       <c r="J79" t="n">
-        <v>10856000000</v>
+        <v>4464000000</v>
       </c>
       <c r="K79" t="n">
-        <v>6017000000</v>
+        <v>73000000</v>
       </c>
       <c r="L79" t="n">
-        <v>70687000000</v>
+        <v>72266000000</v>
       </c>
       <c r="M79" t="n">
-        <v>37319000000</v>
+        <v>35403000000</v>
       </c>
       <c r="N79" t="n">
-        <v>346783019640</v>
+        <v>90438703623</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>月島ホールディングス株式会社</t>
+          <t>株式会社東北新社</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>6332</t>
+          <t>2329</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>63.2</v>
+        <v>39.1</v>
       </c>
       <c r="D80" t="n">
-        <v>3050</v>
-      </c>
-      <c r="E80" t="n">
-        <v>1410</v>
-      </c>
-      <c r="F80" t="n">
-        <v>116.3</v>
-      </c>
+        <v>657</v>
+      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2023-03-13</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>33870000000</v>
+        <v>30866000000</v>
       </c>
       <c r="J80" t="n">
-        <v>23318000000</v>
+        <v>4464000000</v>
       </c>
       <c r="K80" t="n">
-        <v>25387000000</v>
+        <v>73000000</v>
       </c>
       <c r="L80" t="n">
-        <v>71784000000</v>
+        <v>72266000000</v>
       </c>
       <c r="M80" t="n">
-        <v>82575000000</v>
+        <v>35403000000</v>
       </c>
       <c r="N80" t="n">
-        <v>130565586450</v>
+        <v>90438703623</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>東京都競馬株式会社</t>
+          <t>株式会社トプコン</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>9672</t>
+          <t>7732</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>35.6</v>
+        <v>10.8</v>
       </c>
       <c r="D81" t="n">
-        <v>5340</v>
+        <v>3281</v>
       </c>
       <c r="E81" t="n">
-        <v>3891.73752540545</v>
+        <v>2085.872134468915</v>
       </c>
       <c r="F81" t="n">
-        <v>37.2</v>
+        <v>57.3</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4638,50 +4638,50 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>15161482000</v>
+        <v>20446000000</v>
       </c>
       <c r="J81" t="n">
-        <v>32537201000</v>
+        <v>10856000000</v>
       </c>
       <c r="K81" t="n">
-        <v>3000000000</v>
+        <v>6017000000</v>
       </c>
       <c r="L81" t="n">
-        <v>70534868000</v>
+        <v>70687000000</v>
       </c>
       <c r="M81" t="n">
-        <v>50698683000</v>
+        <v>37319000000</v>
       </c>
       <c r="N81" t="n">
-        <v>142534212000</v>
+        <v>346044733928</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ホシデン株式会社</t>
+          <t>月島ホールディングス株式会社</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>6804</t>
+          <t>6332</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>75.90000000000001</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>2359</v>
+        <v>2886</v>
       </c>
       <c r="E82" t="n">
-        <v>1303.446424801713</v>
+        <v>1410</v>
       </c>
       <c r="F82" t="n">
-        <v>81</v>
+        <v>104.7</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4690,514 +4690,514 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2023-02-13</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>69522000000</v>
+        <v>33870000000</v>
       </c>
       <c r="J82" t="n">
-        <v>6944000000</v>
+        <v>23318000000</v>
       </c>
       <c r="K82" t="n">
-        <v>14624000000</v>
+        <v>25387000000</v>
       </c>
       <c r="L82" t="n">
-        <v>109250000000</v>
+        <v>71784000000</v>
       </c>
       <c r="M82" t="n">
-        <v>91090000000</v>
+        <v>82575000000</v>
       </c>
       <c r="N82" t="n">
-        <v>120044282456</v>
+        <v>120387311070</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>大阪製鐵株式会社</t>
+          <t>東京都競馬株式会社</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>5449</t>
+          <t>9672</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>85.2</v>
+        <v>35.3</v>
       </c>
       <c r="D83" t="n">
-        <v>2819</v>
+        <v>5380</v>
       </c>
       <c r="E83" t="n">
-        <v>1748.071046781136</v>
+        <v>3891.73752540545</v>
       </c>
       <c r="F83" t="n">
-        <v>61.3</v>
+        <v>38.2</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2023-12-19</t>
+          <t>2023-03-28</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>62621000000</v>
+        <v>15161482000</v>
       </c>
       <c r="J83" t="n">
-        <v>8568000000</v>
+        <v>32537201000</v>
       </c>
       <c r="K83" t="n">
-        <v>669000000</v>
+        <v>3000000000</v>
       </c>
       <c r="L83" t="n">
-        <v>148514000000</v>
+        <v>70534868000</v>
       </c>
       <c r="M83" t="n">
-        <v>71858000000</v>
+        <v>50698683000</v>
       </c>
       <c r="N83" t="n">
-        <v>84341629991</v>
+        <v>143601884000</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>東ソー株式会社</t>
+          <t>ホシデン株式会社</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>4042</t>
+          <t>6804</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>43.8</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>2329.5</v>
+        <v>2353</v>
       </c>
       <c r="E84" t="n">
-        <v>2032.365850102071</v>
+        <v>1303.446424801713</v>
       </c>
       <c r="F84" t="n">
-        <v>14.6</v>
+        <v>80.5</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2024-06-04</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>148397000000</v>
+        <v>69522000000</v>
       </c>
       <c r="J84" t="n">
-        <v>104609000000</v>
+        <v>6944000000</v>
       </c>
       <c r="K84" t="n">
-        <v>70724000000</v>
+        <v>14624000000</v>
       </c>
       <c r="L84" t="n">
-        <v>661679000000</v>
+        <v>109250000000</v>
       </c>
       <c r="M84" t="n">
-        <v>323730000000</v>
+        <v>91090000000</v>
       </c>
       <c r="N84" t="n">
-        <v>738643124670</v>
+        <v>119738955752</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>エン・ジャパン株式会社</t>
+          <t>大阪製鐵株式会社</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>4849</t>
+          <t>5449</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>44.1</v>
+        <v>85.2</v>
       </c>
       <c r="D85" t="n">
-        <v>1694</v>
+        <v>2819</v>
       </c>
       <c r="E85" t="n">
-        <v>1746.940387696806</v>
+        <v>1748.071046781136</v>
       </c>
       <c r="F85" t="n">
-        <v>-3</v>
+        <v>61.3</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2023-12-19</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>26835000000</v>
+        <v>62621000000</v>
       </c>
       <c r="J85" t="n">
-        <v>1019000000</v>
+        <v>8568000000</v>
       </c>
       <c r="K85" t="n">
-        <v>2000000000</v>
+        <v>669000000</v>
       </c>
       <c r="L85" t="n">
-        <v>36856000000</v>
+        <v>148514000000</v>
       </c>
       <c r="M85" t="n">
-        <v>29854000000</v>
+        <v>71858000000</v>
       </c>
       <c r="N85" t="n">
-        <v>67666787650</v>
+        <v>84341629991</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>江崎グリコ株式会社</t>
+          <t>東ソー株式会社</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2206</t>
+          <t>4042</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>54</v>
+        <v>44.9</v>
       </c>
       <c r="D86" t="n">
-        <v>5200</v>
+        <v>2273.5</v>
       </c>
       <c r="E86" t="n">
-        <v>4154.626869982095</v>
+        <v>2032.365850102071</v>
       </c>
       <c r="F86" t="n">
-        <v>25.2</v>
+        <v>11.9</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>2024-06-04</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>92449000000</v>
+        <v>148397000000</v>
       </c>
       <c r="J86" t="n">
-        <v>40203000000</v>
+        <v>104609000000</v>
       </c>
       <c r="K86" t="n">
-        <v>46840000000</v>
+        <v>70724000000</v>
       </c>
       <c r="L86" t="n">
-        <v>222551000000</v>
+        <v>661679000000</v>
       </c>
       <c r="M86" t="n">
-        <v>179492000000</v>
+        <v>323730000000</v>
       </c>
       <c r="N86" t="n">
-        <v>332449494000</v>
+        <v>720886518110</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>イワブチ株式会社</t>
+          <t>エン・ジャパン株式会社</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>5983</t>
+          <t>4849</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>73.90000000000001</v>
+        <v>45.3</v>
       </c>
       <c r="D87" t="n">
-        <v>10820</v>
+        <v>1654</v>
       </c>
       <c r="E87" t="n">
-        <v>7040.15625</v>
+        <v>1746.940387696806</v>
       </c>
       <c r="F87" t="n">
-        <v>53.7</v>
+        <v>-5.3</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>ＳＥＮＪＩＮ　ＣＡＰＩＴＡＬ　ＰＴＹ　ＬＴＤ</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>4688085000</v>
+        <v>26835000000</v>
       </c>
       <c r="J87" t="n">
-        <v>1422820000</v>
+        <v>1019000000</v>
       </c>
       <c r="K87" t="n">
-        <v>2670408000</v>
+        <v>2000000000</v>
       </c>
       <c r="L87" t="n">
-        <v>16426704000</v>
+        <v>36856000000</v>
       </c>
       <c r="M87" t="n">
-        <v>8781313000</v>
+        <v>29854000000</v>
       </c>
       <c r="N87" t="n">
-        <v>11878304200</v>
+        <v>65913348904</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>イワブチ株式会社</t>
+          <t>江崎グリコ株式会社</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>5983</t>
+          <t>2206</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>73.90000000000001</v>
+        <v>54.1</v>
       </c>
       <c r="D88" t="n">
-        <v>10820</v>
+        <v>5188</v>
       </c>
       <c r="E88" t="n">
-        <v>7040.15625</v>
+        <v>4154.626869982095</v>
       </c>
       <c r="F88" t="n">
-        <v>53.7</v>
+        <v>24.9</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>ＳＥＮＪＩＮ　ＣＡＰＩＴＡＬ　ＰＴＹ　ＬＴＤ</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2024-07-10</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>4688085000</v>
+        <v>92449000000</v>
       </c>
       <c r="J88" t="n">
-        <v>1422820000</v>
+        <v>40203000000</v>
       </c>
       <c r="K88" t="n">
-        <v>2670408000</v>
+        <v>46840000000</v>
       </c>
       <c r="L88" t="n">
-        <v>16426704000</v>
+        <v>222551000000</v>
       </c>
       <c r="M88" t="n">
-        <v>8781313000</v>
+        <v>179492000000</v>
       </c>
       <c r="N88" t="n">
-        <v>11878304200</v>
+        <v>331682302860</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>株式会社おきなわフィナンシャルグループ</t>
+          <t>イワブチ株式会社</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>7350</t>
+          <t>5983</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>768.6</v>
+        <v>81.3</v>
       </c>
       <c r="D89" t="n">
-        <v>3715</v>
-      </c>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
+        <v>10220</v>
+      </c>
+      <c r="E89" t="n">
+        <v>7040.15625</v>
+      </c>
+      <c r="F89" t="n">
+        <v>45.2</v>
+      </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>ＳＥＮＪＩＮ　ＣＡＰＩＴＡＬ　ＰＴＹ　ＬＴＤ</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2023-05-16</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>590636000000</v>
+        <v>4688085000</v>
       </c>
       <c r="J89" t="n">
-        <v>18477000000</v>
+        <v>1422820000</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>2670408000</v>
       </c>
       <c r="L89" t="n">
-        <v>159392000000</v>
+        <v>16426704000</v>
       </c>
       <c r="M89" t="n">
-        <v>609113000000</v>
+        <v>8781313000</v>
       </c>
       <c r="N89" t="n">
-        <v>79250609000</v>
+        <v>10800383580</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>アークランズ株式会社</t>
+          <t>イワブチ株式会社</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>9842</t>
+          <t>5983</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>112.8</v>
+        <v>81.3</v>
       </c>
       <c r="D90" t="n">
-        <v>1899</v>
+        <v>10220</v>
       </c>
       <c r="E90" t="n">
-        <v>1469.167707232735</v>
+        <v>7040.15625</v>
       </c>
       <c r="F90" t="n">
-        <v>29.3</v>
+        <v>45.2</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>ＳＥＮＪＩＮ　ＣＡＰＩＴＡＬ　ＰＴＹ　ＬＴＤ</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2023-03-30</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>25605000000</v>
+        <v>4688085000</v>
       </c>
       <c r="J90" t="n">
-        <v>95781000000</v>
+        <v>1422820000</v>
       </c>
       <c r="K90" t="n">
-        <v>12051000000</v>
+        <v>2670408000</v>
       </c>
       <c r="L90" t="n">
-        <v>91048000000</v>
+        <v>16426704000</v>
       </c>
       <c r="M90" t="n">
-        <v>133437000000</v>
+        <v>8781313000</v>
       </c>
       <c r="N90" t="n">
-        <v>118305421200</v>
+        <v>10800383580</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>アークランズ株式会社</t>
+          <t>株式会社おきなわフィナンシャルグループ</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>9842</t>
+          <t>7350</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>112.8</v>
+        <v>767.6</v>
       </c>
       <c r="D91" t="n">
-        <v>1899</v>
-      </c>
-      <c r="E91" t="n">
-        <v>1489.94784546053</v>
-      </c>
-      <c r="F91" t="n">
-        <v>27.5</v>
-      </c>
+        <v>3720</v>
+      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2022-09-27</t>
+          <t>2023-05-16</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>25605000000</v>
+        <v>590636000000</v>
       </c>
       <c r="J91" t="n">
-        <v>95781000000</v>
+        <v>18477000000</v>
       </c>
       <c r="K91" t="n">
-        <v>12051000000</v>
+        <v>0</v>
       </c>
       <c r="L91" t="n">
-        <v>91048000000</v>
+        <v>159392000000</v>
       </c>
       <c r="M91" t="n">
-        <v>133437000000</v>
+        <v>609113000000</v>
       </c>
       <c r="N91" t="n">
-        <v>118305421200</v>
+        <v>79357272000</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>三井住建道路株式会社</t>
+          <t>アークランズ株式会社</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>1776</t>
+          <t>9842</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>99.5</v>
+        <v>110.6</v>
       </c>
       <c r="D92" t="n">
-        <v>1466</v>
+        <v>1937</v>
       </c>
       <c r="E92" t="n">
-        <v>1212.640316205534</v>
+        <v>1469.167707232735</v>
       </c>
       <c r="F92" t="n">
-        <v>20.9</v>
+        <v>31.8</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -5206,154 +5206,154 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2023-03-30</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>10677000000</v>
+        <v>25605000000</v>
       </c>
       <c r="J92" t="n">
-        <v>2762000000</v>
+        <v>95781000000</v>
       </c>
       <c r="K92" t="n">
-        <v>7000000</v>
+        <v>12051000000</v>
       </c>
       <c r="L92" t="n">
-        <v>12543000000</v>
+        <v>91048000000</v>
       </c>
       <c r="M92" t="n">
-        <v>13446000000</v>
+        <v>133437000000</v>
       </c>
       <c r="N92" t="n">
-        <v>13510251384</v>
+        <v>120672775600</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>参天製薬株式会社</t>
+          <t>アークランズ株式会社</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>4536</t>
+          <t>9842</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>10.2</v>
+        <v>110.6</v>
       </c>
       <c r="D93" t="n">
-        <v>1646</v>
+        <v>1937</v>
       </c>
       <c r="E93" t="n">
-        <v>1344.518957928979</v>
+        <v>1489.94784546053</v>
       </c>
       <c r="F93" t="n">
-        <v>22.4</v>
+        <v>30</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2024-04-19</t>
+          <t>2022-09-27</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>34203000000</v>
+        <v>25605000000</v>
       </c>
       <c r="J93" t="n">
-        <v>6796000000</v>
+        <v>95781000000</v>
       </c>
       <c r="K93" t="n">
-        <v>14270000000</v>
+        <v>12051000000</v>
       </c>
       <c r="L93" t="n">
-        <v>294231000000</v>
+        <v>91048000000</v>
       </c>
       <c r="M93" t="n">
-        <v>55269000000</v>
+        <v>133437000000</v>
       </c>
       <c r="N93" t="n">
-        <v>540559418214</v>
+        <v>120672775600</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>コクヨ株式会社</t>
+          <t>三井住建道路株式会社</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>7984</t>
+          <t>1776</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>34.9</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>915.7000122070312</v>
+        <v>1469</v>
       </c>
       <c r="E94" t="n">
-        <v>2157.626835069302</v>
+        <v>1212.640316205534</v>
       </c>
       <c r="F94" t="n">
-        <v>-57.6</v>
+        <v>21.1</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>90577000000</v>
+        <v>10677000000</v>
       </c>
       <c r="J94" t="n">
-        <v>21360000000</v>
+        <v>2762000000</v>
       </c>
       <c r="K94" t="n">
-        <v>30086000000</v>
+        <v>7000000</v>
       </c>
       <c r="L94" t="n">
-        <v>226335000000</v>
+        <v>12543000000</v>
       </c>
       <c r="M94" t="n">
-        <v>142023000000</v>
+        <v>13446000000</v>
       </c>
       <c r="N94" t="n">
-        <v>407380840061</v>
+        <v>13501060443</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ヤマハ発動機株式会社</t>
+          <t>参天製薬株式会社</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>7272</t>
+          <t>4536</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>33.8</v>
+        <v>10.4</v>
       </c>
       <c r="D95" t="n">
-        <v>1113</v>
+        <v>1629</v>
       </c>
       <c r="E95" t="n">
-        <v>2968.770104870396</v>
+        <v>1344.518957928979</v>
       </c>
       <c r="F95" t="n">
-        <v>-62.5</v>
+        <v>21.2</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -5362,50 +5362,50 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2023-01-16</t>
+          <t>2024-04-19</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>267180000000</v>
+        <v>34203000000</v>
       </c>
       <c r="J95" t="n">
-        <v>48711000000</v>
+        <v>6796000000</v>
       </c>
       <c r="K95" t="n">
-        <v>49039000000</v>
+        <v>14270000000</v>
       </c>
       <c r="L95" t="n">
-        <v>749158000000</v>
+        <v>294231000000</v>
       </c>
       <c r="M95" t="n">
-        <v>364930000000</v>
+        <v>55269000000</v>
       </c>
       <c r="N95" t="n">
-        <v>1079137130820</v>
+        <v>533679571701</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>相模ゴム工業株式会社</t>
+          <t>コクヨ株式会社</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>5194</t>
+          <t>7984</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>44.9</v>
+        <v>35.5</v>
       </c>
       <c r="D96" t="n">
-        <v>955</v>
+        <v>911.2999877929688</v>
       </c>
       <c r="E96" t="n">
-        <v>933.1435874692879</v>
+        <v>2157.626835069302</v>
       </c>
       <c r="F96" t="n">
-        <v>2.3</v>
+        <v>-57.8</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -5414,258 +5414,258 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2023-08-28</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>1474580000</v>
+        <v>90577000000</v>
       </c>
       <c r="J96" t="n">
-        <v>2373852000</v>
+        <v>21360000000</v>
       </c>
       <c r="K96" t="n">
-        <v>804741000</v>
+        <v>30086000000</v>
       </c>
       <c r="L96" t="n">
-        <v>7569765000</v>
+        <v>226335000000</v>
       </c>
       <c r="M96" t="n">
-        <v>4653173000</v>
+        <v>142023000000</v>
       </c>
       <c r="N96" t="n">
-        <v>10367862000</v>
+        <v>400481283279</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>日本特殊塗料株式会社</t>
+          <t>ヤマハ発動機株式会社</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>4619</t>
+          <t>7272</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>82.59999999999999</v>
+        <v>33.8</v>
       </c>
       <c r="D97" t="n">
-        <v>2185</v>
+        <v>1115</v>
       </c>
       <c r="E97" t="n">
-        <v>1190</v>
+        <v>2968.770104870396</v>
       </c>
       <c r="F97" t="n">
-        <v>83.59999999999999</v>
+        <v>-62.4</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2023-01-16</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>6518000000</v>
+        <v>267180000000</v>
       </c>
       <c r="J97" t="n">
-        <v>9792000000</v>
+        <v>48711000000</v>
       </c>
       <c r="K97" t="n">
-        <v>23167000000</v>
+        <v>49039000000</v>
       </c>
       <c r="L97" t="n">
-        <v>47154000000</v>
+        <v>749158000000</v>
       </c>
       <c r="M97" t="n">
-        <v>39477000000</v>
+        <v>364930000000</v>
       </c>
       <c r="N97" t="n">
-        <v>47788436530</v>
+        <v>1081076281100</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>株式会社西武ホールディングス</t>
+          <t>相模ゴム工業株式会社</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>9024</t>
+          <t>5194</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>39.7</v>
+        <v>45.2</v>
       </c>
       <c r="D98" t="n">
-        <v>5541</v>
+        <v>949</v>
       </c>
       <c r="E98" t="n">
-        <v>1716.713876475349</v>
+        <v>933.1435874692879</v>
       </c>
       <c r="F98" t="n">
-        <v>222.8</v>
+        <v>1.7</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2024-05-07</t>
+          <t>2023-08-28</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>28538000000</v>
+        <v>1474580000</v>
       </c>
       <c r="J98" t="n">
-        <v>485513000000</v>
+        <v>2373852000</v>
       </c>
       <c r="K98" t="n">
-        <v>49954000000</v>
+        <v>804741000</v>
       </c>
       <c r="L98" t="n">
-        <v>385687000000</v>
+        <v>7569765000</v>
       </c>
       <c r="M98" t="n">
-        <v>564005000000</v>
+        <v>4653173000</v>
       </c>
       <c r="N98" t="n">
-        <v>1422067135713</v>
+        <v>10302723600</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>株式会社ＴＳＩホールディングス</t>
+          <t>日本特殊塗料株式会社</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>3608</t>
+          <t>4619</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>125.4</v>
+        <v>84.3</v>
       </c>
       <c r="D99" t="n">
-        <v>1083</v>
+        <v>2153</v>
       </c>
       <c r="E99" t="n">
-        <v>438.851170934559</v>
+        <v>1190</v>
       </c>
       <c r="F99" t="n">
-        <v>146.8</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>49761000000</v>
+        <v>6518000000</v>
       </c>
       <c r="J99" t="n">
-        <v>4425000000</v>
+        <v>9792000000</v>
       </c>
       <c r="K99" t="n">
-        <v>25137000000</v>
+        <v>23167000000</v>
       </c>
       <c r="L99" t="n">
-        <v>97430000000</v>
+        <v>47154000000</v>
       </c>
       <c r="M99" t="n">
-        <v>79323000000</v>
+        <v>39477000000</v>
       </c>
       <c r="N99" t="n">
-        <v>63265235199</v>
+        <v>46831362734</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>コニシ株式会社</t>
+          <t>株式会社西武ホールディングス</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>4956</t>
+          <t>9024</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>55.8</v>
+        <v>41.4</v>
       </c>
       <c r="D100" t="n">
-        <v>1303</v>
+        <v>5357</v>
       </c>
       <c r="E100" t="n">
-        <v>1605.189780306002</v>
+        <v>1716.713876475349</v>
       </c>
       <c r="F100" t="n">
-        <v>-18.8</v>
+        <v>212</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2023-01-11</t>
+          <t>2024-05-07</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>23721000000</v>
+        <v>28538000000</v>
       </c>
       <c r="J100" t="n">
-        <v>13167000000</v>
+        <v>485513000000</v>
       </c>
       <c r="K100" t="n">
-        <v>11402000000</v>
+        <v>49954000000</v>
       </c>
       <c r="L100" t="n">
-        <v>68785000000</v>
+        <v>385687000000</v>
       </c>
       <c r="M100" t="n">
-        <v>48290000000</v>
+        <v>564005000000</v>
       </c>
       <c r="N100" t="n">
-        <v>86464995200</v>
+        <v>1361331961132</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>倉敷紡績株式会社</t>
+          <t>株式会社ＴＳＩホールディングス</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>3106</t>
+          <t>3608</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>82.5</v>
+        <v>125</v>
       </c>
       <c r="D101" t="n">
-        <v>7050</v>
+        <v>1086</v>
       </c>
       <c r="E101" t="n">
-        <v>4549.503641591014</v>
+        <v>438.851170934559</v>
       </c>
       <c r="F101" t="n">
-        <v>55</v>
+        <v>147.5</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5674,310 +5674,310 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>22059000000</v>
+        <v>49761000000</v>
       </c>
       <c r="J101" t="n">
-        <v>21438000000</v>
+        <v>4425000000</v>
       </c>
       <c r="K101" t="n">
-        <v>53409000000</v>
+        <v>25137000000</v>
       </c>
       <c r="L101" t="n">
-        <v>95004000000</v>
+        <v>97430000000</v>
       </c>
       <c r="M101" t="n">
-        <v>96906000000</v>
+        <v>79323000000</v>
       </c>
       <c r="N101" t="n">
-        <v>117427803300</v>
+        <v>63440485158</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>日本ゼオン株式会社</t>
+          <t>コニシ株式会社</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>4205</t>
+          <t>4956</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>54.2</v>
+        <v>55.6</v>
       </c>
       <c r="D102" t="n">
-        <v>1695</v>
+        <v>1308</v>
       </c>
       <c r="E102" t="n">
-        <v>1721.078563209627</v>
+        <v>1605.189780306002</v>
       </c>
       <c r="F102" t="n">
-        <v>-1.5</v>
+        <v>-18.5</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2023-01-11</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>48152000000</v>
+        <v>23721000000</v>
       </c>
       <c r="J102" t="n">
-        <v>45247000000</v>
+        <v>13167000000</v>
       </c>
       <c r="K102" t="n">
-        <v>85316000000</v>
+        <v>11402000000</v>
       </c>
       <c r="L102" t="n">
-        <v>298246000000</v>
+        <v>68785000000</v>
       </c>
       <c r="M102" t="n">
-        <v>178715000000</v>
+        <v>48290000000</v>
       </c>
       <c r="N102" t="n">
-        <v>329605893030</v>
+        <v>86796787200</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>大東建託株式会社</t>
+          <t>倉敷紡績株式会社</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>1878</t>
+          <t>3106</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>24.2</v>
+        <v>82.8</v>
       </c>
       <c r="D103" t="n">
-        <v>16440</v>
+        <v>7050</v>
       </c>
       <c r="E103" t="n">
-        <v>13739.64575539568</v>
+        <v>4549.503641591014</v>
       </c>
       <c r="F103" t="n">
-        <v>19.7</v>
+        <v>55</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>198760000000</v>
+        <v>22059000000</v>
       </c>
       <c r="J103" t="n">
-        <v>62873000000</v>
+        <v>21438000000</v>
       </c>
       <c r="K103" t="n">
-        <v>3798000000</v>
+        <v>53409000000</v>
       </c>
       <c r="L103" t="n">
-        <v>308206000000</v>
+        <v>95004000000</v>
       </c>
       <c r="M103" t="n">
-        <v>265431000000</v>
+        <v>96906000000</v>
       </c>
       <c r="N103" t="n">
-        <v>1098118891320</v>
+        <v>117095614350</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>大東建託株式会社</t>
+          <t>日本ゼオン株式会社</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>1878</t>
+          <t>4205</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>24.2</v>
+        <v>54.8</v>
       </c>
       <c r="D104" t="n">
-        <v>16440</v>
+        <v>1677</v>
       </c>
       <c r="E104" t="n">
-        <v>12975.86280814577</v>
+        <v>1721.078563209627</v>
       </c>
       <c r="F104" t="n">
-        <v>26.7</v>
+        <v>-2.6</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2023-06-02</t>
+          <t>2024-08-30</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>198760000000</v>
+        <v>48152000000</v>
       </c>
       <c r="J104" t="n">
-        <v>62873000000</v>
+        <v>45247000000</v>
       </c>
       <c r="K104" t="n">
-        <v>3798000000</v>
+        <v>85316000000</v>
       </c>
       <c r="L104" t="n">
-        <v>308206000000</v>
+        <v>298246000000</v>
       </c>
       <c r="M104" t="n">
-        <v>265431000000</v>
+        <v>178715000000</v>
       </c>
       <c r="N104" t="n">
-        <v>1098118891320</v>
+        <v>326105653458</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>株式会社ツルハホールディングス</t>
+          <t>大東建託株式会社</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>3391</t>
+          <t>1878</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>40.6</v>
+        <v>24.6</v>
       </c>
       <c r="D105" t="n">
-        <v>2345</v>
+        <v>16310</v>
       </c>
       <c r="E105" t="n">
-        <v>4544.200649553184</v>
+        <v>13739.64575539568</v>
       </c>
       <c r="F105" t="n">
-        <v>-48.4</v>
+        <v>18.7</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2023-05-08</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>116398000000</v>
+        <v>198760000000</v>
       </c>
       <c r="J105" t="n">
-        <v>83437000000</v>
+        <v>62873000000</v>
       </c>
       <c r="K105" t="n">
-        <v>34181000000</v>
+        <v>3798000000</v>
       </c>
       <c r="L105" t="n">
-        <v>276528000000</v>
+        <v>308206000000</v>
       </c>
       <c r="M105" t="n">
-        <v>234016000000</v>
+        <v>265431000000</v>
       </c>
       <c r="N105" t="n">
-        <v>576161376175</v>
+        <v>1080888295480</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>株式会社ツルハホールディングス</t>
+          <t>大東建託株式会社</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>3391</t>
+          <t>1878</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>40.6</v>
+        <v>24.6</v>
       </c>
       <c r="D106" t="n">
-        <v>2345</v>
+        <v>16310</v>
       </c>
       <c r="E106" t="n">
-        <v>8262.359904024779</v>
+        <v>12975.86280814577</v>
       </c>
       <c r="F106" t="n">
-        <v>-71.59999999999999</v>
+        <v>25.7</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2022-12-19</t>
+          <t>2023-06-02</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>116398000000</v>
+        <v>198760000000</v>
       </c>
       <c r="J106" t="n">
-        <v>83437000000</v>
+        <v>62873000000</v>
       </c>
       <c r="K106" t="n">
-        <v>34181000000</v>
+        <v>3798000000</v>
       </c>
       <c r="L106" t="n">
-        <v>276528000000</v>
+        <v>308206000000</v>
       </c>
       <c r="M106" t="n">
-        <v>234016000000</v>
+        <v>265431000000</v>
       </c>
       <c r="N106" t="n">
-        <v>576161376175</v>
+        <v>1080888295480</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>株式会社アインホールディングス</t>
+          <t>株式会社ツルハホールディングス</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>9627</t>
+          <t>3391</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D107" t="n">
-        <v>6969</v>
+        <v>2439.5</v>
       </c>
       <c r="E107" t="n">
-        <v>2836.942753814942</v>
+        <v>4544.200649553184</v>
       </c>
       <c r="F107" t="n">
-        <v>145.7</v>
+        <v>-46.3</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5986,50 +5986,50 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2023-05-08</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>55009000000</v>
+        <v>116398000000</v>
       </c>
       <c r="J107" t="n">
-        <v>27122000000</v>
+        <v>83437000000</v>
       </c>
       <c r="K107" t="n">
-        <v>3345000000</v>
+        <v>34181000000</v>
       </c>
       <c r="L107" t="n">
-        <v>115837000000</v>
+        <v>276528000000</v>
       </c>
       <c r="M107" t="n">
-        <v>85476000000</v>
+        <v>234016000000</v>
       </c>
       <c r="N107" t="n">
-        <v>244425305025</v>
+        <v>599379819692</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ＤＩＣ株式会社</t>
+          <t>株式会社ツルハホールディングス</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>4631</t>
+          <t>3391</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>68.90000000000001</v>
+        <v>39</v>
       </c>
       <c r="D108" t="n">
-        <v>3639</v>
+        <v>2439.5</v>
       </c>
       <c r="E108" t="n">
-        <v>2566.284807227078</v>
+        <v>8262.359904024779</v>
       </c>
       <c r="F108" t="n">
-        <v>41.8</v>
+        <v>-70.5</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -6038,50 +6038,50 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2023-12-21</t>
+          <t>2022-12-19</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>41354000000</v>
+        <v>116398000000</v>
       </c>
       <c r="J108" t="n">
-        <v>133062000000</v>
+        <v>83437000000</v>
       </c>
       <c r="K108" t="n">
-        <v>63071000000</v>
+        <v>34181000000</v>
       </c>
       <c r="L108" t="n">
-        <v>351364000000</v>
+        <v>276528000000</v>
       </c>
       <c r="M108" t="n">
-        <v>237487000000</v>
+        <v>234016000000</v>
       </c>
       <c r="N108" t="n">
-        <v>344543991606</v>
+        <v>599379819692</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>株式会社熊谷組</t>
+          <t>株式会社アインホールディングス</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>1861</t>
+          <t>9627</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>65.3</v>
+        <v>34.7</v>
       </c>
       <c r="D109" t="n">
-        <v>4920</v>
+        <v>7028</v>
       </c>
       <c r="E109" t="n">
-        <v>2776.401128792723</v>
+        <v>2836.942753814942</v>
       </c>
       <c r="F109" t="n">
-        <v>77.2</v>
+        <v>147.7</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -6090,50 +6090,50 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2023-05-24</t>
+          <t>2024-03-04</t>
         </is>
       </c>
       <c r="I109" t="n">
-        <v>71335000000</v>
+        <v>55009000000</v>
       </c>
       <c r="J109" t="n">
-        <v>17897000000</v>
+        <v>27122000000</v>
       </c>
       <c r="K109" t="n">
-        <v>48586000000</v>
+        <v>3345000000</v>
       </c>
       <c r="L109" t="n">
-        <v>163835000000</v>
+        <v>115837000000</v>
       </c>
       <c r="M109" t="n">
-        <v>137818000000</v>
+        <v>85476000000</v>
       </c>
       <c r="N109" t="n">
-        <v>211175256000</v>
+        <v>246494625300</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>カルビー株式会社</t>
+          <t>ＤＩＣ株式会社</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2229</t>
+          <t>4631</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>23.6</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>2956</v>
+        <v>3640</v>
       </c>
       <c r="E110" t="n">
-        <v>2919.137515755844</v>
+        <v>2566.284807227078</v>
       </c>
       <c r="F110" t="n">
-        <v>1.3</v>
+        <v>41.8</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -6142,310 +6142,310 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2023-12-21</t>
         </is>
       </c>
       <c r="I110" t="n">
-        <v>47282000000</v>
+        <v>41354000000</v>
       </c>
       <c r="J110" t="n">
-        <v>38670000000</v>
+        <v>133062000000</v>
       </c>
       <c r="K110" t="n">
-        <v>3183000000</v>
+        <v>63071000000</v>
       </c>
       <c r="L110" t="n">
-        <v>182740000000</v>
+        <v>351364000000</v>
       </c>
       <c r="M110" t="n">
-        <v>89135000000</v>
+        <v>237487000000</v>
       </c>
       <c r="N110" t="n">
-        <v>376934880948</v>
+        <v>344638672560</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>株式会社オリエントコーポレーション</t>
+          <t>株式会社熊谷組</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>8585</t>
+          <t>1861</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>247.3</v>
+        <v>64.7</v>
       </c>
       <c r="D111" t="n">
-        <v>1003</v>
+        <v>4965</v>
       </c>
       <c r="E111" t="n">
-        <v>798.3805136422309</v>
+        <v>2776.401128792723</v>
       </c>
       <c r="F111" t="n">
-        <v>25.6</v>
+        <v>78.8</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2023-05-24</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>385176000000</v>
+        <v>71335000000</v>
       </c>
       <c r="J111" t="n">
-        <v>19135000000</v>
+        <v>17897000000</v>
       </c>
       <c r="K111" t="n">
-        <v>24938000000</v>
+        <v>48586000000</v>
       </c>
       <c r="L111" t="n">
-        <v>228464000000</v>
+        <v>163835000000</v>
       </c>
       <c r="M111" t="n">
-        <v>429249000000</v>
+        <v>137818000000</v>
       </c>
       <c r="N111" t="n">
-        <v>173608228886</v>
+        <v>213106737000</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ブロードメディア株式会社</t>
+          <t>カルビー株式会社</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>4347</t>
+          <t>2229</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>35.3</v>
+        <v>24</v>
       </c>
       <c r="D112" t="n">
-        <v>1721</v>
+        <v>2915</v>
       </c>
       <c r="E112" t="n">
-        <v>1529.631984751819</v>
+        <v>2919.137515755844</v>
       </c>
       <c r="F112" t="n">
-        <v>12.5</v>
+        <v>-0.1</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2024-07-03</t>
+          <t>2025-09-09</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>3368262000</v>
+        <v>47282000000</v>
       </c>
       <c r="J112" t="n">
-        <v>826293000</v>
+        <v>38670000000</v>
       </c>
       <c r="K112" t="n">
-        <v>164267000</v>
+        <v>3183000000</v>
       </c>
       <c r="L112" t="n">
-        <v>3706507000</v>
+        <v>182740000000</v>
       </c>
       <c r="M112" t="n">
-        <v>4358822000</v>
+        <v>89135000000</v>
       </c>
       <c r="N112" t="n">
-        <v>12348056251</v>
+        <v>371706758445</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>ブロードメディア株式会社</t>
+          <t>株式会社オリエントコーポレーション</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>4347</t>
+          <t>8585</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>35.3</v>
+        <v>248.2</v>
       </c>
       <c r="D113" t="n">
-        <v>1721</v>
+        <v>1010</v>
       </c>
       <c r="E113" t="n">
-        <v>1449.995380693296</v>
+        <v>798.3805136422309</v>
       </c>
       <c r="F113" t="n">
-        <v>18.7</v>
+        <v>26.5</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>2024-05-22</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>3368262000</v>
+        <v>385176000000</v>
       </c>
       <c r="J113" t="n">
-        <v>826293000</v>
+        <v>19135000000</v>
       </c>
       <c r="K113" t="n">
-        <v>164267000</v>
+        <v>24938000000</v>
       </c>
       <c r="L113" t="n">
-        <v>3706507000</v>
+        <v>228464000000</v>
       </c>
       <c r="M113" t="n">
-        <v>4358822000</v>
+        <v>429249000000</v>
       </c>
       <c r="N113" t="n">
-        <v>12348056251</v>
+        <v>172923383710</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>京浜急行電鉄株式会社</t>
+          <t>ブロードメディア株式会社</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>9006</t>
+          <t>4347</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>109.9</v>
+        <v>35.7</v>
       </c>
       <c r="D114" t="n">
-        <v>1548.5</v>
+        <v>1712</v>
       </c>
       <c r="E114" t="n">
-        <v>1160.8</v>
+        <v>1529.631984751819</v>
       </c>
       <c r="F114" t="n">
-        <v>33.4</v>
+        <v>11.9</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2024-07-03</t>
         </is>
       </c>
       <c r="I114" t="n">
-        <v>57450000000</v>
+        <v>3368262000</v>
       </c>
       <c r="J114" t="n">
-        <v>297923000000</v>
+        <v>826293000</v>
       </c>
       <c r="K114" t="n">
-        <v>103100000000</v>
+        <v>164267000</v>
       </c>
       <c r="L114" t="n">
-        <v>249065000000</v>
+        <v>3706507000</v>
       </c>
       <c r="M114" t="n">
-        <v>458473000000</v>
+        <v>4358822000</v>
       </c>
       <c r="N114" t="n">
-        <v>417075916665</v>
+        <v>12198426288</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>日鉄ソリューションズ株式会社</t>
+          <t>ブロードメディア株式会社</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2327</t>
+          <t>4347</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>12</v>
+        <v>35.7</v>
       </c>
       <c r="D115" t="n">
-        <v>3720</v>
+        <v>1712</v>
       </c>
       <c r="E115" t="n">
-        <v>2561.705402476645</v>
+        <v>1449.995380693296</v>
       </c>
       <c r="F115" t="n">
-        <v>45.2</v>
+        <v>18.1</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2024-05-22</t>
         </is>
       </c>
       <c r="I115" t="n">
-        <v>78579000000</v>
+        <v>3368262000</v>
       </c>
       <c r="J115" t="n">
-        <v>2398000000</v>
+        <v>826293000</v>
       </c>
       <c r="K115" t="n">
-        <v>1000000000</v>
+        <v>164267000</v>
       </c>
       <c r="L115" t="n">
-        <v>186128000000</v>
+        <v>3706507000</v>
       </c>
       <c r="M115" t="n">
-        <v>81977000000</v>
+        <v>4358822000</v>
       </c>
       <c r="N115" t="n">
-        <v>680664050040</v>
+        <v>12198426288</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ＮＩＴＴＯＫＵ株式会社</t>
+          <t>京浜急行電鉄株式会社</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>6145</t>
+          <t>9006</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>39.2</v>
+        <v>110</v>
       </c>
       <c r="D116" t="n">
-        <v>2349</v>
+        <v>1548</v>
       </c>
       <c r="E116" t="n">
-        <v>1710</v>
+        <v>1160.8</v>
       </c>
       <c r="F116" t="n">
-        <v>37.4</v>
+        <v>33.4</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -6454,390 +6454,494 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>10110000000</v>
+        <v>57450000000</v>
       </c>
       <c r="J116" t="n">
-        <v>5132000000</v>
+        <v>297923000000</v>
       </c>
       <c r="K116" t="n">
-        <v>301000000</v>
+        <v>103100000000</v>
       </c>
       <c r="L116" t="n">
-        <v>31726000000</v>
+        <v>249065000000</v>
       </c>
       <c r="M116" t="n">
-        <v>15543000000</v>
+        <v>458473000000</v>
       </c>
       <c r="N116" t="n">
-        <v>39632797800</v>
+        <v>416941245720</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>ＮＩＴＴＯＫＵ株式会社</t>
+          <t>日鉄ソリューションズ株式会社</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>6145</t>
+          <t>2327</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>39.2</v>
+        <v>12.4</v>
       </c>
       <c r="D117" t="n">
-        <v>2349</v>
+        <v>3610</v>
       </c>
       <c r="E117" t="n">
-        <v>1710</v>
+        <v>2561.705402476645</v>
       </c>
       <c r="F117" t="n">
-        <v>37.4</v>
+        <v>40.9</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-08-19</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>10110000000</v>
+        <v>78579000000</v>
       </c>
       <c r="J117" t="n">
-        <v>5132000000</v>
+        <v>2398000000</v>
       </c>
       <c r="K117" t="n">
-        <v>301000000</v>
+        <v>1000000000</v>
       </c>
       <c r="L117" t="n">
-        <v>31726000000</v>
+        <v>186128000000</v>
       </c>
       <c r="M117" t="n">
-        <v>15543000000</v>
+        <v>81977000000</v>
       </c>
       <c r="N117" t="n">
-        <v>39632797800</v>
+        <v>660536887270</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>三井倉庫ホールディングス株式会社</t>
+          <t>ＮＩＴＴＯＫＵ株式会社</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>9302</t>
+          <t>6145</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>33.2</v>
+        <v>38.7</v>
       </c>
       <c r="D118" t="n">
-        <v>4175</v>
+        <v>2379</v>
       </c>
       <c r="E118" t="n">
-        <v>1492.806001579363</v>
+        <v>1710</v>
       </c>
       <c r="F118" t="n">
-        <v>179.7</v>
+        <v>39.1</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>22718000000</v>
+        <v>10110000000</v>
       </c>
       <c r="J118" t="n">
-        <v>68374000000</v>
+        <v>5132000000</v>
       </c>
       <c r="K118" t="n">
-        <v>15393000000</v>
+        <v>301000000</v>
       </c>
       <c r="L118" t="n">
-        <v>68529000000</v>
+        <v>31726000000</v>
       </c>
       <c r="M118" t="n">
-        <v>106485000000</v>
+        <v>15543000000</v>
       </c>
       <c r="N118" t="n">
-        <v>320334711475</v>
+        <v>40138963800</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>株式会社淀川製鋼所</t>
+          <t>ＮＩＴＴＯＫＵ株式会社</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>5451</t>
+          <t>6145</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>33.6</v>
+        <v>38.7</v>
       </c>
       <c r="D119" t="n">
-        <v>1342</v>
+        <v>2379</v>
       </c>
       <c r="E119" t="n">
-        <v>3234.727863989046</v>
+        <v>1710</v>
       </c>
       <c r="F119" t="n">
-        <v>-58.5</v>
+        <v>39.1</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>2023-09-08</t>
+          <t>2024-09-03</t>
         </is>
       </c>
       <c r="I119" t="n">
-        <v>43116000000</v>
+        <v>10110000000</v>
       </c>
       <c r="J119" t="n">
-        <v>18353000000</v>
+        <v>5132000000</v>
       </c>
       <c r="K119" t="n">
-        <v>4009000000</v>
+        <v>301000000</v>
       </c>
       <c r="L119" t="n">
-        <v>180296000000</v>
+        <v>31726000000</v>
       </c>
       <c r="M119" t="n">
-        <v>65478000000</v>
+        <v>15543000000</v>
       </c>
       <c r="N119" t="n">
-        <v>195046803380</v>
+        <v>40138963800</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>株式会社ゴールドクレスト</t>
+          <t>三井倉庫ホールディングス株式会社</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>8871</t>
+          <t>9302</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>71.59999999999999</v>
+        <v>34</v>
       </c>
       <c r="D120" t="n">
-        <v>3375</v>
+        <v>4180</v>
       </c>
       <c r="E120" t="n">
-        <v>1789.870000553189</v>
+        <v>1492.806001579363</v>
       </c>
       <c r="F120" t="n">
-        <v>88.59999999999999</v>
+        <v>180</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>2023-08-01</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>69004000000</v>
+        <v>22718000000</v>
       </c>
       <c r="J120" t="n">
-        <v>12099000000</v>
+        <v>68374000000</v>
       </c>
       <c r="K120" t="n">
-        <v>23000000</v>
+        <v>15393000000</v>
       </c>
       <c r="L120" t="n">
-        <v>122540000000</v>
+        <v>68529000000</v>
       </c>
       <c r="M120" t="n">
-        <v>81126000000</v>
+        <v>106485000000</v>
       </c>
       <c r="N120" t="n">
-        <v>113331561750</v>
+        <v>312850256620</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>株式会社スクウェア・エニックス・ホールディングス</t>
+          <t>株式会社淀川製鋼所</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>9684</t>
+          <t>5451</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>13</v>
+        <v>33.9</v>
       </c>
       <c r="D121" t="n">
-        <v>9712</v>
+        <v>1337</v>
       </c>
       <c r="E121" t="n">
-        <v>6272.971195510064</v>
+        <v>3234.727863989046</v>
       </c>
       <c r="F121" t="n">
-        <v>54.8</v>
+        <v>-58.7</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2023-09-08</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>144061000000</v>
+        <v>43116000000</v>
       </c>
       <c r="J121" t="n">
-        <v>4462000000</v>
+        <v>18353000000</v>
       </c>
       <c r="K121" t="n">
-        <v>4731000000</v>
+        <v>4009000000</v>
       </c>
       <c r="L121" t="n">
-        <v>243278000000</v>
+        <v>180296000000</v>
       </c>
       <c r="M121" t="n">
-        <v>153254000000</v>
+        <v>65478000000</v>
       </c>
       <c r="N121" t="n">
-        <v>1183188398352</v>
+        <v>193311769455</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>ヘリオス テクノ ホールディング株式会社</t>
+          <t>株式会社ゴールドクレスト</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>6927</t>
+          <t>8871</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>50.7</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="D122" t="n">
-        <v>914</v>
+        <v>3370</v>
       </c>
       <c r="E122" t="n">
-        <v>896.0103264198827</v>
+        <v>1789.870000553189</v>
       </c>
       <c r="F122" t="n">
-        <v>2</v>
+        <v>88.3</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2023-08-01</t>
         </is>
       </c>
       <c r="I122" t="n">
-        <v>6417163000</v>
+        <v>69004000000</v>
       </c>
       <c r="J122" t="n">
-        <v>658172000</v>
+        <v>12099000000</v>
       </c>
       <c r="K122" t="n">
-        <v>1342160000</v>
+        <v>23000000</v>
       </c>
       <c r="L122" t="n">
-        <v>13418044000</v>
+        <v>122540000000</v>
       </c>
       <c r="M122" t="n">
-        <v>8417495000</v>
+        <v>81126000000</v>
       </c>
       <c r="N122" t="n">
-        <v>16587066350</v>
+        <v>112002158940</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
+          <t>株式会社スクウェア・エニックス・ホールディングス</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>9684</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D123" t="n">
+        <v>9674</v>
+      </c>
+      <c r="E123" t="n">
+        <v>6272.971195510064</v>
+      </c>
+      <c r="F123" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>2025-04-21</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>144061000000</v>
+      </c>
+      <c r="J123" t="n">
+        <v>4462000000</v>
+      </c>
+      <c r="K123" t="n">
+        <v>4731000000</v>
+      </c>
+      <c r="L123" t="n">
+        <v>243278000000</v>
+      </c>
+      <c r="M123" t="n">
+        <v>153254000000</v>
+      </c>
+      <c r="N123" t="n">
+        <v>1162283165330</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>ヘリオス テクノ ホールディング株式会社</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>6927</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="D124" t="n">
+        <v>899</v>
+      </c>
+      <c r="E124" t="n">
+        <v>896.0103264198827</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>6417163000</v>
+      </c>
+      <c r="J124" t="n">
+        <v>658172000</v>
+      </c>
+      <c r="K124" t="n">
+        <v>1342160000</v>
+      </c>
+      <c r="L124" t="n">
+        <v>13418044000</v>
+      </c>
+      <c r="M124" t="n">
+        <v>8417495000</v>
+      </c>
+      <c r="N124" t="n">
+        <v>16314849725</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
           <t>平和不動産株式会社</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B125" t="inlineStr">
         <is>
           <t>8803</t>
         </is>
       </c>
-      <c r="C123" t="n">
-        <v>76.5</v>
-      </c>
-      <c r="D123" t="n">
-        <v>2391</v>
-      </c>
-      <c r="E123" t="n">
+      <c r="C125" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="D125" t="n">
+        <v>2343</v>
+      </c>
+      <c r="E125" t="n">
         <v>3610</v>
       </c>
-      <c r="F123" t="n">
-        <v>-33.8</v>
-      </c>
-      <c r="G123" t="inlineStr">
+      <c r="F125" t="n">
+        <v>-35.1</v>
+      </c>
+      <c r="G125" t="inlineStr">
         <is>
           <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
+      <c r="H125" t="inlineStr">
         <is>
           <t>2024-07-22</t>
         </is>
       </c>
-      <c r="I123" t="n">
+      <c r="I125" t="n">
         <v>29585000000</v>
       </c>
-      <c r="J123" t="n">
+      <c r="J125" t="n">
         <v>84557000000</v>
       </c>
-      <c r="K123" t="n">
+      <c r="K125" t="n">
         <v>8005000000</v>
       </c>
-      <c r="L123" t="n">
+      <c r="L125" t="n">
         <v>118639000000</v>
       </c>
-      <c r="M123" t="n">
+      <c r="M125" t="n">
         <v>122147000000</v>
       </c>
-      <c r="N123" t="n">
-        <v>159729253452</v>
+      <c r="N125" t="n">
+        <v>156457208292</v>
       </c>
     </row>
   </sheetData>

--- a/docs/アクティビスト銘柄_資産判定.xlsx
+++ b/docs/アクティビスト銘柄_資産判定.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N125"/>
+  <dimension ref="A1:N124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,285 +508,277 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>古河機械金属株式会社</t>
+          <t>株式会社東北新社</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5715</t>
+          <t>2329</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>92.90000000000001</v>
+        <v>38.9</v>
       </c>
       <c r="D2" t="n">
-        <v>2850</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1600</v>
-      </c>
-      <c r="F2" t="n">
-        <v>78.09999999999999</v>
-      </c>
+        <v>662</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-01-10</t>
+          <t>2023-03-13</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>17748000000</v>
+        <v>30866000000</v>
       </c>
       <c r="J2" t="n">
-        <v>23365000000</v>
+        <v>4464000000</v>
       </c>
       <c r="K2" t="n">
-        <v>47383000000</v>
+        <v>73000000</v>
       </c>
       <c r="L2" t="n">
-        <v>94364000000</v>
+        <v>72266000000</v>
       </c>
       <c r="M2" t="n">
-        <v>88496000000</v>
+        <v>35403000000</v>
       </c>
       <c r="N2" t="n">
-        <v>95238450000</v>
+        <v>91126973818</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>新家工業株式会社</t>
+          <t>株式会社東北新社</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>7305</t>
+          <t>2329</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>57.4</v>
+        <v>38.9</v>
       </c>
       <c r="D3" t="n">
-        <v>5160</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4265.455132343447</v>
-      </c>
-      <c r="F3" t="n">
-        <v>21</v>
-      </c>
+        <v>662</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2024-07-30</t>
+          <t>2023-03-13</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>8409000000</v>
+        <v>30866000000</v>
       </c>
       <c r="J3" t="n">
-        <v>5535000000</v>
+        <v>4464000000</v>
       </c>
       <c r="K3" t="n">
-        <v>185000000</v>
+        <v>73000000</v>
       </c>
       <c r="L3" t="n">
-        <v>26218000000</v>
+        <v>72266000000</v>
       </c>
       <c r="M3" t="n">
-        <v>14129000000</v>
+        <v>35403000000</v>
       </c>
       <c r="N3" t="n">
-        <v>24599216400</v>
+        <v>91126973818</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>株式会社ホギメディカル</t>
+          <t>ニッコンホールディングス株式会社</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3593</t>
+          <t>9072</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>42.2</v>
+        <v>42.7</v>
       </c>
       <c r="D4" t="n">
-        <v>5270</v>
+        <v>3458</v>
       </c>
       <c r="E4" t="n">
-        <v>3361.304411567078</v>
+        <v>1598.889989734285</v>
       </c>
       <c r="F4" t="n">
-        <v>56.8</v>
+        <v>116.3</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>ダルトン・インベストメンツ・エルエルシー</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2023-05-25</t>
+          <t>2023-09-04</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>19911000000</v>
+        <v>30366000000</v>
       </c>
       <c r="J4" t="n">
-        <v>19534000000</v>
+        <v>115109000000</v>
       </c>
       <c r="K4" t="n">
-        <v>9213000000</v>
+        <v>32990000000</v>
       </c>
       <c r="L4" t="n">
-        <v>95951000000</v>
+        <v>208290000000</v>
       </c>
       <c r="M4" t="n">
-        <v>48658000000</v>
+        <v>178465000000</v>
       </c>
       <c r="N4" t="n">
-        <v>115338582330</v>
+        <v>418021754696</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>アニコム ホールディングス株式会社</t>
+          <t>シェアリングテクノロジー株式会社</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>8715</t>
+          <t>3989</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>53.2</v>
+        <v>7.2</v>
       </c>
       <c r="D5" t="n">
-        <v>811</v>
+        <v>1046</v>
       </c>
       <c r="E5" t="n">
-        <v>656.2604975855553</v>
+        <v>653.0713101160862</v>
       </c>
       <c r="F5" t="n">
-        <v>23.6</v>
+        <v>60.2</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>28833000000</v>
+        <v>1779899000</v>
       </c>
       <c r="J5" t="n">
-        <v>3032000000</v>
+        <v>30240000</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>25717000000</v>
+        <v>906167000</v>
       </c>
       <c r="M5" t="n">
-        <v>31865000000</v>
+        <v>1810139000</v>
       </c>
       <c r="N5" t="n">
-        <v>59912972108</v>
+        <v>25032107374</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>エクシオグループ株式会社</t>
+          <t>株式会社パソナグループ</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1951</t>
+          <t>2168</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20.2</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>2180</v>
+        <v>2200</v>
       </c>
       <c r="E6" t="n">
-        <v>2269.918722577861</v>
+        <v>2122.579027791042</v>
       </c>
       <c r="F6" t="n">
-        <v>-4</v>
+        <v>3.6</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2023-04-26</t>
+          <t>2024-07-25</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>41246000000</v>
+        <v>52298000000</v>
       </c>
       <c r="J6" t="n">
-        <v>49565000000</v>
+        <v>8021000000</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>14500000000</v>
       </c>
       <c r="L6" t="n">
-        <v>288884000000</v>
+        <v>49795000000</v>
       </c>
       <c r="M6" t="n">
-        <v>90811000000</v>
+        <v>74819000000</v>
       </c>
       <c r="N6" t="n">
-        <v>448449454620</v>
+        <v>83213446800</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>株式会社京都フィナンシャルグループ</t>
+          <t>東ソー株式会社</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5844</t>
+          <t>4042</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>115.8</v>
+        <v>44.9</v>
       </c>
       <c r="D7" t="n">
-        <v>3047</v>
+        <v>2273</v>
       </c>
       <c r="E7" t="n">
-        <v>4991.027246539169</v>
+        <v>2032.365850102071</v>
       </c>
       <c r="F7" t="n">
-        <v>-39</v>
+        <v>11.8</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -795,674 +787,674 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2023-10-02</t>
+          <t>2024-06-04</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>929545000000</v>
+        <v>148397000000</v>
       </c>
       <c r="J7" t="n">
-        <v>76590000000</v>
+        <v>104609000000</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>70724000000</v>
       </c>
       <c r="L7" t="n">
-        <v>1141082000000</v>
+        <v>661679000000</v>
       </c>
       <c r="M7" t="n">
-        <v>1006135000000</v>
+        <v>323730000000</v>
       </c>
       <c r="N7" t="n">
-        <v>869078277562</v>
+        <v>720727976980</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>トーセイ株式会社</t>
+          <t>株式会社マンダム</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8923</t>
+          <t>4917</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>47.2</v>
+        <v>34</v>
       </c>
       <c r="D8" t="n">
-        <v>3390</v>
+        <v>2257</v>
       </c>
       <c r="E8" t="n">
-        <v>1752.426893379333</v>
+        <v>2040</v>
       </c>
       <c r="F8" t="n">
-        <v>93.40000000000001</v>
+        <v>10.6</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-05-29</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>25212066000</v>
+        <v>13040000000</v>
       </c>
       <c r="J8" t="n">
-        <v>44735708000</v>
+        <v>15066000000</v>
       </c>
       <c r="K8" t="n">
-        <v>7615447000</v>
+        <v>6576000000</v>
       </c>
       <c r="L8" t="n">
-        <v>51737131000</v>
+        <v>69713000000</v>
       </c>
       <c r="M8" t="n">
-        <v>77563221000</v>
+        <v>34682000000</v>
       </c>
       <c r="N8" t="n">
-        <v>164363472000</v>
+        <v>101874710054</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>トーセイ株式会社</t>
+          <t>倉敷紡績株式会社</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8923</t>
+          <t>3106</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>47.2</v>
+        <v>83.2</v>
       </c>
       <c r="D9" t="n">
-        <v>3390</v>
+        <v>7010</v>
       </c>
       <c r="E9" t="n">
-        <v>1576.721867844292</v>
+        <v>4549.503641591014</v>
       </c>
       <c r="F9" t="n">
-        <v>115</v>
+        <v>54.1</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2024-05-27</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>25212066000</v>
+        <v>22059000000</v>
       </c>
       <c r="J9" t="n">
-        <v>44735708000</v>
+        <v>21438000000</v>
       </c>
       <c r="K9" t="n">
-        <v>7615447000</v>
+        <v>53409000000</v>
       </c>
       <c r="L9" t="n">
-        <v>51737131000</v>
+        <v>95004000000</v>
       </c>
       <c r="M9" t="n">
-        <v>77563221000</v>
+        <v>96906000000</v>
       </c>
       <c r="N9" t="n">
-        <v>164363472000</v>
+        <v>116431242070</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>シェアリングテクノロジー株式会社</t>
+          <t>アルプスアルパイン株式会社</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3989</t>
+          <t>6770</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7.2</v>
+        <v>66.8</v>
       </c>
       <c r="D10" t="n">
-        <v>1050</v>
+        <v>1933.5</v>
       </c>
       <c r="E10" t="n">
-        <v>653.0713101160862</v>
+        <v>1257.709264012363</v>
       </c>
       <c r="F10" t="n">
-        <v>60.8</v>
+        <v>53.7</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2024-08-14</t>
+          <t>2023-05-08</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>1779899000</v>
+        <v>151748000000</v>
       </c>
       <c r="J10" t="n">
-        <v>30240000</v>
+        <v>37620000000</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>71804000000</v>
       </c>
       <c r="L10" t="n">
-        <v>906167000</v>
+        <v>378379000000</v>
       </c>
       <c r="M10" t="n">
-        <v>1810139000</v>
+        <v>261172000000</v>
       </c>
       <c r="N10" t="n">
-        <v>25127832450</v>
+        <v>391253183682</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>サッポロホールディングス株式会社</t>
+          <t>アルプスアルパイン株式会社</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2501</t>
+          <t>6770</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.4</v>
+        <v>66.8</v>
       </c>
       <c r="D11" t="n">
-        <v>7320</v>
+        <v>1933.5</v>
       </c>
       <c r="E11" t="n">
-        <v>2697.360927565142</v>
+        <v>1217.254500469243</v>
       </c>
       <c r="F11" t="n">
-        <v>171.4</v>
+        <v>58.8</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2023-10-12</t>
+          <t>2023-01-24</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>3451000000</v>
+        <v>151748000000</v>
       </c>
       <c r="J11" t="n">
-        <v>28000000</v>
+        <v>37620000000</v>
       </c>
       <c r="K11" t="n">
-        <v>4669000000</v>
+        <v>71804000000</v>
       </c>
       <c r="L11" t="n">
-        <v>137956000000</v>
+        <v>378379000000</v>
       </c>
       <c r="M11" t="n">
-        <v>8148000000</v>
+        <v>261172000000</v>
       </c>
       <c r="N11" t="n">
-        <v>570734683080</v>
+        <v>391253183682</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>株式会社ダイドーリミテッド</t>
+          <t>三井住建道路株式会社</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3205</t>
+          <t>1776</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>83</v>
+        <v>100.3</v>
       </c>
       <c r="D12" t="n">
-        <v>978</v>
+        <v>1459</v>
       </c>
       <c r="E12" t="n">
-        <v>193.0499177180472</v>
+        <v>1212.640316205534</v>
       </c>
       <c r="F12" t="n">
-        <v>406.6</v>
+        <v>20.3</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2025-03-25</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>7723000000</v>
+        <v>10677000000</v>
       </c>
       <c r="J12" t="n">
-        <v>9807000000</v>
+        <v>2762000000</v>
       </c>
       <c r="K12" t="n">
-        <v>4567000000</v>
+        <v>7000000</v>
       </c>
       <c r="L12" t="n">
-        <v>10628000000</v>
+        <v>12543000000</v>
       </c>
       <c r="M12" t="n">
-        <v>22097000000</v>
+        <v>13446000000</v>
       </c>
       <c r="N12" t="n">
-        <v>26608446000</v>
+        <v>13409153973</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>株式会社イエローハット</t>
+          <t>株式会社エクセディ</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>9882</t>
+          <t>7278</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>34.6</v>
+        <v>26.7</v>
       </c>
       <c r="D13" t="n">
-        <v>1693</v>
+        <v>5450</v>
       </c>
       <c r="E13" t="n">
-        <v>2112.609181636727</v>
+        <v>2617.980935875217</v>
       </c>
       <c r="F13" t="n">
-        <v>-19.9</v>
+        <v>108.2</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
+          <t>2024-06-10</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>14029000000</v>
+        <v>43070000000</v>
       </c>
       <c r="J13" t="n">
-        <v>27205000000</v>
+        <v>6829000000</v>
       </c>
       <c r="K13" t="n">
-        <v>9801000000</v>
+        <v>3253000000</v>
       </c>
       <c r="L13" t="n">
-        <v>91386000000</v>
+        <v>113343000000</v>
       </c>
       <c r="M13" t="n">
-        <v>51035000000</v>
+        <v>53152000000</v>
       </c>
       <c r="N13" t="n">
-        <v>147634137240</v>
+        <v>199217229000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>株式会社イワキ</t>
+          <t>ＮＩＴＴＯＫＵ株式会社</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>6237</t>
+          <t>6145</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>19.2</v>
+        <v>38.9</v>
       </c>
       <c r="D14" t="n">
-        <v>2620</v>
+        <v>2369</v>
       </c>
       <c r="E14" t="n">
-        <v>1361.432492253209</v>
+        <v>1710</v>
       </c>
       <c r="F14" t="n">
-        <v>92.40000000000001</v>
+        <v>38.5</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>ダルトン・インベストメンツ・エルエルシー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2023-11-09</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>6936133000</v>
+        <v>10110000000</v>
       </c>
       <c r="J14" t="n">
-        <v>3861988000</v>
+        <v>5132000000</v>
       </c>
       <c r="K14" t="n">
-        <v>326566000</v>
+        <v>301000000</v>
       </c>
       <c r="L14" t="n">
-        <v>22520477000</v>
+        <v>31726000000</v>
       </c>
       <c r="M14" t="n">
-        <v>11124687000</v>
+        <v>15543000000</v>
       </c>
       <c r="N14" t="n">
-        <v>57941711340</v>
+        <v>39970241800</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>セーレン株式会社</t>
+          <t>ＮＩＴＴＯＫＵ株式会社</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3569</t>
+          <t>6145</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>38.4</v>
+        <v>38.9</v>
       </c>
       <c r="D15" t="n">
-        <v>3055</v>
+        <v>2369</v>
       </c>
       <c r="E15" t="n">
-        <v>1359.655069733296</v>
+        <v>1710</v>
       </c>
       <c r="F15" t="n">
-        <v>124.7</v>
+        <v>38.5</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-09-03</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>39498000000</v>
+        <v>10110000000</v>
       </c>
       <c r="J15" t="n">
-        <v>26026000000</v>
+        <v>5132000000</v>
       </c>
       <c r="K15" t="n">
-        <v>3317000000</v>
+        <v>301000000</v>
       </c>
       <c r="L15" t="n">
-        <v>80897000000</v>
+        <v>31726000000</v>
       </c>
       <c r="M15" t="n">
-        <v>68841000000</v>
+        <v>15543000000</v>
       </c>
       <c r="N15" t="n">
-        <v>179116803775</v>
+        <v>39970241800</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>東亜道路工業株式会社</t>
+          <t>株式会社髙島屋</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1882</t>
+          <t>8233</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>43.3</v>
+        <v>78.5</v>
       </c>
       <c r="D16" t="n">
-        <v>1598</v>
+        <v>1696</v>
       </c>
       <c r="E16" t="n">
-        <v>3767.430178069353</v>
+        <v>1101.400153022188</v>
       </c>
       <c r="F16" t="n">
-        <v>-57.6</v>
+        <v>54</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2023-05-31</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>12764000000</v>
+        <v>105320000000</v>
       </c>
       <c r="J16" t="n">
-        <v>13764000000</v>
+        <v>191580000000</v>
       </c>
       <c r="K16" t="n">
-        <v>5437000000</v>
+        <v>101495000000</v>
       </c>
       <c r="L16" t="n">
-        <v>48166000000</v>
+        <v>415111000000</v>
       </c>
       <c r="M16" t="n">
-        <v>31965000000</v>
+        <v>398395000000</v>
       </c>
       <c r="N16" t="n">
-        <v>73755204208</v>
+        <v>507663344192</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>太陽ホールディングス株式会社</t>
+          <t>東京瓦斯株式会社</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4626</t>
+          <t>9531</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>19.7</v>
+        <v>25.3</v>
       </c>
       <c r="D17" t="n">
-        <v>8160</v>
+        <v>5429</v>
       </c>
       <c r="E17" t="n">
-        <v>3565.648720929983</v>
+        <v>3322.047887165483</v>
       </c>
       <c r="F17" t="n">
-        <v>128.9</v>
+        <v>63.4</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>エリオット・インベストメント・マネージメント・エルピー（Ｅｌｌｉｏｔｔ　Ｉｎｖｅｓｔｍｅｎｔ　Ｍａｎａｇｅｍｅｎｔ　Ｌ．Ｐ．）</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2024-11-12</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>54309000000</v>
+        <v>157811000000</v>
       </c>
       <c r="J17" t="n">
-        <v>30690000000</v>
+        <v>318445000000</v>
       </c>
       <c r="K17" t="n">
-        <v>4437000000</v>
+        <v>103000000</v>
       </c>
       <c r="L17" t="n">
-        <v>76497000000</v>
+        <v>1178271000000</v>
       </c>
       <c r="M17" t="n">
-        <v>89436000000</v>
+        <v>476359000000</v>
       </c>
       <c r="N17" t="n">
-        <v>453462289440</v>
+        <v>1886066099058</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>株式会社内田洋行</t>
+          <t>平和不動産株式会社</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>8057</t>
+          <t>8803</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>23.8</v>
+        <v>77.7</v>
       </c>
       <c r="D18" t="n">
-        <v>12590</v>
+        <v>2355</v>
       </c>
       <c r="E18" t="n">
-        <v>3496.825336379792</v>
+        <v>3610</v>
       </c>
       <c r="F18" t="n">
-        <v>260</v>
+        <v>-34.8</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2022-12-19</t>
+          <t>2024-07-22</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>24890000000</v>
+        <v>29585000000</v>
       </c>
       <c r="J18" t="n">
-        <v>3100000000</v>
+        <v>84557000000</v>
       </c>
       <c r="K18" t="n">
-        <v>1500000000</v>
+        <v>8005000000</v>
       </c>
       <c r="L18" t="n">
-        <v>42315000000</v>
+        <v>118639000000</v>
       </c>
       <c r="M18" t="n">
-        <v>29490000000</v>
+        <v>122147000000</v>
       </c>
       <c r="N18" t="n">
-        <v>124062363600</v>
+        <v>157258525620</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>株式会社クレハ</t>
+          <t>エクシオグループ株式会社</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4023</t>
+          <t>1951</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>22.2</v>
+        <v>20.2</v>
       </c>
       <c r="D19" t="n">
-        <v>4040</v>
+        <v>2188</v>
       </c>
       <c r="E19" t="n">
-        <v>7960</v>
+        <v>2269.918722577861</v>
       </c>
       <c r="F19" t="n">
-        <v>-49.2</v>
+        <v>-3.6</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2023-10-04</t>
+          <t>2023-04-26</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>4999000000</v>
+        <v>41246000000</v>
       </c>
       <c r="J19" t="n">
-        <v>6059000000</v>
+        <v>49565000000</v>
       </c>
       <c r="K19" t="n">
-        <v>23201000000</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>148872000000</v>
+        <v>288884000000</v>
       </c>
       <c r="M19" t="n">
-        <v>34259000000</v>
+        <v>90811000000</v>
       </c>
       <c r="N19" t="n">
-        <v>154406077040</v>
+        <v>450095140692</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>三井松島ホールディングス株式会社</t>
+          <t>愛知製鋼株式会社</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1518</t>
+          <t>5482</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>49.8</v>
+        <v>53.8</v>
       </c>
       <c r="D20" t="n">
-        <v>6680</v>
+        <v>2815</v>
       </c>
       <c r="E20" t="n">
-        <v>2920</v>
+        <v>3155.301177013616</v>
       </c>
       <c r="F20" t="n">
-        <v>128.8</v>
+        <v>-10.8</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1471,154 +1463,154 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2024-05-02</t>
+          <t>2024-09-13</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>19293000000</v>
+        <v>54163000000</v>
       </c>
       <c r="J20" t="n">
-        <v>3587000000</v>
+        <v>11000000000</v>
       </c>
       <c r="K20" t="n">
-        <v>3156000000</v>
+        <v>33479000000</v>
       </c>
       <c r="L20" t="n">
-        <v>30287000000</v>
+        <v>179716000000</v>
       </c>
       <c r="M20" t="n">
-        <v>26036000000</v>
+        <v>98642000000</v>
       </c>
       <c r="N20" t="n">
-        <v>52253030800</v>
+        <v>183338734595</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>株式会社セプテーニ・ホールディングス</t>
+          <t>トーセイ株式会社</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4293</t>
+          <t>8923</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>12.1</v>
+        <v>47.1</v>
       </c>
       <c r="D21" t="n">
-        <v>431</v>
+        <v>3395</v>
       </c>
       <c r="E21" t="n">
-        <v>448.6811097117532</v>
+        <v>1752.426893379333</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.9</v>
+        <v>93.7</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2023-12-21</t>
+          <t>2025-05-29</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>9080380000</v>
+        <v>25212066000</v>
       </c>
       <c r="J21" t="n">
-        <v>123425000</v>
+        <v>44735708000</v>
       </c>
       <c r="K21" t="n">
-        <v>1600720000</v>
+        <v>7615447000</v>
       </c>
       <c r="L21" t="n">
-        <v>11068271000</v>
+        <v>51737131000</v>
       </c>
       <c r="M21" t="n">
-        <v>10804525000</v>
+        <v>77563221000</v>
       </c>
       <c r="N21" t="n">
-        <v>89400221979</v>
+        <v>164605896000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>芝浦機械株式会社</t>
+          <t>トーセイ株式会社</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>6104</t>
+          <t>8923</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>78.8</v>
+        <v>47.1</v>
       </c>
       <c r="D22" t="n">
-        <v>4270</v>
+        <v>3395</v>
       </c>
       <c r="E22" t="n">
-        <v>3449.780346820809</v>
+        <v>1576.721867844292</v>
       </c>
       <c r="F22" t="n">
-        <v>23.8</v>
+        <v>115.3</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-08-19</t>
+          <t>2024-05-27</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>42417000000</v>
+        <v>25212066000</v>
       </c>
       <c r="J22" t="n">
-        <v>19144000000</v>
+        <v>44735708000</v>
       </c>
       <c r="K22" t="n">
-        <v>18000000000</v>
+        <v>7615447000</v>
       </c>
       <c r="L22" t="n">
-        <v>82152000000</v>
+        <v>51737131000</v>
       </c>
       <c r="M22" t="n">
-        <v>79561000000</v>
+        <v>77563221000</v>
       </c>
       <c r="N22" t="n">
-        <v>100904596310</v>
+        <v>164605896000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>株式会社パイオラックス</t>
+          <t>株式会社フェローテックホールディングス</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>5988</t>
+          <t>6890</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>97.09999999999999</v>
+        <v>53.9</v>
       </c>
       <c r="D23" t="n">
-        <v>1859</v>
+        <v>4170</v>
       </c>
       <c r="E23" t="n">
-        <v>2298.672482457804</v>
+        <v>2387</v>
       </c>
       <c r="F23" t="n">
-        <v>-19.1</v>
+        <v>74.7</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1627,102 +1619,102 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2024-08-06</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>31161000000</v>
+        <v>30202000000</v>
       </c>
       <c r="J23" t="n">
-        <v>12144000000</v>
+        <v>66583000000</v>
       </c>
       <c r="K23" t="n">
-        <v>1620000000</v>
+        <v>8420000000</v>
       </c>
       <c r="L23" t="n">
-        <v>93746000000</v>
+        <v>78239000000</v>
       </c>
       <c r="M23" t="n">
-        <v>44925000000</v>
+        <v>105205000000</v>
       </c>
       <c r="N23" t="n">
-        <v>46255080300</v>
+        <v>195241597590</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>東京瓦斯株式会社</t>
+          <t>大平洋金属株式会社</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>9531</t>
+          <t>5541</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>25.6</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>5364</v>
+        <v>2067</v>
       </c>
       <c r="E24" t="n">
-        <v>3322.047887165483</v>
+        <v>1270</v>
       </c>
       <c r="F24" t="n">
-        <v>61.5</v>
+        <v>62.8</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>エリオット・インベストメント・マネージメント・エルピー（Ｅｌｌｉｏｔｔ　Ｉｎｖｅｓｔｍｅｎｔ　Ｍａｎａｇｅｍｅｎｔ　Ｌ．Ｐ．）</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2024-11-12</t>
+          <t>2024-07-25</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>157811000000</v>
+        <v>22286000000</v>
       </c>
       <c r="J24" t="n">
-        <v>318445000000</v>
+        <v>2059000000</v>
       </c>
       <c r="K24" t="n">
-        <v>103000000</v>
+        <v>2199000000</v>
       </c>
       <c r="L24" t="n">
-        <v>1178271000000</v>
+        <v>67014000000</v>
       </c>
       <c r="M24" t="n">
-        <v>476359000000</v>
+        <v>26544000000</v>
       </c>
       <c r="N24" t="n">
-        <v>1863484721928</v>
+        <v>35926235553</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>王子ホールディングス株式会社</t>
+          <t>大平洋金属株式会社</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3861</t>
+          <t>5541</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>48.1</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>824</v>
+        <v>2067</v>
       </c>
       <c r="E25" t="n">
-        <v>590</v>
+        <v>1170</v>
       </c>
       <c r="F25" t="n">
-        <v>39.7</v>
+        <v>76.7</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1731,342 +1723,498 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-01-15</t>
+          <t>2024-01-18</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>135669000000</v>
+        <v>22286000000</v>
       </c>
       <c r="J25" t="n">
-        <v>222446000000</v>
+        <v>2059000000</v>
       </c>
       <c r="K25" t="n">
-        <v>4772000000</v>
+        <v>2199000000</v>
       </c>
       <c r="L25" t="n">
-        <v>865606000000</v>
+        <v>67014000000</v>
       </c>
       <c r="M25" t="n">
-        <v>362887000000</v>
+        <v>26544000000</v>
       </c>
       <c r="N25" t="n">
-        <v>753901011488</v>
+        <v>35926235553</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>三和ホールディングス株式会社</t>
+          <t>三井倉庫ホールディングス株式会社</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>5929</t>
+          <t>9302</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>12.9</v>
+        <v>33.8</v>
       </c>
       <c r="D26" t="n">
-        <v>4402</v>
+        <v>4215</v>
       </c>
       <c r="E26" t="n">
-        <v>1306.206628354146</v>
+        <v>1492.806001579363</v>
       </c>
       <c r="F26" t="n">
-        <v>237</v>
+        <v>182.4</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>ダルトン・インベストメンツ・エルエルシー</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>2025-04-28</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>87795000000</v>
+        <v>22718000000</v>
       </c>
       <c r="J26" t="n">
-        <v>21341000000</v>
+        <v>68374000000</v>
       </c>
       <c r="K26" t="n">
-        <v>11848000000</v>
+        <v>15393000000</v>
       </c>
       <c r="L26" t="n">
-        <v>181387000000</v>
+        <v>68529000000</v>
       </c>
       <c r="M26" t="n">
-        <v>120984000000</v>
+        <v>106485000000</v>
       </c>
       <c r="N26" t="n">
-        <v>934989052332</v>
+        <v>315469816185</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>株式会社青山財産ネットワークス</t>
+          <t>カルビー株式会社</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>8929</t>
+          <t>2229</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>29.1</v>
+        <v>23.6</v>
       </c>
       <c r="D27" t="n">
-        <v>2031</v>
+        <v>2957</v>
       </c>
       <c r="E27" t="n">
-        <v>1347.74653160027</v>
+        <v>2919.137515755844</v>
       </c>
       <c r="F27" t="n">
-        <v>50.7</v>
+        <v>1.3</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2024-06-11</t>
+          <t>2025-09-09</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>9424000000</v>
+        <v>47282000000</v>
       </c>
       <c r="J27" t="n">
-        <v>2205000000</v>
+        <v>38670000000</v>
       </c>
       <c r="K27" t="n">
-        <v>2514000000</v>
+        <v>3183000000</v>
       </c>
       <c r="L27" t="n">
-        <v>6566000000</v>
+        <v>182740000000</v>
       </c>
       <c r="M27" t="n">
-        <v>14143000000</v>
+        <v>89135000000</v>
       </c>
       <c r="N27" t="n">
-        <v>48672120879</v>
+        <v>377062396131</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>わかもと製薬株式会社</t>
+          <t>古河機械金属株式会社</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4512</t>
+          <t>5715</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>53.7</v>
+        <v>89.8</v>
       </c>
       <c r="D28" t="n">
-        <v>288</v>
+        <v>2950</v>
       </c>
       <c r="E28" t="n">
-        <v>290.3401328717133</v>
+        <v>1600</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.8</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2025-01-10</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>2843762000</v>
+        <v>17748000000</v>
       </c>
       <c r="J28" t="n">
-        <v>82947000</v>
+        <v>23365000000</v>
       </c>
       <c r="K28" t="n">
-        <v>2442113000</v>
+        <v>47383000000</v>
       </c>
       <c r="L28" t="n">
-        <v>11385570000</v>
+        <v>94364000000</v>
       </c>
       <c r="M28" t="n">
-        <v>5368822000</v>
+        <v>88496000000</v>
       </c>
       <c r="N28" t="n">
-        <v>9995406624</v>
+        <v>98580150000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>株式会社シンクロ・フード</t>
+          <t>王子ホールディングス株式会社</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3963</t>
+          <t>3861</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>13.5</v>
+        <v>47.7</v>
       </c>
       <c r="D29" t="n">
-        <v>595</v>
+        <v>831.5</v>
       </c>
       <c r="E29" t="n">
-        <v>421.6950726175476</v>
+        <v>590</v>
       </c>
       <c r="F29" t="n">
-        <v>41.1</v>
+        <v>40.9</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-01-15</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>2173723000</v>
+        <v>135669000000</v>
       </c>
       <c r="J29" t="n">
-        <v>67951000</v>
+        <v>222446000000</v>
       </c>
       <c r="K29" t="n">
-        <v>15141000</v>
+        <v>4772000000</v>
       </c>
       <c r="L29" t="n">
-        <v>2505194000</v>
+        <v>865606000000</v>
       </c>
       <c r="M29" t="n">
-        <v>2256815000</v>
+        <v>362887000000</v>
       </c>
       <c r="N29" t="n">
-        <v>16667472010</v>
+        <v>760762974578</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>山洋電気株式会社</t>
+          <t>スタンレー電気株式会社</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>6516</t>
+          <t>6923</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>16.9</v>
+        <v>39.6</v>
       </c>
       <c r="D30" t="n">
-        <v>10210</v>
+        <v>3052</v>
       </c>
       <c r="E30" t="n">
-        <v>7052.737306843267</v>
+        <v>2560</v>
       </c>
       <c r="F30" t="n">
-        <v>44.8</v>
+        <v>19.2</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>3903000000</v>
+        <v>101399000000</v>
       </c>
       <c r="J30" t="n">
-        <v>6200000000</v>
+        <v>74909000000</v>
       </c>
       <c r="K30" t="n">
-        <v>10330000000</v>
+        <v>3998000000</v>
       </c>
       <c r="L30" t="n">
-        <v>47152000000</v>
+        <v>444651000000</v>
       </c>
       <c r="M30" t="n">
-        <v>20433000000</v>
+        <v>180306000000</v>
       </c>
       <c r="N30" t="n">
-        <v>120789568360</v>
+        <v>455288106336</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>あいホールディングス株式会社</t>
+          <t>相模ゴム工業株式会社</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3076</t>
+          <t>5194</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>20.8</v>
+        <v>44.7</v>
       </c>
       <c r="D31" t="n">
-        <v>2768</v>
+        <v>958</v>
       </c>
       <c r="E31" t="n">
-        <v>2007.754513143541</v>
+        <v>933.1435874692879</v>
       </c>
       <c r="F31" t="n">
-        <v>37.9</v>
+        <v>2.7</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>2023-08-28</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>25461000000</v>
+        <v>1474580000</v>
       </c>
       <c r="J31" t="n">
-        <v>1728000000</v>
+        <v>2373852000</v>
       </c>
       <c r="K31" t="n">
-        <v>3490000000</v>
+        <v>804741000</v>
       </c>
       <c r="L31" t="n">
-        <v>49530000000</v>
+        <v>7569765000</v>
       </c>
       <c r="M31" t="n">
-        <v>30679000000</v>
+        <v>4653173000</v>
       </c>
       <c r="N31" t="n">
-        <v>147463785552</v>
+        <v>10400431200</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
+        <is>
+          <t>新家工業株式会社</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>7305</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>5190</v>
+      </c>
+      <c r="E32" t="n">
+        <v>4265.455132343447</v>
+      </c>
+      <c r="F32" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2024-07-30</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>8409000000</v>
+      </c>
+      <c r="J32" t="n">
+        <v>5535000000</v>
+      </c>
+      <c r="K32" t="n">
+        <v>185000000</v>
+      </c>
+      <c r="L32" t="n">
+        <v>26218000000</v>
+      </c>
+      <c r="M32" t="n">
+        <v>14129000000</v>
+      </c>
+      <c r="N32" t="n">
+        <v>24742235100</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>ガンホー・オンライン・エンターテイメント株式会社</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>3765</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2780</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2939.562915943684</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-5.4</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>株式会社ストラテジックキャピタル</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2024-10-08</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>95979000000</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1240000000</v>
+      </c>
+      <c r="K33" t="n">
+        <v>3835000000</v>
+      </c>
+      <c r="L33" t="n">
+        <v>104727000000</v>
+      </c>
+      <c r="M33" t="n">
+        <v>101054000000</v>
+      </c>
+      <c r="N33" t="n">
+        <v>151057037920</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>株式会社メルカリ</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>4385</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2260</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2006.059650428343</v>
+      </c>
+      <c r="F34" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2024-11-06</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>171463000000</v>
+      </c>
+      <c r="J34" t="n">
+        <v>434000000</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1543000000</v>
+      </c>
+      <c r="L34" t="n">
+        <v>40013000000</v>
+      </c>
+      <c r="M34" t="n">
+        <v>173440000000</v>
+      </c>
+      <c r="N34" t="n">
+        <v>372046648860</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>ノリタケ株式会社
 （旧会社名　株式会社ノリタケカンパニーリミテド）
@@ -2074,438 +2222,282 @@
 　　　2024年７月25日から会社名を上記のとおり変更いたしました。</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>5331</t>
         </is>
       </c>
-      <c r="C32" t="n">
-        <v>58.7</v>
-      </c>
-      <c r="D32" t="n">
-        <v>4705</v>
-      </c>
-      <c r="E32" t="n">
+      <c r="C35" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="D35" t="n">
+        <v>4735</v>
+      </c>
+      <c r="E35" t="n">
         <v>3573.410502159827</v>
       </c>
-      <c r="F32" t="n">
-        <v>31.7</v>
-      </c>
-      <c r="G32" t="inlineStr">
+      <c r="F35" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="G35" t="inlineStr">
         <is>
           <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>2025-07-10</t>
         </is>
       </c>
-      <c r="I32" t="n">
+      <c r="I35" t="n">
         <v>9741000000</v>
       </c>
-      <c r="J32" t="n">
+      <c r="J35" t="n">
         <v>18560000000</v>
       </c>
-      <c r="K32" t="n">
+      <c r="K35" t="n">
         <v>47524000000</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L35" t="n">
         <v>113988000000</v>
       </c>
-      <c r="M32" t="n">
+      <c r="M35" t="n">
         <v>75825000000</v>
       </c>
-      <c r="N32" t="n">
-        <v>129204946000</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>東邦ホールディングス株式会社</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>8129</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>53.8</v>
-      </c>
-      <c r="D33" t="n">
-        <v>5482</v>
-      </c>
-      <c r="E33" t="n">
-        <v>3405.914389596362</v>
-      </c>
-      <c r="F33" t="n">
-        <v>61</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2024-07-16</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
-        <v>88882000000</v>
-      </c>
-      <c r="J33" t="n">
-        <v>34612000000</v>
-      </c>
-      <c r="K33" t="n">
-        <v>70212000000</v>
-      </c>
-      <c r="L33" t="n">
-        <v>237405000000</v>
-      </c>
-      <c r="M33" t="n">
-        <v>193706000000</v>
-      </c>
-      <c r="N33" t="n">
-        <v>359914131600</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>東邦ホールディングス株式会社</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>8129</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>53.8</v>
-      </c>
-      <c r="D34" t="n">
-        <v>5482</v>
-      </c>
-      <c r="E34" t="n">
-        <v>2714.613787300615</v>
-      </c>
-      <c r="F34" t="n">
-        <v>101.9</v>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2024-06-17</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
-        <v>88882000000</v>
-      </c>
-      <c r="J34" t="n">
-        <v>34612000000</v>
-      </c>
-      <c r="K34" t="n">
-        <v>70212000000</v>
-      </c>
-      <c r="L34" t="n">
-        <v>237405000000</v>
-      </c>
-      <c r="M34" t="n">
-        <v>193706000000</v>
-      </c>
-      <c r="N34" t="n">
-        <v>359914131600</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>株式会社ニコン</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>7731</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="D35" t="n">
-        <v>1800</v>
-      </c>
-      <c r="E35" t="n">
-        <v>1512.21980974841</v>
-      </c>
-      <c r="F35" t="n">
-        <v>19</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2024-04-22</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
-        <v>78718000000</v>
-      </c>
-      <c r="J35" t="n">
-        <v>8297000000</v>
-      </c>
-      <c r="K35" t="n">
-        <v>4000000000</v>
-      </c>
-      <c r="L35" t="n">
-        <v>342155000000</v>
-      </c>
-      <c r="M35" t="n">
-        <v>91015000000</v>
-      </c>
       <c r="N35" t="n">
-        <v>592234329600</v>
+        <v>130028782000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>株式会社クスリのアオキホールディングス</t>
+          <t>株式会社オリエントコーポレーション</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>3549</t>
+          <t>8585</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>34.6</v>
+        <v>247.5</v>
       </c>
       <c r="D36" t="n">
-        <v>4079</v>
+        <v>1013</v>
       </c>
       <c r="E36" t="n">
-        <v>6646.195827570309</v>
+        <v>798.3805136422309</v>
       </c>
       <c r="F36" t="n">
-        <v>-38.6</v>
+        <v>26.9</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2023-05-15</t>
+          <t>2025-06-24</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>15734000000</v>
+        <v>385176000000</v>
       </c>
       <c r="J36" t="n">
-        <v>120105000000</v>
+        <v>19135000000</v>
       </c>
       <c r="K36" t="n">
-        <v>3356000000</v>
+        <v>24938000000</v>
       </c>
       <c r="L36" t="n">
-        <v>77669000000</v>
+        <v>228464000000</v>
       </c>
       <c r="M36" t="n">
-        <v>139195000000</v>
+        <v>429249000000</v>
       </c>
       <c r="N36" t="n">
-        <v>402035487093</v>
+        <v>173437017523</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>株式会社フジ・メディア・ホールディングス</t>
+          <t>栄研化学株式会社</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>4676</t>
+          <t>4549</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>58.1</v>
+        <v>24.2</v>
       </c>
       <c r="D37" t="n">
-        <v>3442</v>
+        <v>2455</v>
       </c>
       <c r="E37" t="n">
-        <v>2420</v>
+        <v>1678.083113259255</v>
       </c>
       <c r="F37" t="n">
-        <v>42.2</v>
+        <v>46.3</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>株式会社レノ代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>118591000000</v>
+        <v>6968000000</v>
       </c>
       <c r="J37" t="n">
-        <v>174618000000</v>
+        <v>11989000000</v>
       </c>
       <c r="K37" t="n">
-        <v>121461000000</v>
+        <v>597000000</v>
       </c>
       <c r="L37" t="n">
-        <v>784429000000</v>
+        <v>41672000000</v>
       </c>
       <c r="M37" t="n">
-        <v>414670000000</v>
+        <v>19554000000</v>
       </c>
       <c r="N37" t="n">
-        <v>714050131642</v>
+        <v>80946674895</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ニッコンホールディングス株式会社</t>
+          <t>アツギ株式会社</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>9072</t>
+          <t>3529</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>43.3</v>
+        <v>85.3</v>
       </c>
       <c r="D38" t="n">
-        <v>3412</v>
+        <v>1106</v>
       </c>
       <c r="E38" t="n">
-        <v>1598.889989734285</v>
+        <v>668.9358717434869</v>
       </c>
       <c r="F38" t="n">
-        <v>113.4</v>
+        <v>65.3</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2023-09-04</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>30366000000</v>
+        <v>7403000000</v>
       </c>
       <c r="J38" t="n">
-        <v>115109000000</v>
+        <v>1639000000</v>
       </c>
       <c r="K38" t="n">
-        <v>32990000000</v>
+        <v>6076000000</v>
       </c>
       <c r="L38" t="n">
-        <v>208290000000</v>
+        <v>33956000000</v>
       </c>
       <c r="M38" t="n">
-        <v>178465000000</v>
+        <v>15118000000</v>
       </c>
       <c r="N38" t="n">
-        <v>412461025744</v>
+        <v>17714825226</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ライフネット生命保険株式会社</t>
+          <t>株式会社電通グループ</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>7157</t>
+          <t>4324</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>10.5</v>
       </c>
       <c r="D39" t="n">
-        <v>1987</v>
+        <v>3349</v>
       </c>
       <c r="E39" t="n">
-        <v>887.288318673809</v>
+        <v>4156.179843576074</v>
       </c>
       <c r="F39" t="n">
-        <v>123.9</v>
+        <v>-19.4</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2023-05-24</t>
+          <t>2023-03-10</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>3059000000</v>
+        <v>86652000000</v>
       </c>
       <c r="J39" t="n">
-        <v>65000000</v>
+        <v>3784000000</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>487000000</v>
       </c>
       <c r="L39" t="n">
-        <v>15806000000</v>
+        <v>616425000000</v>
       </c>
       <c r="M39" t="n">
-        <v>3124000000</v>
+        <v>90923000000</v>
       </c>
       <c r="N39" t="n">
-        <v>159591750754</v>
+        <v>869358286325</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>株式会社髙島屋</t>
+          <t>三井松島ホールディングス株式会社</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>8233</t>
+          <t>1518</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>82.40000000000001</v>
+        <v>50</v>
       </c>
       <c r="D40" t="n">
-        <v>1614.5</v>
+        <v>6660</v>
       </c>
       <c r="E40" t="n">
-        <v>1101.400153022188</v>
+        <v>2920</v>
       </c>
       <c r="F40" t="n">
-        <v>46.6</v>
+        <v>128.1</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2514,414 +2506,414 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2024-05-02</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>105320000000</v>
+        <v>19293000000</v>
       </c>
       <c r="J40" t="n">
-        <v>191580000000</v>
+        <v>3587000000</v>
       </c>
       <c r="K40" t="n">
-        <v>101495000000</v>
+        <v>3156000000</v>
       </c>
       <c r="L40" t="n">
-        <v>415111000000</v>
+        <v>30287000000</v>
       </c>
       <c r="M40" t="n">
-        <v>398395000000</v>
+        <v>26036000000</v>
       </c>
       <c r="N40" t="n">
-        <v>483267965329</v>
+        <v>52096584600</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>センコーグループホールディングス株式会社</t>
+          <t>株式会社淀川製鋼所</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>9069</t>
+          <t>5451</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>54.7</v>
+        <v>33.8</v>
       </c>
       <c r="D41" t="n">
-        <v>2051</v>
+        <v>1339</v>
       </c>
       <c r="E41" t="n">
-        <v>1556.090471804319</v>
+        <v>3234.727863989046</v>
       </c>
       <c r="F41" t="n">
-        <v>31.8</v>
+        <v>-58.6</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2023-09-08</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>50371000000</v>
+        <v>43116000000</v>
       </c>
       <c r="J41" t="n">
-        <v>118947000000</v>
+        <v>18353000000</v>
       </c>
       <c r="K41" t="n">
-        <v>22276000000</v>
+        <v>4009000000</v>
       </c>
       <c r="L41" t="n">
-        <v>146120000000</v>
+        <v>180296000000</v>
       </c>
       <c r="M41" t="n">
-        <v>191594000000</v>
+        <v>65478000000</v>
       </c>
       <c r="N41" t="n">
-        <v>350275264374</v>
+        <v>193600941885</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>株式会社メルカリ</t>
+          <t>アニコム ホールディングス株式会社</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>4385</t>
+          <t>8715</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>39.1</v>
+        <v>53.8</v>
       </c>
       <c r="D42" t="n">
-        <v>2205.5</v>
+        <v>801</v>
       </c>
       <c r="E42" t="n">
-        <v>2006.059650428343</v>
+        <v>656.2604975855553</v>
       </c>
       <c r="F42" t="n">
-        <v>9.9</v>
+        <v>22.1</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2025-06-26</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>141008000000</v>
+        <v>28833000000</v>
       </c>
       <c r="J42" t="n">
-        <v>1051000000</v>
+        <v>3032000000</v>
       </c>
       <c r="K42" t="n">
-        <v>43000000</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>35368000000</v>
+        <v>25717000000</v>
       </c>
       <c r="M42" t="n">
-        <v>142102000000</v>
+        <v>31865000000</v>
       </c>
       <c r="N42" t="n">
-        <v>363074727460</v>
+        <v>59174217828</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>アツギ株式会社</t>
+          <t>イワブチ株式会社</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>3529</t>
+          <t>5983</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>93</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>1015</v>
+        <v>10800</v>
       </c>
       <c r="E43" t="n">
-        <v>668.9358717434869</v>
+        <v>7040.15625</v>
       </c>
       <c r="F43" t="n">
-        <v>51.7</v>
+        <v>53.4</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>ＳＥＮＪＩＮ　ＣＡＰＩＴＡＬ　ＰＴＹ　ＬＴＤ</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>2024-08-01</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>7403000000</v>
+        <v>4688085000</v>
       </c>
       <c r="J43" t="n">
-        <v>1639000000</v>
+        <v>1422820000</v>
       </c>
       <c r="K43" t="n">
-        <v>6076000000</v>
+        <v>2670408000</v>
       </c>
       <c r="L43" t="n">
-        <v>33956000000</v>
+        <v>16426704000</v>
       </c>
       <c r="M43" t="n">
-        <v>15118000000</v>
+        <v>8781313000</v>
       </c>
       <c r="N43" t="n">
-        <v>16257276315</v>
+        <v>11413321200</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>大平洋金属株式会社</t>
+          <t>イワブチ株式会社</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>5541</t>
+          <t>5983</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>74.90000000000001</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>2040</v>
+        <v>10800</v>
       </c>
       <c r="E44" t="n">
-        <v>1270</v>
+        <v>7040.15625</v>
       </c>
       <c r="F44" t="n">
-        <v>60.6</v>
+        <v>53.4</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>ＳＥＮＪＩＮ　ＣＡＰＩＴＡＬ　ＰＴＹ　ＬＴＤ</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>2024-07-25</t>
+          <t>2025-09-05</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>22286000000</v>
+        <v>4688085000</v>
       </c>
       <c r="J44" t="n">
-        <v>2059000000</v>
+        <v>1422820000</v>
       </c>
       <c r="K44" t="n">
-        <v>2199000000</v>
+        <v>2670408000</v>
       </c>
       <c r="L44" t="n">
-        <v>67014000000</v>
+        <v>16426704000</v>
       </c>
       <c r="M44" t="n">
-        <v>26544000000</v>
+        <v>8781313000</v>
       </c>
       <c r="N44" t="n">
-        <v>35456952360</v>
+        <v>11413321200</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>大平洋金属株式会社</t>
+          <t>株式会社スクウェア・エニックス・ホールディングス</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>5541</t>
+          <t>9684</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>74.90000000000001</v>
+        <v>13.4</v>
       </c>
       <c r="D45" t="n">
-        <v>2040</v>
+        <v>9554</v>
       </c>
       <c r="E45" t="n">
-        <v>1170</v>
+        <v>6272.971195510064</v>
       </c>
       <c r="F45" t="n">
-        <v>74.40000000000001</v>
+        <v>52.3</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>2024-01-18</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>22286000000</v>
+        <v>144061000000</v>
       </c>
       <c r="J45" t="n">
-        <v>2059000000</v>
+        <v>4462000000</v>
       </c>
       <c r="K45" t="n">
-        <v>2199000000</v>
+        <v>4731000000</v>
       </c>
       <c r="L45" t="n">
-        <v>67014000000</v>
+        <v>243278000000</v>
       </c>
       <c r="M45" t="n">
-        <v>26544000000</v>
+        <v>153254000000</v>
       </c>
       <c r="N45" t="n">
-        <v>35456952360</v>
+        <v>1147865759930</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>株式会社スズケン</t>
+          <t>ＤＩＣ株式会社</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>9987</t>
+          <t>4631</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>69.8</v>
+        <v>68.5</v>
       </c>
       <c r="D46" t="n">
-        <v>5787</v>
+        <v>3661</v>
       </c>
       <c r="E46" t="n">
-        <v>4137.137750115735</v>
+        <v>2566.284807227078</v>
       </c>
       <c r="F46" t="n">
-        <v>39.9</v>
+        <v>42.7</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2023-12-21</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>168818000000</v>
+        <v>41354000000</v>
       </c>
       <c r="J46" t="n">
-        <v>54931000000</v>
+        <v>133062000000</v>
       </c>
       <c r="K46" t="n">
-        <v>60282000000</v>
+        <v>63071000000</v>
       </c>
       <c r="L46" t="n">
-        <v>417912000000</v>
+        <v>351364000000</v>
       </c>
       <c r="M46" t="n">
-        <v>284031000000</v>
+        <v>237487000000</v>
       </c>
       <c r="N46" t="n">
-        <v>406888188723</v>
+        <v>346626972594</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>アルプスアルパイン株式会社</t>
+          <t>株式会社スズケン</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>6770</t>
+          <t>9987</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>67.7</v>
+        <v>69.7</v>
       </c>
       <c r="D47" t="n">
-        <v>1906.5</v>
+        <v>5795</v>
       </c>
       <c r="E47" t="n">
-        <v>1257.709264012363</v>
+        <v>4137.137750115735</v>
       </c>
       <c r="F47" t="n">
-        <v>51.6</v>
+        <v>40.1</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>2023-05-08</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>151748000000</v>
+        <v>168818000000</v>
       </c>
       <c r="J47" t="n">
-        <v>37620000000</v>
+        <v>54931000000</v>
       </c>
       <c r="K47" t="n">
-        <v>71804000000</v>
+        <v>60282000000</v>
       </c>
       <c r="L47" t="n">
-        <v>378379000000</v>
+        <v>417912000000</v>
       </c>
       <c r="M47" t="n">
-        <v>261172000000</v>
+        <v>284031000000</v>
       </c>
       <c r="N47" t="n">
-        <v>385789601598</v>
+        <v>407450674555</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>アルプスアルパイン株式会社</t>
+          <t>アークランズ株式会社</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>6770</t>
+          <t>9842</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>67.7</v>
+        <v>110.6</v>
       </c>
       <c r="D48" t="n">
-        <v>1906.5</v>
+        <v>1937</v>
       </c>
       <c r="E48" t="n">
-        <v>1217.254500469243</v>
+        <v>1469.167707232735</v>
       </c>
       <c r="F48" t="n">
-        <v>56.6</v>
+        <v>31.8</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2930,286 +2922,286 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>2023-01-24</t>
+          <t>2023-03-30</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>151748000000</v>
+        <v>25605000000</v>
       </c>
       <c r="J48" t="n">
-        <v>37620000000</v>
+        <v>95781000000</v>
       </c>
       <c r="K48" t="n">
-        <v>71804000000</v>
+        <v>12051000000</v>
       </c>
       <c r="L48" t="n">
-        <v>378379000000</v>
+        <v>91048000000</v>
       </c>
       <c r="M48" t="n">
-        <v>261172000000</v>
+        <v>133437000000</v>
       </c>
       <c r="N48" t="n">
-        <v>385789601598</v>
+        <v>120672775600</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>小林製薬株式会社</t>
+          <t>アークランズ株式会社</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>4967</t>
+          <t>9842</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>20</v>
+        <v>110.6</v>
       </c>
       <c r="D49" t="n">
-        <v>5374</v>
+        <v>1937</v>
       </c>
       <c r="E49" t="n">
-        <v>5066.092575838703</v>
+        <v>1489.94784546053</v>
       </c>
       <c r="F49" t="n">
-        <v>6.1</v>
+        <v>30</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2024-07-22</t>
+          <t>2022-09-27</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>61157000000</v>
+        <v>25605000000</v>
       </c>
       <c r="J49" t="n">
-        <v>10611000000</v>
+        <v>95781000000</v>
       </c>
       <c r="K49" t="n">
-        <v>8300000000</v>
+        <v>12051000000</v>
       </c>
       <c r="L49" t="n">
-        <v>182583000000</v>
+        <v>91048000000</v>
       </c>
       <c r="M49" t="n">
-        <v>80068000000</v>
+        <v>133437000000</v>
       </c>
       <c r="N49" t="n">
-        <v>399496813306</v>
+        <v>120672775600</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>小林製薬株式会社</t>
+          <t>株式会社ＴＳＩホールディングス</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>4967</t>
+          <t>3608</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>20</v>
+        <v>124.8</v>
       </c>
       <c r="D50" t="n">
-        <v>5374</v>
+        <v>1088</v>
       </c>
       <c r="E50" t="n">
-        <v>2148.936934940886</v>
+        <v>438.851170934559</v>
       </c>
       <c r="F50" t="n">
-        <v>150.1</v>
+        <v>147.9</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2024-07-22</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>61157000000</v>
+        <v>49761000000</v>
       </c>
       <c r="J50" t="n">
-        <v>10611000000</v>
+        <v>4425000000</v>
       </c>
       <c r="K50" t="n">
-        <v>8300000000</v>
+        <v>25137000000</v>
       </c>
       <c r="L50" t="n">
-        <v>182583000000</v>
+        <v>97430000000</v>
       </c>
       <c r="M50" t="n">
-        <v>80068000000</v>
+        <v>79323000000</v>
       </c>
       <c r="N50" t="n">
-        <v>399496813306</v>
+        <v>63557318464</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>株式会社パソナグループ</t>
+          <t>株式会社フジ・メディア・ホールディングス</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2168</t>
+          <t>4676</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>89.90000000000001</v>
+        <v>56.2</v>
       </c>
       <c r="D51" t="n">
-        <v>2201</v>
+        <v>3501</v>
       </c>
       <c r="E51" t="n">
-        <v>2122.579027791042</v>
+        <v>2420</v>
       </c>
       <c r="F51" t="n">
-        <v>3.7</v>
+        <v>44.7</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社レノ代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2024-07-25</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>52298000000</v>
+        <v>118591000000</v>
       </c>
       <c r="J51" t="n">
-        <v>8021000000</v>
+        <v>174618000000</v>
       </c>
       <c r="K51" t="n">
-        <v>14500000000</v>
+        <v>121461000000</v>
       </c>
       <c r="L51" t="n">
-        <v>49795000000</v>
+        <v>784429000000</v>
       </c>
       <c r="M51" t="n">
-        <v>74819000000</v>
+        <v>414670000000</v>
       </c>
       <c r="N51" t="n">
-        <v>83251271094</v>
+        <v>738352312047</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ニッタ株式会社</t>
+          <t>株式会社京都フィナンシャルグループ</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>5186</t>
+          <t>5844</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>41.2</v>
+        <v>114.5</v>
       </c>
       <c r="D52" t="n">
-        <v>4065</v>
+        <v>3080</v>
       </c>
       <c r="E52" t="n">
-        <v>3096.322467304314</v>
+        <v>4991.027246539169</v>
       </c>
       <c r="F52" t="n">
-        <v>31.3</v>
+        <v>-38.3</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>ダルトン・インベストメンツ・エルエルシー</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2023-10-02</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>27527000000</v>
+        <v>929545000000</v>
       </c>
       <c r="J52" t="n">
-        <v>13414000000</v>
+        <v>76590000000</v>
       </c>
       <c r="K52" t="n">
-        <v>5499000000</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>108639000000</v>
+        <v>1141082000000</v>
       </c>
       <c r="M52" t="n">
-        <v>46440000000</v>
+        <v>1006135000000</v>
       </c>
       <c r="N52" t="n">
-        <v>112588695240</v>
+        <v>878490677680</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>株式会社フェローテックホールディングス</t>
+          <t>山洋電気株式会社</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>6890</t>
+          <t>6516</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>52</v>
+        <v>16.8</v>
       </c>
       <c r="D53" t="n">
-        <v>4320</v>
+        <v>10310</v>
       </c>
       <c r="E53" t="n">
-        <v>2387</v>
+        <v>7052.737306843267</v>
       </c>
       <c r="F53" t="n">
-        <v>81</v>
+        <v>46.2</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>30202000000</v>
+        <v>3903000000</v>
       </c>
       <c r="J53" t="n">
-        <v>66583000000</v>
+        <v>6200000000</v>
       </c>
       <c r="K53" t="n">
-        <v>8420000000</v>
+        <v>10330000000</v>
       </c>
       <c r="L53" t="n">
-        <v>78239000000</v>
+        <v>47152000000</v>
       </c>
       <c r="M53" t="n">
-        <v>105205000000</v>
+        <v>20433000000</v>
       </c>
       <c r="N53" t="n">
-        <v>202264676640</v>
+        <v>121972619960</v>
       </c>
     </row>
     <row r="54">
@@ -3224,16 +3216,16 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="D54" t="n">
-        <v>5741</v>
+        <v>5696</v>
       </c>
       <c r="E54" t="n">
         <v>2420.370957920882</v>
       </c>
       <c r="F54" t="n">
-        <v>137.2</v>
+        <v>135.3</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -3261,83 +3253,83 @@
         <v>28931000000</v>
       </c>
       <c r="N54" t="n">
-        <v>288427593137</v>
+        <v>286166795072</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ガンホー・オンライン・エンターテイメント株式会社</t>
+          <t>江崎グリコ株式会社</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>3765</t>
+          <t>2206</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>67.09999999999999</v>
+        <v>53.8</v>
       </c>
       <c r="D55" t="n">
-        <v>2770.5</v>
+        <v>5215</v>
       </c>
       <c r="E55" t="n">
-        <v>2939.562915943684</v>
+        <v>4154.626869982095</v>
       </c>
       <c r="F55" t="n">
-        <v>-5.8</v>
+        <v>25.5</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2024-10-08</t>
+          <t>2024-07-10</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>95979000000</v>
+        <v>92449000000</v>
       </c>
       <c r="J55" t="n">
-        <v>1240000000</v>
+        <v>40203000000</v>
       </c>
       <c r="K55" t="n">
-        <v>3835000000</v>
+        <v>46840000000</v>
       </c>
       <c r="L55" t="n">
-        <v>104727000000</v>
+        <v>222551000000</v>
       </c>
       <c r="M55" t="n">
-        <v>101054000000</v>
+        <v>179492000000</v>
       </c>
       <c r="N55" t="n">
-        <v>150540835812</v>
+        <v>333408482925</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>新光商事株式会社</t>
+          <t>科研製薬株式会社</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>8141</t>
+          <t>4521</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>59.4</v>
+        <v>73.8</v>
       </c>
       <c r="D56" t="n">
-        <v>963</v>
+        <v>3823</v>
       </c>
       <c r="E56" t="n">
-        <v>930</v>
+        <v>3530</v>
       </c>
       <c r="F56" t="n">
-        <v>3.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3346,234 +3338,234 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-05-29</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>17596000000</v>
+        <v>77305000000</v>
       </c>
       <c r="J56" t="n">
-        <v>174000000</v>
+        <v>15734000000</v>
       </c>
       <c r="K56" t="n">
-        <v>2995000000</v>
+        <v>14699000000</v>
       </c>
       <c r="L56" t="n">
-        <v>50340000000</v>
+        <v>136257000000</v>
       </c>
       <c r="M56" t="n">
-        <v>20765000000</v>
+        <v>107738000000</v>
       </c>
       <c r="N56" t="n">
-        <v>34967125134</v>
+        <v>146065070452</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ジェイドグループ株式会社</t>
+          <t>東亜道路工業株式会社</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>3558</t>
+          <t>1882</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>22.3</v>
+        <v>43.6</v>
       </c>
       <c r="D57" t="n">
-        <v>1413</v>
+        <v>1590</v>
       </c>
       <c r="E57" t="n">
-        <v>1267.324164058639</v>
+        <v>3767.430178069353</v>
       </c>
       <c r="F57" t="n">
-        <v>11.5</v>
+        <v>-57.8</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2023-03-22</t>
+          <t>2023-05-31</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>2776277000</v>
+        <v>12764000000</v>
       </c>
       <c r="J57" t="n">
-        <v>280430000</v>
+        <v>13764000000</v>
       </c>
       <c r="K57" t="n">
-        <v>23536000</v>
+        <v>5437000000</v>
       </c>
       <c r="L57" t="n">
-        <v>4370371000</v>
+        <v>48166000000</v>
       </c>
       <c r="M57" t="n">
-        <v>3080243000</v>
+        <v>31965000000</v>
       </c>
       <c r="N57" t="n">
-        <v>13829353164</v>
+        <v>73385966640</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>愛知製鋼株式会社</t>
+          <t>センコーグループホールディングス株式会社</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>5482</t>
+          <t>9069</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>53.5</v>
+        <v>54.1</v>
       </c>
       <c r="D58" t="n">
-        <v>2830</v>
+        <v>2052</v>
       </c>
       <c r="E58" t="n">
-        <v>3155.301177013616</v>
+        <v>1556.090471804319</v>
       </c>
       <c r="F58" t="n">
-        <v>-10.3</v>
+        <v>31.9</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2024-09-13</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>54163000000</v>
+        <v>50371000000</v>
       </c>
       <c r="J58" t="n">
-        <v>11000000000</v>
+        <v>118947000000</v>
       </c>
       <c r="K58" t="n">
-        <v>33479000000</v>
+        <v>22276000000</v>
       </c>
       <c r="L58" t="n">
-        <v>179716000000</v>
+        <v>146120000000</v>
       </c>
       <c r="M58" t="n">
-        <v>98642000000</v>
+        <v>191594000000</v>
       </c>
       <c r="N58" t="n">
-        <v>184315672790</v>
+        <v>354192311628</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>カシオ計算機株式会社</t>
+          <t>京阪神ビルディング株式会社</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>6952</t>
+          <t>8818</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>69.7</v>
+        <v>115</v>
       </c>
       <c r="D59" t="n">
-        <v>1229.5</v>
+        <v>1717</v>
       </c>
       <c r="E59" t="n">
-        <v>1188.162962482466</v>
+        <v>1341.977644710579</v>
       </c>
       <c r="F59" t="n">
-        <v>3.5</v>
+        <v>27.9</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2024-02-07</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>137053000000</v>
+        <v>21550649000</v>
       </c>
       <c r="J59" t="n">
-        <v>12759000000</v>
+        <v>56970145000</v>
       </c>
       <c r="K59" t="n">
-        <v>45698000000</v>
+        <v>17382863000</v>
       </c>
       <c r="L59" t="n">
-        <v>211895000000</v>
+        <v>70539690000</v>
       </c>
       <c r="M59" t="n">
-        <v>195510000000</v>
+        <v>95903657000</v>
       </c>
       <c r="N59" t="n">
-        <v>280383020522</v>
+        <v>83394329430</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>株式会社エクセディ</t>
+          <t>マクニカホールディングス株式会社</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>7278</t>
+          <t>3132</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>27</v>
+        <v>9.6</v>
       </c>
       <c r="D60" t="n">
-        <v>5390</v>
+        <v>2102</v>
       </c>
       <c r="E60" t="n">
-        <v>2617.980935875217</v>
+        <v>1141.512891683109</v>
       </c>
       <c r="F60" t="n">
-        <v>105.9</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2024-06-10</t>
+          <t>2025-03-03</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>43070000000</v>
+        <v>25438000000</v>
       </c>
       <c r="J60" t="n">
-        <v>6829000000</v>
+        <v>2290000000</v>
       </c>
       <c r="K60" t="n">
-        <v>3253000000</v>
+        <v>8223000000</v>
       </c>
       <c r="L60" t="n">
-        <v>113343000000</v>
+        <v>146010000000</v>
       </c>
       <c r="M60" t="n">
-        <v>53152000000</v>
+        <v>35951000000</v>
       </c>
       <c r="N60" t="n">
-        <v>197024011800</v>
+        <v>375027617422</v>
       </c>
     </row>
     <row r="61">
@@ -3591,22 +3583,22 @@
         <v>9.6</v>
       </c>
       <c r="D61" t="n">
-        <v>2107.5</v>
+        <v>2102</v>
       </c>
       <c r="E61" t="n">
-        <v>1141.512891683109</v>
+        <v>1842.11261309207</v>
       </c>
       <c r="F61" t="n">
-        <v>84.59999999999999</v>
+        <v>14.1</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2025-03-03</t>
+          <t>2022-12-15</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -3625,291 +3617,291 @@
         <v>35951000000</v>
       </c>
       <c r="N61" t="n">
-        <v>376008898058</v>
+        <v>375027617422</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>マクニカホールディングス株式会社</t>
+          <t>参天製薬株式会社</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>3132</t>
+          <t>4536</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>9.6</v>
+        <v>10.3</v>
       </c>
       <c r="D62" t="n">
-        <v>2107.5</v>
+        <v>1640.5</v>
       </c>
       <c r="E62" t="n">
-        <v>1842.11261309207</v>
+        <v>1344.518957928979</v>
       </c>
       <c r="F62" t="n">
-        <v>14.4</v>
+        <v>22</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>ダルトン・インベストメンツ・エルエルシー</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2022-12-15</t>
+          <t>2024-04-19</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>25438000000</v>
+        <v>34203000000</v>
       </c>
       <c r="J62" t="n">
-        <v>2290000000</v>
+        <v>6796000000</v>
       </c>
       <c r="K62" t="n">
-        <v>8223000000</v>
+        <v>14270000000</v>
       </c>
       <c r="L62" t="n">
-        <v>146010000000</v>
+        <v>294231000000</v>
       </c>
       <c r="M62" t="n">
-        <v>35951000000</v>
+        <v>55269000000</v>
       </c>
       <c r="N62" t="n">
-        <v>376008898058</v>
+        <v>537447107044</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>日本化薬株式会社</t>
+          <t>リンナイ株式会社</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>4272</t>
+          <t>5947</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>46.3</v>
+        <v>46.5</v>
       </c>
       <c r="D63" t="n">
-        <v>1417</v>
+        <v>3581</v>
       </c>
       <c r="E63" t="n">
-        <v>1111.90611839092</v>
+        <v>2844.704547285864</v>
       </c>
       <c r="F63" t="n">
-        <v>27.4</v>
+        <v>25.9</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>47483000000</v>
+        <v>166524000000</v>
       </c>
       <c r="J63" t="n">
-        <v>44109000000</v>
+        <v>60632000000</v>
       </c>
       <c r="K63" t="n">
-        <v>9428000000</v>
+        <v>8068000000</v>
       </c>
       <c r="L63" t="n">
-        <v>228273000000</v>
+        <v>371318000000</v>
       </c>
       <c r="M63" t="n">
-        <v>101020000000</v>
+        <v>235224000000</v>
       </c>
       <c r="N63" t="n">
-        <v>218314966727</v>
+        <v>505436406168</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>株式会社メルカリ</t>
+          <t>大阪製鐵株式会社</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>4385</t>
+          <t>5449</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>47.8</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>2205.5</v>
+        <v>2844</v>
       </c>
       <c r="E64" t="n">
-        <v>2006.059650428343</v>
+        <v>1748.071046781136</v>
       </c>
       <c r="F64" t="n">
-        <v>9.9</v>
+        <v>62.7</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2023-12-19</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>171463000000</v>
+        <v>62621000000</v>
       </c>
       <c r="J64" t="n">
-        <v>434000000</v>
+        <v>8568000000</v>
       </c>
       <c r="K64" t="n">
-        <v>1543000000</v>
+        <v>669000000</v>
       </c>
       <c r="L64" t="n">
-        <v>40013000000</v>
+        <v>148514000000</v>
       </c>
       <c r="M64" t="n">
-        <v>173440000000</v>
+        <v>71858000000</v>
       </c>
       <c r="N64" t="n">
-        <v>363074727460</v>
+        <v>85089604716</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>株式会社マンダム</t>
+          <t>東邦ホールディングス株式会社</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>4917</t>
+          <t>8129</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>32.5</v>
+        <v>54</v>
       </c>
       <c r="D65" t="n">
-        <v>2362</v>
+        <v>5461</v>
       </c>
       <c r="E65" t="n">
-        <v>2040</v>
+        <v>3405.914389596362</v>
       </c>
       <c r="F65" t="n">
-        <v>15.8</v>
+        <v>60.3</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2024-07-16</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>13040000000</v>
+        <v>88882000000</v>
       </c>
       <c r="J65" t="n">
-        <v>15066000000</v>
+        <v>34612000000</v>
       </c>
       <c r="K65" t="n">
-        <v>6576000000</v>
+        <v>70212000000</v>
       </c>
       <c r="L65" t="n">
-        <v>69713000000</v>
+        <v>237405000000</v>
       </c>
       <c r="M65" t="n">
-        <v>34682000000</v>
+        <v>193706000000</v>
       </c>
       <c r="N65" t="n">
-        <v>106614118364</v>
+        <v>358535199743</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>栄研化学株式会社</t>
+          <t>東邦ホールディングス株式会社</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>4549</t>
+          <t>8129</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>24.2</v>
+        <v>54</v>
       </c>
       <c r="D66" t="n">
-        <v>2453</v>
+        <v>5461</v>
       </c>
       <c r="E66" t="n">
-        <v>1678.083113259255</v>
+        <v>2714.613787300615</v>
       </c>
       <c r="F66" t="n">
-        <v>46.2</v>
+        <v>101.2</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-06-17</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>6968000000</v>
+        <v>88882000000</v>
       </c>
       <c r="J66" t="n">
-        <v>11989000000</v>
+        <v>34612000000</v>
       </c>
       <c r="K66" t="n">
-        <v>597000000</v>
+        <v>70212000000</v>
       </c>
       <c r="L66" t="n">
-        <v>41672000000</v>
+        <v>237405000000</v>
       </c>
       <c r="M66" t="n">
-        <v>19554000000</v>
+        <v>193706000000</v>
       </c>
       <c r="N66" t="n">
-        <v>80880730557</v>
+        <v>358535199743</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>花王株式会社</t>
+          <t>小林製薬株式会社</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>4452</t>
+          <t>4967</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>6.5</v>
+        <v>20</v>
       </c>
       <c r="D67" t="n">
-        <v>6549</v>
+        <v>5397</v>
       </c>
       <c r="E67" t="n">
-        <v>6116.356643776557</v>
+        <v>2148.936934940886</v>
       </c>
       <c r="F67" t="n">
-        <v>7.1</v>
+        <v>151.1</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3918,50 +3910,50 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>2024-12-05</t>
+          <t>2024-07-22</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>118328000000</v>
+        <v>61157000000</v>
       </c>
       <c r="J67" t="n">
-        <v>63976000000</v>
+        <v>10611000000</v>
       </c>
       <c r="K67" t="n">
-        <v>19009000000</v>
+        <v>8300000000</v>
       </c>
       <c r="L67" t="n">
-        <v>805867000000</v>
+        <v>182583000000</v>
       </c>
       <c r="M67" t="n">
-        <v>201313000000</v>
+        <v>80068000000</v>
       </c>
       <c r="N67" t="n">
-        <v>3081716936373</v>
+        <v>401206606143</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>サンケン電気株式会社</t>
+          <t>小林製薬株式会社</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>6707</t>
+          <t>4967</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>58.8</v>
+        <v>20</v>
       </c>
       <c r="D68" t="n">
-        <v>7739</v>
+        <v>5397</v>
       </c>
       <c r="E68" t="n">
-        <v>5478.947585152067</v>
+        <v>5066.092575838703</v>
       </c>
       <c r="F68" t="n">
-        <v>41.2</v>
+        <v>6.5</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3970,338 +3962,338 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2024-07-22</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>59812000000</v>
+        <v>61157000000</v>
       </c>
       <c r="J68" t="n">
-        <v>29348000000</v>
+        <v>10611000000</v>
       </c>
       <c r="K68" t="n">
-        <v>3029000000</v>
+        <v>8300000000</v>
       </c>
       <c r="L68" t="n">
-        <v>113250000000</v>
+        <v>182583000000</v>
       </c>
       <c r="M68" t="n">
-        <v>92189000000</v>
+        <v>80068000000</v>
       </c>
       <c r="N68" t="n">
-        <v>156874900866</v>
+        <v>401206606143</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>京阪神ビルディング株式会社</t>
+          <t>日本化薬株式会社</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>8818</t>
+          <t>4272</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>114.1</v>
+        <v>45.9</v>
       </c>
       <c r="D69" t="n">
-        <v>1730</v>
+        <v>1420</v>
       </c>
       <c r="E69" t="n">
-        <v>1341.977644710579</v>
+        <v>1111.90611839092</v>
       </c>
       <c r="F69" t="n">
-        <v>28.9</v>
+        <v>27.7</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2024-02-07</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>21550649000</v>
+        <v>47483000000</v>
       </c>
       <c r="J69" t="n">
-        <v>56970145000</v>
+        <v>44109000000</v>
       </c>
       <c r="K69" t="n">
-        <v>17382863000</v>
+        <v>9428000000</v>
       </c>
       <c r="L69" t="n">
-        <v>70539690000</v>
+        <v>228273000000</v>
       </c>
       <c r="M69" t="n">
-        <v>95903657000</v>
+        <v>101020000000</v>
       </c>
       <c r="N69" t="n">
-        <v>84025736700</v>
+        <v>220079417100</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>スタンレー電気株式会社</t>
+          <t>株式会社ホギメディカル</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>6923</t>
+          <t>3593</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>39.8</v>
+        <v>42.3</v>
       </c>
       <c r="D70" t="n">
-        <v>3040</v>
+        <v>5260</v>
       </c>
       <c r="E70" t="n">
-        <v>2560</v>
+        <v>3361.304411567078</v>
       </c>
       <c r="F70" t="n">
-        <v>18.8</v>
+        <v>56.5</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2023-05-25</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>101399000000</v>
+        <v>19911000000</v>
       </c>
       <c r="J70" t="n">
-        <v>74909000000</v>
+        <v>19534000000</v>
       </c>
       <c r="K70" t="n">
-        <v>3998000000</v>
+        <v>9213000000</v>
       </c>
       <c r="L70" t="n">
-        <v>444651000000</v>
+        <v>95951000000</v>
       </c>
       <c r="M70" t="n">
-        <v>180306000000</v>
+        <v>48658000000</v>
       </c>
       <c r="N70" t="n">
-        <v>453497982720</v>
+        <v>115119723540</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>株式会社電通グループ</t>
+          <t>東京都競馬株式会社</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>4324</t>
+          <t>9672</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>10.7</v>
+        <v>35.3</v>
       </c>
       <c r="D71" t="n">
-        <v>3274</v>
+        <v>5380</v>
       </c>
       <c r="E71" t="n">
-        <v>4156.179843576074</v>
+        <v>3891.73752540545</v>
       </c>
       <c r="F71" t="n">
-        <v>-21.2</v>
+        <v>38.2</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2023-03-10</t>
+          <t>2023-03-28</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>86652000000</v>
+        <v>15161482000</v>
       </c>
       <c r="J71" t="n">
-        <v>3784000000</v>
+        <v>32537201000</v>
       </c>
       <c r="K71" t="n">
-        <v>487000000</v>
+        <v>3000000000</v>
       </c>
       <c r="L71" t="n">
-        <v>616425000000</v>
+        <v>70534868000</v>
       </c>
       <c r="M71" t="n">
-        <v>90923000000</v>
+        <v>50698683000</v>
       </c>
       <c r="N71" t="n">
-        <v>849889229450</v>
+        <v>143601884000</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>科研製薬株式会社</t>
+          <t>株式会社クスリのアオキホールディングス</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>4521</t>
+          <t>3549</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>73.7</v>
+        <v>34.8</v>
       </c>
       <c r="D72" t="n">
-        <v>3842</v>
+        <v>4055</v>
       </c>
       <c r="E72" t="n">
-        <v>3530</v>
+        <v>6646.195827570309</v>
       </c>
       <c r="F72" t="n">
-        <v>8.800000000000001</v>
+        <v>-39</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2024-05-29</t>
+          <t>2023-05-15</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>77305000000</v>
+        <v>15734000000</v>
       </c>
       <c r="J72" t="n">
-        <v>15734000000</v>
+        <v>120105000000</v>
       </c>
       <c r="K72" t="n">
-        <v>14699000000</v>
+        <v>3356000000</v>
       </c>
       <c r="L72" t="n">
-        <v>136257000000</v>
+        <v>77669000000</v>
       </c>
       <c r="M72" t="n">
-        <v>107738000000</v>
+        <v>139195000000</v>
       </c>
       <c r="N72" t="n">
-        <v>146258600700</v>
+        <v>399669992685</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>リンナイ株式会社</t>
+          <t>イリソ電子工業株式会社</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>5947</t>
+          <t>6908</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>46.4</v>
+        <v>31.5</v>
       </c>
       <c r="D73" t="n">
-        <v>3588</v>
+        <v>3030</v>
       </c>
       <c r="E73" t="n">
-        <v>2844.704547285864</v>
+        <v>2480</v>
       </c>
       <c r="F73" t="n">
-        <v>26.1</v>
+        <v>22.2</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>ダルトン・インベストメンツ・エルエルシー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>166524000000</v>
+        <v>14260000000</v>
       </c>
       <c r="J73" t="n">
-        <v>60632000000</v>
+        <v>5778000000</v>
       </c>
       <c r="K73" t="n">
-        <v>8068000000</v>
+        <v>239000000</v>
       </c>
       <c r="L73" t="n">
-        <v>371318000000</v>
+        <v>54731000000</v>
       </c>
       <c r="M73" t="n">
-        <v>235224000000</v>
+        <v>20277000000</v>
       </c>
       <c r="N73" t="n">
-        <v>506424413664</v>
+        <v>64319931000</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>株式会社ＡＣＳＬ</t>
+          <t>イリソ電子工業株式会社</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>6232</t>
+          <t>6908</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>12.4</v>
+        <v>31.5</v>
       </c>
       <c r="D74" t="n">
-        <v>1048</v>
+        <v>3030</v>
       </c>
       <c r="E74" t="n">
-        <v>913.2768512341561</v>
+        <v>2504.338645418327</v>
       </c>
       <c r="F74" t="n">
-        <v>14.8</v>
+        <v>21</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2023-11-29</t>
+          <t>2024-10-22</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>1891731000</v>
+        <v>14260000000</v>
       </c>
       <c r="J74" t="n">
-        <v>68181000</v>
+        <v>5778000000</v>
       </c>
       <c r="K74" t="n">
-        <v>241987000</v>
+        <v>239000000</v>
       </c>
       <c r="L74" t="n">
-        <v>3572642000</v>
+        <v>54731000000</v>
       </c>
       <c r="M74" t="n">
-        <v>2201899000</v>
+        <v>20277000000</v>
       </c>
       <c r="N74" t="n">
-        <v>17731781672</v>
+        <v>64319931000</v>
       </c>
     </row>
     <row r="75">
@@ -4319,13 +4311,13 @@
         <v>31.5</v>
       </c>
       <c r="D75" t="n">
-        <v>3035</v>
+        <v>3030</v>
       </c>
       <c r="E75" t="n">
-        <v>2480</v>
+        <v>2880</v>
       </c>
       <c r="F75" t="n">
-        <v>22.4</v>
+        <v>5.2</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -4334,7 +4326,7 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -4353,283 +4345,291 @@
         <v>20277000000</v>
       </c>
       <c r="N75" t="n">
-        <v>64426069500</v>
+        <v>64319931000</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>イリソ電子工業株式会社</t>
+          <t>株式会社シンクロ・フード</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>6908</t>
+          <t>3963</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>31.5</v>
+        <v>13.7</v>
       </c>
       <c r="D76" t="n">
-        <v>3035</v>
+        <v>586</v>
       </c>
       <c r="E76" t="n">
-        <v>2504.338645418327</v>
+        <v>421.6950726175476</v>
       </c>
       <c r="F76" t="n">
-        <v>21.2</v>
+        <v>39</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>14260000000</v>
+        <v>2173723000</v>
       </c>
       <c r="J76" t="n">
-        <v>5778000000</v>
+        <v>67951000</v>
       </c>
       <c r="K76" t="n">
-        <v>239000000</v>
+        <v>15141000</v>
       </c>
       <c r="L76" t="n">
-        <v>54731000000</v>
+        <v>2505194000</v>
       </c>
       <c r="M76" t="n">
-        <v>20277000000</v>
+        <v>2256815000</v>
       </c>
       <c r="N76" t="n">
-        <v>64426069500</v>
+        <v>16415358988</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>イリソ電子工業株式会社</t>
+          <t>わかもと製薬株式会社</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>6908</t>
+          <t>4512</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>31.5</v>
+        <v>52.6</v>
       </c>
       <c r="D77" t="n">
-        <v>3035</v>
+        <v>294</v>
       </c>
       <c r="E77" t="n">
-        <v>2880</v>
+        <v>290.3401328717133</v>
       </c>
       <c r="F77" t="n">
-        <v>5.4</v>
+        <v>1.3</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2025-02-19</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>14260000000</v>
+        <v>2843762000</v>
       </c>
       <c r="J77" t="n">
-        <v>5778000000</v>
+        <v>82947000</v>
       </c>
       <c r="K77" t="n">
-        <v>239000000</v>
+        <v>2442113000</v>
       </c>
       <c r="L77" t="n">
-        <v>54731000000</v>
+        <v>11385570000</v>
       </c>
       <c r="M77" t="n">
-        <v>20277000000</v>
+        <v>5368822000</v>
       </c>
       <c r="N77" t="n">
-        <v>64426069500</v>
+        <v>10203644262</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>株式会社あおぞら銀行</t>
+          <t>セーレン株式会社</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>8304</t>
+          <t>3569</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>266.6</v>
+        <v>38.6</v>
       </c>
       <c r="D78" t="n">
-        <v>2361</v>
+        <v>3040</v>
       </c>
       <c r="E78" t="n">
-        <v>2190</v>
+        <v>1359.655069733296</v>
       </c>
       <c r="F78" t="n">
-        <v>7.8</v>
+        <v>123.6</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2024-02-20</t>
+          <t>2024-08-30</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>847732000000</v>
+        <v>39498000000</v>
       </c>
       <c r="J78" t="n">
-        <v>23159000000</v>
+        <v>26026000000</v>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
+        <v>3317000000</v>
       </c>
       <c r="L78" t="n">
-        <v>490006000000</v>
+        <v>80897000000</v>
       </c>
       <c r="M78" t="n">
-        <v>870891000000</v>
+        <v>68841000000</v>
       </c>
       <c r="N78" t="n">
-        <v>326717753490</v>
+        <v>178237343200</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>株式会社東北新社</t>
+          <t>株式会社セプテーニ・ホールディングス</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2329</t>
+          <t>4293</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>39.1</v>
+        <v>12.3</v>
       </c>
       <c r="D79" t="n">
-        <v>657</v>
-      </c>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
+        <v>425</v>
+      </c>
+      <c r="E79" t="n">
+        <v>448.6811097117532</v>
+      </c>
+      <c r="F79" t="n">
+        <v>-5.3</v>
+      </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2023-03-13</t>
+          <t>2023-12-21</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>30866000000</v>
+        <v>9080380000</v>
       </c>
       <c r="J79" t="n">
-        <v>4464000000</v>
+        <v>123425000</v>
       </c>
       <c r="K79" t="n">
-        <v>73000000</v>
+        <v>1600720000</v>
       </c>
       <c r="L79" t="n">
-        <v>72266000000</v>
+        <v>11068271000</v>
       </c>
       <c r="M79" t="n">
-        <v>35403000000</v>
+        <v>10804525000</v>
       </c>
       <c r="N79" t="n">
-        <v>90438703623</v>
+        <v>88155671325</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>株式会社東北新社</t>
+          <t>株式会社トプコン</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2329</t>
+          <t>7732</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>39.1</v>
+        <v>10.8</v>
       </c>
       <c r="D80" t="n">
-        <v>657</v>
-      </c>
-      <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr"/>
+        <v>3280</v>
+      </c>
+      <c r="E80" t="n">
+        <v>2085.872134468915</v>
+      </c>
+      <c r="F80" t="n">
+        <v>57.2</v>
+      </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2023-03-13</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>30866000000</v>
+        <v>20446000000</v>
       </c>
       <c r="J80" t="n">
-        <v>4464000000</v>
+        <v>10856000000</v>
       </c>
       <c r="K80" t="n">
-        <v>73000000</v>
+        <v>6017000000</v>
       </c>
       <c r="L80" t="n">
-        <v>72266000000</v>
+        <v>70687000000</v>
       </c>
       <c r="M80" t="n">
-        <v>35403000000</v>
+        <v>37319000000</v>
       </c>
       <c r="N80" t="n">
-        <v>90438703623</v>
+        <v>345939264640</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>株式会社トプコン</t>
+          <t>株式会社ＡＣＳＬ</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>7732</t>
+          <t>6232</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>10.8</v>
+        <v>12.7</v>
       </c>
       <c r="D81" t="n">
-        <v>3281</v>
+        <v>1025</v>
       </c>
       <c r="E81" t="n">
-        <v>2085.872134468915</v>
+        <v>913.2768512341561</v>
       </c>
       <c r="F81" t="n">
-        <v>57.3</v>
+        <v>12.2</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4638,50 +4638,50 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2023-11-29</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>20446000000</v>
+        <v>1891731000</v>
       </c>
       <c r="J81" t="n">
-        <v>10856000000</v>
+        <v>68181000</v>
       </c>
       <c r="K81" t="n">
-        <v>6017000000</v>
+        <v>241987000</v>
       </c>
       <c r="L81" t="n">
-        <v>70687000000</v>
+        <v>3572642000</v>
       </c>
       <c r="M81" t="n">
-        <v>37319000000</v>
+        <v>2201899000</v>
       </c>
       <c r="N81" t="n">
-        <v>346044733928</v>
+        <v>17342629975</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>月島ホールディングス株式会社</t>
+          <t>株式会社あおぞら銀行</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>6332</t>
+          <t>8304</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>68.59999999999999</v>
+        <v>265.2</v>
       </c>
       <c r="D82" t="n">
-        <v>2886</v>
+        <v>2373</v>
       </c>
       <c r="E82" t="n">
-        <v>1410</v>
+        <v>2190</v>
       </c>
       <c r="F82" t="n">
-        <v>104.7</v>
+        <v>8.4</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4690,50 +4690,50 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2024-02-20</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>33870000000</v>
+        <v>847732000000</v>
       </c>
       <c r="J82" t="n">
-        <v>23318000000</v>
+        <v>23159000000</v>
       </c>
       <c r="K82" t="n">
-        <v>25387000000</v>
+        <v>0</v>
       </c>
       <c r="L82" t="n">
-        <v>71784000000</v>
+        <v>490006000000</v>
       </c>
       <c r="M82" t="n">
-        <v>82575000000</v>
+        <v>870891000000</v>
       </c>
       <c r="N82" t="n">
-        <v>120387311070</v>
+        <v>328378326570</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>東京都競馬株式会社</t>
+          <t>日本ゼオン株式会社</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>9672</t>
+          <t>4205</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>35.3</v>
+        <v>54.6</v>
       </c>
       <c r="D83" t="n">
-        <v>5380</v>
+        <v>1684</v>
       </c>
       <c r="E83" t="n">
-        <v>3891.73752540545</v>
+        <v>1721.078563209627</v>
       </c>
       <c r="F83" t="n">
-        <v>38.2</v>
+        <v>-2.2</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4742,154 +4742,154 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2024-08-30</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>15161482000</v>
+        <v>48152000000</v>
       </c>
       <c r="J83" t="n">
-        <v>32537201000</v>
+        <v>45247000000</v>
       </c>
       <c r="K83" t="n">
-        <v>3000000000</v>
+        <v>85316000000</v>
       </c>
       <c r="L83" t="n">
-        <v>70534868000</v>
+        <v>298246000000</v>
       </c>
       <c r="M83" t="n">
-        <v>50698683000</v>
+        <v>178715000000</v>
       </c>
       <c r="N83" t="n">
-        <v>143601884000</v>
+        <v>327466857736</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ホシデン株式会社</t>
+          <t>サンケン電気株式会社</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>6804</t>
+          <t>6707</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>76.09999999999999</v>
+        <v>57.8</v>
       </c>
       <c r="D84" t="n">
-        <v>2353</v>
+        <v>7866</v>
       </c>
       <c r="E84" t="n">
-        <v>1303.446424801713</v>
+        <v>5478.947585152067</v>
       </c>
       <c r="F84" t="n">
-        <v>80.5</v>
+        <v>43.6</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2023-02-13</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>69522000000</v>
+        <v>59812000000</v>
       </c>
       <c r="J84" t="n">
-        <v>6944000000</v>
+        <v>29348000000</v>
       </c>
       <c r="K84" t="n">
-        <v>14624000000</v>
+        <v>3029000000</v>
       </c>
       <c r="L84" t="n">
-        <v>109250000000</v>
+        <v>113250000000</v>
       </c>
       <c r="M84" t="n">
-        <v>91090000000</v>
+        <v>92189000000</v>
       </c>
       <c r="N84" t="n">
-        <v>119738955752</v>
+        <v>159449279004</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>大阪製鐵株式会社</t>
+          <t>大東建託株式会社</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>5449</t>
+          <t>1878</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>85.2</v>
+        <v>24.5</v>
       </c>
       <c r="D85" t="n">
-        <v>2819</v>
+        <v>16245</v>
       </c>
       <c r="E85" t="n">
-        <v>1748.071046781136</v>
+        <v>13739.64575539568</v>
       </c>
       <c r="F85" t="n">
-        <v>61.3</v>
+        <v>18.2</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2023-12-19</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>62621000000</v>
+        <v>198760000000</v>
       </c>
       <c r="J85" t="n">
-        <v>8568000000</v>
+        <v>62873000000</v>
       </c>
       <c r="K85" t="n">
-        <v>669000000</v>
+        <v>3798000000</v>
       </c>
       <c r="L85" t="n">
-        <v>148514000000</v>
+        <v>308206000000</v>
       </c>
       <c r="M85" t="n">
-        <v>71858000000</v>
+        <v>265431000000</v>
       </c>
       <c r="N85" t="n">
-        <v>84341629991</v>
+        <v>1085093758485</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>東ソー株式会社</t>
+          <t>大東建託株式会社</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>4042</t>
+          <t>1878</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>44.9</v>
+        <v>24.5</v>
       </c>
       <c r="D86" t="n">
-        <v>2273.5</v>
+        <v>16245</v>
       </c>
       <c r="E86" t="n">
-        <v>2032.365850102071</v>
+        <v>12975.86280814577</v>
       </c>
       <c r="F86" t="n">
-        <v>11.9</v>
+        <v>25.2</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4898,463 +4898,463 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2024-06-04</t>
+          <t>2023-06-02</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>148397000000</v>
+        <v>198760000000</v>
       </c>
       <c r="J86" t="n">
-        <v>104609000000</v>
+        <v>62873000000</v>
       </c>
       <c r="K86" t="n">
-        <v>70724000000</v>
+        <v>3798000000</v>
       </c>
       <c r="L86" t="n">
-        <v>661679000000</v>
+        <v>308206000000</v>
       </c>
       <c r="M86" t="n">
-        <v>323730000000</v>
+        <v>265431000000</v>
       </c>
       <c r="N86" t="n">
-        <v>720886518110</v>
+        <v>1085093758485</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>エン・ジャパン株式会社</t>
+          <t>株式会社ダイドーリミテッド</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>4849</t>
+          <t>3205</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>45.3</v>
+        <v>82</v>
       </c>
       <c r="D87" t="n">
-        <v>1654</v>
+        <v>990</v>
       </c>
       <c r="E87" t="n">
-        <v>1746.940387696806</v>
+        <v>193.0499177180472</v>
       </c>
       <c r="F87" t="n">
-        <v>-5.3</v>
+        <v>412.8</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>26835000000</v>
+        <v>7723000000</v>
       </c>
       <c r="J87" t="n">
-        <v>1019000000</v>
+        <v>9807000000</v>
       </c>
       <c r="K87" t="n">
-        <v>2000000000</v>
+        <v>4567000000</v>
       </c>
       <c r="L87" t="n">
-        <v>36856000000</v>
+        <v>10628000000</v>
       </c>
       <c r="M87" t="n">
-        <v>29854000000</v>
+        <v>22097000000</v>
       </c>
       <c r="N87" t="n">
-        <v>65913348904</v>
+        <v>26934930000</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>江崎グリコ株式会社</t>
+          <t>株式会社クレハ</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2206</t>
+          <t>4023</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>54.1</v>
+        <v>22.3</v>
       </c>
       <c r="D88" t="n">
-        <v>5188</v>
+        <v>4020</v>
       </c>
       <c r="E88" t="n">
-        <v>4154.626869982095</v>
+        <v>7960</v>
       </c>
       <c r="F88" t="n">
-        <v>24.9</v>
+        <v>-49.5</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>2023-10-04</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>92449000000</v>
+        <v>4999000000</v>
       </c>
       <c r="J88" t="n">
-        <v>40203000000</v>
+        <v>6059000000</v>
       </c>
       <c r="K88" t="n">
-        <v>46840000000</v>
+        <v>23201000000</v>
       </c>
       <c r="L88" t="n">
-        <v>222551000000</v>
+        <v>148872000000</v>
       </c>
       <c r="M88" t="n">
-        <v>179492000000</v>
+        <v>34259000000</v>
       </c>
       <c r="N88" t="n">
-        <v>331682302860</v>
+        <v>153641690520</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>イワブチ株式会社</t>
+          <t>ヤマハ発動機株式会社</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>5983</t>
+          <t>7272</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>81.3</v>
+        <v>33.5</v>
       </c>
       <c r="D89" t="n">
-        <v>10220</v>
+        <v>1122</v>
       </c>
       <c r="E89" t="n">
-        <v>7040.15625</v>
+        <v>2968.770104870396</v>
       </c>
       <c r="F89" t="n">
-        <v>45.2</v>
+        <v>-62.2</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>ＳＥＮＪＩＮ　ＣＡＰＩＴＡＬ　ＰＴＹ　ＬＴＤ</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2023-01-16</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>4688085000</v>
+        <v>267180000000</v>
       </c>
       <c r="J89" t="n">
-        <v>1422820000</v>
+        <v>48711000000</v>
       </c>
       <c r="K89" t="n">
-        <v>2670408000</v>
+        <v>49039000000</v>
       </c>
       <c r="L89" t="n">
-        <v>16426704000</v>
+        <v>749158000000</v>
       </c>
       <c r="M89" t="n">
-        <v>8781313000</v>
+        <v>364930000000</v>
       </c>
       <c r="N89" t="n">
-        <v>10800383580</v>
+        <v>1087863307080</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>イワブチ株式会社</t>
+          <t>ライフネット生命保険株式会社</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>5983</t>
+          <t>7157</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>81.3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>10220</v>
+        <v>1988</v>
       </c>
       <c r="E90" t="n">
-        <v>7040.15625</v>
+        <v>887.288318673809</v>
       </c>
       <c r="F90" t="n">
-        <v>45.2</v>
+        <v>124.1</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>ＳＥＮＪＩＮ　ＣＡＰＩＴＡＬ　ＰＴＹ　ＬＴＤ</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2023-05-24</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>4688085000</v>
+        <v>3059000000</v>
       </c>
       <c r="J90" t="n">
-        <v>1422820000</v>
+        <v>65000000</v>
       </c>
       <c r="K90" t="n">
-        <v>2670408000</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
-        <v>16426704000</v>
+        <v>15806000000</v>
       </c>
       <c r="M90" t="n">
-        <v>8781313000</v>
+        <v>3124000000</v>
       </c>
       <c r="N90" t="n">
-        <v>10800383580</v>
+        <v>159672068696</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>株式会社おきなわフィナンシャルグループ</t>
+          <t>あいホールディングス株式会社</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>7350</t>
+          <t>3076</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>767.6</v>
+        <v>20.6</v>
       </c>
       <c r="D91" t="n">
-        <v>3720</v>
-      </c>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr"/>
+        <v>2797</v>
+      </c>
+      <c r="E91" t="n">
+        <v>2007.754513143541</v>
+      </c>
+      <c r="F91" t="n">
+        <v>39.3</v>
+      </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2023-05-16</t>
+          <t>2025-05-02</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>590636000000</v>
+        <v>25461000000</v>
       </c>
       <c r="J91" t="n">
-        <v>18477000000</v>
+        <v>1728000000</v>
       </c>
       <c r="K91" t="n">
-        <v>0</v>
+        <v>3490000000</v>
       </c>
       <c r="L91" t="n">
-        <v>159392000000</v>
+        <v>49530000000</v>
       </c>
       <c r="M91" t="n">
-        <v>609113000000</v>
+        <v>30679000000</v>
       </c>
       <c r="N91" t="n">
-        <v>79357272000</v>
+        <v>149008745733</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>アークランズ株式会社</t>
+          <t>株式会社内田洋行</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>9842</t>
+          <t>8057</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>110.6</v>
+        <v>24</v>
       </c>
       <c r="D92" t="n">
-        <v>1937</v>
+        <v>12480</v>
       </c>
       <c r="E92" t="n">
-        <v>1469.167707232735</v>
+        <v>3496.825336379792</v>
       </c>
       <c r="F92" t="n">
-        <v>31.8</v>
+        <v>256.9</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2023-03-30</t>
+          <t>2022-12-19</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>25605000000</v>
+        <v>24890000000</v>
       </c>
       <c r="J92" t="n">
-        <v>95781000000</v>
+        <v>3100000000</v>
       </c>
       <c r="K92" t="n">
-        <v>12051000000</v>
+        <v>1500000000</v>
       </c>
       <c r="L92" t="n">
-        <v>91048000000</v>
+        <v>42315000000</v>
       </c>
       <c r="M92" t="n">
-        <v>133437000000</v>
+        <v>29490000000</v>
       </c>
       <c r="N92" t="n">
-        <v>120672775600</v>
+        <v>122978356800</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>アークランズ株式会社</t>
+          <t>芝浦機械株式会社</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>9842</t>
+          <t>6104</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>110.6</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="D93" t="n">
-        <v>1937</v>
+        <v>4255</v>
       </c>
       <c r="E93" t="n">
-        <v>1489.94784546053</v>
+        <v>3449.780346820809</v>
       </c>
       <c r="F93" t="n">
-        <v>30</v>
+        <v>23.3</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2022-09-27</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>25605000000</v>
+        <v>42417000000</v>
       </c>
       <c r="J93" t="n">
-        <v>95781000000</v>
+        <v>19144000000</v>
       </c>
       <c r="K93" t="n">
-        <v>12051000000</v>
+        <v>18000000000</v>
       </c>
       <c r="L93" t="n">
-        <v>91048000000</v>
+        <v>82152000000</v>
       </c>
       <c r="M93" t="n">
-        <v>133437000000</v>
+        <v>79561000000</v>
       </c>
       <c r="N93" t="n">
-        <v>120672775600</v>
+        <v>100550130515</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>三井住建道路株式会社</t>
+          <t>サッポロホールディングス株式会社</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>1776</t>
+          <t>2501</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>99.59999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="D94" t="n">
-        <v>1469</v>
+        <v>7402</v>
       </c>
       <c r="E94" t="n">
-        <v>1212.640316205534</v>
+        <v>2697.360927565142</v>
       </c>
       <c r="F94" t="n">
-        <v>21.1</v>
+        <v>174.4</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2023-10-12</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>10677000000</v>
+        <v>3451000000</v>
       </c>
       <c r="J94" t="n">
-        <v>2762000000</v>
+        <v>28000000</v>
       </c>
       <c r="K94" t="n">
-        <v>7000000</v>
+        <v>4669000000</v>
       </c>
       <c r="L94" t="n">
-        <v>12543000000</v>
+        <v>137956000000</v>
       </c>
       <c r="M94" t="n">
-        <v>13446000000</v>
+        <v>8148000000</v>
       </c>
       <c r="N94" t="n">
-        <v>13501060443</v>
+        <v>577128159038</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>参天製薬株式会社</t>
+          <t>株式会社おきなわフィナンシャルグループ</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>4536</t>
+          <t>7350</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>10.4</v>
+        <v>753.4</v>
       </c>
       <c r="D95" t="n">
-        <v>1629</v>
-      </c>
-      <c r="E95" t="n">
-        <v>1344.518957928979</v>
-      </c>
-      <c r="F95" t="n">
-        <v>21.2</v>
-      </c>
+        <v>3790</v>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
           <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
@@ -5362,50 +5362,50 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2024-04-19</t>
+          <t>2023-05-16</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>34203000000</v>
+        <v>590636000000</v>
       </c>
       <c r="J95" t="n">
-        <v>6796000000</v>
+        <v>18477000000</v>
       </c>
       <c r="K95" t="n">
-        <v>14270000000</v>
+        <v>0</v>
       </c>
       <c r="L95" t="n">
-        <v>294231000000</v>
+        <v>159392000000</v>
       </c>
       <c r="M95" t="n">
-        <v>55269000000</v>
+        <v>609113000000</v>
       </c>
       <c r="N95" t="n">
-        <v>533679571701</v>
+        <v>80850554000</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>コクヨ株式会社</t>
+          <t>株式会社アインホールディングス</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>7984</t>
+          <t>9627</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>35.5</v>
+        <v>35</v>
       </c>
       <c r="D96" t="n">
-        <v>911.2999877929688</v>
+        <v>6955</v>
       </c>
       <c r="E96" t="n">
-        <v>2157.626835069302</v>
+        <v>2836.942753814942</v>
       </c>
       <c r="F96" t="n">
-        <v>-57.8</v>
+        <v>145.2</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -5414,570 +5414,570 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2024-03-04</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>90577000000</v>
+        <v>55009000000</v>
       </c>
       <c r="J96" t="n">
-        <v>21360000000</v>
+        <v>27122000000</v>
       </c>
       <c r="K96" t="n">
-        <v>30086000000</v>
+        <v>3345000000</v>
       </c>
       <c r="L96" t="n">
-        <v>226335000000</v>
+        <v>115837000000</v>
       </c>
       <c r="M96" t="n">
-        <v>142023000000</v>
+        <v>85476000000</v>
       </c>
       <c r="N96" t="n">
-        <v>400481283279</v>
+        <v>243934279875</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>ヤマハ発動機株式会社</t>
+          <t>株式会社パイオラックス</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>7272</t>
+          <t>5988</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>33.8</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>1115</v>
+        <v>1869</v>
       </c>
       <c r="E97" t="n">
-        <v>2968.770104870396</v>
+        <v>2298.672482457804</v>
       </c>
       <c r="F97" t="n">
-        <v>-62.4</v>
+        <v>-18.7</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2023-01-16</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>267180000000</v>
+        <v>31161000000</v>
       </c>
       <c r="J97" t="n">
-        <v>48711000000</v>
+        <v>12144000000</v>
       </c>
       <c r="K97" t="n">
-        <v>49039000000</v>
+        <v>1620000000</v>
       </c>
       <c r="L97" t="n">
-        <v>749158000000</v>
+        <v>93746000000</v>
       </c>
       <c r="M97" t="n">
-        <v>364930000000</v>
+        <v>44925000000</v>
       </c>
       <c r="N97" t="n">
-        <v>1081076281100</v>
+        <v>46503897300</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>相模ゴム工業株式会社</t>
+          <t>三和ホールディングス株式会社</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>5194</t>
+          <t>5929</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>45.2</v>
+        <v>13.1</v>
       </c>
       <c r="D98" t="n">
-        <v>949</v>
+        <v>4357</v>
       </c>
       <c r="E98" t="n">
-        <v>933.1435874692879</v>
+        <v>1306.206628354146</v>
       </c>
       <c r="F98" t="n">
-        <v>1.7</v>
+        <v>233.6</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2023-08-28</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>1474580000</v>
+        <v>87795000000</v>
       </c>
       <c r="J98" t="n">
-        <v>2373852000</v>
+        <v>21341000000</v>
       </c>
       <c r="K98" t="n">
-        <v>804741000</v>
+        <v>11848000000</v>
       </c>
       <c r="L98" t="n">
-        <v>7569765000</v>
+        <v>181387000000</v>
       </c>
       <c r="M98" t="n">
-        <v>4653173000</v>
+        <v>120984000000</v>
       </c>
       <c r="N98" t="n">
-        <v>10302723600</v>
+        <v>925431008862</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>日本特殊塗料株式会社</t>
+          <t>ヘリオス テクノ ホールディング株式会社</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>4619</t>
+          <t>6927</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>84.3</v>
+        <v>51.7</v>
       </c>
       <c r="D99" t="n">
-        <v>2153</v>
+        <v>898</v>
       </c>
       <c r="E99" t="n">
-        <v>1190</v>
+        <v>896.0103264198827</v>
       </c>
       <c r="F99" t="n">
-        <v>80.90000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>6518000000</v>
+        <v>6417163000</v>
       </c>
       <c r="J99" t="n">
-        <v>9792000000</v>
+        <v>658172000</v>
       </c>
       <c r="K99" t="n">
-        <v>23167000000</v>
+        <v>1342160000</v>
       </c>
       <c r="L99" t="n">
-        <v>47154000000</v>
+        <v>13418044000</v>
       </c>
       <c r="M99" t="n">
-        <v>39477000000</v>
+        <v>8417495000</v>
       </c>
       <c r="N99" t="n">
-        <v>46831362734</v>
+        <v>16296701950</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>株式会社西武ホールディングス</t>
+          <t>株式会社熊谷組</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>9024</t>
+          <t>1861</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>41.4</v>
+        <v>64.7</v>
       </c>
       <c r="D100" t="n">
-        <v>5357</v>
+        <v>4960</v>
       </c>
       <c r="E100" t="n">
-        <v>1716.713876475349</v>
+        <v>2776.401128792723</v>
       </c>
       <c r="F100" t="n">
-        <v>212</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2024-05-07</t>
+          <t>2023-05-24</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>28538000000</v>
+        <v>71335000000</v>
       </c>
       <c r="J100" t="n">
-        <v>485513000000</v>
+        <v>17897000000</v>
       </c>
       <c r="K100" t="n">
-        <v>49954000000</v>
+        <v>48586000000</v>
       </c>
       <c r="L100" t="n">
-        <v>385687000000</v>
+        <v>163835000000</v>
       </c>
       <c r="M100" t="n">
-        <v>564005000000</v>
+        <v>137818000000</v>
       </c>
       <c r="N100" t="n">
-        <v>1361331961132</v>
+        <v>212892128000</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>株式会社ＴＳＩホールディングス</t>
+          <t>エン・ジャパン株式会社</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>3608</t>
+          <t>4849</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>125</v>
+        <v>45.2</v>
       </c>
       <c r="D101" t="n">
-        <v>1086</v>
+        <v>1655</v>
       </c>
       <c r="E101" t="n">
-        <v>438.851170934559</v>
+        <v>1746.940387696806</v>
       </c>
       <c r="F101" t="n">
-        <v>147.5</v>
+        <v>-5.3</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>49761000000</v>
+        <v>26835000000</v>
       </c>
       <c r="J101" t="n">
-        <v>4425000000</v>
+        <v>1019000000</v>
       </c>
       <c r="K101" t="n">
-        <v>25137000000</v>
+        <v>2000000000</v>
       </c>
       <c r="L101" t="n">
-        <v>97430000000</v>
+        <v>36856000000</v>
       </c>
       <c r="M101" t="n">
-        <v>79323000000</v>
+        <v>29854000000</v>
       </c>
       <c r="N101" t="n">
-        <v>63440485158</v>
+        <v>66108933625</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>コニシ株式会社</t>
+          <t>京浜急行電鉄株式会社</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>4956</t>
+          <t>9006</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>55.6</v>
+        <v>110.1</v>
       </c>
       <c r="D102" t="n">
-        <v>1308</v>
+        <v>1545.5</v>
       </c>
       <c r="E102" t="n">
-        <v>1605.189780306002</v>
+        <v>1160.8</v>
       </c>
       <c r="F102" t="n">
-        <v>-18.5</v>
+        <v>33.1</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2023-01-11</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>23721000000</v>
+        <v>57450000000</v>
       </c>
       <c r="J102" t="n">
-        <v>13167000000</v>
+        <v>297923000000</v>
       </c>
       <c r="K102" t="n">
-        <v>11402000000</v>
+        <v>103100000000</v>
       </c>
       <c r="L102" t="n">
-        <v>68785000000</v>
+        <v>249065000000</v>
       </c>
       <c r="M102" t="n">
-        <v>48290000000</v>
+        <v>458473000000</v>
       </c>
       <c r="N102" t="n">
-        <v>86796787200</v>
+        <v>416267890995</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>倉敷紡績株式会社</t>
+          <t>株式会社ニコン</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>3106</t>
+          <t>7731</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>82.8</v>
+        <v>15.4</v>
       </c>
       <c r="D103" t="n">
-        <v>7050</v>
+        <v>1794.5</v>
       </c>
       <c r="E103" t="n">
-        <v>4549.503641591014</v>
+        <v>1512.21980974841</v>
       </c>
       <c r="F103" t="n">
-        <v>55</v>
+        <v>18.7</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>22059000000</v>
+        <v>78718000000</v>
       </c>
       <c r="J103" t="n">
-        <v>21438000000</v>
+        <v>8297000000</v>
       </c>
       <c r="K103" t="n">
-        <v>53409000000</v>
+        <v>4000000000</v>
       </c>
       <c r="L103" t="n">
-        <v>95004000000</v>
+        <v>342155000000</v>
       </c>
       <c r="M103" t="n">
-        <v>96906000000</v>
+        <v>91015000000</v>
       </c>
       <c r="N103" t="n">
-        <v>117095614350</v>
+        <v>590424724704</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>日本ゼオン株式会社</t>
+          <t>株式会社青山財産ネットワークス</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>4205</t>
+          <t>8929</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>54.8</v>
+        <v>28.9</v>
       </c>
       <c r="D104" t="n">
-        <v>1677</v>
+        <v>2041</v>
       </c>
       <c r="E104" t="n">
-        <v>1721.078563209627</v>
+        <v>1347.74653160027</v>
       </c>
       <c r="F104" t="n">
-        <v>-2.6</v>
+        <v>51.4</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2024-06-11</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>48152000000</v>
+        <v>9424000000</v>
       </c>
       <c r="J104" t="n">
-        <v>45247000000</v>
+        <v>2205000000</v>
       </c>
       <c r="K104" t="n">
-        <v>85316000000</v>
+        <v>2514000000</v>
       </c>
       <c r="L104" t="n">
-        <v>298246000000</v>
+        <v>6566000000</v>
       </c>
       <c r="M104" t="n">
-        <v>178715000000</v>
+        <v>14143000000</v>
       </c>
       <c r="N104" t="n">
-        <v>326105653458</v>
+        <v>48911766969</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>大東建託株式会社</t>
+          <t>コニシ株式会社</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>1878</t>
+          <t>4956</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>24.6</v>
+        <v>55.1</v>
       </c>
       <c r="D105" t="n">
-        <v>16310</v>
+        <v>1320</v>
       </c>
       <c r="E105" t="n">
-        <v>13739.64575539568</v>
+        <v>1605.189780306002</v>
       </c>
       <c r="F105" t="n">
-        <v>18.7</v>
+        <v>-17.8</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2023-01-11</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>198760000000</v>
+        <v>23721000000</v>
       </c>
       <c r="J105" t="n">
-        <v>62873000000</v>
+        <v>13167000000</v>
       </c>
       <c r="K105" t="n">
-        <v>3798000000</v>
+        <v>11402000000</v>
       </c>
       <c r="L105" t="n">
-        <v>308206000000</v>
+        <v>68785000000</v>
       </c>
       <c r="M105" t="n">
-        <v>265431000000</v>
+        <v>48290000000</v>
       </c>
       <c r="N105" t="n">
-        <v>1080888295480</v>
+        <v>87593088000</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>大東建託株式会社</t>
+          <t>ニッタ株式会社</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>1878</t>
+          <t>5186</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>24.6</v>
+        <v>41</v>
       </c>
       <c r="D106" t="n">
-        <v>16310</v>
+        <v>4085</v>
       </c>
       <c r="E106" t="n">
-        <v>12975.86280814577</v>
+        <v>3096.322467304314</v>
       </c>
       <c r="F106" t="n">
-        <v>25.7</v>
+        <v>31.9</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2023-06-02</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>198760000000</v>
+        <v>27527000000</v>
       </c>
       <c r="J106" t="n">
-        <v>62873000000</v>
+        <v>13414000000</v>
       </c>
       <c r="K106" t="n">
-        <v>3798000000</v>
+        <v>5499000000</v>
       </c>
       <c r="L106" t="n">
-        <v>308206000000</v>
+        <v>108639000000</v>
       </c>
       <c r="M106" t="n">
-        <v>265431000000</v>
+        <v>46440000000</v>
       </c>
       <c r="N106" t="n">
-        <v>1080888295480</v>
+        <v>113142637160</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>株式会社ツルハホールディングス</t>
+          <t>コクヨ株式会社</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>3391</t>
+          <t>7984</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>39</v>
+        <v>35.8</v>
       </c>
       <c r="D107" t="n">
-        <v>2439.5</v>
+        <v>903.4000244140625</v>
       </c>
       <c r="E107" t="n">
-        <v>4544.200649553184</v>
+        <v>2157.626835069302</v>
       </c>
       <c r="F107" t="n">
-        <v>-46.3</v>
+        <v>-58.1</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -5986,310 +5986,310 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2023-05-08</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>116398000000</v>
+        <v>90577000000</v>
       </c>
       <c r="J107" t="n">
-        <v>83437000000</v>
+        <v>21360000000</v>
       </c>
       <c r="K107" t="n">
-        <v>34181000000</v>
+        <v>30086000000</v>
       </c>
       <c r="L107" t="n">
-        <v>276528000000</v>
+        <v>226335000000</v>
       </c>
       <c r="M107" t="n">
-        <v>234016000000</v>
+        <v>142023000000</v>
       </c>
       <c r="N107" t="n">
-        <v>599379819692</v>
+        <v>397009553317</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>株式会社ツルハホールディングス</t>
+          <t>日本特殊塗料株式会社</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>3391</t>
+          <t>4619</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>39</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="D108" t="n">
-        <v>2439.5</v>
+        <v>2175</v>
       </c>
       <c r="E108" t="n">
-        <v>8262.359904024779</v>
+        <v>1190</v>
       </c>
       <c r="F108" t="n">
-        <v>-70.5</v>
+        <v>82.8</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2022-12-19</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>116398000000</v>
+        <v>6518000000</v>
       </c>
       <c r="J108" t="n">
-        <v>83437000000</v>
+        <v>9792000000</v>
       </c>
       <c r="K108" t="n">
-        <v>34181000000</v>
+        <v>23167000000</v>
       </c>
       <c r="L108" t="n">
-        <v>276528000000</v>
+        <v>47154000000</v>
       </c>
       <c r="M108" t="n">
-        <v>234016000000</v>
+        <v>39477000000</v>
       </c>
       <c r="N108" t="n">
-        <v>599379819692</v>
+        <v>47309899650</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>株式会社アインホールディングス</t>
+          <t>株式会社イワキ</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>9627</t>
+          <t>6237</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>34.7</v>
+        <v>18.9</v>
       </c>
       <c r="D109" t="n">
-        <v>7028</v>
+        <v>2665</v>
       </c>
       <c r="E109" t="n">
-        <v>2836.942753814942</v>
+        <v>1361.432492253209</v>
       </c>
       <c r="F109" t="n">
-        <v>147.7</v>
+        <v>95.7</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2023-11-09</t>
         </is>
       </c>
       <c r="I109" t="n">
-        <v>55009000000</v>
+        <v>6936133000</v>
       </c>
       <c r="J109" t="n">
-        <v>27122000000</v>
+        <v>3861988000</v>
       </c>
       <c r="K109" t="n">
-        <v>3345000000</v>
+        <v>326566000</v>
       </c>
       <c r="L109" t="n">
-        <v>115837000000</v>
+        <v>22520477000</v>
       </c>
       <c r="M109" t="n">
-        <v>85476000000</v>
+        <v>11124687000</v>
       </c>
       <c r="N109" t="n">
-        <v>246494625300</v>
+        <v>58936893405</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>ＤＩＣ株式会社</t>
+          <t>株式会社西武ホールディングス</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>4631</t>
+          <t>9024</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>68.90000000000001</v>
+        <v>40.6</v>
       </c>
       <c r="D110" t="n">
-        <v>3640</v>
+        <v>5462</v>
       </c>
       <c r="E110" t="n">
-        <v>2566.284807227078</v>
+        <v>1716.713876475349</v>
       </c>
       <c r="F110" t="n">
-        <v>41.8</v>
+        <v>218.2</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2023-12-21</t>
+          <t>2024-05-07</t>
         </is>
       </c>
       <c r="I110" t="n">
-        <v>41354000000</v>
+        <v>28538000000</v>
       </c>
       <c r="J110" t="n">
-        <v>133062000000</v>
+        <v>485513000000</v>
       </c>
       <c r="K110" t="n">
-        <v>63071000000</v>
+        <v>49954000000</v>
       </c>
       <c r="L110" t="n">
-        <v>351364000000</v>
+        <v>385687000000</v>
       </c>
       <c r="M110" t="n">
-        <v>237487000000</v>
+        <v>564005000000</v>
       </c>
       <c r="N110" t="n">
-        <v>344638672560</v>
+        <v>1388014779112</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>株式会社熊谷組</t>
+          <t>日鉄ソリューションズ株式会社</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>1861</t>
+          <t>2327</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>64.7</v>
+        <v>12.4</v>
       </c>
       <c r="D111" t="n">
-        <v>4965</v>
+        <v>3603</v>
       </c>
       <c r="E111" t="n">
-        <v>2776.401128792723</v>
+        <v>2561.705402476645</v>
       </c>
       <c r="F111" t="n">
-        <v>78.8</v>
+        <v>40.6</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>2023-05-24</t>
+          <t>2024-08-19</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>71335000000</v>
+        <v>78579000000</v>
       </c>
       <c r="J111" t="n">
-        <v>17897000000</v>
+        <v>2398000000</v>
       </c>
       <c r="K111" t="n">
-        <v>48586000000</v>
+        <v>1000000000</v>
       </c>
       <c r="L111" t="n">
-        <v>163835000000</v>
+        <v>186128000000</v>
       </c>
       <c r="M111" t="n">
-        <v>137818000000</v>
+        <v>81977000000</v>
       </c>
       <c r="N111" t="n">
-        <v>213106737000</v>
+        <v>659256067821</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>カルビー株式会社</t>
+          <t>月島ホールディングス株式会社</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2229</t>
+          <t>6332</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>24</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="D112" t="n">
-        <v>2915</v>
+        <v>2948</v>
       </c>
       <c r="E112" t="n">
-        <v>2919.137515755844</v>
+        <v>1410</v>
       </c>
       <c r="F112" t="n">
-        <v>-0.1</v>
+        <v>109.1</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>47282000000</v>
+        <v>33870000000</v>
       </c>
       <c r="J112" t="n">
-        <v>38670000000</v>
+        <v>23318000000</v>
       </c>
       <c r="K112" t="n">
-        <v>3183000000</v>
+        <v>25387000000</v>
       </c>
       <c r="L112" t="n">
-        <v>182740000000</v>
+        <v>71784000000</v>
       </c>
       <c r="M112" t="n">
-        <v>89135000000</v>
+        <v>82575000000</v>
       </c>
       <c r="N112" t="n">
-        <v>371706758445</v>
+        <v>122973594260</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>株式会社オリエントコーポレーション</t>
+          <t>株式会社ゴールドクレスト</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>8585</t>
+          <t>8871</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>248.2</v>
+        <v>72.2</v>
       </c>
       <c r="D113" t="n">
-        <v>1010</v>
+        <v>3380</v>
       </c>
       <c r="E113" t="n">
-        <v>798.3805136422309</v>
+        <v>1789.870000553189</v>
       </c>
       <c r="F113" t="n">
-        <v>26.5</v>
+        <v>88.8</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -6298,26 +6298,26 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2023-08-01</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>385176000000</v>
+        <v>69004000000</v>
       </c>
       <c r="J113" t="n">
-        <v>19135000000</v>
+        <v>12099000000</v>
       </c>
       <c r="K113" t="n">
-        <v>24938000000</v>
+        <v>23000000</v>
       </c>
       <c r="L113" t="n">
-        <v>228464000000</v>
+        <v>122540000000</v>
       </c>
       <c r="M113" t="n">
-        <v>429249000000</v>
+        <v>81126000000</v>
       </c>
       <c r="N113" t="n">
-        <v>172923383710</v>
+        <v>112334509560</v>
       </c>
     </row>
     <row r="114">
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>35.7</v>
+        <v>35.4</v>
       </c>
       <c r="D114" t="n">
-        <v>1712</v>
+        <v>1730</v>
       </c>
       <c r="E114" t="n">
         <v>1529.631984751819</v>
       </c>
       <c r="F114" t="n">
-        <v>11.9</v>
+        <v>13.1</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -6369,7 +6369,7 @@
         <v>4358822000</v>
       </c>
       <c r="N114" t="n">
-        <v>12198426288</v>
+        <v>12326680770</v>
       </c>
     </row>
     <row r="115">
@@ -6384,16 +6384,16 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>35.7</v>
+        <v>35.4</v>
       </c>
       <c r="D115" t="n">
-        <v>1712</v>
+        <v>1730</v>
       </c>
       <c r="E115" t="n">
         <v>1449.995380693296</v>
       </c>
       <c r="F115" t="n">
-        <v>18.1</v>
+        <v>19.3</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -6421,527 +6421,475 @@
         <v>4358822000</v>
       </c>
       <c r="N115" t="n">
-        <v>12198426288</v>
+        <v>12326680770</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>京浜急行電鉄株式会社</t>
+          <t>株式会社イエローハット</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>9006</t>
+          <t>9882</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>110</v>
+        <v>34.2</v>
       </c>
       <c r="D116" t="n">
-        <v>1548</v>
+        <v>1695</v>
       </c>
       <c r="E116" t="n">
-        <v>1160.8</v>
+        <v>2112.609181636727</v>
       </c>
       <c r="F116" t="n">
-        <v>33.4</v>
+        <v>-19.8</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>57450000000</v>
+        <v>14029000000</v>
       </c>
       <c r="J116" t="n">
-        <v>297923000000</v>
+        <v>27205000000</v>
       </c>
       <c r="K116" t="n">
-        <v>103100000000</v>
+        <v>9801000000</v>
       </c>
       <c r="L116" t="n">
-        <v>249065000000</v>
+        <v>91386000000</v>
       </c>
       <c r="M116" t="n">
-        <v>458473000000</v>
+        <v>51035000000</v>
       </c>
       <c r="N116" t="n">
-        <v>416941245720</v>
+        <v>149200500330</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>日鉄ソリューションズ株式会社</t>
+          <t>太陽ホールディングス株式会社</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2327</t>
+          <t>4626</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>12.4</v>
+        <v>19.8</v>
       </c>
       <c r="D117" t="n">
-        <v>3610</v>
+        <v>8140</v>
       </c>
       <c r="E117" t="n">
-        <v>2561.705402476645</v>
+        <v>3565.648720929983</v>
       </c>
       <c r="F117" t="n">
-        <v>40.9</v>
+        <v>128.3</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>78579000000</v>
+        <v>54309000000</v>
       </c>
       <c r="J117" t="n">
-        <v>2398000000</v>
+        <v>30690000000</v>
       </c>
       <c r="K117" t="n">
-        <v>1000000000</v>
+        <v>4437000000</v>
       </c>
       <c r="L117" t="n">
-        <v>186128000000</v>
+        <v>76497000000</v>
       </c>
       <c r="M117" t="n">
-        <v>81977000000</v>
+        <v>89436000000</v>
       </c>
       <c r="N117" t="n">
-        <v>660536887270</v>
+        <v>452350862260</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>ＮＩＴＴＯＫＵ株式会社</t>
+          <t>株式会社ツルハホールディングス</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>6145</t>
+          <t>3391</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>38.7</v>
+        <v>39.9</v>
       </c>
       <c r="D118" t="n">
-        <v>2379</v>
+        <v>2411.5</v>
       </c>
       <c r="E118" t="n">
-        <v>1710</v>
+        <v>4544.200649553184</v>
       </c>
       <c r="F118" t="n">
-        <v>39.1</v>
+        <v>-46.9</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2023-05-08</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>10110000000</v>
+        <v>116398000000</v>
       </c>
       <c r="J118" t="n">
-        <v>5132000000</v>
+        <v>83437000000</v>
       </c>
       <c r="K118" t="n">
-        <v>301000000</v>
+        <v>34181000000</v>
       </c>
       <c r="L118" t="n">
-        <v>31726000000</v>
+        <v>276528000000</v>
       </c>
       <c r="M118" t="n">
-        <v>15543000000</v>
+        <v>234016000000</v>
       </c>
       <c r="N118" t="n">
-        <v>40138963800</v>
+        <v>587241402248</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>ＮＩＴＴＯＫＵ株式会社</t>
+          <t>株式会社ツルハホールディングス</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>6145</t>
+          <t>3391</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>38.7</v>
+        <v>39.9</v>
       </c>
       <c r="D119" t="n">
-        <v>2379</v>
+        <v>2411.5</v>
       </c>
       <c r="E119" t="n">
-        <v>1710</v>
+        <v>8262.359904024779</v>
       </c>
       <c r="F119" t="n">
-        <v>39.1</v>
+        <v>-70.8</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2022-12-19</t>
         </is>
       </c>
       <c r="I119" t="n">
-        <v>10110000000</v>
+        <v>116398000000</v>
       </c>
       <c r="J119" t="n">
-        <v>5132000000</v>
+        <v>83437000000</v>
       </c>
       <c r="K119" t="n">
-        <v>301000000</v>
+        <v>34181000000</v>
       </c>
       <c r="L119" t="n">
-        <v>31726000000</v>
+        <v>276528000000</v>
       </c>
       <c r="M119" t="n">
-        <v>15543000000</v>
+        <v>234016000000</v>
       </c>
       <c r="N119" t="n">
-        <v>40138963800</v>
+        <v>587241402248</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>三井倉庫ホールディングス株式会社</t>
+          <t>ホシデン株式会社</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>9302</t>
+          <t>6804</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>34</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="D120" t="n">
-        <v>4180</v>
+        <v>2382</v>
       </c>
       <c r="E120" t="n">
-        <v>1492.806001579363</v>
+        <v>1303.446424801713</v>
       </c>
       <c r="F120" t="n">
-        <v>180</v>
+        <v>82.7</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>22718000000</v>
+        <v>69522000000</v>
       </c>
       <c r="J120" t="n">
-        <v>68374000000</v>
+        <v>6944000000</v>
       </c>
       <c r="K120" t="n">
-        <v>15393000000</v>
+        <v>14624000000</v>
       </c>
       <c r="L120" t="n">
-        <v>68529000000</v>
+        <v>109250000000</v>
       </c>
       <c r="M120" t="n">
-        <v>106485000000</v>
+        <v>91090000000</v>
       </c>
       <c r="N120" t="n">
-        <v>312850256620</v>
+        <v>121214701488</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>株式会社淀川製鋼所</t>
+          <t>ジェイドグループ株式会社</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>5451</t>
+          <t>3558</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>33.9</v>
+        <v>22.3</v>
       </c>
       <c r="D121" t="n">
-        <v>1337</v>
+        <v>1409</v>
       </c>
       <c r="E121" t="n">
-        <v>3234.727863989046</v>
+        <v>1267.324164058639</v>
       </c>
       <c r="F121" t="n">
-        <v>-58.7</v>
+        <v>11.2</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>2023-09-08</t>
+          <t>2023-03-22</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>43116000000</v>
+        <v>2776277000</v>
       </c>
       <c r="J121" t="n">
-        <v>18353000000</v>
+        <v>280430000</v>
       </c>
       <c r="K121" t="n">
-        <v>4009000000</v>
+        <v>23536000</v>
       </c>
       <c r="L121" t="n">
-        <v>180296000000</v>
+        <v>4370371000</v>
       </c>
       <c r="M121" t="n">
-        <v>65478000000</v>
+        <v>3080243000</v>
       </c>
       <c r="N121" t="n">
-        <v>193311769455</v>
+        <v>13790204252</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>株式会社ゴールドクレスト</t>
+          <t>新光商事株式会社</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>8871</t>
+          <t>8141</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>72.40000000000001</v>
+        <v>59.6</v>
       </c>
       <c r="D122" t="n">
-        <v>3370</v>
+        <v>960</v>
       </c>
       <c r="E122" t="n">
-        <v>1789.870000553189</v>
+        <v>930</v>
       </c>
       <c r="F122" t="n">
-        <v>88.3</v>
+        <v>3.2</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>2023-08-01</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="I122" t="n">
-        <v>69004000000</v>
+        <v>17596000000</v>
       </c>
       <c r="J122" t="n">
-        <v>12099000000</v>
+        <v>174000000</v>
       </c>
       <c r="K122" t="n">
-        <v>23000000</v>
+        <v>2995000000</v>
       </c>
       <c r="L122" t="n">
-        <v>122540000000</v>
+        <v>50340000000</v>
       </c>
       <c r="M122" t="n">
-        <v>81126000000</v>
+        <v>20765000000</v>
       </c>
       <c r="N122" t="n">
-        <v>112002158940</v>
+        <v>34858193280</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>株式会社スクウェア・エニックス・ホールディングス</t>
+          <t>カシオ計算機株式会社</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>9684</t>
+          <t>6952</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>13.2</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>9674</v>
+        <v>1226.5</v>
       </c>
       <c r="E123" t="n">
-        <v>6272.971195510064</v>
+        <v>1188.162962482466</v>
       </c>
       <c r="F123" t="n">
-        <v>54.2</v>
+        <v>3.2</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="I123" t="n">
-        <v>144061000000</v>
+        <v>137053000000</v>
       </c>
       <c r="J123" t="n">
-        <v>4462000000</v>
+        <v>12759000000</v>
       </c>
       <c r="K123" t="n">
-        <v>4731000000</v>
+        <v>45698000000</v>
       </c>
       <c r="L123" t="n">
-        <v>243278000000</v>
+        <v>211895000000</v>
       </c>
       <c r="M123" t="n">
-        <v>153254000000</v>
+        <v>195510000000</v>
       </c>
       <c r="N123" t="n">
-        <v>1162283165330</v>
+        <v>279698881390</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>ヘリオス テクノ ホールディング株式会社</t>
+          <t>花王株式会社</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>6927</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>51.6</v>
+        <v>6.6</v>
       </c>
       <c r="D124" t="n">
-        <v>899</v>
+        <v>6516</v>
       </c>
       <c r="E124" t="n">
-        <v>896.0103264198827</v>
+        <v>6116.356643776557</v>
       </c>
       <c r="F124" t="n">
-        <v>0.3</v>
+        <v>6.5</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="I124" t="n">
-        <v>6417163000</v>
+        <v>118328000000</v>
       </c>
       <c r="J124" t="n">
-        <v>658172000</v>
+        <v>63976000000</v>
       </c>
       <c r="K124" t="n">
-        <v>1342160000</v>
+        <v>19009000000</v>
       </c>
       <c r="L124" t="n">
-        <v>13418044000</v>
+        <v>805867000000</v>
       </c>
       <c r="M124" t="n">
-        <v>8417495000</v>
+        <v>201313000000</v>
       </c>
       <c r="N124" t="n">
-        <v>16314849725</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>平和不動産株式会社</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>8803</t>
-        </is>
-      </c>
-      <c r="C125" t="n">
-        <v>78.09999999999999</v>
-      </c>
-      <c r="D125" t="n">
-        <v>2343</v>
-      </c>
-      <c r="E125" t="n">
-        <v>3610</v>
-      </c>
-      <c r="F125" t="n">
-        <v>-35.1</v>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2024-07-22</t>
-        </is>
-      </c>
-      <c r="I125" t="n">
-        <v>29585000000</v>
-      </c>
-      <c r="J125" t="n">
-        <v>84557000000</v>
-      </c>
-      <c r="K125" t="n">
-        <v>8005000000</v>
-      </c>
-      <c r="L125" t="n">
-        <v>118639000000</v>
-      </c>
-      <c r="M125" t="n">
-        <v>122147000000</v>
-      </c>
-      <c r="N125" t="n">
-        <v>156457208292</v>
+        <v>3066188358132</v>
       </c>
     </row>
   </sheetData>

--- a/docs/アクティビスト銘柄_資産判定.xlsx
+++ b/docs/アクティビスト銘柄_資産判定.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N124"/>
+  <dimension ref="A1:N125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,10 +517,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="D2" t="n">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>35403000000</v>
       </c>
       <c r="N2" t="n">
-        <v>91126973818</v>
+        <v>90714011701</v>
       </c>
     </row>
     <row r="3">
@@ -565,10 +565,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="D3" t="n">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
@@ -598,7 +598,7 @@
         <v>35403000000</v>
       </c>
       <c r="N3" t="n">
-        <v>91126973818</v>
+        <v>90714011701</v>
       </c>
     </row>
     <row r="4">
@@ -616,13 +616,13 @@
         <v>42.7</v>
       </c>
       <c r="D4" t="n">
-        <v>3458</v>
+        <v>3460</v>
       </c>
       <c r="E4" t="n">
         <v>1598.889989734285</v>
       </c>
       <c r="F4" t="n">
-        <v>116.3</v>
+        <v>116.4</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -650,7 +650,7 @@
         <v>178465000000</v>
       </c>
       <c r="N4" t="n">
-        <v>418021754696</v>
+        <v>418263525520</v>
       </c>
     </row>
     <row r="5">
@@ -665,16 +665,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="D5" t="n">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="E5" t="n">
         <v>653.0713101160862</v>
       </c>
       <c r="F5" t="n">
-        <v>60.2</v>
+        <v>59.4</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
         <v>1810139000</v>
       </c>
       <c r="N5" t="n">
-        <v>25032107374</v>
+        <v>24912451029</v>
       </c>
     </row>
     <row r="6">
@@ -769,16 +769,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>44.9</v>
+        <v>44.8</v>
       </c>
       <c r="D7" t="n">
-        <v>2273</v>
+        <v>2279.5</v>
       </c>
       <c r="E7" t="n">
         <v>2032.365850102071</v>
       </c>
       <c r="F7" t="n">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>323730000000</v>
       </c>
       <c r="N7" t="n">
-        <v>720727976980</v>
+        <v>722789011670</v>
       </c>
     </row>
     <row r="8">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>34</v>
+        <v>34.4</v>
       </c>
       <c r="D8" t="n">
-        <v>2257</v>
+        <v>2234</v>
       </c>
       <c r="E8" t="n">
         <v>2040</v>
       </c>
       <c r="F8" t="n">
-        <v>10.6</v>
+        <v>9.5</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>34682000000</v>
       </c>
       <c r="N8" t="n">
-        <v>101874710054</v>
+        <v>100836553948</v>
       </c>
     </row>
     <row r="9">
@@ -873,16 +873,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>83.2</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>7010</v>
+        <v>7120</v>
       </c>
       <c r="E9" t="n">
         <v>4549.503641591014</v>
       </c>
       <c r="F9" t="n">
-        <v>54.1</v>
+        <v>56.5</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
         <v>96906000000</v>
       </c>
       <c r="N9" t="n">
-        <v>116431242070</v>
+        <v>118258265840</v>
       </c>
     </row>
     <row r="10">
@@ -925,16 +925,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>66.8</v>
+        <v>66.5</v>
       </c>
       <c r="D10" t="n">
-        <v>1933.5</v>
+        <v>1942</v>
       </c>
       <c r="E10" t="n">
         <v>1257.709264012363</v>
       </c>
       <c r="F10" t="n">
-        <v>53.7</v>
+        <v>54.4</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>261172000000</v>
       </c>
       <c r="N10" t="n">
-        <v>391253183682</v>
+        <v>392973200264</v>
       </c>
     </row>
     <row r="11">
@@ -977,16 +977,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>66.8</v>
+        <v>66.5</v>
       </c>
       <c r="D11" t="n">
-        <v>1933.5</v>
+        <v>1942</v>
       </c>
       <c r="E11" t="n">
         <v>1217.254500469243</v>
       </c>
       <c r="F11" t="n">
-        <v>58.8</v>
+        <v>59.5</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>261172000000</v>
       </c>
       <c r="N11" t="n">
-        <v>391253183682</v>
+        <v>392973200264</v>
       </c>
     </row>
     <row r="12">
@@ -1029,16 +1029,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>100.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>1459</v>
+        <v>1464</v>
       </c>
       <c r="E12" t="n">
         <v>1212.640316205534</v>
       </c>
       <c r="F12" t="n">
-        <v>20.3</v>
+        <v>20.7</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>13446000000</v>
       </c>
       <c r="N12" t="n">
-        <v>13409153973</v>
+        <v>13455107208</v>
       </c>
     </row>
     <row r="13">
@@ -1133,16 +1133,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>38.9</v>
+        <v>39.3</v>
       </c>
       <c r="D14" t="n">
-        <v>2369</v>
+        <v>2344</v>
       </c>
       <c r="E14" t="n">
         <v>1710</v>
       </c>
       <c r="F14" t="n">
-        <v>38.5</v>
+        <v>37.1</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>15543000000</v>
       </c>
       <c r="N14" t="n">
-        <v>39970241800</v>
+        <v>39548436800</v>
       </c>
     </row>
     <row r="15">
@@ -1185,16 +1185,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>38.9</v>
+        <v>39.3</v>
       </c>
       <c r="D15" t="n">
-        <v>2369</v>
+        <v>2344</v>
       </c>
       <c r="E15" t="n">
         <v>1710</v>
       </c>
       <c r="F15" t="n">
-        <v>38.5</v>
+        <v>37.1</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         <v>15543000000</v>
       </c>
       <c r="N15" t="n">
-        <v>39970241800</v>
+        <v>39548436800</v>
       </c>
     </row>
     <row r="16">
@@ -1237,16 +1237,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>78.5</v>
+        <v>79.3</v>
       </c>
       <c r="D16" t="n">
-        <v>1696</v>
+        <v>1678</v>
       </c>
       <c r="E16" t="n">
         <v>1101.400153022188</v>
       </c>
       <c r="F16" t="n">
-        <v>54</v>
+        <v>52.4</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1274,7 +1274,7 @@
         <v>398395000000</v>
       </c>
       <c r="N16" t="n">
-        <v>507663344192</v>
+        <v>502275407756</v>
       </c>
     </row>
     <row r="17">
@@ -1289,16 +1289,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="D17" t="n">
-        <v>5429</v>
+        <v>5390</v>
       </c>
       <c r="E17" t="n">
         <v>3322.047887165483</v>
       </c>
       <c r="F17" t="n">
-        <v>63.4</v>
+        <v>62.2</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         <v>476359000000</v>
       </c>
       <c r="N17" t="n">
-        <v>1886066099058</v>
+        <v>1872517272780</v>
       </c>
     </row>
     <row r="18">
@@ -1341,16 +1341,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>77.7</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>2355</v>
+        <v>2388</v>
       </c>
       <c r="E18" t="n">
         <v>3610</v>
       </c>
       <c r="F18" t="n">
-        <v>-34.8</v>
+        <v>-33.9</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>122147000000</v>
       </c>
       <c r="N18" t="n">
-        <v>157258525620</v>
+        <v>159462148272</v>
       </c>
     </row>
     <row r="19">
@@ -1393,16 +1393,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>20.2</v>
+        <v>19.9</v>
       </c>
       <c r="D19" t="n">
-        <v>2188</v>
+        <v>2216.5</v>
       </c>
       <c r="E19" t="n">
         <v>2269.918722577861</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.6</v>
+        <v>-2.4</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>90811000000</v>
       </c>
       <c r="N19" t="n">
-        <v>450095140692</v>
+        <v>455957897324</v>
       </c>
     </row>
     <row r="20">
@@ -1445,16 +1445,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>53.8</v>
+        <v>54.2</v>
       </c>
       <c r="D20" t="n">
-        <v>2815</v>
+        <v>2845</v>
       </c>
       <c r="E20" t="n">
         <v>3155.301177013616</v>
       </c>
       <c r="F20" t="n">
-        <v>-10.8</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>98642000000</v>
       </c>
       <c r="N20" t="n">
-        <v>183338734595</v>
+        <v>182092279020</v>
       </c>
     </row>
     <row r="21">
@@ -1497,16 +1497,16 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>47.1</v>
+        <v>46</v>
       </c>
       <c r="D21" t="n">
-        <v>3395</v>
+        <v>3480</v>
       </c>
       <c r="E21" t="n">
         <v>1752.426893379333</v>
       </c>
       <c r="F21" t="n">
-        <v>93.7</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>77563221000</v>
       </c>
       <c r="N21" t="n">
-        <v>164605896000</v>
+        <v>168727104000</v>
       </c>
     </row>
     <row r="22">
@@ -1549,16 +1549,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>47.1</v>
+        <v>46</v>
       </c>
       <c r="D22" t="n">
-        <v>3395</v>
+        <v>3480</v>
       </c>
       <c r="E22" t="n">
         <v>1576.721867844292</v>
       </c>
       <c r="F22" t="n">
-        <v>115.3</v>
+        <v>120.7</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>77563221000</v>
       </c>
       <c r="N22" t="n">
-        <v>164605896000</v>
+        <v>168727104000</v>
       </c>
     </row>
     <row r="23">
@@ -1601,16 +1601,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>53.9</v>
+        <v>55.5</v>
       </c>
       <c r="D23" t="n">
-        <v>4170</v>
+        <v>4050</v>
       </c>
       <c r="E23" t="n">
         <v>2387</v>
       </c>
       <c r="F23" t="n">
-        <v>74.7</v>
+        <v>69.7</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         <v>105205000000</v>
       </c>
       <c r="N23" t="n">
-        <v>195241597590</v>
+        <v>189623134350</v>
       </c>
     </row>
     <row r="24">
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>73.90000000000001</v>
+        <v>74</v>
       </c>
       <c r="D24" t="n">
-        <v>2067</v>
+        <v>2063</v>
       </c>
       <c r="E24" t="n">
         <v>1270</v>
       </c>
       <c r="F24" t="n">
-        <v>62.8</v>
+        <v>62.4</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>26544000000</v>
       </c>
       <c r="N24" t="n">
-        <v>35926235553</v>
+        <v>35856712117</v>
       </c>
     </row>
     <row r="25">
@@ -1705,16 +1705,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>73.90000000000001</v>
+        <v>74</v>
       </c>
       <c r="D25" t="n">
-        <v>2067</v>
+        <v>2063</v>
       </c>
       <c r="E25" t="n">
         <v>1170</v>
       </c>
       <c r="F25" t="n">
-        <v>76.7</v>
+        <v>76.3</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>26544000000</v>
       </c>
       <c r="N25" t="n">
-        <v>35926235553</v>
+        <v>35856712117</v>
       </c>
     </row>
     <row r="26">
@@ -1757,16 +1757,16 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>33.8</v>
+        <v>33.4</v>
       </c>
       <c r="D26" t="n">
-        <v>4215</v>
+        <v>4255</v>
       </c>
       <c r="E26" t="n">
         <v>1492.806001579363</v>
       </c>
       <c r="F26" t="n">
-        <v>182.4</v>
+        <v>185</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>106485000000</v>
       </c>
       <c r="N26" t="n">
-        <v>315469816185</v>
+        <v>318463598545</v>
       </c>
     </row>
     <row r="27">
@@ -1809,16 +1809,16 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="D27" t="n">
-        <v>2957</v>
+        <v>2950</v>
       </c>
       <c r="E27" t="n">
         <v>2919.137515755844</v>
       </c>
       <c r="F27" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>89135000000</v>
       </c>
       <c r="N27" t="n">
-        <v>377062396131</v>
+        <v>376169789850</v>
       </c>
     </row>
     <row r="28">
@@ -1861,16 +1861,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>89.8</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>2950</v>
+        <v>2957</v>
       </c>
       <c r="E28" t="n">
         <v>1600</v>
       </c>
       <c r="F28" t="n">
-        <v>84.40000000000001</v>
+        <v>84.8</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         <v>88496000000</v>
       </c>
       <c r="N28" t="n">
-        <v>98580150000</v>
+        <v>98814069000</v>
       </c>
     </row>
     <row r="29">
@@ -1913,16 +1913,16 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>47.7</v>
+        <v>47.4</v>
       </c>
       <c r="D29" t="n">
-        <v>831.5</v>
+        <v>835.9000244140625</v>
       </c>
       <c r="E29" t="n">
         <v>590</v>
       </c>
       <c r="F29" t="n">
-        <v>40.9</v>
+        <v>41.7</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>362887000000</v>
       </c>
       <c r="N29" t="n">
-        <v>760762974578</v>
+        <v>764788681928</v>
       </c>
     </row>
     <row r="30">
@@ -1965,16 +1965,16 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>39.6</v>
+        <v>39.1</v>
       </c>
       <c r="D30" t="n">
-        <v>3052</v>
+        <v>3095</v>
       </c>
       <c r="E30" t="n">
         <v>2560</v>
       </c>
       <c r="F30" t="n">
-        <v>19.2</v>
+        <v>20.9</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>180306000000</v>
       </c>
       <c r="N30" t="n">
-        <v>455288106336</v>
+        <v>461702715960</v>
       </c>
     </row>
     <row r="31">
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>44.7</v>
+        <v>45.5</v>
       </c>
       <c r="D31" t="n">
-        <v>958</v>
+        <v>941</v>
       </c>
       <c r="E31" t="n">
         <v>933.1435874692879</v>
       </c>
       <c r="F31" t="n">
-        <v>2.7</v>
+        <v>0.8</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>4653173000</v>
       </c>
       <c r="N31" t="n">
-        <v>10400431200</v>
+        <v>10215872400</v>
       </c>
     </row>
     <row r="32">
@@ -2069,16 +2069,16 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>57.1</v>
+        <v>57.2</v>
       </c>
       <c r="D32" t="n">
-        <v>5190</v>
+        <v>5180</v>
       </c>
       <c r="E32" t="n">
         <v>4265.455132343447</v>
       </c>
       <c r="F32" t="n">
-        <v>21.7</v>
+        <v>21.4</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>14129000000</v>
       </c>
       <c r="N32" t="n">
-        <v>24742235100</v>
+        <v>24694562200</v>
       </c>
     </row>
     <row r="33">
@@ -2121,16 +2121,16 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>66.90000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="D33" t="n">
-        <v>2780</v>
+        <v>2796.5</v>
       </c>
       <c r="E33" t="n">
         <v>2939.562915943684</v>
       </c>
       <c r="F33" t="n">
-        <v>-5.4</v>
+        <v>-4.9</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>101054000000</v>
       </c>
       <c r="N33" t="n">
-        <v>151057037920</v>
+        <v>151953599476</v>
       </c>
     </row>
     <row r="34">
@@ -2173,16 +2173,16 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>46.6</v>
+        <v>46.2</v>
       </c>
       <c r="D34" t="n">
-        <v>2260</v>
+        <v>2278</v>
       </c>
       <c r="E34" t="n">
         <v>2006.059650428343</v>
       </c>
       <c r="F34" t="n">
-        <v>12.7</v>
+        <v>13.6</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>173440000000</v>
       </c>
       <c r="N34" t="n">
-        <v>372046648860</v>
+        <v>375009852258</v>
       </c>
     </row>
     <row r="35">
@@ -2228,16 +2228,16 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>58.3</v>
+        <v>57.3</v>
       </c>
       <c r="D35" t="n">
-        <v>4735</v>
+        <v>4820</v>
       </c>
       <c r="E35" t="n">
         <v>3573.410502159827</v>
       </c>
       <c r="F35" t="n">
-        <v>32.5</v>
+        <v>34.9</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>75825000000</v>
       </c>
       <c r="N35" t="n">
-        <v>130028782000</v>
+        <v>132362984000</v>
       </c>
     </row>
     <row r="36">
@@ -2280,16 +2280,16 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>247.5</v>
+        <v>244.6</v>
       </c>
       <c r="D36" t="n">
-        <v>1013</v>
+        <v>1025</v>
       </c>
       <c r="E36" t="n">
         <v>798.3805136422309</v>
       </c>
       <c r="F36" t="n">
-        <v>26.9</v>
+        <v>28.4</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>429249000000</v>
       </c>
       <c r="N36" t="n">
-        <v>173437017523</v>
+        <v>175491552775</v>
       </c>
     </row>
     <row r="37">
@@ -2332,16 +2332,16 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>24.2</v>
+        <v>23.9</v>
       </c>
       <c r="D37" t="n">
-        <v>2455</v>
+        <v>2478</v>
       </c>
       <c r="E37" t="n">
         <v>1678.083113259255</v>
       </c>
       <c r="F37" t="n">
-        <v>46.3</v>
+        <v>47.7</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>19554000000</v>
       </c>
       <c r="N37" t="n">
-        <v>80946674895</v>
+        <v>81705034782</v>
       </c>
     </row>
     <row r="38">
@@ -2384,16 +2384,16 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>85.3</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>1106</v>
+        <v>1136</v>
       </c>
       <c r="E38" t="n">
         <v>668.9358717434869</v>
       </c>
       <c r="F38" t="n">
-        <v>65.3</v>
+        <v>69.8</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         <v>15118000000</v>
       </c>
       <c r="N38" t="n">
-        <v>17714825226</v>
+        <v>18195335856</v>
       </c>
     </row>
     <row r="39">
@@ -2436,16 +2436,16 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="D39" t="n">
-        <v>3349</v>
+        <v>3299</v>
       </c>
       <c r="E39" t="n">
         <v>4156.179843576074</v>
       </c>
       <c r="F39" t="n">
-        <v>-19.4</v>
+        <v>-20.6</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>90923000000</v>
       </c>
       <c r="N39" t="n">
-        <v>869358286325</v>
+        <v>856378915075</v>
       </c>
     </row>
     <row r="40">
@@ -2488,16 +2488,16 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>50</v>
+        <v>49.1</v>
       </c>
       <c r="D40" t="n">
-        <v>6660</v>
+        <v>6780</v>
       </c>
       <c r="E40" t="n">
         <v>2920</v>
       </c>
       <c r="F40" t="n">
-        <v>128.1</v>
+        <v>132.2</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>26036000000</v>
       </c>
       <c r="N40" t="n">
-        <v>52096584600</v>
+        <v>53035282140</v>
       </c>
     </row>
     <row r="41">
@@ -2540,16 +2540,16 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>33.8</v>
+        <v>33.5</v>
       </c>
       <c r="D41" t="n">
-        <v>1339</v>
+        <v>1352</v>
       </c>
       <c r="E41" t="n">
         <v>3234.727863989046</v>
       </c>
       <c r="F41" t="n">
-        <v>-58.6</v>
+        <v>-58.2</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>65478000000</v>
       </c>
       <c r="N41" t="n">
-        <v>193600941885</v>
+        <v>195480562680</v>
       </c>
     </row>
     <row r="42">
@@ -2592,16 +2592,16 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>53.8</v>
+        <v>53.6</v>
       </c>
       <c r="D42" t="n">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="E42" t="n">
         <v>656.2604975855553</v>
       </c>
       <c r="F42" t="n">
-        <v>22.1</v>
+        <v>22.7</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>31865000000</v>
       </c>
       <c r="N42" t="n">
-        <v>59174217828</v>
+        <v>59469719540</v>
       </c>
     </row>
     <row r="43">
@@ -2644,16 +2644,16 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>76.90000000000001</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>10800</v>
+        <v>10400</v>
       </c>
       <c r="E43" t="n">
         <v>7040.15625</v>
       </c>
       <c r="F43" t="n">
-        <v>53.4</v>
+        <v>47.7</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>8781313000</v>
       </c>
       <c r="N43" t="n">
-        <v>11413321200</v>
+        <v>10990605600</v>
       </c>
     </row>
     <row r="44">
@@ -2696,16 +2696,16 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>76.90000000000001</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>10800</v>
+        <v>10400</v>
       </c>
       <c r="E44" t="n">
         <v>7040.15625</v>
       </c>
       <c r="F44" t="n">
-        <v>53.4</v>
+        <v>47.7</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>8781313000</v>
       </c>
       <c r="N44" t="n">
-        <v>11413321200</v>
+        <v>10990605600</v>
       </c>
     </row>
     <row r="45">
@@ -2748,16 +2748,16 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>13.4</v>
+        <v>13.2</v>
       </c>
       <c r="D45" t="n">
-        <v>9554</v>
+        <v>9636</v>
       </c>
       <c r="E45" t="n">
         <v>6272.971195510064</v>
       </c>
       <c r="F45" t="n">
-        <v>52.3</v>
+        <v>53.6</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         <v>153254000000</v>
       </c>
       <c r="N45" t="n">
-        <v>1147865759930</v>
+        <v>1157717653620</v>
       </c>
     </row>
     <row r="46">
@@ -2800,16 +2800,16 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>68.5</v>
+        <v>67.5</v>
       </c>
       <c r="D46" t="n">
-        <v>3661</v>
+        <v>3715</v>
       </c>
       <c r="E46" t="n">
         <v>2566.284807227078</v>
       </c>
       <c r="F46" t="n">
-        <v>42.7</v>
+        <v>44.8</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>237487000000</v>
       </c>
       <c r="N46" t="n">
-        <v>346626972594</v>
+        <v>351739744110</v>
       </c>
     </row>
     <row r="47">
@@ -2852,16 +2852,16 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>69.7</v>
+        <v>69.3</v>
       </c>
       <c r="D47" t="n">
-        <v>5795</v>
+        <v>5826</v>
       </c>
       <c r="E47" t="n">
         <v>4137.137750115735</v>
       </c>
       <c r="F47" t="n">
-        <v>40.1</v>
+        <v>40.8</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>284031000000</v>
       </c>
       <c r="N47" t="n">
-        <v>407450674555</v>
+        <v>409630307154</v>
       </c>
     </row>
     <row r="48">
@@ -2904,16 +2904,16 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>110.6</v>
+        <v>109</v>
       </c>
       <c r="D48" t="n">
-        <v>1937</v>
+        <v>1965</v>
       </c>
       <c r="E48" t="n">
         <v>1469.167707232735</v>
       </c>
       <c r="F48" t="n">
-        <v>31.8</v>
+        <v>33.7</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>133437000000</v>
       </c>
       <c r="N48" t="n">
-        <v>120672775600</v>
+        <v>122417142000</v>
       </c>
     </row>
     <row r="49">
@@ -2956,16 +2956,16 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>110.6</v>
+        <v>109</v>
       </c>
       <c r="D49" t="n">
-        <v>1937</v>
+        <v>1965</v>
       </c>
       <c r="E49" t="n">
         <v>1489.94784546053</v>
       </c>
       <c r="F49" t="n">
-        <v>30</v>
+        <v>31.9</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>133437000000</v>
       </c>
       <c r="N49" t="n">
-        <v>120672775600</v>
+        <v>122417142000</v>
       </c>
     </row>
     <row r="50">
@@ -3008,16 +3008,16 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>124.8</v>
+        <v>124.6</v>
       </c>
       <c r="D50" t="n">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="E50" t="n">
         <v>438.851170934559</v>
       </c>
       <c r="F50" t="n">
-        <v>147.9</v>
+        <v>148.4</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>79323000000</v>
       </c>
       <c r="N50" t="n">
-        <v>63557318464</v>
+        <v>63674151770</v>
       </c>
     </row>
     <row r="51">
@@ -3063,13 +3063,13 @@
         <v>56.2</v>
       </c>
       <c r="D51" t="n">
-        <v>3501</v>
+        <v>3555</v>
       </c>
       <c r="E51" t="n">
         <v>2420</v>
       </c>
       <c r="F51" t="n">
-        <v>44.7</v>
+        <v>46.9</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
         <v>414670000000</v>
       </c>
       <c r="N51" t="n">
-        <v>738352312047</v>
+        <v>737492219055</v>
       </c>
     </row>
     <row r="52">
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>114.5</v>
+        <v>109.4</v>
       </c>
       <c r="D52" t="n">
-        <v>3080</v>
+        <v>3223</v>
       </c>
       <c r="E52" t="n">
         <v>4991.027246539169</v>
       </c>
       <c r="F52" t="n">
-        <v>-38.3</v>
+        <v>-35.4</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>1006135000000</v>
       </c>
       <c r="N52" t="n">
-        <v>878490677680</v>
+        <v>919277744858</v>
       </c>
     </row>
     <row r="53">
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="D53" t="n">
-        <v>10310</v>
+        <v>10340</v>
       </c>
       <c r="E53" t="n">
         <v>7052.737306843267</v>
       </c>
       <c r="F53" t="n">
-        <v>46.2</v>
+        <v>46.6</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>20433000000</v>
       </c>
       <c r="N53" t="n">
-        <v>121972619960</v>
+        <v>122327535440</v>
       </c>
     </row>
     <row r="54">
@@ -3219,13 +3219,13 @@
         <v>10.1</v>
       </c>
       <c r="D54" t="n">
-        <v>5696</v>
+        <v>5722</v>
       </c>
       <c r="E54" t="n">
         <v>2420.370957920882</v>
       </c>
       <c r="F54" t="n">
-        <v>135.3</v>
+        <v>136.4</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>28931000000</v>
       </c>
       <c r="N54" t="n">
-        <v>286166795072</v>
+        <v>287473033954</v>
       </c>
     </row>
     <row r="55">
@@ -3268,16 +3268,16 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>53.8</v>
+        <v>53.1</v>
       </c>
       <c r="D55" t="n">
-        <v>5215</v>
+        <v>5286</v>
       </c>
       <c r="E55" t="n">
         <v>4154.626869982095</v>
       </c>
       <c r="F55" t="n">
-        <v>25.5</v>
+        <v>27.2</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>179492000000</v>
       </c>
       <c r="N55" t="n">
-        <v>333408482925</v>
+        <v>337947697170</v>
       </c>
     </row>
     <row r="56">
@@ -3320,16 +3320,16 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>73.8</v>
+        <v>73.3</v>
       </c>
       <c r="D56" t="n">
-        <v>3823</v>
+        <v>3860</v>
       </c>
       <c r="E56" t="n">
         <v>3530</v>
       </c>
       <c r="F56" t="n">
-        <v>8.300000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>107738000000</v>
       </c>
       <c r="N56" t="n">
-        <v>146065070452</v>
+        <v>146943831000</v>
       </c>
     </row>
     <row r="57">
@@ -3372,16 +3372,16 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>43.6</v>
+        <v>43.2</v>
       </c>
       <c r="D57" t="n">
-        <v>1590</v>
+        <v>1602</v>
       </c>
       <c r="E57" t="n">
         <v>3767.430178069353</v>
       </c>
       <c r="F57" t="n">
-        <v>-57.8</v>
+        <v>-57.5</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         <v>31965000000</v>
       </c>
       <c r="N57" t="n">
-        <v>73385966640</v>
+        <v>73939822992</v>
       </c>
     </row>
     <row r="58">
@@ -3424,16 +3424,16 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>54.1</v>
+        <v>53.2</v>
       </c>
       <c r="D58" t="n">
-        <v>2052</v>
+        <v>2108</v>
       </c>
       <c r="E58" t="n">
         <v>1556.090471804319</v>
       </c>
       <c r="F58" t="n">
-        <v>31.9</v>
+        <v>35.5</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         <v>191594000000</v>
       </c>
       <c r="N58" t="n">
-        <v>354192311628</v>
+        <v>360009876792</v>
       </c>
     </row>
     <row r="59">
@@ -3476,16 +3476,16 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>115</v>
+        <v>113.9</v>
       </c>
       <c r="D59" t="n">
-        <v>1717</v>
+        <v>1734</v>
       </c>
       <c r="E59" t="n">
         <v>1341.977644710579</v>
       </c>
       <c r="F59" t="n">
-        <v>27.9</v>
+        <v>29.2</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>95903657000</v>
       </c>
       <c r="N59" t="n">
-        <v>83394329430</v>
+        <v>84220015860</v>
       </c>
     </row>
     <row r="60">
@@ -3531,13 +3531,13 @@
         <v>9.6</v>
       </c>
       <c r="D60" t="n">
-        <v>2102</v>
+        <v>2107.5</v>
       </c>
       <c r="E60" t="n">
         <v>1141.512891683109</v>
       </c>
       <c r="F60" t="n">
-        <v>84.09999999999999</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>35951000000</v>
       </c>
       <c r="N60" t="n">
-        <v>375027617422</v>
+        <v>376008898058</v>
       </c>
     </row>
     <row r="61">
@@ -3583,13 +3583,13 @@
         <v>9.6</v>
       </c>
       <c r="D61" t="n">
-        <v>2102</v>
+        <v>2107.5</v>
       </c>
       <c r="E61" t="n">
         <v>1842.11261309207</v>
       </c>
       <c r="F61" t="n">
-        <v>14.1</v>
+        <v>14.4</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         <v>35951000000</v>
       </c>
       <c r="N61" t="n">
-        <v>375027617422</v>
+        <v>376008898058</v>
       </c>
     </row>
     <row r="62">
@@ -3635,13 +3635,13 @@
         <v>10.3</v>
       </c>
       <c r="D62" t="n">
-        <v>1640.5</v>
+        <v>1635</v>
       </c>
       <c r="E62" t="n">
         <v>1344.518957928979</v>
       </c>
       <c r="F62" t="n">
-        <v>22</v>
+        <v>21.6</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         <v>55269000000</v>
       </c>
       <c r="N62" t="n">
-        <v>537447107044</v>
+        <v>535645242315</v>
       </c>
     </row>
     <row r="63">
@@ -3684,16 +3684,16 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>46.5</v>
+        <v>47</v>
       </c>
       <c r="D63" t="n">
-        <v>3581</v>
+        <v>3601</v>
       </c>
       <c r="E63" t="n">
         <v>2844.704547285864</v>
       </c>
       <c r="F63" t="n">
-        <v>25.9</v>
+        <v>26.6</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
         <v>235224000000</v>
       </c>
       <c r="N63" t="n">
-        <v>505436406168</v>
+        <v>500499601459</v>
       </c>
     </row>
     <row r="64">
@@ -3736,16 +3736,16 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>84.40000000000001</v>
+        <v>87.8</v>
       </c>
       <c r="D64" t="n">
-        <v>2844</v>
+        <v>2737</v>
       </c>
       <c r="E64" t="n">
         <v>1748.071046781136</v>
       </c>
       <c r="F64" t="n">
-        <v>62.7</v>
+        <v>56.6</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>71858000000</v>
       </c>
       <c r="N64" t="n">
-        <v>85089604716</v>
+        <v>81888272893</v>
       </c>
     </row>
     <row r="65">
@@ -3788,16 +3788,16 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>54</v>
+        <v>53.6</v>
       </c>
       <c r="D65" t="n">
-        <v>5461</v>
+        <v>5501</v>
       </c>
       <c r="E65" t="n">
         <v>3405.914389596362</v>
       </c>
       <c r="F65" t="n">
-        <v>60.3</v>
+        <v>61.5</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3825,7 +3825,7 @@
         <v>193706000000</v>
       </c>
       <c r="N65" t="n">
-        <v>358535199743</v>
+        <v>361161350263</v>
       </c>
     </row>
     <row r="66">
@@ -3840,16 +3840,16 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>54</v>
+        <v>53.6</v>
       </c>
       <c r="D66" t="n">
-        <v>5461</v>
+        <v>5501</v>
       </c>
       <c r="E66" t="n">
         <v>2714.613787300615</v>
       </c>
       <c r="F66" t="n">
-        <v>101.2</v>
+        <v>102.6</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>193706000000</v>
       </c>
       <c r="N66" t="n">
-        <v>358535199743</v>
+        <v>361161350263</v>
       </c>
     </row>
     <row r="67">
@@ -3892,16 +3892,16 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="D67" t="n">
-        <v>5397</v>
+        <v>5453</v>
       </c>
       <c r="E67" t="n">
         <v>2148.936934940886</v>
       </c>
       <c r="F67" t="n">
-        <v>151.1</v>
+        <v>153.8</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>80068000000</v>
       </c>
       <c r="N67" t="n">
-        <v>401206606143</v>
+        <v>405369580007</v>
       </c>
     </row>
     <row r="68">
@@ -3944,16 +3944,16 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>20</v>
+        <v>19.8</v>
       </c>
       <c r="D68" t="n">
-        <v>5397</v>
+        <v>5453</v>
       </c>
       <c r="E68" t="n">
         <v>5066.092575838703</v>
       </c>
       <c r="F68" t="n">
-        <v>6.5</v>
+        <v>7.6</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>80068000000</v>
       </c>
       <c r="N68" t="n">
-        <v>401206606143</v>
+        <v>405369580007</v>
       </c>
     </row>
     <row r="69">
@@ -3996,16 +3996,16 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>45.9</v>
+        <v>46</v>
       </c>
       <c r="D69" t="n">
-        <v>1420</v>
+        <v>1425.5</v>
       </c>
       <c r="E69" t="n">
         <v>1111.90611839092</v>
       </c>
       <c r="F69" t="n">
-        <v>27.7</v>
+        <v>28.2</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>101020000000</v>
       </c>
       <c r="N69" t="n">
-        <v>220079417100</v>
+        <v>219624548390</v>
       </c>
     </row>
     <row r="70">
@@ -4051,13 +4051,13 @@
         <v>42.3</v>
       </c>
       <c r="D70" t="n">
-        <v>5260</v>
+        <v>5340</v>
       </c>
       <c r="E70" t="n">
         <v>3361.304411567078</v>
       </c>
       <c r="F70" t="n">
-        <v>56.5</v>
+        <v>58.9</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>48658000000</v>
       </c>
       <c r="N70" t="n">
-        <v>115119723540</v>
+        <v>115129502880</v>
       </c>
     </row>
     <row r="71">
@@ -4100,16 +4100,16 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>35.3</v>
+        <v>35</v>
       </c>
       <c r="D71" t="n">
-        <v>5380</v>
+        <v>5430</v>
       </c>
       <c r="E71" t="n">
         <v>3891.73752540545</v>
       </c>
       <c r="F71" t="n">
-        <v>38.2</v>
+        <v>39.5</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>50698683000</v>
       </c>
       <c r="N71" t="n">
-        <v>143601884000</v>
+        <v>144936474000</v>
       </c>
     </row>
     <row r="72">
@@ -4152,16 +4152,16 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>34.8</v>
+        <v>35</v>
       </c>
       <c r="D72" t="n">
-        <v>4055</v>
+        <v>4035</v>
       </c>
       <c r="E72" t="n">
         <v>6646.195827570309</v>
       </c>
       <c r="F72" t="n">
-        <v>-39</v>
+        <v>-39.3</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>139195000000</v>
       </c>
       <c r="N72" t="n">
-        <v>399669992685</v>
+        <v>397698747345</v>
       </c>
     </row>
     <row r="73">
@@ -4204,16 +4204,16 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="D73" t="n">
-        <v>3030</v>
+        <v>3040</v>
       </c>
       <c r="E73" t="n">
         <v>2480</v>
       </c>
       <c r="F73" t="n">
-        <v>22.2</v>
+        <v>22.6</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>20277000000</v>
       </c>
       <c r="N73" t="n">
-        <v>64319931000</v>
+        <v>64532208000</v>
       </c>
     </row>
     <row r="74">
@@ -4256,16 +4256,16 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="D74" t="n">
-        <v>3030</v>
+        <v>3040</v>
       </c>
       <c r="E74" t="n">
         <v>2504.338645418327</v>
       </c>
       <c r="F74" t="n">
-        <v>21</v>
+        <v>21.4</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         <v>20277000000</v>
       </c>
       <c r="N74" t="n">
-        <v>64319931000</v>
+        <v>64532208000</v>
       </c>
     </row>
     <row r="75">
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="D75" t="n">
-        <v>3030</v>
+        <v>3040</v>
       </c>
       <c r="E75" t="n">
         <v>2880</v>
       </c>
       <c r="F75" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>20277000000</v>
       </c>
       <c r="N75" t="n">
-        <v>64319931000</v>
+        <v>64532208000</v>
       </c>
     </row>
     <row r="76">
@@ -4360,16 +4360,16 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D76" t="n">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="E76" t="n">
         <v>421.6950726175476</v>
       </c>
       <c r="F76" t="n">
-        <v>39</v>
+        <v>40.6</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>2256815000</v>
       </c>
       <c r="N76" t="n">
-        <v>16415358988</v>
+        <v>16611446894</v>
       </c>
     </row>
     <row r="77">
@@ -4412,16 +4412,16 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>52.6</v>
+        <v>52.3</v>
       </c>
       <c r="D77" t="n">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E77" t="n">
         <v>290.3401328717133</v>
       </c>
       <c r="F77" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>5368822000</v>
       </c>
       <c r="N77" t="n">
-        <v>10203644262</v>
+        <v>10273056808</v>
       </c>
     </row>
     <row r="78">
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>38.6</v>
+        <v>38.1</v>
       </c>
       <c r="D78" t="n">
-        <v>3040</v>
+        <v>3080</v>
       </c>
       <c r="E78" t="n">
         <v>1359.655069733296</v>
       </c>
       <c r="F78" t="n">
-        <v>123.6</v>
+        <v>126.5</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>68841000000</v>
       </c>
       <c r="N78" t="n">
-        <v>178237343200</v>
+        <v>180582571400</v>
       </c>
     </row>
     <row r="79">
@@ -4519,13 +4519,13 @@
         <v>12.3</v>
       </c>
       <c r="D79" t="n">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E79" t="n">
         <v>448.6811097117532</v>
       </c>
       <c r="F79" t="n">
-        <v>-5.3</v>
+        <v>-5.7</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>10804525000</v>
       </c>
       <c r="N79" t="n">
-        <v>88155671325</v>
+        <v>87740821107</v>
       </c>
     </row>
     <row r="80">
@@ -4571,13 +4571,13 @@
         <v>10.8</v>
       </c>
       <c r="D80" t="n">
-        <v>3280</v>
+        <v>3286</v>
       </c>
       <c r="E80" t="n">
         <v>2085.872134468915</v>
       </c>
       <c r="F80" t="n">
-        <v>57.2</v>
+        <v>57.5</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4605,7 +4605,7 @@
         <v>37319000000</v>
       </c>
       <c r="N80" t="n">
-        <v>345939264640</v>
+        <v>346572080368</v>
       </c>
     </row>
     <row r="81">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>12.7</v>
+        <v>13</v>
       </c>
       <c r="D81" t="n">
-        <v>1025</v>
+        <v>1002</v>
       </c>
       <c r="E81" t="n">
         <v>913.2768512341561</v>
       </c>
       <c r="F81" t="n">
-        <v>12.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>2201899000</v>
       </c>
       <c r="N81" t="n">
-        <v>17342629975</v>
+        <v>16953478278</v>
       </c>
     </row>
     <row r="82">
@@ -4672,16 +4672,16 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>265.2</v>
+        <v>263.3</v>
       </c>
       <c r="D82" t="n">
-        <v>2373</v>
+        <v>2390.5</v>
       </c>
       <c r="E82" t="n">
         <v>2190</v>
       </c>
       <c r="F82" t="n">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>870891000000</v>
       </c>
       <c r="N82" t="n">
-        <v>328378326570</v>
+        <v>330799995645</v>
       </c>
     </row>
     <row r="83">
@@ -4724,16 +4724,16 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>54.6</v>
+        <v>54.3</v>
       </c>
       <c r="D83" t="n">
-        <v>1684</v>
+        <v>1693</v>
       </c>
       <c r="E83" t="n">
         <v>1721.078563209627</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.2</v>
+        <v>-1.6</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>178715000000</v>
       </c>
       <c r="N83" t="n">
-        <v>327466857736</v>
+        <v>329216977522</v>
       </c>
     </row>
     <row r="84">
@@ -4776,16 +4776,16 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>57.8</v>
+        <v>62.1</v>
       </c>
       <c r="D84" t="n">
-        <v>7866</v>
+        <v>7323</v>
       </c>
       <c r="E84" t="n">
         <v>5478.947585152067</v>
       </c>
       <c r="F84" t="n">
-        <v>43.6</v>
+        <v>33.7</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4813,7 +4813,7 @@
         <v>92189000000</v>
       </c>
       <c r="N84" t="n">
-        <v>159449279004</v>
+        <v>148442292162</v>
       </c>
     </row>
     <row r="85">
@@ -4828,16 +4828,16 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="D85" t="n">
-        <v>16245</v>
+        <v>16510</v>
       </c>
       <c r="E85" t="n">
         <v>13739.64575539568</v>
       </c>
       <c r="F85" t="n">
-        <v>18.2</v>
+        <v>20.2</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4865,7 +4865,7 @@
         <v>265431000000</v>
       </c>
       <c r="N85" t="n">
-        <v>1085093758485</v>
+        <v>1094142597080</v>
       </c>
     </row>
     <row r="86">
@@ -4880,16 +4880,16 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="D86" t="n">
-        <v>16245</v>
+        <v>16510</v>
       </c>
       <c r="E86" t="n">
         <v>12975.86280814577</v>
       </c>
       <c r="F86" t="n">
-        <v>25.2</v>
+        <v>27.2</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>265431000000</v>
       </c>
       <c r="N86" t="n">
-        <v>1085093758485</v>
+        <v>1094142597080</v>
       </c>
     </row>
     <row r="87">
@@ -4932,16 +4932,16 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D87" t="n">
-        <v>990</v>
+        <v>1003</v>
       </c>
       <c r="E87" t="n">
         <v>193.0499177180472</v>
       </c>
       <c r="F87" t="n">
-        <v>412.8</v>
+        <v>419.6</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>22097000000</v>
       </c>
       <c r="N87" t="n">
-        <v>26934930000</v>
+        <v>27288621000</v>
       </c>
     </row>
     <row r="88">
@@ -4987,13 +4987,13 @@
         <v>22.3</v>
       </c>
       <c r="D88" t="n">
-        <v>4020</v>
+        <v>4015</v>
       </c>
       <c r="E88" t="n">
         <v>7960</v>
       </c>
       <c r="F88" t="n">
-        <v>-49.5</v>
+        <v>-49.6</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -5021,7 +5021,7 @@
         <v>34259000000</v>
       </c>
       <c r="N88" t="n">
-        <v>153641690520</v>
+        <v>153450593890</v>
       </c>
     </row>
     <row r="89">
@@ -5036,10 +5036,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>33.5</v>
+        <v>33.6</v>
       </c>
       <c r="D89" t="n">
-        <v>1122</v>
+        <v>1121.5</v>
       </c>
       <c r="E89" t="n">
         <v>2968.770104870396</v>
@@ -5073,7 +5073,7 @@
         <v>364930000000</v>
       </c>
       <c r="N89" t="n">
-        <v>1087863307080</v>
+        <v>1087378519510</v>
       </c>
     </row>
     <row r="90">
@@ -5088,16 +5088,16 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="D90" t="n">
-        <v>1988</v>
+        <v>2040</v>
       </c>
       <c r="E90" t="n">
         <v>887.288318673809</v>
       </c>
       <c r="F90" t="n">
-        <v>124.1</v>
+        <v>129.9</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>3124000000</v>
       </c>
       <c r="N90" t="n">
-        <v>159672068696</v>
+        <v>163848601680</v>
       </c>
     </row>
     <row r="91">
@@ -5140,16 +5140,16 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="D91" t="n">
-        <v>2797</v>
+        <v>2820</v>
       </c>
       <c r="E91" t="n">
         <v>2007.754513143541</v>
       </c>
       <c r="F91" t="n">
-        <v>39.3</v>
+        <v>40.5</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>30679000000</v>
       </c>
       <c r="N91" t="n">
-        <v>149008745733</v>
+        <v>150234058980</v>
       </c>
     </row>
     <row r="92">
@@ -5192,16 +5192,16 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>24</v>
+        <v>23.5</v>
       </c>
       <c r="D92" t="n">
-        <v>12480</v>
+        <v>12740</v>
       </c>
       <c r="E92" t="n">
         <v>3496.825336379792</v>
       </c>
       <c r="F92" t="n">
-        <v>256.9</v>
+        <v>264.3</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>29490000000</v>
       </c>
       <c r="N92" t="n">
-        <v>122978356800</v>
+        <v>125540405900</v>
       </c>
     </row>
     <row r="93">
@@ -5244,16 +5244,16 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>79.09999999999999</v>
+        <v>78.7</v>
       </c>
       <c r="D93" t="n">
-        <v>4255</v>
+        <v>4280</v>
       </c>
       <c r="E93" t="n">
         <v>3449.780346820809</v>
       </c>
       <c r="F93" t="n">
-        <v>23.3</v>
+        <v>24.1</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>79561000000</v>
       </c>
       <c r="N93" t="n">
-        <v>100550130515</v>
+        <v>101140906840</v>
       </c>
     </row>
     <row r="94">
@@ -5299,13 +5299,13 @@
         <v>1.4</v>
       </c>
       <c r="D94" t="n">
-        <v>7402</v>
+        <v>7567</v>
       </c>
       <c r="E94" t="n">
         <v>2697.360927565142</v>
       </c>
       <c r="F94" t="n">
-        <v>174.4</v>
+        <v>180.5</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         <v>8148000000</v>
       </c>
       <c r="N94" t="n">
-        <v>577128159038</v>
+        <v>589993080173</v>
       </c>
     </row>
     <row r="95">
@@ -5348,10 +5348,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>753.4</v>
+        <v>733.1</v>
       </c>
       <c r="D95" t="n">
-        <v>3790</v>
+        <v>3895</v>
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
@@ -5381,7 +5381,7 @@
         <v>609113000000</v>
       </c>
       <c r="N95" t="n">
-        <v>80850554000</v>
+        <v>83090477000</v>
       </c>
     </row>
     <row r="96">
@@ -5396,16 +5396,16 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>35</v>
+        <v>34.8</v>
       </c>
       <c r="D96" t="n">
-        <v>6955</v>
+        <v>6995</v>
       </c>
       <c r="E96" t="n">
         <v>2836.942753814942</v>
       </c>
       <c r="F96" t="n">
-        <v>145.2</v>
+        <v>146.6</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>85476000000</v>
       </c>
       <c r="N96" t="n">
-        <v>243934279875</v>
+        <v>245337208875</v>
       </c>
     </row>
     <row r="97">
@@ -5448,16 +5448,16 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>96.59999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="D97" t="n">
-        <v>1869</v>
+        <v>1874</v>
       </c>
       <c r="E97" t="n">
         <v>2298.672482457804</v>
       </c>
       <c r="F97" t="n">
-        <v>-18.7</v>
+        <v>-18.5</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5485,187 +5485,187 @@
         <v>44925000000</v>
       </c>
       <c r="N97" t="n">
-        <v>46503897300</v>
+        <v>46628305800</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>三和ホールディングス株式会社</t>
+          <t>あいホールディングス株式会社</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>5929</t>
+          <t>3076</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>13.1</v>
+        <v>24.8</v>
       </c>
       <c r="D98" t="n">
-        <v>4357</v>
+        <v>2820</v>
       </c>
       <c r="E98" t="n">
-        <v>1306.206628354146</v>
+        <v>2007.754513143541</v>
       </c>
       <c r="F98" t="n">
-        <v>233.6</v>
+        <v>40.5</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>ダルトン・インベストメンツ・エルエルシー</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>2025-05-02</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>87795000000</v>
+        <v>32012000000</v>
       </c>
       <c r="J98" t="n">
-        <v>21341000000</v>
+        <v>1646000000</v>
       </c>
       <c r="K98" t="n">
-        <v>11848000000</v>
+        <v>3550000000</v>
       </c>
       <c r="L98" t="n">
-        <v>181387000000</v>
+        <v>53765000000</v>
       </c>
       <c r="M98" t="n">
-        <v>120984000000</v>
+        <v>37208000000</v>
       </c>
       <c r="N98" t="n">
-        <v>925431008862</v>
+        <v>150234058980</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ヘリオス テクノ ホールディング株式会社</t>
+          <t>三和ホールディングス株式会社</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>6927</t>
+          <t>5929</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>51.7</v>
+        <v>13</v>
       </c>
       <c r="D99" t="n">
-        <v>898</v>
+        <v>4372</v>
       </c>
       <c r="E99" t="n">
-        <v>896.0103264198827</v>
+        <v>1306.206628354146</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2</v>
+        <v>234.7</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>6417163000</v>
+        <v>87795000000</v>
       </c>
       <c r="J99" t="n">
-        <v>658172000</v>
+        <v>21341000000</v>
       </c>
       <c r="K99" t="n">
-        <v>1342160000</v>
+        <v>11848000000</v>
       </c>
       <c r="L99" t="n">
-        <v>13418044000</v>
+        <v>181387000000</v>
       </c>
       <c r="M99" t="n">
-        <v>8417495000</v>
+        <v>120984000000</v>
       </c>
       <c r="N99" t="n">
-        <v>16296701950</v>
+        <v>928617023352</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>株式会社熊谷組</t>
+          <t>ヘリオス テクノ ホールディング株式会社</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>1861</t>
+          <t>6927</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>64.7</v>
+        <v>52.4</v>
       </c>
       <c r="D100" t="n">
-        <v>4960</v>
+        <v>886</v>
       </c>
       <c r="E100" t="n">
-        <v>2776.401128792723</v>
+        <v>896.0103264198827</v>
       </c>
       <c r="F100" t="n">
-        <v>78.59999999999999</v>
+        <v>-1.1</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2023-05-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>71335000000</v>
+        <v>6417163000</v>
       </c>
       <c r="J100" t="n">
-        <v>17897000000</v>
+        <v>658172000</v>
       </c>
       <c r="K100" t="n">
-        <v>48586000000</v>
+        <v>1342160000</v>
       </c>
       <c r="L100" t="n">
-        <v>163835000000</v>
+        <v>13418044000</v>
       </c>
       <c r="M100" t="n">
-        <v>137818000000</v>
+        <v>8417495000</v>
       </c>
       <c r="N100" t="n">
-        <v>212892128000</v>
+        <v>16078928650</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>エン・ジャパン株式会社</t>
+          <t>株式会社熊谷組</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>4849</t>
+          <t>1861</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>45.2</v>
+        <v>63.5</v>
       </c>
       <c r="D101" t="n">
-        <v>1655</v>
+        <v>5060</v>
       </c>
       <c r="E101" t="n">
-        <v>1746.940387696806</v>
+        <v>2776.401128792723</v>
       </c>
       <c r="F101" t="n">
-        <v>-5.3</v>
+        <v>82.3</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5674,206 +5674,206 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2023-05-24</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>26835000000</v>
+        <v>71335000000</v>
       </c>
       <c r="J101" t="n">
-        <v>1019000000</v>
+        <v>17897000000</v>
       </c>
       <c r="K101" t="n">
-        <v>2000000000</v>
+        <v>48586000000</v>
       </c>
       <c r="L101" t="n">
-        <v>36856000000</v>
+        <v>163835000000</v>
       </c>
       <c r="M101" t="n">
-        <v>29854000000</v>
+        <v>137818000000</v>
       </c>
       <c r="N101" t="n">
-        <v>66108933625</v>
+        <v>217184105600</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>京浜急行電鉄株式会社</t>
+          <t>エン・ジャパン株式会社</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>9006</t>
+          <t>4849</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>110.1</v>
+        <v>45.2</v>
       </c>
       <c r="D102" t="n">
-        <v>1545.5</v>
+        <v>1657</v>
       </c>
       <c r="E102" t="n">
-        <v>1160.8</v>
+        <v>1746.940387696806</v>
       </c>
       <c r="F102" t="n">
-        <v>33.1</v>
+        <v>-5.1</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>57450000000</v>
+        <v>26835000000</v>
       </c>
       <c r="J102" t="n">
-        <v>297923000000</v>
+        <v>1019000000</v>
       </c>
       <c r="K102" t="n">
-        <v>103100000000</v>
+        <v>2000000000</v>
       </c>
       <c r="L102" t="n">
-        <v>249065000000</v>
+        <v>36856000000</v>
       </c>
       <c r="M102" t="n">
-        <v>458473000000</v>
+        <v>29854000000</v>
       </c>
       <c r="N102" t="n">
-        <v>416267890995</v>
+        <v>66032901532</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>株式会社ニコン</t>
+          <t>京浜急行電鉄株式会社</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>7731</t>
+          <t>9006</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>15.4</v>
+        <v>109.1</v>
       </c>
       <c r="D103" t="n">
-        <v>1794.5</v>
+        <v>1560.5</v>
       </c>
       <c r="E103" t="n">
-        <v>1512.21980974841</v>
+        <v>1160.8</v>
       </c>
       <c r="F103" t="n">
-        <v>18.7</v>
+        <v>34.4</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2024-04-22</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>78718000000</v>
+        <v>57450000000</v>
       </c>
       <c r="J103" t="n">
-        <v>8297000000</v>
+        <v>297923000000</v>
       </c>
       <c r="K103" t="n">
-        <v>4000000000</v>
+        <v>103100000000</v>
       </c>
       <c r="L103" t="n">
-        <v>342155000000</v>
+        <v>249065000000</v>
       </c>
       <c r="M103" t="n">
-        <v>91015000000</v>
+        <v>458473000000</v>
       </c>
       <c r="N103" t="n">
-        <v>590424724704</v>
+        <v>420308019345</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>株式会社青山財産ネットワークス</t>
+          <t>株式会社ニコン</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>8929</t>
+          <t>7731</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>28.9</v>
+        <v>15.6</v>
       </c>
       <c r="D104" t="n">
-        <v>2041</v>
+        <v>1769</v>
       </c>
       <c r="E104" t="n">
-        <v>1347.74653160027</v>
+        <v>1512.21980974841</v>
       </c>
       <c r="F104" t="n">
-        <v>51.4</v>
+        <v>17</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2024-06-11</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>9424000000</v>
+        <v>78718000000</v>
       </c>
       <c r="J104" t="n">
-        <v>2205000000</v>
+        <v>8297000000</v>
       </c>
       <c r="K104" t="n">
-        <v>2514000000</v>
+        <v>4000000000</v>
       </c>
       <c r="L104" t="n">
-        <v>6566000000</v>
+        <v>342155000000</v>
       </c>
       <c r="M104" t="n">
-        <v>14143000000</v>
+        <v>91015000000</v>
       </c>
       <c r="N104" t="n">
-        <v>48911766969</v>
+        <v>582034738368</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>コニシ株式会社</t>
+          <t>株式会社青山財産ネットワークス</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>4956</t>
+          <t>8929</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>55.1</v>
+        <v>28.5</v>
       </c>
       <c r="D105" t="n">
-        <v>1320</v>
+        <v>2070</v>
       </c>
       <c r="E105" t="n">
-        <v>1605.189780306002</v>
+        <v>1347.74653160027</v>
       </c>
       <c r="F105" t="n">
-        <v>-17.8</v>
+        <v>53.6</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5882,310 +5882,310 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2023-01-11</t>
+          <t>2024-06-11</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>23721000000</v>
+        <v>9424000000</v>
       </c>
       <c r="J105" t="n">
-        <v>13167000000</v>
+        <v>2205000000</v>
       </c>
       <c r="K105" t="n">
-        <v>11402000000</v>
+        <v>2514000000</v>
       </c>
       <c r="L105" t="n">
-        <v>68785000000</v>
+        <v>6566000000</v>
       </c>
       <c r="M105" t="n">
-        <v>48290000000</v>
+        <v>14143000000</v>
       </c>
       <c r="N105" t="n">
-        <v>87593088000</v>
+        <v>49606740630</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>ニッタ株式会社</t>
+          <t>コニシ株式会社</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>5186</t>
+          <t>4956</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>41</v>
+        <v>54.8</v>
       </c>
       <c r="D106" t="n">
-        <v>4085</v>
+        <v>1328</v>
       </c>
       <c r="E106" t="n">
-        <v>3096.322467304314</v>
+        <v>1605.189780306002</v>
       </c>
       <c r="F106" t="n">
-        <v>31.9</v>
+        <v>-17.3</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>ダルトン・インベストメンツ・エルエルシー</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2023-01-11</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>27527000000</v>
+        <v>23721000000</v>
       </c>
       <c r="J106" t="n">
-        <v>13414000000</v>
+        <v>13167000000</v>
       </c>
       <c r="K106" t="n">
-        <v>5499000000</v>
+        <v>11402000000</v>
       </c>
       <c r="L106" t="n">
-        <v>108639000000</v>
+        <v>68785000000</v>
       </c>
       <c r="M106" t="n">
-        <v>46440000000</v>
+        <v>48290000000</v>
       </c>
       <c r="N106" t="n">
-        <v>113142637160</v>
+        <v>88123955200</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>コクヨ株式会社</t>
+          <t>ニッタ株式会社</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>7984</t>
+          <t>5186</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>35.8</v>
+        <v>40</v>
       </c>
       <c r="D107" t="n">
-        <v>903.4000244140625</v>
+        <v>4195</v>
       </c>
       <c r="E107" t="n">
-        <v>2157.626835069302</v>
+        <v>3096.322467304314</v>
       </c>
       <c r="F107" t="n">
-        <v>-58.1</v>
+        <v>35.5</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>90577000000</v>
+        <v>27527000000</v>
       </c>
       <c r="J107" t="n">
-        <v>21360000000</v>
+        <v>13414000000</v>
       </c>
       <c r="K107" t="n">
-        <v>30086000000</v>
+        <v>5499000000</v>
       </c>
       <c r="L107" t="n">
-        <v>226335000000</v>
+        <v>108639000000</v>
       </c>
       <c r="M107" t="n">
-        <v>142023000000</v>
+        <v>46440000000</v>
       </c>
       <c r="N107" t="n">
-        <v>397009553317</v>
+        <v>116189317720</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>日本特殊塗料株式会社</t>
+          <t>コクヨ株式会社</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>4619</t>
+          <t>7984</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>83.40000000000001</v>
+        <v>35.8</v>
       </c>
       <c r="D108" t="n">
-        <v>2175</v>
+        <v>902.2999877929688</v>
       </c>
       <c r="E108" t="n">
-        <v>1190</v>
+        <v>2157.626835069302</v>
       </c>
       <c r="F108" t="n">
-        <v>82.8</v>
+        <v>-58.2</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>6518000000</v>
+        <v>90577000000</v>
       </c>
       <c r="J108" t="n">
-        <v>9792000000</v>
+        <v>21360000000</v>
       </c>
       <c r="K108" t="n">
-        <v>23167000000</v>
+        <v>30086000000</v>
       </c>
       <c r="L108" t="n">
-        <v>47154000000</v>
+        <v>226335000000</v>
       </c>
       <c r="M108" t="n">
-        <v>39477000000</v>
+        <v>142023000000</v>
       </c>
       <c r="N108" t="n">
-        <v>47309899650</v>
+        <v>396526129545</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>株式会社イワキ</t>
+          <t>日本特殊塗料株式会社</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>6237</t>
+          <t>4619</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>18.9</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="D109" t="n">
-        <v>2665</v>
+        <v>2171</v>
       </c>
       <c r="E109" t="n">
-        <v>1361.432492253209</v>
+        <v>1190</v>
       </c>
       <c r="F109" t="n">
-        <v>95.7</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>ダルトン・インベストメンツ・エルエルシー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2023-11-09</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="I109" t="n">
-        <v>6936133000</v>
+        <v>6518000000</v>
       </c>
       <c r="J109" t="n">
-        <v>3861988000</v>
+        <v>9792000000</v>
       </c>
       <c r="K109" t="n">
-        <v>326566000</v>
+        <v>23167000000</v>
       </c>
       <c r="L109" t="n">
-        <v>22520477000</v>
+        <v>47154000000</v>
       </c>
       <c r="M109" t="n">
-        <v>11124687000</v>
+        <v>39477000000</v>
       </c>
       <c r="N109" t="n">
-        <v>58936893405</v>
+        <v>47222892938</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>株式会社西武ホールディングス</t>
+          <t>株式会社イワキ</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>9024</t>
+          <t>6237</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>40.6</v>
+        <v>18.8</v>
       </c>
       <c r="D110" t="n">
-        <v>5462</v>
+        <v>2682</v>
       </c>
       <c r="E110" t="n">
-        <v>1716.713876475349</v>
+        <v>1361.432492253209</v>
       </c>
       <c r="F110" t="n">
-        <v>218.2</v>
+        <v>97</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2024-05-07</t>
+          <t>2023-11-09</t>
         </is>
       </c>
       <c r="I110" t="n">
-        <v>28538000000</v>
+        <v>6936133000</v>
       </c>
       <c r="J110" t="n">
-        <v>485513000000</v>
+        <v>3861988000</v>
       </c>
       <c r="K110" t="n">
-        <v>49954000000</v>
+        <v>326566000</v>
       </c>
       <c r="L110" t="n">
-        <v>385687000000</v>
+        <v>22520477000</v>
       </c>
       <c r="M110" t="n">
-        <v>564005000000</v>
+        <v>11124687000</v>
       </c>
       <c r="N110" t="n">
-        <v>1388014779112</v>
+        <v>59312851074</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>日鉄ソリューションズ株式会社</t>
+          <t>株式会社西武ホールディングス</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2327</t>
+          <t>9024</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>12.4</v>
+        <v>40.6</v>
       </c>
       <c r="D111" t="n">
-        <v>3603</v>
+        <v>5465</v>
       </c>
       <c r="E111" t="n">
-        <v>2561.705402476645</v>
+        <v>1716.713876475349</v>
       </c>
       <c r="F111" t="n">
-        <v>40.6</v>
+        <v>218.3</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -6194,182 +6194,182 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2024-05-07</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>78579000000</v>
+        <v>28538000000</v>
       </c>
       <c r="J111" t="n">
-        <v>2398000000</v>
+        <v>485513000000</v>
       </c>
       <c r="K111" t="n">
-        <v>1000000000</v>
+        <v>49954000000</v>
       </c>
       <c r="L111" t="n">
-        <v>186128000000</v>
+        <v>385687000000</v>
       </c>
       <c r="M111" t="n">
-        <v>81977000000</v>
+        <v>564005000000</v>
       </c>
       <c r="N111" t="n">
-        <v>659256067821</v>
+        <v>1388777145340</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>月島ホールディングス株式会社</t>
+          <t>日鉄ソリューションズ株式会社</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>6332</t>
+          <t>2327</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>67.09999999999999</v>
+        <v>12.7</v>
       </c>
       <c r="D112" t="n">
-        <v>2948</v>
+        <v>3538</v>
       </c>
       <c r="E112" t="n">
-        <v>1410</v>
+        <v>2561.705402476645</v>
       </c>
       <c r="F112" t="n">
-        <v>109.1</v>
+        <v>38.1</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2024-08-19</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>33870000000</v>
+        <v>78579000000</v>
       </c>
       <c r="J112" t="n">
-        <v>23318000000</v>
+        <v>2398000000</v>
       </c>
       <c r="K112" t="n">
-        <v>25387000000</v>
+        <v>1000000000</v>
       </c>
       <c r="L112" t="n">
-        <v>71784000000</v>
+        <v>186128000000</v>
       </c>
       <c r="M112" t="n">
-        <v>82575000000</v>
+        <v>81977000000</v>
       </c>
       <c r="N112" t="n">
-        <v>122973594260</v>
+        <v>647362744366</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>株式会社ゴールドクレスト</t>
+          <t>月島ホールディングス株式会社</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>8871</t>
+          <t>6332</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>72.2</v>
+        <v>66.7</v>
       </c>
       <c r="D113" t="n">
-        <v>3380</v>
+        <v>2969</v>
       </c>
       <c r="E113" t="n">
-        <v>1789.870000553189</v>
+        <v>1410</v>
       </c>
       <c r="F113" t="n">
-        <v>88.8</v>
+        <v>110.6</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>2023-08-01</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>69004000000</v>
+        <v>33870000000</v>
       </c>
       <c r="J113" t="n">
-        <v>12099000000</v>
+        <v>23318000000</v>
       </c>
       <c r="K113" t="n">
-        <v>23000000</v>
+        <v>25387000000</v>
       </c>
       <c r="L113" t="n">
-        <v>122540000000</v>
+        <v>71784000000</v>
       </c>
       <c r="M113" t="n">
-        <v>81126000000</v>
+        <v>82575000000</v>
       </c>
       <c r="N113" t="n">
-        <v>112334509560</v>
+        <v>123849593405</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>ブロードメディア株式会社</t>
+          <t>株式会社ゴールドクレスト</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>4347</t>
+          <t>8871</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>35.4</v>
+        <v>71.2</v>
       </c>
       <c r="D114" t="n">
-        <v>1730</v>
+        <v>3430</v>
       </c>
       <c r="E114" t="n">
-        <v>1529.631984751819</v>
+        <v>1789.870000553189</v>
       </c>
       <c r="F114" t="n">
-        <v>13.1</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>2024-07-03</t>
+          <t>2023-08-01</t>
         </is>
       </c>
       <c r="I114" t="n">
-        <v>3368262000</v>
+        <v>69004000000</v>
       </c>
       <c r="J114" t="n">
-        <v>826293000</v>
+        <v>12099000000</v>
       </c>
       <c r="K114" t="n">
-        <v>164267000</v>
+        <v>23000000</v>
       </c>
       <c r="L114" t="n">
-        <v>3706507000</v>
+        <v>122540000000</v>
       </c>
       <c r="M114" t="n">
-        <v>4358822000</v>
+        <v>81126000000</v>
       </c>
       <c r="N114" t="n">
-        <v>12326680770</v>
+        <v>113996262660</v>
       </c>
     </row>
     <row r="115">
@@ -6384,16 +6384,16 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>35.4</v>
+        <v>34.8</v>
       </c>
       <c r="D115" t="n">
-        <v>1730</v>
+        <v>1758</v>
       </c>
       <c r="E115" t="n">
-        <v>1449.995380693296</v>
+        <v>1529.631984751819</v>
       </c>
       <c r="F115" t="n">
-        <v>19.3</v>
+        <v>14.9</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>2024-05-22</t>
+          <t>2024-07-03</t>
         </is>
       </c>
       <c r="I115" t="n">
@@ -6421,135 +6421,135 @@
         <v>4358822000</v>
       </c>
       <c r="N115" t="n">
-        <v>12326680770</v>
+        <v>12526187742</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>株式会社イエローハット</t>
+          <t>ブロードメディア株式会社</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>9882</t>
+          <t>4347</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>34.2</v>
+        <v>34.8</v>
       </c>
       <c r="D116" t="n">
-        <v>1695</v>
+        <v>1758</v>
       </c>
       <c r="E116" t="n">
-        <v>2112.609181636727</v>
+        <v>1449.995380693296</v>
       </c>
       <c r="F116" t="n">
-        <v>-19.8</v>
+        <v>21.2</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
+          <t>2024-05-22</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>14029000000</v>
+        <v>3368262000</v>
       </c>
       <c r="J116" t="n">
-        <v>27205000000</v>
+        <v>826293000</v>
       </c>
       <c r="K116" t="n">
-        <v>9801000000</v>
+        <v>164267000</v>
       </c>
       <c r="L116" t="n">
-        <v>91386000000</v>
+        <v>3706507000</v>
       </c>
       <c r="M116" t="n">
-        <v>51035000000</v>
+        <v>4358822000</v>
       </c>
       <c r="N116" t="n">
-        <v>149200500330</v>
+        <v>12526187742</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>太陽ホールディングス株式会社</t>
+          <t>株式会社イエローハット</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>4626</t>
+          <t>9882</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>19.8</v>
+        <v>33.7</v>
       </c>
       <c r="D117" t="n">
-        <v>8140</v>
+        <v>1735</v>
       </c>
       <c r="E117" t="n">
-        <v>3565.648720929983</v>
+        <v>2112.609181636727</v>
       </c>
       <c r="F117" t="n">
-        <v>128.3</v>
+        <v>-17.9</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>54309000000</v>
+        <v>14029000000</v>
       </c>
       <c r="J117" t="n">
-        <v>30690000000</v>
+        <v>27205000000</v>
       </c>
       <c r="K117" t="n">
-        <v>4437000000</v>
+        <v>9801000000</v>
       </c>
       <c r="L117" t="n">
-        <v>76497000000</v>
+        <v>91386000000</v>
       </c>
       <c r="M117" t="n">
-        <v>89436000000</v>
+        <v>51035000000</v>
       </c>
       <c r="N117" t="n">
-        <v>452350862260</v>
+        <v>151296649800</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>株式会社ツルハホールディングス</t>
+          <t>太陽ホールディングス株式会社</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>3391</t>
+          <t>4626</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>39.9</v>
+        <v>19.9</v>
       </c>
       <c r="D118" t="n">
-        <v>2411.5</v>
+        <v>8100</v>
       </c>
       <c r="E118" t="n">
-        <v>4544.200649553184</v>
+        <v>3565.648720929983</v>
       </c>
       <c r="F118" t="n">
-        <v>-46.9</v>
+        <v>127.2</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6558,26 +6558,26 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>2023-05-08</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>116398000000</v>
+        <v>54309000000</v>
       </c>
       <c r="J118" t="n">
-        <v>83437000000</v>
+        <v>30690000000</v>
       </c>
       <c r="K118" t="n">
-        <v>34181000000</v>
+        <v>4437000000</v>
       </c>
       <c r="L118" t="n">
-        <v>276528000000</v>
+        <v>76497000000</v>
       </c>
       <c r="M118" t="n">
-        <v>234016000000</v>
+        <v>89436000000</v>
       </c>
       <c r="N118" t="n">
-        <v>587241402248</v>
+        <v>450128007900</v>
       </c>
     </row>
     <row r="119">
@@ -6595,13 +6595,13 @@
         <v>39.9</v>
       </c>
       <c r="D119" t="n">
-        <v>2411.5</v>
+        <v>2407.5</v>
       </c>
       <c r="E119" t="n">
-        <v>8262.359904024779</v>
+        <v>4544.200649553184</v>
       </c>
       <c r="F119" t="n">
-        <v>-70.8</v>
+        <v>-47</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6610,7 +6610,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>2022-12-19</t>
+          <t>2023-05-08</t>
         </is>
       </c>
       <c r="I119" t="n">
@@ -6629,267 +6629,319 @@
         <v>234016000000</v>
       </c>
       <c r="N119" t="n">
-        <v>587241402248</v>
+        <v>586267333988</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ホシデン株式会社</t>
+          <t>株式会社ツルハホールディングス</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>6804</t>
+          <t>3391</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>75.09999999999999</v>
+        <v>39.9</v>
       </c>
       <c r="D120" t="n">
-        <v>2382</v>
+        <v>2407.5</v>
       </c>
       <c r="E120" t="n">
-        <v>1303.446424801713</v>
+        <v>8262.359904024779</v>
       </c>
       <c r="F120" t="n">
-        <v>82.7</v>
+        <v>-70.90000000000001</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>2023-02-13</t>
+          <t>2022-12-19</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>69522000000</v>
+        <v>116398000000</v>
       </c>
       <c r="J120" t="n">
-        <v>6944000000</v>
+        <v>83437000000</v>
       </c>
       <c r="K120" t="n">
-        <v>14624000000</v>
+        <v>34181000000</v>
       </c>
       <c r="L120" t="n">
-        <v>109250000000</v>
+        <v>276528000000</v>
       </c>
       <c r="M120" t="n">
-        <v>91090000000</v>
+        <v>234016000000</v>
       </c>
       <c r="N120" t="n">
-        <v>121214701488</v>
+        <v>586267333988</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>ジェイドグループ株式会社</t>
+          <t>ホシデン株式会社</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>3558</t>
+          <t>6804</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>22.3</v>
+        <v>74.5</v>
       </c>
       <c r="D121" t="n">
-        <v>1409</v>
+        <v>2403</v>
       </c>
       <c r="E121" t="n">
-        <v>1267.324164058639</v>
+        <v>1303.446424801713</v>
       </c>
       <c r="F121" t="n">
-        <v>11.2</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>2023-03-22</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>2776277000</v>
+        <v>69522000000</v>
       </c>
       <c r="J121" t="n">
-        <v>280430000</v>
+        <v>6944000000</v>
       </c>
       <c r="K121" t="n">
-        <v>23536000</v>
+        <v>14624000000</v>
       </c>
       <c r="L121" t="n">
-        <v>4370371000</v>
+        <v>109250000000</v>
       </c>
       <c r="M121" t="n">
-        <v>3080243000</v>
+        <v>91090000000</v>
       </c>
       <c r="N121" t="n">
-        <v>13790204252</v>
+        <v>122283344952</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>新光商事株式会社</t>
+          <t>ジェイドグループ株式会社</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>8141</t>
+          <t>3558</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>59.6</v>
+        <v>22.1</v>
       </c>
       <c r="D122" t="n">
-        <v>960</v>
+        <v>1421</v>
       </c>
       <c r="E122" t="n">
-        <v>930</v>
+        <v>1267.324164058639</v>
       </c>
       <c r="F122" t="n">
-        <v>3.2</v>
+        <v>12.1</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2023-03-22</t>
         </is>
       </c>
       <c r="I122" t="n">
-        <v>17596000000</v>
+        <v>2776277000</v>
       </c>
       <c r="J122" t="n">
-        <v>174000000</v>
+        <v>280430000</v>
       </c>
       <c r="K122" t="n">
-        <v>2995000000</v>
+        <v>23536000</v>
       </c>
       <c r="L122" t="n">
-        <v>50340000000</v>
+        <v>4370371000</v>
       </c>
       <c r="M122" t="n">
-        <v>20765000000</v>
+        <v>3080243000</v>
       </c>
       <c r="N122" t="n">
-        <v>34858193280</v>
+        <v>13907650988</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>カシオ計算機株式会社</t>
+          <t>新光商事株式会社</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>6952</t>
+          <t>8141</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>69.90000000000001</v>
+        <v>58.6</v>
       </c>
       <c r="D123" t="n">
-        <v>1226.5</v>
+        <v>976</v>
       </c>
       <c r="E123" t="n">
-        <v>1188.162962482466</v>
+        <v>930</v>
       </c>
       <c r="F123" t="n">
-        <v>3.2</v>
+        <v>4.9</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="I123" t="n">
-        <v>137053000000</v>
+        <v>17596000000</v>
       </c>
       <c r="J123" t="n">
-        <v>12759000000</v>
+        <v>174000000</v>
       </c>
       <c r="K123" t="n">
-        <v>45698000000</v>
+        <v>2995000000</v>
       </c>
       <c r="L123" t="n">
-        <v>211895000000</v>
+        <v>50340000000</v>
       </c>
       <c r="M123" t="n">
-        <v>195510000000</v>
+        <v>20765000000</v>
       </c>
       <c r="N123" t="n">
-        <v>279698881390</v>
+        <v>35439163168</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
+          <t>カシオ計算機株式会社</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>6952</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>69</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1243</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1188.162962482466</v>
+      </c>
+      <c r="F124" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>137053000000</v>
+      </c>
+      <c r="J124" t="n">
+        <v>12759000000</v>
+      </c>
+      <c r="K124" t="n">
+        <v>45698000000</v>
+      </c>
+      <c r="L124" t="n">
+        <v>211895000000</v>
+      </c>
+      <c r="M124" t="n">
+        <v>195510000000</v>
+      </c>
+      <c r="N124" t="n">
+        <v>283461646611</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
           <t>花王株式会社</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B125" t="inlineStr">
         <is>
           <t>4452</t>
         </is>
       </c>
-      <c r="C124" t="n">
+      <c r="C125" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="D125" t="n">
+        <v>6518</v>
+      </c>
+      <c r="E125" t="n">
+        <v>6116.356643776557</v>
+      </c>
+      <c r="F125" t="n">
         <v>6.6</v>
       </c>
-      <c r="D124" t="n">
-        <v>6516</v>
-      </c>
-      <c r="E124" t="n">
-        <v>6116.356643776557</v>
-      </c>
-      <c r="F124" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="G124" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
+      <c r="H125" t="inlineStr">
         <is>
           <t>2024-12-05</t>
         </is>
       </c>
-      <c r="I124" t="n">
+      <c r="I125" t="n">
         <v>118328000000</v>
       </c>
-      <c r="J124" t="n">
+      <c r="J125" t="n">
         <v>63976000000</v>
       </c>
-      <c r="K124" t="n">
+      <c r="K125" t="n">
         <v>19009000000</v>
       </c>
-      <c r="L124" t="n">
+      <c r="L125" t="n">
         <v>805867000000</v>
       </c>
-      <c r="M124" t="n">
+      <c r="M125" t="n">
         <v>201313000000</v>
       </c>
-      <c r="N124" t="n">
-        <v>3066188358132</v>
+      <c r="N125" t="n">
+        <v>3012819565722</v>
       </c>
     </row>
   </sheetData>

--- a/docs/アクティビスト銘柄_資産判定.xlsx
+++ b/docs/アクティビスト銘柄_資産判定.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N125"/>
+  <dimension ref="A1:N124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="D2" t="n">
         <v>659</v>
@@ -550,7 +550,7 @@
         <v>35403000000</v>
       </c>
       <c r="N2" t="n">
-        <v>90714011701</v>
+        <v>91126974051</v>
       </c>
     </row>
     <row r="3">
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="D3" t="n">
         <v>659</v>
@@ -598,7 +598,7 @@
         <v>35403000000</v>
       </c>
       <c r="N3" t="n">
-        <v>90714011701</v>
+        <v>91126974051</v>
       </c>
     </row>
     <row r="4">
@@ -665,7 +665,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="D5" t="n">
         <v>1041</v>
@@ -702,7 +702,7 @@
         <v>1810139000</v>
       </c>
       <c r="N5" t="n">
-        <v>24912451029</v>
+        <v>25032107733</v>
       </c>
     </row>
     <row r="6">
@@ -1170,7 +1170,7 @@
         <v>15543000000</v>
       </c>
       <c r="N14" t="n">
-        <v>39548436800</v>
+        <v>39548394608</v>
       </c>
     </row>
     <row r="15">
@@ -1222,7 +1222,7 @@
         <v>15543000000</v>
       </c>
       <c r="N15" t="n">
-        <v>39548436800</v>
+        <v>39548394608</v>
       </c>
     </row>
     <row r="16">
@@ -2054,7 +2054,7 @@
         <v>4653173000</v>
       </c>
       <c r="N31" t="n">
-        <v>10215872400</v>
+        <v>10215876164</v>
       </c>
     </row>
     <row r="32">
@@ -2106,7 +2106,7 @@
         <v>14129000000</v>
       </c>
       <c r="N32" t="n">
-        <v>24694562200</v>
+        <v>24694546660</v>
       </c>
     </row>
     <row r="33">
@@ -2488,16 +2488,16 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>49.1</v>
+        <v>245.5</v>
       </c>
       <c r="D40" t="n">
-        <v>6780</v>
+        <v>1356</v>
       </c>
       <c r="E40" t="n">
         <v>2920</v>
       </c>
       <c r="F40" t="n">
-        <v>132.2</v>
+        <v>-53.6</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>26036000000</v>
       </c>
       <c r="N40" t="n">
-        <v>53035282140</v>
+        <v>10607056428</v>
       </c>
     </row>
     <row r="41">
@@ -2748,16 +2748,16 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>13.2</v>
+        <v>39.7</v>
       </c>
       <c r="D45" t="n">
-        <v>9636</v>
+        <v>3212</v>
       </c>
       <c r="E45" t="n">
         <v>6272.971195510064</v>
       </c>
       <c r="F45" t="n">
-        <v>53.6</v>
+        <v>-48.8</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         <v>153254000000</v>
       </c>
       <c r="N45" t="n">
-        <v>1157717653620</v>
+        <v>385905884540</v>
       </c>
     </row>
     <row r="46">
@@ -3060,7 +3060,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>56.2</v>
+        <v>55.3</v>
       </c>
       <c r="D51" t="n">
         <v>3555</v>
@@ -3097,7 +3097,7 @@
         <v>414670000000</v>
       </c>
       <c r="N51" t="n">
-        <v>737492219055</v>
+        <v>749740779585</v>
       </c>
     </row>
     <row r="52">
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>16.7</v>
+        <v>50.1</v>
       </c>
       <c r="D53" t="n">
-        <v>10340</v>
+        <v>3446.666748046875</v>
       </c>
       <c r="E53" t="n">
         <v>7052.737306843267</v>
       </c>
       <c r="F53" t="n">
-        <v>46.6</v>
+        <v>-51.1</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>20433000000</v>
       </c>
       <c r="N53" t="n">
-        <v>122327535440</v>
+        <v>40775846109</v>
       </c>
     </row>
     <row r="54">
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>53.2</v>
+        <v>52.7</v>
       </c>
       <c r="D58" t="n">
         <v>2108</v>
@@ -3461,7 +3461,7 @@
         <v>191594000000</v>
       </c>
       <c r="N58" t="n">
-        <v>360009876792</v>
+        <v>363858378612</v>
       </c>
     </row>
     <row r="59">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>46</v>
+        <v>45.7</v>
       </c>
       <c r="D69" t="n">
         <v>1425.5</v>
@@ -4033,7 +4033,7 @@
         <v>101020000000</v>
       </c>
       <c r="N69" t="n">
-        <v>219624548390</v>
+        <v>220931837378</v>
       </c>
     </row>
     <row r="70">
@@ -4831,13 +4831,13 @@
         <v>24.3</v>
       </c>
       <c r="D85" t="n">
-        <v>16510</v>
+        <v>3302</v>
       </c>
       <c r="E85" t="n">
         <v>13739.64575539568</v>
       </c>
       <c r="F85" t="n">
-        <v>20.2</v>
+        <v>-76</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4883,13 +4883,13 @@
         <v>24.3</v>
       </c>
       <c r="D86" t="n">
-        <v>16510</v>
+        <v>3302</v>
       </c>
       <c r="E86" t="n">
         <v>12975.86280814577</v>
       </c>
       <c r="F86" t="n">
-        <v>27.2</v>
+        <v>-74.59999999999999</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -5131,77 +5131,77 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>あいホールディングス株式会社</t>
+          <t>株式会社内田洋行</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>3076</t>
+          <t>8057</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>20.4</v>
+        <v>23.5</v>
       </c>
       <c r="D91" t="n">
-        <v>2820</v>
+        <v>12740</v>
       </c>
       <c r="E91" t="n">
-        <v>2007.754513143541</v>
+        <v>3496.825336379792</v>
       </c>
       <c r="F91" t="n">
-        <v>40.5</v>
+        <v>264.3</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>2022-12-19</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>25461000000</v>
+        <v>24890000000</v>
       </c>
       <c r="J91" t="n">
-        <v>1728000000</v>
+        <v>3100000000</v>
       </c>
       <c r="K91" t="n">
-        <v>3490000000</v>
+        <v>1500000000</v>
       </c>
       <c r="L91" t="n">
-        <v>49530000000</v>
+        <v>42315000000</v>
       </c>
       <c r="M91" t="n">
-        <v>30679000000</v>
+        <v>29490000000</v>
       </c>
       <c r="N91" t="n">
-        <v>150234058980</v>
+        <v>125540405900</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>株式会社内田洋行</t>
+          <t>芝浦機械株式会社</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>8057</t>
+          <t>6104</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>23.5</v>
+        <v>78.7</v>
       </c>
       <c r="D92" t="n">
-        <v>12740</v>
+        <v>4280</v>
       </c>
       <c r="E92" t="n">
-        <v>3496.825336379792</v>
+        <v>3449.780346820809</v>
       </c>
       <c r="F92" t="n">
-        <v>264.3</v>
+        <v>24.1</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -5210,462 +5210,462 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2022-12-19</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>24890000000</v>
+        <v>42417000000</v>
       </c>
       <c r="J92" t="n">
-        <v>3100000000</v>
+        <v>19144000000</v>
       </c>
       <c r="K92" t="n">
-        <v>1500000000</v>
+        <v>18000000000</v>
       </c>
       <c r="L92" t="n">
-        <v>42315000000</v>
+        <v>82152000000</v>
       </c>
       <c r="M92" t="n">
-        <v>29490000000</v>
+        <v>79561000000</v>
       </c>
       <c r="N92" t="n">
-        <v>125540405900</v>
+        <v>101140906840</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>芝浦機械株式会社</t>
+          <t>サッポロホールディングス株式会社</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>6104</t>
+          <t>2501</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>78.7</v>
+        <v>1.4</v>
       </c>
       <c r="D93" t="n">
-        <v>4280</v>
+        <v>7567</v>
       </c>
       <c r="E93" t="n">
-        <v>3449.780346820809</v>
+        <v>2697.360927565142</v>
       </c>
       <c r="F93" t="n">
-        <v>24.1</v>
+        <v>180.5</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2025-08-19</t>
+          <t>2023-10-12</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>42417000000</v>
+        <v>3451000000</v>
       </c>
       <c r="J93" t="n">
-        <v>19144000000</v>
+        <v>28000000</v>
       </c>
       <c r="K93" t="n">
-        <v>18000000000</v>
+        <v>4669000000</v>
       </c>
       <c r="L93" t="n">
-        <v>82152000000</v>
+        <v>137956000000</v>
       </c>
       <c r="M93" t="n">
-        <v>79561000000</v>
+        <v>8148000000</v>
       </c>
       <c r="N93" t="n">
-        <v>101140906840</v>
+        <v>589993080173</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>サッポロホールディングス株式会社</t>
+          <t>株式会社おきなわフィナンシャルグループ</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2501</t>
+          <t>7350</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1.4</v>
+        <v>733.1</v>
       </c>
       <c r="D94" t="n">
-        <v>7567</v>
-      </c>
-      <c r="E94" t="n">
-        <v>2697.360927565142</v>
-      </c>
-      <c r="F94" t="n">
-        <v>180.5</v>
-      </c>
+        <v>3895</v>
+      </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2023-10-12</t>
+          <t>2023-05-16</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>3451000000</v>
+        <v>590636000000</v>
       </c>
       <c r="J94" t="n">
-        <v>28000000</v>
+        <v>18477000000</v>
       </c>
       <c r="K94" t="n">
-        <v>4669000000</v>
+        <v>0</v>
       </c>
       <c r="L94" t="n">
-        <v>137956000000</v>
+        <v>159392000000</v>
       </c>
       <c r="M94" t="n">
-        <v>8148000000</v>
+        <v>609113000000</v>
       </c>
       <c r="N94" t="n">
-        <v>589993080173</v>
+        <v>83090477000</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>株式会社おきなわフィナンシャルグループ</t>
+          <t>株式会社アインホールディングス</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>7350</t>
+          <t>9627</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>733.1</v>
+        <v>34.8</v>
       </c>
       <c r="D95" t="n">
-        <v>3895</v>
-      </c>
-      <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
+        <v>6995</v>
+      </c>
+      <c r="E95" t="n">
+        <v>2836.942753814942</v>
+      </c>
+      <c r="F95" t="n">
+        <v>146.6</v>
+      </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2023-05-16</t>
+          <t>2024-03-04</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>590636000000</v>
+        <v>55009000000</v>
       </c>
       <c r="J95" t="n">
-        <v>18477000000</v>
+        <v>27122000000</v>
       </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>3345000000</v>
       </c>
       <c r="L95" t="n">
-        <v>159392000000</v>
+        <v>115837000000</v>
       </c>
       <c r="M95" t="n">
-        <v>609113000000</v>
+        <v>85476000000</v>
       </c>
       <c r="N95" t="n">
-        <v>83090477000</v>
+        <v>245337208875</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>株式会社アインホールディングス</t>
+          <t>株式会社パイオラックス</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>9627</t>
+          <t>5988</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>34.8</v>
+        <v>96.3</v>
       </c>
       <c r="D96" t="n">
-        <v>6995</v>
+        <v>1874</v>
       </c>
       <c r="E96" t="n">
-        <v>2836.942753814942</v>
+        <v>2298.672482457804</v>
       </c>
       <c r="F96" t="n">
-        <v>146.6</v>
+        <v>-18.5</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>55009000000</v>
+        <v>31161000000</v>
       </c>
       <c r="J96" t="n">
-        <v>27122000000</v>
+        <v>12144000000</v>
       </c>
       <c r="K96" t="n">
-        <v>3345000000</v>
+        <v>1620000000</v>
       </c>
       <c r="L96" t="n">
-        <v>115837000000</v>
+        <v>93746000000</v>
       </c>
       <c r="M96" t="n">
-        <v>85476000000</v>
+        <v>44925000000</v>
       </c>
       <c r="N96" t="n">
-        <v>245337208875</v>
+        <v>46628305800</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>株式会社パイオラックス</t>
+          <t>あいホールディングス株式会社</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>5988</t>
+          <t>3076</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>96.3</v>
+        <v>24.8</v>
       </c>
       <c r="D97" t="n">
-        <v>1874</v>
+        <v>2820</v>
       </c>
       <c r="E97" t="n">
-        <v>2298.672482457804</v>
+        <v>2007.754513143541</v>
       </c>
       <c r="F97" t="n">
-        <v>-18.5</v>
+        <v>40.5</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2024-08-06</t>
+          <t>2025-05-02</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>31161000000</v>
+        <v>32012000000</v>
       </c>
       <c r="J97" t="n">
-        <v>12144000000</v>
+        <v>1646000000</v>
       </c>
       <c r="K97" t="n">
-        <v>1620000000</v>
+        <v>3550000000</v>
       </c>
       <c r="L97" t="n">
-        <v>93746000000</v>
+        <v>53765000000</v>
       </c>
       <c r="M97" t="n">
-        <v>44925000000</v>
+        <v>37208000000</v>
       </c>
       <c r="N97" t="n">
-        <v>46628305800</v>
+        <v>150231927060</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>あいホールディングス株式会社</t>
+          <t>三和ホールディングス株式会社</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>3076</t>
+          <t>5929</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>24.8</v>
+        <v>13</v>
       </c>
       <c r="D98" t="n">
-        <v>2820</v>
+        <v>4372</v>
       </c>
       <c r="E98" t="n">
-        <v>2007.754513143541</v>
+        <v>1306.206628354146</v>
       </c>
       <c r="F98" t="n">
-        <v>40.5</v>
+        <v>234.7</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>32012000000</v>
+        <v>87795000000</v>
       </c>
       <c r="J98" t="n">
-        <v>1646000000</v>
+        <v>21341000000</v>
       </c>
       <c r="K98" t="n">
-        <v>3550000000</v>
+        <v>11848000000</v>
       </c>
       <c r="L98" t="n">
-        <v>53765000000</v>
+        <v>181387000000</v>
       </c>
       <c r="M98" t="n">
-        <v>37208000000</v>
+        <v>120984000000</v>
       </c>
       <c r="N98" t="n">
-        <v>150234058980</v>
+        <v>928617023352</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>三和ホールディングス株式会社</t>
+          <t>ヘリオス テクノ ホールディング株式会社</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>5929</t>
+          <t>6927</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>13</v>
+        <v>52.4</v>
       </c>
       <c r="D99" t="n">
-        <v>4372</v>
+        <v>886</v>
       </c>
       <c r="E99" t="n">
-        <v>1306.206628354146</v>
+        <v>896.0103264198827</v>
       </c>
       <c r="F99" t="n">
-        <v>234.7</v>
+        <v>-1.1</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>ダルトン・インベストメンツ・エルエルシー</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>87795000000</v>
+        <v>6417163000</v>
       </c>
       <c r="J99" t="n">
-        <v>21341000000</v>
+        <v>658172000</v>
       </c>
       <c r="K99" t="n">
-        <v>11848000000</v>
+        <v>1342160000</v>
       </c>
       <c r="L99" t="n">
-        <v>181387000000</v>
+        <v>13418044000</v>
       </c>
       <c r="M99" t="n">
-        <v>120984000000</v>
+        <v>8417495000</v>
       </c>
       <c r="N99" t="n">
-        <v>928617023352</v>
+        <v>16078928650</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ヘリオス テクノ ホールディング株式会社</t>
+          <t>株式会社熊谷組</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>6927</t>
+          <t>1861</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>52.4</v>
+        <v>253.8</v>
       </c>
       <c r="D100" t="n">
-        <v>886</v>
+        <v>1265</v>
       </c>
       <c r="E100" t="n">
-        <v>896.0103264198827</v>
+        <v>2776.401128792723</v>
       </c>
       <c r="F100" t="n">
-        <v>-1.1</v>
+        <v>-54.4</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2023-05-24</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>6417163000</v>
+        <v>71335000000</v>
       </c>
       <c r="J100" t="n">
-        <v>658172000</v>
+        <v>17897000000</v>
       </c>
       <c r="K100" t="n">
-        <v>1342160000</v>
+        <v>48586000000</v>
       </c>
       <c r="L100" t="n">
-        <v>13418044000</v>
+        <v>163835000000</v>
       </c>
       <c r="M100" t="n">
-        <v>8417495000</v>
+        <v>137818000000</v>
       </c>
       <c r="N100" t="n">
-        <v>16078928650</v>
+        <v>54296026400</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>株式会社熊谷組</t>
+          <t>エン・ジャパン株式会社</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>1861</t>
+          <t>4849</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>63.5</v>
+        <v>45.1</v>
       </c>
       <c r="D101" t="n">
-        <v>5060</v>
+        <v>1657</v>
       </c>
       <c r="E101" t="n">
-        <v>2776.401128792723</v>
+        <v>1746.940387696806</v>
       </c>
       <c r="F101" t="n">
-        <v>82.3</v>
+        <v>-5.1</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5674,206 +5674,206 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2023-05-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>71335000000</v>
+        <v>26835000000</v>
       </c>
       <c r="J101" t="n">
-        <v>17897000000</v>
+        <v>1019000000</v>
       </c>
       <c r="K101" t="n">
-        <v>48586000000</v>
+        <v>2000000000</v>
       </c>
       <c r="L101" t="n">
-        <v>163835000000</v>
+        <v>36856000000</v>
       </c>
       <c r="M101" t="n">
-        <v>137818000000</v>
+        <v>29854000000</v>
       </c>
       <c r="N101" t="n">
-        <v>217184105600</v>
+        <v>66188823575</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>エン・ジャパン株式会社</t>
+          <t>京浜急行電鉄株式会社</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>4849</t>
+          <t>9006</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>45.2</v>
+        <v>109.1</v>
       </c>
       <c r="D102" t="n">
-        <v>1657</v>
+        <v>1560.5</v>
       </c>
       <c r="E102" t="n">
-        <v>1746.940387696806</v>
+        <v>1160.8</v>
       </c>
       <c r="F102" t="n">
-        <v>-5.1</v>
+        <v>34.4</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>26835000000</v>
+        <v>57450000000</v>
       </c>
       <c r="J102" t="n">
-        <v>1019000000</v>
+        <v>297923000000</v>
       </c>
       <c r="K102" t="n">
-        <v>2000000000</v>
+        <v>103100000000</v>
       </c>
       <c r="L102" t="n">
-        <v>36856000000</v>
+        <v>249065000000</v>
       </c>
       <c r="M102" t="n">
-        <v>29854000000</v>
+        <v>458473000000</v>
       </c>
       <c r="N102" t="n">
-        <v>66032901532</v>
+        <v>420308019345</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>京浜急行電鉄株式会社</t>
+          <t>株式会社ニコン</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>9006</t>
+          <t>7731</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>109.1</v>
+        <v>15.6</v>
       </c>
       <c r="D103" t="n">
-        <v>1560.5</v>
+        <v>1769</v>
       </c>
       <c r="E103" t="n">
-        <v>1160.8</v>
+        <v>1512.21980974841</v>
       </c>
       <c r="F103" t="n">
-        <v>34.4</v>
+        <v>17</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>57450000000</v>
+        <v>78718000000</v>
       </c>
       <c r="J103" t="n">
-        <v>297923000000</v>
+        <v>8297000000</v>
       </c>
       <c r="K103" t="n">
-        <v>103100000000</v>
+        <v>4000000000</v>
       </c>
       <c r="L103" t="n">
-        <v>249065000000</v>
+        <v>342155000000</v>
       </c>
       <c r="M103" t="n">
-        <v>458473000000</v>
+        <v>91015000000</v>
       </c>
       <c r="N103" t="n">
-        <v>420308019345</v>
+        <v>582034738368</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>株式会社ニコン</t>
+          <t>株式会社青山財産ネットワークス</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>7731</t>
+          <t>8929</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>15.6</v>
+        <v>28.5</v>
       </c>
       <c r="D104" t="n">
-        <v>1769</v>
+        <v>2070</v>
       </c>
       <c r="E104" t="n">
-        <v>1512.21980974841</v>
+        <v>1347.74653160027</v>
       </c>
       <c r="F104" t="n">
-        <v>17</v>
+        <v>53.6</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2024-04-22</t>
+          <t>2024-06-11</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>78718000000</v>
+        <v>9424000000</v>
       </c>
       <c r="J104" t="n">
-        <v>8297000000</v>
+        <v>2205000000</v>
       </c>
       <c r="K104" t="n">
-        <v>4000000000</v>
+        <v>2514000000</v>
       </c>
       <c r="L104" t="n">
-        <v>342155000000</v>
+        <v>6566000000</v>
       </c>
       <c r="M104" t="n">
-        <v>91015000000</v>
+        <v>14143000000</v>
       </c>
       <c r="N104" t="n">
-        <v>582034738368</v>
+        <v>49606740630</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>株式会社青山財産ネットワークス</t>
+          <t>コニシ株式会社</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>8929</t>
+          <t>4956</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>28.5</v>
+        <v>54.8</v>
       </c>
       <c r="D105" t="n">
-        <v>2070</v>
+        <v>1328</v>
       </c>
       <c r="E105" t="n">
-        <v>1347.74653160027</v>
+        <v>1605.189780306002</v>
       </c>
       <c r="F105" t="n">
-        <v>53.6</v>
+        <v>-17.3</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5882,310 +5882,310 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2024-06-11</t>
+          <t>2023-01-11</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>9424000000</v>
+        <v>23721000000</v>
       </c>
       <c r="J105" t="n">
-        <v>2205000000</v>
+        <v>13167000000</v>
       </c>
       <c r="K105" t="n">
-        <v>2514000000</v>
+        <v>11402000000</v>
       </c>
       <c r="L105" t="n">
-        <v>6566000000</v>
+        <v>68785000000</v>
       </c>
       <c r="M105" t="n">
-        <v>14143000000</v>
+        <v>48290000000</v>
       </c>
       <c r="N105" t="n">
-        <v>49606740630</v>
+        <v>88123955200</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>コニシ株式会社</t>
+          <t>ニッタ株式会社</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>4956</t>
+          <t>5186</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>54.8</v>
+        <v>40</v>
       </c>
       <c r="D106" t="n">
-        <v>1328</v>
+        <v>4195</v>
       </c>
       <c r="E106" t="n">
-        <v>1605.189780306002</v>
+        <v>3096.322467304314</v>
       </c>
       <c r="F106" t="n">
-        <v>-17.3</v>
+        <v>35.5</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2023-01-11</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>23721000000</v>
+        <v>27527000000</v>
       </c>
       <c r="J106" t="n">
-        <v>13167000000</v>
+        <v>13414000000</v>
       </c>
       <c r="K106" t="n">
-        <v>11402000000</v>
+        <v>5499000000</v>
       </c>
       <c r="L106" t="n">
-        <v>68785000000</v>
+        <v>108639000000</v>
       </c>
       <c r="M106" t="n">
-        <v>48290000000</v>
+        <v>46440000000</v>
       </c>
       <c r="N106" t="n">
-        <v>88123955200</v>
+        <v>116189317720</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ニッタ株式会社</t>
+          <t>コクヨ株式会社</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>5186</t>
+          <t>7984</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>40</v>
+        <v>35.8</v>
       </c>
       <c r="D107" t="n">
-        <v>4195</v>
+        <v>902.2999877929688</v>
       </c>
       <c r="E107" t="n">
-        <v>3096.322467304314</v>
+        <v>2157.626835069302</v>
       </c>
       <c r="F107" t="n">
-        <v>35.5</v>
+        <v>-58.2</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>ダルトン・インベストメンツ・エルエルシー</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>27527000000</v>
+        <v>90577000000</v>
       </c>
       <c r="J107" t="n">
-        <v>13414000000</v>
+        <v>21360000000</v>
       </c>
       <c r="K107" t="n">
-        <v>5499000000</v>
+        <v>30086000000</v>
       </c>
       <c r="L107" t="n">
-        <v>108639000000</v>
+        <v>226335000000</v>
       </c>
       <c r="M107" t="n">
-        <v>46440000000</v>
+        <v>142023000000</v>
       </c>
       <c r="N107" t="n">
-        <v>116189317720</v>
+        <v>396526129545</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>コクヨ株式会社</t>
+          <t>日本特殊塗料株式会社</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>7984</t>
+          <t>4619</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>35.8</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="D108" t="n">
-        <v>902.2999877929688</v>
+        <v>2171</v>
       </c>
       <c r="E108" t="n">
-        <v>2157.626835069302</v>
+        <v>1190</v>
       </c>
       <c r="F108" t="n">
-        <v>-58.2</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>90577000000</v>
+        <v>6518000000</v>
       </c>
       <c r="J108" t="n">
-        <v>21360000000</v>
+        <v>9792000000</v>
       </c>
       <c r="K108" t="n">
-        <v>30086000000</v>
+        <v>23167000000</v>
       </c>
       <c r="L108" t="n">
-        <v>226335000000</v>
+        <v>47154000000</v>
       </c>
       <c r="M108" t="n">
-        <v>142023000000</v>
+        <v>39477000000</v>
       </c>
       <c r="N108" t="n">
-        <v>396526129545</v>
+        <v>47222892938</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>日本特殊塗料株式会社</t>
+          <t>株式会社イワキ</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>4619</t>
+          <t>6237</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>83.59999999999999</v>
+        <v>18.8</v>
       </c>
       <c r="D109" t="n">
-        <v>2171</v>
+        <v>2682</v>
       </c>
       <c r="E109" t="n">
-        <v>1190</v>
+        <v>1361.432492253209</v>
       </c>
       <c r="F109" t="n">
-        <v>82.40000000000001</v>
+        <v>97</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2023-11-09</t>
         </is>
       </c>
       <c r="I109" t="n">
-        <v>6518000000</v>
+        <v>6936133000</v>
       </c>
       <c r="J109" t="n">
-        <v>9792000000</v>
+        <v>3861988000</v>
       </c>
       <c r="K109" t="n">
-        <v>23167000000</v>
+        <v>326566000</v>
       </c>
       <c r="L109" t="n">
-        <v>47154000000</v>
+        <v>22520477000</v>
       </c>
       <c r="M109" t="n">
-        <v>39477000000</v>
+        <v>11124687000</v>
       </c>
       <c r="N109" t="n">
-        <v>47222892938</v>
+        <v>59312851074</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>株式会社イワキ</t>
+          <t>株式会社西武ホールディングス</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>6237</t>
+          <t>9024</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>18.8</v>
+        <v>40.6</v>
       </c>
       <c r="D110" t="n">
-        <v>2682</v>
+        <v>5465</v>
       </c>
       <c r="E110" t="n">
-        <v>1361.432492253209</v>
+        <v>1716.713876475349</v>
       </c>
       <c r="F110" t="n">
-        <v>97</v>
+        <v>218.3</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>ダルトン・インベストメンツ・エルエルシー</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2023-11-09</t>
+          <t>2024-05-07</t>
         </is>
       </c>
       <c r="I110" t="n">
-        <v>6936133000</v>
+        <v>28538000000</v>
       </c>
       <c r="J110" t="n">
-        <v>3861988000</v>
+        <v>485513000000</v>
       </c>
       <c r="K110" t="n">
-        <v>326566000</v>
+        <v>49954000000</v>
       </c>
       <c r="L110" t="n">
-        <v>22520477000</v>
+        <v>385687000000</v>
       </c>
       <c r="M110" t="n">
-        <v>11124687000</v>
+        <v>564005000000</v>
       </c>
       <c r="N110" t="n">
-        <v>59312851074</v>
+        <v>1388777145340</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>株式会社西武ホールディングス</t>
+          <t>日鉄ソリューションズ株式会社</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>9024</t>
+          <t>2327</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>40.6</v>
+        <v>12.7</v>
       </c>
       <c r="D111" t="n">
-        <v>5465</v>
+        <v>3538</v>
       </c>
       <c r="E111" t="n">
-        <v>1716.713876475349</v>
+        <v>2561.705402476645</v>
       </c>
       <c r="F111" t="n">
-        <v>218.3</v>
+        <v>38.1</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -6194,182 +6194,182 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>2024-05-07</t>
+          <t>2024-08-19</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>28538000000</v>
+        <v>78579000000</v>
       </c>
       <c r="J111" t="n">
-        <v>485513000000</v>
+        <v>2398000000</v>
       </c>
       <c r="K111" t="n">
-        <v>49954000000</v>
+        <v>1000000000</v>
       </c>
       <c r="L111" t="n">
-        <v>385687000000</v>
+        <v>186128000000</v>
       </c>
       <c r="M111" t="n">
-        <v>564005000000</v>
+        <v>81977000000</v>
       </c>
       <c r="N111" t="n">
-        <v>1388777145340</v>
+        <v>647362744366</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>日鉄ソリューションズ株式会社</t>
+          <t>月島ホールディングス株式会社</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2327</t>
+          <t>6332</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>12.7</v>
+        <v>66.7</v>
       </c>
       <c r="D112" t="n">
-        <v>3538</v>
+        <v>2969</v>
       </c>
       <c r="E112" t="n">
-        <v>2561.705402476645</v>
+        <v>1410</v>
       </c>
       <c r="F112" t="n">
-        <v>38.1</v>
+        <v>110.6</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>78579000000</v>
+        <v>33870000000</v>
       </c>
       <c r="J112" t="n">
-        <v>2398000000</v>
+        <v>23318000000</v>
       </c>
       <c r="K112" t="n">
-        <v>1000000000</v>
+        <v>25387000000</v>
       </c>
       <c r="L112" t="n">
-        <v>186128000000</v>
+        <v>71784000000</v>
       </c>
       <c r="M112" t="n">
-        <v>81977000000</v>
+        <v>82575000000</v>
       </c>
       <c r="N112" t="n">
-        <v>647362744366</v>
+        <v>123849593405</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>月島ホールディングス株式会社</t>
+          <t>株式会社ゴールドクレスト</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>6332</t>
+          <t>8871</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>66.7</v>
+        <v>71.2</v>
       </c>
       <c r="D113" t="n">
-        <v>2969</v>
+        <v>3430</v>
       </c>
       <c r="E113" t="n">
-        <v>1410</v>
+        <v>1789.870000553189</v>
       </c>
       <c r="F113" t="n">
-        <v>110.6</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2023-08-01</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>33870000000</v>
+        <v>69004000000</v>
       </c>
       <c r="J113" t="n">
-        <v>23318000000</v>
+        <v>12099000000</v>
       </c>
       <c r="K113" t="n">
-        <v>25387000000</v>
+        <v>23000000</v>
       </c>
       <c r="L113" t="n">
-        <v>71784000000</v>
+        <v>122540000000</v>
       </c>
       <c r="M113" t="n">
-        <v>82575000000</v>
+        <v>81126000000</v>
       </c>
       <c r="N113" t="n">
-        <v>123849593405</v>
+        <v>113996262660</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>株式会社ゴールドクレスト</t>
+          <t>ブロードメディア株式会社</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>8871</t>
+          <t>4347</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>71.2</v>
+        <v>34.8</v>
       </c>
       <c r="D114" t="n">
-        <v>3430</v>
+        <v>1758</v>
       </c>
       <c r="E114" t="n">
-        <v>1789.870000553189</v>
+        <v>1529.631984751819</v>
       </c>
       <c r="F114" t="n">
-        <v>91.59999999999999</v>
+        <v>14.9</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>2023-08-01</t>
+          <t>2024-07-03</t>
         </is>
       </c>
       <c r="I114" t="n">
-        <v>69004000000</v>
+        <v>3368262000</v>
       </c>
       <c r="J114" t="n">
-        <v>12099000000</v>
+        <v>826293000</v>
       </c>
       <c r="K114" t="n">
-        <v>23000000</v>
+        <v>164267000</v>
       </c>
       <c r="L114" t="n">
-        <v>122540000000</v>
+        <v>3706507000</v>
       </c>
       <c r="M114" t="n">
-        <v>81126000000</v>
+        <v>4358822000</v>
       </c>
       <c r="N114" t="n">
-        <v>113996262660</v>
+        <v>12526187742</v>
       </c>
     </row>
     <row r="115">
@@ -6390,10 +6390,10 @@
         <v>1758</v>
       </c>
       <c r="E115" t="n">
-        <v>1529.631984751819</v>
+        <v>1449.995380693296</v>
       </c>
       <c r="F115" t="n">
-        <v>14.9</v>
+        <v>21.2</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>2024-07-03</t>
+          <t>2024-05-22</t>
         </is>
       </c>
       <c r="I115" t="n">
@@ -6427,129 +6427,129 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ブロードメディア株式会社</t>
+          <t>株式会社イエローハット</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>4347</t>
+          <t>9882</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>34.8</v>
+        <v>33.4</v>
       </c>
       <c r="D116" t="n">
-        <v>1758</v>
+        <v>1735</v>
       </c>
       <c r="E116" t="n">
-        <v>1449.995380693296</v>
+        <v>2112.609181636727</v>
       </c>
       <c r="F116" t="n">
-        <v>21.2</v>
+        <v>-17.9</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>2024-05-22</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>3368262000</v>
+        <v>14029000000</v>
       </c>
       <c r="J116" t="n">
-        <v>826293000</v>
+        <v>27205000000</v>
       </c>
       <c r="K116" t="n">
-        <v>164267000</v>
+        <v>9801000000</v>
       </c>
       <c r="L116" t="n">
-        <v>3706507000</v>
+        <v>91386000000</v>
       </c>
       <c r="M116" t="n">
-        <v>4358822000</v>
+        <v>51035000000</v>
       </c>
       <c r="N116" t="n">
-        <v>12526187742</v>
+        <v>152721456090</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>株式会社イエローハット</t>
+          <t>太陽ホールディングス株式会社</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>9882</t>
+          <t>4626</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>33.7</v>
+        <v>19.9</v>
       </c>
       <c r="D117" t="n">
-        <v>1735</v>
+        <v>8100</v>
       </c>
       <c r="E117" t="n">
-        <v>2112.609181636727</v>
+        <v>3565.648720929983</v>
       </c>
       <c r="F117" t="n">
-        <v>-17.9</v>
+        <v>127.2</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>14029000000</v>
+        <v>54309000000</v>
       </c>
       <c r="J117" t="n">
-        <v>27205000000</v>
+        <v>30690000000</v>
       </c>
       <c r="K117" t="n">
-        <v>9801000000</v>
+        <v>4437000000</v>
       </c>
       <c r="L117" t="n">
-        <v>91386000000</v>
+        <v>76497000000</v>
       </c>
       <c r="M117" t="n">
-        <v>51035000000</v>
+        <v>89436000000</v>
       </c>
       <c r="N117" t="n">
-        <v>151296649800</v>
+        <v>450128007900</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>太陽ホールディングス株式会社</t>
+          <t>株式会社ツルハホールディングス</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>4626</t>
+          <t>3391</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>19.9</v>
+        <v>39.9</v>
       </c>
       <c r="D118" t="n">
-        <v>8100</v>
+        <v>2407.5</v>
       </c>
       <c r="E118" t="n">
-        <v>3565.648720929983</v>
+        <v>4544.200649553184</v>
       </c>
       <c r="F118" t="n">
-        <v>127.2</v>
+        <v>-47</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6558,26 +6558,26 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2023-05-08</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>54309000000</v>
+        <v>116398000000</v>
       </c>
       <c r="J118" t="n">
-        <v>30690000000</v>
+        <v>83437000000</v>
       </c>
       <c r="K118" t="n">
-        <v>4437000000</v>
+        <v>34181000000</v>
       </c>
       <c r="L118" t="n">
-        <v>76497000000</v>
+        <v>276528000000</v>
       </c>
       <c r="M118" t="n">
-        <v>89436000000</v>
+        <v>234016000000</v>
       </c>
       <c r="N118" t="n">
-        <v>450128007900</v>
+        <v>586267333988</v>
       </c>
     </row>
     <row r="119">
@@ -6598,10 +6598,10 @@
         <v>2407.5</v>
       </c>
       <c r="E119" t="n">
-        <v>4544.200649553184</v>
+        <v>8262.359904024779</v>
       </c>
       <c r="F119" t="n">
-        <v>-47</v>
+        <v>-70.90000000000001</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6610,7 +6610,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>2023-05-08</t>
+          <t>2022-12-19</t>
         </is>
       </c>
       <c r="I119" t="n">
@@ -6635,233 +6635,233 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>株式会社ツルハホールディングス</t>
+          <t>ホシデン株式会社</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>3391</t>
+          <t>6804</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>39.9</v>
+        <v>74.5</v>
       </c>
       <c r="D120" t="n">
-        <v>2407.5</v>
+        <v>2403</v>
       </c>
       <c r="E120" t="n">
-        <v>8262.359904024779</v>
+        <v>1303.446424801713</v>
       </c>
       <c r="F120" t="n">
-        <v>-70.90000000000001</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>2022-12-19</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>116398000000</v>
+        <v>69522000000</v>
       </c>
       <c r="J120" t="n">
-        <v>83437000000</v>
+        <v>6944000000</v>
       </c>
       <c r="K120" t="n">
-        <v>34181000000</v>
+        <v>14624000000</v>
       </c>
       <c r="L120" t="n">
-        <v>276528000000</v>
+        <v>109250000000</v>
       </c>
       <c r="M120" t="n">
-        <v>234016000000</v>
+        <v>91090000000</v>
       </c>
       <c r="N120" t="n">
-        <v>586267333988</v>
+        <v>122283344952</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>ホシデン株式会社</t>
+          <t>ジェイドグループ株式会社</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>6804</t>
+          <t>3558</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>74.5</v>
+        <v>22.1</v>
       </c>
       <c r="D121" t="n">
-        <v>2403</v>
+        <v>1421</v>
       </c>
       <c r="E121" t="n">
-        <v>1303.446424801713</v>
+        <v>1267.324164058639</v>
       </c>
       <c r="F121" t="n">
-        <v>84.40000000000001</v>
+        <v>12.1</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>2023-02-13</t>
+          <t>2023-03-22</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>69522000000</v>
+        <v>2776277000</v>
       </c>
       <c r="J121" t="n">
-        <v>6944000000</v>
+        <v>280430000</v>
       </c>
       <c r="K121" t="n">
-        <v>14624000000</v>
+        <v>23536000</v>
       </c>
       <c r="L121" t="n">
-        <v>109250000000</v>
+        <v>4370371000</v>
       </c>
       <c r="M121" t="n">
-        <v>91090000000</v>
+        <v>3080243000</v>
       </c>
       <c r="N121" t="n">
-        <v>122283344952</v>
+        <v>13907650988</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>ジェイドグループ株式会社</t>
+          <t>新光商事株式会社</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>3558</t>
+          <t>8141</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>22.1</v>
+        <v>58.6</v>
       </c>
       <c r="D122" t="n">
-        <v>1421</v>
+        <v>976</v>
       </c>
       <c r="E122" t="n">
-        <v>1267.324164058639</v>
+        <v>930</v>
       </c>
       <c r="F122" t="n">
-        <v>12.1</v>
+        <v>4.9</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>2023-03-22</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="I122" t="n">
-        <v>2776277000</v>
+        <v>17596000000</v>
       </c>
       <c r="J122" t="n">
-        <v>280430000</v>
+        <v>174000000</v>
       </c>
       <c r="K122" t="n">
-        <v>23536000</v>
+        <v>2995000000</v>
       </c>
       <c r="L122" t="n">
-        <v>4370371000</v>
+        <v>50340000000</v>
       </c>
       <c r="M122" t="n">
-        <v>3080243000</v>
+        <v>20765000000</v>
       </c>
       <c r="N122" t="n">
-        <v>13907650988</v>
+        <v>35439163168</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>新光商事株式会社</t>
+          <t>カシオ計算機株式会社</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>8141</t>
+          <t>6952</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>58.6</v>
+        <v>69</v>
       </c>
       <c r="D123" t="n">
-        <v>976</v>
+        <v>1243</v>
       </c>
       <c r="E123" t="n">
-        <v>930</v>
+        <v>1188.162962482466</v>
       </c>
       <c r="F123" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="I123" t="n">
-        <v>17596000000</v>
+        <v>137053000000</v>
       </c>
       <c r="J123" t="n">
-        <v>174000000</v>
+        <v>12759000000</v>
       </c>
       <c r="K123" t="n">
-        <v>2995000000</v>
+        <v>45698000000</v>
       </c>
       <c r="L123" t="n">
-        <v>50340000000</v>
+        <v>211895000000</v>
       </c>
       <c r="M123" t="n">
-        <v>20765000000</v>
+        <v>195510000000</v>
       </c>
       <c r="N123" t="n">
-        <v>35439163168</v>
+        <v>283461646611</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>カシオ計算機株式会社</t>
+          <t>花王株式会社</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>6952</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>69</v>
+        <v>6.7</v>
       </c>
       <c r="D124" t="n">
-        <v>1243</v>
+        <v>6518</v>
       </c>
       <c r="E124" t="n">
-        <v>1188.162962482466</v>
+        <v>6116.356643776557</v>
       </c>
       <c r="F124" t="n">
-        <v>4.6</v>
+        <v>6.6</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6870,77 +6870,25 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="I124" t="n">
-        <v>137053000000</v>
+        <v>118328000000</v>
       </c>
       <c r="J124" t="n">
-        <v>12759000000</v>
+        <v>63976000000</v>
       </c>
       <c r="K124" t="n">
-        <v>45698000000</v>
+        <v>19009000000</v>
       </c>
       <c r="L124" t="n">
-        <v>211895000000</v>
+        <v>805867000000</v>
       </c>
       <c r="M124" t="n">
-        <v>195510000000</v>
+        <v>201313000000</v>
       </c>
       <c r="N124" t="n">
-        <v>283461646611</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>花王株式会社</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>4452</t>
-        </is>
-      </c>
-      <c r="C125" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="D125" t="n">
-        <v>6518</v>
-      </c>
-      <c r="E125" t="n">
-        <v>6116.356643776557</v>
-      </c>
-      <c r="F125" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2024-12-05</t>
-        </is>
-      </c>
-      <c r="I125" t="n">
-        <v>118328000000</v>
-      </c>
-      <c r="J125" t="n">
-        <v>63976000000</v>
-      </c>
-      <c r="K125" t="n">
-        <v>19009000000</v>
-      </c>
-      <c r="L125" t="n">
-        <v>805867000000</v>
-      </c>
-      <c r="M125" t="n">
-        <v>201313000000</v>
-      </c>
-      <c r="N125" t="n">
         <v>3012819565722</v>
       </c>
     </row>

--- a/docs/アクティビスト銘柄_資産判定.xlsx
+++ b/docs/アクティビスト銘柄_資産判定.xlsx
@@ -517,10 +517,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>38.9</v>
+        <v>39.5</v>
       </c>
       <c r="D2" t="n">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>35403000000</v>
       </c>
       <c r="N2" t="n">
-        <v>91126974051</v>
+        <v>89605886472</v>
       </c>
     </row>
     <row r="3">
@@ -565,10 +565,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>38.9</v>
+        <v>39.5</v>
       </c>
       <c r="D3" t="n">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
@@ -598,7 +598,7 @@
         <v>35403000000</v>
       </c>
       <c r="N3" t="n">
-        <v>91126974051</v>
+        <v>89605886472</v>
       </c>
     </row>
     <row r="4">
@@ -613,16 +613,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>42.7</v>
+        <v>43</v>
       </c>
       <c r="D4" t="n">
-        <v>3460</v>
+        <v>3431</v>
       </c>
       <c r="E4" t="n">
         <v>1598.889989734285</v>
       </c>
       <c r="F4" t="n">
-        <v>116.4</v>
+        <v>114.6</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -650,7 +650,7 @@
         <v>178465000000</v>
       </c>
       <c r="N4" t="n">
-        <v>418263525520</v>
+        <v>414757848572</v>
       </c>
     </row>
     <row r="5">
@@ -665,16 +665,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="D5" t="n">
-        <v>1041</v>
+        <v>1030</v>
       </c>
       <c r="E5" t="n">
         <v>653.0713101160862</v>
       </c>
       <c r="F5" t="n">
-        <v>59.4</v>
+        <v>57.7</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
         <v>1810139000</v>
       </c>
       <c r="N5" t="n">
-        <v>25032107733</v>
+        <v>24767599390</v>
       </c>
     </row>
     <row r="6">
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>89.90000000000001</v>
+        <v>90.3</v>
       </c>
       <c r="D6" t="n">
-        <v>2200</v>
+        <v>2191</v>
       </c>
       <c r="E6" t="n">
         <v>2122.579027791042</v>
       </c>
       <c r="F6" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>74819000000</v>
       </c>
       <c r="N6" t="n">
-        <v>83213446800</v>
+        <v>82873028154</v>
       </c>
     </row>
     <row r="7">
@@ -769,16 +769,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>44.8</v>
+        <v>46</v>
       </c>
       <c r="D7" t="n">
-        <v>2279.5</v>
+        <v>2220</v>
       </c>
       <c r="E7" t="n">
         <v>2032.365850102071</v>
       </c>
       <c r="F7" t="n">
-        <v>12.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>323730000000</v>
       </c>
       <c r="N7" t="n">
-        <v>722789011670</v>
+        <v>703922617200</v>
       </c>
     </row>
     <row r="8">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>34.4</v>
+        <v>34.6</v>
       </c>
       <c r="D8" t="n">
-        <v>2234</v>
+        <v>2222</v>
       </c>
       <c r="E8" t="n">
         <v>2040</v>
       </c>
       <c r="F8" t="n">
-        <v>9.5</v>
+        <v>8.9</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>34682000000</v>
       </c>
       <c r="N8" t="n">
-        <v>100836553948</v>
+        <v>100294907284</v>
       </c>
     </row>
     <row r="9">
@@ -873,16 +873,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>81.90000000000001</v>
+        <v>83.3</v>
       </c>
       <c r="D9" t="n">
-        <v>7120</v>
+        <v>7000</v>
       </c>
       <c r="E9" t="n">
         <v>4549.503641591014</v>
       </c>
       <c r="F9" t="n">
-        <v>56.5</v>
+        <v>53.9</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
         <v>96906000000</v>
       </c>
       <c r="N9" t="n">
-        <v>118258265840</v>
+        <v>116265149000</v>
       </c>
     </row>
     <row r="10">
@@ -925,16 +925,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>66.5</v>
+        <v>68.3</v>
       </c>
       <c r="D10" t="n">
-        <v>1942</v>
+        <v>1891</v>
       </c>
       <c r="E10" t="n">
         <v>1257.709264012363</v>
       </c>
       <c r="F10" t="n">
-        <v>54.4</v>
+        <v>50.4</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>261172000000</v>
       </c>
       <c r="N10" t="n">
-        <v>392973200264</v>
+        <v>382653100772</v>
       </c>
     </row>
     <row r="11">
@@ -977,16 +977,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>66.5</v>
+        <v>68.3</v>
       </c>
       <c r="D11" t="n">
-        <v>1942</v>
+        <v>1891</v>
       </c>
       <c r="E11" t="n">
         <v>1217.254500469243</v>
       </c>
       <c r="F11" t="n">
-        <v>59.5</v>
+        <v>55.3</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>261172000000</v>
       </c>
       <c r="N11" t="n">
-        <v>392973200264</v>
+        <v>382653100772</v>
       </c>
     </row>
     <row r="12">
@@ -1029,16 +1029,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>99.90000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="D12" t="n">
-        <v>1464</v>
+        <v>1473</v>
       </c>
       <c r="E12" t="n">
         <v>1212.640316205534</v>
       </c>
       <c r="F12" t="n">
-        <v>20.7</v>
+        <v>21.5</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>13446000000</v>
       </c>
       <c r="N12" t="n">
-        <v>13455107208</v>
+        <v>13537823031</v>
       </c>
     </row>
     <row r="13">
@@ -1081,16 +1081,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>26.7</v>
+        <v>27.6</v>
       </c>
       <c r="D13" t="n">
-        <v>5450</v>
+        <v>5260</v>
       </c>
       <c r="E13" t="n">
         <v>2617.980935875217</v>
       </c>
       <c r="F13" t="n">
-        <v>108.2</v>
+        <v>100.9</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>53152000000</v>
       </c>
       <c r="N13" t="n">
-        <v>199217229000</v>
+        <v>192272041200</v>
       </c>
     </row>
     <row r="14">
@@ -1133,16 +1133,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>39.3</v>
+        <v>39.4</v>
       </c>
       <c r="D14" t="n">
-        <v>2344</v>
+        <v>2339</v>
       </c>
       <c r="E14" t="n">
         <v>1710</v>
       </c>
       <c r="F14" t="n">
-        <v>37.1</v>
+        <v>36.8</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>15543000000</v>
       </c>
       <c r="N14" t="n">
-        <v>39548394608</v>
+        <v>39464033698</v>
       </c>
     </row>
     <row r="15">
@@ -1185,16 +1185,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>39.3</v>
+        <v>39.4</v>
       </c>
       <c r="D15" t="n">
-        <v>2344</v>
+        <v>2339</v>
       </c>
       <c r="E15" t="n">
         <v>1710</v>
       </c>
       <c r="F15" t="n">
-        <v>37.1</v>
+        <v>36.8</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         <v>15543000000</v>
       </c>
       <c r="N15" t="n">
-        <v>39548394608</v>
+        <v>39464033698</v>
       </c>
     </row>
     <row r="16">
@@ -1237,16 +1237,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>79.3</v>
+        <v>78.3</v>
       </c>
       <c r="D16" t="n">
-        <v>1678</v>
+        <v>1699.5</v>
       </c>
       <c r="E16" t="n">
         <v>1101.400153022188</v>
       </c>
       <c r="F16" t="n">
-        <v>52.4</v>
+        <v>54.3</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1274,7 +1274,7 @@
         <v>398395000000</v>
       </c>
       <c r="N16" t="n">
-        <v>502275407756</v>
+        <v>508710998499</v>
       </c>
     </row>
     <row r="17">
@@ -1289,16 +1289,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>25.4</v>
+        <v>25.8</v>
       </c>
       <c r="D17" t="n">
-        <v>5390</v>
+        <v>5321</v>
       </c>
       <c r="E17" t="n">
         <v>3322.047887165483</v>
       </c>
       <c r="F17" t="n">
-        <v>62.2</v>
+        <v>60.2</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         <v>476359000000</v>
       </c>
       <c r="N17" t="n">
-        <v>1872517272780</v>
+        <v>1848546272442</v>
       </c>
     </row>
     <row r="18">
@@ -1341,16 +1341,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>76.59999999999999</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>2388</v>
+        <v>2364</v>
       </c>
       <c r="E18" t="n">
         <v>3610</v>
       </c>
       <c r="F18" t="n">
-        <v>-33.9</v>
+        <v>-34.5</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>122147000000</v>
       </c>
       <c r="N18" t="n">
-        <v>159462148272</v>
+        <v>157859513616</v>
       </c>
     </row>
     <row r="19">
@@ -1393,16 +1393,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>19.9</v>
+        <v>20.3</v>
       </c>
       <c r="D19" t="n">
-        <v>2216.5</v>
+        <v>2173</v>
       </c>
       <c r="E19" t="n">
         <v>2269.918722577861</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.4</v>
+        <v>-4.3</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>90811000000</v>
       </c>
       <c r="N19" t="n">
-        <v>455957897324</v>
+        <v>447009479307</v>
       </c>
     </row>
     <row r="20">
@@ -1445,16 +1445,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>54.2</v>
+        <v>56.7</v>
       </c>
       <c r="D20" t="n">
-        <v>2845</v>
+        <v>2717</v>
       </c>
       <c r="E20" t="n">
         <v>3155.301177013616</v>
       </c>
       <c r="F20" t="n">
-        <v>-9.800000000000001</v>
+        <v>-13.9</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>98642000000</v>
       </c>
       <c r="N20" t="n">
-        <v>182092279020</v>
+        <v>173899726572</v>
       </c>
     </row>
     <row r="21">
@@ -1497,16 +1497,16 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>46</v>
+        <v>45.6</v>
       </c>
       <c r="D21" t="n">
-        <v>3480</v>
+        <v>3505</v>
       </c>
       <c r="E21" t="n">
         <v>1752.426893379333</v>
       </c>
       <c r="F21" t="n">
-        <v>98.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>77563221000</v>
       </c>
       <c r="N21" t="n">
-        <v>168727104000</v>
+        <v>169939224000</v>
       </c>
     </row>
     <row r="22">
@@ -1549,16 +1549,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>46</v>
+        <v>45.6</v>
       </c>
       <c r="D22" t="n">
-        <v>3480</v>
+        <v>3505</v>
       </c>
       <c r="E22" t="n">
         <v>1576.721867844292</v>
       </c>
       <c r="F22" t="n">
-        <v>120.7</v>
+        <v>122.3</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>77563221000</v>
       </c>
       <c r="N22" t="n">
-        <v>168727104000</v>
+        <v>169939224000</v>
       </c>
     </row>
     <row r="23">
@@ -1601,16 +1601,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>55.5</v>
+        <v>56</v>
       </c>
       <c r="D23" t="n">
-        <v>4050</v>
+        <v>4015</v>
       </c>
       <c r="E23" t="n">
         <v>2387</v>
       </c>
       <c r="F23" t="n">
-        <v>69.7</v>
+        <v>68.2</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         <v>105205000000</v>
       </c>
       <c r="N23" t="n">
-        <v>189623134350</v>
+        <v>187984415905</v>
       </c>
     </row>
     <row r="24">
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>74</v>
+        <v>75.3</v>
       </c>
       <c r="D24" t="n">
-        <v>2063</v>
+        <v>2029</v>
       </c>
       <c r="E24" t="n">
         <v>1270</v>
       </c>
       <c r="F24" t="n">
-        <v>62.4</v>
+        <v>59.8</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>26544000000</v>
       </c>
       <c r="N24" t="n">
-        <v>35856712117</v>
+        <v>35265762911</v>
       </c>
     </row>
     <row r="25">
@@ -1705,16 +1705,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>74</v>
+        <v>75.3</v>
       </c>
       <c r="D25" t="n">
-        <v>2063</v>
+        <v>2029</v>
       </c>
       <c r="E25" t="n">
         <v>1170</v>
       </c>
       <c r="F25" t="n">
-        <v>76.3</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>26544000000</v>
       </c>
       <c r="N25" t="n">
-        <v>35856712117</v>
+        <v>35265762911</v>
       </c>
     </row>
     <row r="26">
@@ -1757,16 +1757,16 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>33.4</v>
+        <v>34.1</v>
       </c>
       <c r="D26" t="n">
-        <v>4255</v>
+        <v>4175</v>
       </c>
       <c r="E26" t="n">
         <v>1492.806001579363</v>
       </c>
       <c r="F26" t="n">
-        <v>185</v>
+        <v>179.7</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>106485000000</v>
       </c>
       <c r="N26" t="n">
-        <v>318463598545</v>
+        <v>312476033825</v>
       </c>
     </row>
     <row r="27">
@@ -1809,16 +1809,16 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>23.7</v>
+        <v>24.2</v>
       </c>
       <c r="D27" t="n">
-        <v>2950</v>
+        <v>2885.5</v>
       </c>
       <c r="E27" t="n">
         <v>2919.137515755844</v>
       </c>
       <c r="F27" t="n">
-        <v>1.1</v>
+        <v>-1.2</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>89135000000</v>
       </c>
       <c r="N27" t="n">
-        <v>376169789850</v>
+        <v>367945060546</v>
       </c>
     </row>
     <row r="28">
@@ -1861,16 +1861,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>89.59999999999999</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>2957</v>
+        <v>2908</v>
       </c>
       <c r="E28" t="n">
         <v>1600</v>
       </c>
       <c r="F28" t="n">
-        <v>84.8</v>
+        <v>81.8</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         <v>88496000000</v>
       </c>
       <c r="N28" t="n">
-        <v>98814069000</v>
+        <v>97176636000</v>
       </c>
     </row>
     <row r="29">
@@ -1913,16 +1913,16 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>47.4</v>
+        <v>48.7</v>
       </c>
       <c r="D29" t="n">
-        <v>835.9000244140625</v>
+        <v>814.0999755859375</v>
       </c>
       <c r="E29" t="n">
         <v>590</v>
       </c>
       <c r="F29" t="n">
-        <v>41.7</v>
+        <v>38</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>362887000000</v>
       </c>
       <c r="N29" t="n">
-        <v>764788681928</v>
+        <v>744843197872</v>
       </c>
     </row>
     <row r="30">
@@ -1965,16 +1965,16 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>39.1</v>
+        <v>40.2</v>
       </c>
       <c r="D30" t="n">
-        <v>3095</v>
+        <v>3005</v>
       </c>
       <c r="E30" t="n">
         <v>2560</v>
       </c>
       <c r="F30" t="n">
-        <v>20.9</v>
+        <v>17.4</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>180306000000</v>
       </c>
       <c r="N30" t="n">
-        <v>461702715960</v>
+        <v>448276788840</v>
       </c>
     </row>
     <row r="31">
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>45.5</v>
+        <v>45.6</v>
       </c>
       <c r="D31" t="n">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E31" t="n">
         <v>933.1435874692879</v>
       </c>
       <c r="F31" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>4653173000</v>
       </c>
       <c r="N31" t="n">
-        <v>10215876164</v>
+        <v>10194163356</v>
       </c>
     </row>
     <row r="32">
@@ -2069,16 +2069,16 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>57.2</v>
+        <v>58.3</v>
       </c>
       <c r="D32" t="n">
-        <v>5180</v>
+        <v>5080</v>
       </c>
       <c r="E32" t="n">
         <v>4265.455132343447</v>
       </c>
       <c r="F32" t="n">
-        <v>21.4</v>
+        <v>19.1</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>14129000000</v>
       </c>
       <c r="N32" t="n">
-        <v>24694546660</v>
+        <v>24217817960</v>
       </c>
     </row>
     <row r="33">
@@ -2121,16 +2121,16 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>66.5</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>2796.5</v>
+        <v>2718.5</v>
       </c>
       <c r="E33" t="n">
         <v>2939.562915943684</v>
       </c>
       <c r="F33" t="n">
-        <v>-4.9</v>
+        <v>-7.5</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>101054000000</v>
       </c>
       <c r="N33" t="n">
-        <v>151953599476</v>
+        <v>147715308484</v>
       </c>
     </row>
     <row r="34">
@@ -2173,16 +2173,16 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>46.2</v>
+        <v>46.5</v>
       </c>
       <c r="D34" t="n">
-        <v>2278</v>
+        <v>2267.5</v>
       </c>
       <c r="E34" t="n">
         <v>2006.059650428343</v>
       </c>
       <c r="F34" t="n">
-        <v>13.6</v>
+        <v>13</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>173440000000</v>
       </c>
       <c r="N34" t="n">
-        <v>375009852258</v>
+        <v>373281316942</v>
       </c>
     </row>
     <row r="35">
@@ -2228,16 +2228,16 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>57.3</v>
+        <v>57.9</v>
       </c>
       <c r="D35" t="n">
-        <v>4820</v>
+        <v>4770</v>
       </c>
       <c r="E35" t="n">
         <v>3573.410502159827</v>
       </c>
       <c r="F35" t="n">
-        <v>34.9</v>
+        <v>33.5</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>75825000000</v>
       </c>
       <c r="N35" t="n">
-        <v>132362984000</v>
+        <v>130989924000</v>
       </c>
     </row>
     <row r="36">
@@ -2280,16 +2280,16 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>244.6</v>
+        <v>247.7</v>
       </c>
       <c r="D36" t="n">
-        <v>1025</v>
+        <v>1012</v>
       </c>
       <c r="E36" t="n">
         <v>798.3805136422309</v>
       </c>
       <c r="F36" t="n">
-        <v>28.4</v>
+        <v>26.8</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>429249000000</v>
       </c>
       <c r="N36" t="n">
-        <v>175491552775</v>
+        <v>173265806252</v>
       </c>
     </row>
     <row r="37">
@@ -2332,16 +2332,16 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>23.9</v>
+        <v>24.4</v>
       </c>
       <c r="D37" t="n">
-        <v>2478</v>
+        <v>2435</v>
       </c>
       <c r="E37" t="n">
         <v>1678.083113259255</v>
       </c>
       <c r="F37" t="n">
-        <v>47.7</v>
+        <v>45.1</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>19554000000</v>
       </c>
       <c r="N37" t="n">
-        <v>81705034782</v>
+        <v>80287231515</v>
       </c>
     </row>
     <row r="38">
@@ -2384,16 +2384,16 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>83.09999999999999</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>1136</v>
+        <v>1193</v>
       </c>
       <c r="E38" t="n">
         <v>668.9358717434869</v>
       </c>
       <c r="F38" t="n">
-        <v>69.8</v>
+        <v>78.3</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         <v>15118000000</v>
       </c>
       <c r="N38" t="n">
-        <v>18195335856</v>
+        <v>19108306053</v>
       </c>
     </row>
     <row r="39">
@@ -2436,16 +2436,16 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>10.6</v>
+        <v>11.1</v>
       </c>
       <c r="D39" t="n">
-        <v>3299</v>
+        <v>3163</v>
       </c>
       <c r="E39" t="n">
         <v>4156.179843576074</v>
       </c>
       <c r="F39" t="n">
-        <v>-20.6</v>
+        <v>-23.9</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>90923000000</v>
       </c>
       <c r="N39" t="n">
-        <v>856378915075</v>
+        <v>821075025275</v>
       </c>
     </row>
     <row r="40">
@@ -2488,16 +2488,16 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>245.5</v>
+        <v>238.3</v>
       </c>
       <c r="D40" t="n">
-        <v>1356</v>
+        <v>1397</v>
       </c>
       <c r="E40" t="n">
         <v>2920</v>
       </c>
       <c r="F40" t="n">
-        <v>-53.6</v>
+        <v>-52.2</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>26036000000</v>
       </c>
       <c r="N40" t="n">
-        <v>10607056428</v>
+        <v>10927771261</v>
       </c>
     </row>
     <row r="41">
@@ -2540,16 +2540,16 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>33.5</v>
+        <v>34.3</v>
       </c>
       <c r="D41" t="n">
-        <v>1352</v>
+        <v>1319</v>
       </c>
       <c r="E41" t="n">
         <v>3234.727863989046</v>
       </c>
       <c r="F41" t="n">
-        <v>-58.2</v>
+        <v>-59.2</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>65478000000</v>
       </c>
       <c r="N41" t="n">
-        <v>195480562680</v>
+        <v>190709217585</v>
       </c>
     </row>
     <row r="42">
@@ -2592,16 +2592,16 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>53.6</v>
+        <v>53.4</v>
       </c>
       <c r="D42" t="n">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="E42" t="n">
         <v>656.2604975855553</v>
       </c>
       <c r="F42" t="n">
-        <v>22.7</v>
+        <v>23.1</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>31865000000</v>
       </c>
       <c r="N42" t="n">
-        <v>59469719540</v>
+        <v>59691345824</v>
       </c>
     </row>
     <row r="43">
@@ -2644,16 +2644,16 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>79.90000000000001</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>10400</v>
+        <v>10000</v>
       </c>
       <c r="E43" t="n">
         <v>7040.15625</v>
       </c>
       <c r="F43" t="n">
-        <v>47.7</v>
+        <v>42</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>8781313000</v>
       </c>
       <c r="N43" t="n">
-        <v>10990605600</v>
+        <v>10567890000</v>
       </c>
     </row>
     <row r="44">
@@ -2696,16 +2696,16 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>79.90000000000001</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>10400</v>
+        <v>10000</v>
       </c>
       <c r="E44" t="n">
         <v>7040.15625</v>
       </c>
       <c r="F44" t="n">
-        <v>47.7</v>
+        <v>42</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>8781313000</v>
       </c>
       <c r="N44" t="n">
-        <v>10990605600</v>
+        <v>10567890000</v>
       </c>
     </row>
     <row r="45">
@@ -2748,16 +2748,16 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>39.7</v>
+        <v>40.5</v>
       </c>
       <c r="D45" t="n">
-        <v>3212</v>
+        <v>3147</v>
       </c>
       <c r="E45" t="n">
         <v>6272.971195510064</v>
       </c>
       <c r="F45" t="n">
-        <v>-48.8</v>
+        <v>-49.8</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         <v>153254000000</v>
       </c>
       <c r="N45" t="n">
-        <v>385905884540</v>
+        <v>378096456615</v>
       </c>
     </row>
     <row r="46">
@@ -2800,16 +2800,16 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>67.5</v>
+        <v>68.5</v>
       </c>
       <c r="D46" t="n">
-        <v>3715</v>
+        <v>3664</v>
       </c>
       <c r="E46" t="n">
         <v>2566.284807227078</v>
       </c>
       <c r="F46" t="n">
-        <v>44.8</v>
+        <v>42.8</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>237487000000</v>
       </c>
       <c r="N46" t="n">
-        <v>351739744110</v>
+        <v>346911015456</v>
       </c>
     </row>
     <row r="47">
@@ -2852,16 +2852,16 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>69.3</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>5826</v>
+        <v>5844</v>
       </c>
       <c r="E47" t="n">
         <v>4137.137750115735</v>
       </c>
       <c r="F47" t="n">
-        <v>40.8</v>
+        <v>41.3</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>284031000000</v>
       </c>
       <c r="N47" t="n">
-        <v>409630307154</v>
+        <v>410895900276</v>
       </c>
     </row>
     <row r="48">
@@ -2904,16 +2904,16 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>109</v>
+        <v>110.8</v>
       </c>
       <c r="D48" t="n">
-        <v>1965</v>
+        <v>1933</v>
       </c>
       <c r="E48" t="n">
         <v>1469.167707232735</v>
       </c>
       <c r="F48" t="n">
-        <v>33.7</v>
+        <v>31.6</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>133437000000</v>
       </c>
       <c r="N48" t="n">
-        <v>122417142000</v>
+        <v>120423580400</v>
       </c>
     </row>
     <row r="49">
@@ -2956,16 +2956,16 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>109</v>
+        <v>110.8</v>
       </c>
       <c r="D49" t="n">
-        <v>1965</v>
+        <v>1933</v>
       </c>
       <c r="E49" t="n">
         <v>1489.94784546053</v>
       </c>
       <c r="F49" t="n">
-        <v>31.9</v>
+        <v>29.7</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>133437000000</v>
       </c>
       <c r="N49" t="n">
-        <v>122417142000</v>
+        <v>120423580400</v>
       </c>
     </row>
     <row r="50">
@@ -3008,16 +3008,16 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>124.6</v>
+        <v>126.7</v>
       </c>
       <c r="D50" t="n">
-        <v>1090</v>
+        <v>1072</v>
       </c>
       <c r="E50" t="n">
         <v>438.851170934559</v>
       </c>
       <c r="F50" t="n">
-        <v>148.4</v>
+        <v>144.3</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>79323000000</v>
       </c>
       <c r="N50" t="n">
-        <v>63674151770</v>
+        <v>62622652016</v>
       </c>
     </row>
     <row r="51">
@@ -3060,16 +3060,16 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>55.3</v>
+        <v>56.3</v>
       </c>
       <c r="D51" t="n">
-        <v>3555</v>
+        <v>3490</v>
       </c>
       <c r="E51" t="n">
         <v>2420</v>
       </c>
       <c r="F51" t="n">
-        <v>46.9</v>
+        <v>44.2</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
         <v>414670000000</v>
       </c>
       <c r="N51" t="n">
-        <v>749740779585</v>
+        <v>736032439030</v>
       </c>
     </row>
     <row r="52">
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>109.4</v>
+        <v>113.3</v>
       </c>
       <c r="D52" t="n">
-        <v>3223</v>
+        <v>3114</v>
       </c>
       <c r="E52" t="n">
         <v>4991.027246539169</v>
       </c>
       <c r="F52" t="n">
-        <v>-35.4</v>
+        <v>-37.6</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>1006135000000</v>
       </c>
       <c r="N52" t="n">
-        <v>919277744858</v>
+        <v>888188302044</v>
       </c>
     </row>
     <row r="53">
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>50.1</v>
+        <v>51</v>
       </c>
       <c r="D53" t="n">
-        <v>3446.666748046875</v>
+        <v>3385</v>
       </c>
       <c r="E53" t="n">
         <v>7052.737306843267</v>
       </c>
       <c r="F53" t="n">
-        <v>-51.1</v>
+        <v>-52</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>20433000000</v>
       </c>
       <c r="N53" t="n">
-        <v>40775846109</v>
+        <v>40046296660</v>
       </c>
     </row>
     <row r="54">
@@ -3219,13 +3219,13 @@
         <v>10.1</v>
       </c>
       <c r="D54" t="n">
-        <v>5722</v>
+        <v>5690</v>
       </c>
       <c r="E54" t="n">
         <v>2420.370957920882</v>
       </c>
       <c r="F54" t="n">
-        <v>136.4</v>
+        <v>135.1</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>28931000000</v>
       </c>
       <c r="N54" t="n">
-        <v>287473033954</v>
+        <v>285865355330</v>
       </c>
     </row>
     <row r="55">
@@ -3268,16 +3268,16 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>53.1</v>
+        <v>54.6</v>
       </c>
       <c r="D55" t="n">
-        <v>5286</v>
+        <v>5140</v>
       </c>
       <c r="E55" t="n">
         <v>4154.626869982095</v>
       </c>
       <c r="F55" t="n">
-        <v>27.2</v>
+        <v>23.7</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>179492000000</v>
       </c>
       <c r="N55" t="n">
-        <v>337947697170</v>
+        <v>328613538300</v>
       </c>
     </row>
     <row r="56">
@@ -3320,16 +3320,16 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>73.3</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>3860</v>
+        <v>3673</v>
       </c>
       <c r="E56" t="n">
         <v>3530</v>
       </c>
       <c r="F56" t="n">
-        <v>9.300000000000001</v>
+        <v>4.1</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>107738000000</v>
       </c>
       <c r="N56" t="n">
-        <v>146943831000</v>
+        <v>139825049550</v>
       </c>
     </row>
     <row r="57">
@@ -3372,16 +3372,16 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>43.2</v>
+        <v>44.2</v>
       </c>
       <c r="D57" t="n">
-        <v>1602</v>
+        <v>1566</v>
       </c>
       <c r="E57" t="n">
         <v>3767.430178069353</v>
       </c>
       <c r="F57" t="n">
-        <v>-57.5</v>
+        <v>-58.4</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         <v>31965000000</v>
       </c>
       <c r="N57" t="n">
-        <v>73939822992</v>
+        <v>72278253936</v>
       </c>
     </row>
     <row r="58">
@@ -3424,16 +3424,16 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>52.7</v>
+        <v>53.7</v>
       </c>
       <c r="D58" t="n">
-        <v>2108</v>
+        <v>2066</v>
       </c>
       <c r="E58" t="n">
         <v>1556.090471804319</v>
       </c>
       <c r="F58" t="n">
-        <v>35.5</v>
+        <v>32.8</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         <v>191594000000</v>
       </c>
       <c r="N58" t="n">
-        <v>363858378612</v>
+        <v>356608828374</v>
       </c>
     </row>
     <row r="59">
@@ -3476,16 +3476,16 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>113.9</v>
+        <v>118.6</v>
       </c>
       <c r="D59" t="n">
-        <v>1734</v>
+        <v>1665</v>
       </c>
       <c r="E59" t="n">
         <v>1341.977644710579</v>
       </c>
       <c r="F59" t="n">
-        <v>29.2</v>
+        <v>24.1</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>95903657000</v>
       </c>
       <c r="N59" t="n">
-        <v>84220015860</v>
+        <v>80868700350</v>
       </c>
     </row>
     <row r="60">
@@ -3528,16 +3528,16 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>2107.5</v>
+        <v>2072.5</v>
       </c>
       <c r="E60" t="n">
         <v>1141.512891683109</v>
       </c>
       <c r="F60" t="n">
-        <v>84.59999999999999</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>35951000000</v>
       </c>
       <c r="N60" t="n">
-        <v>376008898058</v>
+        <v>369764384922</v>
       </c>
     </row>
     <row r="61">
@@ -3580,16 +3580,16 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>2107.5</v>
+        <v>2072.5</v>
       </c>
       <c r="E61" t="n">
         <v>1842.11261309207</v>
       </c>
       <c r="F61" t="n">
-        <v>14.4</v>
+        <v>12.5</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         <v>35951000000</v>
       </c>
       <c r="N61" t="n">
-        <v>376008898058</v>
+        <v>369764384922</v>
       </c>
     </row>
     <row r="62">
@@ -3632,16 +3632,16 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="D62" t="n">
-        <v>1635</v>
+        <v>1628.5</v>
       </c>
       <c r="E62" t="n">
         <v>1344.518957928979</v>
       </c>
       <c r="F62" t="n">
-        <v>21.6</v>
+        <v>21.1</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         <v>55269000000</v>
       </c>
       <c r="N62" t="n">
-        <v>535645242315</v>
+        <v>533515765816</v>
       </c>
     </row>
     <row r="63">
@@ -3684,16 +3684,16 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D63" t="n">
-        <v>3601</v>
+        <v>3528</v>
       </c>
       <c r="E63" t="n">
         <v>2844.704547285864</v>
       </c>
       <c r="F63" t="n">
-        <v>26.6</v>
+        <v>24</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
         <v>235224000000</v>
       </c>
       <c r="N63" t="n">
-        <v>500499601459</v>
+        <v>490353400152</v>
       </c>
     </row>
     <row r="64">
@@ -3736,16 +3736,16 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>87.8</v>
+        <v>90.8</v>
       </c>
       <c r="D64" t="n">
-        <v>2737</v>
+        <v>2646</v>
       </c>
       <c r="E64" t="n">
         <v>1748.071046781136</v>
       </c>
       <c r="F64" t="n">
-        <v>56.6</v>
+        <v>51.4</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>71858000000</v>
       </c>
       <c r="N64" t="n">
-        <v>81888272893</v>
+        <v>79165644894</v>
       </c>
     </row>
     <row r="65">
@@ -3788,16 +3788,16 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>53.6</v>
+        <v>54.3</v>
       </c>
       <c r="D65" t="n">
-        <v>5501</v>
+        <v>5436</v>
       </c>
       <c r="E65" t="n">
         <v>3405.914389596362</v>
       </c>
       <c r="F65" t="n">
-        <v>61.5</v>
+        <v>59.6</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3825,7 +3825,7 @@
         <v>193706000000</v>
       </c>
       <c r="N65" t="n">
-        <v>361161350263</v>
+        <v>356893855668</v>
       </c>
     </row>
     <row r="66">
@@ -3840,16 +3840,16 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>53.6</v>
+        <v>54.3</v>
       </c>
       <c r="D66" t="n">
-        <v>5501</v>
+        <v>5436</v>
       </c>
       <c r="E66" t="n">
         <v>2714.613787300615</v>
       </c>
       <c r="F66" t="n">
-        <v>102.6</v>
+        <v>100.2</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>193706000000</v>
       </c>
       <c r="N66" t="n">
-        <v>361161350263</v>
+        <v>356893855668</v>
       </c>
     </row>
     <row r="67">
@@ -3892,16 +3892,16 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>19.8</v>
+        <v>20.1</v>
       </c>
       <c r="D67" t="n">
-        <v>5453</v>
+        <v>5368</v>
       </c>
       <c r="E67" t="n">
         <v>2148.936934940886</v>
       </c>
       <c r="F67" t="n">
-        <v>153.8</v>
+        <v>149.8</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>80068000000</v>
       </c>
       <c r="N67" t="n">
-        <v>405369580007</v>
+        <v>399050780392</v>
       </c>
     </row>
     <row r="68">
@@ -3944,16 +3944,16 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>19.8</v>
+        <v>20.1</v>
       </c>
       <c r="D68" t="n">
-        <v>5453</v>
+        <v>5368</v>
       </c>
       <c r="E68" t="n">
         <v>5066.092575838703</v>
       </c>
       <c r="F68" t="n">
-        <v>7.6</v>
+        <v>6</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>80068000000</v>
       </c>
       <c r="N68" t="n">
-        <v>405369580007</v>
+        <v>399050780392</v>
       </c>
     </row>
     <row r="69">
@@ -3996,16 +3996,16 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>45.7</v>
+        <v>46.7</v>
       </c>
       <c r="D69" t="n">
-        <v>1425.5</v>
+        <v>1397</v>
       </c>
       <c r="E69" t="n">
         <v>1111.90611839092</v>
       </c>
       <c r="F69" t="n">
-        <v>28.2</v>
+        <v>25.6</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>101020000000</v>
       </c>
       <c r="N69" t="n">
-        <v>220931837378</v>
+        <v>216514750485</v>
       </c>
     </row>
     <row r="70">
@@ -4048,16 +4048,16 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>42.3</v>
+        <v>41.9</v>
       </c>
       <c r="D70" t="n">
-        <v>5340</v>
+        <v>5390</v>
       </c>
       <c r="E70" t="n">
         <v>3361.304411567078</v>
       </c>
       <c r="F70" t="n">
-        <v>58.9</v>
+        <v>60.4</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>48658000000</v>
       </c>
       <c r="N70" t="n">
-        <v>115129502880</v>
+        <v>116207494480</v>
       </c>
     </row>
     <row r="71">
@@ -4100,16 +4100,16 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>35</v>
+        <v>35.2</v>
       </c>
       <c r="D71" t="n">
-        <v>5430</v>
+        <v>5390</v>
       </c>
       <c r="E71" t="n">
         <v>3891.73752540545</v>
       </c>
       <c r="F71" t="n">
-        <v>39.5</v>
+        <v>38.5</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>50698683000</v>
       </c>
       <c r="N71" t="n">
-        <v>144936474000</v>
+        <v>143868802000</v>
       </c>
     </row>
     <row r="72">
@@ -4152,16 +4152,16 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>35</v>
+        <v>35.3</v>
       </c>
       <c r="D72" t="n">
-        <v>4035</v>
+        <v>3998</v>
       </c>
       <c r="E72" t="n">
         <v>6646.195827570309</v>
       </c>
       <c r="F72" t="n">
-        <v>-39.3</v>
+        <v>-39.8</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>139195000000</v>
       </c>
       <c r="N72" t="n">
-        <v>397698747345</v>
+        <v>394051943466</v>
       </c>
     </row>
     <row r="73">
@@ -4204,16 +4204,16 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>31.4</v>
+        <v>31.7</v>
       </c>
       <c r="D73" t="n">
-        <v>3040</v>
+        <v>3010</v>
       </c>
       <c r="E73" t="n">
         <v>2480</v>
       </c>
       <c r="F73" t="n">
-        <v>22.6</v>
+        <v>21.4</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>20277000000</v>
       </c>
       <c r="N73" t="n">
-        <v>64532208000</v>
+        <v>63895377000</v>
       </c>
     </row>
     <row r="74">
@@ -4256,16 +4256,16 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>31.4</v>
+        <v>31.7</v>
       </c>
       <c r="D74" t="n">
-        <v>3040</v>
+        <v>3010</v>
       </c>
       <c r="E74" t="n">
         <v>2504.338645418327</v>
       </c>
       <c r="F74" t="n">
-        <v>21.4</v>
+        <v>20.2</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         <v>20277000000</v>
       </c>
       <c r="N74" t="n">
-        <v>64532208000</v>
+        <v>63895377000</v>
       </c>
     </row>
     <row r="75">
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>31.4</v>
+        <v>31.7</v>
       </c>
       <c r="D75" t="n">
-        <v>3040</v>
+        <v>3010</v>
       </c>
       <c r="E75" t="n">
         <v>2880</v>
       </c>
       <c r="F75" t="n">
-        <v>5.6</v>
+        <v>4.5</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>20277000000</v>
       </c>
       <c r="N75" t="n">
-        <v>64532208000</v>
+        <v>63895377000</v>
       </c>
     </row>
     <row r="76">
@@ -4363,13 +4363,13 @@
         <v>13.6</v>
       </c>
       <c r="D76" t="n">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E76" t="n">
         <v>421.6950726175476</v>
       </c>
       <c r="F76" t="n">
-        <v>40.6</v>
+        <v>40.9</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>2256815000</v>
       </c>
       <c r="N76" t="n">
-        <v>16611446894</v>
+        <v>16639459452</v>
       </c>
     </row>
     <row r="77">
@@ -4412,16 +4412,16 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>52.3</v>
+        <v>51.9</v>
       </c>
       <c r="D77" t="n">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E77" t="n">
         <v>290.3401328717133</v>
       </c>
       <c r="F77" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>5368822000</v>
       </c>
       <c r="N77" t="n">
-        <v>10273056808</v>
+        <v>10342469354</v>
       </c>
     </row>
     <row r="78">
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>38.1</v>
+        <v>38.5</v>
       </c>
       <c r="D78" t="n">
-        <v>3080</v>
+        <v>3050</v>
       </c>
       <c r="E78" t="n">
         <v>1359.655069733296</v>
       </c>
       <c r="F78" t="n">
-        <v>126.5</v>
+        <v>124.3</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>68841000000</v>
       </c>
       <c r="N78" t="n">
-        <v>180582571400</v>
+        <v>178823650250</v>
       </c>
     </row>
     <row r="79">
@@ -4516,16 +4516,16 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="D79" t="n">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="E79" t="n">
         <v>448.6811097117532</v>
       </c>
       <c r="F79" t="n">
-        <v>-5.7</v>
+        <v>-6.8</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>10804525000</v>
       </c>
       <c r="N79" t="n">
-        <v>87740821107</v>
+        <v>86703695562</v>
       </c>
     </row>
     <row r="80">
@@ -4568,16 +4568,16 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="D80" t="n">
-        <v>3286</v>
+        <v>3238</v>
       </c>
       <c r="E80" t="n">
         <v>2085.872134468915</v>
       </c>
       <c r="F80" t="n">
-        <v>57.5</v>
+        <v>55.2</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4605,7 +4605,7 @@
         <v>37319000000</v>
       </c>
       <c r="N80" t="n">
-        <v>346572080368</v>
+        <v>341509554544</v>
       </c>
     </row>
     <row r="81">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="D81" t="n">
-        <v>1002</v>
+        <v>988</v>
       </c>
       <c r="E81" t="n">
         <v>913.2768512341561</v>
       </c>
       <c r="F81" t="n">
-        <v>9.699999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>2201899000</v>
       </c>
       <c r="N81" t="n">
-        <v>16953478278</v>
+        <v>16716603332</v>
       </c>
     </row>
     <row r="82">
@@ -4672,16 +4672,16 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>263.3</v>
+        <v>268.3</v>
       </c>
       <c r="D82" t="n">
-        <v>2390.5</v>
+        <v>2345.5</v>
       </c>
       <c r="E82" t="n">
         <v>2190</v>
       </c>
       <c r="F82" t="n">
-        <v>9.199999999999999</v>
+        <v>7.1</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>870891000000</v>
       </c>
       <c r="N82" t="n">
-        <v>330799995645</v>
+        <v>324572846595</v>
       </c>
     </row>
     <row r="83">
@@ -4724,16 +4724,16 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>54.3</v>
+        <v>55.2</v>
       </c>
       <c r="D83" t="n">
-        <v>1693</v>
+        <v>1666</v>
       </c>
       <c r="E83" t="n">
         <v>1721.078563209627</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.6</v>
+        <v>-3.2</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>178715000000</v>
       </c>
       <c r="N83" t="n">
-        <v>329216977522</v>
+        <v>323966618164</v>
       </c>
     </row>
     <row r="84">
@@ -4776,16 +4776,16 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>62.1</v>
+        <v>63.1</v>
       </c>
       <c r="D84" t="n">
-        <v>7323</v>
+        <v>7213</v>
       </c>
       <c r="E84" t="n">
         <v>5478.947585152067</v>
       </c>
       <c r="F84" t="n">
-        <v>33.7</v>
+        <v>31.6</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4813,7 +4813,7 @@
         <v>92189000000</v>
       </c>
       <c r="N84" t="n">
-        <v>148442292162</v>
+        <v>146212515822</v>
       </c>
     </row>
     <row r="85">
@@ -4828,16 +4828,16 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>24.3</v>
+        <v>24.8</v>
       </c>
       <c r="D85" t="n">
-        <v>3302</v>
+        <v>3230</v>
       </c>
       <c r="E85" t="n">
         <v>13739.64575539568</v>
       </c>
       <c r="F85" t="n">
-        <v>-76</v>
+        <v>-76.5</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4865,7 +4865,7 @@
         <v>265431000000</v>
       </c>
       <c r="N85" t="n">
-        <v>1094142597080</v>
+        <v>1070284854200</v>
       </c>
     </row>
     <row r="86">
@@ -4880,16 +4880,16 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>24.3</v>
+        <v>24.8</v>
       </c>
       <c r="D86" t="n">
-        <v>3302</v>
+        <v>3230</v>
       </c>
       <c r="E86" t="n">
         <v>12975.86280814577</v>
       </c>
       <c r="F86" t="n">
-        <v>-74.59999999999999</v>
+        <v>-75.09999999999999</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>265431000000</v>
       </c>
       <c r="N86" t="n">
-        <v>1094142597080</v>
+        <v>1070284854200</v>
       </c>
     </row>
     <row r="87">
@@ -4932,16 +4932,16 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>81</v>
+        <v>83.5</v>
       </c>
       <c r="D87" t="n">
-        <v>1003</v>
+        <v>973</v>
       </c>
       <c r="E87" t="n">
         <v>193.0499177180472</v>
       </c>
       <c r="F87" t="n">
-        <v>419.6</v>
+        <v>404</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>22097000000</v>
       </c>
       <c r="N87" t="n">
-        <v>27288621000</v>
+        <v>26472411000</v>
       </c>
     </row>
     <row r="88">
@@ -4984,16 +4984,16 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>22.3</v>
+        <v>23</v>
       </c>
       <c r="D88" t="n">
-        <v>4015</v>
+        <v>3895</v>
       </c>
       <c r="E88" t="n">
         <v>7960</v>
       </c>
       <c r="F88" t="n">
-        <v>-49.6</v>
+        <v>-51.1</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -5021,7 +5021,7 @@
         <v>34259000000</v>
       </c>
       <c r="N88" t="n">
-        <v>153450593890</v>
+        <v>148864274770</v>
       </c>
     </row>
     <row r="89">
@@ -5036,16 +5036,16 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>33.6</v>
+        <v>34.1</v>
       </c>
       <c r="D89" t="n">
-        <v>1121.5</v>
+        <v>1103.5</v>
       </c>
       <c r="E89" t="n">
         <v>2968.770104870396</v>
       </c>
       <c r="F89" t="n">
-        <v>-62.2</v>
+        <v>-62.8</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>364930000000</v>
       </c>
       <c r="N89" t="n">
-        <v>1087378519510</v>
+        <v>1069926166990</v>
       </c>
     </row>
     <row r="90">
@@ -5091,13 +5091,13 @@
         <v>1.9</v>
       </c>
       <c r="D90" t="n">
-        <v>2040</v>
+        <v>2006</v>
       </c>
       <c r="E90" t="n">
         <v>887.288318673809</v>
       </c>
       <c r="F90" t="n">
-        <v>129.9</v>
+        <v>126.1</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>3124000000</v>
       </c>
       <c r="N90" t="n">
-        <v>163848601680</v>
+        <v>161117791652</v>
       </c>
     </row>
     <row r="91">
@@ -5140,16 +5140,16 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>23.5</v>
+        <v>24</v>
       </c>
       <c r="D91" t="n">
-        <v>12740</v>
+        <v>12450</v>
       </c>
       <c r="E91" t="n">
         <v>3496.825336379792</v>
       </c>
       <c r="F91" t="n">
-        <v>264.3</v>
+        <v>256</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>29490000000</v>
       </c>
       <c r="N91" t="n">
-        <v>125540405900</v>
+        <v>122682735750</v>
       </c>
     </row>
     <row r="92">
@@ -5192,16 +5192,16 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>78.7</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>4280</v>
+        <v>4205</v>
       </c>
       <c r="E92" t="n">
         <v>3449.780346820809</v>
       </c>
       <c r="F92" t="n">
-        <v>24.1</v>
+        <v>21.9</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>79561000000</v>
       </c>
       <c r="N92" t="n">
-        <v>101140906840</v>
+        <v>99368577865</v>
       </c>
     </row>
     <row r="93">
@@ -5247,13 +5247,13 @@
         <v>1.4</v>
       </c>
       <c r="D93" t="n">
-        <v>7567</v>
+        <v>7411</v>
       </c>
       <c r="E93" t="n">
         <v>2697.360927565142</v>
       </c>
       <c r="F93" t="n">
-        <v>180.5</v>
+        <v>174.8</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>8148000000</v>
       </c>
       <c r="N93" t="n">
-        <v>589993080173</v>
+        <v>577829882009</v>
       </c>
     </row>
     <row r="94">
@@ -5296,10 +5296,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>733.1</v>
+        <v>755.4</v>
       </c>
       <c r="D94" t="n">
-        <v>3895</v>
+        <v>3780</v>
       </c>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
@@ -5329,7 +5329,7 @@
         <v>609113000000</v>
       </c>
       <c r="N94" t="n">
-        <v>83090477000</v>
+        <v>80637228000</v>
       </c>
     </row>
     <row r="95">
@@ -5344,16 +5344,16 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>34.8</v>
+        <v>35.1</v>
       </c>
       <c r="D95" t="n">
-        <v>6995</v>
+        <v>6939</v>
       </c>
       <c r="E95" t="n">
         <v>2836.942753814942</v>
       </c>
       <c r="F95" t="n">
-        <v>146.6</v>
+        <v>144.6</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>85476000000</v>
       </c>
       <c r="N95" t="n">
-        <v>245337208875</v>
+        <v>243373108275</v>
       </c>
     </row>
     <row r="96">
@@ -5396,16 +5396,16 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>96.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D96" t="n">
-        <v>1874</v>
+        <v>1808</v>
       </c>
       <c r="E96" t="n">
         <v>2298.672482457804</v>
       </c>
       <c r="F96" t="n">
-        <v>-18.5</v>
+        <v>-21.3</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>44925000000</v>
       </c>
       <c r="N96" t="n">
-        <v>46628305800</v>
+        <v>44986113600</v>
       </c>
     </row>
     <row r="97">
@@ -5448,16 +5448,16 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="D97" t="n">
-        <v>2820</v>
+        <v>2791</v>
       </c>
       <c r="E97" t="n">
         <v>2007.754513143541</v>
       </c>
       <c r="F97" t="n">
-        <v>40.5</v>
+        <v>39</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>37208000000</v>
       </c>
       <c r="N97" t="n">
-        <v>150231927060</v>
+        <v>148686988803</v>
       </c>
     </row>
     <row r="98">
@@ -5500,16 +5500,16 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>13</v>
+        <v>13.3</v>
       </c>
       <c r="D98" t="n">
-        <v>4372</v>
+        <v>4281</v>
       </c>
       <c r="E98" t="n">
         <v>1306.206628354146</v>
       </c>
       <c r="F98" t="n">
-        <v>234.7</v>
+        <v>227.7</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>120984000000</v>
       </c>
       <c r="N98" t="n">
-        <v>928617023352</v>
+        <v>909288535446</v>
       </c>
     </row>
     <row r="99">
@@ -5552,16 +5552,16 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>52.4</v>
+        <v>52.2</v>
       </c>
       <c r="D99" t="n">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="E99" t="n">
         <v>896.0103264198827</v>
       </c>
       <c r="F99" t="n">
-        <v>-1.1</v>
+        <v>-0.8</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>8417495000</v>
       </c>
       <c r="N99" t="n">
-        <v>16078928650</v>
+        <v>16133371975</v>
       </c>
     </row>
     <row r="100">
@@ -5604,16 +5604,16 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>253.8</v>
+        <v>256.9</v>
       </c>
       <c r="D100" t="n">
-        <v>1265</v>
+        <v>1250</v>
       </c>
       <c r="E100" t="n">
         <v>2776.401128792723</v>
       </c>
       <c r="F100" t="n">
-        <v>-54.4</v>
+        <v>-55</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>137818000000</v>
       </c>
       <c r="N100" t="n">
-        <v>54296026400</v>
+        <v>53652200000</v>
       </c>
     </row>
     <row r="101">
@@ -5656,16 +5656,16 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>45.1</v>
+        <v>45.3</v>
       </c>
       <c r="D101" t="n">
-        <v>1657</v>
+        <v>1649</v>
       </c>
       <c r="E101" t="n">
         <v>1746.940387696806</v>
       </c>
       <c r="F101" t="n">
-        <v>-5.1</v>
+        <v>-5.6</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>29854000000</v>
       </c>
       <c r="N101" t="n">
-        <v>66188823575</v>
+        <v>65869263775</v>
       </c>
     </row>
     <row r="102">
@@ -5708,16 +5708,16 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>109.1</v>
+        <v>111.6</v>
       </c>
       <c r="D102" t="n">
-        <v>1560.5</v>
+        <v>1525</v>
       </c>
       <c r="E102" t="n">
         <v>1160.8</v>
       </c>
       <c r="F102" t="n">
-        <v>34.4</v>
+        <v>31.4</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5745,7 +5745,7 @@
         <v>458473000000</v>
       </c>
       <c r="N102" t="n">
-        <v>420308019345</v>
+        <v>410746382250</v>
       </c>
     </row>
     <row r="103">
@@ -5760,16 +5760,16 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>15.6</v>
+        <v>16.2</v>
       </c>
       <c r="D103" t="n">
-        <v>1769</v>
+        <v>1710</v>
       </c>
       <c r="E103" t="n">
         <v>1512.21980974841</v>
       </c>
       <c r="F103" t="n">
-        <v>17</v>
+        <v>13.1</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>91015000000</v>
       </c>
       <c r="N103" t="n">
-        <v>582034738368</v>
+        <v>562622613120</v>
       </c>
     </row>
     <row r="104">
@@ -5812,16 +5812,16 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="D104" t="n">
-        <v>2070</v>
+        <v>2061</v>
       </c>
       <c r="E104" t="n">
         <v>1347.74653160027</v>
       </c>
       <c r="F104" t="n">
-        <v>53.6</v>
+        <v>52.9</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>14143000000</v>
       </c>
       <c r="N104" t="n">
-        <v>49606740630</v>
+        <v>49391059149</v>
       </c>
     </row>
     <row r="105">
@@ -5864,16 +5864,16 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>54.8</v>
+        <v>55.9</v>
       </c>
       <c r="D105" t="n">
-        <v>1328</v>
+        <v>1301</v>
       </c>
       <c r="E105" t="n">
         <v>1605.189780306002</v>
       </c>
       <c r="F105" t="n">
-        <v>-17.3</v>
+        <v>-19</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5901,7 +5901,7 @@
         <v>48290000000</v>
       </c>
       <c r="N105" t="n">
-        <v>88123955200</v>
+        <v>86332278400</v>
       </c>
     </row>
     <row r="106">
@@ -5916,16 +5916,16 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>40</v>
+        <v>40.1</v>
       </c>
       <c r="D106" t="n">
-        <v>4195</v>
+        <v>4180</v>
       </c>
       <c r="E106" t="n">
         <v>3096.322467304314</v>
       </c>
       <c r="F106" t="n">
-        <v>35.5</v>
+        <v>35</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
         <v>46440000000</v>
       </c>
       <c r="N106" t="n">
-        <v>116189317720</v>
+        <v>115773861280</v>
       </c>
     </row>
     <row r="107">
@@ -5968,16 +5968,16 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>35.8</v>
+        <v>36.2</v>
       </c>
       <c r="D107" t="n">
-        <v>902.2999877929688</v>
+        <v>892.9000244140625</v>
       </c>
       <c r="E107" t="n">
         <v>2157.626835069302</v>
       </c>
       <c r="F107" t="n">
-        <v>-58.2</v>
+        <v>-58.6</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>142023000000</v>
       </c>
       <c r="N107" t="n">
-        <v>396526129545</v>
+        <v>392395207294</v>
       </c>
     </row>
     <row r="108">
@@ -6020,16 +6020,16 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>83.59999999999999</v>
+        <v>85.5</v>
       </c>
       <c r="D108" t="n">
-        <v>2171</v>
+        <v>2122</v>
       </c>
       <c r="E108" t="n">
         <v>1190</v>
       </c>
       <c r="F108" t="n">
-        <v>82.40000000000001</v>
+        <v>78.3</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>39477000000</v>
       </c>
       <c r="N108" t="n">
-        <v>47222892938</v>
+        <v>46157060716</v>
       </c>
     </row>
     <row r="109">
@@ -6072,16 +6072,16 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>18.8</v>
+        <v>19.6</v>
       </c>
       <c r="D109" t="n">
-        <v>2682</v>
+        <v>2572</v>
       </c>
       <c r="E109" t="n">
         <v>1361.432492253209</v>
       </c>
       <c r="F109" t="n">
-        <v>97</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>11124687000</v>
       </c>
       <c r="N109" t="n">
-        <v>59312851074</v>
+        <v>56880183804</v>
       </c>
     </row>
     <row r="110">
@@ -6124,16 +6124,16 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>40.6</v>
+        <v>41.7</v>
       </c>
       <c r="D110" t="n">
-        <v>5465</v>
+        <v>5316</v>
       </c>
       <c r="E110" t="n">
         <v>1716.713876475349</v>
       </c>
       <c r="F110" t="n">
-        <v>218.3</v>
+        <v>209.7</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>564005000000</v>
       </c>
       <c r="N110" t="n">
-        <v>1388777145340</v>
+        <v>1350912956016</v>
       </c>
     </row>
     <row r="111">
@@ -6176,16 +6176,16 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>12.7</v>
+        <v>12.5</v>
       </c>
       <c r="D111" t="n">
-        <v>3538</v>
+        <v>3586</v>
       </c>
       <c r="E111" t="n">
         <v>2561.705402476645</v>
       </c>
       <c r="F111" t="n">
-        <v>38.1</v>
+        <v>40</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -6213,7 +6213,7 @@
         <v>81977000000</v>
       </c>
       <c r="N111" t="n">
-        <v>647362744366</v>
+        <v>656145506302</v>
       </c>
     </row>
     <row r="112">
@@ -6228,16 +6228,16 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>66.7</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>2969</v>
+        <v>2914</v>
       </c>
       <c r="E112" t="n">
         <v>1410</v>
       </c>
       <c r="F112" t="n">
-        <v>110.6</v>
+        <v>106.7</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
         <v>82575000000</v>
       </c>
       <c r="N112" t="n">
-        <v>123849593405</v>
+        <v>121555309930</v>
       </c>
     </row>
     <row r="113">
@@ -6280,16 +6280,16 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>71.2</v>
+        <v>72.3</v>
       </c>
       <c r="D113" t="n">
-        <v>3430</v>
+        <v>3375</v>
       </c>
       <c r="E113" t="n">
         <v>1789.870000553189</v>
       </c>
       <c r="F113" t="n">
-        <v>91.59999999999999</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
         <v>81126000000</v>
       </c>
       <c r="N113" t="n">
-        <v>113996262660</v>
+        <v>112168334250</v>
       </c>
     </row>
     <row r="114">
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="D114" t="n">
-        <v>1758</v>
+        <v>1754</v>
       </c>
       <c r="E114" t="n">
         <v>1529.631984751819</v>
       </c>
       <c r="F114" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -6369,7 +6369,7 @@
         <v>4358822000</v>
       </c>
       <c r="N114" t="n">
-        <v>12526187742</v>
+        <v>12497686746</v>
       </c>
     </row>
     <row r="115">
@@ -6384,16 +6384,16 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>34.8</v>
+        <v>34.9</v>
       </c>
       <c r="D115" t="n">
-        <v>1758</v>
+        <v>1754</v>
       </c>
       <c r="E115" t="n">
         <v>1449.995380693296</v>
       </c>
       <c r="F115" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>4358822000</v>
       </c>
       <c r="N115" t="n">
-        <v>12526187742</v>
+        <v>12497686746</v>
       </c>
     </row>
     <row r="116">
@@ -6436,16 +6436,16 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>33.4</v>
+        <v>33.2</v>
       </c>
       <c r="D116" t="n">
-        <v>1735</v>
+        <v>1746</v>
       </c>
       <c r="E116" t="n">
         <v>2112.609181636727</v>
       </c>
       <c r="F116" t="n">
-        <v>-17.9</v>
+        <v>-17.4</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -6473,7 +6473,7 @@
         <v>51035000000</v>
       </c>
       <c r="N116" t="n">
-        <v>152721456090</v>
+        <v>153689718924</v>
       </c>
     </row>
     <row r="117">
@@ -6488,16 +6488,16 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>19.9</v>
+        <v>20.3</v>
       </c>
       <c r="D117" t="n">
-        <v>8100</v>
+        <v>7940</v>
       </c>
       <c r="E117" t="n">
         <v>3565.648720929983</v>
       </c>
       <c r="F117" t="n">
-        <v>127.2</v>
+        <v>122.7</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>89436000000</v>
       </c>
       <c r="N117" t="n">
-        <v>450128007900</v>
+        <v>441236590460</v>
       </c>
     </row>
     <row r="118">
@@ -6540,16 +6540,16 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>39.9</v>
+        <v>40.7</v>
       </c>
       <c r="D118" t="n">
-        <v>2407.5</v>
+        <v>2360</v>
       </c>
       <c r="E118" t="n">
         <v>4544.200649553184</v>
       </c>
       <c r="F118" t="n">
-        <v>-47</v>
+        <v>-48.1</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>234016000000</v>
       </c>
       <c r="N118" t="n">
-        <v>586267333988</v>
+        <v>574700273400</v>
       </c>
     </row>
     <row r="119">
@@ -6592,16 +6592,16 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>39.9</v>
+        <v>40.7</v>
       </c>
       <c r="D119" t="n">
-        <v>2407.5</v>
+        <v>2360</v>
       </c>
       <c r="E119" t="n">
         <v>8262.359904024779</v>
       </c>
       <c r="F119" t="n">
-        <v>-70.90000000000001</v>
+        <v>-71.40000000000001</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>234016000000</v>
       </c>
       <c r="N119" t="n">
-        <v>586267333988</v>
+        <v>574700273400</v>
       </c>
     </row>
     <row r="120">
@@ -6644,16 +6644,16 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>74.5</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="D120" t="n">
-        <v>2403</v>
+        <v>2351</v>
       </c>
       <c r="E120" t="n">
         <v>1303.446424801713</v>
       </c>
       <c r="F120" t="n">
-        <v>84.40000000000001</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>91090000000</v>
       </c>
       <c r="N120" t="n">
-        <v>122283344952</v>
+        <v>119637180184</v>
       </c>
     </row>
     <row r="121">
@@ -6696,16 +6696,16 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
       <c r="D121" t="n">
-        <v>1421</v>
+        <v>1410</v>
       </c>
       <c r="E121" t="n">
         <v>1267.324164058639</v>
       </c>
       <c r="F121" t="n">
-        <v>12.1</v>
+        <v>11.3</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6733,7 +6733,7 @@
         <v>3080243000</v>
       </c>
       <c r="N121" t="n">
-        <v>13907650988</v>
+        <v>13799991480</v>
       </c>
     </row>
     <row r="122">
@@ -6748,16 +6748,16 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>58.6</v>
+        <v>58.1</v>
       </c>
       <c r="D122" t="n">
-        <v>976</v>
+        <v>985</v>
       </c>
       <c r="E122" t="n">
         <v>930</v>
       </c>
       <c r="F122" t="n">
-        <v>4.9</v>
+        <v>5.9</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         <v>20765000000</v>
       </c>
       <c r="N122" t="n">
-        <v>35439163168</v>
+        <v>35765958730</v>
       </c>
     </row>
     <row r="123">
@@ -6800,16 +6800,16 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>69</v>
+        <v>70.8</v>
       </c>
       <c r="D123" t="n">
-        <v>1243</v>
+        <v>1210.5</v>
       </c>
       <c r="E123" t="n">
         <v>1188.162962482466</v>
       </c>
       <c r="F123" t="n">
-        <v>4.6</v>
+        <v>1.9</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>195510000000</v>
       </c>
       <c r="N123" t="n">
-        <v>283461646611</v>
+        <v>276050139358</v>
       </c>
     </row>
     <row r="124">
@@ -6852,16 +6852,16 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="D124" t="n">
-        <v>6518</v>
+        <v>6417</v>
       </c>
       <c r="E124" t="n">
         <v>6116.356643776557</v>
       </c>
       <c r="F124" t="n">
-        <v>6.6</v>
+        <v>4.9</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
         <v>201313000000</v>
       </c>
       <c r="N124" t="n">
-        <v>3012819565722</v>
+        <v>2966134267143</v>
       </c>
     </row>
   </sheetData>

--- a/docs/アクティビスト銘柄_資産判定.xlsx
+++ b/docs/アクティビスト銘柄_資産判定.xlsx
@@ -517,10 +517,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>39.5</v>
+        <v>39.8</v>
       </c>
       <c r="D2" t="n">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>35403000000</v>
       </c>
       <c r="N2" t="n">
-        <v>89605886472</v>
+        <v>89052763716</v>
       </c>
     </row>
     <row r="3">
@@ -565,10 +565,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>39.5</v>
+        <v>39.8</v>
       </c>
       <c r="D3" t="n">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
@@ -598,7 +598,7 @@
         <v>35403000000</v>
       </c>
       <c r="N3" t="n">
-        <v>89605886472</v>
+        <v>89052763716</v>
       </c>
     </row>
     <row r="4">
@@ -613,16 +613,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>43</v>
+        <v>43.3</v>
       </c>
       <c r="D4" t="n">
-        <v>3431</v>
+        <v>3412</v>
       </c>
       <c r="E4" t="n">
         <v>1598.889989734285</v>
       </c>
       <c r="F4" t="n">
-        <v>114.6</v>
+        <v>113.4</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -650,7 +650,7 @@
         <v>178465000000</v>
       </c>
       <c r="N4" t="n">
-        <v>414757848572</v>
+        <v>412461025744</v>
       </c>
     </row>
     <row r="5">
@@ -665,16 +665,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="D5" t="n">
-        <v>1030</v>
+        <v>1015</v>
       </c>
       <c r="E5" t="n">
         <v>653.0713101160862</v>
       </c>
       <c r="F5" t="n">
-        <v>57.7</v>
+        <v>55.4</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
         <v>1810139000</v>
       </c>
       <c r="N5" t="n">
-        <v>24767599390</v>
+        <v>24290238035</v>
       </c>
     </row>
     <row r="6">
@@ -720,7 +720,7 @@
         <v>90.3</v>
       </c>
       <c r="D6" t="n">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="E6" t="n">
         <v>2122.579027791042</v>
@@ -754,7 +754,7 @@
         <v>74819000000</v>
       </c>
       <c r="N6" t="n">
-        <v>82873028154</v>
+        <v>82835203860</v>
       </c>
     </row>
     <row r="7">
@@ -769,16 +769,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>46</v>
+        <v>46.6</v>
       </c>
       <c r="D7" t="n">
-        <v>2220</v>
+        <v>2189.5</v>
       </c>
       <c r="E7" t="n">
         <v>2032.365850102071</v>
       </c>
       <c r="F7" t="n">
-        <v>9.199999999999999</v>
+        <v>7.7</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>323730000000</v>
       </c>
       <c r="N7" t="n">
-        <v>703922617200</v>
+        <v>694251608270</v>
       </c>
     </row>
     <row r="8">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="D8" t="n">
-        <v>2222</v>
+        <v>2230</v>
       </c>
       <c r="E8" t="n">
         <v>2040</v>
       </c>
       <c r="F8" t="n">
-        <v>8.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>34682000000</v>
       </c>
       <c r="N8" t="n">
-        <v>100294907284</v>
+        <v>100656005060</v>
       </c>
     </row>
     <row r="9">
@@ -873,16 +873,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>83.3</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>7000</v>
+        <v>7060</v>
       </c>
       <c r="E9" t="n">
         <v>4549.503641591014</v>
       </c>
       <c r="F9" t="n">
-        <v>53.9</v>
+        <v>55.2</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
         <v>96906000000</v>
       </c>
       <c r="N9" t="n">
-        <v>116265149000</v>
+        <v>117261707420</v>
       </c>
     </row>
     <row r="10">
@@ -925,16 +925,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>68.3</v>
+        <v>68.8</v>
       </c>
       <c r="D10" t="n">
-        <v>1891</v>
+        <v>1876.5</v>
       </c>
       <c r="E10" t="n">
         <v>1257.709264012363</v>
       </c>
       <c r="F10" t="n">
-        <v>50.4</v>
+        <v>49.2</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>261172000000</v>
       </c>
       <c r="N10" t="n">
-        <v>382653100772</v>
+        <v>379718954838</v>
       </c>
     </row>
     <row r="11">
@@ -977,16 +977,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>68.3</v>
+        <v>68.8</v>
       </c>
       <c r="D11" t="n">
-        <v>1891</v>
+        <v>1876.5</v>
       </c>
       <c r="E11" t="n">
         <v>1217.254500469243</v>
       </c>
       <c r="F11" t="n">
-        <v>55.3</v>
+        <v>54.2</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>261172000000</v>
       </c>
       <c r="N11" t="n">
-        <v>382653100772</v>
+        <v>379718954838</v>
       </c>
     </row>
     <row r="12">
@@ -1029,16 +1029,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>99.3</v>
+        <v>100.8</v>
       </c>
       <c r="D12" t="n">
-        <v>1473</v>
+        <v>1451</v>
       </c>
       <c r="E12" t="n">
         <v>1212.640316205534</v>
       </c>
       <c r="F12" t="n">
-        <v>21.5</v>
+        <v>19.7</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>13446000000</v>
       </c>
       <c r="N12" t="n">
-        <v>13537823031</v>
+        <v>13335628797</v>
       </c>
     </row>
     <row r="13">
@@ -1081,16 +1081,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>27.6</v>
+        <v>28</v>
       </c>
       <c r="D13" t="n">
-        <v>5260</v>
+        <v>5200</v>
       </c>
       <c r="E13" t="n">
         <v>2617.980935875217</v>
       </c>
       <c r="F13" t="n">
-        <v>100.9</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>53152000000</v>
       </c>
       <c r="N13" t="n">
-        <v>192272041200</v>
+        <v>190078824000</v>
       </c>
     </row>
     <row r="14">
@@ -1133,16 +1133,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>39.4</v>
+        <v>40.1</v>
       </c>
       <c r="D14" t="n">
-        <v>2339</v>
+        <v>2297</v>
       </c>
       <c r="E14" t="n">
         <v>1710</v>
       </c>
       <c r="F14" t="n">
-        <v>36.8</v>
+        <v>34.3</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>15543000000</v>
       </c>
       <c r="N14" t="n">
-        <v>39464033698</v>
+        <v>38755402054</v>
       </c>
     </row>
     <row r="15">
@@ -1185,16 +1185,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>39.4</v>
+        <v>40.1</v>
       </c>
       <c r="D15" t="n">
-        <v>2339</v>
+        <v>2297</v>
       </c>
       <c r="E15" t="n">
         <v>1710</v>
       </c>
       <c r="F15" t="n">
-        <v>36.8</v>
+        <v>34.3</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         <v>15543000000</v>
       </c>
       <c r="N15" t="n">
-        <v>39464033698</v>
+        <v>38755402054</v>
       </c>
     </row>
     <row r="16">
@@ -1237,16 +1237,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>78.3</v>
+        <v>78.5</v>
       </c>
       <c r="D16" t="n">
-        <v>1699.5</v>
+        <v>1695</v>
       </c>
       <c r="E16" t="n">
         <v>1101.400153022188</v>
       </c>
       <c r="F16" t="n">
-        <v>54.3</v>
+        <v>53.9</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1274,7 +1274,7 @@
         <v>398395000000</v>
       </c>
       <c r="N16" t="n">
-        <v>508710998499</v>
+        <v>507364014390</v>
       </c>
     </row>
     <row r="17">
@@ -1289,16 +1289,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>25.8</v>
+        <v>26</v>
       </c>
       <c r="D17" t="n">
-        <v>5321</v>
+        <v>5264</v>
       </c>
       <c r="E17" t="n">
         <v>3322.047887165483</v>
       </c>
       <c r="F17" t="n">
-        <v>60.2</v>
+        <v>58.5</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         <v>476359000000</v>
       </c>
       <c r="N17" t="n">
-        <v>1848546272442</v>
+        <v>1828744141728</v>
       </c>
     </row>
     <row r="18">
@@ -1344,13 +1344,13 @@
         <v>77.40000000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>2364</v>
+        <v>2362</v>
       </c>
       <c r="E18" t="n">
         <v>3610</v>
       </c>
       <c r="F18" t="n">
-        <v>-34.5</v>
+        <v>-34.6</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>122147000000</v>
       </c>
       <c r="N18" t="n">
-        <v>157859513616</v>
+        <v>157725960728</v>
       </c>
     </row>
     <row r="19">
@@ -1393,16 +1393,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>20.3</v>
+        <v>20.6</v>
       </c>
       <c r="D19" t="n">
-        <v>2173</v>
+        <v>2142</v>
       </c>
       <c r="E19" t="n">
         <v>2269.918722577861</v>
       </c>
       <c r="F19" t="n">
-        <v>-4.3</v>
+        <v>-5.6</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>90811000000</v>
       </c>
       <c r="N19" t="n">
-        <v>447009479307</v>
+        <v>440632445778</v>
       </c>
     </row>
     <row r="20">
@@ -1445,16 +1445,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>56.7</v>
+        <v>57.2</v>
       </c>
       <c r="D20" t="n">
-        <v>2717</v>
+        <v>2694</v>
       </c>
       <c r="E20" t="n">
         <v>3155.301177013616</v>
       </c>
       <c r="F20" t="n">
-        <v>-13.9</v>
+        <v>-14.6</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>98642000000</v>
       </c>
       <c r="N20" t="n">
-        <v>173899726572</v>
+        <v>172427627304</v>
       </c>
     </row>
     <row r="21">
@@ -1497,16 +1497,16 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>45.6</v>
+        <v>46</v>
       </c>
       <c r="D21" t="n">
-        <v>3505</v>
+        <v>3480</v>
       </c>
       <c r="E21" t="n">
         <v>1752.426893379333</v>
       </c>
       <c r="F21" t="n">
-        <v>100</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>77563221000</v>
       </c>
       <c r="N21" t="n">
-        <v>169939224000</v>
+        <v>168727104000</v>
       </c>
     </row>
     <row r="22">
@@ -1549,16 +1549,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>45.6</v>
+        <v>46</v>
       </c>
       <c r="D22" t="n">
-        <v>3505</v>
+        <v>3480</v>
       </c>
       <c r="E22" t="n">
         <v>1576.721867844292</v>
       </c>
       <c r="F22" t="n">
-        <v>122.3</v>
+        <v>120.7</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>77563221000</v>
       </c>
       <c r="N22" t="n">
-        <v>169939224000</v>
+        <v>168727104000</v>
       </c>
     </row>
     <row r="23">
@@ -1601,16 +1601,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>56</v>
+        <v>56.2</v>
       </c>
       <c r="D23" t="n">
-        <v>4015</v>
+        <v>4000</v>
       </c>
       <c r="E23" t="n">
         <v>2387</v>
       </c>
       <c r="F23" t="n">
-        <v>68.2</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         <v>105205000000</v>
       </c>
       <c r="N23" t="n">
-        <v>187984415905</v>
+        <v>187282108000</v>
       </c>
     </row>
     <row r="24">
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>75.3</v>
+        <v>76.7</v>
       </c>
       <c r="D24" t="n">
-        <v>2029</v>
+        <v>1992</v>
       </c>
       <c r="E24" t="n">
         <v>1270</v>
       </c>
       <c r="F24" t="n">
-        <v>59.8</v>
+        <v>56.9</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>26544000000</v>
       </c>
       <c r="N24" t="n">
-        <v>35265762911</v>
+        <v>34622671128</v>
       </c>
     </row>
     <row r="25">
@@ -1705,16 +1705,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>75.3</v>
+        <v>76.7</v>
       </c>
       <c r="D25" t="n">
-        <v>2029</v>
+        <v>1992</v>
       </c>
       <c r="E25" t="n">
         <v>1170</v>
       </c>
       <c r="F25" t="n">
-        <v>73.40000000000001</v>
+        <v>70.3</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>26544000000</v>
       </c>
       <c r="N25" t="n">
-        <v>35265762911</v>
+        <v>34622671128</v>
       </c>
     </row>
     <row r="26">
@@ -1757,16 +1757,16 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>34.1</v>
+        <v>34.4</v>
       </c>
       <c r="D26" t="n">
-        <v>4175</v>
+        <v>4135</v>
       </c>
       <c r="E26" t="n">
         <v>1492.806001579363</v>
       </c>
       <c r="F26" t="n">
-        <v>179.7</v>
+        <v>177</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>106485000000</v>
       </c>
       <c r="N26" t="n">
-        <v>312476033825</v>
+        <v>309482251465</v>
       </c>
     </row>
     <row r="27">
@@ -1809,16 +1809,16 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>24.2</v>
+        <v>24.5</v>
       </c>
       <c r="D27" t="n">
-        <v>2885.5</v>
+        <v>2856</v>
       </c>
       <c r="E27" t="n">
         <v>2919.137515755844</v>
       </c>
       <c r="F27" t="n">
-        <v>-1.2</v>
+        <v>-2.2</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>89135000000</v>
       </c>
       <c r="N27" t="n">
-        <v>367945060546</v>
+        <v>364183362648</v>
       </c>
     </row>
     <row r="28">
@@ -1861,16 +1861,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>91.09999999999999</v>
+        <v>92.2</v>
       </c>
       <c r="D28" t="n">
-        <v>2908</v>
+        <v>2872</v>
       </c>
       <c r="E28" t="n">
         <v>1600</v>
       </c>
       <c r="F28" t="n">
-        <v>81.8</v>
+        <v>79.5</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         <v>88496000000</v>
       </c>
       <c r="N28" t="n">
-        <v>97176636000</v>
+        <v>95973624000</v>
       </c>
     </row>
     <row r="29">
@@ -1913,16 +1913,16 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>48.7</v>
+        <v>49</v>
       </c>
       <c r="D29" t="n">
-        <v>814.0999755859375</v>
+        <v>809</v>
       </c>
       <c r="E29" t="n">
         <v>590</v>
       </c>
       <c r="F29" t="n">
-        <v>38</v>
+        <v>37.1</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>362887000000</v>
       </c>
       <c r="N29" t="n">
-        <v>744843197872</v>
+        <v>740177085308</v>
       </c>
     </row>
     <row r="30">
@@ -1965,16 +1965,16 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>40.2</v>
+        <v>40.4</v>
       </c>
       <c r="D30" t="n">
-        <v>3005</v>
+        <v>2989</v>
       </c>
       <c r="E30" t="n">
         <v>2560</v>
       </c>
       <c r="F30" t="n">
-        <v>17.4</v>
+        <v>16.8</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>180306000000</v>
       </c>
       <c r="N30" t="n">
-        <v>448276788840</v>
+        <v>445889957352</v>
       </c>
     </row>
     <row r="31">
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>45.6</v>
+        <v>45.8</v>
       </c>
       <c r="D31" t="n">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="E31" t="n">
         <v>933.1435874692879</v>
       </c>
       <c r="F31" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>4653173000</v>
       </c>
       <c r="N31" t="n">
-        <v>10194163356</v>
+        <v>10150737740</v>
       </c>
     </row>
     <row r="32">
@@ -2069,16 +2069,16 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>58.3</v>
+        <v>59.5</v>
       </c>
       <c r="D32" t="n">
-        <v>5080</v>
+        <v>4980</v>
       </c>
       <c r="E32" t="n">
         <v>4265.455132343447</v>
       </c>
       <c r="F32" t="n">
-        <v>19.1</v>
+        <v>16.8</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>14129000000</v>
       </c>
       <c r="N32" t="n">
-        <v>24217817960</v>
+        <v>23741089260</v>
       </c>
     </row>
     <row r="33">
@@ -2121,16 +2121,16 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>68.40000000000001</v>
+        <v>68.7</v>
       </c>
       <c r="D33" t="n">
-        <v>2718.5</v>
+        <v>2706</v>
       </c>
       <c r="E33" t="n">
         <v>2939.562915943684</v>
       </c>
       <c r="F33" t="n">
-        <v>-7.5</v>
+        <v>-7.9</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>101054000000</v>
       </c>
       <c r="N33" t="n">
-        <v>147715308484</v>
+        <v>147036095184</v>
       </c>
     </row>
     <row r="34">
@@ -2173,16 +2173,16 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>46.5</v>
+        <v>46.3</v>
       </c>
       <c r="D34" t="n">
-        <v>2267.5</v>
+        <v>2276</v>
       </c>
       <c r="E34" t="n">
         <v>2006.059650428343</v>
       </c>
       <c r="F34" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>173440000000</v>
       </c>
       <c r="N34" t="n">
-        <v>373281316942</v>
+        <v>374680607436</v>
       </c>
     </row>
     <row r="35">
@@ -2228,16 +2228,16 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>57.9</v>
+        <v>58.4</v>
       </c>
       <c r="D35" t="n">
-        <v>4770</v>
+        <v>4730</v>
       </c>
       <c r="E35" t="n">
         <v>3573.410502159827</v>
       </c>
       <c r="F35" t="n">
-        <v>33.5</v>
+        <v>32.4</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>75825000000</v>
       </c>
       <c r="N35" t="n">
-        <v>130989924000</v>
+        <v>129891476000</v>
       </c>
     </row>
     <row r="36">
@@ -2280,16 +2280,16 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>247.7</v>
+        <v>248</v>
       </c>
       <c r="D36" t="n">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E36" t="n">
         <v>798.3805136422309</v>
       </c>
       <c r="F36" t="n">
-        <v>26.8</v>
+        <v>26.6</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>429249000000</v>
       </c>
       <c r="N36" t="n">
-        <v>173265806252</v>
+        <v>173094594981</v>
       </c>
     </row>
     <row r="37">
@@ -2332,16 +2332,16 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>24.4</v>
+        <v>24.8</v>
       </c>
       <c r="D37" t="n">
-        <v>2435</v>
+        <v>2394</v>
       </c>
       <c r="E37" t="n">
         <v>1678.083113259255</v>
       </c>
       <c r="F37" t="n">
-        <v>45.1</v>
+        <v>42.7</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>19554000000</v>
       </c>
       <c r="N37" t="n">
-        <v>80287231515</v>
+        <v>78935372586</v>
       </c>
     </row>
     <row r="38">
@@ -2384,16 +2384,16 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>79.09999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="D38" t="n">
-        <v>1193</v>
+        <v>1130</v>
       </c>
       <c r="E38" t="n">
         <v>668.9358717434869</v>
       </c>
       <c r="F38" t="n">
-        <v>78.3</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         <v>15118000000</v>
       </c>
       <c r="N38" t="n">
-        <v>19108306053</v>
+        <v>18099233730</v>
       </c>
     </row>
     <row r="39">
@@ -2436,16 +2436,16 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>11.1</v>
+        <v>10.8</v>
       </c>
       <c r="D39" t="n">
-        <v>3163</v>
+        <v>3238</v>
       </c>
       <c r="E39" t="n">
         <v>4156.179843576074</v>
       </c>
       <c r="F39" t="n">
-        <v>-23.9</v>
+        <v>-22.1</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>90923000000</v>
       </c>
       <c r="N39" t="n">
-        <v>821075025275</v>
+        <v>840544082150</v>
       </c>
     </row>
     <row r="40">
@@ -2488,16 +2488,16 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>238.3</v>
+        <v>224</v>
       </c>
       <c r="D40" t="n">
-        <v>1397</v>
+        <v>1486</v>
       </c>
       <c r="E40" t="n">
         <v>2920</v>
       </c>
       <c r="F40" t="n">
-        <v>-52.2</v>
+        <v>-49.1</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>26036000000</v>
       </c>
       <c r="N40" t="n">
-        <v>10927771261</v>
+        <v>11623957118</v>
       </c>
     </row>
     <row r="41">
@@ -2540,16 +2540,16 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>34.3</v>
+        <v>34.9</v>
       </c>
       <c r="D41" t="n">
-        <v>1319</v>
+        <v>1299</v>
       </c>
       <c r="E41" t="n">
         <v>3234.727863989046</v>
       </c>
       <c r="F41" t="n">
-        <v>-59.2</v>
+        <v>-59.8</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>65478000000</v>
       </c>
       <c r="N41" t="n">
-        <v>190709217585</v>
+        <v>187817493285</v>
       </c>
     </row>
     <row r="42">
@@ -2592,16 +2592,16 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>53.4</v>
+        <v>52.3</v>
       </c>
       <c r="D42" t="n">
-        <v>808</v>
+        <v>825</v>
       </c>
       <c r="E42" t="n">
         <v>656.2604975855553</v>
       </c>
       <c r="F42" t="n">
-        <v>23.1</v>
+        <v>25.7</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>31865000000</v>
       </c>
       <c r="N42" t="n">
-        <v>59691345824</v>
+        <v>60947228100</v>
       </c>
     </row>
     <row r="43">
@@ -2644,16 +2644,16 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>83.09999999999999</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>10000</v>
+        <v>10270</v>
       </c>
       <c r="E43" t="n">
         <v>7040.15625</v>
       </c>
       <c r="F43" t="n">
-        <v>42</v>
+        <v>45.9</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>8781313000</v>
       </c>
       <c r="N43" t="n">
-        <v>10567890000</v>
+        <v>10853223030</v>
       </c>
     </row>
     <row r="44">
@@ -2696,16 +2696,16 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>83.09999999999999</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>10000</v>
+        <v>10270</v>
       </c>
       <c r="E44" t="n">
         <v>7040.15625</v>
       </c>
       <c r="F44" t="n">
-        <v>42</v>
+        <v>45.9</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>8781313000</v>
       </c>
       <c r="N44" t="n">
-        <v>10567890000</v>
+        <v>10853223030</v>
       </c>
     </row>
     <row r="45">
@@ -2748,16 +2748,16 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>40.5</v>
+        <v>13.4</v>
       </c>
       <c r="D45" t="n">
-        <v>3147</v>
+        <v>3182</v>
       </c>
       <c r="E45" t="n">
         <v>6272.971195510064</v>
       </c>
       <c r="F45" t="n">
-        <v>-49.8</v>
+        <v>-49.3</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         <v>153254000000</v>
       </c>
       <c r="N45" t="n">
-        <v>378096456615</v>
+        <v>1146904599570</v>
       </c>
     </row>
     <row r="46">
@@ -2800,16 +2800,16 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>68.5</v>
+        <v>68.7</v>
       </c>
       <c r="D46" t="n">
-        <v>3664</v>
+        <v>3650</v>
       </c>
       <c r="E46" t="n">
         <v>2566.284807227078</v>
       </c>
       <c r="F46" t="n">
-        <v>42.8</v>
+        <v>42.2</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>237487000000</v>
       </c>
       <c r="N46" t="n">
-        <v>346911015456</v>
+        <v>345585482100</v>
       </c>
     </row>
     <row r="47">
@@ -2852,16 +2852,16 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>69.09999999999999</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>5844</v>
+        <v>5817</v>
       </c>
       <c r="E47" t="n">
         <v>4137.137750115735</v>
       </c>
       <c r="F47" t="n">
-        <v>41.3</v>
+        <v>40.6</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>284031000000</v>
       </c>
       <c r="N47" t="n">
-        <v>410895900276</v>
+        <v>408997510593</v>
       </c>
     </row>
     <row r="48">
@@ -2904,16 +2904,16 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>110.8</v>
+        <v>109.9</v>
       </c>
       <c r="D48" t="n">
-        <v>1933</v>
+        <v>1949</v>
       </c>
       <c r="E48" t="n">
         <v>1469.167707232735</v>
       </c>
       <c r="F48" t="n">
-        <v>31.6</v>
+        <v>32.7</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>133437000000</v>
       </c>
       <c r="N48" t="n">
-        <v>120423580400</v>
+        <v>121420361200</v>
       </c>
     </row>
     <row r="49">
@@ -2956,16 +2956,16 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>110.8</v>
+        <v>109.9</v>
       </c>
       <c r="D49" t="n">
-        <v>1933</v>
+        <v>1949</v>
       </c>
       <c r="E49" t="n">
         <v>1489.94784546053</v>
       </c>
       <c r="F49" t="n">
-        <v>29.7</v>
+        <v>30.8</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>133437000000</v>
       </c>
       <c r="N49" t="n">
-        <v>120423580400</v>
+        <v>121420361200</v>
       </c>
     </row>
     <row r="50">
@@ -3008,16 +3008,16 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>126.7</v>
+        <v>128.5</v>
       </c>
       <c r="D50" t="n">
-        <v>1072</v>
+        <v>1057</v>
       </c>
       <c r="E50" t="n">
         <v>438.851170934559</v>
       </c>
       <c r="F50" t="n">
-        <v>144.3</v>
+        <v>140.9</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>79323000000</v>
       </c>
       <c r="N50" t="n">
-        <v>62622652016</v>
+        <v>61746402221</v>
       </c>
     </row>
     <row r="51">
@@ -3060,16 +3060,16 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>56.3</v>
+        <v>57.1</v>
       </c>
       <c r="D51" t="n">
-        <v>3490</v>
+        <v>3503</v>
       </c>
       <c r="E51" t="n">
         <v>2420</v>
       </c>
       <c r="F51" t="n">
-        <v>44.2</v>
+        <v>44.8</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
         <v>414670000000</v>
       </c>
       <c r="N51" t="n">
-        <v>736032439030</v>
+        <v>726704709803</v>
       </c>
     </row>
     <row r="52">
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>113.3</v>
+        <v>112.1</v>
       </c>
       <c r="D52" t="n">
-        <v>3114</v>
+        <v>3146</v>
       </c>
       <c r="E52" t="n">
         <v>4991.027246539169</v>
       </c>
       <c r="F52" t="n">
-        <v>-37.6</v>
+        <v>-37</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>1006135000000</v>
       </c>
       <c r="N52" t="n">
-        <v>888188302044</v>
+        <v>897315477916</v>
       </c>
     </row>
     <row r="53">
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>51</v>
+        <v>16.3</v>
       </c>
       <c r="D53" t="n">
-        <v>3385</v>
+        <v>3525</v>
       </c>
       <c r="E53" t="n">
         <v>7052.737306843267</v>
       </c>
       <c r="F53" t="n">
-        <v>-52</v>
+        <v>-50</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>20433000000</v>
       </c>
       <c r="N53" t="n">
-        <v>40046296660</v>
+        <v>125107495200</v>
       </c>
     </row>
     <row r="54">
@@ -3216,16 +3216,16 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="D54" t="n">
-        <v>5690</v>
+        <v>5636</v>
       </c>
       <c r="E54" t="n">
         <v>2420.370957920882</v>
       </c>
       <c r="F54" t="n">
-        <v>135.1</v>
+        <v>132.9</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>28931000000</v>
       </c>
       <c r="N54" t="n">
-        <v>285865355330</v>
+        <v>283152397652</v>
       </c>
     </row>
     <row r="55">
@@ -3268,16 +3268,16 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>54.6</v>
+        <v>55.5</v>
       </c>
       <c r="D55" t="n">
-        <v>5140</v>
+        <v>5063</v>
       </c>
       <c r="E55" t="n">
         <v>4154.626869982095</v>
       </c>
       <c r="F55" t="n">
-        <v>23.7</v>
+        <v>21.9</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>179492000000</v>
       </c>
       <c r="N55" t="n">
-        <v>328613538300</v>
+        <v>323690728485</v>
       </c>
     </row>
     <row r="56">
@@ -3320,16 +3320,16 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>77.09999999999999</v>
+        <v>77.5</v>
       </c>
       <c r="D56" t="n">
-        <v>3673</v>
+        <v>3653</v>
       </c>
       <c r="E56" t="n">
         <v>3530</v>
       </c>
       <c r="F56" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>107738000000</v>
       </c>
       <c r="N56" t="n">
-        <v>139825049550</v>
+        <v>139063682550</v>
       </c>
     </row>
     <row r="57">
@@ -3372,16 +3372,16 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>44.2</v>
+        <v>44.7</v>
       </c>
       <c r="D57" t="n">
-        <v>1566</v>
+        <v>1548</v>
       </c>
       <c r="E57" t="n">
         <v>3767.430178069353</v>
       </c>
       <c r="F57" t="n">
-        <v>-58.4</v>
+        <v>-58.9</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         <v>31965000000</v>
       </c>
       <c r="N57" t="n">
-        <v>72278253936</v>
+        <v>71447469408</v>
       </c>
     </row>
     <row r="58">
@@ -3424,16 +3424,16 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>53.7</v>
+        <v>55.2</v>
       </c>
       <c r="D58" t="n">
-        <v>2066</v>
+        <v>2034</v>
       </c>
       <c r="E58" t="n">
         <v>1556.090471804319</v>
       </c>
       <c r="F58" t="n">
-        <v>32.8</v>
+        <v>30.7</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         <v>191594000000</v>
       </c>
       <c r="N58" t="n">
-        <v>356608828374</v>
+        <v>347371958916</v>
       </c>
     </row>
     <row r="59">
@@ -3476,16 +3476,16 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>118.6</v>
+        <v>120.5</v>
       </c>
       <c r="D59" t="n">
-        <v>1665</v>
+        <v>1639</v>
       </c>
       <c r="E59" t="n">
         <v>1341.977644710579</v>
       </c>
       <c r="F59" t="n">
-        <v>24.1</v>
+        <v>22.1</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>95903657000</v>
       </c>
       <c r="N59" t="n">
-        <v>80868700350</v>
+        <v>79605885810</v>
       </c>
     </row>
     <row r="60">
@@ -3528,16 +3528,16 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>2072.5</v>
+        <v>2053</v>
       </c>
       <c r="E60" t="n">
         <v>1141.512891683109</v>
       </c>
       <c r="F60" t="n">
-        <v>81.59999999999999</v>
+        <v>79.8</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>35951000000</v>
       </c>
       <c r="N60" t="n">
-        <v>369764384922</v>
+        <v>366285299033</v>
       </c>
     </row>
     <row r="61">
@@ -3580,16 +3580,16 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>2072.5</v>
+        <v>2053</v>
       </c>
       <c r="E61" t="n">
         <v>1842.11261309207</v>
       </c>
       <c r="F61" t="n">
-        <v>12.5</v>
+        <v>11.4</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         <v>35951000000</v>
       </c>
       <c r="N61" t="n">
-        <v>369764384922</v>
+        <v>366285299033</v>
       </c>
     </row>
     <row r="62">
@@ -3632,16 +3632,16 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="D62" t="n">
-        <v>1628.5</v>
+        <v>1639.5</v>
       </c>
       <c r="E62" t="n">
         <v>1344.518957928979</v>
       </c>
       <c r="F62" t="n">
-        <v>21.1</v>
+        <v>21.9</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         <v>55269000000</v>
       </c>
       <c r="N62" t="n">
-        <v>533515765816</v>
+        <v>537119495276</v>
       </c>
     </row>
     <row r="63">
@@ -3684,16 +3684,16 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>48</v>
+        <v>48.3</v>
       </c>
       <c r="D63" t="n">
-        <v>3528</v>
+        <v>3506</v>
       </c>
       <c r="E63" t="n">
         <v>2844.704547285864</v>
       </c>
       <c r="F63" t="n">
-        <v>24</v>
+        <v>23.2</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
         <v>235224000000</v>
       </c>
       <c r="N63" t="n">
-        <v>490353400152</v>
+        <v>487295640854</v>
       </c>
     </row>
     <row r="64">
@@ -3736,16 +3736,16 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>90.8</v>
+        <v>95</v>
       </c>
       <c r="D64" t="n">
-        <v>2646</v>
+        <v>2529</v>
       </c>
       <c r="E64" t="n">
         <v>1748.071046781136</v>
       </c>
       <c r="F64" t="n">
-        <v>51.4</v>
+        <v>44.7</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>71858000000</v>
       </c>
       <c r="N64" t="n">
-        <v>79165644894</v>
+        <v>75665123181</v>
       </c>
     </row>
     <row r="65">
@@ -3788,16 +3788,16 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>54.3</v>
+        <v>54</v>
       </c>
       <c r="D65" t="n">
-        <v>5436</v>
+        <v>5460</v>
       </c>
       <c r="E65" t="n">
         <v>3405.914389596362</v>
       </c>
       <c r="F65" t="n">
-        <v>59.6</v>
+        <v>60.3</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3825,7 +3825,7 @@
         <v>193706000000</v>
       </c>
       <c r="N65" t="n">
-        <v>356893855668</v>
+        <v>358469545980</v>
       </c>
     </row>
     <row r="66">
@@ -3840,16 +3840,16 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>54.3</v>
+        <v>54</v>
       </c>
       <c r="D66" t="n">
-        <v>5436</v>
+        <v>5460</v>
       </c>
       <c r="E66" t="n">
         <v>2714.613787300615</v>
       </c>
       <c r="F66" t="n">
-        <v>100.2</v>
+        <v>101.1</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>193706000000</v>
       </c>
       <c r="N66" t="n">
-        <v>356893855668</v>
+        <v>358469545980</v>
       </c>
     </row>
     <row r="67">
@@ -3996,16 +3996,16 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>46.7</v>
+        <v>47.2</v>
       </c>
       <c r="D69" t="n">
-        <v>1397</v>
+        <v>1389.5</v>
       </c>
       <c r="E69" t="n">
         <v>1111.90611839092</v>
       </c>
       <c r="F69" t="n">
-        <v>25.6</v>
+        <v>25</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>101020000000</v>
       </c>
       <c r="N69" t="n">
-        <v>216514750485</v>
+        <v>214078084874</v>
       </c>
     </row>
     <row r="70">
@@ -4048,16 +4048,16 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>41.9</v>
+        <v>42</v>
       </c>
       <c r="D70" t="n">
-        <v>5390</v>
+        <v>5370</v>
       </c>
       <c r="E70" t="n">
         <v>3361.304411567078</v>
       </c>
       <c r="F70" t="n">
-        <v>60.4</v>
+        <v>59.8</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>48658000000</v>
       </c>
       <c r="N70" t="n">
-        <v>116207494480</v>
+        <v>115776297840</v>
       </c>
     </row>
     <row r="71">
@@ -4155,13 +4155,13 @@
         <v>35.3</v>
       </c>
       <c r="D72" t="n">
-        <v>3998</v>
+        <v>4005</v>
       </c>
       <c r="E72" t="n">
         <v>6646.195827570309</v>
       </c>
       <c r="F72" t="n">
-        <v>-39.8</v>
+        <v>-39.7</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>139195000000</v>
       </c>
       <c r="N72" t="n">
-        <v>394051943466</v>
+        <v>394741879335</v>
       </c>
     </row>
     <row r="73">
@@ -4204,16 +4204,16 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>31.7</v>
+        <v>32.3</v>
       </c>
       <c r="D73" t="n">
-        <v>3010</v>
+        <v>2953</v>
       </c>
       <c r="E73" t="n">
         <v>2480</v>
       </c>
       <c r="F73" t="n">
-        <v>21.4</v>
+        <v>19.1</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>20277000000</v>
       </c>
       <c r="N73" t="n">
-        <v>63895377000</v>
+        <v>62685398100</v>
       </c>
     </row>
     <row r="74">
@@ -4256,16 +4256,16 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>31.7</v>
+        <v>32.3</v>
       </c>
       <c r="D74" t="n">
-        <v>3010</v>
+        <v>2953</v>
       </c>
       <c r="E74" t="n">
         <v>2504.338645418327</v>
       </c>
       <c r="F74" t="n">
-        <v>20.2</v>
+        <v>17.9</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         <v>20277000000</v>
       </c>
       <c r="N74" t="n">
-        <v>63895377000</v>
+        <v>62685398100</v>
       </c>
     </row>
     <row r="75">
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>31.7</v>
+        <v>32.3</v>
       </c>
       <c r="D75" t="n">
-        <v>3010</v>
+        <v>2953</v>
       </c>
       <c r="E75" t="n">
         <v>2880</v>
       </c>
       <c r="F75" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>20277000000</v>
       </c>
       <c r="N75" t="n">
-        <v>63895377000</v>
+        <v>62685398100</v>
       </c>
     </row>
     <row r="76">
@@ -4360,16 +4360,16 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="D76" t="n">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="E76" t="n">
         <v>421.6950726175476</v>
       </c>
       <c r="F76" t="n">
-        <v>40.9</v>
+        <v>42</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>2256815000</v>
       </c>
       <c r="N76" t="n">
-        <v>16639459452</v>
+        <v>16779522242</v>
       </c>
     </row>
     <row r="77">
@@ -4412,16 +4412,16 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>51.9</v>
+        <v>52.6</v>
       </c>
       <c r="D77" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E77" t="n">
         <v>290.3401328717133</v>
       </c>
       <c r="F77" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>5368822000</v>
       </c>
       <c r="N77" t="n">
-        <v>10342469354</v>
+        <v>10203644262</v>
       </c>
     </row>
     <row r="78">
@@ -4568,16 +4568,16 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="D80" t="n">
-        <v>3238</v>
+        <v>3276</v>
       </c>
       <c r="E80" t="n">
         <v>2085.872134468915</v>
       </c>
       <c r="F80" t="n">
-        <v>55.2</v>
+        <v>57.1</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4605,7 +4605,7 @@
         <v>37319000000</v>
       </c>
       <c r="N80" t="n">
-        <v>341509554544</v>
+        <v>345517387488</v>
       </c>
     </row>
     <row r="81">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>13.2</v>
+        <v>13.6</v>
       </c>
       <c r="D81" t="n">
-        <v>988</v>
+        <v>959</v>
       </c>
       <c r="E81" t="n">
         <v>913.2768512341561</v>
       </c>
       <c r="F81" t="n">
-        <v>8.199999999999999</v>
+        <v>5</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>2201899000</v>
       </c>
       <c r="N81" t="n">
-        <v>16716603332</v>
+        <v>16225933801</v>
       </c>
     </row>
     <row r="82">
@@ -4672,16 +4672,16 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>268.3</v>
+        <v>271.9</v>
       </c>
       <c r="D82" t="n">
-        <v>2345.5</v>
+        <v>2315</v>
       </c>
       <c r="E82" t="n">
         <v>2190</v>
       </c>
       <c r="F82" t="n">
-        <v>7.1</v>
+        <v>5.7</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>870891000000</v>
       </c>
       <c r="N82" t="n">
-        <v>324572846595</v>
+        <v>320352223350</v>
       </c>
     </row>
     <row r="83">
@@ -4724,16 +4724,16 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>55.2</v>
+        <v>55.8</v>
       </c>
       <c r="D83" t="n">
-        <v>1666</v>
+        <v>1646.5</v>
       </c>
       <c r="E83" t="n">
         <v>1721.078563209627</v>
       </c>
       <c r="F83" t="n">
-        <v>-3.2</v>
+        <v>-4.3</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>178715000000</v>
       </c>
       <c r="N83" t="n">
-        <v>323966618164</v>
+        <v>320174691961</v>
       </c>
     </row>
     <row r="84">
@@ -4776,16 +4776,16 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>63.1</v>
+        <v>63.3</v>
       </c>
       <c r="D84" t="n">
-        <v>7213</v>
+        <v>7190</v>
       </c>
       <c r="E84" t="n">
         <v>5478.947585152067</v>
       </c>
       <c r="F84" t="n">
-        <v>31.6</v>
+        <v>31.2</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4813,7 +4813,7 @@
         <v>92189000000</v>
       </c>
       <c r="N84" t="n">
-        <v>146212515822</v>
+        <v>145746289860</v>
       </c>
     </row>
     <row r="85">
@@ -4828,16 +4828,16 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="D85" t="n">
-        <v>3230</v>
+        <v>3245</v>
       </c>
       <c r="E85" t="n">
         <v>13739.64575539568</v>
       </c>
       <c r="F85" t="n">
-        <v>-76.5</v>
+        <v>-76.40000000000001</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4865,7 +4865,7 @@
         <v>265431000000</v>
       </c>
       <c r="N85" t="n">
-        <v>1070284854200</v>
+        <v>1075255217300</v>
       </c>
     </row>
     <row r="86">
@@ -4880,16 +4880,16 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="D86" t="n">
-        <v>3230</v>
+        <v>3245</v>
       </c>
       <c r="E86" t="n">
         <v>12975.86280814577</v>
       </c>
       <c r="F86" t="n">
-        <v>-75.09999999999999</v>
+        <v>-75</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>265431000000</v>
       </c>
       <c r="N86" t="n">
-        <v>1070284854200</v>
+        <v>1075255217300</v>
       </c>
     </row>
     <row r="87">
@@ -4932,16 +4932,16 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>83.5</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="D87" t="n">
-        <v>973</v>
+        <v>986</v>
       </c>
       <c r="E87" t="n">
         <v>193.0499177180472</v>
       </c>
       <c r="F87" t="n">
-        <v>404</v>
+        <v>410.7</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>22097000000</v>
       </c>
       <c r="N87" t="n">
-        <v>26472411000</v>
+        <v>26826102000</v>
       </c>
     </row>
     <row r="88">
@@ -4984,16 +4984,16 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="D88" t="n">
-        <v>3895</v>
+        <v>3820</v>
       </c>
       <c r="E88" t="n">
         <v>7960</v>
       </c>
       <c r="F88" t="n">
-        <v>-51.1</v>
+        <v>-52</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -5021,7 +5021,7 @@
         <v>34259000000</v>
       </c>
       <c r="N88" t="n">
-        <v>148864274770</v>
+        <v>145997825320</v>
       </c>
     </row>
     <row r="89">
@@ -5036,16 +5036,16 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>34.1</v>
+        <v>33.9</v>
       </c>
       <c r="D89" t="n">
-        <v>1103.5</v>
+        <v>1110</v>
       </c>
       <c r="E89" t="n">
         <v>2968.770104870396</v>
       </c>
       <c r="F89" t="n">
-        <v>-62.8</v>
+        <v>-62.6</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>364930000000</v>
       </c>
       <c r="N89" t="n">
-        <v>1069926166990</v>
+        <v>1076228405400</v>
       </c>
     </row>
     <row r="90">
@@ -5091,13 +5091,13 @@
         <v>1.9</v>
       </c>
       <c r="D90" t="n">
-        <v>2006</v>
+        <v>2072</v>
       </c>
       <c r="E90" t="n">
         <v>887.288318673809</v>
       </c>
       <c r="F90" t="n">
-        <v>126.1</v>
+        <v>133.5</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>3124000000</v>
       </c>
       <c r="N90" t="n">
-        <v>161117791652</v>
+        <v>166418775824</v>
       </c>
     </row>
     <row r="91">
@@ -5140,16 +5140,16 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>24</v>
+        <v>24.8</v>
       </c>
       <c r="D91" t="n">
-        <v>12450</v>
+        <v>12070</v>
       </c>
       <c r="E91" t="n">
         <v>3496.825336379792</v>
       </c>
       <c r="F91" t="n">
-        <v>256</v>
+        <v>245.2</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>29490000000</v>
       </c>
       <c r="N91" t="n">
-        <v>122682735750</v>
+        <v>118938202450</v>
       </c>
     </row>
     <row r="92">
@@ -5192,16 +5192,16 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>80.09999999999999</v>
+        <v>80</v>
       </c>
       <c r="D92" t="n">
-        <v>4205</v>
+        <v>4210</v>
       </c>
       <c r="E92" t="n">
         <v>3449.780346820809</v>
       </c>
       <c r="F92" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>79561000000</v>
       </c>
       <c r="N92" t="n">
-        <v>99368577865</v>
+        <v>99486733130</v>
       </c>
     </row>
     <row r="93">
@@ -5247,13 +5247,13 @@
         <v>1.4</v>
       </c>
       <c r="D93" t="n">
-        <v>7411</v>
+        <v>7391</v>
       </c>
       <c r="E93" t="n">
         <v>2697.360927565142</v>
       </c>
       <c r="F93" t="n">
-        <v>174.8</v>
+        <v>174</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>8148000000</v>
       </c>
       <c r="N93" t="n">
-        <v>577829882009</v>
+        <v>576270497629</v>
       </c>
     </row>
     <row r="94">
@@ -5296,10 +5296,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>755.4</v>
+        <v>738.8</v>
       </c>
       <c r="D94" t="n">
-        <v>3780</v>
+        <v>3865</v>
       </c>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
@@ -5329,7 +5329,7 @@
         <v>609113000000</v>
       </c>
       <c r="N94" t="n">
-        <v>80637228000</v>
+        <v>82450499000</v>
       </c>
     </row>
     <row r="95">
@@ -5344,16 +5344,16 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>35.1</v>
+        <v>34.9</v>
       </c>
       <c r="D95" t="n">
-        <v>6939</v>
+        <v>6980</v>
       </c>
       <c r="E95" t="n">
         <v>2836.942753814942</v>
       </c>
       <c r="F95" t="n">
-        <v>144.6</v>
+        <v>146</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>85476000000</v>
       </c>
       <c r="N95" t="n">
-        <v>243373108275</v>
+        <v>244811110500</v>
       </c>
     </row>
     <row r="96">
@@ -5396,16 +5396,16 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>99.90000000000001</v>
+        <v>101.4</v>
       </c>
       <c r="D96" t="n">
-        <v>1808</v>
+        <v>1781</v>
       </c>
       <c r="E96" t="n">
         <v>2298.672482457804</v>
       </c>
       <c r="F96" t="n">
-        <v>-21.3</v>
+        <v>-22.5</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>44925000000</v>
       </c>
       <c r="N96" t="n">
-        <v>44986113600</v>
+        <v>44314307700</v>
       </c>
     </row>
     <row r="97">
@@ -5448,16 +5448,16 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="D97" t="n">
-        <v>2791</v>
+        <v>2802</v>
       </c>
       <c r="E97" t="n">
         <v>2007.754513143541</v>
       </c>
       <c r="F97" t="n">
-        <v>39</v>
+        <v>39.6</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>37208000000</v>
       </c>
       <c r="N97" t="n">
-        <v>148686988803</v>
+        <v>149272999866</v>
       </c>
     </row>
     <row r="98">
@@ -5500,16 +5500,16 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="D98" t="n">
-        <v>4281</v>
+        <v>4236</v>
       </c>
       <c r="E98" t="n">
         <v>1306.206628354146</v>
       </c>
       <c r="F98" t="n">
-        <v>227.7</v>
+        <v>224.3</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>120984000000</v>
       </c>
       <c r="N98" t="n">
-        <v>909288535446</v>
+        <v>899730491976</v>
       </c>
     </row>
     <row r="99">
@@ -5552,16 +5552,16 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>52.2</v>
+        <v>53.1</v>
       </c>
       <c r="D99" t="n">
-        <v>889</v>
+        <v>873</v>
       </c>
       <c r="E99" t="n">
         <v>896.0103264198827</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.8</v>
+        <v>-2.6</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>8417495000</v>
       </c>
       <c r="N99" t="n">
-        <v>16133371975</v>
+        <v>15843007575</v>
       </c>
     </row>
     <row r="100">
@@ -5604,16 +5604,16 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>256.9</v>
+        <v>64</v>
       </c>
       <c r="D100" t="n">
-        <v>1250</v>
+        <v>1254</v>
       </c>
       <c r="E100" t="n">
         <v>2776.401128792723</v>
       </c>
       <c r="F100" t="n">
-        <v>-55</v>
+        <v>-54.8</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>137818000000</v>
       </c>
       <c r="N100" t="n">
-        <v>53652200000</v>
+        <v>215347258104</v>
       </c>
     </row>
     <row r="101">
@@ -5656,16 +5656,16 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>45.3</v>
+        <v>45.9</v>
       </c>
       <c r="D101" t="n">
-        <v>1649</v>
+        <v>1631</v>
       </c>
       <c r="E101" t="n">
         <v>1746.940387696806</v>
       </c>
       <c r="F101" t="n">
-        <v>-5.6</v>
+        <v>-6.6</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>29854000000</v>
       </c>
       <c r="N101" t="n">
-        <v>65869263775</v>
+        <v>64996778756</v>
       </c>
     </row>
     <row r="102">
@@ -5708,16 +5708,16 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>111.6</v>
+        <v>113.4</v>
       </c>
       <c r="D102" t="n">
-        <v>1525</v>
+        <v>1501</v>
       </c>
       <c r="E102" t="n">
         <v>1160.8</v>
       </c>
       <c r="F102" t="n">
-        <v>31.4</v>
+        <v>29.3</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5745,7 +5745,7 @@
         <v>458473000000</v>
       </c>
       <c r="N102" t="n">
-        <v>410746382250</v>
+        <v>404282176890</v>
       </c>
     </row>
     <row r="103">
@@ -5760,16 +5760,16 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>16.2</v>
+        <v>16</v>
       </c>
       <c r="D103" t="n">
-        <v>1710</v>
+        <v>1725</v>
       </c>
       <c r="E103" t="n">
         <v>1512.21980974841</v>
       </c>
       <c r="F103" t="n">
-        <v>13.1</v>
+        <v>14.1</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>91015000000</v>
       </c>
       <c r="N103" t="n">
-        <v>562622613120</v>
+        <v>567557899200</v>
       </c>
     </row>
     <row r="104">
@@ -5812,16 +5812,16 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>28.6</v>
+        <v>28.9</v>
       </c>
       <c r="D104" t="n">
-        <v>2061</v>
+        <v>2040</v>
       </c>
       <c r="E104" t="n">
         <v>1347.74653160027</v>
       </c>
       <c r="F104" t="n">
-        <v>52.9</v>
+        <v>51.4</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>14143000000</v>
       </c>
       <c r="N104" t="n">
-        <v>49391059149</v>
+        <v>48887802360</v>
       </c>
     </row>
     <row r="105">
@@ -5864,16 +5864,16 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>55.9</v>
+        <v>56.3</v>
       </c>
       <c r="D105" t="n">
-        <v>1301</v>
+        <v>1292</v>
       </c>
       <c r="E105" t="n">
         <v>1605.189780306002</v>
       </c>
       <c r="F105" t="n">
-        <v>-19</v>
+        <v>-19.5</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5901,7 +5901,7 @@
         <v>48290000000</v>
       </c>
       <c r="N105" t="n">
-        <v>86332278400</v>
+        <v>85735052800</v>
       </c>
     </row>
     <row r="106">
@@ -5916,16 +5916,16 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>40.1</v>
+        <v>40.3</v>
       </c>
       <c r="D106" t="n">
-        <v>4180</v>
+        <v>4160</v>
       </c>
       <c r="E106" t="n">
         <v>3096.322467304314</v>
       </c>
       <c r="F106" t="n">
-        <v>35</v>
+        <v>34.4</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
         <v>46440000000</v>
       </c>
       <c r="N106" t="n">
-        <v>115773861280</v>
+        <v>115219919360</v>
       </c>
     </row>
     <row r="107">
@@ -5968,16 +5968,16 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>36.2</v>
+        <v>36.7</v>
       </c>
       <c r="D107" t="n">
-        <v>892.9000244140625</v>
+        <v>881</v>
       </c>
       <c r="E107" t="n">
         <v>2157.626835069302</v>
       </c>
       <c r="F107" t="n">
-        <v>-58.6</v>
+        <v>-59.2</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>142023000000</v>
       </c>
       <c r="N107" t="n">
-        <v>392395207294</v>
+        <v>387165604406</v>
       </c>
     </row>
     <row r="108">
@@ -6020,16 +6020,16 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>85.5</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="D108" t="n">
-        <v>2122</v>
+        <v>2108</v>
       </c>
       <c r="E108" t="n">
         <v>1190</v>
       </c>
       <c r="F108" t="n">
-        <v>78.3</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>39477000000</v>
       </c>
       <c r="N108" t="n">
-        <v>46157060716</v>
+        <v>45852537224</v>
       </c>
     </row>
     <row r="109">
@@ -6072,16 +6072,16 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="D109" t="n">
-        <v>2572</v>
+        <v>2586</v>
       </c>
       <c r="E109" t="n">
         <v>1361.432492253209</v>
       </c>
       <c r="F109" t="n">
-        <v>88.90000000000001</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>11124687000</v>
       </c>
       <c r="N109" t="n">
-        <v>56880183804</v>
+        <v>57189796002</v>
       </c>
     </row>
     <row r="110">
@@ -6124,16 +6124,16 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>41.7</v>
+        <v>41.5</v>
       </c>
       <c r="D110" t="n">
-        <v>5316</v>
+        <v>5353</v>
       </c>
       <c r="E110" t="n">
         <v>1716.713876475349</v>
       </c>
       <c r="F110" t="n">
-        <v>209.7</v>
+        <v>211.8</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>564005000000</v>
       </c>
       <c r="N110" t="n">
-        <v>1350912956016</v>
+        <v>1360315472828</v>
       </c>
     </row>
     <row r="111">
@@ -6176,16 +6176,16 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D111" t="n">
-        <v>3586</v>
+        <v>3608</v>
       </c>
       <c r="E111" t="n">
         <v>2561.705402476645</v>
       </c>
       <c r="F111" t="n">
-        <v>40</v>
+        <v>40.8</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -6213,7 +6213,7 @@
         <v>81977000000</v>
       </c>
       <c r="N111" t="n">
-        <v>656145506302</v>
+        <v>660170938856</v>
       </c>
     </row>
     <row r="112">
@@ -6228,16 +6228,16 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>67.90000000000001</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>2914</v>
+        <v>2937</v>
       </c>
       <c r="E112" t="n">
         <v>1410</v>
       </c>
       <c r="F112" t="n">
-        <v>106.7</v>
+        <v>108.3</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
         <v>82575000000</v>
       </c>
       <c r="N112" t="n">
-        <v>121555309930</v>
+        <v>122514737565</v>
       </c>
     </row>
     <row r="113">
@@ -6280,16 +6280,16 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>72.3</v>
+        <v>72.8</v>
       </c>
       <c r="D113" t="n">
-        <v>3375</v>
+        <v>3355</v>
       </c>
       <c r="E113" t="n">
         <v>1789.870000553189</v>
       </c>
       <c r="F113" t="n">
-        <v>88.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
         <v>81126000000</v>
       </c>
       <c r="N113" t="n">
-        <v>112168334250</v>
+        <v>111503633010</v>
       </c>
     </row>
     <row r="114">
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>34.9</v>
+        <v>35.6</v>
       </c>
       <c r="D114" t="n">
-        <v>1754</v>
+        <v>1719</v>
       </c>
       <c r="E114" t="n">
         <v>1529.631984751819</v>
       </c>
       <c r="F114" t="n">
-        <v>14.7</v>
+        <v>12.4</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -6369,7 +6369,7 @@
         <v>4358822000</v>
       </c>
       <c r="N114" t="n">
-        <v>12497686746</v>
+        <v>12248303031</v>
       </c>
     </row>
     <row r="115">
@@ -6384,16 +6384,16 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>34.9</v>
+        <v>35.6</v>
       </c>
       <c r="D115" t="n">
-        <v>1754</v>
+        <v>1719</v>
       </c>
       <c r="E115" t="n">
         <v>1449.995380693296</v>
       </c>
       <c r="F115" t="n">
-        <v>21</v>
+        <v>18.6</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>4358822000</v>
       </c>
       <c r="N115" t="n">
-        <v>12497686746</v>
+        <v>12248303031</v>
       </c>
     </row>
     <row r="116">
@@ -6436,16 +6436,16 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>33.2</v>
+        <v>34.6</v>
       </c>
       <c r="D116" t="n">
-        <v>1746</v>
+        <v>1690</v>
       </c>
       <c r="E116" t="n">
         <v>2112.609181636727</v>
       </c>
       <c r="F116" t="n">
-        <v>-17.4</v>
+        <v>-20</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -6473,7 +6473,7 @@
         <v>51035000000</v>
       </c>
       <c r="N116" t="n">
-        <v>153689718924</v>
+        <v>147372529200</v>
       </c>
     </row>
     <row r="117">
@@ -6488,16 +6488,16 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>20.3</v>
+        <v>19.9</v>
       </c>
       <c r="D117" t="n">
-        <v>7940</v>
+        <v>8080</v>
       </c>
       <c r="E117" t="n">
         <v>3565.648720929983</v>
       </c>
       <c r="F117" t="n">
-        <v>122.7</v>
+        <v>126.6</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>89436000000</v>
       </c>
       <c r="N117" t="n">
-        <v>441236590460</v>
+        <v>449016580720</v>
       </c>
     </row>
     <row r="118">
@@ -6540,16 +6540,16 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="D118" t="n">
-        <v>2360</v>
+        <v>2367.5</v>
       </c>
       <c r="E118" t="n">
         <v>4544.200649553184</v>
       </c>
       <c r="F118" t="n">
-        <v>-48.1</v>
+        <v>-47.9</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>234016000000</v>
       </c>
       <c r="N118" t="n">
-        <v>574700273400</v>
+        <v>576526651388</v>
       </c>
     </row>
     <row r="119">
@@ -6592,16 +6592,16 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="D119" t="n">
-        <v>2360</v>
+        <v>2367.5</v>
       </c>
       <c r="E119" t="n">
         <v>8262.359904024779</v>
       </c>
       <c r="F119" t="n">
-        <v>-71.40000000000001</v>
+        <v>-71.3</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>234016000000</v>
       </c>
       <c r="N119" t="n">
-        <v>574700273400</v>
+        <v>576526651388</v>
       </c>
     </row>
     <row r="120">
@@ -6647,13 +6647,13 @@
         <v>76.09999999999999</v>
       </c>
       <c r="D120" t="n">
-        <v>2351</v>
+        <v>2353</v>
       </c>
       <c r="E120" t="n">
         <v>1303.446424801713</v>
       </c>
       <c r="F120" t="n">
-        <v>80.40000000000001</v>
+        <v>80.5</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>91090000000</v>
       </c>
       <c r="N120" t="n">
-        <v>119637180184</v>
+        <v>119738955752</v>
       </c>
     </row>
     <row r="121">
@@ -6696,16 +6696,16 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="D121" t="n">
-        <v>1410</v>
+        <v>1399</v>
       </c>
       <c r="E121" t="n">
         <v>1267.324164058639</v>
       </c>
       <c r="F121" t="n">
-        <v>11.3</v>
+        <v>10.4</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6733,7 +6733,7 @@
         <v>3080243000</v>
       </c>
       <c r="N121" t="n">
-        <v>13799991480</v>
+        <v>13692331972</v>
       </c>
     </row>
     <row r="122">
@@ -6748,16 +6748,16 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>58.1</v>
+        <v>57.4</v>
       </c>
       <c r="D122" t="n">
-        <v>985</v>
+        <v>997</v>
       </c>
       <c r="E122" t="n">
         <v>930</v>
       </c>
       <c r="F122" t="n">
-        <v>5.9</v>
+        <v>7.2</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         <v>20765000000</v>
       </c>
       <c r="N122" t="n">
-        <v>35765958730</v>
+        <v>36201686146</v>
       </c>
     </row>
     <row r="123">
@@ -6800,16 +6800,16 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>70.8</v>
+        <v>70.5</v>
       </c>
       <c r="D123" t="n">
-        <v>1210.5</v>
+        <v>1216</v>
       </c>
       <c r="E123" t="n">
         <v>1188.162962482466</v>
       </c>
       <c r="F123" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>195510000000</v>
       </c>
       <c r="N123" t="n">
-        <v>276050139358</v>
+        <v>277304394432</v>
       </c>
     </row>
     <row r="124">
@@ -6855,13 +6855,13 @@
         <v>6.8</v>
       </c>
       <c r="D124" t="n">
-        <v>6417</v>
+        <v>6451</v>
       </c>
       <c r="E124" t="n">
         <v>6116.356643776557</v>
       </c>
       <c r="F124" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
         <v>201313000000</v>
       </c>
       <c r="N124" t="n">
-        <v>2966134267143</v>
+        <v>2981850110229</v>
       </c>
     </row>
   </sheetData>

--- a/docs/アクティビスト銘柄_資産判定.xlsx
+++ b/docs/アクティビスト銘柄_資産判定.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N124"/>
+  <dimension ref="A1:N125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,10 +517,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>39.8</v>
+        <v>40.4</v>
       </c>
       <c r="D2" t="n">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>35403000000</v>
       </c>
       <c r="N2" t="n">
-        <v>89052763716</v>
+        <v>87531676137</v>
       </c>
     </row>
     <row r="3">
@@ -565,10 +565,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>39.8</v>
+        <v>40.4</v>
       </c>
       <c r="D3" t="n">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
@@ -598,7 +598,7 @@
         <v>35403000000</v>
       </c>
       <c r="N3" t="n">
-        <v>89052763716</v>
+        <v>87531676137</v>
       </c>
     </row>
     <row r="4">
@@ -613,16 +613,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>43.3</v>
+        <v>43.1</v>
       </c>
       <c r="D4" t="n">
-        <v>3412</v>
+        <v>3427</v>
       </c>
       <c r="E4" t="n">
         <v>1598.889989734285</v>
       </c>
       <c r="F4" t="n">
-        <v>113.4</v>
+        <v>114.3</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -650,7 +650,7 @@
         <v>178465000000</v>
       </c>
       <c r="N4" t="n">
-        <v>412461025744</v>
+        <v>414274306924</v>
       </c>
     </row>
     <row r="5">
@@ -665,16 +665,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="D5" t="n">
-        <v>1015</v>
+        <v>970</v>
       </c>
       <c r="E5" t="n">
         <v>653.0713101160862</v>
       </c>
       <c r="F5" t="n">
-        <v>55.4</v>
+        <v>48.5</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
         <v>1810139000</v>
       </c>
       <c r="N5" t="n">
-        <v>24290238035</v>
+        <v>23213330930</v>
       </c>
     </row>
     <row r="6">
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>90.3</v>
+        <v>91.2</v>
       </c>
       <c r="D6" t="n">
-        <v>2190</v>
+        <v>2170</v>
       </c>
       <c r="E6" t="n">
         <v>2122.579027791042</v>
       </c>
       <c r="F6" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>74819000000</v>
       </c>
       <c r="N6" t="n">
-        <v>82835203860</v>
+        <v>82078717980</v>
       </c>
     </row>
     <row r="7">
@@ -769,16 +769,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>46.6</v>
+        <v>47</v>
       </c>
       <c r="D7" t="n">
-        <v>2189.5</v>
+        <v>2173.5</v>
       </c>
       <c r="E7" t="n">
         <v>2032.365850102071</v>
       </c>
       <c r="F7" t="n">
-        <v>7.7</v>
+        <v>6.9</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>323730000000</v>
       </c>
       <c r="N7" t="n">
-        <v>694251608270</v>
+        <v>689178292110</v>
       </c>
     </row>
     <row r="8">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="D8" t="n">
-        <v>2230</v>
+        <v>2233</v>
       </c>
       <c r="E8" t="n">
         <v>2040</v>
       </c>
       <c r="F8" t="n">
-        <v>9.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>34682000000</v>
       </c>
       <c r="N8" t="n">
-        <v>100656005060</v>
+        <v>100791416726</v>
       </c>
     </row>
     <row r="9">
@@ -873,16 +873,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>82.59999999999999</v>
+        <v>85.8</v>
       </c>
       <c r="D9" t="n">
-        <v>7060</v>
+        <v>6800</v>
       </c>
       <c r="E9" t="n">
         <v>4549.503641591014</v>
       </c>
       <c r="F9" t="n">
-        <v>55.2</v>
+        <v>49.5</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
         <v>96906000000</v>
       </c>
       <c r="N9" t="n">
-        <v>117261707420</v>
+        <v>112943287600</v>
       </c>
     </row>
     <row r="10">
@@ -925,16 +925,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>68.8</v>
+        <v>71</v>
       </c>
       <c r="D10" t="n">
-        <v>1876.5</v>
+        <v>1818</v>
       </c>
       <c r="E10" t="n">
         <v>1257.709264012363</v>
       </c>
       <c r="F10" t="n">
-        <v>49.2</v>
+        <v>44.5</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>261172000000</v>
       </c>
       <c r="N10" t="n">
-        <v>379718954838</v>
+        <v>367881193656</v>
       </c>
     </row>
     <row r="11">
@@ -977,16 +977,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>68.8</v>
+        <v>71</v>
       </c>
       <c r="D11" t="n">
-        <v>1876.5</v>
+        <v>1818</v>
       </c>
       <c r="E11" t="n">
         <v>1217.254500469243</v>
       </c>
       <c r="F11" t="n">
-        <v>54.2</v>
+        <v>49.4</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>261172000000</v>
       </c>
       <c r="N11" t="n">
-        <v>379718954838</v>
+        <v>367881193656</v>
       </c>
     </row>
     <row r="12">
@@ -1029,16 +1029,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>100.8</v>
+        <v>102.5</v>
       </c>
       <c r="D12" t="n">
-        <v>1451</v>
+        <v>1427</v>
       </c>
       <c r="E12" t="n">
         <v>1212.640316205534</v>
       </c>
       <c r="F12" t="n">
-        <v>19.7</v>
+        <v>17.7</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>13446000000</v>
       </c>
       <c r="N12" t="n">
-        <v>13335628797</v>
+        <v>13115053269</v>
       </c>
     </row>
     <row r="13">
@@ -1081,16 +1081,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>28</v>
+        <v>28.3</v>
       </c>
       <c r="D13" t="n">
-        <v>5200</v>
+        <v>5130</v>
       </c>
       <c r="E13" t="n">
         <v>2617.980935875217</v>
       </c>
       <c r="F13" t="n">
-        <v>98.59999999999999</v>
+        <v>96</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>53152000000</v>
       </c>
       <c r="N13" t="n">
-        <v>190078824000</v>
+        <v>187520070600</v>
       </c>
     </row>
     <row r="14">
@@ -1133,16 +1133,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>40.1</v>
+        <v>41.4</v>
       </c>
       <c r="D14" t="n">
-        <v>2297</v>
+        <v>2225</v>
       </c>
       <c r="E14" t="n">
         <v>1710</v>
       </c>
       <c r="F14" t="n">
-        <v>34.3</v>
+        <v>30.1</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>15543000000</v>
       </c>
       <c r="N14" t="n">
-        <v>38755402054</v>
+        <v>37540604950</v>
       </c>
     </row>
     <row r="15">
@@ -1185,16 +1185,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>40.1</v>
+        <v>41.4</v>
       </c>
       <c r="D15" t="n">
-        <v>2297</v>
+        <v>2225</v>
       </c>
       <c r="E15" t="n">
         <v>1710</v>
       </c>
       <c r="F15" t="n">
-        <v>34.3</v>
+        <v>30.1</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         <v>15543000000</v>
       </c>
       <c r="N15" t="n">
-        <v>38755402054</v>
+        <v>37540604950</v>
       </c>
     </row>
     <row r="16">
@@ -1237,16 +1237,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>78.5</v>
+        <v>77.5</v>
       </c>
       <c r="D16" t="n">
-        <v>1695</v>
+        <v>1718</v>
       </c>
       <c r="E16" t="n">
         <v>1101.400153022188</v>
       </c>
       <c r="F16" t="n">
-        <v>53.9</v>
+        <v>56</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1274,7 +1274,7 @@
         <v>398395000000</v>
       </c>
       <c r="N16" t="n">
-        <v>507364014390</v>
+        <v>514248599836</v>
       </c>
     </row>
     <row r="17">
@@ -1289,16 +1289,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>26</v>
+        <v>26.8</v>
       </c>
       <c r="D17" t="n">
-        <v>5264</v>
+        <v>5119</v>
       </c>
       <c r="E17" t="n">
         <v>3322.047887165483</v>
       </c>
       <c r="F17" t="n">
-        <v>58.5</v>
+        <v>54.1</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         <v>476359000000</v>
       </c>
       <c r="N17" t="n">
-        <v>1828744141728</v>
+        <v>1778370300438</v>
       </c>
     </row>
     <row r="18">
@@ -1341,16 +1341,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>77.40000000000001</v>
+        <v>78.2</v>
       </c>
       <c r="D18" t="n">
-        <v>2362</v>
+        <v>2338</v>
       </c>
       <c r="E18" t="n">
         <v>3610</v>
       </c>
       <c r="F18" t="n">
-        <v>-34.6</v>
+        <v>-35.2</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>122147000000</v>
       </c>
       <c r="N18" t="n">
-        <v>157725960728</v>
+        <v>156123326072</v>
       </c>
     </row>
     <row r="19">
@@ -1393,16 +1393,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="D19" t="n">
-        <v>2142</v>
+        <v>2127</v>
       </c>
       <c r="E19" t="n">
         <v>2269.918722577861</v>
       </c>
       <c r="F19" t="n">
-        <v>-5.6</v>
+        <v>-6.3</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>90811000000</v>
       </c>
       <c r="N19" t="n">
-        <v>440632445778</v>
+        <v>437546784393</v>
       </c>
     </row>
     <row r="20">
@@ -1445,16 +1445,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>57.2</v>
+        <v>59.5</v>
       </c>
       <c r="D20" t="n">
-        <v>2694</v>
+        <v>2592</v>
       </c>
       <c r="E20" t="n">
         <v>3155.301177013616</v>
       </c>
       <c r="F20" t="n">
-        <v>-14.6</v>
+        <v>-17.9</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>98642000000</v>
       </c>
       <c r="N20" t="n">
-        <v>172427627304</v>
+        <v>165899187072</v>
       </c>
     </row>
     <row r="21">
@@ -1497,16 +1497,16 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>46</v>
+        <v>47.9</v>
       </c>
       <c r="D21" t="n">
-        <v>3480</v>
+        <v>3340</v>
       </c>
       <c r="E21" t="n">
         <v>1752.426893379333</v>
       </c>
       <c r="F21" t="n">
-        <v>98.59999999999999</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>77563221000</v>
       </c>
       <c r="N21" t="n">
-        <v>168727104000</v>
+        <v>161939232000</v>
       </c>
     </row>
     <row r="22">
@@ -1549,16 +1549,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>46</v>
+        <v>47.9</v>
       </c>
       <c r="D22" t="n">
-        <v>3480</v>
+        <v>3340</v>
       </c>
       <c r="E22" t="n">
         <v>1576.721867844292</v>
       </c>
       <c r="F22" t="n">
-        <v>120.7</v>
+        <v>111.8</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>77563221000</v>
       </c>
       <c r="N22" t="n">
-        <v>168727104000</v>
+        <v>161939232000</v>
       </c>
     </row>
     <row r="23">
@@ -1601,16 +1601,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>56.2</v>
+        <v>57</v>
       </c>
       <c r="D23" t="n">
-        <v>4000</v>
+        <v>3940</v>
       </c>
       <c r="E23" t="n">
         <v>2387</v>
       </c>
       <c r="F23" t="n">
-        <v>67.59999999999999</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         <v>105205000000</v>
       </c>
       <c r="N23" t="n">
-        <v>187282108000</v>
+        <v>184472876380</v>
       </c>
     </row>
     <row r="24">
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>76.7</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>1992</v>
+        <v>1887</v>
       </c>
       <c r="E24" t="n">
         <v>1270</v>
       </c>
       <c r="F24" t="n">
-        <v>56.9</v>
+        <v>48.6</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>26544000000</v>
       </c>
       <c r="N24" t="n">
-        <v>34622671128</v>
+        <v>32797680933</v>
       </c>
     </row>
     <row r="25">
@@ -1705,16 +1705,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>76.7</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>1992</v>
+        <v>1887</v>
       </c>
       <c r="E25" t="n">
         <v>1170</v>
       </c>
       <c r="F25" t="n">
-        <v>70.3</v>
+        <v>61.3</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>26544000000</v>
       </c>
       <c r="N25" t="n">
-        <v>34622671128</v>
+        <v>32797680933</v>
       </c>
     </row>
     <row r="26">
@@ -1760,13 +1760,13 @@
         <v>34.4</v>
       </c>
       <c r="D26" t="n">
-        <v>4135</v>
+        <v>4130</v>
       </c>
       <c r="E26" t="n">
         <v>1492.806001579363</v>
       </c>
       <c r="F26" t="n">
-        <v>177</v>
+        <v>176.7</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>106485000000</v>
       </c>
       <c r="N26" t="n">
-        <v>309482251465</v>
+        <v>309108028670</v>
       </c>
     </row>
     <row r="27">
@@ -1809,16 +1809,16 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>24.5</v>
+        <v>24.7</v>
       </c>
       <c r="D27" t="n">
-        <v>2856</v>
+        <v>2828</v>
       </c>
       <c r="E27" t="n">
         <v>2919.137515755844</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.2</v>
+        <v>-3.1</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>89135000000</v>
       </c>
       <c r="N27" t="n">
-        <v>364183362648</v>
+        <v>360612937524</v>
       </c>
     </row>
     <row r="28">
@@ -1861,16 +1861,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>92.2</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>2872</v>
+        <v>2741</v>
       </c>
       <c r="E28" t="n">
         <v>1600</v>
       </c>
       <c r="F28" t="n">
-        <v>79.5</v>
+        <v>71.3</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         <v>88496000000</v>
       </c>
       <c r="N28" t="n">
-        <v>95973624000</v>
+        <v>91595997000</v>
       </c>
     </row>
     <row r="29">
@@ -1913,16 +1913,16 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>49</v>
+        <v>49.8</v>
       </c>
       <c r="D29" t="n">
-        <v>809</v>
+        <v>796.9000244140625</v>
       </c>
       <c r="E29" t="n">
         <v>590</v>
       </c>
       <c r="F29" t="n">
-        <v>37.1</v>
+        <v>35.1</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>362887000000</v>
       </c>
       <c r="N29" t="n">
-        <v>740177085308</v>
+        <v>729106473860</v>
       </c>
     </row>
     <row r="30">
@@ -1965,16 +1965,16 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>40.4</v>
+        <v>40.7</v>
       </c>
       <c r="D30" t="n">
-        <v>2989</v>
+        <v>2968.5</v>
       </c>
       <c r="E30" t="n">
         <v>2560</v>
       </c>
       <c r="F30" t="n">
-        <v>16.8</v>
+        <v>16</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>180306000000</v>
       </c>
       <c r="N30" t="n">
-        <v>445889957352</v>
+        <v>442831829508</v>
       </c>
     </row>
     <row r="31">
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>45.8</v>
+        <v>47.3</v>
       </c>
       <c r="D31" t="n">
-        <v>935</v>
+        <v>906</v>
       </c>
       <c r="E31" t="n">
         <v>933.1435874692879</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2</v>
+        <v>-2.9</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>4653173000</v>
       </c>
       <c r="N31" t="n">
-        <v>10150737740</v>
+        <v>9835902024</v>
       </c>
     </row>
     <row r="32">
@@ -2069,16 +2069,16 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>59.5</v>
+        <v>60.7</v>
       </c>
       <c r="D32" t="n">
-        <v>4980</v>
+        <v>4885</v>
       </c>
       <c r="E32" t="n">
         <v>4265.455132343447</v>
       </c>
       <c r="F32" t="n">
-        <v>16.8</v>
+        <v>14.5</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>14129000000</v>
       </c>
       <c r="N32" t="n">
-        <v>23741089260</v>
+        <v>23288196995</v>
       </c>
     </row>
     <row r="33">
@@ -2121,16 +2121,16 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>68.7</v>
+        <v>69.3</v>
       </c>
       <c r="D33" t="n">
-        <v>2706</v>
+        <v>2684.5</v>
       </c>
       <c r="E33" t="n">
         <v>2939.562915943684</v>
       </c>
       <c r="F33" t="n">
-        <v>-7.9</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>101054000000</v>
       </c>
       <c r="N33" t="n">
-        <v>147036095184</v>
+        <v>145867848308</v>
       </c>
     </row>
     <row r="34">
@@ -2173,16 +2173,16 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>46.3</v>
+        <v>48.2</v>
       </c>
       <c r="D34" t="n">
-        <v>2276</v>
+        <v>2184</v>
       </c>
       <c r="E34" t="n">
         <v>2006.059650428343</v>
       </c>
       <c r="F34" t="n">
-        <v>13.5</v>
+        <v>8.9</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>173440000000</v>
       </c>
       <c r="N34" t="n">
-        <v>374680607436</v>
+        <v>359535345624</v>
       </c>
     </row>
     <row r="35">
@@ -2228,16 +2228,16 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>58.4</v>
+        <v>59.3</v>
       </c>
       <c r="D35" t="n">
-        <v>4730</v>
+        <v>4660</v>
       </c>
       <c r="E35" t="n">
         <v>3573.410502159827</v>
       </c>
       <c r="F35" t="n">
-        <v>32.4</v>
+        <v>30.4</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>75825000000</v>
       </c>
       <c r="N35" t="n">
-        <v>129891476000</v>
+        <v>127969192000</v>
       </c>
     </row>
     <row r="36">
@@ -2280,16 +2280,16 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>248</v>
+        <v>251.5</v>
       </c>
       <c r="D36" t="n">
-        <v>1011</v>
+        <v>997</v>
       </c>
       <c r="E36" t="n">
         <v>798.3805136422309</v>
       </c>
       <c r="F36" t="n">
-        <v>26.6</v>
+        <v>24.9</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>429249000000</v>
       </c>
       <c r="N36" t="n">
-        <v>173094594981</v>
+        <v>170697637187</v>
       </c>
     </row>
     <row r="37">
@@ -2332,16 +2332,16 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>24.8</v>
+        <v>25.5</v>
       </c>
       <c r="D37" t="n">
-        <v>2394</v>
+        <v>2330</v>
       </c>
       <c r="E37" t="n">
         <v>1678.083113259255</v>
       </c>
       <c r="F37" t="n">
-        <v>42.7</v>
+        <v>38.8</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>19554000000</v>
       </c>
       <c r="N37" t="n">
-        <v>78935372586</v>
+        <v>76825153770</v>
       </c>
     </row>
     <row r="38">
@@ -2384,16 +2384,16 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>83.5</v>
+        <v>86.8</v>
       </c>
       <c r="D38" t="n">
-        <v>1130</v>
+        <v>1087</v>
       </c>
       <c r="E38" t="n">
         <v>668.9358717434869</v>
       </c>
       <c r="F38" t="n">
-        <v>68.90000000000001</v>
+        <v>62.5</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         <v>15118000000</v>
       </c>
       <c r="N38" t="n">
-        <v>18099233730</v>
+        <v>17410501827</v>
       </c>
     </row>
     <row r="39">
@@ -2436,16 +2436,16 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="D39" t="n">
-        <v>3238</v>
+        <v>3221</v>
       </c>
       <c r="E39" t="n">
         <v>4156.179843576074</v>
       </c>
       <c r="F39" t="n">
-        <v>-22.1</v>
+        <v>-22.5</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>90923000000</v>
       </c>
       <c r="N39" t="n">
-        <v>840544082150</v>
+        <v>836131095925</v>
       </c>
     </row>
     <row r="40">
@@ -2488,16 +2488,16 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>224</v>
+        <v>245.8</v>
       </c>
       <c r="D40" t="n">
-        <v>1486</v>
+        <v>1354</v>
       </c>
       <c r="E40" t="n">
         <v>2920</v>
       </c>
       <c r="F40" t="n">
-        <v>-49.1</v>
+        <v>-53.6</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>26036000000</v>
       </c>
       <c r="N40" t="n">
-        <v>11623957118</v>
+        <v>10591411802</v>
       </c>
     </row>
     <row r="41">
@@ -2540,16 +2540,16 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>34.9</v>
+        <v>35.1</v>
       </c>
       <c r="D41" t="n">
-        <v>1299</v>
+        <v>1290</v>
       </c>
       <c r="E41" t="n">
         <v>3234.727863989046</v>
       </c>
       <c r="F41" t="n">
-        <v>-59.8</v>
+        <v>-60.1</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>65478000000</v>
       </c>
       <c r="N41" t="n">
-        <v>187817493285</v>
+        <v>186516217350</v>
       </c>
     </row>
     <row r="42">
@@ -2592,16 +2592,16 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>52.3</v>
+        <v>53.6</v>
       </c>
       <c r="D42" t="n">
-        <v>825</v>
+        <v>804</v>
       </c>
       <c r="E42" t="n">
         <v>656.2604975855553</v>
       </c>
       <c r="F42" t="n">
-        <v>25.7</v>
+        <v>22.5</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>31865000000</v>
       </c>
       <c r="N42" t="n">
-        <v>60947228100</v>
+        <v>59395844112</v>
       </c>
     </row>
     <row r="43">
@@ -2644,16 +2644,16 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>80.90000000000001</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>10270</v>
+        <v>9840</v>
       </c>
       <c r="E43" t="n">
         <v>7040.15625</v>
       </c>
       <c r="F43" t="n">
-        <v>45.9</v>
+        <v>39.8</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>8781313000</v>
       </c>
       <c r="N43" t="n">
-        <v>10853223030</v>
+        <v>10398803760</v>
       </c>
     </row>
     <row r="44">
@@ -2696,16 +2696,16 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>80.90000000000001</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>10270</v>
+        <v>9840</v>
       </c>
       <c r="E44" t="n">
         <v>7040.15625</v>
       </c>
       <c r="F44" t="n">
-        <v>45.9</v>
+        <v>39.8</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>8781313000</v>
       </c>
       <c r="N44" t="n">
-        <v>10853223030</v>
+        <v>10398803760</v>
       </c>
     </row>
     <row r="45">
@@ -2748,16 +2748,16 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>13.4</v>
+        <v>13</v>
       </c>
       <c r="D45" t="n">
-        <v>3182</v>
+        <v>3266</v>
       </c>
       <c r="E45" t="n">
         <v>6272.971195510064</v>
       </c>
       <c r="F45" t="n">
-        <v>-49.3</v>
+        <v>-47.9</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         <v>153254000000</v>
       </c>
       <c r="N45" t="n">
-        <v>1146904599570</v>
+        <v>1177181150910</v>
       </c>
     </row>
     <row r="46">
@@ -2800,16 +2800,16 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>68.7</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>3650</v>
+        <v>3614</v>
       </c>
       <c r="E46" t="n">
         <v>2566.284807227078</v>
       </c>
       <c r="F46" t="n">
-        <v>42.2</v>
+        <v>40.8</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>237487000000</v>
       </c>
       <c r="N46" t="n">
-        <v>345585482100</v>
+        <v>342176967756</v>
       </c>
     </row>
     <row r="47">
@@ -2855,7 +2855,7 @@
         <v>69.40000000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>5817</v>
+        <v>5818</v>
       </c>
       <c r="E47" t="n">
         <v>4137.137750115735</v>
@@ -2889,7 +2889,7 @@
         <v>284031000000</v>
       </c>
       <c r="N47" t="n">
-        <v>408997510593</v>
+        <v>409067821322</v>
       </c>
     </row>
     <row r="48">
@@ -2904,16 +2904,16 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>109.9</v>
+        <v>114.5</v>
       </c>
       <c r="D48" t="n">
-        <v>1949</v>
+        <v>1870</v>
       </c>
       <c r="E48" t="n">
         <v>1469.167707232735</v>
       </c>
       <c r="F48" t="n">
-        <v>32.7</v>
+        <v>27.3</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>133437000000</v>
       </c>
       <c r="N48" t="n">
-        <v>121420361200</v>
+        <v>116498756000</v>
       </c>
     </row>
     <row r="49">
@@ -2956,16 +2956,16 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>109.9</v>
+        <v>114.5</v>
       </c>
       <c r="D49" t="n">
-        <v>1949</v>
+        <v>1870</v>
       </c>
       <c r="E49" t="n">
         <v>1489.94784546053</v>
       </c>
       <c r="F49" t="n">
-        <v>30.8</v>
+        <v>25.5</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>133437000000</v>
       </c>
       <c r="N49" t="n">
-        <v>121420361200</v>
+        <v>116498756000</v>
       </c>
     </row>
     <row r="50">
@@ -3008,16 +3008,16 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>128.5</v>
+        <v>132.7</v>
       </c>
       <c r="D50" t="n">
-        <v>1057</v>
+        <v>1023</v>
       </c>
       <c r="E50" t="n">
         <v>438.851170934559</v>
       </c>
       <c r="F50" t="n">
-        <v>140.9</v>
+        <v>133.1</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>79323000000</v>
       </c>
       <c r="N50" t="n">
-        <v>61746402221</v>
+        <v>59760236019</v>
       </c>
     </row>
     <row r="51">
@@ -3060,16 +3060,16 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>57.1</v>
+        <v>58.5</v>
       </c>
       <c r="D51" t="n">
-        <v>3503</v>
+        <v>3419</v>
       </c>
       <c r="E51" t="n">
         <v>2420</v>
       </c>
       <c r="F51" t="n">
-        <v>44.8</v>
+        <v>41.3</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
         <v>414670000000</v>
       </c>
       <c r="N51" t="n">
-        <v>726704709803</v>
+        <v>709278733319</v>
       </c>
     </row>
     <row r="52">
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>112.1</v>
+        <v>113</v>
       </c>
       <c r="D52" t="n">
-        <v>3146</v>
+        <v>3122</v>
       </c>
       <c r="E52" t="n">
         <v>4991.027246539169</v>
       </c>
       <c r="F52" t="n">
-        <v>-37</v>
+        <v>-37.4</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>1006135000000</v>
       </c>
       <c r="N52" t="n">
-        <v>897315477916</v>
+        <v>890470096012</v>
       </c>
     </row>
     <row r="53">
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>16.3</v>
+        <v>17.8</v>
       </c>
       <c r="D53" t="n">
-        <v>3525</v>
+        <v>3235</v>
       </c>
       <c r="E53" t="n">
         <v>7052.737306843267</v>
       </c>
       <c r="F53" t="n">
-        <v>-50</v>
+        <v>-54.1</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>20433000000</v>
       </c>
       <c r="N53" t="n">
-        <v>125107495200</v>
+        <v>114814963680</v>
       </c>
     </row>
     <row r="54">
@@ -3216,16 +3216,16 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>10.2</v>
+        <v>10.6</v>
       </c>
       <c r="D54" t="n">
-        <v>5636</v>
+        <v>5444</v>
       </c>
       <c r="E54" t="n">
         <v>2420.370957920882</v>
       </c>
       <c r="F54" t="n">
-        <v>132.9</v>
+        <v>124.9</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>28931000000</v>
       </c>
       <c r="N54" t="n">
-        <v>283152397652</v>
+        <v>273506325908</v>
       </c>
     </row>
     <row r="55">
@@ -3268,16 +3268,16 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>55.5</v>
+        <v>56.1</v>
       </c>
       <c r="D55" t="n">
-        <v>5063</v>
+        <v>5008</v>
       </c>
       <c r="E55" t="n">
         <v>4154.626869982095</v>
       </c>
       <c r="F55" t="n">
-        <v>21.9</v>
+        <v>20.5</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>179492000000</v>
       </c>
       <c r="N55" t="n">
-        <v>323690728485</v>
+        <v>320174435760</v>
       </c>
     </row>
     <row r="56">
@@ -3320,16 +3320,16 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>77.5</v>
+        <v>78.2</v>
       </c>
       <c r="D56" t="n">
-        <v>3653</v>
+        <v>3620</v>
       </c>
       <c r="E56" t="n">
         <v>3530</v>
       </c>
       <c r="F56" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>107738000000</v>
       </c>
       <c r="N56" t="n">
-        <v>139063682550</v>
+        <v>137807427000</v>
       </c>
     </row>
     <row r="57">
@@ -3372,16 +3372,16 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>44.7</v>
+        <v>45.8</v>
       </c>
       <c r="D57" t="n">
-        <v>1548</v>
+        <v>1511</v>
       </c>
       <c r="E57" t="n">
         <v>3767.430178069353</v>
       </c>
       <c r="F57" t="n">
-        <v>-58.9</v>
+        <v>-59.9</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         <v>31965000000</v>
       </c>
       <c r="N57" t="n">
-        <v>71447469408</v>
+        <v>69739745656</v>
       </c>
     </row>
     <row r="58">
@@ -3424,16 +3424,16 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>55.2</v>
+        <v>56</v>
       </c>
       <c r="D58" t="n">
-        <v>2034</v>
+        <v>2004</v>
       </c>
       <c r="E58" t="n">
         <v>1556.090471804319</v>
       </c>
       <c r="F58" t="n">
-        <v>30.7</v>
+        <v>28.8</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         <v>191594000000</v>
       </c>
       <c r="N58" t="n">
-        <v>347371958916</v>
+        <v>342248478696</v>
       </c>
     </row>
     <row r="59">
@@ -3476,16 +3476,16 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>120.5</v>
+        <v>121.7</v>
       </c>
       <c r="D59" t="n">
-        <v>1639</v>
+        <v>1623</v>
       </c>
       <c r="E59" t="n">
         <v>1341.977644710579</v>
       </c>
       <c r="F59" t="n">
-        <v>22.1</v>
+        <v>20.9</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>95903657000</v>
       </c>
       <c r="N59" t="n">
-        <v>79605885810</v>
+        <v>78828769170</v>
       </c>
     </row>
     <row r="60">
@@ -3528,16 +3528,16 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>9.800000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="D60" t="n">
-        <v>2053</v>
+        <v>2004</v>
       </c>
       <c r="E60" t="n">
         <v>1141.512891683109</v>
       </c>
       <c r="F60" t="n">
-        <v>79.8</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>35951000000</v>
       </c>
       <c r="N60" t="n">
-        <v>366285299033</v>
+        <v>357542980644</v>
       </c>
     </row>
     <row r="61">
@@ -3580,16 +3580,16 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>9.800000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="D61" t="n">
-        <v>2053</v>
+        <v>2004</v>
       </c>
       <c r="E61" t="n">
         <v>1842.11261309207</v>
       </c>
       <c r="F61" t="n">
-        <v>11.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         <v>35951000000</v>
       </c>
       <c r="N61" t="n">
-        <v>366285299033</v>
+        <v>357542980644</v>
       </c>
     </row>
     <row r="62">
@@ -3635,13 +3635,13 @@
         <v>10.3</v>
       </c>
       <c r="D62" t="n">
-        <v>1639.5</v>
+        <v>1642</v>
       </c>
       <c r="E62" t="n">
         <v>1344.518957928979</v>
       </c>
       <c r="F62" t="n">
-        <v>21.9</v>
+        <v>22.1</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         <v>55269000000</v>
       </c>
       <c r="N62" t="n">
-        <v>537119495276</v>
+        <v>537938524698</v>
       </c>
     </row>
     <row r="63">
@@ -3684,16 +3684,16 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>48.3</v>
+        <v>48.8</v>
       </c>
       <c r="D63" t="n">
-        <v>3506</v>
+        <v>3466</v>
       </c>
       <c r="E63" t="n">
         <v>2844.704547285864</v>
       </c>
       <c r="F63" t="n">
-        <v>23.2</v>
+        <v>21.8</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
         <v>235224000000</v>
       </c>
       <c r="N63" t="n">
-        <v>487295640854</v>
+        <v>481736078494</v>
       </c>
     </row>
     <row r="64">
@@ -3736,16 +3736,16 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>95</v>
+        <v>95.3</v>
       </c>
       <c r="D64" t="n">
-        <v>2529</v>
+        <v>2520</v>
       </c>
       <c r="E64" t="n">
         <v>1748.071046781136</v>
       </c>
       <c r="F64" t="n">
-        <v>44.7</v>
+        <v>44.2</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>71858000000</v>
       </c>
       <c r="N64" t="n">
-        <v>75665123181</v>
+        <v>75395852280</v>
       </c>
     </row>
     <row r="65">
@@ -3788,16 +3788,16 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>54</v>
+        <v>54.1</v>
       </c>
       <c r="D65" t="n">
-        <v>5460</v>
+        <v>5451</v>
       </c>
       <c r="E65" t="n">
         <v>3405.914389596362</v>
       </c>
       <c r="F65" t="n">
-        <v>60.3</v>
+        <v>60</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3825,7 +3825,7 @@
         <v>193706000000</v>
       </c>
       <c r="N65" t="n">
-        <v>358469545980</v>
+        <v>357878662113</v>
       </c>
     </row>
     <row r="66">
@@ -3840,16 +3840,16 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>54</v>
+        <v>54.1</v>
       </c>
       <c r="D66" t="n">
-        <v>5460</v>
+        <v>5451</v>
       </c>
       <c r="E66" t="n">
         <v>2714.613787300615</v>
       </c>
       <c r="F66" t="n">
-        <v>101.1</v>
+        <v>100.8</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>193706000000</v>
       </c>
       <c r="N66" t="n">
-        <v>358469545980</v>
+        <v>357878662113</v>
       </c>
     </row>
     <row r="67">
@@ -3892,16 +3892,16 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="D67" t="n">
-        <v>5368</v>
+        <v>5309</v>
       </c>
       <c r="E67" t="n">
         <v>2148.936934940886</v>
       </c>
       <c r="F67" t="n">
-        <v>149.8</v>
+        <v>147.1</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>80068000000</v>
       </c>
       <c r="N67" t="n">
-        <v>399050780392</v>
+        <v>394664790071</v>
       </c>
     </row>
     <row r="68">
@@ -3944,16 +3944,16 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="D68" t="n">
-        <v>5368</v>
+        <v>5309</v>
       </c>
       <c r="E68" t="n">
         <v>5066.092575838703</v>
       </c>
       <c r="F68" t="n">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>80068000000</v>
       </c>
       <c r="N68" t="n">
-        <v>399050780392</v>
+        <v>394664790071</v>
       </c>
     </row>
     <row r="69">
@@ -3996,16 +3996,16 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>47.2</v>
+        <v>47.5</v>
       </c>
       <c r="D69" t="n">
-        <v>1389.5</v>
+        <v>1380</v>
       </c>
       <c r="E69" t="n">
         <v>1111.90611839092</v>
       </c>
       <c r="F69" t="n">
-        <v>25</v>
+        <v>24.1</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>101020000000</v>
       </c>
       <c r="N69" t="n">
-        <v>214078084874</v>
+        <v>212614434780</v>
       </c>
     </row>
     <row r="70">
@@ -4048,16 +4048,16 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>42</v>
+        <v>43.5</v>
       </c>
       <c r="D70" t="n">
-        <v>5370</v>
+        <v>5190</v>
       </c>
       <c r="E70" t="n">
         <v>3361.304411567078</v>
       </c>
       <c r="F70" t="n">
-        <v>59.8</v>
+        <v>54.4</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>48658000000</v>
       </c>
       <c r="N70" t="n">
-        <v>115776297840</v>
+        <v>111895528080</v>
       </c>
     </row>
     <row r="71">
@@ -4100,16 +4100,16 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>35.2</v>
+        <v>36.4</v>
       </c>
       <c r="D71" t="n">
-        <v>5390</v>
+        <v>5220</v>
       </c>
       <c r="E71" t="n">
         <v>3891.73752540545</v>
       </c>
       <c r="F71" t="n">
-        <v>38.5</v>
+        <v>34.1</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>50698683000</v>
       </c>
       <c r="N71" t="n">
-        <v>143868802000</v>
+        <v>139331196000</v>
       </c>
     </row>
     <row r="72">
@@ -4152,16 +4152,16 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>35.3</v>
+        <v>36.1</v>
       </c>
       <c r="D72" t="n">
-        <v>4005</v>
+        <v>3917</v>
       </c>
       <c r="E72" t="n">
         <v>6646.195827570309</v>
       </c>
       <c r="F72" t="n">
-        <v>-39.7</v>
+        <v>-41.1</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>139195000000</v>
       </c>
       <c r="N72" t="n">
-        <v>394741879335</v>
+        <v>386068399839</v>
       </c>
     </row>
     <row r="73">
@@ -4204,16 +4204,16 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>32.3</v>
+        <v>33.7</v>
       </c>
       <c r="D73" t="n">
-        <v>2953</v>
+        <v>2835</v>
       </c>
       <c r="E73" t="n">
         <v>2480</v>
       </c>
       <c r="F73" t="n">
-        <v>19.1</v>
+        <v>14.3</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>20277000000</v>
       </c>
       <c r="N73" t="n">
-        <v>62685398100</v>
+        <v>60180529500</v>
       </c>
     </row>
     <row r="74">
@@ -4256,16 +4256,16 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>32.3</v>
+        <v>33.7</v>
       </c>
       <c r="D74" t="n">
-        <v>2953</v>
+        <v>2835</v>
       </c>
       <c r="E74" t="n">
         <v>2504.338645418327</v>
       </c>
       <c r="F74" t="n">
-        <v>17.9</v>
+        <v>13.2</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         <v>20277000000</v>
       </c>
       <c r="N74" t="n">
-        <v>62685398100</v>
+        <v>60180529500</v>
       </c>
     </row>
     <row r="75">
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>32.3</v>
+        <v>33.7</v>
       </c>
       <c r="D75" t="n">
-        <v>2953</v>
+        <v>2835</v>
       </c>
       <c r="E75" t="n">
         <v>2880</v>
       </c>
       <c r="F75" t="n">
-        <v>2.5</v>
+        <v>-1.6</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>20277000000</v>
       </c>
       <c r="N75" t="n">
-        <v>62685398100</v>
+        <v>60180529500</v>
       </c>
     </row>
     <row r="76">
@@ -4360,16 +4360,16 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>13.4</v>
+        <v>13.1</v>
       </c>
       <c r="D76" t="n">
-        <v>599</v>
+        <v>616</v>
       </c>
       <c r="E76" t="n">
         <v>421.6950726175476</v>
       </c>
       <c r="F76" t="n">
-        <v>42</v>
+        <v>46.1</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>2256815000</v>
       </c>
       <c r="N76" t="n">
-        <v>16779522242</v>
+        <v>17255735728</v>
       </c>
     </row>
     <row r="77">
@@ -4412,16 +4412,16 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>52.6</v>
+        <v>53.7</v>
       </c>
       <c r="D77" t="n">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="E77" t="n">
         <v>290.3401328717133</v>
       </c>
       <c r="F77" t="n">
-        <v>1.3</v>
+        <v>-0.8</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>5368822000</v>
       </c>
       <c r="N77" t="n">
-        <v>10203644262</v>
+        <v>9995406624</v>
       </c>
     </row>
     <row r="78">
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>38.5</v>
+        <v>39</v>
       </c>
       <c r="D78" t="n">
-        <v>3050</v>
+        <v>3010</v>
       </c>
       <c r="E78" t="n">
         <v>1359.655069733296</v>
       </c>
       <c r="F78" t="n">
-        <v>124.3</v>
+        <v>121.4</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>68841000000</v>
       </c>
       <c r="N78" t="n">
-        <v>178823650250</v>
+        <v>176478422050</v>
       </c>
     </row>
     <row r="79">
@@ -4516,16 +4516,16 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D79" t="n">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="E79" t="n">
         <v>448.6811097117532</v>
       </c>
       <c r="F79" t="n">
-        <v>-6.8</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>10804525000</v>
       </c>
       <c r="N79" t="n">
-        <v>86703695562</v>
+        <v>85459144908</v>
       </c>
     </row>
     <row r="80">
@@ -4571,13 +4571,13 @@
         <v>10.8</v>
       </c>
       <c r="D80" t="n">
-        <v>3276</v>
+        <v>3278</v>
       </c>
       <c r="E80" t="n">
         <v>2085.872134468915</v>
       </c>
       <c r="F80" t="n">
-        <v>57.1</v>
+        <v>57.2</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4605,7 +4605,7 @@
         <v>37319000000</v>
       </c>
       <c r="N80" t="n">
-        <v>345517387488</v>
+        <v>345728326064</v>
       </c>
     </row>
     <row r="81">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>13.6</v>
+        <v>14.2</v>
       </c>
       <c r="D81" t="n">
-        <v>959</v>
+        <v>916</v>
       </c>
       <c r="E81" t="n">
         <v>913.2768512341561</v>
       </c>
       <c r="F81" t="n">
-        <v>5</v>
+        <v>0.3</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>2201899000</v>
       </c>
       <c r="N81" t="n">
-        <v>16225933801</v>
+        <v>15498389324</v>
       </c>
     </row>
     <row r="82">
@@ -4672,16 +4672,16 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>271.9</v>
+        <v>276.7</v>
       </c>
       <c r="D82" t="n">
-        <v>2315</v>
+        <v>2274.5</v>
       </c>
       <c r="E82" t="n">
         <v>2190</v>
       </c>
       <c r="F82" t="n">
-        <v>5.7</v>
+        <v>3.9</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>870891000000</v>
       </c>
       <c r="N82" t="n">
-        <v>320352223350</v>
+        <v>314747789205</v>
       </c>
     </row>
     <row r="83">
@@ -4724,16 +4724,16 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>55.8</v>
+        <v>56.7</v>
       </c>
       <c r="D83" t="n">
-        <v>1646.5</v>
+        <v>1620</v>
       </c>
       <c r="E83" t="n">
         <v>1721.078563209627</v>
       </c>
       <c r="F83" t="n">
-        <v>-4.3</v>
+        <v>-5.9</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>178715000000</v>
       </c>
       <c r="N83" t="n">
-        <v>320174691961</v>
+        <v>315021561480</v>
       </c>
     </row>
     <row r="84">
@@ -4776,16 +4776,16 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>63.3</v>
+        <v>65.2</v>
       </c>
       <c r="D84" t="n">
-        <v>7190</v>
+        <v>6978</v>
       </c>
       <c r="E84" t="n">
         <v>5478.947585152067</v>
       </c>
       <c r="F84" t="n">
-        <v>31.2</v>
+        <v>27.4</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4813,59 +4813,59 @@
         <v>92189000000</v>
       </c>
       <c r="N84" t="n">
-        <v>145746289860</v>
+        <v>141448902732</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>大東建託株式会社</t>
+          <t>株式会社メガチップス</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>1878</t>
+          <t>6875</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>24.7</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>3245</v>
+        <v>7580</v>
       </c>
       <c r="E85" t="n">
-        <v>13739.64575539568</v>
+        <v>4870</v>
       </c>
       <c r="F85" t="n">
-        <v>-76.40000000000001</v>
+        <v>55.6</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>198760000000</v>
+        <v>21407837000</v>
       </c>
       <c r="J85" t="n">
-        <v>62873000000</v>
+        <v>1798538000</v>
       </c>
       <c r="K85" t="n">
-        <v>3798000000</v>
+        <v>75623395000</v>
       </c>
       <c r="L85" t="n">
-        <v>308206000000</v>
+        <v>50043484000</v>
       </c>
       <c r="M85" t="n">
-        <v>265431000000</v>
+        <v>98829770000</v>
       </c>
       <c r="N85" t="n">
-        <v>1075255217300</v>
+        <v>122877106000</v>
       </c>
     </row>
     <row r="86">
@@ -4880,16 +4880,16 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>24.7</v>
+        <v>26.1</v>
       </c>
       <c r="D86" t="n">
-        <v>3245</v>
+        <v>3070</v>
       </c>
       <c r="E86" t="n">
-        <v>12975.86280814577</v>
+        <v>13739.64575539568</v>
       </c>
       <c r="F86" t="n">
-        <v>-75</v>
+        <v>-77.7</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2023-06-02</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -4917,239 +4917,239 @@
         <v>265431000000</v>
       </c>
       <c r="N86" t="n">
-        <v>1075255217300</v>
+        <v>1017267647800</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>株式会社ダイドーリミテッド</t>
+          <t>大東建託株式会社</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>3205</t>
+          <t>1878</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>82.40000000000001</v>
+        <v>26.1</v>
       </c>
       <c r="D87" t="n">
-        <v>986</v>
+        <v>3070</v>
       </c>
       <c r="E87" t="n">
-        <v>193.0499177180472</v>
+        <v>12975.86280814577</v>
       </c>
       <c r="F87" t="n">
-        <v>410.7</v>
+        <v>-76.3</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2023-06-02</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>7723000000</v>
+        <v>198760000000</v>
       </c>
       <c r="J87" t="n">
-        <v>9807000000</v>
+        <v>62873000000</v>
       </c>
       <c r="K87" t="n">
-        <v>4567000000</v>
+        <v>3798000000</v>
       </c>
       <c r="L87" t="n">
-        <v>10628000000</v>
+        <v>308206000000</v>
       </c>
       <c r="M87" t="n">
-        <v>22097000000</v>
+        <v>265431000000</v>
       </c>
       <c r="N87" t="n">
-        <v>26826102000</v>
+        <v>1017267647800</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>株式会社クレハ</t>
+          <t>株式会社ダイドーリミテッド</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>4023</t>
+          <t>3205</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>23.5</v>
+        <v>82.2</v>
       </c>
       <c r="D88" t="n">
-        <v>3820</v>
+        <v>988</v>
       </c>
       <c r="E88" t="n">
-        <v>7960</v>
+        <v>193.0499177180472</v>
       </c>
       <c r="F88" t="n">
-        <v>-52</v>
+        <v>411.8</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2023-10-04</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>4999000000</v>
+        <v>7723000000</v>
       </c>
       <c r="J88" t="n">
-        <v>6059000000</v>
+        <v>9807000000</v>
       </c>
       <c r="K88" t="n">
-        <v>23201000000</v>
+        <v>4567000000</v>
       </c>
       <c r="L88" t="n">
-        <v>148872000000</v>
+        <v>10628000000</v>
       </c>
       <c r="M88" t="n">
-        <v>34259000000</v>
+        <v>22097000000</v>
       </c>
       <c r="N88" t="n">
-        <v>145997825320</v>
+        <v>26880516000</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ヤマハ発動機株式会社</t>
+          <t>株式会社クレハ</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>7272</t>
+          <t>4023</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>33.9</v>
+        <v>23.9</v>
       </c>
       <c r="D89" t="n">
-        <v>1110</v>
+        <v>3745</v>
       </c>
       <c r="E89" t="n">
-        <v>2968.770104870396</v>
+        <v>7960</v>
       </c>
       <c r="F89" t="n">
-        <v>-62.6</v>
+        <v>-53</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2023-01-16</t>
+          <t>2023-10-04</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>267180000000</v>
+        <v>4999000000</v>
       </c>
       <c r="J89" t="n">
-        <v>48711000000</v>
+        <v>6059000000</v>
       </c>
       <c r="K89" t="n">
-        <v>49039000000</v>
+        <v>23201000000</v>
       </c>
       <c r="L89" t="n">
-        <v>749158000000</v>
+        <v>148872000000</v>
       </c>
       <c r="M89" t="n">
-        <v>364930000000</v>
+        <v>34259000000</v>
       </c>
       <c r="N89" t="n">
-        <v>1076228405400</v>
+        <v>143131375870</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ライフネット生命保険株式会社</t>
+          <t>ヤマハ発動機株式会社</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>7157</t>
+          <t>7272</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1.9</v>
+        <v>34.3</v>
       </c>
       <c r="D90" t="n">
-        <v>2072</v>
+        <v>1098</v>
       </c>
       <c r="E90" t="n">
-        <v>887.288318673809</v>
+        <v>2968.770104870396</v>
       </c>
       <c r="F90" t="n">
-        <v>133.5</v>
+        <v>-63</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2023-05-24</t>
+          <t>2023-01-16</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>3059000000</v>
+        <v>267180000000</v>
       </c>
       <c r="J90" t="n">
-        <v>65000000</v>
+        <v>48711000000</v>
       </c>
       <c r="K90" t="n">
-        <v>0</v>
+        <v>49039000000</v>
       </c>
       <c r="L90" t="n">
-        <v>15806000000</v>
+        <v>749158000000</v>
       </c>
       <c r="M90" t="n">
-        <v>3124000000</v>
+        <v>364930000000</v>
       </c>
       <c r="N90" t="n">
-        <v>166418775824</v>
+        <v>1064593503720</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>株式会社内田洋行</t>
+          <t>ライフネット生命保険株式会社</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>8057</t>
+          <t>7157</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>24.8</v>
+        <v>1.9</v>
       </c>
       <c r="D91" t="n">
-        <v>12070</v>
+        <v>2002</v>
       </c>
       <c r="E91" t="n">
-        <v>3496.825336379792</v>
+        <v>887.288318673809</v>
       </c>
       <c r="F91" t="n">
-        <v>245.2</v>
+        <v>125.6</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -5158,50 +5158,50 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2022-12-19</t>
+          <t>2023-05-24</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>24890000000</v>
+        <v>3059000000</v>
       </c>
       <c r="J91" t="n">
-        <v>3100000000</v>
+        <v>65000000</v>
       </c>
       <c r="K91" t="n">
-        <v>1500000000</v>
+        <v>0</v>
       </c>
       <c r="L91" t="n">
-        <v>42315000000</v>
+        <v>15806000000</v>
       </c>
       <c r="M91" t="n">
-        <v>29490000000</v>
+        <v>3124000000</v>
       </c>
       <c r="N91" t="n">
-        <v>118938202450</v>
+        <v>160796519884</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>芝浦機械株式会社</t>
+          <t>株式会社内田洋行</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>6104</t>
+          <t>8057</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>80</v>
+        <v>25.9</v>
       </c>
       <c r="D92" t="n">
-        <v>4210</v>
+        <v>11550</v>
       </c>
       <c r="E92" t="n">
-        <v>3449.780346820809</v>
+        <v>3496.825336379792</v>
       </c>
       <c r="F92" t="n">
-        <v>22</v>
+        <v>230.3</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -5210,462 +5210,462 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2025-08-19</t>
+          <t>2022-12-19</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>42417000000</v>
+        <v>24890000000</v>
       </c>
       <c r="J92" t="n">
-        <v>19144000000</v>
+        <v>3100000000</v>
       </c>
       <c r="K92" t="n">
-        <v>18000000000</v>
+        <v>1500000000</v>
       </c>
       <c r="L92" t="n">
-        <v>82152000000</v>
+        <v>42315000000</v>
       </c>
       <c r="M92" t="n">
-        <v>79561000000</v>
+        <v>29490000000</v>
       </c>
       <c r="N92" t="n">
-        <v>99486733130</v>
+        <v>113814104250</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>サッポロホールディングス株式会社</t>
+          <t>芝浦機械株式会社</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2501</t>
+          <t>6104</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1.4</v>
+        <v>80.7</v>
       </c>
       <c r="D93" t="n">
-        <v>7391</v>
+        <v>4170</v>
       </c>
       <c r="E93" t="n">
-        <v>2697.360927565142</v>
+        <v>3449.780346820809</v>
       </c>
       <c r="F93" t="n">
-        <v>174</v>
+        <v>20.9</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2023-10-12</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>3451000000</v>
+        <v>42417000000</v>
       </c>
       <c r="J93" t="n">
-        <v>28000000</v>
+        <v>19144000000</v>
       </c>
       <c r="K93" t="n">
-        <v>4669000000</v>
+        <v>18000000000</v>
       </c>
       <c r="L93" t="n">
-        <v>137956000000</v>
+        <v>82152000000</v>
       </c>
       <c r="M93" t="n">
-        <v>8148000000</v>
+        <v>79561000000</v>
       </c>
       <c r="N93" t="n">
-        <v>576270497629</v>
+        <v>98541491010</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>株式会社おきなわフィナンシャルグループ</t>
+          <t>サッポロホールディングス株式会社</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>7350</t>
+          <t>2501</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>738.8</v>
+        <v>1.5</v>
       </c>
       <c r="D94" t="n">
-        <v>3865</v>
-      </c>
-      <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr"/>
+        <v>7178</v>
+      </c>
+      <c r="E94" t="n">
+        <v>2697.360927565142</v>
+      </c>
+      <c r="F94" t="n">
+        <v>166.1</v>
+      </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2023-05-16</t>
+          <t>2023-10-12</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>590636000000</v>
+        <v>3451000000</v>
       </c>
       <c r="J94" t="n">
-        <v>18477000000</v>
+        <v>28000000</v>
       </c>
       <c r="K94" t="n">
-        <v>0</v>
+        <v>4669000000</v>
       </c>
       <c r="L94" t="n">
-        <v>159392000000</v>
+        <v>137956000000</v>
       </c>
       <c r="M94" t="n">
-        <v>609113000000</v>
+        <v>8148000000</v>
       </c>
       <c r="N94" t="n">
-        <v>82450499000</v>
+        <v>559663053982</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>株式会社アインホールディングス</t>
+          <t>株式会社おきなわフィナンシャルグループ</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>9627</t>
+          <t>7350</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>34.9</v>
+        <v>760.4</v>
       </c>
       <c r="D95" t="n">
-        <v>6980</v>
-      </c>
-      <c r="E95" t="n">
-        <v>2836.942753814942</v>
-      </c>
-      <c r="F95" t="n">
-        <v>146</v>
-      </c>
+        <v>3755</v>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2023-05-16</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>55009000000</v>
+        <v>590636000000</v>
       </c>
       <c r="J95" t="n">
-        <v>27122000000</v>
+        <v>18477000000</v>
       </c>
       <c r="K95" t="n">
-        <v>3345000000</v>
+        <v>0</v>
       </c>
       <c r="L95" t="n">
-        <v>115837000000</v>
+        <v>159392000000</v>
       </c>
       <c r="M95" t="n">
-        <v>85476000000</v>
+        <v>609113000000</v>
       </c>
       <c r="N95" t="n">
-        <v>244811110500</v>
+        <v>80103913000</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>株式会社パイオラックス</t>
+          <t>株式会社アインホールディングス</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>5988</t>
+          <t>9627</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>101.4</v>
+        <v>35.7</v>
       </c>
       <c r="D96" t="n">
-        <v>1781</v>
+        <v>6819</v>
       </c>
       <c r="E96" t="n">
-        <v>2298.672482457804</v>
+        <v>2836.942753814942</v>
       </c>
       <c r="F96" t="n">
-        <v>-22.5</v>
+        <v>140.4</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2024-08-06</t>
+          <t>2024-03-04</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>31161000000</v>
+        <v>55009000000</v>
       </c>
       <c r="J96" t="n">
-        <v>12144000000</v>
+        <v>27122000000</v>
       </c>
       <c r="K96" t="n">
-        <v>1620000000</v>
+        <v>3345000000</v>
       </c>
       <c r="L96" t="n">
-        <v>93746000000</v>
+        <v>115837000000</v>
       </c>
       <c r="M96" t="n">
-        <v>44925000000</v>
+        <v>85476000000</v>
       </c>
       <c r="N96" t="n">
-        <v>44314307700</v>
+        <v>239164321275</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>あいホールディングス株式会社</t>
+          <t>株式会社パイオラックス</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>3076</t>
+          <t>5988</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>24.9</v>
+        <v>103.1</v>
       </c>
       <c r="D97" t="n">
-        <v>2802</v>
+        <v>1751</v>
       </c>
       <c r="E97" t="n">
-        <v>2007.754513143541</v>
+        <v>2298.672482457804</v>
       </c>
       <c r="F97" t="n">
-        <v>39.6</v>
+        <v>-23.8</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>32012000000</v>
+        <v>31161000000</v>
       </c>
       <c r="J97" t="n">
-        <v>1646000000</v>
+        <v>12144000000</v>
       </c>
       <c r="K97" t="n">
-        <v>3550000000</v>
+        <v>1620000000</v>
       </c>
       <c r="L97" t="n">
-        <v>53765000000</v>
+        <v>93746000000</v>
       </c>
       <c r="M97" t="n">
-        <v>37208000000</v>
+        <v>44925000000</v>
       </c>
       <c r="N97" t="n">
-        <v>149272999866</v>
+        <v>43567856700</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>三和ホールディングス株式会社</t>
+          <t>あいホールディングス株式会社</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>5929</t>
+          <t>3076</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>13.4</v>
+        <v>26.1</v>
       </c>
       <c r="D98" t="n">
-        <v>4236</v>
+        <v>2679</v>
       </c>
       <c r="E98" t="n">
-        <v>1306.206628354146</v>
+        <v>2007.754513143541</v>
       </c>
       <c r="F98" t="n">
-        <v>224.3</v>
+        <v>33.4</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>ダルトン・インベストメンツ・エルエルシー</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>2025-05-02</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>87795000000</v>
+        <v>32012000000</v>
       </c>
       <c r="J98" t="n">
-        <v>21341000000</v>
+        <v>1646000000</v>
       </c>
       <c r="K98" t="n">
-        <v>11848000000</v>
+        <v>3550000000</v>
       </c>
       <c r="L98" t="n">
-        <v>181387000000</v>
+        <v>53765000000</v>
       </c>
       <c r="M98" t="n">
-        <v>120984000000</v>
+        <v>37208000000</v>
       </c>
       <c r="N98" t="n">
-        <v>899730491976</v>
+        <v>142720330707</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ヘリオス テクノ ホールディング株式会社</t>
+          <t>三和ホールディングス株式会社</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>6927</t>
+          <t>5929</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>53.1</v>
+        <v>13.5</v>
       </c>
       <c r="D99" t="n">
-        <v>873</v>
+        <v>4211</v>
       </c>
       <c r="E99" t="n">
-        <v>896.0103264198827</v>
+        <v>1306.206628354146</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.6</v>
+        <v>222.4</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>6417163000</v>
+        <v>87795000000</v>
       </c>
       <c r="J99" t="n">
-        <v>658172000</v>
+        <v>21341000000</v>
       </c>
       <c r="K99" t="n">
-        <v>1342160000</v>
+        <v>11848000000</v>
       </c>
       <c r="L99" t="n">
-        <v>13418044000</v>
+        <v>181387000000</v>
       </c>
       <c r="M99" t="n">
-        <v>8417495000</v>
+        <v>120984000000</v>
       </c>
       <c r="N99" t="n">
-        <v>15843007575</v>
+        <v>894420467826</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>株式会社熊谷組</t>
+          <t>ヘリオス テクノ ホールディング株式会社</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>1861</t>
+          <t>6927</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>64</v>
+        <v>53.7</v>
       </c>
       <c r="D100" t="n">
-        <v>1254</v>
+        <v>863</v>
       </c>
       <c r="E100" t="n">
-        <v>2776.401128792723</v>
+        <v>896.0103264198827</v>
       </c>
       <c r="F100" t="n">
-        <v>-54.8</v>
+        <v>-3.7</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2023-05-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>71335000000</v>
+        <v>6417163000</v>
       </c>
       <c r="J100" t="n">
-        <v>17897000000</v>
+        <v>658172000</v>
       </c>
       <c r="K100" t="n">
-        <v>48586000000</v>
+        <v>1342160000</v>
       </c>
       <c r="L100" t="n">
-        <v>163835000000</v>
+        <v>13418044000</v>
       </c>
       <c r="M100" t="n">
-        <v>137818000000</v>
+        <v>8417495000</v>
       </c>
       <c r="N100" t="n">
-        <v>215347258104</v>
+        <v>15661529825</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>エン・ジャパン株式会社</t>
+          <t>株式会社熊谷組</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>4849</t>
+          <t>1861</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>45.9</v>
+        <v>66.2</v>
       </c>
       <c r="D101" t="n">
-        <v>1631</v>
+        <v>1213</v>
       </c>
       <c r="E101" t="n">
-        <v>1746.940387696806</v>
+        <v>2776.401128792723</v>
       </c>
       <c r="F101" t="n">
-        <v>-6.6</v>
+        <v>-56.3</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5674,206 +5674,206 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2023-05-24</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>26835000000</v>
+        <v>71335000000</v>
       </c>
       <c r="J101" t="n">
-        <v>1019000000</v>
+        <v>17897000000</v>
       </c>
       <c r="K101" t="n">
-        <v>2000000000</v>
+        <v>48586000000</v>
       </c>
       <c r="L101" t="n">
-        <v>36856000000</v>
+        <v>163835000000</v>
       </c>
       <c r="M101" t="n">
-        <v>29854000000</v>
+        <v>137818000000</v>
       </c>
       <c r="N101" t="n">
-        <v>64996778756</v>
+        <v>208306398788</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>京浜急行電鉄株式会社</t>
+          <t>エン・ジャパン株式会社</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>9006</t>
+          <t>4849</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>113.4</v>
+        <v>46.8</v>
       </c>
       <c r="D102" t="n">
-        <v>1501</v>
+        <v>1602</v>
       </c>
       <c r="E102" t="n">
-        <v>1160.8</v>
+        <v>1746.940387696806</v>
       </c>
       <c r="F102" t="n">
-        <v>29.3</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>57450000000</v>
+        <v>26835000000</v>
       </c>
       <c r="J102" t="n">
-        <v>297923000000</v>
+        <v>1019000000</v>
       </c>
       <c r="K102" t="n">
-        <v>103100000000</v>
+        <v>2000000000</v>
       </c>
       <c r="L102" t="n">
-        <v>249065000000</v>
+        <v>36856000000</v>
       </c>
       <c r="M102" t="n">
-        <v>458473000000</v>
+        <v>29854000000</v>
       </c>
       <c r="N102" t="n">
-        <v>404282176890</v>
+        <v>63841103352</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>株式会社ニコン</t>
+          <t>京浜急行電鉄株式会社</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>7731</t>
+          <t>9006</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>16</v>
+        <v>114.2</v>
       </c>
       <c r="D103" t="n">
-        <v>1725</v>
+        <v>1490</v>
       </c>
       <c r="E103" t="n">
-        <v>1512.21980974841</v>
+        <v>1160.8</v>
       </c>
       <c r="F103" t="n">
-        <v>14.1</v>
+        <v>28.4</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2024-04-22</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>78718000000</v>
+        <v>57450000000</v>
       </c>
       <c r="J103" t="n">
-        <v>8297000000</v>
+        <v>297923000000</v>
       </c>
       <c r="K103" t="n">
-        <v>4000000000</v>
+        <v>103100000000</v>
       </c>
       <c r="L103" t="n">
-        <v>342155000000</v>
+        <v>249065000000</v>
       </c>
       <c r="M103" t="n">
-        <v>91015000000</v>
+        <v>458473000000</v>
       </c>
       <c r="N103" t="n">
-        <v>567557899200</v>
+        <v>401319416100</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>株式会社青山財産ネットワークス</t>
+          <t>株式会社ニコン</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>8929</t>
+          <t>7731</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>28.9</v>
+        <v>16.4</v>
       </c>
       <c r="D104" t="n">
-        <v>2040</v>
+        <v>1685</v>
       </c>
       <c r="E104" t="n">
-        <v>1347.74653160027</v>
+        <v>1512.21980974841</v>
       </c>
       <c r="F104" t="n">
-        <v>51.4</v>
+        <v>11.4</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2024-06-11</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>9424000000</v>
+        <v>78718000000</v>
       </c>
       <c r="J104" t="n">
-        <v>2205000000</v>
+        <v>8297000000</v>
       </c>
       <c r="K104" t="n">
-        <v>2514000000</v>
+        <v>4000000000</v>
       </c>
       <c r="L104" t="n">
-        <v>6566000000</v>
+        <v>342155000000</v>
       </c>
       <c r="M104" t="n">
-        <v>14143000000</v>
+        <v>91015000000</v>
       </c>
       <c r="N104" t="n">
-        <v>48887802360</v>
+        <v>554397136320</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>コニシ株式会社</t>
+          <t>株式会社青山財産ネットワークス</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>4956</t>
+          <t>8929</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>56.3</v>
+        <v>29.3</v>
       </c>
       <c r="D105" t="n">
-        <v>1292</v>
+        <v>2011</v>
       </c>
       <c r="E105" t="n">
-        <v>1605.189780306002</v>
+        <v>1347.74653160027</v>
       </c>
       <c r="F105" t="n">
-        <v>-19.5</v>
+        <v>49.2</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5882,310 +5882,310 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2023-01-11</t>
+          <t>2024-06-11</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>23721000000</v>
+        <v>9424000000</v>
       </c>
       <c r="J105" t="n">
-        <v>13167000000</v>
+        <v>2205000000</v>
       </c>
       <c r="K105" t="n">
-        <v>11402000000</v>
+        <v>2514000000</v>
       </c>
       <c r="L105" t="n">
-        <v>68785000000</v>
+        <v>6566000000</v>
       </c>
       <c r="M105" t="n">
-        <v>48290000000</v>
+        <v>14143000000</v>
       </c>
       <c r="N105" t="n">
-        <v>85735052800</v>
+        <v>48192828699</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>ニッタ株式会社</t>
+          <t>コニシ株式会社</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>5186</t>
+          <t>4956</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>40.3</v>
+        <v>57.5</v>
       </c>
       <c r="D106" t="n">
-        <v>4160</v>
+        <v>1266</v>
       </c>
       <c r="E106" t="n">
-        <v>3096.322467304314</v>
+        <v>1605.189780306002</v>
       </c>
       <c r="F106" t="n">
-        <v>34.4</v>
+        <v>-21.1</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>ダルトン・インベストメンツ・エルエルシー</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2023-01-11</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>27527000000</v>
+        <v>23721000000</v>
       </c>
       <c r="J106" t="n">
-        <v>13414000000</v>
+        <v>13167000000</v>
       </c>
       <c r="K106" t="n">
-        <v>5499000000</v>
+        <v>11402000000</v>
       </c>
       <c r="L106" t="n">
-        <v>108639000000</v>
+        <v>68785000000</v>
       </c>
       <c r="M106" t="n">
-        <v>46440000000</v>
+        <v>48290000000</v>
       </c>
       <c r="N106" t="n">
-        <v>115219919360</v>
+        <v>84009734400</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>コクヨ株式会社</t>
+          <t>ニッタ株式会社</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>7984</t>
+          <t>5186</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>36.7</v>
+        <v>41.6</v>
       </c>
       <c r="D107" t="n">
-        <v>881</v>
+        <v>4035</v>
       </c>
       <c r="E107" t="n">
-        <v>2157.626835069302</v>
+        <v>3096.322467304314</v>
       </c>
       <c r="F107" t="n">
-        <v>-59.2</v>
+        <v>30.3</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>90577000000</v>
+        <v>27527000000</v>
       </c>
       <c r="J107" t="n">
-        <v>21360000000</v>
+        <v>13414000000</v>
       </c>
       <c r="K107" t="n">
-        <v>30086000000</v>
+        <v>5499000000</v>
       </c>
       <c r="L107" t="n">
-        <v>226335000000</v>
+        <v>108639000000</v>
       </c>
       <c r="M107" t="n">
-        <v>142023000000</v>
+        <v>46440000000</v>
       </c>
       <c r="N107" t="n">
-        <v>387165604406</v>
+        <v>111757782360</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>日本特殊塗料株式会社</t>
+          <t>コクヨ株式会社</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>4619</t>
+          <t>7984</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>86.09999999999999</v>
+        <v>36.9</v>
       </c>
       <c r="D108" t="n">
-        <v>2108</v>
+        <v>876.5</v>
       </c>
       <c r="E108" t="n">
-        <v>1190</v>
+        <v>2157.626835069302</v>
       </c>
       <c r="F108" t="n">
-        <v>77.09999999999999</v>
+        <v>-59.4</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>6518000000</v>
+        <v>90577000000</v>
       </c>
       <c r="J108" t="n">
-        <v>9792000000</v>
+        <v>21360000000</v>
       </c>
       <c r="K108" t="n">
-        <v>23167000000</v>
+        <v>30086000000</v>
       </c>
       <c r="L108" t="n">
-        <v>47154000000</v>
+        <v>226335000000</v>
       </c>
       <c r="M108" t="n">
-        <v>39477000000</v>
+        <v>142023000000</v>
       </c>
       <c r="N108" t="n">
-        <v>45852537224</v>
+        <v>385188027539</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>株式会社イワキ</t>
+          <t>日本特殊塗料株式会社</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>6237</t>
+          <t>4619</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>19.5</v>
+        <v>87</v>
       </c>
       <c r="D109" t="n">
-        <v>2586</v>
+        <v>2087</v>
       </c>
       <c r="E109" t="n">
-        <v>1361.432492253209</v>
+        <v>1190</v>
       </c>
       <c r="F109" t="n">
-        <v>89.90000000000001</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>ダルトン・インベストメンツ・エルエルシー</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2023-11-09</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="I109" t="n">
-        <v>6936133000</v>
+        <v>6518000000</v>
       </c>
       <c r="J109" t="n">
-        <v>3861988000</v>
+        <v>9792000000</v>
       </c>
       <c r="K109" t="n">
-        <v>326566000</v>
+        <v>23167000000</v>
       </c>
       <c r="L109" t="n">
-        <v>22520477000</v>
+        <v>47154000000</v>
       </c>
       <c r="M109" t="n">
-        <v>11124687000</v>
+        <v>39477000000</v>
       </c>
       <c r="N109" t="n">
-        <v>57189796002</v>
+        <v>45395751986</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>株式会社西武ホールディングス</t>
+          <t>株式会社イワキ</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>9024</t>
+          <t>6237</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>41.5</v>
+        <v>19.9</v>
       </c>
       <c r="D110" t="n">
-        <v>5353</v>
+        <v>2524</v>
       </c>
       <c r="E110" t="n">
-        <v>1716.713876475349</v>
+        <v>1361.432492253209</v>
       </c>
       <c r="F110" t="n">
-        <v>211.8</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2024-05-07</t>
+          <t>2023-11-09</t>
         </is>
       </c>
       <c r="I110" t="n">
-        <v>28538000000</v>
+        <v>6936133000</v>
       </c>
       <c r="J110" t="n">
-        <v>485513000000</v>
+        <v>3861988000</v>
       </c>
       <c r="K110" t="n">
-        <v>49954000000</v>
+        <v>326566000</v>
       </c>
       <c r="L110" t="n">
-        <v>385687000000</v>
+        <v>22520477000</v>
       </c>
       <c r="M110" t="n">
-        <v>564005000000</v>
+        <v>11124687000</v>
       </c>
       <c r="N110" t="n">
-        <v>1360315472828</v>
+        <v>55818656268</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>日鉄ソリューションズ株式会社</t>
+          <t>株式会社西武ホールディングス</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2327</t>
+          <t>9024</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>12.4</v>
+        <v>40.2</v>
       </c>
       <c r="D111" t="n">
-        <v>3608</v>
+        <v>5515</v>
       </c>
       <c r="E111" t="n">
-        <v>2561.705402476645</v>
+        <v>1716.713876475349</v>
       </c>
       <c r="F111" t="n">
-        <v>40.8</v>
+        <v>221.3</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -6194,182 +6194,182 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2024-05-07</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>78579000000</v>
+        <v>28538000000</v>
       </c>
       <c r="J111" t="n">
-        <v>2398000000</v>
+        <v>485513000000</v>
       </c>
       <c r="K111" t="n">
-        <v>1000000000</v>
+        <v>49954000000</v>
       </c>
       <c r="L111" t="n">
-        <v>186128000000</v>
+        <v>385687000000</v>
       </c>
       <c r="M111" t="n">
-        <v>81977000000</v>
+        <v>564005000000</v>
       </c>
       <c r="N111" t="n">
-        <v>660170938856</v>
+        <v>1401483249140</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>月島ホールディングス株式会社</t>
+          <t>日鉄ソリューションズ株式会社</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>6332</t>
+          <t>2327</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>67.40000000000001</v>
+        <v>12.6</v>
       </c>
       <c r="D112" t="n">
-        <v>2937</v>
+        <v>3544</v>
       </c>
       <c r="E112" t="n">
-        <v>1410</v>
+        <v>2561.705402476645</v>
       </c>
       <c r="F112" t="n">
-        <v>108.3</v>
+        <v>38.3</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2024-08-19</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>33870000000</v>
+        <v>78579000000</v>
       </c>
       <c r="J112" t="n">
-        <v>23318000000</v>
+        <v>2398000000</v>
       </c>
       <c r="K112" t="n">
-        <v>25387000000</v>
+        <v>1000000000</v>
       </c>
       <c r="L112" t="n">
-        <v>71784000000</v>
+        <v>186128000000</v>
       </c>
       <c r="M112" t="n">
-        <v>82575000000</v>
+        <v>81977000000</v>
       </c>
       <c r="N112" t="n">
-        <v>122514737565</v>
+        <v>648460589608</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>株式会社ゴールドクレスト</t>
+          <t>月島ホールディングス株式会社</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>8871</t>
+          <t>6332</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>72.8</v>
+        <v>67.5</v>
       </c>
       <c r="D113" t="n">
-        <v>3355</v>
+        <v>2934</v>
       </c>
       <c r="E113" t="n">
-        <v>1789.870000553189</v>
+        <v>1410</v>
       </c>
       <c r="F113" t="n">
-        <v>87.40000000000001</v>
+        <v>108.1</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>2023-08-01</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>69004000000</v>
+        <v>33870000000</v>
       </c>
       <c r="J113" t="n">
-        <v>12099000000</v>
+        <v>23318000000</v>
       </c>
       <c r="K113" t="n">
-        <v>23000000</v>
+        <v>25387000000</v>
       </c>
       <c r="L113" t="n">
-        <v>122540000000</v>
+        <v>71784000000</v>
       </c>
       <c r="M113" t="n">
-        <v>81126000000</v>
+        <v>82575000000</v>
       </c>
       <c r="N113" t="n">
-        <v>111503633010</v>
+        <v>122389594830</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>ブロードメディア株式会社</t>
+          <t>株式会社ゴールドクレスト</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>4347</t>
+          <t>8871</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>35.6</v>
+        <v>73.5</v>
       </c>
       <c r="D114" t="n">
-        <v>1719</v>
+        <v>3320</v>
       </c>
       <c r="E114" t="n">
-        <v>1529.631984751819</v>
+        <v>1789.870000553189</v>
       </c>
       <c r="F114" t="n">
-        <v>12.4</v>
+        <v>85.5</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>2024-07-03</t>
+          <t>2023-08-01</t>
         </is>
       </c>
       <c r="I114" t="n">
-        <v>3368262000</v>
+        <v>69004000000</v>
       </c>
       <c r="J114" t="n">
-        <v>826293000</v>
+        <v>12099000000</v>
       </c>
       <c r="K114" t="n">
-        <v>164267000</v>
+        <v>23000000</v>
       </c>
       <c r="L114" t="n">
-        <v>3706507000</v>
+        <v>122540000000</v>
       </c>
       <c r="M114" t="n">
-        <v>4358822000</v>
+        <v>81126000000</v>
       </c>
       <c r="N114" t="n">
-        <v>12248303031</v>
+        <v>110340405840</v>
       </c>
     </row>
     <row r="115">
@@ -6384,16 +6384,16 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>35.6</v>
+        <v>36.4</v>
       </c>
       <c r="D115" t="n">
-        <v>1719</v>
+        <v>1680</v>
       </c>
       <c r="E115" t="n">
-        <v>1449.995380693296</v>
+        <v>1529.631984751819</v>
       </c>
       <c r="F115" t="n">
-        <v>18.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>2024-05-22</t>
+          <t>2024-07-03</t>
         </is>
       </c>
       <c r="I115" t="n">
@@ -6421,135 +6421,135 @@
         <v>4358822000</v>
       </c>
       <c r="N115" t="n">
-        <v>12248303031</v>
+        <v>11970418320</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>株式会社イエローハット</t>
+          <t>ブロードメディア株式会社</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>9882</t>
+          <t>4347</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>34.6</v>
+        <v>36.4</v>
       </c>
       <c r="D116" t="n">
-        <v>1690</v>
+        <v>1680</v>
       </c>
       <c r="E116" t="n">
-        <v>2112.609181636727</v>
+        <v>1449.995380693296</v>
       </c>
       <c r="F116" t="n">
-        <v>-20</v>
+        <v>15.9</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
+          <t>2024-05-22</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>14029000000</v>
+        <v>3368262000</v>
       </c>
       <c r="J116" t="n">
-        <v>27205000000</v>
+        <v>826293000</v>
       </c>
       <c r="K116" t="n">
-        <v>9801000000</v>
+        <v>164267000</v>
       </c>
       <c r="L116" t="n">
-        <v>91386000000</v>
+        <v>3706507000</v>
       </c>
       <c r="M116" t="n">
-        <v>51035000000</v>
+        <v>4358822000</v>
       </c>
       <c r="N116" t="n">
-        <v>147372529200</v>
+        <v>11970418320</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>太陽ホールディングス株式会社</t>
+          <t>株式会社イエローハット</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>4626</t>
+          <t>9882</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>19.9</v>
+        <v>36.5</v>
       </c>
       <c r="D117" t="n">
-        <v>8080</v>
+        <v>1603</v>
       </c>
       <c r="E117" t="n">
-        <v>3565.648720929983</v>
+        <v>2112.609181636727</v>
       </c>
       <c r="F117" t="n">
-        <v>126.6</v>
+        <v>-24.1</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>54309000000</v>
+        <v>14029000000</v>
       </c>
       <c r="J117" t="n">
-        <v>30690000000</v>
+        <v>27205000000</v>
       </c>
       <c r="K117" t="n">
-        <v>4437000000</v>
+        <v>9801000000</v>
       </c>
       <c r="L117" t="n">
-        <v>76497000000</v>
+        <v>91386000000</v>
       </c>
       <c r="M117" t="n">
-        <v>89436000000</v>
+        <v>51035000000</v>
       </c>
       <c r="N117" t="n">
-        <v>449016580720</v>
+        <v>139785896040</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>株式会社ツルハホールディングス</t>
+          <t>太陽ホールディングス株式会社</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>3391</t>
+          <t>4626</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>40.6</v>
+        <v>20.4</v>
       </c>
       <c r="D118" t="n">
-        <v>2367.5</v>
+        <v>7890</v>
       </c>
       <c r="E118" t="n">
-        <v>4544.200649553184</v>
+        <v>3565.648720929983</v>
       </c>
       <c r="F118" t="n">
-        <v>-47.9</v>
+        <v>121.3</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6558,26 +6558,26 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>2023-05-08</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>116398000000</v>
+        <v>54309000000</v>
       </c>
       <c r="J118" t="n">
-        <v>83437000000</v>
+        <v>30690000000</v>
       </c>
       <c r="K118" t="n">
-        <v>34181000000</v>
+        <v>4437000000</v>
       </c>
       <c r="L118" t="n">
-        <v>276528000000</v>
+        <v>76497000000</v>
       </c>
       <c r="M118" t="n">
-        <v>234016000000</v>
+        <v>89436000000</v>
       </c>
       <c r="N118" t="n">
-        <v>576526651388</v>
+        <v>438458022510</v>
       </c>
     </row>
     <row r="119">
@@ -6592,16 +6592,16 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>40.6</v>
+        <v>41.2</v>
       </c>
       <c r="D119" t="n">
-        <v>2367.5</v>
+        <v>2332</v>
       </c>
       <c r="E119" t="n">
-        <v>8262.359904024779</v>
+        <v>4544.200649553184</v>
       </c>
       <c r="F119" t="n">
-        <v>-71.3</v>
+        <v>-48.7</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6610,7 +6610,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>2022-12-19</t>
+          <t>2023-05-08</t>
         </is>
       </c>
       <c r="I119" t="n">
@@ -6629,267 +6629,319 @@
         <v>234016000000</v>
       </c>
       <c r="N119" t="n">
-        <v>576526651388</v>
+        <v>567881795580</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ホシデン株式会社</t>
+          <t>株式会社ツルハホールディングス</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>6804</t>
+          <t>3391</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>76.09999999999999</v>
+        <v>41.2</v>
       </c>
       <c r="D120" t="n">
-        <v>2353</v>
+        <v>2332</v>
       </c>
       <c r="E120" t="n">
-        <v>1303.446424801713</v>
+        <v>8262.359904024779</v>
       </c>
       <c r="F120" t="n">
-        <v>80.5</v>
+        <v>-71.8</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>2023-02-13</t>
+          <t>2022-12-19</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>69522000000</v>
+        <v>116398000000</v>
       </c>
       <c r="J120" t="n">
-        <v>6944000000</v>
+        <v>83437000000</v>
       </c>
       <c r="K120" t="n">
-        <v>14624000000</v>
+        <v>34181000000</v>
       </c>
       <c r="L120" t="n">
-        <v>109250000000</v>
+        <v>276528000000</v>
       </c>
       <c r="M120" t="n">
-        <v>91090000000</v>
+        <v>234016000000</v>
       </c>
       <c r="N120" t="n">
-        <v>119738955752</v>
+        <v>567881795580</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>ジェイドグループ株式会社</t>
+          <t>ホシデン株式会社</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>3558</t>
+          <t>6804</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>22.5</v>
+        <v>77.7</v>
       </c>
       <c r="D121" t="n">
-        <v>1399</v>
+        <v>2305</v>
       </c>
       <c r="E121" t="n">
-        <v>1267.324164058639</v>
+        <v>1303.446424801713</v>
       </c>
       <c r="F121" t="n">
-        <v>10.4</v>
+        <v>76.8</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>2023-03-22</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>2776277000</v>
+        <v>69522000000</v>
       </c>
       <c r="J121" t="n">
-        <v>280430000</v>
+        <v>6944000000</v>
       </c>
       <c r="K121" t="n">
-        <v>23536000</v>
+        <v>14624000000</v>
       </c>
       <c r="L121" t="n">
-        <v>4370371000</v>
+        <v>109250000000</v>
       </c>
       <c r="M121" t="n">
-        <v>3080243000</v>
+        <v>91090000000</v>
       </c>
       <c r="N121" t="n">
-        <v>13692331972</v>
+        <v>117296342120</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>新光商事株式会社</t>
+          <t>ジェイドグループ株式会社</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>8141</t>
+          <t>3558</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>57.4</v>
+        <v>23.2</v>
       </c>
       <c r="D122" t="n">
-        <v>997</v>
+        <v>1354</v>
       </c>
       <c r="E122" t="n">
-        <v>930</v>
+        <v>1267.324164058639</v>
       </c>
       <c r="F122" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2023-03-22</t>
         </is>
       </c>
       <c r="I122" t="n">
-        <v>17596000000</v>
+        <v>2776277000</v>
       </c>
       <c r="J122" t="n">
-        <v>174000000</v>
+        <v>280430000</v>
       </c>
       <c r="K122" t="n">
-        <v>2995000000</v>
+        <v>23536000</v>
       </c>
       <c r="L122" t="n">
-        <v>50340000000</v>
+        <v>4370371000</v>
       </c>
       <c r="M122" t="n">
-        <v>20765000000</v>
+        <v>3080243000</v>
       </c>
       <c r="N122" t="n">
-        <v>36201686146</v>
+        <v>13251906712</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>カシオ計算機株式会社</t>
+          <t>新光商事株式会社</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>6952</t>
+          <t>8141</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>70.5</v>
+        <v>55.5</v>
       </c>
       <c r="D123" t="n">
-        <v>1216</v>
+        <v>1030</v>
       </c>
       <c r="E123" t="n">
-        <v>1188.162962482466</v>
+        <v>930</v>
       </c>
       <c r="F123" t="n">
-        <v>2.3</v>
+        <v>10.8</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="I123" t="n">
-        <v>137053000000</v>
+        <v>17596000000</v>
       </c>
       <c r="J123" t="n">
-        <v>12759000000</v>
+        <v>174000000</v>
       </c>
       <c r="K123" t="n">
-        <v>45698000000</v>
+        <v>2995000000</v>
       </c>
       <c r="L123" t="n">
-        <v>211895000000</v>
+        <v>50340000000</v>
       </c>
       <c r="M123" t="n">
-        <v>195510000000</v>
+        <v>20765000000</v>
       </c>
       <c r="N123" t="n">
-        <v>277304394432</v>
+        <v>37399936540</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
+          <t>カシオ計算機株式会社</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>6952</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>71.2</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1204</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1188.162962482466</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>137053000000</v>
+      </c>
+      <c r="J124" t="n">
+        <v>12759000000</v>
+      </c>
+      <c r="K124" t="n">
+        <v>45698000000</v>
+      </c>
+      <c r="L124" t="n">
+        <v>211895000000</v>
+      </c>
+      <c r="M124" t="n">
+        <v>195510000000</v>
+      </c>
+      <c r="N124" t="n">
+        <v>274567837908</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
           <t>花王株式会社</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B125" t="inlineStr">
         <is>
           <t>4452</t>
         </is>
       </c>
-      <c r="C124" t="n">
+      <c r="C125" t="n">
         <v>6.8</v>
       </c>
-      <c r="D124" t="n">
-        <v>6451</v>
-      </c>
-      <c r="E124" t="n">
+      <c r="D125" t="n">
+        <v>6440</v>
+      </c>
+      <c r="E125" t="n">
         <v>6116.356643776557</v>
       </c>
-      <c r="F124" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="G124" t="inlineStr">
+      <c r="F125" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="G125" t="inlineStr">
         <is>
           <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
+      <c r="H125" t="inlineStr">
         <is>
           <t>2024-12-05</t>
         </is>
       </c>
-      <c r="I124" t="n">
+      <c r="I125" t="n">
         <v>118328000000</v>
       </c>
-      <c r="J124" t="n">
+      <c r="J125" t="n">
         <v>63976000000</v>
       </c>
-      <c r="K124" t="n">
+      <c r="K125" t="n">
         <v>19009000000</v>
       </c>
-      <c r="L124" t="n">
+      <c r="L125" t="n">
         <v>805867000000</v>
       </c>
-      <c r="M124" t="n">
+      <c r="M125" t="n">
         <v>201313000000</v>
       </c>
-      <c r="N124" t="n">
-        <v>2981850110229</v>
+      <c r="N125" t="n">
+        <v>2976765572760</v>
       </c>
     </row>
   </sheetData>

--- a/docs/アクティビスト銘柄_資産判定.xlsx
+++ b/docs/アクティビスト銘柄_資産判定.xlsx
@@ -517,10 +517,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>40.4</v>
+        <v>40.1</v>
       </c>
       <c r="D2" t="n">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>35403000000</v>
       </c>
       <c r="N2" t="n">
-        <v>87531676137</v>
+        <v>88229062530</v>
       </c>
     </row>
     <row r="3">
@@ -565,10 +565,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>40.4</v>
+        <v>40.1</v>
       </c>
       <c r="D3" t="n">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
@@ -598,7 +598,7 @@
         <v>35403000000</v>
       </c>
       <c r="N3" t="n">
-        <v>87531676137</v>
+        <v>88229062530</v>
       </c>
     </row>
     <row r="4">
@@ -613,16 +613,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>43.1</v>
+        <v>43.3</v>
       </c>
       <c r="D4" t="n">
-        <v>3427</v>
+        <v>3407</v>
       </c>
       <c r="E4" t="n">
         <v>1598.889989734285</v>
       </c>
       <c r="F4" t="n">
-        <v>114.3</v>
+        <v>113.1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -650,7 +650,7 @@
         <v>178465000000</v>
       </c>
       <c r="N4" t="n">
-        <v>414274306924</v>
+        <v>412337319570</v>
       </c>
     </row>
     <row r="5">
@@ -665,16 +665,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="D5" t="n">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="E5" t="n">
         <v>653.0713101160862</v>
       </c>
       <c r="F5" t="n">
-        <v>48.5</v>
+        <v>48.7</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
         <v>1810139000</v>
       </c>
       <c r="N5" t="n">
-        <v>23213330930</v>
+        <v>24315279993</v>
       </c>
     </row>
     <row r="6">
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>91.2</v>
+        <v>95.5</v>
       </c>
       <c r="D6" t="n">
-        <v>2170</v>
+        <v>2052</v>
       </c>
       <c r="E6" t="n">
         <v>2122.579027791042</v>
       </c>
       <c r="F6" t="n">
-        <v>2.2</v>
+        <v>-3.3</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>74819000000</v>
       </c>
       <c r="N6" t="n">
-        <v>82078717980</v>
+        <v>78330801060</v>
       </c>
     </row>
     <row r="7">
@@ -769,16 +769,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>47</v>
+        <v>46.7</v>
       </c>
       <c r="D7" t="n">
-        <v>2173.5</v>
+        <v>2168.5</v>
       </c>
       <c r="E7" t="n">
         <v>2032.365850102071</v>
       </c>
       <c r="F7" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>323730000000</v>
       </c>
       <c r="N7" t="n">
-        <v>689178292110</v>
+        <v>692654526286</v>
       </c>
     </row>
     <row r="8">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>34.4</v>
+        <v>34.6</v>
       </c>
       <c r="D8" t="n">
-        <v>2233</v>
+        <v>2222</v>
       </c>
       <c r="E8" t="n">
         <v>2040</v>
       </c>
       <c r="F8" t="n">
-        <v>9.5</v>
+        <v>8.9</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>34682000000</v>
       </c>
       <c r="N8" t="n">
-        <v>100791416726</v>
+        <v>100294907284</v>
       </c>
     </row>
     <row r="9">
@@ -873,16 +873,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>85.8</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>6800</v>
+        <v>6780</v>
       </c>
       <c r="E9" t="n">
         <v>4549.503641591014</v>
       </c>
       <c r="F9" t="n">
-        <v>49.5</v>
+        <v>49</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
         <v>96906000000</v>
       </c>
       <c r="N9" t="n">
-        <v>112943287600</v>
+        <v>116916821820</v>
       </c>
     </row>
     <row r="10">
@@ -925,16 +925,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>71</v>
+        <v>69.5</v>
       </c>
       <c r="D10" t="n">
-        <v>1818</v>
+        <v>1857</v>
       </c>
       <c r="E10" t="n">
         <v>1257.709264012363</v>
       </c>
       <c r="F10" t="n">
-        <v>44.5</v>
+        <v>47.6</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>261172000000</v>
       </c>
       <c r="N10" t="n">
-        <v>367881193656</v>
+        <v>375773034444</v>
       </c>
     </row>
     <row r="11">
@@ -977,16 +977,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>71</v>
+        <v>69.5</v>
       </c>
       <c r="D11" t="n">
-        <v>1818</v>
+        <v>1857</v>
       </c>
       <c r="E11" t="n">
         <v>1217.254500469243</v>
       </c>
       <c r="F11" t="n">
-        <v>49.4</v>
+        <v>52.6</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>261172000000</v>
       </c>
       <c r="N11" t="n">
-        <v>367881193656</v>
+        <v>375773034444</v>
       </c>
     </row>
     <row r="12">
@@ -1029,16 +1029,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>102.5</v>
+        <v>102.4</v>
       </c>
       <c r="D12" t="n">
-        <v>1427</v>
+        <v>1405</v>
       </c>
       <c r="E12" t="n">
         <v>1212.640316205534</v>
       </c>
       <c r="F12" t="n">
-        <v>17.7</v>
+        <v>15.9</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>13446000000</v>
       </c>
       <c r="N12" t="n">
-        <v>13115053269</v>
+        <v>13130034100</v>
       </c>
     </row>
     <row r="13">
@@ -1081,16 +1081,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>28.3</v>
+        <v>28.2</v>
       </c>
       <c r="D13" t="n">
-        <v>5130</v>
+        <v>5080</v>
       </c>
       <c r="E13" t="n">
         <v>2617.980935875217</v>
       </c>
       <c r="F13" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>53152000000</v>
       </c>
       <c r="N13" t="n">
-        <v>187520070600</v>
+        <v>188226202160</v>
       </c>
     </row>
     <row r="14">
@@ -1133,16 +1133,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>41.4</v>
+        <v>39.9</v>
       </c>
       <c r="D14" t="n">
-        <v>2225</v>
+        <v>2236</v>
       </c>
       <c r="E14" t="n">
         <v>1710</v>
       </c>
       <c r="F14" t="n">
-        <v>30.1</v>
+        <v>30.8</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>15543000000</v>
       </c>
       <c r="N14" t="n">
-        <v>37540604950</v>
+        <v>38947001288</v>
       </c>
     </row>
     <row r="15">
@@ -1185,16 +1185,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>41.4</v>
+        <v>39.9</v>
       </c>
       <c r="D15" t="n">
-        <v>2225</v>
+        <v>2236</v>
       </c>
       <c r="E15" t="n">
         <v>1710</v>
       </c>
       <c r="F15" t="n">
-        <v>30.1</v>
+        <v>30.8</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         <v>15543000000</v>
       </c>
       <c r="N15" t="n">
-        <v>37540604950</v>
+        <v>38947001288</v>
       </c>
     </row>
     <row r="16">
@@ -1237,16 +1237,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>77.5</v>
+        <v>76.3</v>
       </c>
       <c r="D16" t="n">
-        <v>1718</v>
+        <v>1745.5</v>
       </c>
       <c r="E16" t="n">
         <v>1101.400153022188</v>
       </c>
       <c r="F16" t="n">
-        <v>56</v>
+        <v>58.5</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1274,7 +1274,7 @@
         <v>398395000000</v>
       </c>
       <c r="N16" t="n">
-        <v>514248599836</v>
+        <v>522480169391</v>
       </c>
     </row>
     <row r="17">
@@ -1292,13 +1292,13 @@
         <v>26.8</v>
       </c>
       <c r="D17" t="n">
-        <v>5119</v>
+        <v>5111</v>
       </c>
       <c r="E17" t="n">
         <v>3322.047887165483</v>
       </c>
       <c r="F17" t="n">
-        <v>54.1</v>
+        <v>53.9</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         <v>476359000000</v>
       </c>
       <c r="N17" t="n">
-        <v>1778370300438</v>
+        <v>1775591054022</v>
       </c>
     </row>
     <row r="18">
@@ -1341,16 +1341,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>78.2</v>
+        <v>79</v>
       </c>
       <c r="D18" t="n">
-        <v>2338</v>
+        <v>2316</v>
       </c>
       <c r="E18" t="n">
         <v>3610</v>
       </c>
       <c r="F18" t="n">
-        <v>-35.2</v>
+        <v>-35.8</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>122147000000</v>
       </c>
       <c r="N18" t="n">
-        <v>156123326072</v>
+        <v>154654244304</v>
       </c>
     </row>
     <row r="19">
@@ -1393,16 +1393,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="D19" t="n">
-        <v>2127</v>
+        <v>2101.5</v>
       </c>
       <c r="E19" t="n">
         <v>2269.918722577861</v>
       </c>
       <c r="F19" t="n">
-        <v>-6.3</v>
+        <v>-7.4</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>90811000000</v>
       </c>
       <c r="N19" t="n">
-        <v>437546784393</v>
+        <v>441650409908</v>
       </c>
     </row>
     <row r="20">
@@ -1445,16 +1445,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>59.5</v>
+        <v>57.4</v>
       </c>
       <c r="D20" t="n">
-        <v>2592</v>
+        <v>2561</v>
       </c>
       <c r="E20" t="n">
         <v>3155.301177013616</v>
       </c>
       <c r="F20" t="n">
-        <v>-17.9</v>
+        <v>-18.8</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>98642000000</v>
       </c>
       <c r="N20" t="n">
-        <v>165899187072</v>
+        <v>171819907584</v>
       </c>
     </row>
     <row r="21">
@@ -1497,16 +1497,16 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>47.9</v>
+        <v>49</v>
       </c>
       <c r="D21" t="n">
-        <v>3340</v>
+        <v>3265</v>
       </c>
       <c r="E21" t="n">
         <v>1752.426893379333</v>
       </c>
       <c r="F21" t="n">
-        <v>90.59999999999999</v>
+        <v>86.3</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>77563221000</v>
       </c>
       <c r="N21" t="n">
-        <v>161939232000</v>
+        <v>158302872000</v>
       </c>
     </row>
     <row r="22">
@@ -1549,16 +1549,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>47.9</v>
+        <v>49</v>
       </c>
       <c r="D22" t="n">
-        <v>3340</v>
+        <v>3265</v>
       </c>
       <c r="E22" t="n">
         <v>1576.721867844292</v>
       </c>
       <c r="F22" t="n">
-        <v>111.8</v>
+        <v>107.1</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>77563221000</v>
       </c>
       <c r="N22" t="n">
-        <v>161939232000</v>
+        <v>158302872000</v>
       </c>
     </row>
     <row r="23">
@@ -1601,16 +1601,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>57</v>
+        <v>56.7</v>
       </c>
       <c r="D23" t="n">
-        <v>3940</v>
+        <v>3960</v>
       </c>
       <c r="E23" t="n">
         <v>2387</v>
       </c>
       <c r="F23" t="n">
-        <v>65.09999999999999</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         <v>105205000000</v>
       </c>
       <c r="N23" t="n">
-        <v>184472876380</v>
+        <v>185409286920</v>
       </c>
     </row>
     <row r="24">
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>80.90000000000001</v>
+        <v>75.3</v>
       </c>
       <c r="D24" t="n">
-        <v>1887</v>
+        <v>1922</v>
       </c>
       <c r="E24" t="n">
         <v>1270</v>
       </c>
       <c r="F24" t="n">
-        <v>48.6</v>
+        <v>51.3</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>26544000000</v>
       </c>
       <c r="N24" t="n">
-        <v>32797680933</v>
+        <v>35264850234</v>
       </c>
     </row>
     <row r="25">
@@ -1705,16 +1705,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>80.90000000000001</v>
+        <v>75.3</v>
       </c>
       <c r="D25" t="n">
-        <v>1887</v>
+        <v>1922</v>
       </c>
       <c r="E25" t="n">
         <v>1170</v>
       </c>
       <c r="F25" t="n">
-        <v>61.3</v>
+        <v>64.3</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>26544000000</v>
       </c>
       <c r="N25" t="n">
-        <v>32797680933</v>
+        <v>35264850234</v>
       </c>
     </row>
     <row r="26">
@@ -1757,16 +1757,16 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>34.4</v>
+        <v>34.2</v>
       </c>
       <c r="D26" t="n">
-        <v>4130</v>
+        <v>4160</v>
       </c>
       <c r="E26" t="n">
         <v>1492.806001579363</v>
       </c>
       <c r="F26" t="n">
-        <v>176.7</v>
+        <v>178.7</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>106485000000</v>
       </c>
       <c r="N26" t="n">
-        <v>309108028670</v>
+        <v>311730307200</v>
       </c>
     </row>
     <row r="27">
@@ -1809,16 +1809,16 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>24.7</v>
+        <v>25</v>
       </c>
       <c r="D27" t="n">
-        <v>2828</v>
+        <v>2802</v>
       </c>
       <c r="E27" t="n">
         <v>2919.137515755844</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.1</v>
+        <v>-4</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>89135000000</v>
       </c>
       <c r="N27" t="n">
-        <v>360612937524</v>
+        <v>357191260104</v>
       </c>
     </row>
     <row r="28">
@@ -1861,16 +1861,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>96.59999999999999</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>2741</v>
+        <v>2743</v>
       </c>
       <c r="E28" t="n">
         <v>1600</v>
       </c>
       <c r="F28" t="n">
-        <v>71.3</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         <v>88496000000</v>
       </c>
       <c r="N28" t="n">
-        <v>91595997000</v>
+        <v>96043687272</v>
       </c>
     </row>
     <row r="29">
@@ -1913,16 +1913,16 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>49.8</v>
+        <v>49.3</v>
       </c>
       <c r="D29" t="n">
-        <v>796.9000244140625</v>
+        <v>791.7000122070312</v>
       </c>
       <c r="E29" t="n">
         <v>590</v>
       </c>
       <c r="F29" t="n">
-        <v>35.1</v>
+        <v>34.2</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>362887000000</v>
       </c>
       <c r="N29" t="n">
-        <v>729106473860</v>
+        <v>735347229689</v>
       </c>
     </row>
     <row r="30">
@@ -1965,16 +1965,16 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>40.7</v>
+        <v>40.5</v>
       </c>
       <c r="D30" t="n">
-        <v>2968.5</v>
+        <v>2981</v>
       </c>
       <c r="E30" t="n">
         <v>2560</v>
       </c>
       <c r="F30" t="n">
-        <v>16</v>
+        <v>16.4</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>180306000000</v>
       </c>
       <c r="N30" t="n">
-        <v>442831829508</v>
+        <v>444696541608</v>
       </c>
     </row>
     <row r="31">
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>47.3</v>
+        <v>45.3</v>
       </c>
       <c r="D31" t="n">
-        <v>906</v>
+        <v>916</v>
       </c>
       <c r="E31" t="n">
         <v>933.1435874692879</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.9</v>
+        <v>-1.8</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>4653173000</v>
       </c>
       <c r="N31" t="n">
-        <v>9835902024</v>
+        <v>10262776980</v>
       </c>
     </row>
     <row r="32">
@@ -2069,16 +2069,16 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>60.7</v>
+        <v>60.2</v>
       </c>
       <c r="D32" t="n">
-        <v>4885</v>
+        <v>4830</v>
       </c>
       <c r="E32" t="n">
         <v>4265.455132343447</v>
       </c>
       <c r="F32" t="n">
-        <v>14.5</v>
+        <v>13.2</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>14129000000</v>
       </c>
       <c r="N32" t="n">
-        <v>23288196995</v>
+        <v>23473790340</v>
       </c>
     </row>
     <row r="33">
@@ -2121,16 +2121,16 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>69.3</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>2684.5</v>
+        <v>2659.5</v>
       </c>
       <c r="E33" t="n">
         <v>2939.562915943684</v>
       </c>
       <c r="F33" t="n">
-        <v>-8.699999999999999</v>
+        <v>-9.5</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>101054000000</v>
       </c>
       <c r="N33" t="n">
-        <v>145867848308</v>
+        <v>145666788237</v>
       </c>
     </row>
     <row r="34">
@@ -2173,16 +2173,16 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>48.2</v>
+        <v>47.1</v>
       </c>
       <c r="D34" t="n">
-        <v>2184</v>
+        <v>2147</v>
       </c>
       <c r="E34" t="n">
         <v>2006.059650428343</v>
       </c>
       <c r="F34" t="n">
-        <v>8.9</v>
+        <v>7</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>173440000000</v>
       </c>
       <c r="N34" t="n">
-        <v>359535345624</v>
+        <v>368332997085</v>
       </c>
     </row>
     <row r="35">
@@ -2228,16 +2228,16 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>59.3</v>
+        <v>58.5</v>
       </c>
       <c r="D35" t="n">
-        <v>4660</v>
+        <v>4650</v>
       </c>
       <c r="E35" t="n">
         <v>3573.410502159827</v>
       </c>
       <c r="F35" t="n">
-        <v>30.4</v>
+        <v>30.1</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>75825000000</v>
       </c>
       <c r="N35" t="n">
-        <v>127969192000</v>
+        <v>129612574800</v>
       </c>
     </row>
     <row r="36">
@@ -2280,16 +2280,16 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>251.5</v>
+        <v>247</v>
       </c>
       <c r="D36" t="n">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="E36" t="n">
         <v>798.3805136422309</v>
       </c>
       <c r="F36" t="n">
-        <v>24.9</v>
+        <v>25.4</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>429249000000</v>
       </c>
       <c r="N36" t="n">
-        <v>170697637187</v>
+        <v>173789056441</v>
       </c>
     </row>
     <row r="37">
@@ -2332,16 +2332,16 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>25.5</v>
+        <v>24.8</v>
       </c>
       <c r="D37" t="n">
-        <v>2330</v>
+        <v>2331</v>
       </c>
       <c r="E37" t="n">
         <v>1678.083113259255</v>
       </c>
       <c r="F37" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>19554000000</v>
       </c>
       <c r="N37" t="n">
-        <v>76825153770</v>
+        <v>78969249702</v>
       </c>
     </row>
     <row r="38">
@@ -2384,16 +2384,16 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>86.8</v>
+        <v>85.3</v>
       </c>
       <c r="D38" t="n">
-        <v>1087</v>
+        <v>1065</v>
       </c>
       <c r="E38" t="n">
         <v>668.9358717434869</v>
       </c>
       <c r="F38" t="n">
-        <v>62.5</v>
+        <v>59.2</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         <v>15118000000</v>
       </c>
       <c r="N38" t="n">
-        <v>17410501827</v>
+        <v>17732919885</v>
       </c>
     </row>
     <row r="39">
@@ -2436,16 +2436,16 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>10.9</v>
+        <v>11.1</v>
       </c>
       <c r="D39" t="n">
-        <v>3221</v>
+        <v>3127</v>
       </c>
       <c r="E39" t="n">
         <v>4156.179843576074</v>
       </c>
       <c r="F39" t="n">
-        <v>-22.5</v>
+        <v>-24.8</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>90923000000</v>
       </c>
       <c r="N39" t="n">
-        <v>836131095925</v>
+        <v>816014077484</v>
       </c>
     </row>
     <row r="40">
@@ -2488,16 +2488,16 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>245.8</v>
+        <v>50.7</v>
       </c>
       <c r="D40" t="n">
-        <v>1354</v>
+        <v>1273</v>
       </c>
       <c r="E40" t="n">
         <v>2920</v>
       </c>
       <c r="F40" t="n">
-        <v>-53.6</v>
+        <v>-56.4</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>26036000000</v>
       </c>
       <c r="N40" t="n">
-        <v>10591411802</v>
+        <v>51370209180</v>
       </c>
     </row>
     <row r="41">
@@ -2540,16 +2540,16 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>35.1</v>
+        <v>34.2</v>
       </c>
       <c r="D41" t="n">
-        <v>1290</v>
+        <v>1295</v>
       </c>
       <c r="E41" t="n">
         <v>3234.727863989046</v>
       </c>
       <c r="F41" t="n">
-        <v>-60.1</v>
+        <v>-60</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>65478000000</v>
       </c>
       <c r="N41" t="n">
-        <v>186516217350</v>
+        <v>191448400885</v>
       </c>
     </row>
     <row r="42">
@@ -2592,16 +2592,16 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>53.6</v>
+        <v>54.7</v>
       </c>
       <c r="D42" t="n">
-        <v>804</v>
+        <v>788</v>
       </c>
       <c r="E42" t="n">
         <v>656.2604975855553</v>
       </c>
       <c r="F42" t="n">
-        <v>22.5</v>
+        <v>20.1</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>31865000000</v>
       </c>
       <c r="N42" t="n">
-        <v>59395844112</v>
+        <v>58213837264</v>
       </c>
     </row>
     <row r="43">
@@ -2644,16 +2644,16 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>84.40000000000001</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>9840</v>
+        <v>9780</v>
       </c>
       <c r="E43" t="n">
         <v>7040.15625</v>
       </c>
       <c r="F43" t="n">
-        <v>39.8</v>
+        <v>38.9</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>8781313000</v>
       </c>
       <c r="N43" t="n">
-        <v>10398803760</v>
+        <v>10787046600</v>
       </c>
     </row>
     <row r="44">
@@ -2696,16 +2696,16 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>84.40000000000001</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>9840</v>
+        <v>9780</v>
       </c>
       <c r="E44" t="n">
         <v>7040.15625</v>
       </c>
       <c r="F44" t="n">
-        <v>39.8</v>
+        <v>38.9</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>8781313000</v>
       </c>
       <c r="N44" t="n">
-        <v>10398803760</v>
+        <v>10787046600</v>
       </c>
     </row>
     <row r="45">
@@ -2748,16 +2748,16 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="D45" t="n">
-        <v>3266</v>
+        <v>3225</v>
       </c>
       <c r="E45" t="n">
         <v>6272.971195510064</v>
       </c>
       <c r="F45" t="n">
-        <v>-47.9</v>
+        <v>-48.6</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         <v>153254000000</v>
       </c>
       <c r="N45" t="n">
-        <v>1177181150910</v>
+        <v>1162403310375</v>
       </c>
     </row>
     <row r="46">
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>69.40000000000001</v>
+        <v>68.7</v>
       </c>
       <c r="D46" t="n">
         <v>3614</v>
@@ -2837,7 +2837,7 @@
         <v>237487000000</v>
       </c>
       <c r="N46" t="n">
-        <v>342176967756</v>
+        <v>345585482944</v>
       </c>
     </row>
     <row r="47">
@@ -2852,16 +2852,16 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>69.40000000000001</v>
+        <v>69.3</v>
       </c>
       <c r="D47" t="n">
-        <v>5818</v>
+        <v>5806</v>
       </c>
       <c r="E47" t="n">
         <v>4137.137750115735</v>
       </c>
       <c r="F47" t="n">
-        <v>40.6</v>
+        <v>40.3</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>284031000000</v>
       </c>
       <c r="N47" t="n">
-        <v>409067821322</v>
+        <v>410048401640</v>
       </c>
     </row>
     <row r="48">
@@ -2904,16 +2904,16 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>114.5</v>
+        <v>111</v>
       </c>
       <c r="D48" t="n">
-        <v>1870</v>
+        <v>1852</v>
       </c>
       <c r="E48" t="n">
         <v>1469.167707232735</v>
       </c>
       <c r="F48" t="n">
-        <v>27.3</v>
+        <v>26.1</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>133437000000</v>
       </c>
       <c r="N48" t="n">
-        <v>116498756000</v>
+        <v>120251571208</v>
       </c>
     </row>
     <row r="49">
@@ -2956,16 +2956,16 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>114.5</v>
+        <v>111</v>
       </c>
       <c r="D49" t="n">
-        <v>1870</v>
+        <v>1852</v>
       </c>
       <c r="E49" t="n">
         <v>1489.94784546053</v>
       </c>
       <c r="F49" t="n">
-        <v>25.5</v>
+        <v>24.3</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>133437000000</v>
       </c>
       <c r="N49" t="n">
-        <v>116498756000</v>
+        <v>120251571208</v>
       </c>
     </row>
     <row r="50">
@@ -3008,16 +3008,16 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>132.7</v>
+        <v>131.2</v>
       </c>
       <c r="D50" t="n">
-        <v>1023</v>
+        <v>1002</v>
       </c>
       <c r="E50" t="n">
         <v>438.851170934559</v>
       </c>
       <c r="F50" t="n">
-        <v>133.1</v>
+        <v>128.3</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>79323000000</v>
       </c>
       <c r="N50" t="n">
-        <v>59760236019</v>
+        <v>60478880328</v>
       </c>
     </row>
     <row r="51">
@@ -3060,16 +3060,16 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>58.5</v>
+        <v>58.8</v>
       </c>
       <c r="D51" t="n">
-        <v>3419</v>
+        <v>3316</v>
       </c>
       <c r="E51" t="n">
         <v>2420</v>
       </c>
       <c r="F51" t="n">
-        <v>41.3</v>
+        <v>37</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
         <v>414670000000</v>
       </c>
       <c r="N51" t="n">
-        <v>709278733319</v>
+        <v>704812172296</v>
       </c>
     </row>
     <row r="52">
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>113</v>
+        <v>112.8</v>
       </c>
       <c r="D52" t="n">
-        <v>3122</v>
+        <v>3103</v>
       </c>
       <c r="E52" t="n">
         <v>4991.027246539169</v>
       </c>
       <c r="F52" t="n">
-        <v>-37.4</v>
+        <v>-37.8</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>1006135000000</v>
       </c>
       <c r="N52" t="n">
-        <v>890470096012</v>
+        <v>891854556919</v>
       </c>
     </row>
     <row r="53">
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>17.8</v>
+        <v>16.4</v>
       </c>
       <c r="D53" t="n">
-        <v>3235</v>
+        <v>3225</v>
       </c>
       <c r="E53" t="n">
         <v>7052.737306843267</v>
       </c>
       <c r="F53" t="n">
-        <v>-54.1</v>
+        <v>-54.3</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>20433000000</v>
       </c>
       <c r="N53" t="n">
-        <v>114814963680</v>
+        <v>124720763625</v>
       </c>
     </row>
     <row r="54">
@@ -3216,16 +3216,16 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>10.6</v>
+        <v>9.9</v>
       </c>
       <c r="D54" t="n">
-        <v>5444</v>
+        <v>5576</v>
       </c>
       <c r="E54" t="n">
         <v>2420.370957920882</v>
       </c>
       <c r="F54" t="n">
-        <v>124.9</v>
+        <v>130.4</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>28931000000</v>
       </c>
       <c r="N54" t="n">
-        <v>273506325908</v>
+        <v>292796696768</v>
       </c>
     </row>
     <row r="55">
@@ -3268,16 +3268,16 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>56.1</v>
+        <v>55.1</v>
       </c>
       <c r="D55" t="n">
-        <v>5008</v>
+        <v>4983</v>
       </c>
       <c r="E55" t="n">
         <v>4154.626869982095</v>
       </c>
       <c r="F55" t="n">
-        <v>20.5</v>
+        <v>19.9</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>179492000000</v>
       </c>
       <c r="N55" t="n">
-        <v>320174435760</v>
+        <v>325595573325</v>
       </c>
     </row>
     <row r="56">
@@ -3320,16 +3320,16 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>78.2</v>
+        <v>76.3</v>
       </c>
       <c r="D56" t="n">
-        <v>3620</v>
+        <v>3674</v>
       </c>
       <c r="E56" t="n">
         <v>3530</v>
       </c>
       <c r="F56" t="n">
-        <v>2.5</v>
+        <v>4.1</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>107738000000</v>
       </c>
       <c r="N56" t="n">
-        <v>137807427000</v>
+        <v>141138113468</v>
       </c>
     </row>
     <row r="57">
@@ -3372,16 +3372,16 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>45.8</v>
+        <v>45.4</v>
       </c>
       <c r="D57" t="n">
-        <v>1511</v>
+        <v>1488</v>
       </c>
       <c r="E57" t="n">
         <v>3767.430178069353</v>
       </c>
       <c r="F57" t="n">
-        <v>-59.9</v>
+        <v>-60.5</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         <v>31965000000</v>
       </c>
       <c r="N57" t="n">
-        <v>69739745656</v>
+        <v>70359916320</v>
       </c>
     </row>
     <row r="58">
@@ -3424,16 +3424,16 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>56</v>
+        <v>56.1</v>
       </c>
       <c r="D58" t="n">
-        <v>2004</v>
+        <v>1978</v>
       </c>
       <c r="E58" t="n">
         <v>1556.090471804319</v>
       </c>
       <c r="F58" t="n">
-        <v>28.8</v>
+        <v>27.1</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         <v>191594000000</v>
       </c>
       <c r="N58" t="n">
-        <v>342248478696</v>
+        <v>341419294542</v>
       </c>
     </row>
     <row r="59">
@@ -3476,16 +3476,16 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>121.7</v>
+        <v>121</v>
       </c>
       <c r="D59" t="n">
-        <v>1623</v>
+        <v>1616</v>
       </c>
       <c r="E59" t="n">
         <v>1341.977644710579</v>
       </c>
       <c r="F59" t="n">
-        <v>20.9</v>
+        <v>20.4</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>95903657000</v>
       </c>
       <c r="N59" t="n">
-        <v>78828769170</v>
+        <v>79262545680</v>
       </c>
     </row>
     <row r="60">
@@ -3528,16 +3528,16 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>10.1</v>
+        <v>9.9</v>
       </c>
       <c r="D60" t="n">
-        <v>2004</v>
+        <v>1992.5</v>
       </c>
       <c r="E60" t="n">
         <v>1141.512891683109</v>
       </c>
       <c r="F60" t="n">
-        <v>75.59999999999999</v>
+        <v>74.5</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>35951000000</v>
       </c>
       <c r="N60" t="n">
-        <v>357542980644</v>
+        <v>364183361788</v>
       </c>
     </row>
     <row r="61">
@@ -3580,16 +3580,16 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>10.1</v>
+        <v>9.9</v>
       </c>
       <c r="D61" t="n">
-        <v>2004</v>
+        <v>1992.5</v>
       </c>
       <c r="E61" t="n">
         <v>1842.11261309207</v>
       </c>
       <c r="F61" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         <v>35951000000</v>
       </c>
       <c r="N61" t="n">
-        <v>357542980644</v>
+        <v>364183361788</v>
       </c>
     </row>
     <row r="62">
@@ -3632,16 +3632,16 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>10.3</v>
+        <v>10.1</v>
       </c>
       <c r="D62" t="n">
-        <v>1642</v>
+        <v>1667</v>
       </c>
       <c r="E62" t="n">
         <v>1344.518957928979</v>
       </c>
       <c r="F62" t="n">
-        <v>22.1</v>
+        <v>24</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         <v>55269000000</v>
       </c>
       <c r="N62" t="n">
-        <v>537938524698</v>
+        <v>546128818923</v>
       </c>
     </row>
     <row r="63">
@@ -3684,16 +3684,16 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>48.8</v>
+        <v>47.8</v>
       </c>
       <c r="D63" t="n">
-        <v>3466</v>
+        <v>3477</v>
       </c>
       <c r="E63" t="n">
         <v>2844.704547285864</v>
       </c>
       <c r="F63" t="n">
-        <v>21.8</v>
+        <v>22.2</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
         <v>235224000000</v>
       </c>
       <c r="N63" t="n">
-        <v>481736078494</v>
+        <v>491909628531</v>
       </c>
     </row>
     <row r="64">
@@ -3736,16 +3736,16 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>95.3</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>2520</v>
+        <v>2550</v>
       </c>
       <c r="E64" t="n">
         <v>1748.071046781136</v>
       </c>
       <c r="F64" t="n">
-        <v>44.2</v>
+        <v>45.9</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>71858000000</v>
       </c>
       <c r="N64" t="n">
-        <v>75395852280</v>
+        <v>76565899650</v>
       </c>
     </row>
     <row r="65">
@@ -3788,16 +3788,16 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>54.1</v>
+        <v>53.6</v>
       </c>
       <c r="D65" t="n">
-        <v>5451</v>
+        <v>5500</v>
       </c>
       <c r="E65" t="n">
         <v>3405.914389596362</v>
       </c>
       <c r="F65" t="n">
-        <v>60</v>
+        <v>61.5</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3825,7 +3825,7 @@
         <v>193706000000</v>
       </c>
       <c r="N65" t="n">
-        <v>357878662113</v>
+        <v>361691891000</v>
       </c>
     </row>
     <row r="66">
@@ -3840,16 +3840,16 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>54.1</v>
+        <v>53.6</v>
       </c>
       <c r="D66" t="n">
-        <v>5451</v>
+        <v>5500</v>
       </c>
       <c r="E66" t="n">
         <v>2714.613787300615</v>
       </c>
       <c r="F66" t="n">
-        <v>100.8</v>
+        <v>102.6</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>193706000000</v>
       </c>
       <c r="N66" t="n">
-        <v>357878662113</v>
+        <v>361691891000</v>
       </c>
     </row>
     <row r="67">
@@ -3892,16 +3892,16 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>20.3</v>
+        <v>19.8</v>
       </c>
       <c r="D67" t="n">
-        <v>5309</v>
+        <v>5378</v>
       </c>
       <c r="E67" t="n">
         <v>2148.936934940886</v>
       </c>
       <c r="F67" t="n">
-        <v>147.1</v>
+        <v>150.3</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>80068000000</v>
       </c>
       <c r="N67" t="n">
-        <v>394664790071</v>
+        <v>404237160258</v>
       </c>
     </row>
     <row r="68">
@@ -3944,16 +3944,16 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>20.3</v>
+        <v>19.8</v>
       </c>
       <c r="D68" t="n">
-        <v>5309</v>
+        <v>5378</v>
       </c>
       <c r="E68" t="n">
         <v>5066.092575838703</v>
       </c>
       <c r="F68" t="n">
-        <v>4.8</v>
+        <v>6.2</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>80068000000</v>
       </c>
       <c r="N68" t="n">
-        <v>394664790071</v>
+        <v>404237160258</v>
       </c>
     </row>
     <row r="69">
@@ -3999,13 +3999,13 @@
         <v>47.5</v>
       </c>
       <c r="D69" t="n">
-        <v>1380</v>
+        <v>1371.5</v>
       </c>
       <c r="E69" t="n">
         <v>1111.90611839092</v>
       </c>
       <c r="F69" t="n">
-        <v>24.1</v>
+        <v>23.3</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>101020000000</v>
       </c>
       <c r="N69" t="n">
-        <v>212614434780</v>
+        <v>212759487960</v>
       </c>
     </row>
     <row r="70">
@@ -4048,16 +4048,16 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>43.5</v>
+        <v>42.3</v>
       </c>
       <c r="D70" t="n">
-        <v>5190</v>
+        <v>5160</v>
       </c>
       <c r="E70" t="n">
         <v>3361.304411567078</v>
       </c>
       <c r="F70" t="n">
-        <v>54.4</v>
+        <v>53.5</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>48658000000</v>
       </c>
       <c r="N70" t="n">
-        <v>111895528080</v>
+        <v>115107071520</v>
       </c>
     </row>
     <row r="71">
@@ -4100,16 +4100,16 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>36.4</v>
+        <v>35.2</v>
       </c>
       <c r="D71" t="n">
-        <v>5220</v>
+        <v>5230</v>
       </c>
       <c r="E71" t="n">
         <v>3891.73752540545</v>
       </c>
       <c r="F71" t="n">
-        <v>34.1</v>
+        <v>34.4</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>50698683000</v>
       </c>
       <c r="N71" t="n">
-        <v>139331196000</v>
+        <v>144144349030</v>
       </c>
     </row>
     <row r="72">
@@ -4152,16 +4152,16 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>36.1</v>
+        <v>36.5</v>
       </c>
       <c r="D72" t="n">
-        <v>3917</v>
+        <v>3784</v>
       </c>
       <c r="E72" t="n">
         <v>6646.195827570309</v>
       </c>
       <c r="F72" t="n">
-        <v>-41.1</v>
+        <v>-43.1</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>139195000000</v>
       </c>
       <c r="N72" t="n">
-        <v>386068399839</v>
+        <v>381338593856</v>
       </c>
     </row>
     <row r="73">
@@ -4204,16 +4204,16 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>33.7</v>
+        <v>32.4</v>
       </c>
       <c r="D73" t="n">
-        <v>2835</v>
+        <v>2829</v>
       </c>
       <c r="E73" t="n">
         <v>2480</v>
       </c>
       <c r="F73" t="n">
-        <v>14.3</v>
+        <v>14.1</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>20277000000</v>
       </c>
       <c r="N73" t="n">
-        <v>60180529500</v>
+        <v>62552689473</v>
       </c>
     </row>
     <row r="74">
@@ -4256,16 +4256,16 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>33.7</v>
+        <v>32.4</v>
       </c>
       <c r="D74" t="n">
-        <v>2835</v>
+        <v>2829</v>
       </c>
       <c r="E74" t="n">
         <v>2504.338645418327</v>
       </c>
       <c r="F74" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         <v>20277000000</v>
       </c>
       <c r="N74" t="n">
-        <v>60180529500</v>
+        <v>62552689473</v>
       </c>
     </row>
     <row r="75">
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>33.7</v>
+        <v>32.4</v>
       </c>
       <c r="D75" t="n">
-        <v>2835</v>
+        <v>2829</v>
       </c>
       <c r="E75" t="n">
         <v>2880</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.6</v>
+        <v>-1.8</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>20277000000</v>
       </c>
       <c r="N75" t="n">
-        <v>60180529500</v>
+        <v>62552689473</v>
       </c>
     </row>
     <row r="76">
@@ -4360,16 +4360,16 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>13.1</v>
+        <v>13.4</v>
       </c>
       <c r="D76" t="n">
-        <v>616</v>
+        <v>601</v>
       </c>
       <c r="E76" t="n">
         <v>421.6950726175476</v>
       </c>
       <c r="F76" t="n">
-        <v>46.1</v>
+        <v>42.5</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>2256815000</v>
       </c>
       <c r="N76" t="n">
-        <v>17255735728</v>
+        <v>16835547358</v>
       </c>
     </row>
     <row r="77">
@@ -4412,16 +4412,16 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>53.7</v>
+        <v>52.1</v>
       </c>
       <c r="D77" t="n">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E77" t="n">
         <v>290.3401328717133</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.8</v>
+        <v>0.2</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>5368822000</v>
       </c>
       <c r="N77" t="n">
-        <v>9995406624</v>
+        <v>10309932120</v>
       </c>
     </row>
     <row r="78">
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>39</v>
+        <v>38.7</v>
       </c>
       <c r="D78" t="n">
-        <v>3010</v>
+        <v>2996</v>
       </c>
       <c r="E78" t="n">
         <v>1359.655069733296</v>
       </c>
       <c r="F78" t="n">
-        <v>121.4</v>
+        <v>120.4</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>68841000000</v>
       </c>
       <c r="N78" t="n">
-        <v>176478422050</v>
+        <v>177991913596</v>
       </c>
     </row>
     <row r="79">
@@ -4519,13 +4519,13 @@
         <v>12.6</v>
       </c>
       <c r="D79" t="n">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E79" t="n">
         <v>448.6811097117532</v>
       </c>
       <c r="F79" t="n">
-        <v>-8.199999999999999</v>
+        <v>-9.1</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>10804525000</v>
       </c>
       <c r="N79" t="n">
-        <v>85459144908</v>
+        <v>85861912104</v>
       </c>
     </row>
     <row r="80">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>14.2</v>
+        <v>13.5</v>
       </c>
       <c r="D81" t="n">
-        <v>916</v>
+        <v>922</v>
       </c>
       <c r="E81" t="n">
         <v>913.2768512341561</v>
       </c>
       <c r="F81" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>2201899000</v>
       </c>
       <c r="N81" t="n">
-        <v>15498389324</v>
+        <v>16332217644</v>
       </c>
     </row>
     <row r="82">
@@ -4672,16 +4672,16 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>276.7</v>
+        <v>277.1</v>
       </c>
       <c r="D82" t="n">
-        <v>2274.5</v>
+        <v>2271.5</v>
       </c>
       <c r="E82" t="n">
         <v>2190</v>
       </c>
       <c r="F82" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>870891000000</v>
       </c>
       <c r="N82" t="n">
-        <v>314747789205</v>
+        <v>314332645935</v>
       </c>
     </row>
     <row r="83">
@@ -4724,16 +4724,16 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>56.7</v>
+        <v>55.8</v>
       </c>
       <c r="D83" t="n">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="E83" t="n">
         <v>1721.078563209627</v>
       </c>
       <c r="F83" t="n">
-        <v>-5.9</v>
+        <v>-5.8</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>178715000000</v>
       </c>
       <c r="N83" t="n">
-        <v>315021561480</v>
+        <v>320372331079</v>
       </c>
     </row>
     <row r="84">
@@ -4776,16 +4776,16 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>65.2</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>6978</v>
+        <v>6897</v>
       </c>
       <c r="E84" t="n">
         <v>5478.947585152067</v>
       </c>
       <c r="F84" t="n">
-        <v>27.4</v>
+        <v>25.9</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4813,7 +4813,7 @@
         <v>92189000000</v>
       </c>
       <c r="N84" t="n">
-        <v>141448902732</v>
+        <v>139806976518</v>
       </c>
     </row>
     <row r="85">
@@ -4828,16 +4828,16 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>80.40000000000001</v>
+        <v>69.5</v>
       </c>
       <c r="D85" t="n">
-        <v>7580</v>
+        <v>8770</v>
       </c>
       <c r="E85" t="n">
         <v>4870</v>
       </c>
       <c r="F85" t="n">
-        <v>55.6</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4865,7 +4865,7 @@
         <v>98829770000</v>
       </c>
       <c r="N85" t="n">
-        <v>122877106000</v>
+        <v>142167839000</v>
       </c>
     </row>
     <row r="86">
@@ -4880,16 +4880,16 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>26.1</v>
+        <v>24.9</v>
       </c>
       <c r="D86" t="n">
-        <v>3070</v>
+        <v>3052</v>
       </c>
       <c r="E86" t="n">
         <v>13739.64575539568</v>
       </c>
       <c r="F86" t="n">
-        <v>-77.7</v>
+        <v>-77.8</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>265431000000</v>
       </c>
       <c r="N86" t="n">
-        <v>1017267647800</v>
+        <v>1064832179040</v>
       </c>
     </row>
     <row r="87">
@@ -4932,16 +4932,16 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>26.1</v>
+        <v>24.9</v>
       </c>
       <c r="D87" t="n">
-        <v>3070</v>
+        <v>3052</v>
       </c>
       <c r="E87" t="n">
         <v>12975.86280814577</v>
       </c>
       <c r="F87" t="n">
-        <v>-76.3</v>
+        <v>-76.5</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>265431000000</v>
       </c>
       <c r="N87" t="n">
-        <v>1017267647800</v>
+        <v>1064832179040</v>
       </c>
     </row>
     <row r="88">
@@ -4984,16 +4984,16 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>82.2</v>
+        <v>82</v>
       </c>
       <c r="D88" t="n">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="E88" t="n">
         <v>193.0499177180472</v>
       </c>
       <c r="F88" t="n">
-        <v>411.8</v>
+        <v>412.8</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -5021,7 +5021,7 @@
         <v>22097000000</v>
       </c>
       <c r="N88" t="n">
-        <v>26880516000</v>
+        <v>26934930000</v>
       </c>
     </row>
     <row r="89">
@@ -5036,16 +5036,16 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>23.9</v>
+        <v>22.9</v>
       </c>
       <c r="D89" t="n">
-        <v>3745</v>
+        <v>3765</v>
       </c>
       <c r="E89" t="n">
         <v>7960</v>
       </c>
       <c r="F89" t="n">
-        <v>-53</v>
+        <v>-52.7</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>34259000000</v>
       </c>
       <c r="N89" t="n">
-        <v>143131375870</v>
+        <v>149659277100</v>
       </c>
     </row>
     <row r="90">
@@ -5088,16 +5088,16 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="D90" t="n">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="E90" t="n">
         <v>2968.770104870396</v>
       </c>
       <c r="F90" t="n">
-        <v>-63</v>
+        <v>-63.2</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>364930000000</v>
       </c>
       <c r="N90" t="n">
-        <v>1064593503720</v>
+        <v>1059745628020</v>
       </c>
     </row>
     <row r="91">
@@ -5143,13 +5143,13 @@
         <v>1.9</v>
       </c>
       <c r="D91" t="n">
-        <v>2002</v>
+        <v>2020</v>
       </c>
       <c r="E91" t="n">
         <v>887.288318673809</v>
       </c>
       <c r="F91" t="n">
-        <v>125.6</v>
+        <v>127.7</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>3124000000</v>
       </c>
       <c r="N91" t="n">
-        <v>160796519884</v>
+        <v>162242242840</v>
       </c>
     </row>
     <row r="92">
@@ -5192,16 +5192,16 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>25.9</v>
+        <v>25.3</v>
       </c>
       <c r="D92" t="n">
-        <v>11550</v>
+        <v>11300</v>
       </c>
       <c r="E92" t="n">
         <v>3496.825336379792</v>
       </c>
       <c r="F92" t="n">
-        <v>230.3</v>
+        <v>223.2</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>29490000000</v>
       </c>
       <c r="N92" t="n">
-        <v>113814104250</v>
+        <v>116483823900</v>
       </c>
     </row>
     <row r="93">
@@ -5244,16 +5244,16 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>80.7</v>
+        <v>79.2</v>
       </c>
       <c r="D93" t="n">
-        <v>4170</v>
+        <v>4215</v>
       </c>
       <c r="E93" t="n">
         <v>3449.780346820809</v>
       </c>
       <c r="F93" t="n">
-        <v>20.9</v>
+        <v>22.2</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>79561000000</v>
       </c>
       <c r="N93" t="n">
-        <v>98541491010</v>
+        <v>100440899925</v>
       </c>
     </row>
     <row r="94">
@@ -5296,16 +5296,16 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="D94" t="n">
-        <v>7178</v>
+        <v>6986</v>
       </c>
       <c r="E94" t="n">
         <v>2697.360927565142</v>
       </c>
       <c r="F94" t="n">
-        <v>166.1</v>
+        <v>159</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         <v>8148000000</v>
       </c>
       <c r="N94" t="n">
-        <v>559663053982</v>
+        <v>562373859278</v>
       </c>
     </row>
     <row r="95">
@@ -5348,10 +5348,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>760.4</v>
+        <v>743.7</v>
       </c>
       <c r="D95" t="n">
-        <v>3755</v>
+        <v>3730</v>
       </c>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
@@ -5381,7 +5381,7 @@
         <v>609113000000</v>
       </c>
       <c r="N95" t="n">
-        <v>80103913000</v>
+        <v>81901422780</v>
       </c>
     </row>
     <row r="96">
@@ -5396,16 +5396,16 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>35.7</v>
+        <v>35.5</v>
       </c>
       <c r="D96" t="n">
-        <v>6819</v>
+        <v>6737</v>
       </c>
       <c r="E96" t="n">
         <v>2836.942753814942</v>
       </c>
       <c r="F96" t="n">
-        <v>140.4</v>
+        <v>137.5</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>85476000000</v>
       </c>
       <c r="N96" t="n">
-        <v>239164321275</v>
+        <v>240446494280</v>
       </c>
     </row>
     <row r="97">
@@ -5448,16 +5448,16 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>103.1</v>
+        <v>101.5</v>
       </c>
       <c r="D97" t="n">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="E97" t="n">
         <v>2298.672482457804</v>
       </c>
       <c r="F97" t="n">
-        <v>-23.8</v>
+        <v>-23.9</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>44925000000</v>
       </c>
       <c r="N97" t="n">
-        <v>43567856700</v>
+        <v>44263730478</v>
       </c>
     </row>
     <row r="98">
@@ -5500,16 +5500,16 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>26.1</v>
+        <v>24.8</v>
       </c>
       <c r="D98" t="n">
-        <v>2679</v>
+        <v>2703</v>
       </c>
       <c r="E98" t="n">
         <v>2007.754513143541</v>
       </c>
       <c r="F98" t="n">
-        <v>33.4</v>
+        <v>34.6</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>37208000000</v>
       </c>
       <c r="N98" t="n">
-        <v>142720330707</v>
+        <v>150019011087</v>
       </c>
     </row>
     <row r="99">
@@ -5552,16 +5552,16 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="D99" t="n">
-        <v>4211</v>
+        <v>4124</v>
       </c>
       <c r="E99" t="n">
         <v>1306.206628354146</v>
       </c>
       <c r="F99" t="n">
-        <v>222.4</v>
+        <v>215.7</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>120984000000</v>
       </c>
       <c r="N99" t="n">
-        <v>894420467826</v>
+        <v>890502475140</v>
       </c>
     </row>
     <row r="100">
@@ -5604,16 +5604,16 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>53.7</v>
+        <v>54</v>
       </c>
       <c r="D100" t="n">
-        <v>863</v>
+        <v>849</v>
       </c>
       <c r="E100" t="n">
         <v>896.0103264198827</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.7</v>
+        <v>-5.2</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>8417495000</v>
       </c>
       <c r="N100" t="n">
-        <v>15661529825</v>
+        <v>15585994638</v>
       </c>
     </row>
     <row r="101">
@@ -5656,16 +5656,16 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>66.2</v>
+        <v>61.3</v>
       </c>
       <c r="D101" t="n">
-        <v>1213</v>
+        <v>1271</v>
       </c>
       <c r="E101" t="n">
         <v>2776.401128792723</v>
       </c>
       <c r="F101" t="n">
-        <v>-56.3</v>
+        <v>-54.2</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>137818000000</v>
       </c>
       <c r="N101" t="n">
-        <v>208306398788</v>
+        <v>224924401164</v>
       </c>
     </row>
     <row r="102">
@@ -5708,16 +5708,16 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>46.8</v>
+        <v>46.7</v>
       </c>
       <c r="D102" t="n">
-        <v>1602</v>
+        <v>1574</v>
       </c>
       <c r="E102" t="n">
         <v>1746.940387696806</v>
       </c>
       <c r="F102" t="n">
-        <v>-8.300000000000001</v>
+        <v>-9.9</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5745,7 +5745,7 @@
         <v>29854000000</v>
       </c>
       <c r="N102" t="n">
-        <v>63841103352</v>
+        <v>63860754554</v>
       </c>
     </row>
     <row r="103">
@@ -5760,16 +5760,16 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>114.2</v>
+        <v>116.1</v>
       </c>
       <c r="D103" t="n">
-        <v>1490</v>
+        <v>1455</v>
       </c>
       <c r="E103" t="n">
         <v>1160.8</v>
       </c>
       <c r="F103" t="n">
-        <v>28.4</v>
+        <v>25.3</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>458473000000</v>
       </c>
       <c r="N103" t="n">
-        <v>401319416100</v>
+        <v>394785615600</v>
       </c>
     </row>
     <row r="104">
@@ -5812,16 +5812,16 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>16.4</v>
+        <v>15.8</v>
       </c>
       <c r="D104" t="n">
-        <v>1685</v>
+        <v>1747.5</v>
       </c>
       <c r="E104" t="n">
         <v>1512.21980974841</v>
       </c>
       <c r="F104" t="n">
-        <v>11.4</v>
+        <v>15.6</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>91015000000</v>
       </c>
       <c r="N104" t="n">
-        <v>554397136320</v>
+        <v>574960828320</v>
       </c>
     </row>
     <row r="105">
@@ -5867,13 +5867,13 @@
         <v>29.3</v>
       </c>
       <c r="D105" t="n">
-        <v>2011</v>
+        <v>1987</v>
       </c>
       <c r="E105" t="n">
         <v>1347.74653160027</v>
       </c>
       <c r="F105" t="n">
-        <v>49.2</v>
+        <v>47.4</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5901,7 +5901,7 @@
         <v>14143000000</v>
       </c>
       <c r="N105" t="n">
-        <v>48192828699</v>
+        <v>48304357465</v>
       </c>
     </row>
     <row r="106">
@@ -5916,16 +5916,16 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>57.5</v>
+        <v>57.9</v>
       </c>
       <c r="D106" t="n">
-        <v>1266</v>
+        <v>1257</v>
       </c>
       <c r="E106" t="n">
         <v>1605.189780306002</v>
       </c>
       <c r="F106" t="n">
-        <v>-21.1</v>
+        <v>-21.7</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
         <v>48290000000</v>
       </c>
       <c r="N106" t="n">
-        <v>84009734400</v>
+        <v>83412508800</v>
       </c>
     </row>
     <row r="107">
@@ -5968,16 +5968,16 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>41.6</v>
+        <v>40.8</v>
       </c>
       <c r="D107" t="n">
-        <v>4035</v>
+        <v>3990</v>
       </c>
       <c r="E107" t="n">
         <v>3096.322467304314</v>
       </c>
       <c r="F107" t="n">
-        <v>30.3</v>
+        <v>28.9</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>46440000000</v>
       </c>
       <c r="N107" t="n">
-        <v>111757782360</v>
+        <v>113934940770</v>
       </c>
     </row>
     <row r="108">
@@ -6020,16 +6020,16 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>36.9</v>
+        <v>38.1</v>
       </c>
       <c r="D108" t="n">
-        <v>876.5</v>
+        <v>849</v>
       </c>
       <c r="E108" t="n">
         <v>2157.626835069302</v>
       </c>
       <c r="F108" t="n">
-        <v>-59.4</v>
+        <v>-60.7</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>142023000000</v>
       </c>
       <c r="N108" t="n">
-        <v>385188027539</v>
+        <v>373102835574</v>
       </c>
     </row>
     <row r="109">
@@ -6072,16 +6072,16 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>87</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="D109" t="n">
-        <v>2087</v>
+        <v>2068</v>
       </c>
       <c r="E109" t="n">
         <v>1190</v>
       </c>
       <c r="F109" t="n">
-        <v>75.40000000000001</v>
+        <v>73.8</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>39477000000</v>
       </c>
       <c r="N109" t="n">
-        <v>45395751986</v>
+        <v>45435097400</v>
       </c>
     </row>
     <row r="110">
@@ -6124,16 +6124,16 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>19.9</v>
+        <v>19.6</v>
       </c>
       <c r="D110" t="n">
-        <v>2524</v>
+        <v>2503</v>
       </c>
       <c r="E110" t="n">
         <v>1361.432492253209</v>
       </c>
       <c r="F110" t="n">
-        <v>85.40000000000001</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>11124687000</v>
       </c>
       <c r="N110" t="n">
-        <v>55818656268</v>
+        <v>56713970194</v>
       </c>
     </row>
     <row r="111">
@@ -6176,16 +6176,16 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>40.2</v>
+        <v>41.1</v>
       </c>
       <c r="D111" t="n">
-        <v>5515</v>
+        <v>5397</v>
       </c>
       <c r="E111" t="n">
         <v>1716.713876475349</v>
       </c>
       <c r="F111" t="n">
-        <v>221.3</v>
+        <v>214.4</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -6213,7 +6213,7 @@
         <v>564005000000</v>
       </c>
       <c r="N111" t="n">
-        <v>1401483249140</v>
+        <v>1371496844172</v>
       </c>
     </row>
     <row r="112">
@@ -6228,16 +6228,16 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="D112" t="n">
-        <v>3544</v>
+        <v>3433</v>
       </c>
       <c r="E112" t="n">
         <v>2561.705402476645</v>
       </c>
       <c r="F112" t="n">
-        <v>38.3</v>
+        <v>34</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
         <v>81977000000</v>
       </c>
       <c r="N112" t="n">
-        <v>648460589608</v>
+        <v>639494028706</v>
       </c>
     </row>
     <row r="113">
@@ -6280,16 +6280,16 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>67.5</v>
+        <v>69.5</v>
       </c>
       <c r="D113" t="n">
-        <v>2934</v>
+        <v>2844</v>
       </c>
       <c r="E113" t="n">
         <v>1410</v>
       </c>
       <c r="F113" t="n">
-        <v>108.1</v>
+        <v>101.7</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
         <v>82575000000</v>
       </c>
       <c r="N113" t="n">
-        <v>122389594830</v>
+        <v>118756617912</v>
       </c>
     </row>
     <row r="114">
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>73.5</v>
+        <v>74.2</v>
       </c>
       <c r="D114" t="n">
-        <v>3320</v>
+        <v>3290</v>
       </c>
       <c r="E114" t="n">
         <v>1789.870000553189</v>
       </c>
       <c r="F114" t="n">
-        <v>85.5</v>
+        <v>83.8</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -6369,7 +6369,7 @@
         <v>81126000000</v>
       </c>
       <c r="N114" t="n">
-        <v>110340405840</v>
+        <v>109343353980</v>
       </c>
     </row>
     <row r="115">
@@ -6384,16 +6384,16 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>36.4</v>
+        <v>34.3</v>
       </c>
       <c r="D115" t="n">
-        <v>1680</v>
+        <v>1741</v>
       </c>
       <c r="E115" t="n">
         <v>1529.631984751819</v>
       </c>
       <c r="F115" t="n">
-        <v>9.800000000000001</v>
+        <v>13.8</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>4358822000</v>
       </c>
       <c r="N115" t="n">
-        <v>11970418320</v>
+        <v>12693033837</v>
       </c>
     </row>
     <row r="116">
@@ -6436,16 +6436,16 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>36.4</v>
+        <v>34.3</v>
       </c>
       <c r="D116" t="n">
-        <v>1680</v>
+        <v>1741</v>
       </c>
       <c r="E116" t="n">
         <v>1449.995380693296</v>
       </c>
       <c r="F116" t="n">
-        <v>15.9</v>
+        <v>20.1</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -6473,7 +6473,7 @@
         <v>4358822000</v>
       </c>
       <c r="N116" t="n">
-        <v>11970418320</v>
+        <v>12693033837</v>
       </c>
     </row>
     <row r="117">
@@ -6488,16 +6488,16 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>36.5</v>
+        <v>33.9</v>
       </c>
       <c r="D117" t="n">
-        <v>1603</v>
+        <v>1587</v>
       </c>
       <c r="E117" t="n">
         <v>2112.609181636727</v>
       </c>
       <c r="F117" t="n">
-        <v>-24.1</v>
+        <v>-24.9</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>51035000000</v>
       </c>
       <c r="N117" t="n">
-        <v>139785896040</v>
+        <v>150736170558</v>
       </c>
     </row>
     <row r="118">
@@ -6540,16 +6540,16 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="D118" t="n">
-        <v>7890</v>
+        <v>7730</v>
       </c>
       <c r="E118" t="n">
         <v>3565.648720929983</v>
       </c>
       <c r="F118" t="n">
-        <v>121.3</v>
+        <v>116.8</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>89436000000</v>
       </c>
       <c r="N118" t="n">
-        <v>438458022510</v>
+        <v>439911045670</v>
       </c>
     </row>
     <row r="119">
@@ -6592,16 +6592,16 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>41.2</v>
+        <v>41</v>
       </c>
       <c r="D119" t="n">
-        <v>2332</v>
+        <v>2316.5</v>
       </c>
       <c r="E119" t="n">
         <v>4544.200649553184</v>
       </c>
       <c r="F119" t="n">
-        <v>-48.7</v>
+        <v>-49</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>234016000000</v>
       </c>
       <c r="N119" t="n">
-        <v>567881795580</v>
+        <v>570880439826</v>
       </c>
     </row>
     <row r="120">
@@ -6644,16 +6644,16 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>41.2</v>
+        <v>41</v>
       </c>
       <c r="D120" t="n">
-        <v>2332</v>
+        <v>2316.5</v>
       </c>
       <c r="E120" t="n">
         <v>8262.359904024779</v>
       </c>
       <c r="F120" t="n">
-        <v>-71.8</v>
+        <v>-72</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>234016000000</v>
       </c>
       <c r="N120" t="n">
-        <v>567881795580</v>
+        <v>570880439826</v>
       </c>
     </row>
     <row r="121">
@@ -6696,16 +6696,16 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>77.7</v>
+        <v>76</v>
       </c>
       <c r="D121" t="n">
-        <v>2305</v>
+        <v>2354</v>
       </c>
       <c r="E121" t="n">
         <v>1303.446424801713</v>
       </c>
       <c r="F121" t="n">
-        <v>76.8</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6733,7 +6733,7 @@
         <v>91090000000</v>
       </c>
       <c r="N121" t="n">
-        <v>117296342120</v>
+        <v>119789843536</v>
       </c>
     </row>
     <row r="122">
@@ -6748,16 +6748,16 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="D122" t="n">
-        <v>1354</v>
+        <v>1306</v>
       </c>
       <c r="E122" t="n">
         <v>1267.324164058639</v>
       </c>
       <c r="F122" t="n">
-        <v>6.8</v>
+        <v>3.1</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         <v>3080243000</v>
       </c>
       <c r="N122" t="n">
-        <v>13251906712</v>
+        <v>13206931530</v>
       </c>
     </row>
     <row r="123">
@@ -6800,16 +6800,16 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>55.5</v>
+        <v>54.3</v>
       </c>
       <c r="D123" t="n">
-        <v>1030</v>
+        <v>1054</v>
       </c>
       <c r="E123" t="n">
         <v>930</v>
       </c>
       <c r="F123" t="n">
-        <v>10.8</v>
+        <v>13.3</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>20765000000</v>
       </c>
       <c r="N123" t="n">
-        <v>37399936540</v>
+        <v>38271391372</v>
       </c>
     </row>
     <row r="124">
@@ -6852,16 +6852,16 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>71.2</v>
+        <v>72</v>
       </c>
       <c r="D124" t="n">
-        <v>1204</v>
+        <v>1191</v>
       </c>
       <c r="E124" t="n">
         <v>1188.162962482466</v>
       </c>
       <c r="F124" t="n">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
         <v>195510000000</v>
       </c>
       <c r="N124" t="n">
-        <v>274567837908</v>
+        <v>271603235007</v>
       </c>
     </row>
     <row r="125">
@@ -6904,16 +6904,16 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="D125" t="n">
-        <v>6440</v>
+        <v>6340</v>
       </c>
       <c r="E125" t="n">
         <v>6116.356643776557</v>
       </c>
       <c r="F125" t="n">
-        <v>5.3</v>
+        <v>3.7</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -6941,7 +6941,7 @@
         <v>201313000000</v>
       </c>
       <c r="N125" t="n">
-        <v>2976765572760</v>
+        <v>2935548087020</v>
       </c>
     </row>
   </sheetData>

--- a/docs/アクティビスト銘柄_資産判定.xlsx
+++ b/docs/アクティビスト銘柄_資産判定.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N125"/>
+  <dimension ref="A1:N124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,10 +517,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>40.1</v>
+        <v>39.5</v>
       </c>
       <c r="D2" t="n">
-        <v>630</v>
+        <v>640</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>35403000000</v>
       </c>
       <c r="N2" t="n">
-        <v>88229062530</v>
+        <v>89629523840</v>
       </c>
     </row>
     <row r="3">
@@ -565,10 +565,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>40.1</v>
+        <v>39.5</v>
       </c>
       <c r="D3" t="n">
-        <v>630</v>
+        <v>640</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
@@ -598,7 +598,7 @@
         <v>35403000000</v>
       </c>
       <c r="N3" t="n">
-        <v>88229062530</v>
+        <v>89629523840</v>
       </c>
     </row>
     <row r="4">
@@ -613,16 +613,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>43.3</v>
+        <v>42.7</v>
       </c>
       <c r="D4" t="n">
-        <v>3407</v>
+        <v>3457</v>
       </c>
       <c r="E4" t="n">
         <v>1598.889989734285</v>
       </c>
       <c r="F4" t="n">
-        <v>113.1</v>
+        <v>116.2</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -650,7 +650,7 @@
         <v>178465000000</v>
       </c>
       <c r="N4" t="n">
-        <v>412337319570</v>
+        <v>418388645070</v>
       </c>
     </row>
     <row r="5">
@@ -668,13 +668,13 @@
         <v>7.4</v>
       </c>
       <c r="D5" t="n">
-        <v>971</v>
+        <v>977</v>
       </c>
       <c r="E5" t="n">
         <v>653.0713101160862</v>
       </c>
       <c r="F5" t="n">
-        <v>48.7</v>
+        <v>49.6</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
         <v>1810139000</v>
       </c>
       <c r="N5" t="n">
-        <v>24315279993</v>
+        <v>24465528891</v>
       </c>
     </row>
     <row r="6">
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>95.5</v>
+        <v>93.5</v>
       </c>
       <c r="D6" t="n">
-        <v>2052</v>
+        <v>2097</v>
       </c>
       <c r="E6" t="n">
         <v>2122.579027791042</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.3</v>
+        <v>-1.2</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>74819000000</v>
       </c>
       <c r="N6" t="n">
-        <v>78330801060</v>
+        <v>80048581785</v>
       </c>
     </row>
     <row r="7">
@@ -769,16 +769,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>46.7</v>
+        <v>46.9</v>
       </c>
       <c r="D7" t="n">
-        <v>2168.5</v>
+        <v>2175</v>
       </c>
       <c r="E7" t="n">
         <v>2032.365850102071</v>
       </c>
       <c r="F7" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>323730000000</v>
       </c>
       <c r="N7" t="n">
-        <v>692654526286</v>
+        <v>689653915500</v>
       </c>
     </row>
     <row r="8">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>34.6</v>
+        <v>34.2</v>
       </c>
       <c r="D8" t="n">
-        <v>2222</v>
+        <v>2248</v>
       </c>
       <c r="E8" t="n">
         <v>2040</v>
       </c>
       <c r="F8" t="n">
-        <v>8.9</v>
+        <v>10.2</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>34682000000</v>
       </c>
       <c r="N8" t="n">
-        <v>100294907284</v>
+        <v>101468475056</v>
       </c>
     </row>
     <row r="9">
@@ -873,16 +873,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>82.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="D9" t="n">
-        <v>6780</v>
+        <v>6940</v>
       </c>
       <c r="E9" t="n">
         <v>4549.503641591014</v>
       </c>
       <c r="F9" t="n">
-        <v>49</v>
+        <v>52.5</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
         <v>96906000000</v>
       </c>
       <c r="N9" t="n">
-        <v>116916821820</v>
+        <v>119675920860</v>
       </c>
     </row>
     <row r="10">
@@ -925,16 +925,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>69.5</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>1857</v>
+        <v>1847.5</v>
       </c>
       <c r="E10" t="n">
         <v>1257.709264012363</v>
       </c>
       <c r="F10" t="n">
-        <v>47.6</v>
+        <v>46.9</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>261172000000</v>
       </c>
       <c r="N10" t="n">
-        <v>375773034444</v>
+        <v>373850662970</v>
       </c>
     </row>
     <row r="11">
@@ -977,16 +977,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>69.5</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>1857</v>
+        <v>1847.5</v>
       </c>
       <c r="E11" t="n">
         <v>1217.254500469243</v>
       </c>
       <c r="F11" t="n">
-        <v>52.6</v>
+        <v>51.8</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>261172000000</v>
       </c>
       <c r="N11" t="n">
-        <v>375773034444</v>
+        <v>373850662970</v>
       </c>
     </row>
     <row r="12">
@@ -1029,16 +1029,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>102.4</v>
+        <v>101.9</v>
       </c>
       <c r="D12" t="n">
-        <v>1405</v>
+        <v>1436</v>
       </c>
       <c r="E12" t="n">
         <v>1212.640316205534</v>
       </c>
       <c r="F12" t="n">
-        <v>15.9</v>
+        <v>18.4</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>13446000000</v>
       </c>
       <c r="N12" t="n">
-        <v>13130034100</v>
+        <v>13197769092</v>
       </c>
     </row>
     <row r="13">
@@ -1081,16 +1081,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>28.2</v>
+        <v>28.5</v>
       </c>
       <c r="D13" t="n">
-        <v>5080</v>
+        <v>5100</v>
       </c>
       <c r="E13" t="n">
         <v>2617.980935875217</v>
       </c>
       <c r="F13" t="n">
-        <v>94</v>
+        <v>94.8</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>53152000000</v>
       </c>
       <c r="N13" t="n">
-        <v>188226202160</v>
+        <v>186423462000</v>
       </c>
     </row>
     <row r="14">
@@ -1133,16 +1133,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>39.9</v>
+        <v>41.3</v>
       </c>
       <c r="D14" t="n">
-        <v>2236</v>
+        <v>2233</v>
       </c>
       <c r="E14" t="n">
         <v>1710</v>
       </c>
       <c r="F14" t="n">
-        <v>30.8</v>
+        <v>30.6</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>15543000000</v>
       </c>
       <c r="N14" t="n">
-        <v>38947001288</v>
+        <v>37675582406</v>
       </c>
     </row>
     <row r="15">
@@ -1185,16 +1185,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>39.9</v>
+        <v>41.3</v>
       </c>
       <c r="D15" t="n">
-        <v>2236</v>
+        <v>2233</v>
       </c>
       <c r="E15" t="n">
         <v>1710</v>
       </c>
       <c r="F15" t="n">
-        <v>30.8</v>
+        <v>30.6</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         <v>15543000000</v>
       </c>
       <c r="N15" t="n">
-        <v>38947001288</v>
+        <v>37675582406</v>
       </c>
     </row>
     <row r="16">
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>76.3</v>
+        <v>76.2</v>
       </c>
       <c r="D16" t="n">
-        <v>1745.5</v>
+        <v>1746</v>
       </c>
       <c r="E16" t="n">
         <v>1101.400153022188</v>
@@ -1274,7 +1274,7 @@
         <v>398395000000</v>
       </c>
       <c r="N16" t="n">
-        <v>522480169391</v>
+        <v>522629834292</v>
       </c>
     </row>
     <row r="17">
@@ -1289,16 +1289,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>26.8</v>
+        <v>26.6</v>
       </c>
       <c r="D17" t="n">
-        <v>5111</v>
+        <v>5153</v>
       </c>
       <c r="E17" t="n">
         <v>3322.047887165483</v>
       </c>
       <c r="F17" t="n">
-        <v>53.9</v>
+        <v>55.1</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         <v>476359000000</v>
       </c>
       <c r="N17" t="n">
-        <v>1775591054022</v>
+        <v>1790182097706</v>
       </c>
     </row>
     <row r="18">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>79</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>2316</v>
+        <v>2317</v>
       </c>
       <c r="E18" t="n">
         <v>3610</v>
@@ -1378,7 +1378,7 @@
         <v>122147000000</v>
       </c>
       <c r="N18" t="n">
-        <v>154654244304</v>
+        <v>154721020748</v>
       </c>
     </row>
     <row r="19">
@@ -1393,16 +1393,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>20.6</v>
+        <v>20.9</v>
       </c>
       <c r="D19" t="n">
-        <v>2101.5</v>
+        <v>2115.5</v>
       </c>
       <c r="E19" t="n">
         <v>2269.918722577861</v>
       </c>
       <c r="F19" t="n">
-        <v>-7.4</v>
+        <v>-6.8</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>90811000000</v>
       </c>
       <c r="N19" t="n">
-        <v>441650409908</v>
+        <v>435181110664</v>
       </c>
     </row>
     <row r="20">
@@ -1445,16 +1445,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>57.4</v>
+        <v>59.4</v>
       </c>
       <c r="D20" t="n">
-        <v>2561</v>
+        <v>2595</v>
       </c>
       <c r="E20" t="n">
         <v>3155.301177013616</v>
       </c>
       <c r="F20" t="n">
-        <v>-18.8</v>
+        <v>-17.8</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>98642000000</v>
       </c>
       <c r="N20" t="n">
-        <v>171819907584</v>
+        <v>166091200020</v>
       </c>
     </row>
     <row r="21">
@@ -1497,16 +1497,16 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>49</v>
+        <v>46.2</v>
       </c>
       <c r="D21" t="n">
-        <v>3265</v>
+        <v>3325</v>
       </c>
       <c r="E21" t="n">
         <v>1752.426893379333</v>
       </c>
       <c r="F21" t="n">
-        <v>86.3</v>
+        <v>89.7</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>77563221000</v>
       </c>
       <c r="N21" t="n">
-        <v>158302872000</v>
+        <v>167969347525</v>
       </c>
     </row>
     <row r="22">
@@ -1549,16 +1549,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>49</v>
+        <v>46.2</v>
       </c>
       <c r="D22" t="n">
-        <v>3265</v>
+        <v>3325</v>
       </c>
       <c r="E22" t="n">
         <v>1576.721867844292</v>
       </c>
       <c r="F22" t="n">
-        <v>107.1</v>
+        <v>110.9</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>77563221000</v>
       </c>
       <c r="N22" t="n">
-        <v>158302872000</v>
+        <v>167969347525</v>
       </c>
     </row>
     <row r="23">
@@ -1601,16 +1601,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>56.7</v>
+        <v>54.2</v>
       </c>
       <c r="D23" t="n">
-        <v>3960</v>
+        <v>4080</v>
       </c>
       <c r="E23" t="n">
         <v>2387</v>
       </c>
       <c r="F23" t="n">
-        <v>65.90000000000001</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         <v>105205000000</v>
       </c>
       <c r="N23" t="n">
-        <v>185409286920</v>
+        <v>193936802400</v>
       </c>
     </row>
     <row r="24">
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>75.3</v>
+        <v>79.7</v>
       </c>
       <c r="D24" t="n">
-        <v>1922</v>
+        <v>1917</v>
       </c>
       <c r="E24" t="n">
         <v>1270</v>
       </c>
       <c r="F24" t="n">
-        <v>51.3</v>
+        <v>50.9</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>26544000000</v>
       </c>
       <c r="N24" t="n">
-        <v>35264850234</v>
+        <v>33319106703</v>
       </c>
     </row>
     <row r="25">
@@ -1705,16 +1705,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>75.3</v>
+        <v>79.7</v>
       </c>
       <c r="D25" t="n">
-        <v>1922</v>
+        <v>1917</v>
       </c>
       <c r="E25" t="n">
         <v>1170</v>
       </c>
       <c r="F25" t="n">
-        <v>64.3</v>
+        <v>63.8</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>26544000000</v>
       </c>
       <c r="N25" t="n">
-        <v>35264850234</v>
+        <v>33319106703</v>
       </c>
     </row>
     <row r="26">
@@ -1757,16 +1757,16 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>34.2</v>
+        <v>33.6</v>
       </c>
       <c r="D26" t="n">
-        <v>4160</v>
+        <v>4235</v>
       </c>
       <c r="E26" t="n">
         <v>1492.806001579363</v>
       </c>
       <c r="F26" t="n">
-        <v>178.7</v>
+        <v>183.7</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>106485000000</v>
       </c>
       <c r="N26" t="n">
-        <v>311730307200</v>
+        <v>316966707365</v>
       </c>
     </row>
     <row r="27">
@@ -1809,16 +1809,16 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>25</v>
+        <v>25.3</v>
       </c>
       <c r="D27" t="n">
-        <v>2802</v>
+        <v>2820</v>
       </c>
       <c r="E27" t="n">
         <v>2919.137515755844</v>
       </c>
       <c r="F27" t="n">
-        <v>-4</v>
+        <v>-3.4</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>89135000000</v>
       </c>
       <c r="N27" t="n">
-        <v>357191260104</v>
+        <v>352322294880</v>
       </c>
     </row>
     <row r="28">
@@ -1861,10 +1861,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>92.09999999999999</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="E28" t="n">
         <v>1600</v>
@@ -1898,7 +1898,7 @@
         <v>88496000000</v>
       </c>
       <c r="N28" t="n">
-        <v>96043687272</v>
+        <v>91629446904</v>
       </c>
     </row>
     <row r="29">
@@ -1913,16 +1913,16 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>49.3</v>
+        <v>49.6</v>
       </c>
       <c r="D29" t="n">
-        <v>791.7000122070312</v>
+        <v>799.2000122070312</v>
       </c>
       <c r="E29" t="n">
         <v>590</v>
       </c>
       <c r="F29" t="n">
-        <v>34.2</v>
+        <v>35.5</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>362887000000</v>
       </c>
       <c r="N29" t="n">
-        <v>735347229689</v>
+        <v>731210798039</v>
       </c>
     </row>
     <row r="30">
@@ -1965,16 +1965,16 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>40.5</v>
+        <v>39.9</v>
       </c>
       <c r="D30" t="n">
-        <v>2981</v>
+        <v>3010</v>
       </c>
       <c r="E30" t="n">
         <v>2560</v>
       </c>
       <c r="F30" t="n">
-        <v>16.4</v>
+        <v>17.6</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>180306000000</v>
       </c>
       <c r="N30" t="n">
-        <v>444696541608</v>
+        <v>452123554610</v>
       </c>
     </row>
     <row r="31">
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>45.3</v>
+        <v>46.9</v>
       </c>
       <c r="D31" t="n">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="E31" t="n">
         <v>933.1435874692879</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.8</v>
+        <v>-2.2</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>4653173000</v>
       </c>
       <c r="N31" t="n">
-        <v>10262776980</v>
+        <v>9911896852</v>
       </c>
     </row>
     <row r="32">
@@ -2069,16 +2069,16 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>60.2</v>
+        <v>59.8</v>
       </c>
       <c r="D32" t="n">
-        <v>4830</v>
+        <v>4865</v>
       </c>
       <c r="E32" t="n">
         <v>4265.455132343447</v>
       </c>
       <c r="F32" t="n">
-        <v>13.2</v>
+        <v>14.1</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>14129000000</v>
       </c>
       <c r="N32" t="n">
-        <v>23473790340</v>
+        <v>23643890270</v>
       </c>
     </row>
     <row r="33">
@@ -2121,16 +2121,16 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>69.40000000000001</v>
+        <v>69.7</v>
       </c>
       <c r="D33" t="n">
-        <v>2659.5</v>
+        <v>2669</v>
       </c>
       <c r="E33" t="n">
         <v>2939.562915943684</v>
       </c>
       <c r="F33" t="n">
-        <v>-9.5</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>101054000000</v>
       </c>
       <c r="N33" t="n">
-        <v>145666788237</v>
+        <v>145025623816</v>
       </c>
     </row>
     <row r="34">
@@ -2173,16 +2173,16 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>47.1</v>
+        <v>48.1</v>
       </c>
       <c r="D34" t="n">
-        <v>2147</v>
+        <v>2192</v>
       </c>
       <c r="E34" t="n">
         <v>2006.059650428343</v>
       </c>
       <c r="F34" t="n">
-        <v>7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>173440000000</v>
       </c>
       <c r="N34" t="n">
-        <v>368332997085</v>
+        <v>360852324912</v>
       </c>
     </row>
     <row r="35">
@@ -2231,13 +2231,13 @@
         <v>58.5</v>
       </c>
       <c r="D35" t="n">
-        <v>4650</v>
+        <v>4720</v>
       </c>
       <c r="E35" t="n">
         <v>3573.410502159827</v>
       </c>
       <c r="F35" t="n">
-        <v>30.1</v>
+        <v>32.1</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>75825000000</v>
       </c>
       <c r="N35" t="n">
-        <v>129612574800</v>
+        <v>129616698800</v>
       </c>
     </row>
     <row r="36">
@@ -2280,16 +2280,16 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>247</v>
+        <v>246.5</v>
       </c>
       <c r="D36" t="n">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="E36" t="n">
         <v>798.3805136422309</v>
       </c>
       <c r="F36" t="n">
-        <v>25.4</v>
+        <v>25.6</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>429249000000</v>
       </c>
       <c r="N36" t="n">
-        <v>173789056441</v>
+        <v>174136287323</v>
       </c>
     </row>
     <row r="37">
@@ -2332,16 +2332,16 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>24.8</v>
+        <v>24.3</v>
       </c>
       <c r="D37" t="n">
-        <v>2331</v>
+        <v>2371</v>
       </c>
       <c r="E37" t="n">
         <v>1678.083113259255</v>
       </c>
       <c r="F37" t="n">
-        <v>38.9</v>
+        <v>41.3</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>19554000000</v>
       </c>
       <c r="N37" t="n">
-        <v>78969249702</v>
+        <v>80324363382</v>
       </c>
     </row>
     <row r="38">
@@ -2384,16 +2384,16 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>85.3</v>
+        <v>86.8</v>
       </c>
       <c r="D38" t="n">
-        <v>1065</v>
+        <v>1088</v>
       </c>
       <c r="E38" t="n">
         <v>668.9358717434869</v>
       </c>
       <c r="F38" t="n">
-        <v>59.2</v>
+        <v>62.6</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         <v>15118000000</v>
       </c>
       <c r="N38" t="n">
-        <v>17732919885</v>
+        <v>17426518848</v>
       </c>
     </row>
     <row r="39">
@@ -2436,16 +2436,16 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="D39" t="n">
-        <v>3127</v>
+        <v>3098</v>
       </c>
       <c r="E39" t="n">
         <v>4156.179843576074</v>
       </c>
       <c r="F39" t="n">
-        <v>-24.8</v>
+        <v>-25.5</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>90923000000</v>
       </c>
       <c r="N39" t="n">
-        <v>816014077484</v>
+        <v>804201842650</v>
       </c>
     </row>
     <row r="40">
@@ -2488,16 +2488,16 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>50.7</v>
+        <v>49.9</v>
       </c>
       <c r="D40" t="n">
-        <v>1273</v>
+        <v>1334</v>
       </c>
       <c r="E40" t="n">
         <v>2920</v>
       </c>
       <c r="F40" t="n">
-        <v>-56.4</v>
+        <v>-54.3</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>26036000000</v>
       </c>
       <c r="N40" t="n">
-        <v>51370209180</v>
+        <v>52174827710</v>
       </c>
     </row>
     <row r="41">
@@ -2540,16 +2540,16 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>34.2</v>
+        <v>34.9</v>
       </c>
       <c r="D41" t="n">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="E41" t="n">
         <v>3234.727863989046</v>
       </c>
       <c r="F41" t="n">
-        <v>-60</v>
+        <v>-59.9</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>65478000000</v>
       </c>
       <c r="N41" t="n">
-        <v>191448400885</v>
+        <v>187383734640</v>
       </c>
     </row>
     <row r="42">
@@ -2592,16 +2592,16 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>54.7</v>
+        <v>54.1</v>
       </c>
       <c r="D42" t="n">
-        <v>788</v>
+        <v>797</v>
       </c>
       <c r="E42" t="n">
         <v>656.2604975855553</v>
       </c>
       <c r="F42" t="n">
-        <v>20.1</v>
+        <v>21.4</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>31865000000</v>
       </c>
       <c r="N42" t="n">
-        <v>58213837264</v>
+        <v>58878716116</v>
       </c>
     </row>
     <row r="43">
@@ -2644,16 +2644,16 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>81.40000000000001</v>
+        <v>85.5</v>
       </c>
       <c r="D43" t="n">
-        <v>9780</v>
+        <v>9720</v>
       </c>
       <c r="E43" t="n">
         <v>7040.15625</v>
       </c>
       <c r="F43" t="n">
-        <v>38.9</v>
+        <v>38.1</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>8781313000</v>
       </c>
       <c r="N43" t="n">
-        <v>10787046600</v>
+        <v>10271989080</v>
       </c>
     </row>
     <row r="44">
@@ -2696,16 +2696,16 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>81.40000000000001</v>
+        <v>85.5</v>
       </c>
       <c r="D44" t="n">
-        <v>9780</v>
+        <v>9720</v>
       </c>
       <c r="E44" t="n">
         <v>7040.15625</v>
       </c>
       <c r="F44" t="n">
-        <v>38.9</v>
+        <v>38.1</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>8781313000</v>
       </c>
       <c r="N44" t="n">
-        <v>10787046600</v>
+        <v>10271989080</v>
       </c>
     </row>
     <row r="45">
@@ -2748,16 +2748,16 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>13.2</v>
+        <v>12.9</v>
       </c>
       <c r="D45" t="n">
-        <v>3225</v>
+        <v>3286</v>
       </c>
       <c r="E45" t="n">
         <v>6272.971195510064</v>
       </c>
       <c r="F45" t="n">
-        <v>-48.6</v>
+        <v>-47.6</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         <v>153254000000</v>
       </c>
       <c r="N45" t="n">
-        <v>1162403310375</v>
+        <v>1184389853610</v>
       </c>
     </row>
     <row r="46">
@@ -2800,16 +2800,16 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>68.7</v>
+        <v>68.5</v>
       </c>
       <c r="D46" t="n">
-        <v>3614</v>
+        <v>3664</v>
       </c>
       <c r="E46" t="n">
         <v>2566.284807227078</v>
       </c>
       <c r="F46" t="n">
-        <v>40.8</v>
+        <v>42.8</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>237487000000</v>
       </c>
       <c r="N46" t="n">
-        <v>345585482944</v>
+        <v>346911015456</v>
       </c>
     </row>
     <row r="47">
@@ -2852,16 +2852,16 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>69.3</v>
+        <v>69.5</v>
       </c>
       <c r="D47" t="n">
-        <v>5806</v>
+        <v>5810</v>
       </c>
       <c r="E47" t="n">
         <v>4137.137750115735</v>
       </c>
       <c r="F47" t="n">
-        <v>40.3</v>
+        <v>40.4</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>284031000000</v>
       </c>
       <c r="N47" t="n">
-        <v>410048401640</v>
+        <v>408505335490</v>
       </c>
     </row>
     <row r="48">
@@ -2904,16 +2904,16 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>111</v>
+        <v>112.4</v>
       </c>
       <c r="D48" t="n">
-        <v>1852</v>
+        <v>1828</v>
       </c>
       <c r="E48" t="n">
         <v>1469.167707232735</v>
       </c>
       <c r="F48" t="n">
-        <v>26.1</v>
+        <v>24.4</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2941,579 +2941,579 @@
         <v>133437000000</v>
       </c>
       <c r="N48" t="n">
-        <v>120251571208</v>
+        <v>118693235512</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>アークランズ株式会社</t>
+          <t>株式会社ＴＳＩホールディングス</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>9842</t>
+          <t>3608</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>111</v>
+        <v>134.6</v>
       </c>
       <c r="D49" t="n">
-        <v>1852</v>
+        <v>1009</v>
       </c>
       <c r="E49" t="n">
-        <v>1489.94784546053</v>
+        <v>438.851170934559</v>
       </c>
       <c r="F49" t="n">
-        <v>24.3</v>
+        <v>129.9</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>2022-09-27</t>
+          <t>2023-02-24</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>25605000000</v>
+        <v>49761000000</v>
       </c>
       <c r="J49" t="n">
-        <v>95781000000</v>
+        <v>4425000000</v>
       </c>
       <c r="K49" t="n">
-        <v>12051000000</v>
+        <v>25137000000</v>
       </c>
       <c r="L49" t="n">
-        <v>91048000000</v>
+        <v>97430000000</v>
       </c>
       <c r="M49" t="n">
-        <v>133437000000</v>
+        <v>79323000000</v>
       </c>
       <c r="N49" t="n">
-        <v>120251571208</v>
+        <v>58942402877</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>株式会社ＴＳＩホールディングス</t>
+          <t>株式会社フジ・メディア・ホールディングス</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>3608</t>
+          <t>4676</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>131.2</v>
+        <v>61.2</v>
       </c>
       <c r="D50" t="n">
-        <v>1002</v>
+        <v>3265</v>
       </c>
       <c r="E50" t="n">
-        <v>438.851170934559</v>
+        <v>2420</v>
       </c>
       <c r="F50" t="n">
-        <v>128.3</v>
+        <v>34.9</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社レノ代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>2023-02-24</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>49761000000</v>
+        <v>118591000000</v>
       </c>
       <c r="J50" t="n">
-        <v>4425000000</v>
+        <v>174618000000</v>
       </c>
       <c r="K50" t="n">
-        <v>25137000000</v>
+        <v>121461000000</v>
       </c>
       <c r="L50" t="n">
-        <v>97430000000</v>
+        <v>784429000000</v>
       </c>
       <c r="M50" t="n">
-        <v>79323000000</v>
+        <v>414670000000</v>
       </c>
       <c r="N50" t="n">
-        <v>60478880328</v>
+        <v>677331109765</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>株式会社フジ・メディア・ホールディングス</t>
+          <t>株式会社京都フィナンシャルグループ</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>4676</t>
+          <t>5844</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>58.8</v>
+        <v>112.3</v>
       </c>
       <c r="D51" t="n">
-        <v>3316</v>
+        <v>3140</v>
       </c>
       <c r="E51" t="n">
-        <v>2420</v>
+        <v>4991.027246539169</v>
       </c>
       <c r="F51" t="n">
-        <v>37</v>
+        <v>-37.1</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>株式会社レノ代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2023-10-02</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>118591000000</v>
+        <v>929545000000</v>
       </c>
       <c r="J51" t="n">
-        <v>174618000000</v>
+        <v>76590000000</v>
       </c>
       <c r="K51" t="n">
-        <v>121461000000</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>784429000000</v>
+        <v>1141082000000</v>
       </c>
       <c r="M51" t="n">
-        <v>414670000000</v>
+        <v>1006135000000</v>
       </c>
       <c r="N51" t="n">
-        <v>704812172296</v>
+        <v>895604132440</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>株式会社京都フィナンシャルグループ</t>
+          <t>山洋電気株式会社</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>5844</t>
+          <t>6516</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>112.8</v>
+        <v>17.7</v>
       </c>
       <c r="D52" t="n">
-        <v>3103</v>
+        <v>3250</v>
       </c>
       <c r="E52" t="n">
-        <v>4991.027246539169</v>
+        <v>7052.737306843267</v>
       </c>
       <c r="F52" t="n">
-        <v>-37.8</v>
+        <v>-53.9</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2023-10-02</t>
+          <t>2024-08-20</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>929545000000</v>
+        <v>3903000000</v>
       </c>
       <c r="J52" t="n">
-        <v>76590000000</v>
+        <v>6200000000</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>10330000000</v>
       </c>
       <c r="L52" t="n">
-        <v>1141082000000</v>
+        <v>47152000000</v>
       </c>
       <c r="M52" t="n">
-        <v>1006135000000</v>
+        <v>20433000000</v>
       </c>
       <c r="N52" t="n">
-        <v>891854556919</v>
+        <v>115347336000</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>山洋電気株式会社</t>
+          <t>株式会社ワコールホールディングス</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>6516</t>
+          <t>3591</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>16.4</v>
+        <v>10.2</v>
       </c>
       <c r="D53" t="n">
-        <v>3225</v>
+        <v>5652</v>
       </c>
       <c r="E53" t="n">
-        <v>7052.737306843267</v>
+        <v>2420.370957920882</v>
       </c>
       <c r="F53" t="n">
-        <v>-54.3</v>
+        <v>133.5</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>2024-08-20</t>
+          <t>2024-06-04</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>3903000000</v>
+        <v>12443000000</v>
       </c>
       <c r="J53" t="n">
-        <v>6200000000</v>
+        <v>16412000000</v>
       </c>
       <c r="K53" t="n">
-        <v>10330000000</v>
+        <v>76000000</v>
       </c>
       <c r="L53" t="n">
-        <v>47152000000</v>
+        <v>140106000000</v>
       </c>
       <c r="M53" t="n">
-        <v>20433000000</v>
+        <v>28931000000</v>
       </c>
       <c r="N53" t="n">
-        <v>124720763625</v>
+        <v>283956236964</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>株式会社ワコールホールディングス</t>
+          <t>江崎グリコ株式会社</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>3591</t>
+          <t>2206</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>9.9</v>
+        <v>56.9</v>
       </c>
       <c r="D54" t="n">
-        <v>5576</v>
+        <v>4952</v>
       </c>
       <c r="E54" t="n">
-        <v>2420.370957920882</v>
+        <v>4154.626869982095</v>
       </c>
       <c r="F54" t="n">
-        <v>130.4</v>
+        <v>19.2</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>2024-06-04</t>
+          <t>2024-07-10</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>12443000000</v>
+        <v>92449000000</v>
       </c>
       <c r="J54" t="n">
-        <v>16412000000</v>
+        <v>40203000000</v>
       </c>
       <c r="K54" t="n">
-        <v>76000000</v>
+        <v>46840000000</v>
       </c>
       <c r="L54" t="n">
-        <v>140106000000</v>
+        <v>222551000000</v>
       </c>
       <c r="M54" t="n">
-        <v>28931000000</v>
+        <v>179492000000</v>
       </c>
       <c r="N54" t="n">
-        <v>292796696768</v>
+        <v>315260414000</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>江崎グリコ株式会社</t>
+          <t>科研製薬株式会社</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2206</t>
+          <t>4521</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>55.1</v>
+        <v>76.5</v>
       </c>
       <c r="D55" t="n">
-        <v>4983</v>
+        <v>3700</v>
       </c>
       <c r="E55" t="n">
-        <v>4154.626869982095</v>
+        <v>3530</v>
       </c>
       <c r="F55" t="n">
-        <v>19.9</v>
+        <v>4.8</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>2024-05-29</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>92449000000</v>
+        <v>77305000000</v>
       </c>
       <c r="J55" t="n">
-        <v>40203000000</v>
+        <v>15734000000</v>
       </c>
       <c r="K55" t="n">
-        <v>46840000000</v>
+        <v>14699000000</v>
       </c>
       <c r="L55" t="n">
-        <v>222551000000</v>
+        <v>136257000000</v>
       </c>
       <c r="M55" t="n">
-        <v>179492000000</v>
+        <v>107738000000</v>
       </c>
       <c r="N55" t="n">
-        <v>325595573325</v>
+        <v>140852895000</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>科研製薬株式会社</t>
+          <t>東亜道路工業株式会社</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>4521</t>
+          <t>1882</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>76.3</v>
+        <v>46.1</v>
       </c>
       <c r="D56" t="n">
-        <v>3674</v>
+        <v>1501</v>
       </c>
       <c r="E56" t="n">
-        <v>3530</v>
+        <v>3767.430178069353</v>
       </c>
       <c r="F56" t="n">
-        <v>4.1</v>
+        <v>-60.2</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2024-05-29</t>
+          <t>2023-05-31</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>77305000000</v>
+        <v>12764000000</v>
       </c>
       <c r="J56" t="n">
-        <v>15734000000</v>
+        <v>13764000000</v>
       </c>
       <c r="K56" t="n">
-        <v>14699000000</v>
+        <v>5437000000</v>
       </c>
       <c r="L56" t="n">
-        <v>136257000000</v>
+        <v>48166000000</v>
       </c>
       <c r="M56" t="n">
-        <v>107738000000</v>
+        <v>31965000000</v>
       </c>
       <c r="N56" t="n">
-        <v>141138113468</v>
+        <v>69278198696</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>東亜道路工業株式会社</t>
+          <t>センコーグループホールディングス株式会社</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1882</t>
+          <t>9069</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>45.4</v>
+        <v>56.3</v>
       </c>
       <c r="D57" t="n">
-        <v>1488</v>
+        <v>1992</v>
       </c>
       <c r="E57" t="n">
-        <v>3767.430178069353</v>
+        <v>1556.090471804319</v>
       </c>
       <c r="F57" t="n">
-        <v>-60.5</v>
+        <v>28</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>2023-05-31</t>
+          <t>2025-05-28</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>12764000000</v>
+        <v>50371000000</v>
       </c>
       <c r="J57" t="n">
-        <v>13764000000</v>
+        <v>118947000000</v>
       </c>
       <c r="K57" t="n">
-        <v>5437000000</v>
+        <v>22276000000</v>
       </c>
       <c r="L57" t="n">
-        <v>48166000000</v>
+        <v>146120000000</v>
       </c>
       <c r="M57" t="n">
-        <v>31965000000</v>
+        <v>191594000000</v>
       </c>
       <c r="N57" t="n">
-        <v>70359916320</v>
+        <v>340199086608</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>センコーグループホールディングス株式会社</t>
+          <t>京阪神ビルディング株式会社</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>9069</t>
+          <t>8818</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>56.1</v>
+        <v>119.5</v>
       </c>
       <c r="D58" t="n">
-        <v>1978</v>
+        <v>1653</v>
       </c>
       <c r="E58" t="n">
-        <v>1556.090471804319</v>
+        <v>1341.977644710579</v>
       </c>
       <c r="F58" t="n">
-        <v>27.1</v>
+        <v>23.2</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2024-02-07</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>50371000000</v>
+        <v>21550649000</v>
       </c>
       <c r="J58" t="n">
-        <v>118947000000</v>
+        <v>56970145000</v>
       </c>
       <c r="K58" t="n">
-        <v>22276000000</v>
+        <v>17382863000</v>
       </c>
       <c r="L58" t="n">
-        <v>146120000000</v>
+        <v>70539690000</v>
       </c>
       <c r="M58" t="n">
-        <v>191594000000</v>
+        <v>95903657000</v>
       </c>
       <c r="N58" t="n">
-        <v>341419294542</v>
+        <v>80285862870</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>京阪神ビルディング株式会社</t>
+          <t>マクニカホールディングス株式会社</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>8818</t>
+          <t>3132</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="D59" t="n">
-        <v>1616</v>
+        <v>2005</v>
       </c>
       <c r="E59" t="n">
-        <v>1341.977644710579</v>
+        <v>1141.512891683109</v>
       </c>
       <c r="F59" t="n">
-        <v>20.4</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>2024-02-07</t>
+          <t>2025-03-03</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>21550649000</v>
+        <v>25438000000</v>
       </c>
       <c r="J59" t="n">
-        <v>56970145000</v>
+        <v>2290000000</v>
       </c>
       <c r="K59" t="n">
-        <v>17382863000</v>
+        <v>8223000000</v>
       </c>
       <c r="L59" t="n">
-        <v>70539690000</v>
+        <v>146010000000</v>
       </c>
       <c r="M59" t="n">
-        <v>95903657000</v>
+        <v>35951000000</v>
       </c>
       <c r="N59" t="n">
-        <v>79262545680</v>
+        <v>357721395305</v>
       </c>
     </row>
     <row r="60">
@@ -3528,25 +3528,25 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="n">
-        <v>1992.5</v>
+        <v>2005</v>
       </c>
       <c r="E60" t="n">
-        <v>1141.512891683109</v>
+        <v>1842.11261309207</v>
       </c>
       <c r="F60" t="n">
-        <v>74.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>2025-03-03</t>
+          <t>2022-12-15</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -3565,215 +3565,215 @@
         <v>35951000000</v>
       </c>
       <c r="N60" t="n">
-        <v>364183361788</v>
+        <v>357721395305</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>マクニカホールディングス株式会社</t>
+          <t>参天製薬株式会社</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>3132</t>
+          <t>4536</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>9.9</v>
+        <v>10.3</v>
       </c>
       <c r="D61" t="n">
-        <v>1992.5</v>
+        <v>1641.5</v>
       </c>
       <c r="E61" t="n">
-        <v>1842.11261309207</v>
+        <v>1344.518957928979</v>
       </c>
       <c r="F61" t="n">
-        <v>8.199999999999999</v>
+        <v>22.1</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>ダルトン・インベストメンツ・エルエルシー</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>2022-12-15</t>
+          <t>2024-04-19</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>25438000000</v>
+        <v>34203000000</v>
       </c>
       <c r="J61" t="n">
-        <v>2290000000</v>
+        <v>6796000000</v>
       </c>
       <c r="K61" t="n">
-        <v>8223000000</v>
+        <v>14270000000</v>
       </c>
       <c r="L61" t="n">
-        <v>146010000000</v>
+        <v>294231000000</v>
       </c>
       <c r="M61" t="n">
-        <v>35951000000</v>
+        <v>55269000000</v>
       </c>
       <c r="N61" t="n">
-        <v>364183361788</v>
+        <v>537774718814</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>参天製薬株式会社</t>
+          <t>リンナイ株式会社</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>4536</t>
+          <t>5947</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>10.1</v>
+        <v>49.1</v>
       </c>
       <c r="D62" t="n">
-        <v>1667</v>
+        <v>3445</v>
       </c>
       <c r="E62" t="n">
-        <v>1344.518957928979</v>
+        <v>2844.704547285864</v>
       </c>
       <c r="F62" t="n">
-        <v>24</v>
+        <v>21.1</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2024-04-19</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>34203000000</v>
+        <v>166524000000</v>
       </c>
       <c r="J62" t="n">
-        <v>6796000000</v>
+        <v>60632000000</v>
       </c>
       <c r="K62" t="n">
-        <v>14270000000</v>
+        <v>8068000000</v>
       </c>
       <c r="L62" t="n">
-        <v>294231000000</v>
+        <v>371318000000</v>
       </c>
       <c r="M62" t="n">
-        <v>55269000000</v>
+        <v>235224000000</v>
       </c>
       <c r="N62" t="n">
-        <v>546128818923</v>
+        <v>478817308255</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>リンナイ株式会社</t>
+          <t>大阪製鐵株式会社</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>5947</t>
+          <t>5449</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>47.8</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>3477</v>
+        <v>2571</v>
       </c>
       <c r="E63" t="n">
-        <v>2844.704547285864</v>
+        <v>1748.071046781136</v>
       </c>
       <c r="F63" t="n">
-        <v>22.2</v>
+        <v>47.1</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>ダルトン・インベストメンツ・エルエルシー</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2023-12-19</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>166524000000</v>
+        <v>62621000000</v>
       </c>
       <c r="J63" t="n">
-        <v>60632000000</v>
+        <v>8568000000</v>
       </c>
       <c r="K63" t="n">
-        <v>8068000000</v>
+        <v>669000000</v>
       </c>
       <c r="L63" t="n">
-        <v>371318000000</v>
+        <v>148514000000</v>
       </c>
       <c r="M63" t="n">
-        <v>235224000000</v>
+        <v>71858000000</v>
       </c>
       <c r="N63" t="n">
-        <v>491909628531</v>
+        <v>77196442353</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>大阪製鐵株式会社</t>
+          <t>東邦ホールディングス株式会社</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>5449</t>
+          <t>8129</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>93.90000000000001</v>
+        <v>54</v>
       </c>
       <c r="D64" t="n">
-        <v>2550</v>
+        <v>5457</v>
       </c>
       <c r="E64" t="n">
-        <v>1748.071046781136</v>
+        <v>3405.914389596362</v>
       </c>
       <c r="F64" t="n">
-        <v>45.9</v>
+        <v>60.2</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>2023-12-19</t>
+          <t>2024-07-16</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>62621000000</v>
+        <v>88882000000</v>
       </c>
       <c r="J64" t="n">
-        <v>8568000000</v>
+        <v>34612000000</v>
       </c>
       <c r="K64" t="n">
-        <v>669000000</v>
+        <v>70212000000</v>
       </c>
       <c r="L64" t="n">
-        <v>148514000000</v>
+        <v>237405000000</v>
       </c>
       <c r="M64" t="n">
-        <v>71858000000</v>
+        <v>193706000000</v>
       </c>
       <c r="N64" t="n">
-        <v>76565899650</v>
+        <v>358864118034</v>
       </c>
     </row>
     <row r="65">
@@ -3788,16 +3788,16 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>53.6</v>
+        <v>54</v>
       </c>
       <c r="D65" t="n">
-        <v>5500</v>
+        <v>5457</v>
       </c>
       <c r="E65" t="n">
-        <v>3405.914389596362</v>
+        <v>2714.613787300615</v>
       </c>
       <c r="F65" t="n">
-        <v>61.5</v>
+        <v>101</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3806,7 +3806,7 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>2024-07-16</t>
+          <t>2024-06-17</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -3825,59 +3825,59 @@
         <v>193706000000</v>
       </c>
       <c r="N65" t="n">
-        <v>361691891000</v>
+        <v>358864118034</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>東邦ホールディングス株式会社</t>
+          <t>小林製薬株式会社</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>8129</t>
+          <t>4967</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>53.6</v>
+        <v>19.9</v>
       </c>
       <c r="D66" t="n">
-        <v>5500</v>
+        <v>5362</v>
       </c>
       <c r="E66" t="n">
-        <v>2714.613787300615</v>
+        <v>2148.936934940886</v>
       </c>
       <c r="F66" t="n">
-        <v>102.6</v>
+        <v>149.5</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>2024-06-17</t>
+          <t>2024-07-22</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>88882000000</v>
+        <v>61157000000</v>
       </c>
       <c r="J66" t="n">
-        <v>34612000000</v>
+        <v>10611000000</v>
       </c>
       <c r="K66" t="n">
-        <v>70212000000</v>
+        <v>8300000000</v>
       </c>
       <c r="L66" t="n">
-        <v>237405000000</v>
+        <v>182583000000</v>
       </c>
       <c r="M66" t="n">
-        <v>193706000000</v>
+        <v>80068000000</v>
       </c>
       <c r="N66" t="n">
-        <v>361691891000</v>
+        <v>403034520882</v>
       </c>
     </row>
     <row r="67">
@@ -3892,16 +3892,16 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="D67" t="n">
-        <v>5378</v>
+        <v>5362</v>
       </c>
       <c r="E67" t="n">
-        <v>2148.936934940886</v>
+        <v>5066.092575838703</v>
       </c>
       <c r="F67" t="n">
-        <v>150.3</v>
+        <v>5.8</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3929,187 +3929,187 @@
         <v>80068000000</v>
       </c>
       <c r="N67" t="n">
-        <v>404237160258</v>
+        <v>403034520882</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>小林製薬株式会社</t>
+          <t>日本化薬株式会社</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>4967</t>
+          <t>4272</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>19.8</v>
+        <v>47.7</v>
       </c>
       <c r="D68" t="n">
-        <v>5378</v>
+        <v>1375</v>
       </c>
       <c r="E68" t="n">
-        <v>5066.092575838703</v>
+        <v>1111.90611839092</v>
       </c>
       <c r="F68" t="n">
-        <v>6.2</v>
+        <v>23.7</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>2024-07-22</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>61157000000</v>
+        <v>47483000000</v>
       </c>
       <c r="J68" t="n">
-        <v>10611000000</v>
+        <v>44109000000</v>
       </c>
       <c r="K68" t="n">
-        <v>8300000000</v>
+        <v>9428000000</v>
       </c>
       <c r="L68" t="n">
-        <v>182583000000</v>
+        <v>228273000000</v>
       </c>
       <c r="M68" t="n">
-        <v>80068000000</v>
+        <v>101020000000</v>
       </c>
       <c r="N68" t="n">
-        <v>404237160258</v>
+        <v>211844092625</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>日本化薬株式会社</t>
+          <t>株式会社ホギメディカル</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>4272</t>
+          <t>3593</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>47.5</v>
+        <v>43.1</v>
       </c>
       <c r="D69" t="n">
-        <v>1371.5</v>
+        <v>5240</v>
       </c>
       <c r="E69" t="n">
-        <v>1111.90611839092</v>
+        <v>3361.304411567078</v>
       </c>
       <c r="F69" t="n">
-        <v>23.3</v>
+        <v>55.9</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2023-05-25</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>47483000000</v>
+        <v>19911000000</v>
       </c>
       <c r="J69" t="n">
-        <v>44109000000</v>
+        <v>19534000000</v>
       </c>
       <c r="K69" t="n">
-        <v>9428000000</v>
+        <v>9213000000</v>
       </c>
       <c r="L69" t="n">
-        <v>228273000000</v>
+        <v>95951000000</v>
       </c>
       <c r="M69" t="n">
-        <v>101020000000</v>
+        <v>48658000000</v>
       </c>
       <c r="N69" t="n">
-        <v>212759487960</v>
+        <v>112973519680</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>株式会社ホギメディカル</t>
+          <t>東京都競馬株式会社</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>3593</t>
+          <t>9672</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>42.3</v>
+        <v>34.9</v>
       </c>
       <c r="D70" t="n">
-        <v>5160</v>
+        <v>5270</v>
       </c>
       <c r="E70" t="n">
-        <v>3361.304411567078</v>
+        <v>3891.73752540545</v>
       </c>
       <c r="F70" t="n">
-        <v>53.5</v>
+        <v>35.4</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>ダルトン・インベストメンツ・エルエルシー</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>2023-05-25</t>
+          <t>2023-03-28</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>19911000000</v>
+        <v>15161482000</v>
       </c>
       <c r="J70" t="n">
-        <v>19534000000</v>
+        <v>32537201000</v>
       </c>
       <c r="K70" t="n">
-        <v>9213000000</v>
+        <v>3000000000</v>
       </c>
       <c r="L70" t="n">
-        <v>95951000000</v>
+        <v>70534868000</v>
       </c>
       <c r="M70" t="n">
-        <v>48658000000</v>
+        <v>50698683000</v>
       </c>
       <c r="N70" t="n">
-        <v>115107071520</v>
+        <v>145246791470</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>東京都競馬株式会社</t>
+          <t>株式会社クスリのアオキホールディングス</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>9672</t>
+          <t>3549</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>35.2</v>
+        <v>39.6</v>
       </c>
       <c r="D71" t="n">
-        <v>5230</v>
+        <v>3567</v>
       </c>
       <c r="E71" t="n">
-        <v>3891.73752540545</v>
+        <v>6646.195827570309</v>
       </c>
       <c r="F71" t="n">
-        <v>34.4</v>
+        <v>-46.3</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -4118,78 +4118,78 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>2023-03-28</t>
+          <t>2023-05-15</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>15161482000</v>
+        <v>15734000000</v>
       </c>
       <c r="J71" t="n">
-        <v>32537201000</v>
+        <v>120105000000</v>
       </c>
       <c r="K71" t="n">
-        <v>3000000000</v>
+        <v>3356000000</v>
       </c>
       <c r="L71" t="n">
-        <v>70534868000</v>
+        <v>77669000000</v>
       </c>
       <c r="M71" t="n">
-        <v>50698683000</v>
+        <v>139195000000</v>
       </c>
       <c r="N71" t="n">
-        <v>144144349030</v>
+        <v>351571606389</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>株式会社クスリのアオキホールディングス</t>
+          <t>イリソ電子工業株式会社</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>3549</t>
+          <t>6908</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>36.5</v>
+        <v>33.5</v>
       </c>
       <c r="D72" t="n">
-        <v>3784</v>
+        <v>2853</v>
       </c>
       <c r="E72" t="n">
-        <v>6646.195827570309</v>
+        <v>2480</v>
       </c>
       <c r="F72" t="n">
-        <v>-43.1</v>
+        <v>15</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>2023-05-15</t>
+          <t>2025-06-19</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>15734000000</v>
+        <v>14260000000</v>
       </c>
       <c r="J72" t="n">
-        <v>120105000000</v>
+        <v>5778000000</v>
       </c>
       <c r="K72" t="n">
-        <v>3356000000</v>
+        <v>239000000</v>
       </c>
       <c r="L72" t="n">
-        <v>77669000000</v>
+        <v>54731000000</v>
       </c>
       <c r="M72" t="n">
-        <v>139195000000</v>
+        <v>20277000000</v>
       </c>
       <c r="N72" t="n">
-        <v>381338593856</v>
+        <v>60562588158</v>
       </c>
     </row>
     <row r="73">
@@ -4204,16 +4204,16 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>32.4</v>
+        <v>33.5</v>
       </c>
       <c r="D73" t="n">
-        <v>2829</v>
+        <v>2853</v>
       </c>
       <c r="E73" t="n">
-        <v>2480</v>
+        <v>2504.338645418327</v>
       </c>
       <c r="F73" t="n">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>2025-06-19</t>
+          <t>2024-10-22</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -4241,7 +4241,7 @@
         <v>20277000000</v>
       </c>
       <c r="N73" t="n">
-        <v>62552689473</v>
+        <v>60562588158</v>
       </c>
     </row>
     <row r="74">
@@ -4256,16 +4256,16 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>32.4</v>
+        <v>33.5</v>
       </c>
       <c r="D74" t="n">
-        <v>2829</v>
+        <v>2853</v>
       </c>
       <c r="E74" t="n">
-        <v>2504.338645418327</v>
+        <v>2880</v>
       </c>
       <c r="F74" t="n">
-        <v>13</v>
+        <v>-0.9</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>2024-10-22</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -4293,83 +4293,83 @@
         <v>20277000000</v>
       </c>
       <c r="N74" t="n">
-        <v>62552689473</v>
+        <v>60562588158</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>イリソ電子工業株式会社</t>
+          <t>株式会社シンクロ・フード</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>6908</t>
+          <t>3963</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>32.4</v>
+        <v>13.3</v>
       </c>
       <c r="D75" t="n">
-        <v>2829</v>
+        <v>608</v>
       </c>
       <c r="E75" t="n">
-        <v>2880</v>
+        <v>421.6950726175476</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.8</v>
+        <v>44.2</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>2024-08-13</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>14260000000</v>
+        <v>2173723000</v>
       </c>
       <c r="J75" t="n">
-        <v>5778000000</v>
+        <v>67951000</v>
       </c>
       <c r="K75" t="n">
-        <v>239000000</v>
+        <v>15141000</v>
       </c>
       <c r="L75" t="n">
-        <v>54731000000</v>
+        <v>2505194000</v>
       </c>
       <c r="M75" t="n">
-        <v>20277000000</v>
+        <v>2256815000</v>
       </c>
       <c r="N75" t="n">
-        <v>62552689473</v>
+        <v>17031635264</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>株式会社シンクロ・フード</t>
+          <t>わかもと製薬株式会社</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>3963</t>
+          <t>4512</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>13.4</v>
+        <v>53.2</v>
       </c>
       <c r="D76" t="n">
-        <v>601</v>
+        <v>291</v>
       </c>
       <c r="E76" t="n">
-        <v>421.6950726175476</v>
+        <v>290.3401328717133</v>
       </c>
       <c r="F76" t="n">
-        <v>42.5</v>
+        <v>0.2</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4378,102 +4378,102 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-02-19</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>2173723000</v>
+        <v>2843762000</v>
       </c>
       <c r="J76" t="n">
-        <v>67951000</v>
+        <v>82947000</v>
       </c>
       <c r="K76" t="n">
-        <v>15141000</v>
+        <v>2442113000</v>
       </c>
       <c r="L76" t="n">
-        <v>2505194000</v>
+        <v>11385570000</v>
       </c>
       <c r="M76" t="n">
-        <v>2256815000</v>
+        <v>5368822000</v>
       </c>
       <c r="N76" t="n">
-        <v>16835547358</v>
+        <v>10099525443</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>わかもと製薬株式会社</t>
+          <t>セーレン株式会社</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>4512</t>
+          <t>3569</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>52.1</v>
+        <v>39</v>
       </c>
       <c r="D77" t="n">
-        <v>291</v>
+        <v>3010</v>
       </c>
       <c r="E77" t="n">
-        <v>290.3401328717133</v>
+        <v>1359.655069733296</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2</v>
+        <v>121.4</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>2025-02-19</t>
+          <t>2024-08-30</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>2843762000</v>
+        <v>39498000000</v>
       </c>
       <c r="J77" t="n">
-        <v>82947000</v>
+        <v>26026000000</v>
       </c>
       <c r="K77" t="n">
-        <v>2442113000</v>
+        <v>3317000000</v>
       </c>
       <c r="L77" t="n">
-        <v>11385570000</v>
+        <v>80897000000</v>
       </c>
       <c r="M77" t="n">
-        <v>5368822000</v>
+        <v>68841000000</v>
       </c>
       <c r="N77" t="n">
-        <v>10309932120</v>
+        <v>176478422050</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>セーレン株式会社</t>
+          <t>株式会社セプテーニ・ホールディングス</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>3569</t>
+          <t>4293</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>38.7</v>
+        <v>12.4</v>
       </c>
       <c r="D78" t="n">
-        <v>2996</v>
+        <v>419</v>
       </c>
       <c r="E78" t="n">
-        <v>1359.655069733296</v>
+        <v>448.6811097117532</v>
       </c>
       <c r="F78" t="n">
-        <v>120.4</v>
+        <v>-6.6</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4482,50 +4482,50 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2023-12-21</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>39498000000</v>
+        <v>9080380000</v>
       </c>
       <c r="J78" t="n">
-        <v>26026000000</v>
+        <v>123425000</v>
       </c>
       <c r="K78" t="n">
-        <v>3317000000</v>
+        <v>1600720000</v>
       </c>
       <c r="L78" t="n">
-        <v>80897000000</v>
+        <v>11068271000</v>
       </c>
       <c r="M78" t="n">
-        <v>68841000000</v>
+        <v>10804525000</v>
       </c>
       <c r="N78" t="n">
-        <v>177991913596</v>
+        <v>86911120671</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>株式会社セプテーニ・ホールディングス</t>
+          <t>株式会社トプコン</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>4293</t>
+          <t>7732</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>12.6</v>
+        <v>10.8</v>
       </c>
       <c r="D79" t="n">
-        <v>408</v>
+        <v>3281</v>
       </c>
       <c r="E79" t="n">
-        <v>448.6811097117532</v>
+        <v>2085.872134468915</v>
       </c>
       <c r="F79" t="n">
-        <v>-9.1</v>
+        <v>57.3</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4534,50 +4534,50 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>2023-12-21</t>
+          <t>2025-01-17</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>9080380000</v>
+        <v>20446000000</v>
       </c>
       <c r="J79" t="n">
-        <v>123425000</v>
+        <v>10856000000</v>
       </c>
       <c r="K79" t="n">
-        <v>1600720000</v>
+        <v>6017000000</v>
       </c>
       <c r="L79" t="n">
-        <v>11068271000</v>
+        <v>70687000000</v>
       </c>
       <c r="M79" t="n">
-        <v>10804525000</v>
+        <v>37319000000</v>
       </c>
       <c r="N79" t="n">
-        <v>85861912104</v>
+        <v>346044733928</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>株式会社トプコン</t>
+          <t>株式会社ＡＣＳＬ</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>7732</t>
+          <t>6232</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>10.8</v>
+        <v>13.6</v>
       </c>
       <c r="D80" t="n">
-        <v>3278</v>
+        <v>960</v>
       </c>
       <c r="E80" t="n">
-        <v>2085.872134468915</v>
+        <v>913.2768512341561</v>
       </c>
       <c r="F80" t="n">
-        <v>57.2</v>
+        <v>5.1</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4586,154 +4586,154 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>2025-01-17</t>
+          <t>2023-11-29</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>20446000000</v>
+        <v>1891731000</v>
       </c>
       <c r="J80" t="n">
-        <v>10856000000</v>
+        <v>68181000</v>
       </c>
       <c r="K80" t="n">
-        <v>6017000000</v>
+        <v>241987000</v>
       </c>
       <c r="L80" t="n">
-        <v>70687000000</v>
+        <v>3572642000</v>
       </c>
       <c r="M80" t="n">
-        <v>37319000000</v>
+        <v>2201899000</v>
       </c>
       <c r="N80" t="n">
-        <v>345728326064</v>
+        <v>16242853440</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>株式会社ＡＣＳＬ</t>
+          <t>株式会社あおぞら銀行</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>6232</t>
+          <t>8304</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>13.5</v>
+        <v>263.1</v>
       </c>
       <c r="D81" t="n">
-        <v>922</v>
+        <v>2350.5</v>
       </c>
       <c r="E81" t="n">
-        <v>913.2768512341561</v>
+        <v>2190</v>
       </c>
       <c r="F81" t="n">
-        <v>1</v>
+        <v>7.3</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2023-11-29</t>
+          <t>2024-02-20</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>1891731000</v>
+        <v>847732000000</v>
       </c>
       <c r="J81" t="n">
-        <v>68181000</v>
+        <v>23159000000</v>
       </c>
       <c r="K81" t="n">
-        <v>241987000</v>
+        <v>0</v>
       </c>
       <c r="L81" t="n">
-        <v>3572642000</v>
+        <v>490006000000</v>
       </c>
       <c r="M81" t="n">
-        <v>2201899000</v>
+        <v>870891000000</v>
       </c>
       <c r="N81" t="n">
-        <v>16332217644</v>
+        <v>331056452210</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>株式会社あおぞら銀行</t>
+          <t>日本ゼオン株式会社</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>8304</t>
+          <t>4205</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>277.1</v>
+        <v>56.7</v>
       </c>
       <c r="D82" t="n">
-        <v>2271.5</v>
+        <v>1621</v>
       </c>
       <c r="E82" t="n">
-        <v>2190</v>
+        <v>1721.078563209627</v>
       </c>
       <c r="F82" t="n">
-        <v>3.7</v>
+        <v>-5.8</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2024-02-20</t>
+          <t>2024-08-30</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>847732000000</v>
+        <v>48152000000</v>
       </c>
       <c r="J82" t="n">
-        <v>23159000000</v>
+        <v>45247000000</v>
       </c>
       <c r="K82" t="n">
-        <v>0</v>
+        <v>85316000000</v>
       </c>
       <c r="L82" t="n">
-        <v>490006000000</v>
+        <v>298246000000</v>
       </c>
       <c r="M82" t="n">
-        <v>870891000000</v>
+        <v>178715000000</v>
       </c>
       <c r="N82" t="n">
-        <v>314332645935</v>
+        <v>315216019234</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>日本ゼオン株式会社</t>
+          <t>サンケン電気株式会社</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>4205</t>
+          <t>6707</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>55.8</v>
+        <v>64.5</v>
       </c>
       <c r="D83" t="n">
-        <v>1621</v>
+        <v>7148</v>
       </c>
       <c r="E83" t="n">
-        <v>1721.078563209627</v>
+        <v>5478.947585152067</v>
       </c>
       <c r="F83" t="n">
-        <v>-5.8</v>
+        <v>30.5</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4742,130 +4742,130 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>2024-08-30</t>
+          <t>2022-11-02</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>48152000000</v>
+        <v>59812000000</v>
       </c>
       <c r="J83" t="n">
-        <v>45247000000</v>
+        <v>29348000000</v>
       </c>
       <c r="K83" t="n">
-        <v>85316000000</v>
+        <v>3029000000</v>
       </c>
       <c r="L83" t="n">
-        <v>298246000000</v>
+        <v>113250000000</v>
       </c>
       <c r="M83" t="n">
-        <v>178715000000</v>
+        <v>92189000000</v>
       </c>
       <c r="N83" t="n">
-        <v>320372331079</v>
+        <v>142893709448</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>サンケン電気株式会社</t>
+          <t>株式会社メガチップス</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>6707</t>
+          <t>6875</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>65.90000000000001</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>6897</v>
+        <v>8310</v>
       </c>
       <c r="E84" t="n">
-        <v>5478.947585152067</v>
+        <v>4870</v>
       </c>
       <c r="F84" t="n">
-        <v>25.9</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2022-11-02</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>59812000000</v>
+        <v>21407837000</v>
       </c>
       <c r="J84" t="n">
-        <v>29348000000</v>
+        <v>1798538000</v>
       </c>
       <c r="K84" t="n">
-        <v>3029000000</v>
+        <v>75623395000</v>
       </c>
       <c r="L84" t="n">
-        <v>113250000000</v>
+        <v>50043484000</v>
       </c>
       <c r="M84" t="n">
-        <v>92189000000</v>
+        <v>98829770000</v>
       </c>
       <c r="N84" t="n">
-        <v>139806976518</v>
+        <v>134710917000</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>株式会社メガチップス</t>
+          <t>大東建託株式会社</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>6875</t>
+          <t>1878</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>69.5</v>
+        <v>26.4</v>
       </c>
       <c r="D85" t="n">
-        <v>8770</v>
+        <v>3032</v>
       </c>
       <c r="E85" t="n">
-        <v>4870</v>
+        <v>13739.64575539568</v>
       </c>
       <c r="F85" t="n">
-        <v>80.09999999999999</v>
+        <v>-77.90000000000001</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-05-22</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>21407837000</v>
+        <v>198760000000</v>
       </c>
       <c r="J85" t="n">
-        <v>1798538000</v>
+        <v>62873000000</v>
       </c>
       <c r="K85" t="n">
-        <v>75623395000</v>
+        <v>3798000000</v>
       </c>
       <c r="L85" t="n">
-        <v>50043484000</v>
+        <v>308206000000</v>
       </c>
       <c r="M85" t="n">
-        <v>98829770000</v>
+        <v>265431000000</v>
       </c>
       <c r="N85" t="n">
-        <v>142167839000</v>
+        <v>1005452799040</v>
       </c>
     </row>
     <row r="86">
@@ -4880,16 +4880,16 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>24.9</v>
+        <v>26.4</v>
       </c>
       <c r="D86" t="n">
-        <v>3052</v>
+        <v>3032</v>
       </c>
       <c r="E86" t="n">
-        <v>13739.64575539568</v>
+        <v>12975.86280814577</v>
       </c>
       <c r="F86" t="n">
-        <v>-77.8</v>
+        <v>-76.59999999999999</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4898,7 +4898,7 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>2025-05-22</t>
+          <t>2023-06-02</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -4917,239 +4917,239 @@
         <v>265431000000</v>
       </c>
       <c r="N86" t="n">
-        <v>1064832179040</v>
+        <v>1005452799040</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>大東建託株式会社</t>
+          <t>株式会社ダイドーリミテッド</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>1878</t>
+          <t>3205</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>24.9</v>
+        <v>80.5</v>
       </c>
       <c r="D87" t="n">
-        <v>3052</v>
+        <v>1009</v>
       </c>
       <c r="E87" t="n">
-        <v>12975.86280814577</v>
+        <v>193.0499177180472</v>
       </c>
       <c r="F87" t="n">
-        <v>-76.5</v>
+        <v>422.7</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>2023-06-02</t>
+          <t>2022-11-17</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>198760000000</v>
+        <v>7723000000</v>
       </c>
       <c r="J87" t="n">
-        <v>62873000000</v>
+        <v>9807000000</v>
       </c>
       <c r="K87" t="n">
-        <v>3798000000</v>
+        <v>4567000000</v>
       </c>
       <c r="L87" t="n">
-        <v>308206000000</v>
+        <v>10628000000</v>
       </c>
       <c r="M87" t="n">
-        <v>265431000000</v>
+        <v>22097000000</v>
       </c>
       <c r="N87" t="n">
-        <v>1064832179040</v>
+        <v>27451863000</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>株式会社ダイドーリミテッド</t>
+          <t>株式会社クレハ</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>3205</t>
+          <t>4023</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>82</v>
+        <v>23.7</v>
       </c>
       <c r="D88" t="n">
-        <v>990</v>
+        <v>3780</v>
       </c>
       <c r="E88" t="n">
-        <v>193.0499177180472</v>
+        <v>7960</v>
       </c>
       <c r="F88" t="n">
-        <v>412.8</v>
+        <v>-52.5</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>2022-11-17</t>
+          <t>2023-10-04</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>7723000000</v>
+        <v>4999000000</v>
       </c>
       <c r="J88" t="n">
-        <v>9807000000</v>
+        <v>6059000000</v>
       </c>
       <c r="K88" t="n">
-        <v>4567000000</v>
+        <v>23201000000</v>
       </c>
       <c r="L88" t="n">
-        <v>10628000000</v>
+        <v>148872000000</v>
       </c>
       <c r="M88" t="n">
-        <v>22097000000</v>
+        <v>34259000000</v>
       </c>
       <c r="N88" t="n">
-        <v>26934930000</v>
+        <v>144469052280</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>株式会社クレハ</t>
+          <t>ヤマハ発動機株式会社</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>4023</t>
+          <t>7272</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>22.9</v>
+        <v>34.2</v>
       </c>
       <c r="D89" t="n">
-        <v>3765</v>
+        <v>1102</v>
       </c>
       <c r="E89" t="n">
-        <v>7960</v>
+        <v>2968.770104870396</v>
       </c>
       <c r="F89" t="n">
-        <v>-52.7</v>
+        <v>-62.9</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>株式会社エスグラントコーポレーション代表取締役　池田龍哉</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>2023-10-04</t>
+          <t>2023-01-16</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>4999000000</v>
+        <v>267180000000</v>
       </c>
       <c r="J89" t="n">
-        <v>6059000000</v>
+        <v>48711000000</v>
       </c>
       <c r="K89" t="n">
-        <v>23201000000</v>
+        <v>49039000000</v>
       </c>
       <c r="L89" t="n">
-        <v>148872000000</v>
+        <v>749158000000</v>
       </c>
       <c r="M89" t="n">
-        <v>34259000000</v>
+        <v>364930000000</v>
       </c>
       <c r="N89" t="n">
-        <v>149659277100</v>
+        <v>1068471804280</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ヤマハ発動機株式会社</t>
+          <t>ライフネット生命保険株式会社</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>7272</t>
+          <t>7157</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>34.4</v>
+        <v>1.8</v>
       </c>
       <c r="D90" t="n">
-        <v>1093</v>
+        <v>2048</v>
       </c>
       <c r="E90" t="n">
-        <v>2968.770104870396</v>
+        <v>887.288318673809</v>
       </c>
       <c r="F90" t="n">
-        <v>-63.2</v>
+        <v>130.8</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>2023-01-16</t>
+          <t>2023-05-24</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>267180000000</v>
+        <v>3059000000</v>
       </c>
       <c r="J90" t="n">
-        <v>48711000000</v>
+        <v>65000000</v>
       </c>
       <c r="K90" t="n">
-        <v>49039000000</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
-        <v>749158000000</v>
+        <v>15806000000</v>
       </c>
       <c r="M90" t="n">
-        <v>364930000000</v>
+        <v>3124000000</v>
       </c>
       <c r="N90" t="n">
-        <v>1059745628020</v>
+        <v>170242584576</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ライフネット生命保険株式会社</t>
+          <t>株式会社内田洋行</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>7157</t>
+          <t>8057</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>1.9</v>
+        <v>25.1</v>
       </c>
       <c r="D91" t="n">
-        <v>2020</v>
+        <v>11380</v>
       </c>
       <c r="E91" t="n">
-        <v>887.288318673809</v>
+        <v>3496.825336379792</v>
       </c>
       <c r="F91" t="n">
-        <v>127.7</v>
+        <v>225.4</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -5158,50 +5158,50 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2023-05-24</t>
+          <t>2022-12-19</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>3059000000</v>
+        <v>24890000000</v>
       </c>
       <c r="J91" t="n">
-        <v>65000000</v>
+        <v>3100000000</v>
       </c>
       <c r="K91" t="n">
-        <v>0</v>
+        <v>1500000000</v>
       </c>
       <c r="L91" t="n">
-        <v>15806000000</v>
+        <v>42315000000</v>
       </c>
       <c r="M91" t="n">
-        <v>3124000000</v>
+        <v>29490000000</v>
       </c>
       <c r="N91" t="n">
-        <v>162242242840</v>
+        <v>117308488140</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>株式会社内田洋行</t>
+          <t>芝浦機械株式会社</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>8057</t>
+          <t>6104</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>25.3</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>11300</v>
+        <v>4215</v>
       </c>
       <c r="E92" t="n">
-        <v>3496.825336379792</v>
+        <v>3449.780346820809</v>
       </c>
       <c r="F92" t="n">
-        <v>223.2</v>
+        <v>22.2</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -5210,462 +5210,462 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>2022-12-19</t>
+          <t>2025-08-19</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>24890000000</v>
+        <v>42417000000</v>
       </c>
       <c r="J92" t="n">
-        <v>3100000000</v>
+        <v>19144000000</v>
       </c>
       <c r="K92" t="n">
-        <v>1500000000</v>
+        <v>18000000000</v>
       </c>
       <c r="L92" t="n">
-        <v>42315000000</v>
+        <v>82152000000</v>
       </c>
       <c r="M92" t="n">
-        <v>29490000000</v>
+        <v>79561000000</v>
       </c>
       <c r="N92" t="n">
-        <v>116483823900</v>
+        <v>99604888395</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>芝浦機械株式会社</t>
+          <t>サッポロホールディングス株式会社</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>6104</t>
+          <t>2501</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>79.2</v>
+        <v>1.4</v>
       </c>
       <c r="D93" t="n">
-        <v>4215</v>
+        <v>7234</v>
       </c>
       <c r="E93" t="n">
-        <v>3449.780346820809</v>
+        <v>2697.360927565142</v>
       </c>
       <c r="F93" t="n">
-        <v>22.2</v>
+        <v>168.2</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2025-08-19</t>
+          <t>2023-10-12</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>42417000000</v>
+        <v>3451000000</v>
       </c>
       <c r="J93" t="n">
-        <v>19144000000</v>
+        <v>28000000</v>
       </c>
       <c r="K93" t="n">
-        <v>18000000000</v>
+        <v>4669000000</v>
       </c>
       <c r="L93" t="n">
-        <v>82152000000</v>
+        <v>137956000000</v>
       </c>
       <c r="M93" t="n">
-        <v>79561000000</v>
+        <v>8148000000</v>
       </c>
       <c r="N93" t="n">
-        <v>100440899925</v>
+        <v>564029330246</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>サッポロホールディングス株式会社</t>
+          <t>株式会社おきなわフィナンシャルグループ</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2501</t>
+          <t>7350</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1.4</v>
+        <v>739.7</v>
       </c>
       <c r="D94" t="n">
-        <v>6986</v>
-      </c>
-      <c r="E94" t="n">
-        <v>2697.360927565142</v>
-      </c>
-      <c r="F94" t="n">
-        <v>159</v>
-      </c>
+        <v>3750</v>
+      </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2023-10-12</t>
+          <t>2023-05-16</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>3451000000</v>
+        <v>590636000000</v>
       </c>
       <c r="J94" t="n">
-        <v>28000000</v>
+        <v>18477000000</v>
       </c>
       <c r="K94" t="n">
-        <v>4669000000</v>
+        <v>0</v>
       </c>
       <c r="L94" t="n">
-        <v>137956000000</v>
+        <v>159392000000</v>
       </c>
       <c r="M94" t="n">
-        <v>8148000000</v>
+        <v>609113000000</v>
       </c>
       <c r="N94" t="n">
-        <v>562373859278</v>
+        <v>82340572500</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>株式会社おきなわフィナンシャルグループ</t>
+          <t>株式会社アインホールディングス</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>7350</t>
+          <t>9627</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>743.7</v>
+        <v>35.9</v>
       </c>
       <c r="D95" t="n">
-        <v>3730</v>
-      </c>
-      <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr"/>
+        <v>6785</v>
+      </c>
+      <c r="E95" t="n">
+        <v>2836.942753814942</v>
+      </c>
+      <c r="F95" t="n">
+        <v>139.2</v>
+      </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2023-05-16</t>
+          <t>2024-03-04</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>590636000000</v>
+        <v>55009000000</v>
       </c>
       <c r="J95" t="n">
-        <v>18477000000</v>
+        <v>27122000000</v>
       </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>3345000000</v>
       </c>
       <c r="L95" t="n">
-        <v>159392000000</v>
+        <v>115837000000</v>
       </c>
       <c r="M95" t="n">
-        <v>609113000000</v>
+        <v>85476000000</v>
       </c>
       <c r="N95" t="n">
-        <v>81901422780</v>
+        <v>237971831625</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>株式会社アインホールディングス</t>
+          <t>株式会社パイオラックス</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>9627</t>
+          <t>5988</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>35.5</v>
+        <v>102.9</v>
       </c>
       <c r="D96" t="n">
-        <v>6737</v>
+        <v>1754</v>
       </c>
       <c r="E96" t="n">
-        <v>2836.942753814942</v>
+        <v>2298.672482457804</v>
       </c>
       <c r="F96" t="n">
-        <v>137.5</v>
+        <v>-23.7</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>55009000000</v>
+        <v>31161000000</v>
       </c>
       <c r="J96" t="n">
-        <v>27122000000</v>
+        <v>12144000000</v>
       </c>
       <c r="K96" t="n">
-        <v>3345000000</v>
+        <v>1620000000</v>
       </c>
       <c r="L96" t="n">
-        <v>115837000000</v>
+        <v>93746000000</v>
       </c>
       <c r="M96" t="n">
-        <v>85476000000</v>
+        <v>44925000000</v>
       </c>
       <c r="N96" t="n">
-        <v>240446494280</v>
+        <v>43642540388</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>株式会社パイオラックス</t>
+          <t>あいホールディングス株式会社</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>5988</t>
+          <t>3076</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>101.5</v>
+        <v>25.8</v>
       </c>
       <c r="D97" t="n">
-        <v>1749</v>
+        <v>2706</v>
       </c>
       <c r="E97" t="n">
-        <v>2298.672482457804</v>
+        <v>2007.754513143541</v>
       </c>
       <c r="F97" t="n">
-        <v>-23.9</v>
+        <v>34.8</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>ダルトン　インベストメンツ　インク</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2024-08-06</t>
+          <t>2025-05-02</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>31161000000</v>
+        <v>32012000000</v>
       </c>
       <c r="J97" t="n">
-        <v>12144000000</v>
+        <v>1646000000</v>
       </c>
       <c r="K97" t="n">
-        <v>1620000000</v>
+        <v>3550000000</v>
       </c>
       <c r="L97" t="n">
-        <v>93746000000</v>
+        <v>53765000000</v>
       </c>
       <c r="M97" t="n">
-        <v>44925000000</v>
+        <v>37208000000</v>
       </c>
       <c r="N97" t="n">
-        <v>44263730478</v>
+        <v>144158721498</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>あいホールディングス株式会社</t>
+          <t>三和ホールディングス株式会社</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>3076</t>
+          <t>5929</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>24.8</v>
+        <v>13.5</v>
       </c>
       <c r="D98" t="n">
-        <v>2703</v>
+        <v>4215</v>
       </c>
       <c r="E98" t="n">
-        <v>2007.754513143541</v>
+        <v>1306.206628354146</v>
       </c>
       <c r="F98" t="n">
-        <v>34.6</v>
+        <v>222.7</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>ダルトン　インベストメンツ　インク</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>2025-05-02</t>
+          <t>2023-07-24</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>32012000000</v>
+        <v>87795000000</v>
       </c>
       <c r="J98" t="n">
-        <v>1646000000</v>
+        <v>21341000000</v>
       </c>
       <c r="K98" t="n">
-        <v>3550000000</v>
+        <v>11848000000</v>
       </c>
       <c r="L98" t="n">
-        <v>53765000000</v>
+        <v>181387000000</v>
       </c>
       <c r="M98" t="n">
-        <v>37208000000</v>
+        <v>120984000000</v>
       </c>
       <c r="N98" t="n">
-        <v>150019011087</v>
+        <v>895270071690</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>三和ホールディングス株式会社</t>
+          <t>ヘリオス テクノ ホールディング株式会社</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>5929</t>
+          <t>6927</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>13.6</v>
+        <v>53.9</v>
       </c>
       <c r="D99" t="n">
-        <v>4124</v>
+        <v>861</v>
       </c>
       <c r="E99" t="n">
-        <v>1306.206628354146</v>
+        <v>896.0103264198827</v>
       </c>
       <c r="F99" t="n">
-        <v>215.7</v>
+        <v>-3.9</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>ダルトン・インベストメンツ・エルエルシー</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>2023-07-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>87795000000</v>
+        <v>6417163000</v>
       </c>
       <c r="J99" t="n">
-        <v>21341000000</v>
+        <v>658172000</v>
       </c>
       <c r="K99" t="n">
-        <v>11848000000</v>
+        <v>1342160000</v>
       </c>
       <c r="L99" t="n">
-        <v>181387000000</v>
+        <v>13418044000</v>
       </c>
       <c r="M99" t="n">
-        <v>120984000000</v>
+        <v>8417495000</v>
       </c>
       <c r="N99" t="n">
-        <v>890502475140</v>
+        <v>15625234275</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ヘリオス テクノ ホールディング株式会社</t>
+          <t>株式会社熊谷組</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>6927</t>
+          <t>1861</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>54</v>
+        <v>62.1</v>
       </c>
       <c r="D100" t="n">
-        <v>849</v>
+        <v>1255</v>
       </c>
       <c r="E100" t="n">
-        <v>896.0103264198827</v>
+        <v>2776.401128792723</v>
       </c>
       <c r="F100" t="n">
-        <v>-5.2</v>
+        <v>-54.8</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2023-05-24</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>6417163000</v>
+        <v>71335000000</v>
       </c>
       <c r="J100" t="n">
-        <v>658172000</v>
+        <v>17897000000</v>
       </c>
       <c r="K100" t="n">
-        <v>1342160000</v>
+        <v>48586000000</v>
       </c>
       <c r="L100" t="n">
-        <v>13418044000</v>
+        <v>163835000000</v>
       </c>
       <c r="M100" t="n">
-        <v>8417495000</v>
+        <v>137818000000</v>
       </c>
       <c r="N100" t="n">
-        <v>15585994638</v>
+        <v>222092937420</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>株式会社熊谷組</t>
+          <t>エン・ジャパン株式会社</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>1861</t>
+          <t>4849</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>61.3</v>
+        <v>46.7</v>
       </c>
       <c r="D101" t="n">
-        <v>1271</v>
+        <v>1605</v>
       </c>
       <c r="E101" t="n">
-        <v>2776.401128792723</v>
+        <v>1746.940387696806</v>
       </c>
       <c r="F101" t="n">
-        <v>-54.2</v>
+        <v>-8.1</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5674,206 +5674,206 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>2023-05-24</t>
+          <t>2025-03-31</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>71335000000</v>
+        <v>26835000000</v>
       </c>
       <c r="J101" t="n">
-        <v>17897000000</v>
+        <v>1019000000</v>
       </c>
       <c r="K101" t="n">
-        <v>48586000000</v>
+        <v>2000000000</v>
       </c>
       <c r="L101" t="n">
-        <v>163835000000</v>
+        <v>36856000000</v>
       </c>
       <c r="M101" t="n">
-        <v>137818000000</v>
+        <v>29854000000</v>
       </c>
       <c r="N101" t="n">
-        <v>224924401164</v>
+        <v>63960655980</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>エン・ジャパン株式会社</t>
+          <t>京浜急行電鉄株式会社</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>4849</t>
+          <t>9006</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>46.7</v>
+        <v>115.9</v>
       </c>
       <c r="D102" t="n">
-        <v>1574</v>
+        <v>1469</v>
       </c>
       <c r="E102" t="n">
-        <v>1746.940387696806</v>
+        <v>1160.8</v>
       </c>
       <c r="F102" t="n">
-        <v>-9.9</v>
+        <v>26.6</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>2025-03-31</t>
+          <t>2025-02-13</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>26835000000</v>
+        <v>57450000000</v>
       </c>
       <c r="J102" t="n">
-        <v>1019000000</v>
+        <v>297923000000</v>
       </c>
       <c r="K102" t="n">
-        <v>2000000000</v>
+        <v>103100000000</v>
       </c>
       <c r="L102" t="n">
-        <v>36856000000</v>
+        <v>249065000000</v>
       </c>
       <c r="M102" t="n">
-        <v>29854000000</v>
+        <v>458473000000</v>
       </c>
       <c r="N102" t="n">
-        <v>63860754554</v>
+        <v>395663236410</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>京浜急行電鉄株式会社</t>
+          <t>株式会社ニコン</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>9006</t>
+          <t>7731</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>116.1</v>
+        <v>15.9</v>
       </c>
       <c r="D103" t="n">
-        <v>1455</v>
+        <v>1737.5</v>
       </c>
       <c r="E103" t="n">
-        <v>1160.8</v>
+        <v>1512.21980974841</v>
       </c>
       <c r="F103" t="n">
-        <v>25.3</v>
+        <v>14.9</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>2025-02-13</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>57450000000</v>
+        <v>78718000000</v>
       </c>
       <c r="J103" t="n">
-        <v>297923000000</v>
+        <v>8297000000</v>
       </c>
       <c r="K103" t="n">
-        <v>103100000000</v>
+        <v>4000000000</v>
       </c>
       <c r="L103" t="n">
-        <v>249065000000</v>
+        <v>342155000000</v>
       </c>
       <c r="M103" t="n">
-        <v>458473000000</v>
+        <v>91015000000</v>
       </c>
       <c r="N103" t="n">
-        <v>394785615600</v>
+        <v>571670637600</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>株式会社ニコン</t>
+          <t>株式会社青山財産ネットワークス</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>7731</t>
+          <t>8929</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>15.8</v>
+        <v>29.4</v>
       </c>
       <c r="D104" t="n">
-        <v>1747.5</v>
+        <v>2010</v>
       </c>
       <c r="E104" t="n">
-        <v>1512.21980974841</v>
+        <v>1347.74653160027</v>
       </c>
       <c r="F104" t="n">
-        <v>15.6</v>
+        <v>49.1</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>シルチェスター・インターナショナル・インベスターズ・エルエルピー</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>2024-04-22</t>
+          <t>2024-06-11</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>78718000000</v>
+        <v>9424000000</v>
       </c>
       <c r="J104" t="n">
-        <v>8297000000</v>
+        <v>2205000000</v>
       </c>
       <c r="K104" t="n">
-        <v>4000000000</v>
+        <v>2514000000</v>
       </c>
       <c r="L104" t="n">
-        <v>342155000000</v>
+        <v>6566000000</v>
       </c>
       <c r="M104" t="n">
-        <v>91015000000</v>
+        <v>14143000000</v>
       </c>
       <c r="N104" t="n">
-        <v>574960828320</v>
+        <v>48168864090</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>株式会社青山財産ネットワークス</t>
+          <t>コニシ株式会社</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>8929</t>
+          <t>4956</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>29.3</v>
+        <v>57.5</v>
       </c>
       <c r="D105" t="n">
-        <v>1987</v>
+        <v>1265</v>
       </c>
       <c r="E105" t="n">
-        <v>1347.74653160027</v>
+        <v>1605.189780306002</v>
       </c>
       <c r="F105" t="n">
-        <v>47.4</v>
+        <v>-21.2</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5882,310 +5882,310 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>2024-06-11</t>
+          <t>2023-01-11</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>9424000000</v>
+        <v>23721000000</v>
       </c>
       <c r="J105" t="n">
-        <v>2205000000</v>
+        <v>13167000000</v>
       </c>
       <c r="K105" t="n">
-        <v>2514000000</v>
+        <v>11402000000</v>
       </c>
       <c r="L105" t="n">
-        <v>6566000000</v>
+        <v>68785000000</v>
       </c>
       <c r="M105" t="n">
-        <v>14143000000</v>
+        <v>48290000000</v>
       </c>
       <c r="N105" t="n">
-        <v>48304357465</v>
+        <v>83943376000</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>コニシ株式会社</t>
+          <t>ニッタ株式会社</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>4956</t>
+          <t>5186</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>57.9</v>
+        <v>41.4</v>
       </c>
       <c r="D106" t="n">
-        <v>1257</v>
+        <v>4050</v>
       </c>
       <c r="E106" t="n">
-        <v>1605.189780306002</v>
+        <v>3096.322467304314</v>
       </c>
       <c r="F106" t="n">
-        <v>-21.7</v>
+        <v>30.8</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>2023-01-11</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>23721000000</v>
+        <v>27527000000</v>
       </c>
       <c r="J106" t="n">
-        <v>13167000000</v>
+        <v>13414000000</v>
       </c>
       <c r="K106" t="n">
-        <v>11402000000</v>
+        <v>5499000000</v>
       </c>
       <c r="L106" t="n">
-        <v>68785000000</v>
+        <v>108639000000</v>
       </c>
       <c r="M106" t="n">
-        <v>48290000000</v>
+        <v>46440000000</v>
       </c>
       <c r="N106" t="n">
-        <v>83412508800</v>
+        <v>112173238800</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ニッタ株式会社</t>
+          <t>コクヨ株式会社</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>5186</t>
+          <t>7984</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>40.8</v>
+        <v>37.4</v>
       </c>
       <c r="D107" t="n">
-        <v>3990</v>
+        <v>860.7000122070312</v>
       </c>
       <c r="E107" t="n">
-        <v>3096.322467304314</v>
+        <v>2157.626835069302</v>
       </c>
       <c r="F107" t="n">
-        <v>28.9</v>
+        <v>-60.1</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>ダルトン・インベストメンツ・エルエルシー</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>27527000000</v>
+        <v>90577000000</v>
       </c>
       <c r="J107" t="n">
-        <v>13414000000</v>
+        <v>21360000000</v>
       </c>
       <c r="K107" t="n">
-        <v>5499000000</v>
+        <v>30086000000</v>
       </c>
       <c r="L107" t="n">
-        <v>108639000000</v>
+        <v>226335000000</v>
       </c>
       <c r="M107" t="n">
-        <v>46440000000</v>
+        <v>142023000000</v>
       </c>
       <c r="N107" t="n">
-        <v>113934940770</v>
+        <v>380186469374</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>コクヨ株式会社</t>
+          <t>日本特殊塗料株式会社</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>7984</t>
+          <t>4619</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>38.1</v>
+        <v>87.3</v>
       </c>
       <c r="D108" t="n">
-        <v>849</v>
+        <v>2080</v>
       </c>
       <c r="E108" t="n">
-        <v>2157.626835069302</v>
+        <v>1190</v>
       </c>
       <c r="F108" t="n">
-        <v>-60.7</v>
+        <v>74.8</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2025-04-07</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>90577000000</v>
+        <v>6518000000</v>
       </c>
       <c r="J108" t="n">
-        <v>21360000000</v>
+        <v>9792000000</v>
       </c>
       <c r="K108" t="n">
-        <v>30086000000</v>
+        <v>23167000000</v>
       </c>
       <c r="L108" t="n">
-        <v>226335000000</v>
+        <v>47154000000</v>
       </c>
       <c r="M108" t="n">
-        <v>142023000000</v>
+        <v>39477000000</v>
       </c>
       <c r="N108" t="n">
-        <v>373102835574</v>
+        <v>45243490240</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>日本特殊塗料株式会社</t>
+          <t>株式会社イワキ</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>4619</t>
+          <t>6237</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>86.90000000000001</v>
+        <v>20.1</v>
       </c>
       <c r="D109" t="n">
-        <v>2068</v>
+        <v>2502</v>
       </c>
       <c r="E109" t="n">
-        <v>1190</v>
+        <v>1361.432492253209</v>
       </c>
       <c r="F109" t="n">
-        <v>73.8</v>
+        <v>83.8</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>ダルトン・インベストメンツ・エルエルシー</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>2025-04-07</t>
+          <t>2023-11-09</t>
         </is>
       </c>
       <c r="I109" t="n">
-        <v>6518000000</v>
+        <v>6936133000</v>
       </c>
       <c r="J109" t="n">
-        <v>9792000000</v>
+        <v>3861988000</v>
       </c>
       <c r="K109" t="n">
-        <v>23167000000</v>
+        <v>326566000</v>
       </c>
       <c r="L109" t="n">
-        <v>47154000000</v>
+        <v>22520477000</v>
       </c>
       <c r="M109" t="n">
-        <v>39477000000</v>
+        <v>11124687000</v>
       </c>
       <c r="N109" t="n">
-        <v>45435097400</v>
+        <v>55332122814</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>株式会社イワキ</t>
+          <t>株式会社西武ホールディングス</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>6237</t>
+          <t>9024</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>19.6</v>
+        <v>40.5</v>
       </c>
       <c r="D110" t="n">
-        <v>2503</v>
+        <v>5477</v>
       </c>
       <c r="E110" t="n">
-        <v>1361.432492253209</v>
+        <v>1716.713876475349</v>
       </c>
       <c r="F110" t="n">
-        <v>83.90000000000001</v>
+        <v>219</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>ダルトン・インベストメンツ・エルエルシー</t>
+          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>2023-11-09</t>
+          <t>2024-05-07</t>
         </is>
       </c>
       <c r="I110" t="n">
-        <v>6936133000</v>
+        <v>28538000000</v>
       </c>
       <c r="J110" t="n">
-        <v>3861988000</v>
+        <v>485513000000</v>
       </c>
       <c r="K110" t="n">
-        <v>326566000</v>
+        <v>49954000000</v>
       </c>
       <c r="L110" t="n">
-        <v>22520477000</v>
+        <v>385687000000</v>
       </c>
       <c r="M110" t="n">
-        <v>11124687000</v>
+        <v>564005000000</v>
       </c>
       <c r="N110" t="n">
-        <v>56713970194</v>
+        <v>1391826610252</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>株式会社西武ホールディングス</t>
+          <t>日鉄ソリューションズ株式会社</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>9024</t>
+          <t>2327</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>41.1</v>
+        <v>12.5</v>
       </c>
       <c r="D111" t="n">
-        <v>5397</v>
+        <v>3571</v>
       </c>
       <c r="E111" t="n">
-        <v>1716.713876475349</v>
+        <v>2561.705402476645</v>
       </c>
       <c r="F111" t="n">
-        <v>214.4</v>
+        <v>39.4</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -6194,182 +6194,182 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>2024-05-07</t>
+          <t>2024-08-19</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>28538000000</v>
+        <v>78579000000</v>
       </c>
       <c r="J111" t="n">
-        <v>485513000000</v>
+        <v>2398000000</v>
       </c>
       <c r="K111" t="n">
-        <v>49954000000</v>
+        <v>1000000000</v>
       </c>
       <c r="L111" t="n">
-        <v>385687000000</v>
+        <v>186128000000</v>
       </c>
       <c r="M111" t="n">
-        <v>564005000000</v>
+        <v>81977000000</v>
       </c>
       <c r="N111" t="n">
-        <v>1371496844172</v>
+        <v>653400893197</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>日鉄ソリューションズ株式会社</t>
+          <t>月島ホールディングス株式会社</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2327</t>
+          <t>6332</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>12.8</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="D112" t="n">
-        <v>3433</v>
+        <v>2585</v>
       </c>
       <c r="E112" t="n">
-        <v>2561.705402476645</v>
+        <v>1410</v>
       </c>
       <c r="F112" t="n">
-        <v>34</v>
+        <v>83.3</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>3Dインベストメント・パートナーズ・プライベート・リミティッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>2024-08-19</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>78579000000</v>
+        <v>33870000000</v>
       </c>
       <c r="J112" t="n">
-        <v>2398000000</v>
+        <v>23318000000</v>
       </c>
       <c r="K112" t="n">
-        <v>1000000000</v>
+        <v>25387000000</v>
       </c>
       <c r="L112" t="n">
-        <v>186128000000</v>
+        <v>71784000000</v>
       </c>
       <c r="M112" t="n">
-        <v>81977000000</v>
+        <v>82575000000</v>
       </c>
       <c r="N112" t="n">
-        <v>639494028706</v>
+        <v>103088357570</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>月島ホールディングス株式会社</t>
+          <t>株式会社ゴールドクレスト</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>6332</t>
+          <t>8871</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>69.5</v>
+        <v>73.5</v>
       </c>
       <c r="D113" t="n">
-        <v>2844</v>
+        <v>3320</v>
       </c>
       <c r="E113" t="n">
-        <v>1410</v>
+        <v>1789.870000553189</v>
       </c>
       <c r="F113" t="n">
-        <v>101.7</v>
+        <v>85.5</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2023-08-01</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>33870000000</v>
+        <v>69004000000</v>
       </c>
       <c r="J113" t="n">
-        <v>23318000000</v>
+        <v>12099000000</v>
       </c>
       <c r="K113" t="n">
-        <v>25387000000</v>
+        <v>23000000</v>
       </c>
       <c r="L113" t="n">
-        <v>71784000000</v>
+        <v>122540000000</v>
       </c>
       <c r="M113" t="n">
-        <v>82575000000</v>
+        <v>81126000000</v>
       </c>
       <c r="N113" t="n">
-        <v>118756617912</v>
+        <v>110340405840</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>株式会社ゴールドクレスト</t>
+          <t>ブロードメディア株式会社</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>8871</t>
+          <t>4347</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>74.2</v>
+        <v>34.3</v>
       </c>
       <c r="D114" t="n">
-        <v>3290</v>
+        <v>1742</v>
       </c>
       <c r="E114" t="n">
-        <v>1789.870000553189</v>
+        <v>1529.631984751819</v>
       </c>
       <c r="F114" t="n">
-        <v>83.8</v>
+        <v>13.9</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>2023-08-01</t>
+          <t>2024-07-03</t>
         </is>
       </c>
       <c r="I114" t="n">
-        <v>69004000000</v>
+        <v>3368262000</v>
       </c>
       <c r="J114" t="n">
-        <v>12099000000</v>
+        <v>826293000</v>
       </c>
       <c r="K114" t="n">
-        <v>23000000</v>
+        <v>164267000</v>
       </c>
       <c r="L114" t="n">
-        <v>122540000000</v>
+        <v>3706507000</v>
       </c>
       <c r="M114" t="n">
-        <v>81126000000</v>
+        <v>4358822000</v>
       </c>
       <c r="N114" t="n">
-        <v>109343353980</v>
+        <v>12700324494</v>
       </c>
     </row>
     <row r="115">
@@ -6387,13 +6387,13 @@
         <v>34.3</v>
       </c>
       <c r="D115" t="n">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="E115" t="n">
-        <v>1529.631984751819</v>
+        <v>1449.995380693296</v>
       </c>
       <c r="F115" t="n">
-        <v>13.8</v>
+        <v>20.1</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>2024-07-03</t>
+          <t>2024-05-22</t>
         </is>
       </c>
       <c r="I115" t="n">
@@ -6421,135 +6421,135 @@
         <v>4358822000</v>
       </c>
       <c r="N115" t="n">
-        <v>12693033837</v>
+        <v>12700324494</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ブロードメディア株式会社</t>
+          <t>株式会社イエローハット</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>4347</t>
+          <t>9882</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>34.3</v>
+        <v>36.6</v>
       </c>
       <c r="D116" t="n">
-        <v>1741</v>
+        <v>1601</v>
       </c>
       <c r="E116" t="n">
-        <v>1449.995380693296</v>
+        <v>2112.609181636727</v>
       </c>
       <c r="F116" t="n">
-        <v>20.1</v>
+        <v>-24.2</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社ストラテジックキャピタル</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>2024-05-22</t>
+          <t>2024-07-19</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>3368262000</v>
+        <v>14029000000</v>
       </c>
       <c r="J116" t="n">
-        <v>826293000</v>
+        <v>27205000000</v>
       </c>
       <c r="K116" t="n">
-        <v>164267000</v>
+        <v>9801000000</v>
       </c>
       <c r="L116" t="n">
-        <v>3706507000</v>
+        <v>91386000000</v>
       </c>
       <c r="M116" t="n">
-        <v>4358822000</v>
+        <v>51035000000</v>
       </c>
       <c r="N116" t="n">
-        <v>12693033837</v>
+        <v>139611490680</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>株式会社イエローハット</t>
+          <t>太陽ホールディングス株式会社</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>9882</t>
+          <t>4626</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>33.9</v>
+        <v>20.4</v>
       </c>
       <c r="D117" t="n">
-        <v>1587</v>
+        <v>7880</v>
       </c>
       <c r="E117" t="n">
-        <v>2112.609181636727</v>
+        <v>3565.648720929983</v>
       </c>
       <c r="F117" t="n">
-        <v>-24.9</v>
+        <v>121</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>株式会社ストラテジックキャピタル</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>2024-07-19</t>
+          <t>2025-02-10</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>14029000000</v>
+        <v>54309000000</v>
       </c>
       <c r="J117" t="n">
-        <v>27205000000</v>
+        <v>30690000000</v>
       </c>
       <c r="K117" t="n">
-        <v>9801000000</v>
+        <v>4437000000</v>
       </c>
       <c r="L117" t="n">
-        <v>91386000000</v>
+        <v>76497000000</v>
       </c>
       <c r="M117" t="n">
-        <v>51035000000</v>
+        <v>89436000000</v>
       </c>
       <c r="N117" t="n">
-        <v>150736170558</v>
+        <v>437902308920</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>太陽ホールディングス株式会社</t>
+          <t>株式会社ツルハホールディングス</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>4626</t>
+          <t>3391</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>20.3</v>
+        <v>41.2</v>
       </c>
       <c r="D118" t="n">
-        <v>7730</v>
+        <v>2330.5</v>
       </c>
       <c r="E118" t="n">
-        <v>3565.648720929983</v>
+        <v>4544.200649553184</v>
       </c>
       <c r="F118" t="n">
-        <v>116.8</v>
+        <v>-48.7</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6558,26 +6558,26 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>2025-02-10</t>
+          <t>2023-05-08</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>54309000000</v>
+        <v>116398000000</v>
       </c>
       <c r="J118" t="n">
-        <v>30690000000</v>
+        <v>83437000000</v>
       </c>
       <c r="K118" t="n">
-        <v>4437000000</v>
+        <v>34181000000</v>
       </c>
       <c r="L118" t="n">
-        <v>76497000000</v>
+        <v>276528000000</v>
       </c>
       <c r="M118" t="n">
-        <v>89436000000</v>
+        <v>234016000000</v>
       </c>
       <c r="N118" t="n">
-        <v>439911045670</v>
+        <v>567516519982</v>
       </c>
     </row>
     <row r="119">
@@ -6592,16 +6592,16 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>41</v>
+        <v>41.2</v>
       </c>
       <c r="D119" t="n">
-        <v>2316.5</v>
+        <v>2330.5</v>
       </c>
       <c r="E119" t="n">
-        <v>4544.200649553184</v>
+        <v>8262.359904024779</v>
       </c>
       <c r="F119" t="n">
-        <v>-49</v>
+        <v>-71.8</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6610,7 +6610,7 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>2023-05-08</t>
+          <t>2022-12-19</t>
         </is>
       </c>
       <c r="I119" t="n">
@@ -6629,239 +6629,239 @@
         <v>234016000000</v>
       </c>
       <c r="N119" t="n">
-        <v>570880439826</v>
+        <v>567516519982</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>株式会社ツルハホールディングス</t>
+          <t>ホシデン株式会社</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>3391</t>
+          <t>6804</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>41</v>
+        <v>75.3</v>
       </c>
       <c r="D120" t="n">
-        <v>2316.5</v>
+        <v>2377</v>
       </c>
       <c r="E120" t="n">
-        <v>8262.359904024779</v>
+        <v>1303.446424801713</v>
       </c>
       <c r="F120" t="n">
-        <v>-72</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>2022-12-19</t>
+          <t>2023-02-13</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>116398000000</v>
+        <v>69522000000</v>
       </c>
       <c r="J120" t="n">
-        <v>83437000000</v>
+        <v>6944000000</v>
       </c>
       <c r="K120" t="n">
-        <v>34181000000</v>
+        <v>14624000000</v>
       </c>
       <c r="L120" t="n">
-        <v>276528000000</v>
+        <v>109250000000</v>
       </c>
       <c r="M120" t="n">
-        <v>234016000000</v>
+        <v>91090000000</v>
       </c>
       <c r="N120" t="n">
-        <v>570880439826</v>
+        <v>120960262568</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>ホシデン株式会社</t>
+          <t>ジェイドグループ株式会社</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>6804</t>
+          <t>3558</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>76</v>
+        <v>23.3</v>
       </c>
       <c r="D121" t="n">
-        <v>2354</v>
+        <v>1310</v>
       </c>
       <c r="E121" t="n">
-        <v>1303.446424801713</v>
+        <v>1267.324164058639</v>
       </c>
       <c r="F121" t="n">
-        <v>80.59999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>アセット・バリュー・インベスターズ・リミテッド</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>2023-02-13</t>
+          <t>2023-03-22</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>69522000000</v>
+        <v>2776277000</v>
       </c>
       <c r="J121" t="n">
-        <v>6944000000</v>
+        <v>280430000</v>
       </c>
       <c r="K121" t="n">
-        <v>14624000000</v>
+        <v>23536000</v>
       </c>
       <c r="L121" t="n">
-        <v>109250000000</v>
+        <v>4370371000</v>
       </c>
       <c r="M121" t="n">
-        <v>91090000000</v>
+        <v>3080243000</v>
       </c>
       <c r="N121" t="n">
-        <v>119789843536</v>
+        <v>13247381550</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>ジェイドグループ株式会社</t>
+          <t>新光商事株式会社</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>3558</t>
+          <t>8141</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>23.3</v>
+        <v>54.3</v>
       </c>
       <c r="D122" t="n">
-        <v>1306</v>
+        <v>1053</v>
       </c>
       <c r="E122" t="n">
-        <v>1267.324164058639</v>
+        <v>930</v>
       </c>
       <c r="F122" t="n">
-        <v>3.1</v>
+        <v>13.2</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>アセット・バリュー・インベスターズ・リミテッド</t>
+          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>2023-03-22</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="I122" t="n">
-        <v>2776277000</v>
+        <v>17596000000</v>
       </c>
       <c r="J122" t="n">
-        <v>280430000</v>
+        <v>174000000</v>
       </c>
       <c r="K122" t="n">
-        <v>23536000</v>
+        <v>2995000000</v>
       </c>
       <c r="L122" t="n">
-        <v>4370371000</v>
+        <v>50340000000</v>
       </c>
       <c r="M122" t="n">
-        <v>3080243000</v>
+        <v>20765000000</v>
       </c>
       <c r="N122" t="n">
-        <v>13206931530</v>
+        <v>38235080754</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>新光商事株式会社</t>
+          <t>カシオ計算機株式会社</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>8141</t>
+          <t>6952</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>54.3</v>
+        <v>70.7</v>
       </c>
       <c r="D123" t="n">
-        <v>1054</v>
+        <v>1212</v>
       </c>
       <c r="E123" t="n">
-        <v>930</v>
+        <v>1188.162962482466</v>
       </c>
       <c r="F123" t="n">
-        <v>13.3</v>
+        <v>2</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>株式会社シティインデックスイレブンス代表取締役　福島啓修</t>
+          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2025-07-02</t>
         </is>
       </c>
       <c r="I123" t="n">
-        <v>17596000000</v>
+        <v>137053000000</v>
       </c>
       <c r="J123" t="n">
-        <v>174000000</v>
+        <v>12759000000</v>
       </c>
       <c r="K123" t="n">
-        <v>2995000000</v>
+        <v>45698000000</v>
       </c>
       <c r="L123" t="n">
-        <v>50340000000</v>
+        <v>211895000000</v>
       </c>
       <c r="M123" t="n">
-        <v>20765000000</v>
+        <v>195510000000</v>
       </c>
       <c r="N123" t="n">
-        <v>38271391372</v>
+        <v>276392208924</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>カシオ計算機株式会社</t>
+          <t>花王株式会社</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>6952</t>
+          <t>4452</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>72</v>
+        <v>6.9</v>
       </c>
       <c r="D124" t="n">
-        <v>1191</v>
+        <v>6309</v>
       </c>
       <c r="E124" t="n">
-        <v>1188.162962482466</v>
+        <v>6116.356643776557</v>
       </c>
       <c r="F124" t="n">
-        <v>0.2</v>
+        <v>3.1</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6870,78 +6870,26 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>2025-07-02</t>
+          <t>2024-12-05</t>
         </is>
       </c>
       <c r="I124" t="n">
-        <v>137053000000</v>
+        <v>118328000000</v>
       </c>
       <c r="J124" t="n">
-        <v>12759000000</v>
+        <v>63976000000</v>
       </c>
       <c r="K124" t="n">
-        <v>45698000000</v>
+        <v>19009000000</v>
       </c>
       <c r="L124" t="n">
-        <v>211895000000</v>
+        <v>805867000000</v>
       </c>
       <c r="M124" t="n">
-        <v>195510000000</v>
+        <v>201313000000</v>
       </c>
       <c r="N124" t="n">
-        <v>271603235007</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>花王株式会社</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>4452</t>
-        </is>
-      </c>
-      <c r="C125" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="D125" t="n">
-        <v>6340</v>
-      </c>
-      <c r="E125" t="n">
-        <v>6116.356643776557</v>
-      </c>
-      <c r="F125" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>Ｏａｓｉｓ　Ｍａｎａｇｅｍｅｎｔ　Ｃｏｍｐａｎｙ　Ｌｔｄ．</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2024-12-05</t>
-        </is>
-      </c>
-      <c r="I125" t="n">
-        <v>118328000000</v>
-      </c>
-      <c r="J125" t="n">
-        <v>63976000000</v>
-      </c>
-      <c r="K125" t="n">
-        <v>19009000000</v>
-      </c>
-      <c r="L125" t="n">
-        <v>805867000000</v>
-      </c>
-      <c r="M125" t="n">
-        <v>201313000000</v>
-      </c>
-      <c r="N125" t="n">
-        <v>2935548087020</v>
+        <v>2916213353811</v>
       </c>
     </row>
   </sheetData>

--- a/docs/アクティビスト銘柄_資産判定.xlsx
+++ b/docs/アクティビスト銘柄_資産判定.xlsx
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>93.5</v>
+        <v>94.7</v>
       </c>
       <c r="D6" t="n">
         <v>2097</v>
@@ -754,7 +754,7 @@
         <v>74819000000</v>
       </c>
       <c r="N6" t="n">
-        <v>80048581785</v>
+        <v>78987130713</v>
       </c>
     </row>
     <row r="7">
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>49.9</v>
+        <v>50</v>
       </c>
       <c r="D40" t="n">
         <v>1334</v>
@@ -2525,7 +2525,7 @@
         <v>26036000000</v>
       </c>
       <c r="N40" t="n">
-        <v>52174827710</v>
+        <v>52070775710</v>
       </c>
     </row>
     <row r="41">
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>112.4</v>
+        <v>116.2</v>
       </c>
       <c r="D48" t="n">
         <v>1828</v>
@@ -2941,7 +2941,7 @@
         <v>133437000000</v>
       </c>
       <c r="N48" t="n">
-        <v>118693235512</v>
+        <v>114842012424</v>
       </c>
     </row>
     <row r="49">
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>54</v>
+        <v>53.6</v>
       </c>
       <c r="D64" t="n">
         <v>5457</v>
@@ -3773,7 +3773,7 @@
         <v>193706000000</v>
       </c>
       <c r="N64" t="n">
-        <v>358864118034</v>
+        <v>361095698157</v>
       </c>
     </row>
     <row r="65">
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>54</v>
+        <v>53.6</v>
       </c>
       <c r="D65" t="n">
         <v>5457</v>
@@ -3825,7 +3825,7 @@
         <v>193706000000</v>
       </c>
       <c r="N65" t="n">
-        <v>358864118034</v>
+        <v>361095698157</v>
       </c>
     </row>
     <row r="66">
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="D66" t="n">
         <v>5362</v>
@@ -3877,7 +3877,7 @@
         <v>80068000000</v>
       </c>
       <c r="N66" t="n">
-        <v>403034520882</v>
+        <v>398604747478</v>
       </c>
     </row>
     <row r="67">
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>19.9</v>
+        <v>20.1</v>
       </c>
       <c r="D67" t="n">
         <v>5362</v>
@@ -3929,7 +3929,7 @@
         <v>80068000000</v>
       </c>
       <c r="N67" t="n">
-        <v>403034520882</v>
+        <v>398604747478</v>
       </c>
     </row>
     <row r="68">
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>73.40000000000001</v>
+        <v>69.5</v>
       </c>
       <c r="D84" t="n">
         <v>8310</v>
@@ -4813,7 +4813,7 @@
         <v>98829770000</v>
       </c>
       <c r="N84" t="n">
-        <v>134710917000</v>
+        <v>142167829020</v>
       </c>
     </row>
     <row r="85">
@@ -5604,7 +5604,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>62.1</v>
+        <v>63.9</v>
       </c>
       <c r="D100" t="n">
         <v>1255</v>
@@ -5641,7 +5641,7 @@
         <v>137818000000</v>
       </c>
       <c r="N100" t="n">
-        <v>222092937420</v>
+        <v>215518986380</v>
       </c>
     </row>
     <row r="101">

--- a/docs/アクティビスト銘柄_資産判定.xlsx
+++ b/docs/アクティビスト銘柄_資産判定.xlsx
@@ -517,10 +517,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>39.5</v>
+        <v>39.6</v>
       </c>
       <c r="D2" t="n">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>35403000000</v>
       </c>
       <c r="N2" t="n">
-        <v>89629523840</v>
+        <v>89349431578</v>
       </c>
     </row>
     <row r="3">
@@ -565,10 +565,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>39.5</v>
+        <v>39.6</v>
       </c>
       <c r="D3" t="n">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
@@ -598,7 +598,7 @@
         <v>35403000000</v>
       </c>
       <c r="N3" t="n">
-        <v>89629523840</v>
+        <v>89349431578</v>
       </c>
     </row>
     <row r="4">
@@ -613,16 +613,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>42.7</v>
+        <v>42.2</v>
       </c>
       <c r="D4" t="n">
-        <v>3457</v>
+        <v>3494</v>
       </c>
       <c r="E4" t="n">
         <v>1598.889989734285</v>
       </c>
       <c r="F4" t="n">
-        <v>116.2</v>
+        <v>118.5</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -650,7 +650,7 @@
         <v>178465000000</v>
       </c>
       <c r="N4" t="n">
-        <v>418388645070</v>
+        <v>422866625940</v>
       </c>
     </row>
     <row r="5">
@@ -668,13 +668,13 @@
         <v>7.4</v>
       </c>
       <c r="D5" t="n">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E5" t="n">
         <v>653.0713101160862</v>
       </c>
       <c r="F5" t="n">
-        <v>49.6</v>
+        <v>49.4</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
         <v>1810139000</v>
       </c>
       <c r="N5" t="n">
-        <v>24465528891</v>
+        <v>24440487408</v>
       </c>
     </row>
     <row r="6">
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>94.7</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>2097</v>
+        <v>2126</v>
       </c>
       <c r="E6" t="n">
         <v>2122.579027791042</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.2</v>
+        <v>0.2</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>74819000000</v>
       </c>
       <c r="N6" t="n">
-        <v>78987130713</v>
+        <v>80079465854</v>
       </c>
     </row>
     <row r="7">
@@ -769,16 +769,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>46.9</v>
+        <v>45.9</v>
       </c>
       <c r="D7" t="n">
-        <v>2175</v>
+        <v>2209</v>
       </c>
       <c r="E7" t="n">
         <v>2032.365850102071</v>
       </c>
       <c r="F7" t="n">
-        <v>7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>323730000000</v>
       </c>
       <c r="N7" t="n">
-        <v>689653915500</v>
+        <v>705590891661</v>
       </c>
     </row>
     <row r="8">
@@ -873,16 +873,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D9" t="n">
-        <v>6940</v>
+        <v>7110</v>
       </c>
       <c r="E9" t="n">
         <v>4549.503641591014</v>
       </c>
       <c r="F9" t="n">
-        <v>52.5</v>
+        <v>56.3</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
         <v>96906000000</v>
       </c>
       <c r="N9" t="n">
-        <v>119675920860</v>
+        <v>122607463590</v>
       </c>
     </row>
     <row r="10">
@@ -925,16 +925,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>69.90000000000001</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>1847.5</v>
+        <v>1886.5</v>
       </c>
       <c r="E10" t="n">
         <v>1257.709264012363</v>
       </c>
       <c r="F10" t="n">
-        <v>46.9</v>
+        <v>50</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>261172000000</v>
       </c>
       <c r="N10" t="n">
-        <v>373850662970</v>
+        <v>381742503758</v>
       </c>
     </row>
     <row r="11">
@@ -977,16 +977,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>69.90000000000001</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>1847.5</v>
+        <v>1886.5</v>
       </c>
       <c r="E11" t="n">
         <v>1217.254500469243</v>
       </c>
       <c r="F11" t="n">
-        <v>51.8</v>
+        <v>55</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>261172000000</v>
       </c>
       <c r="N11" t="n">
-        <v>373850662970</v>
+        <v>381742503758</v>
       </c>
     </row>
     <row r="12">
@@ -1029,16 +1029,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>101.9</v>
+        <v>100.1</v>
       </c>
       <c r="D12" t="n">
-        <v>1436</v>
+        <v>1461</v>
       </c>
       <c r="E12" t="n">
         <v>1212.640316205534</v>
       </c>
       <c r="F12" t="n">
-        <v>18.4</v>
+        <v>20.5</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>13446000000</v>
       </c>
       <c r="N12" t="n">
-        <v>13197769092</v>
+        <v>13427535267</v>
       </c>
     </row>
     <row r="13">
@@ -1081,16 +1081,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>28.5</v>
+        <v>28.2</v>
       </c>
       <c r="D13" t="n">
-        <v>5100</v>
+        <v>5150</v>
       </c>
       <c r="E13" t="n">
         <v>2617.980935875217</v>
       </c>
       <c r="F13" t="n">
-        <v>94.8</v>
+        <v>96.7</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>53152000000</v>
       </c>
       <c r="N13" t="n">
-        <v>186423462000</v>
+        <v>188251143000</v>
       </c>
     </row>
     <row r="14">
@@ -1133,16 +1133,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>41.3</v>
+        <v>40.7</v>
       </c>
       <c r="D14" t="n">
-        <v>2233</v>
+        <v>2264</v>
       </c>
       <c r="E14" t="n">
         <v>1710</v>
       </c>
       <c r="F14" t="n">
-        <v>30.6</v>
+        <v>32.4</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>15543000000</v>
       </c>
       <c r="N14" t="n">
-        <v>37675582406</v>
+        <v>38198620048</v>
       </c>
     </row>
     <row r="15">
@@ -1185,16 +1185,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>41.3</v>
+        <v>40.7</v>
       </c>
       <c r="D15" t="n">
-        <v>2233</v>
+        <v>2264</v>
       </c>
       <c r="E15" t="n">
         <v>1710</v>
       </c>
       <c r="F15" t="n">
-        <v>30.6</v>
+        <v>32.4</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         <v>15543000000</v>
       </c>
       <c r="N15" t="n">
-        <v>37675582406</v>
+        <v>38198620048</v>
       </c>
     </row>
     <row r="16">
@@ -1237,16 +1237,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>76.2</v>
+        <v>75.7</v>
       </c>
       <c r="D16" t="n">
-        <v>1746</v>
+        <v>1759</v>
       </c>
       <c r="E16" t="n">
         <v>1101.400153022188</v>
       </c>
       <c r="F16" t="n">
-        <v>58.5</v>
+        <v>59.7</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1274,7 +1274,7 @@
         <v>398395000000</v>
       </c>
       <c r="N16" t="n">
-        <v>522629834292</v>
+        <v>526521121718</v>
       </c>
     </row>
     <row r="17">
@@ -1289,16 +1289,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>26.6</v>
+        <v>26.4</v>
       </c>
       <c r="D17" t="n">
-        <v>5153</v>
+        <v>5185</v>
       </c>
       <c r="E17" t="n">
         <v>3322.047887165483</v>
       </c>
       <c r="F17" t="n">
-        <v>55.1</v>
+        <v>56.1</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         <v>476359000000</v>
       </c>
       <c r="N17" t="n">
-        <v>1790182097706</v>
+        <v>1801299083370</v>
       </c>
     </row>
     <row r="18">
@@ -1341,16 +1341,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>78.90000000000001</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>2317</v>
+        <v>2372</v>
       </c>
       <c r="E18" t="n">
         <v>3610</v>
       </c>
       <c r="F18" t="n">
-        <v>-35.8</v>
+        <v>-34.3</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>122147000000</v>
       </c>
       <c r="N18" t="n">
-        <v>154721020748</v>
+        <v>158393725168</v>
       </c>
     </row>
     <row r="19">
@@ -1393,16 +1393,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>20.9</v>
+        <v>20.5</v>
       </c>
       <c r="D19" t="n">
-        <v>2115.5</v>
+        <v>2149</v>
       </c>
       <c r="E19" t="n">
         <v>2269.918722577861</v>
       </c>
       <c r="F19" t="n">
-        <v>-6.8</v>
+        <v>-5.3</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>90811000000</v>
       </c>
       <c r="N19" t="n">
-        <v>435181110664</v>
+        <v>442072421091</v>
       </c>
     </row>
     <row r="20">
@@ -1445,16 +1445,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>59.4</v>
+        <v>58.4</v>
       </c>
       <c r="D20" t="n">
-        <v>2595</v>
+        <v>2640</v>
       </c>
       <c r="E20" t="n">
         <v>3155.301177013616</v>
       </c>
       <c r="F20" t="n">
-        <v>-17.8</v>
+        <v>-16.3</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>98642000000</v>
       </c>
       <c r="N20" t="n">
-        <v>166091200020</v>
+        <v>168971394240</v>
       </c>
     </row>
     <row r="21">
@@ -1497,16 +1497,16 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>46.2</v>
+        <v>46</v>
       </c>
       <c r="D21" t="n">
-        <v>3325</v>
+        <v>3335</v>
       </c>
       <c r="E21" t="n">
         <v>1752.426893379333</v>
       </c>
       <c r="F21" t="n">
-        <v>89.7</v>
+        <v>90.3</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>77563221000</v>
       </c>
       <c r="N21" t="n">
-        <v>167969347525</v>
+        <v>168474518495</v>
       </c>
     </row>
     <row r="22">
@@ -1549,16 +1549,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>46.2</v>
+        <v>46</v>
       </c>
       <c r="D22" t="n">
-        <v>3325</v>
+        <v>3335</v>
       </c>
       <c r="E22" t="n">
         <v>1576.721867844292</v>
       </c>
       <c r="F22" t="n">
-        <v>110.9</v>
+        <v>111.5</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>77563221000</v>
       </c>
       <c r="N22" t="n">
-        <v>167969347525</v>
+        <v>168474518495</v>
       </c>
     </row>
     <row r="23">
@@ -1601,16 +1601,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>54.2</v>
+        <v>53.5</v>
       </c>
       <c r="D23" t="n">
-        <v>4080</v>
+        <v>4140</v>
       </c>
       <c r="E23" t="n">
         <v>2387</v>
       </c>
       <c r="F23" t="n">
-        <v>70.90000000000001</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         <v>105205000000</v>
       </c>
       <c r="N23" t="n">
-        <v>193936802400</v>
+        <v>196788814200</v>
       </c>
     </row>
     <row r="24">
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>79.7</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>1917</v>
+        <v>1924</v>
       </c>
       <c r="E24" t="n">
         <v>1270</v>
       </c>
       <c r="F24" t="n">
-        <v>50.9</v>
+        <v>51.5</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>26544000000</v>
       </c>
       <c r="N24" t="n">
-        <v>33319106703</v>
+        <v>33440772716</v>
       </c>
     </row>
     <row r="25">
@@ -1705,16 +1705,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>79.7</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>1917</v>
+        <v>1924</v>
       </c>
       <c r="E25" t="n">
         <v>1170</v>
       </c>
       <c r="F25" t="n">
-        <v>63.8</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>26544000000</v>
       </c>
       <c r="N25" t="n">
-        <v>33319106703</v>
+        <v>33440772716</v>
       </c>
     </row>
     <row r="26">
@@ -1757,16 +1757,16 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>33.6</v>
+        <v>33.4</v>
       </c>
       <c r="D26" t="n">
-        <v>4235</v>
+        <v>4265</v>
       </c>
       <c r="E26" t="n">
         <v>1492.806001579363</v>
       </c>
       <c r="F26" t="n">
-        <v>183.7</v>
+        <v>185.7</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>106485000000</v>
       </c>
       <c r="N26" t="n">
-        <v>316966707365</v>
+        <v>319212044135</v>
       </c>
     </row>
     <row r="27">
@@ -1809,16 +1809,16 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>25.3</v>
+        <v>24.5</v>
       </c>
       <c r="D27" t="n">
-        <v>2820</v>
+        <v>2859.5</v>
       </c>
       <c r="E27" t="n">
         <v>2919.137515755844</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.4</v>
+        <v>-2</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>89135000000</v>
       </c>
       <c r="N27" t="n">
-        <v>352322294880</v>
+        <v>364142349798</v>
       </c>
     </row>
     <row r="28">
@@ -1861,16 +1861,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>96.59999999999999</v>
+        <v>92.8</v>
       </c>
       <c r="D28" t="n">
-        <v>2742</v>
+        <v>2855</v>
       </c>
       <c r="E28" t="n">
         <v>1600</v>
       </c>
       <c r="F28" t="n">
-        <v>71.40000000000001</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         <v>88496000000</v>
       </c>
       <c r="N28" t="n">
-        <v>91629446904</v>
+        <v>95405569260</v>
       </c>
     </row>
     <row r="29">
@@ -1913,16 +1913,16 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>49.6</v>
+        <v>48.6</v>
       </c>
       <c r="D29" t="n">
-        <v>799.2000122070312</v>
+        <v>799</v>
       </c>
       <c r="E29" t="n">
         <v>590</v>
       </c>
       <c r="F29" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>362887000000</v>
       </c>
       <c r="N29" t="n">
-        <v>731210798039</v>
+        <v>747002010036</v>
       </c>
     </row>
     <row r="30">
@@ -1965,16 +1965,16 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>39.9</v>
+        <v>39.3</v>
       </c>
       <c r="D30" t="n">
-        <v>3010</v>
+        <v>3051</v>
       </c>
       <c r="E30" t="n">
         <v>2560</v>
       </c>
       <c r="F30" t="n">
-        <v>17.6</v>
+        <v>19.2</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>180306000000</v>
       </c>
       <c r="N30" t="n">
-        <v>452123554610</v>
+        <v>458282048211</v>
       </c>
     </row>
     <row r="31">
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>46.9</v>
+        <v>45.9</v>
       </c>
       <c r="D31" t="n">
-        <v>913</v>
+        <v>934</v>
       </c>
       <c r="E31" t="n">
         <v>933.1435874692879</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.2</v>
+        <v>0.1</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>4653173000</v>
       </c>
       <c r="N31" t="n">
-        <v>9911896852</v>
+        <v>10139881336</v>
       </c>
     </row>
     <row r="32">
@@ -2069,16 +2069,16 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>59.8</v>
+        <v>58.7</v>
       </c>
       <c r="D32" t="n">
-        <v>4865</v>
+        <v>4955</v>
       </c>
       <c r="E32" t="n">
         <v>4265.455132343447</v>
       </c>
       <c r="F32" t="n">
-        <v>14.1</v>
+        <v>16.2</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>14129000000</v>
       </c>
       <c r="N32" t="n">
-        <v>23643890270</v>
+        <v>24081290090</v>
       </c>
     </row>
     <row r="33">
@@ -2121,16 +2121,16 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>69.7</v>
+        <v>67.8</v>
       </c>
       <c r="D33" t="n">
-        <v>2669</v>
+        <v>2695</v>
       </c>
       <c r="E33" t="n">
         <v>2939.562915943684</v>
       </c>
       <c r="F33" t="n">
-        <v>-9.199999999999999</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>101054000000</v>
       </c>
       <c r="N33" t="n">
-        <v>145025623816</v>
+        <v>148998788400</v>
       </c>
     </row>
     <row r="34">
@@ -2173,16 +2173,16 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>48.1</v>
+        <v>47.7</v>
       </c>
       <c r="D34" t="n">
-        <v>2192</v>
+        <v>2209.5</v>
       </c>
       <c r="E34" t="n">
         <v>2006.059650428343</v>
       </c>
       <c r="F34" t="n">
-        <v>9.300000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -2210,7 +2210,7 @@
         <v>173440000000</v>
       </c>
       <c r="N34" t="n">
-        <v>360852324912</v>
+        <v>363733217104</v>
       </c>
     </row>
     <row r="35">
@@ -2228,16 +2228,16 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>58.5</v>
+        <v>57.5</v>
       </c>
       <c r="D35" t="n">
-        <v>4720</v>
+        <v>4800</v>
       </c>
       <c r="E35" t="n">
         <v>3573.410502159827</v>
       </c>
       <c r="F35" t="n">
-        <v>32.1</v>
+        <v>34.3</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         <v>75825000000</v>
       </c>
       <c r="N35" t="n">
-        <v>129616698800</v>
+        <v>131813592000</v>
       </c>
     </row>
     <row r="36">
@@ -2280,16 +2280,16 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>246.5</v>
+        <v>244.6</v>
       </c>
       <c r="D36" t="n">
-        <v>1003</v>
+        <v>1011</v>
       </c>
       <c r="E36" t="n">
         <v>798.3805136422309</v>
       </c>
       <c r="F36" t="n">
-        <v>25.6</v>
+        <v>26.6</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>429249000000</v>
       </c>
       <c r="N36" t="n">
-        <v>174136287323</v>
+        <v>175525210851</v>
       </c>
     </row>
     <row r="37">
@@ -2332,16 +2332,16 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>24.3</v>
+        <v>24.1</v>
       </c>
       <c r="D37" t="n">
-        <v>2371</v>
+        <v>2395</v>
       </c>
       <c r="E37" t="n">
         <v>1678.083113259255</v>
       </c>
       <c r="F37" t="n">
-        <v>41.3</v>
+        <v>42.7</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>19554000000</v>
       </c>
       <c r="N37" t="n">
-        <v>80324363382</v>
+        <v>81137431590</v>
       </c>
     </row>
     <row r="38">
@@ -2384,16 +2384,16 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>86.8</v>
+        <v>87</v>
       </c>
       <c r="D38" t="n">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="E38" t="n">
         <v>668.9358717434869</v>
       </c>
       <c r="F38" t="n">
-        <v>62.6</v>
+        <v>62.2</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         <v>15118000000</v>
       </c>
       <c r="N38" t="n">
-        <v>17426518848</v>
+        <v>17378467785</v>
       </c>
     </row>
     <row r="39">
@@ -2436,16 +2436,16 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="D39" t="n">
-        <v>3098</v>
+        <v>3180</v>
       </c>
       <c r="E39" t="n">
         <v>4156.179843576074</v>
       </c>
       <c r="F39" t="n">
-        <v>-25.5</v>
+        <v>-23.5</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>90923000000</v>
       </c>
       <c r="N39" t="n">
-        <v>804201842650</v>
+        <v>825488011500</v>
       </c>
     </row>
     <row r="40">
@@ -2491,7 +2491,7 @@
         <v>50</v>
       </c>
       <c r="D40" t="n">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="E40" t="n">
         <v>2920</v>
@@ -2525,7 +2525,7 @@
         <v>26036000000</v>
       </c>
       <c r="N40" t="n">
-        <v>52070775710</v>
+        <v>52109809275</v>
       </c>
     </row>
     <row r="41">
@@ -2540,16 +2540,16 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>34.9</v>
+        <v>34.4</v>
       </c>
       <c r="D41" t="n">
-        <v>1296</v>
+        <v>1316</v>
       </c>
       <c r="E41" t="n">
         <v>3234.727863989046</v>
       </c>
       <c r="F41" t="n">
-        <v>-59.9</v>
+        <v>-59.3</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>65478000000</v>
       </c>
       <c r="N41" t="n">
-        <v>187383734640</v>
+        <v>190275458940</v>
       </c>
     </row>
     <row r="42">
@@ -2592,16 +2592,16 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>54.1</v>
+        <v>53.4</v>
       </c>
       <c r="D42" t="n">
-        <v>797</v>
+        <v>808</v>
       </c>
       <c r="E42" t="n">
         <v>656.2604975855553</v>
       </c>
       <c r="F42" t="n">
-        <v>21.4</v>
+        <v>23.1</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>31865000000</v>
       </c>
       <c r="N42" t="n">
-        <v>58878716116</v>
+        <v>59691345824</v>
       </c>
     </row>
     <row r="43">
@@ -2644,16 +2644,16 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>85.5</v>
+        <v>82.8</v>
       </c>
       <c r="D43" t="n">
-        <v>9720</v>
+        <v>10030</v>
       </c>
       <c r="E43" t="n">
         <v>7040.15625</v>
       </c>
       <c r="F43" t="n">
-        <v>38.1</v>
+        <v>42.5</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>8781313000</v>
       </c>
       <c r="N43" t="n">
-        <v>10271989080</v>
+        <v>10599593670</v>
       </c>
     </row>
     <row r="44">
@@ -2696,16 +2696,16 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>85.5</v>
+        <v>82.8</v>
       </c>
       <c r="D44" t="n">
-        <v>9720</v>
+        <v>10030</v>
       </c>
       <c r="E44" t="n">
         <v>7040.15625</v>
       </c>
       <c r="F44" t="n">
-        <v>38.1</v>
+        <v>42.5</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>8781313000</v>
       </c>
       <c r="N44" t="n">
-        <v>10271989080</v>
+        <v>10599593670</v>
       </c>
     </row>
     <row r="45">
@@ -2748,16 +2748,16 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="D45" t="n">
-        <v>3286</v>
+        <v>3311</v>
       </c>
       <c r="E45" t="n">
         <v>6272.971195510064</v>
       </c>
       <c r="F45" t="n">
-        <v>-47.6</v>
+        <v>-47.2</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         <v>153254000000</v>
       </c>
       <c r="N45" t="n">
-        <v>1184389853610</v>
+        <v>1193400731985</v>
       </c>
     </row>
     <row r="46">
@@ -2800,16 +2800,16 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>68.5</v>
+        <v>67.8</v>
       </c>
       <c r="D46" t="n">
-        <v>3664</v>
+        <v>3700</v>
       </c>
       <c r="E46" t="n">
         <v>2566.284807227078</v>
       </c>
       <c r="F46" t="n">
-        <v>42.8</v>
+        <v>44.2</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>237487000000</v>
       </c>
       <c r="N46" t="n">
-        <v>346911015456</v>
+        <v>350319529800</v>
       </c>
     </row>
     <row r="47">
@@ -2852,16 +2852,16 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>69.5</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>5810</v>
+        <v>5902</v>
       </c>
       <c r="E47" t="n">
         <v>4137.137750115735</v>
       </c>
       <c r="F47" t="n">
-        <v>40.4</v>
+        <v>42.7</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>284031000000</v>
       </c>
       <c r="N47" t="n">
-        <v>408505335490</v>
+        <v>414973922558</v>
       </c>
     </row>
     <row r="48">
@@ -2904,16 +2904,16 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>116.2</v>
+        <v>116.4</v>
       </c>
       <c r="D48" t="n">
-        <v>1828</v>
+        <v>1825</v>
       </c>
       <c r="E48" t="n">
         <v>1469.167707232735</v>
       </c>
       <c r="F48" t="n">
-        <v>24.4</v>
+        <v>24.2</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>133437000000</v>
       </c>
       <c r="N48" t="n">
-        <v>114842012424</v>
+        <v>114653540850</v>
       </c>
     </row>
     <row r="49">
@@ -2956,16 +2956,16 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>134.6</v>
+        <v>125.8</v>
       </c>
       <c r="D49" t="n">
-        <v>1009</v>
+        <v>1023</v>
       </c>
       <c r="E49" t="n">
         <v>438.851170934559</v>
       </c>
       <c r="F49" t="n">
-        <v>129.9</v>
+        <v>133.1</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>79323000000</v>
       </c>
       <c r="N49" t="n">
-        <v>58942402877</v>
+        <v>63040488588</v>
       </c>
     </row>
     <row r="50">
@@ -3008,16 +3008,16 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>61.2</v>
+        <v>59.5</v>
       </c>
       <c r="D50" t="n">
-        <v>3265</v>
+        <v>3359</v>
       </c>
       <c r="E50" t="n">
         <v>2420</v>
       </c>
       <c r="F50" t="n">
-        <v>34.9</v>
+        <v>38.8</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>414670000000</v>
       </c>
       <c r="N50" t="n">
-        <v>677331109765</v>
+        <v>696831607259</v>
       </c>
     </row>
     <row r="51">
@@ -3060,16 +3060,16 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>112.3</v>
+        <v>112.6</v>
       </c>
       <c r="D51" t="n">
-        <v>3140</v>
+        <v>3134</v>
       </c>
       <c r="E51" t="n">
         <v>4991.027246539169</v>
       </c>
       <c r="F51" t="n">
-        <v>-37.1</v>
+        <v>-37.2</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
         <v>1006135000000</v>
       </c>
       <c r="N51" t="n">
-        <v>895604132440</v>
+        <v>893892786964</v>
       </c>
     </row>
     <row r="52">
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>17.7</v>
+        <v>17</v>
       </c>
       <c r="D52" t="n">
-        <v>3250</v>
+        <v>3380</v>
       </c>
       <c r="E52" t="n">
         <v>7052.737306843267</v>
       </c>
       <c r="F52" t="n">
-        <v>-53.9</v>
+        <v>-52.1</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>20433000000</v>
       </c>
       <c r="N52" t="n">
-        <v>115347336000</v>
+        <v>119961229440</v>
       </c>
     </row>
     <row r="53">
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>10.2</v>
+        <v>9.6</v>
       </c>
       <c r="D53" t="n">
-        <v>5652</v>
+        <v>5715</v>
       </c>
       <c r="E53" t="n">
         <v>2420.370957920882</v>
       </c>
       <c r="F53" t="n">
-        <v>133.5</v>
+        <v>136.1</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>28931000000</v>
       </c>
       <c r="N53" t="n">
-        <v>283956236964</v>
+        <v>300095610120</v>
       </c>
     </row>
     <row r="54">
@@ -3216,16 +3216,16 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>56.9</v>
+        <v>56.6</v>
       </c>
       <c r="D54" t="n">
-        <v>4952</v>
+        <v>4977</v>
       </c>
       <c r="E54" t="n">
         <v>4154.626869982095</v>
       </c>
       <c r="F54" t="n">
-        <v>19.2</v>
+        <v>19.8</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>179492000000</v>
       </c>
       <c r="N54" t="n">
-        <v>315260414000</v>
+        <v>316851995250</v>
       </c>
     </row>
     <row r="55">
@@ -3268,16 +3268,16 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>76.5</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>3700</v>
+        <v>3704</v>
       </c>
       <c r="E55" t="n">
         <v>3530</v>
       </c>
       <c r="F55" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>107738000000</v>
       </c>
       <c r="N55" t="n">
-        <v>140852895000</v>
+        <v>141005168400</v>
       </c>
     </row>
     <row r="56">
@@ -3320,16 +3320,16 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>46.1</v>
+        <v>46.4</v>
       </c>
       <c r="D56" t="n">
-        <v>1501</v>
+        <v>1494</v>
       </c>
       <c r="E56" t="n">
         <v>3767.430178069353</v>
       </c>
       <c r="F56" t="n">
-        <v>-60.2</v>
+        <v>-60.3</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>31965000000</v>
       </c>
       <c r="N56" t="n">
-        <v>69278198696</v>
+        <v>68955115824</v>
       </c>
     </row>
     <row r="57">
@@ -3372,16 +3372,16 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>56.3</v>
+        <v>55.4</v>
       </c>
       <c r="D57" t="n">
-        <v>1992</v>
+        <v>2025</v>
       </c>
       <c r="E57" t="n">
         <v>1556.090471804319</v>
       </c>
       <c r="F57" t="n">
-        <v>28</v>
+        <v>30.1</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         <v>191594000000</v>
       </c>
       <c r="N57" t="n">
-        <v>340199086608</v>
+        <v>345834914850</v>
       </c>
     </row>
     <row r="58">
@@ -3424,16 +3424,16 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>119.5</v>
+        <v>116.9</v>
       </c>
       <c r="D58" t="n">
-        <v>1653</v>
+        <v>1689</v>
       </c>
       <c r="E58" t="n">
         <v>1341.977644710579</v>
       </c>
       <c r="F58" t="n">
-        <v>23.2</v>
+        <v>25.9</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         <v>95903657000</v>
       </c>
       <c r="N58" t="n">
-        <v>80285862870</v>
+        <v>82034375310</v>
       </c>
     </row>
     <row r="59">
@@ -3476,16 +3476,16 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="D59" t="n">
-        <v>2005</v>
+        <v>2101.5</v>
       </c>
       <c r="E59" t="n">
         <v>1141.512891683109</v>
       </c>
       <c r="F59" t="n">
-        <v>75.59999999999999</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>35951000000</v>
       </c>
       <c r="N59" t="n">
-        <v>357721395305</v>
+        <v>374938410092</v>
       </c>
     </row>
     <row r="60">
@@ -3528,16 +3528,16 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="D60" t="n">
-        <v>2005</v>
+        <v>2101.5</v>
       </c>
       <c r="E60" t="n">
         <v>1842.11261309207</v>
       </c>
       <c r="F60" t="n">
-        <v>8.800000000000001</v>
+        <v>14.1</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>35951000000</v>
       </c>
       <c r="N60" t="n">
-        <v>357721395305</v>
+        <v>374938410092</v>
       </c>
     </row>
     <row r="61">
@@ -3580,16 +3580,16 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="D61" t="n">
-        <v>1641.5</v>
+        <v>1619.5</v>
       </c>
       <c r="E61" t="n">
         <v>1344.518957928979</v>
       </c>
       <c r="F61" t="n">
-        <v>22.1</v>
+        <v>20.5</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         <v>55269000000</v>
       </c>
       <c r="N61" t="n">
-        <v>537774718814</v>
+        <v>530567259896</v>
       </c>
     </row>
     <row r="62">
@@ -3632,16 +3632,16 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>49.1</v>
+        <v>48.8</v>
       </c>
       <c r="D62" t="n">
-        <v>3445</v>
+        <v>3469</v>
       </c>
       <c r="E62" t="n">
         <v>2844.704547285864</v>
       </c>
       <c r="F62" t="n">
-        <v>21.1</v>
+        <v>21.9</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         <v>235224000000</v>
       </c>
       <c r="N62" t="n">
-        <v>478817308255</v>
+        <v>482153045671</v>
       </c>
     </row>
     <row r="63">
@@ -3684,16 +3684,16 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>93.09999999999999</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>2571</v>
+        <v>2662</v>
       </c>
       <c r="E63" t="n">
         <v>1748.071046781136</v>
       </c>
       <c r="F63" t="n">
-        <v>47.1</v>
+        <v>52.3</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
         <v>71858000000</v>
       </c>
       <c r="N63" t="n">
-        <v>77196442353</v>
+        <v>79928794066</v>
       </c>
     </row>
     <row r="64">
@@ -3736,16 +3736,16 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>53.6</v>
+        <v>53.7</v>
       </c>
       <c r="D64" t="n">
-        <v>5457</v>
+        <v>5447</v>
       </c>
       <c r="E64" t="n">
         <v>3405.914389596362</v>
       </c>
       <c r="F64" t="n">
-        <v>60.2</v>
+        <v>59.9</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>193706000000</v>
       </c>
       <c r="N64" t="n">
-        <v>361095698157</v>
+        <v>360433987147</v>
       </c>
     </row>
     <row r="65">
@@ -3788,16 +3788,16 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>53.6</v>
+        <v>53.7</v>
       </c>
       <c r="D65" t="n">
-        <v>5457</v>
+        <v>5447</v>
       </c>
       <c r="E65" t="n">
         <v>2714.613787300615</v>
       </c>
       <c r="F65" t="n">
-        <v>101</v>
+        <v>100.7</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3825,7 +3825,7 @@
         <v>193706000000</v>
       </c>
       <c r="N65" t="n">
-        <v>361095698157</v>
+        <v>360433987147</v>
       </c>
     </row>
     <row r="66">
@@ -3840,16 +3840,16 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="D66" t="n">
-        <v>5362</v>
+        <v>5385</v>
       </c>
       <c r="E66" t="n">
         <v>2148.936934940886</v>
       </c>
       <c r="F66" t="n">
-        <v>149.5</v>
+        <v>150.6</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>80068000000</v>
       </c>
       <c r="N66" t="n">
-        <v>398604747478</v>
+        <v>400314540315</v>
       </c>
     </row>
     <row r="67">
@@ -3892,16 +3892,16 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="D67" t="n">
-        <v>5362</v>
+        <v>5385</v>
       </c>
       <c r="E67" t="n">
         <v>5066.092575838703</v>
       </c>
       <c r="F67" t="n">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>80068000000</v>
       </c>
       <c r="N67" t="n">
-        <v>398604747478</v>
+        <v>400314540315</v>
       </c>
     </row>
     <row r="68">
@@ -3944,16 +3944,16 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>47.7</v>
+        <v>46.5</v>
       </c>
       <c r="D68" t="n">
-        <v>1375</v>
+        <v>1391.5</v>
       </c>
       <c r="E68" t="n">
         <v>1111.90611839092</v>
       </c>
       <c r="F68" t="n">
-        <v>23.7</v>
+        <v>25.1</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>101020000000</v>
       </c>
       <c r="N68" t="n">
-        <v>211844092625</v>
+        <v>217199894571</v>
       </c>
     </row>
     <row r="69">
@@ -3996,16 +3996,16 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>43.1</v>
+        <v>41.1</v>
       </c>
       <c r="D69" t="n">
-        <v>5240</v>
+        <v>5310</v>
       </c>
       <c r="E69" t="n">
         <v>3361.304411567078</v>
       </c>
       <c r="F69" t="n">
-        <v>55.9</v>
+        <v>58</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>48658000000</v>
       </c>
       <c r="N69" t="n">
-        <v>112973519680</v>
+        <v>118453207320</v>
       </c>
     </row>
     <row r="70">
@@ -4048,16 +4048,16 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>34.9</v>
+        <v>34.1</v>
       </c>
       <c r="D70" t="n">
-        <v>5270</v>
+        <v>5390</v>
       </c>
       <c r="E70" t="n">
         <v>3891.73752540545</v>
       </c>
       <c r="F70" t="n">
-        <v>35.4</v>
+        <v>38.5</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>50698683000</v>
       </c>
       <c r="N70" t="n">
-        <v>145246791470</v>
+        <v>148554118790</v>
       </c>
     </row>
     <row r="71">
@@ -4100,16 +4100,16 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>39.6</v>
+        <v>37.9</v>
       </c>
       <c r="D71" t="n">
-        <v>3567</v>
+        <v>3728</v>
       </c>
       <c r="E71" t="n">
         <v>6646.195827570309</v>
       </c>
       <c r="F71" t="n">
-        <v>-46.3</v>
+        <v>-43.9</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>139195000000</v>
       </c>
       <c r="N71" t="n">
-        <v>351571606389</v>
+        <v>367440131376</v>
       </c>
     </row>
     <row r="72">
@@ -4152,16 +4152,16 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>33.5</v>
+        <v>32.4</v>
       </c>
       <c r="D72" t="n">
-        <v>2853</v>
+        <v>2951</v>
       </c>
       <c r="E72" t="n">
         <v>2480</v>
       </c>
       <c r="F72" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>20277000000</v>
       </c>
       <c r="N72" t="n">
-        <v>60562588158</v>
+        <v>62642901386</v>
       </c>
     </row>
     <row r="73">
@@ -4204,16 +4204,16 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>33.5</v>
+        <v>32.4</v>
       </c>
       <c r="D73" t="n">
-        <v>2853</v>
+        <v>2951</v>
       </c>
       <c r="E73" t="n">
         <v>2504.338645418327</v>
       </c>
       <c r="F73" t="n">
-        <v>13.9</v>
+        <v>17.8</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>20277000000</v>
       </c>
       <c r="N73" t="n">
-        <v>60562588158</v>
+        <v>62642901386</v>
       </c>
     </row>
     <row r="74">
@@ -4256,16 +4256,16 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>33.5</v>
+        <v>32.4</v>
       </c>
       <c r="D74" t="n">
-        <v>2853</v>
+        <v>2951</v>
       </c>
       <c r="E74" t="n">
         <v>2880</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.9</v>
+        <v>2.5</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         <v>20277000000</v>
       </c>
       <c r="N74" t="n">
-        <v>60562588158</v>
+        <v>62642901386</v>
       </c>
     </row>
     <row r="75">
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>13.3</v>
+        <v>13.9</v>
       </c>
       <c r="D75" t="n">
-        <v>608</v>
+        <v>580</v>
       </c>
       <c r="E75" t="n">
         <v>421.6950726175476</v>
       </c>
       <c r="F75" t="n">
-        <v>44.2</v>
+        <v>37.5</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>2256815000</v>
       </c>
       <c r="N75" t="n">
-        <v>17031635264</v>
+        <v>16247283640</v>
       </c>
     </row>
     <row r="76">
@@ -4360,16 +4360,16 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>53.2</v>
+        <v>53.7</v>
       </c>
       <c r="D76" t="n">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E76" t="n">
         <v>290.3401328717133</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2</v>
+        <v>-0.8</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>5368822000</v>
       </c>
       <c r="N76" t="n">
-        <v>10099525443</v>
+        <v>9995406624</v>
       </c>
     </row>
     <row r="77">
@@ -4412,16 +4412,16 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>39</v>
+        <v>38.8</v>
       </c>
       <c r="D77" t="n">
-        <v>3010</v>
+        <v>3025</v>
       </c>
       <c r="E77" t="n">
         <v>1359.655069733296</v>
       </c>
       <c r="F77" t="n">
-        <v>121.4</v>
+        <v>122.5</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>68841000000</v>
       </c>
       <c r="N77" t="n">
-        <v>176478422050</v>
+        <v>177357882625</v>
       </c>
     </row>
     <row r="78">
@@ -4467,13 +4467,13 @@
         <v>12.4</v>
       </c>
       <c r="D78" t="n">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E78" t="n">
         <v>448.6811097117532</v>
       </c>
       <c r="F78" t="n">
-        <v>-6.6</v>
+        <v>-6.2</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>10804525000</v>
       </c>
       <c r="N78" t="n">
-        <v>86911120671</v>
+        <v>87325970889</v>
       </c>
     </row>
     <row r="79">
@@ -4519,13 +4519,13 @@
         <v>10.8</v>
       </c>
       <c r="D79" t="n">
-        <v>3281</v>
+        <v>3280</v>
       </c>
       <c r="E79" t="n">
         <v>2085.872134468915</v>
       </c>
       <c r="F79" t="n">
-        <v>57.3</v>
+        <v>57.2</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>37319000000</v>
       </c>
       <c r="N79" t="n">
-        <v>346044733928</v>
+        <v>345939264640</v>
       </c>
     </row>
     <row r="80">
@@ -4568,16 +4568,16 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>13.6</v>
+        <v>12.7</v>
       </c>
       <c r="D80" t="n">
-        <v>960</v>
+        <v>1021</v>
       </c>
       <c r="E80" t="n">
         <v>913.2768512341561</v>
       </c>
       <c r="F80" t="n">
-        <v>5.1</v>
+        <v>11.8</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4605,7 +4605,7 @@
         <v>2201899000</v>
       </c>
       <c r="N80" t="n">
-        <v>16242853440</v>
+        <v>17274951419</v>
       </c>
     </row>
     <row r="81">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>263.1</v>
+        <v>265.7</v>
       </c>
       <c r="D81" t="n">
-        <v>2350.5</v>
+        <v>2327</v>
       </c>
       <c r="E81" t="n">
         <v>2190</v>
       </c>
       <c r="F81" t="n">
-        <v>7.3</v>
+        <v>6.3</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>870891000000</v>
       </c>
       <c r="N81" t="n">
-        <v>331056452210</v>
+        <v>327746591913</v>
       </c>
     </row>
     <row r="82">
@@ -4672,16 +4672,16 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>56.7</v>
+        <v>55.1</v>
       </c>
       <c r="D82" t="n">
-        <v>1621</v>
+        <v>1641</v>
       </c>
       <c r="E82" t="n">
         <v>1721.078563209627</v>
       </c>
       <c r="F82" t="n">
-        <v>-5.8</v>
+        <v>-4.7</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>178715000000</v>
       </c>
       <c r="N82" t="n">
-        <v>315216019234</v>
+        <v>324125027775</v>
       </c>
     </row>
     <row r="83">
@@ -4724,16 +4724,16 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>64.5</v>
+        <v>62.7</v>
       </c>
       <c r="D83" t="n">
-        <v>7148</v>
+        <v>7357</v>
       </c>
       <c r="E83" t="n">
         <v>5478.947585152067</v>
       </c>
       <c r="F83" t="n">
-        <v>30.5</v>
+        <v>34.3</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>92189000000</v>
       </c>
       <c r="N83" t="n">
-        <v>142893709448</v>
+        <v>147071771182</v>
       </c>
     </row>
     <row r="84">
@@ -4776,16 +4776,16 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>69.5</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>8310</v>
+        <v>8200</v>
       </c>
       <c r="E84" t="n">
         <v>4870</v>
       </c>
       <c r="F84" t="n">
-        <v>70.59999999999999</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4813,7 +4813,7 @@
         <v>98829770000</v>
       </c>
       <c r="N84" t="n">
-        <v>142167829020</v>
+        <v>140285944400</v>
       </c>
     </row>
     <row r="85">
@@ -4828,16 +4828,16 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>26.4</v>
+        <v>25.8</v>
       </c>
       <c r="D85" t="n">
-        <v>3032</v>
+        <v>3097</v>
       </c>
       <c r="E85" t="n">
         <v>13739.64575539568</v>
       </c>
       <c r="F85" t="n">
-        <v>-77.90000000000001</v>
+        <v>-77.5</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4865,7 +4865,7 @@
         <v>265431000000</v>
       </c>
       <c r="N85" t="n">
-        <v>1005452799040</v>
+        <v>1027007690840</v>
       </c>
     </row>
     <row r="86">
@@ -4880,16 +4880,16 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>26.4</v>
+        <v>25.8</v>
       </c>
       <c r="D86" t="n">
-        <v>3032</v>
+        <v>3097</v>
       </c>
       <c r="E86" t="n">
         <v>12975.86280814577</v>
       </c>
       <c r="F86" t="n">
-        <v>-76.59999999999999</v>
+        <v>-76.09999999999999</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>265431000000</v>
       </c>
       <c r="N86" t="n">
-        <v>1005452799040</v>
+        <v>1027007690840</v>
       </c>
     </row>
     <row r="87">
@@ -4932,16 +4932,16 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>80.5</v>
+        <v>80.7</v>
       </c>
       <c r="D87" t="n">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="E87" t="n">
         <v>193.0499177180472</v>
       </c>
       <c r="F87" t="n">
-        <v>422.7</v>
+        <v>421.1</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>22097000000</v>
       </c>
       <c r="N87" t="n">
-        <v>27451863000</v>
+        <v>27370242000</v>
       </c>
     </row>
     <row r="88">
@@ -4984,16 +4984,16 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>23.7</v>
+        <v>23.5</v>
       </c>
       <c r="D88" t="n">
-        <v>3780</v>
+        <v>3815</v>
       </c>
       <c r="E88" t="n">
         <v>7960</v>
       </c>
       <c r="F88" t="n">
-        <v>-52.5</v>
+        <v>-52.1</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -5021,7 +5021,7 @@
         <v>34259000000</v>
       </c>
       <c r="N88" t="n">
-        <v>144469052280</v>
+        <v>145806728690</v>
       </c>
     </row>
     <row r="89">
@@ -5036,16 +5036,16 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>34.2</v>
+        <v>33.1</v>
       </c>
       <c r="D89" t="n">
-        <v>1102</v>
+        <v>1137</v>
       </c>
       <c r="E89" t="n">
         <v>2968.770104870396</v>
       </c>
       <c r="F89" t="n">
-        <v>-62.9</v>
+        <v>-61.7</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>364930000000</v>
       </c>
       <c r="N89" t="n">
-        <v>1068471804280</v>
+        <v>1102406934180</v>
       </c>
     </row>
     <row r="90">
@@ -5091,13 +5091,13 @@
         <v>1.8</v>
       </c>
       <c r="D90" t="n">
-        <v>2048</v>
+        <v>2064</v>
       </c>
       <c r="E90" t="n">
         <v>887.288318673809</v>
       </c>
       <c r="F90" t="n">
-        <v>130.8</v>
+        <v>132.6</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>3124000000</v>
       </c>
       <c r="N90" t="n">
-        <v>170242584576</v>
+        <v>171572604768</v>
       </c>
     </row>
     <row r="91">
@@ -5140,16 +5140,16 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>25.1</v>
+        <v>24.6</v>
       </c>
       <c r="D91" t="n">
-        <v>11380</v>
+        <v>11650</v>
       </c>
       <c r="E91" t="n">
         <v>3496.825336379792</v>
       </c>
       <c r="F91" t="n">
-        <v>225.4</v>
+        <v>233.2</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>29490000000</v>
       </c>
       <c r="N91" t="n">
-        <v>117308488140</v>
+        <v>120091729950</v>
       </c>
     </row>
     <row r="92">
@@ -5192,16 +5192,16 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>79.90000000000001</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>4215</v>
+        <v>4255</v>
       </c>
       <c r="E92" t="n">
         <v>3449.780346820809</v>
       </c>
       <c r="F92" t="n">
-        <v>22.2</v>
+        <v>23.3</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>79561000000</v>
       </c>
       <c r="N92" t="n">
-        <v>99604888395</v>
+        <v>100550130515</v>
       </c>
     </row>
     <row r="93">
@@ -5244,16 +5244,16 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="D93" t="n">
-        <v>7234</v>
+        <v>7341</v>
       </c>
       <c r="E93" t="n">
         <v>2697.360927565142</v>
       </c>
       <c r="F93" t="n">
-        <v>168.2</v>
+        <v>172.2</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>8148000000</v>
       </c>
       <c r="N93" t="n">
-        <v>564029330246</v>
+        <v>605554208235</v>
       </c>
     </row>
     <row r="94">
@@ -5296,10 +5296,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>739.7</v>
+        <v>741.7</v>
       </c>
       <c r="D94" t="n">
-        <v>3750</v>
+        <v>3740</v>
       </c>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
@@ -5329,7 +5329,7 @@
         <v>609113000000</v>
       </c>
       <c r="N94" t="n">
-        <v>82340572500</v>
+        <v>82120997640</v>
       </c>
     </row>
     <row r="95">
@@ -5344,16 +5344,16 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="D95" t="n">
-        <v>6785</v>
+        <v>6771</v>
       </c>
       <c r="E95" t="n">
         <v>2836.942753814942</v>
       </c>
       <c r="F95" t="n">
-        <v>139.2</v>
+        <v>138.7</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>85476000000</v>
       </c>
       <c r="N95" t="n">
-        <v>237971831625</v>
+        <v>237480806475</v>
       </c>
     </row>
     <row r="96">
@@ -5396,16 +5396,16 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>102.9</v>
+        <v>100.7</v>
       </c>
       <c r="D96" t="n">
-        <v>1754</v>
+        <v>1793</v>
       </c>
       <c r="E96" t="n">
         <v>2298.672482457804</v>
       </c>
       <c r="F96" t="n">
-        <v>-23.7</v>
+        <v>-22</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>44925000000</v>
       </c>
       <c r="N96" t="n">
-        <v>43642540388</v>
+        <v>44612927546</v>
       </c>
     </row>
     <row r="97">
@@ -5448,16 +5448,16 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>25.8</v>
+        <v>24.6</v>
       </c>
       <c r="D97" t="n">
-        <v>2706</v>
+        <v>2737</v>
       </c>
       <c r="E97" t="n">
         <v>2007.754513143541</v>
       </c>
       <c r="F97" t="n">
-        <v>34.8</v>
+        <v>36.3</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>37208000000</v>
       </c>
       <c r="N97" t="n">
-        <v>144158721498</v>
+        <v>151150647095</v>
       </c>
     </row>
     <row r="98">
@@ -5500,16 +5500,16 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="D98" t="n">
-        <v>4215</v>
+        <v>4283</v>
       </c>
       <c r="E98" t="n">
         <v>1306.206628354146</v>
       </c>
       <c r="F98" t="n">
-        <v>222.7</v>
+        <v>227.9</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>120984000000</v>
       </c>
       <c r="N98" t="n">
-        <v>895270071690</v>
+        <v>909713337378</v>
       </c>
     </row>
     <row r="99">
@@ -5552,16 +5552,16 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>53.9</v>
+        <v>53.1</v>
       </c>
       <c r="D99" t="n">
-        <v>861</v>
+        <v>874</v>
       </c>
       <c r="E99" t="n">
         <v>896.0103264198827</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.9</v>
+        <v>-2.5</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>8417495000</v>
       </c>
       <c r="N99" t="n">
-        <v>15625234275</v>
+        <v>15861155350</v>
       </c>
     </row>
     <row r="100">
@@ -5604,16 +5604,16 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>63.9</v>
+        <v>61.5</v>
       </c>
       <c r="D100" t="n">
-        <v>1255</v>
+        <v>1304</v>
       </c>
       <c r="E100" t="n">
         <v>2776.401128792723</v>
       </c>
       <c r="F100" t="n">
-        <v>-54.8</v>
+        <v>-53</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>137818000000</v>
       </c>
       <c r="N100" t="n">
-        <v>215518986380</v>
+        <v>223933671904</v>
       </c>
     </row>
     <row r="101">
@@ -5656,16 +5656,16 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>46.7</v>
+        <v>46</v>
       </c>
       <c r="D101" t="n">
-        <v>1605</v>
+        <v>1628</v>
       </c>
       <c r="E101" t="n">
         <v>1746.940387696806</v>
       </c>
       <c r="F101" t="n">
-        <v>-8.1</v>
+        <v>-6.8</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>29854000000</v>
       </c>
       <c r="N101" t="n">
-        <v>63960655980</v>
+        <v>64877226128</v>
       </c>
     </row>
     <row r="102">
@@ -5708,16 +5708,16 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>115.9</v>
+        <v>113.6</v>
       </c>
       <c r="D102" t="n">
-        <v>1469</v>
+        <v>1498.5</v>
       </c>
       <c r="E102" t="n">
         <v>1160.8</v>
       </c>
       <c r="F102" t="n">
-        <v>26.6</v>
+        <v>29.1</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5745,7 +5745,7 @@
         <v>458473000000</v>
       </c>
       <c r="N102" t="n">
-        <v>395663236410</v>
+        <v>403608822165</v>
       </c>
     </row>
     <row r="103">
@@ -5760,16 +5760,16 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>15.9</v>
+        <v>15.2</v>
       </c>
       <c r="D103" t="n">
-        <v>1737.5</v>
+        <v>1824</v>
       </c>
       <c r="E103" t="n">
         <v>1512.21980974841</v>
       </c>
       <c r="F103" t="n">
-        <v>14.9</v>
+        <v>20.6</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>91015000000</v>
       </c>
       <c r="N103" t="n">
-        <v>571670637600</v>
+        <v>600130787328</v>
       </c>
     </row>
     <row r="104">
@@ -5812,16 +5812,16 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>29.4</v>
+        <v>28.8</v>
       </c>
       <c r="D104" t="n">
-        <v>2010</v>
+        <v>2046</v>
       </c>
       <c r="E104" t="n">
         <v>1347.74653160027</v>
       </c>
       <c r="F104" t="n">
-        <v>49.1</v>
+        <v>51.8</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>14143000000</v>
       </c>
       <c r="N104" t="n">
-        <v>48168864090</v>
+        <v>49031590014</v>
       </c>
     </row>
     <row r="105">
@@ -5864,16 +5864,16 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>57.5</v>
+        <v>56.6</v>
       </c>
       <c r="D105" t="n">
-        <v>1265</v>
+        <v>1286</v>
       </c>
       <c r="E105" t="n">
         <v>1605.189780306002</v>
       </c>
       <c r="F105" t="n">
-        <v>-21.2</v>
+        <v>-19.9</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5901,7 +5901,7 @@
         <v>48290000000</v>
       </c>
       <c r="N105" t="n">
-        <v>83943376000</v>
+        <v>85336902400</v>
       </c>
     </row>
     <row r="106">
@@ -5916,16 +5916,16 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>41.4</v>
+        <v>41.2</v>
       </c>
       <c r="D106" t="n">
-        <v>4050</v>
+        <v>4065</v>
       </c>
       <c r="E106" t="n">
         <v>3096.322467304314</v>
       </c>
       <c r="F106" t="n">
-        <v>30.8</v>
+        <v>31.3</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
         <v>46440000000</v>
       </c>
       <c r="N106" t="n">
-        <v>112173238800</v>
+        <v>112588695240</v>
       </c>
     </row>
     <row r="107">
@@ -5968,16 +5968,16 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>37.4</v>
+        <v>37.1</v>
       </c>
       <c r="D107" t="n">
-        <v>860.7000122070312</v>
+        <v>865.7000122070312</v>
       </c>
       <c r="E107" t="n">
         <v>2157.626835069302</v>
       </c>
       <c r="F107" t="n">
-        <v>-60.1</v>
+        <v>-59.9</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>142023000000</v>
       </c>
       <c r="N107" t="n">
-        <v>380186469374</v>
+        <v>382395058104</v>
       </c>
     </row>
     <row r="108">
@@ -6020,16 +6020,16 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>87.3</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="D108" t="n">
-        <v>2080</v>
+        <v>2119</v>
       </c>
       <c r="E108" t="n">
         <v>1190</v>
       </c>
       <c r="F108" t="n">
-        <v>74.8</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>39477000000</v>
       </c>
       <c r="N108" t="n">
-        <v>45243490240</v>
+        <v>46091805682</v>
       </c>
     </row>
     <row r="109">
@@ -6072,16 +6072,16 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>20.1</v>
+        <v>18.9</v>
       </c>
       <c r="D109" t="n">
-        <v>2502</v>
+        <v>2661</v>
       </c>
       <c r="E109" t="n">
         <v>1361.432492253209</v>
       </c>
       <c r="F109" t="n">
-        <v>83.8</v>
+        <v>95.5</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>11124687000</v>
       </c>
       <c r="N109" t="n">
-        <v>55332122814</v>
+        <v>58848432777</v>
       </c>
     </row>
     <row r="110">
@@ -6124,16 +6124,16 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>40.5</v>
+        <v>38.5</v>
       </c>
       <c r="D110" t="n">
-        <v>5477</v>
+        <v>5771</v>
       </c>
       <c r="E110" t="n">
         <v>1716.713876475349</v>
       </c>
       <c r="F110" t="n">
-        <v>219</v>
+        <v>236.2</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>564005000000</v>
       </c>
       <c r="N110" t="n">
-        <v>1391826610252</v>
+        <v>1466538500596</v>
       </c>
     </row>
     <row r="111">
@@ -6176,16 +6176,16 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="D111" t="n">
-        <v>3571</v>
+        <v>3644</v>
       </c>
       <c r="E111" t="n">
         <v>2561.705402476645</v>
       </c>
       <c r="F111" t="n">
-        <v>39.4</v>
+        <v>42.2</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -6213,7 +6213,7 @@
         <v>81977000000</v>
       </c>
       <c r="N111" t="n">
-        <v>653400893197</v>
+        <v>666758010308</v>
       </c>
     </row>
     <row r="112">
@@ -6228,16 +6228,16 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>80.09999999999999</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>2585</v>
+        <v>2593</v>
       </c>
       <c r="E112" t="n">
         <v>1410</v>
       </c>
       <c r="F112" t="n">
-        <v>83.3</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
         <v>82575000000</v>
       </c>
       <c r="N112" t="n">
-        <v>103088357570</v>
+        <v>103407393106</v>
       </c>
     </row>
     <row r="113">
@@ -6280,16 +6280,16 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>73.5</v>
+        <v>71.8</v>
       </c>
       <c r="D113" t="n">
-        <v>3320</v>
+        <v>3400</v>
       </c>
       <c r="E113" t="n">
         <v>1789.870000553189</v>
       </c>
       <c r="F113" t="n">
-        <v>85.5</v>
+        <v>90</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
         <v>81126000000</v>
       </c>
       <c r="N113" t="n">
-        <v>110340405840</v>
+        <v>112999210800</v>
       </c>
     </row>
     <row r="114">
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="D114" t="n">
-        <v>1742</v>
+        <v>1739</v>
       </c>
       <c r="E114" t="n">
         <v>1529.631984751819</v>
       </c>
       <c r="F114" t="n">
-        <v>13.9</v>
+        <v>13.7</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -6369,7 +6369,7 @@
         <v>4358822000</v>
       </c>
       <c r="N114" t="n">
-        <v>12700324494</v>
+        <v>12678452523</v>
       </c>
     </row>
     <row r="115">
@@ -6384,16 +6384,16 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="D115" t="n">
-        <v>1742</v>
+        <v>1739</v>
       </c>
       <c r="E115" t="n">
         <v>1449.995380693296</v>
       </c>
       <c r="F115" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>4358822000</v>
       </c>
       <c r="N115" t="n">
-        <v>12700324494</v>
+        <v>12678452523</v>
       </c>
     </row>
     <row r="116">
@@ -6436,16 +6436,16 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>36.6</v>
+        <v>36.2</v>
       </c>
       <c r="D116" t="n">
-        <v>1601</v>
+        <v>1616</v>
       </c>
       <c r="E116" t="n">
         <v>2112.609181636727</v>
       </c>
       <c r="F116" t="n">
-        <v>-24.2</v>
+        <v>-23.5</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -6473,7 +6473,7 @@
         <v>51035000000</v>
       </c>
       <c r="N116" t="n">
-        <v>139611490680</v>
+        <v>140919530880</v>
       </c>
     </row>
     <row r="117">
@@ -6491,13 +6491,13 @@
         <v>20.4</v>
       </c>
       <c r="D117" t="n">
-        <v>7880</v>
+        <v>7870</v>
       </c>
       <c r="E117" t="n">
         <v>3565.648720929983</v>
       </c>
       <c r="F117" t="n">
-        <v>121</v>
+        <v>120.7</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>89436000000</v>
       </c>
       <c r="N117" t="n">
-        <v>437902308920</v>
+        <v>437346595330</v>
       </c>
     </row>
     <row r="118">
@@ -6543,13 +6543,13 @@
         <v>41.2</v>
       </c>
       <c r="D118" t="n">
-        <v>2330.5</v>
+        <v>2334.5</v>
       </c>
       <c r="E118" t="n">
         <v>4544.200649553184</v>
       </c>
       <c r="F118" t="n">
-        <v>-48.7</v>
+        <v>-48.6</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>234016000000</v>
       </c>
       <c r="N118" t="n">
-        <v>567516519982</v>
+        <v>568490588242</v>
       </c>
     </row>
     <row r="119">
@@ -6595,13 +6595,13 @@
         <v>41.2</v>
       </c>
       <c r="D119" t="n">
-        <v>2330.5</v>
+        <v>2334.5</v>
       </c>
       <c r="E119" t="n">
         <v>8262.359904024779</v>
       </c>
       <c r="F119" t="n">
-        <v>-71.8</v>
+        <v>-71.7</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>234016000000</v>
       </c>
       <c r="N119" t="n">
-        <v>567516519982</v>
+        <v>568490588242</v>
       </c>
     </row>
     <row r="120">
@@ -6644,16 +6644,16 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>75.3</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="D120" t="n">
-        <v>2377</v>
+        <v>2405</v>
       </c>
       <c r="E120" t="n">
         <v>1303.446424801713</v>
       </c>
       <c r="F120" t="n">
-        <v>82.40000000000001</v>
+        <v>84.5</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>91090000000</v>
       </c>
       <c r="N120" t="n">
-        <v>120960262568</v>
+        <v>122385120520</v>
       </c>
     </row>
     <row r="121">
@@ -6696,16 +6696,16 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>23.3</v>
+        <v>22.9</v>
       </c>
       <c r="D121" t="n">
-        <v>1310</v>
+        <v>1328</v>
       </c>
       <c r="E121" t="n">
         <v>1267.324164058639</v>
       </c>
       <c r="F121" t="n">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6733,7 +6733,7 @@
         <v>3080243000</v>
       </c>
       <c r="N121" t="n">
-        <v>13247381550</v>
+        <v>13429406640</v>
       </c>
     </row>
     <row r="122">
@@ -6748,16 +6748,16 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>54.3</v>
+        <v>55.8</v>
       </c>
       <c r="D122" t="n">
-        <v>1053</v>
+        <v>1024</v>
       </c>
       <c r="E122" t="n">
         <v>930</v>
       </c>
       <c r="F122" t="n">
-        <v>13.2</v>
+        <v>10.1</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         <v>20765000000</v>
       </c>
       <c r="N122" t="n">
-        <v>38235080754</v>
+        <v>37182072832</v>
       </c>
     </row>
     <row r="123">
@@ -6800,16 +6800,16 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>70.7</v>
+        <v>69.5</v>
       </c>
       <c r="D123" t="n">
-        <v>1212</v>
+        <v>1234</v>
       </c>
       <c r="E123" t="n">
         <v>1188.162962482466</v>
       </c>
       <c r="F123" t="n">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>195510000000</v>
       </c>
       <c r="N123" t="n">
-        <v>276392208924</v>
+        <v>281409229218</v>
       </c>
     </row>
     <row r="124">
@@ -6855,13 +6855,13 @@
         <v>6.9</v>
       </c>
       <c r="D124" t="n">
-        <v>6309</v>
+        <v>6340</v>
       </c>
       <c r="E124" t="n">
         <v>6116.356643776557</v>
       </c>
       <c r="F124" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
         <v>201313000000</v>
       </c>
       <c r="N124" t="n">
-        <v>2916213353811</v>
+        <v>2930542504860</v>
       </c>
     </row>
   </sheetData>

--- a/docs/アクティビスト銘柄_資産判定.xlsx
+++ b/docs/アクティビスト銘柄_資産判定.xlsx
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>39.6</v>
+        <v>40.2</v>
       </c>
       <c r="D2" t="n">
         <v>638</v>
@@ -550,7 +550,7 @@
         <v>35403000000</v>
       </c>
       <c r="N2" t="n">
-        <v>89349431578</v>
+        <v>88098584728</v>
       </c>
     </row>
     <row r="3">
@@ -565,7 +565,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>39.6</v>
+        <v>40.2</v>
       </c>
       <c r="D3" t="n">
         <v>638</v>
@@ -598,7 +598,7 @@
         <v>35403000000</v>
       </c>
       <c r="N3" t="n">
-        <v>89349431578</v>
+        <v>88098584728</v>
       </c>
     </row>
     <row r="4">
@@ -613,16 +613,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>42.2</v>
+        <v>43.1</v>
       </c>
       <c r="D4" t="n">
-        <v>3494</v>
+        <v>3436</v>
       </c>
       <c r="E4" t="n">
         <v>1598.889989734285</v>
       </c>
       <c r="F4" t="n">
-        <v>118.5</v>
+        <v>114.9</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -650,7 +650,7 @@
         <v>178465000000</v>
       </c>
       <c r="N4" t="n">
-        <v>422866625940</v>
+        <v>413785014192</v>
       </c>
     </row>
     <row r="5">
@@ -665,16 +665,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="D5" t="n">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="E5" t="n">
         <v>653.0713101160862</v>
       </c>
       <c r="F5" t="n">
-        <v>49.4</v>
+        <v>49.1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
         <v>1810139000</v>
       </c>
       <c r="N5" t="n">
-        <v>24440487408</v>
+        <v>23332938486</v>
       </c>
     </row>
     <row r="6">
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>93.40000000000001</v>
+        <v>92.7</v>
       </c>
       <c r="D6" t="n">
-        <v>2126</v>
+        <v>2142</v>
       </c>
       <c r="E6" t="n">
         <v>2122.579027791042</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>74819000000</v>
       </c>
       <c r="N6" t="n">
-        <v>80079465854</v>
+        <v>80682133518</v>
       </c>
     </row>
     <row r="7">
@@ -769,16 +769,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>45.9</v>
+        <v>45.6</v>
       </c>
       <c r="D7" t="n">
-        <v>2209</v>
+        <v>2241</v>
       </c>
       <c r="E7" t="n">
         <v>2032.365850102071</v>
       </c>
       <c r="F7" t="n">
-        <v>8.699999999999999</v>
+        <v>10.3</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>323730000000</v>
       </c>
       <c r="N7" t="n">
-        <v>705590891661</v>
+        <v>710581344660</v>
       </c>
     </row>
     <row r="8">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="D8" t="n">
-        <v>2248</v>
+        <v>2255</v>
       </c>
       <c r="E8" t="n">
         <v>2040</v>
       </c>
       <c r="F8" t="n">
-        <v>10.2</v>
+        <v>10.5</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>34682000000</v>
       </c>
       <c r="N8" t="n">
-        <v>101468475056</v>
+        <v>101784435610</v>
       </c>
     </row>
     <row r="9">
@@ -873,16 +873,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>79</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>7110</v>
+        <v>7030</v>
       </c>
       <c r="E9" t="n">
         <v>4549.503641591014</v>
       </c>
       <c r="F9" t="n">
-        <v>56.3</v>
+        <v>54.5</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
         <v>96906000000</v>
       </c>
       <c r="N9" t="n">
-        <v>122607463590</v>
+        <v>121227914070</v>
       </c>
     </row>
     <row r="10">
@@ -925,16 +925,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>68.40000000000001</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>1886.5</v>
+        <v>1926</v>
       </c>
       <c r="E10" t="n">
         <v>1257.709264012363</v>
       </c>
       <c r="F10" t="n">
-        <v>50</v>
+        <v>53.1</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>261172000000</v>
       </c>
       <c r="N10" t="n">
-        <v>381742503758</v>
+        <v>387643889844</v>
       </c>
     </row>
     <row r="11">
@@ -977,16 +977,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>68.40000000000001</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>1886.5</v>
+        <v>1926</v>
       </c>
       <c r="E11" t="n">
         <v>1217.254500469243</v>
       </c>
       <c r="F11" t="n">
-        <v>55</v>
+        <v>58.2</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>261172000000</v>
       </c>
       <c r="N11" t="n">
-        <v>381742503758</v>
+        <v>387643889844</v>
       </c>
     </row>
     <row r="12">
@@ -1029,16 +1029,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>100.1</v>
+        <v>101.7</v>
       </c>
       <c r="D12" t="n">
-        <v>1461</v>
+        <v>1439</v>
       </c>
       <c r="E12" t="n">
         <v>1212.640316205534</v>
       </c>
       <c r="F12" t="n">
-        <v>20.5</v>
+        <v>18.7</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>13446000000</v>
       </c>
       <c r="N12" t="n">
-        <v>13427535267</v>
+        <v>13225341033</v>
       </c>
     </row>
     <row r="13">
@@ -1081,16 +1081,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>28.2</v>
+        <v>27.6</v>
       </c>
       <c r="D13" t="n">
-        <v>5150</v>
+        <v>5270</v>
       </c>
       <c r="E13" t="n">
         <v>2617.980935875217</v>
       </c>
       <c r="F13" t="n">
-        <v>96.7</v>
+        <v>101.3</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>53152000000</v>
       </c>
       <c r="N13" t="n">
-        <v>188251143000</v>
+        <v>192637577400</v>
       </c>
     </row>
     <row r="14">
@@ -1133,16 +1133,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>40.7</v>
+        <v>40.8</v>
       </c>
       <c r="D14" t="n">
-        <v>2264</v>
+        <v>2258</v>
       </c>
       <c r="E14" t="n">
         <v>1710</v>
       </c>
       <c r="F14" t="n">
-        <v>32.4</v>
+        <v>32</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1170,7 +1170,7 @@
         <v>15543000000</v>
       </c>
       <c r="N14" t="n">
-        <v>38198620048</v>
+        <v>38097386956</v>
       </c>
     </row>
     <row r="15">
@@ -1185,16 +1185,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>40.7</v>
+        <v>40.8</v>
       </c>
       <c r="D15" t="n">
-        <v>2264</v>
+        <v>2258</v>
       </c>
       <c r="E15" t="n">
         <v>1710</v>
       </c>
       <c r="F15" t="n">
-        <v>32.4</v>
+        <v>32</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1222,7 +1222,7 @@
         <v>15543000000</v>
       </c>
       <c r="N15" t="n">
-        <v>38198620048</v>
+        <v>38097386956</v>
       </c>
     </row>
     <row r="16">
@@ -1237,16 +1237,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>75.7</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>1759</v>
+        <v>1764.5</v>
       </c>
       <c r="E16" t="n">
         <v>1101.400153022188</v>
       </c>
       <c r="F16" t="n">
-        <v>59.7</v>
+        <v>60.2</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1274,7 +1274,7 @@
         <v>398395000000</v>
       </c>
       <c r="N16" t="n">
-        <v>526521121718</v>
+        <v>528167435629</v>
       </c>
     </row>
     <row r="17">
@@ -1292,13 +1292,13 @@
         <v>26.4</v>
       </c>
       <c r="D17" t="n">
-        <v>5185</v>
+        <v>5190</v>
       </c>
       <c r="E17" t="n">
         <v>3322.047887165483</v>
       </c>
       <c r="F17" t="n">
-        <v>56.1</v>
+        <v>56.2</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         <v>476359000000</v>
       </c>
       <c r="N17" t="n">
-        <v>1801299083370</v>
+        <v>1803036112380</v>
       </c>
     </row>
     <row r="18">
@@ -1341,16 +1341,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>77.09999999999999</v>
+        <v>76.3</v>
       </c>
       <c r="D18" t="n">
-        <v>2372</v>
+        <v>2398</v>
       </c>
       <c r="E18" t="n">
         <v>3610</v>
       </c>
       <c r="F18" t="n">
-        <v>-34.3</v>
+        <v>-33.6</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1378,7 +1378,7 @@
         <v>122147000000</v>
       </c>
       <c r="N18" t="n">
-        <v>158393725168</v>
+        <v>160129912712</v>
       </c>
     </row>
     <row r="19">
@@ -1396,13 +1396,13 @@
         <v>20.5</v>
       </c>
       <c r="D19" t="n">
-        <v>2149</v>
+        <v>2153</v>
       </c>
       <c r="E19" t="n">
         <v>2269.918722577861</v>
       </c>
       <c r="F19" t="n">
-        <v>-5.3</v>
+        <v>-5.2</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>90811000000</v>
       </c>
       <c r="N19" t="n">
-        <v>442072421091</v>
+        <v>442895264127</v>
       </c>
     </row>
     <row r="20">
@@ -1445,16 +1445,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>58.4</v>
+        <v>58.1</v>
       </c>
       <c r="D20" t="n">
-        <v>2640</v>
+        <v>2653</v>
       </c>
       <c r="E20" t="n">
         <v>3155.301177013616</v>
       </c>
       <c r="F20" t="n">
-        <v>-16.3</v>
+        <v>-15.9</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1482,7 +1482,7 @@
         <v>98642000000</v>
       </c>
       <c r="N20" t="n">
-        <v>168971394240</v>
+        <v>169803450348</v>
       </c>
     </row>
     <row r="21">
@@ -1497,16 +1497,16 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>46</v>
+        <v>46.4</v>
       </c>
       <c r="D21" t="n">
-        <v>3335</v>
+        <v>3310</v>
       </c>
       <c r="E21" t="n">
         <v>1752.426893379333</v>
       </c>
       <c r="F21" t="n">
-        <v>90.3</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>77563221000</v>
       </c>
       <c r="N21" t="n">
-        <v>168474518495</v>
+        <v>167211591070</v>
       </c>
     </row>
     <row r="22">
@@ -1549,16 +1549,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>46</v>
+        <v>46.4</v>
       </c>
       <c r="D22" t="n">
-        <v>3335</v>
+        <v>3310</v>
       </c>
       <c r="E22" t="n">
         <v>1576.721867844292</v>
       </c>
       <c r="F22" t="n">
-        <v>111.5</v>
+        <v>109.9</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1586,7 +1586,7 @@
         <v>77563221000</v>
       </c>
       <c r="N22" t="n">
-        <v>168474518495</v>
+        <v>167211591070</v>
       </c>
     </row>
     <row r="23">
@@ -1601,16 +1601,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>53.5</v>
+        <v>52.4</v>
       </c>
       <c r="D23" t="n">
-        <v>4140</v>
+        <v>4225</v>
       </c>
       <c r="E23" t="n">
         <v>2387</v>
       </c>
       <c r="F23" t="n">
-        <v>73.40000000000001</v>
+        <v>77</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         <v>105205000000</v>
       </c>
       <c r="N23" t="n">
-        <v>196788814200</v>
+        <v>200829164250</v>
       </c>
     </row>
     <row r="24">
@@ -1653,16 +1653,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>79.40000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="D24" t="n">
-        <v>1924</v>
+        <v>1979</v>
       </c>
       <c r="E24" t="n">
         <v>1270</v>
       </c>
       <c r="F24" t="n">
-        <v>51.5</v>
+        <v>55.8</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>26544000000</v>
       </c>
       <c r="N24" t="n">
-        <v>33440772716</v>
+        <v>34396719961</v>
       </c>
     </row>
     <row r="25">
@@ -1705,16 +1705,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>79.40000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="D25" t="n">
-        <v>1924</v>
+        <v>1979</v>
       </c>
       <c r="E25" t="n">
         <v>1170</v>
       </c>
       <c r="F25" t="n">
-        <v>64.40000000000001</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         <v>26544000000</v>
       </c>
       <c r="N25" t="n">
-        <v>33440772716</v>
+        <v>34396719961</v>
       </c>
     </row>
     <row r="26">
@@ -1757,16 +1757,16 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>33.4</v>
+        <v>33.6</v>
       </c>
       <c r="D26" t="n">
-        <v>4265</v>
+        <v>4235</v>
       </c>
       <c r="E26" t="n">
         <v>1492.806001579363</v>
       </c>
       <c r="F26" t="n">
-        <v>185.7</v>
+        <v>183.7</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1794,7 +1794,7 @@
         <v>106485000000</v>
       </c>
       <c r="N26" t="n">
-        <v>319212044135</v>
+        <v>316966707365</v>
       </c>
     </row>
     <row r="27">
@@ -1809,16 +1809,16 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>24.5</v>
+        <v>24.8</v>
       </c>
       <c r="D27" t="n">
-        <v>2859.5</v>
+        <v>2872</v>
       </c>
       <c r="E27" t="n">
         <v>2919.137515755844</v>
       </c>
       <c r="F27" t="n">
-        <v>-2</v>
+        <v>-1.6</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1846,7 +1846,7 @@
         <v>89135000000</v>
       </c>
       <c r="N27" t="n">
-        <v>364142349798</v>
+        <v>358819018048</v>
       </c>
     </row>
     <row r="28">
@@ -1861,16 +1861,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>92.8</v>
+        <v>93.2</v>
       </c>
       <c r="D28" t="n">
-        <v>2855</v>
+        <v>2840</v>
       </c>
       <c r="E28" t="n">
         <v>1600</v>
       </c>
       <c r="F28" t="n">
-        <v>78.40000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1898,7 +1898,7 @@
         <v>88496000000</v>
       </c>
       <c r="N28" t="n">
-        <v>95405569260</v>
+        <v>94904314080</v>
       </c>
     </row>
     <row r="29">
@@ -1913,16 +1913,16 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>48.6</v>
+        <v>49.3</v>
       </c>
       <c r="D29" t="n">
-        <v>799</v>
+        <v>804.2000122070312</v>
       </c>
       <c r="E29" t="n">
         <v>590</v>
       </c>
       <c r="F29" t="n">
-        <v>35.4</v>
+        <v>36.3</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         <v>362887000000</v>
       </c>
       <c r="N29" t="n">
-        <v>747002010036</v>
+        <v>735785440099</v>
       </c>
     </row>
     <row r="30">
@@ -1965,16 +1965,16 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>39.3</v>
+        <v>39</v>
       </c>
       <c r="D30" t="n">
-        <v>3051</v>
+        <v>3074</v>
       </c>
       <c r="E30" t="n">
         <v>2560</v>
       </c>
       <c r="F30" t="n">
-        <v>19.2</v>
+        <v>20.1</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         <v>180306000000</v>
       </c>
       <c r="N30" t="n">
-        <v>458282048211</v>
+        <v>461736812914</v>
       </c>
     </row>
     <row r="31">
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>45.9</v>
+        <v>46.4</v>
       </c>
       <c r="D31" t="n">
-        <v>934</v>
+        <v>923</v>
       </c>
       <c r="E31" t="n">
         <v>933.1435874692879</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1</v>
+        <v>-1.1</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2054,7 +2054,7 @@
         <v>4653173000</v>
       </c>
       <c r="N31" t="n">
-        <v>10139881336</v>
+        <v>10020460892</v>
       </c>
     </row>
     <row r="32">
@@ -2069,16 +2069,16 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>58.7</v>
+        <v>58.9</v>
       </c>
       <c r="D32" t="n">
-        <v>4955</v>
+        <v>4935</v>
       </c>
       <c r="E32" t="n">
         <v>4265.455132343447</v>
       </c>
       <c r="F32" t="n">
-        <v>16.2</v>
+        <v>15.7</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>14129000000</v>
       </c>
       <c r="N32" t="n">
-        <v>24081290090</v>
+        <v>23984090130</v>
       </c>
     </row>
     <row r="33">
@@ -2121,16 +2121,16 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>67.8</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>2695</v>
+        <v>2719</v>
       </c>
       <c r="E33" t="n">
         <v>2939.562915943684</v>
       </c>
       <c r="F33" t="n">
-        <v>-8.300000000000001</v>
+        <v>-7.5</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2158,7 +2158,7 @@
         <v>101054000000</v>
       </c>
       <c r="N33" t="n">
-        <v>148998788400</v>
+        <v>147742477016</v>
       </c>
     </row>
     <row r="34">
@@ -2280,16 +2280,16 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>244.6</v>
+        <v>244.1</v>
       </c>
       <c r="D36" t="n">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="E36" t="n">
         <v>798.3805136422309</v>
       </c>
       <c r="F36" t="n">
-        <v>26.6</v>
+        <v>26.9</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         <v>429249000000</v>
       </c>
       <c r="N36" t="n">
-        <v>175525210851</v>
+        <v>175872441733</v>
       </c>
     </row>
     <row r="37">
@@ -2332,16 +2332,16 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="D37" t="n">
-        <v>2395</v>
+        <v>2406</v>
       </c>
       <c r="E37" t="n">
         <v>1678.083113259255</v>
       </c>
       <c r="F37" t="n">
-        <v>42.7</v>
+        <v>43.4</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>19554000000</v>
       </c>
       <c r="N37" t="n">
-        <v>81137431590</v>
+        <v>81510087852</v>
       </c>
     </row>
     <row r="38">
@@ -2384,16 +2384,16 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>87</v>
+        <v>86.8</v>
       </c>
       <c r="D38" t="n">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="E38" t="n">
         <v>668.9358717434869</v>
       </c>
       <c r="F38" t="n">
-        <v>62.2</v>
+        <v>62.6</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         <v>15118000000</v>
       </c>
       <c r="N38" t="n">
-        <v>17378467785</v>
+        <v>17426518848</v>
       </c>
     </row>
     <row r="39">
@@ -2439,13 +2439,13 @@
         <v>11</v>
       </c>
       <c r="D39" t="n">
-        <v>3180</v>
+        <v>3185</v>
       </c>
       <c r="E39" t="n">
         <v>4156.179843576074</v>
       </c>
       <c r="F39" t="n">
-        <v>-23.5</v>
+        <v>-23.4</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>90923000000</v>
       </c>
       <c r="N39" t="n">
-        <v>825488011500</v>
+        <v>826785948625</v>
       </c>
     </row>
     <row r="40">
@@ -2488,16 +2488,16 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>50</v>
+        <v>50.4</v>
       </c>
       <c r="D40" t="n">
-        <v>1335</v>
+        <v>1323</v>
       </c>
       <c r="E40" t="n">
         <v>2920</v>
       </c>
       <c r="F40" t="n">
-        <v>-54.3</v>
+        <v>-54.7</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>26036000000</v>
       </c>
       <c r="N40" t="n">
-        <v>52109809275</v>
+        <v>51641406495</v>
       </c>
     </row>
     <row r="41">
@@ -2540,16 +2540,16 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>34.4</v>
+        <v>33.7</v>
       </c>
       <c r="D41" t="n">
-        <v>1316</v>
+        <v>1344</v>
       </c>
       <c r="E41" t="n">
         <v>3234.727863989046</v>
       </c>
       <c r="F41" t="n">
-        <v>-59.3</v>
+        <v>-58.5</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         <v>65478000000</v>
       </c>
       <c r="N41" t="n">
-        <v>190275458940</v>
+        <v>194323872960</v>
       </c>
     </row>
     <row r="42">
@@ -2592,16 +2592,16 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>53.4</v>
+        <v>53.9</v>
       </c>
       <c r="D42" t="n">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="E42" t="n">
         <v>656.2604975855553</v>
       </c>
       <c r="F42" t="n">
-        <v>23.1</v>
+        <v>21.9</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2629,7 +2629,7 @@
         <v>31865000000</v>
       </c>
       <c r="N42" t="n">
-        <v>59691345824</v>
+        <v>59100342400</v>
       </c>
     </row>
     <row r="43">
@@ -2644,16 +2644,16 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>82.8</v>
+        <v>83.8</v>
       </c>
       <c r="D43" t="n">
-        <v>10030</v>
+        <v>9920</v>
       </c>
       <c r="E43" t="n">
         <v>7040.15625</v>
       </c>
       <c r="F43" t="n">
-        <v>42.5</v>
+        <v>40.9</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2681,7 +2681,7 @@
         <v>8781313000</v>
       </c>
       <c r="N43" t="n">
-        <v>10599593670</v>
+        <v>10483346880</v>
       </c>
     </row>
     <row r="44">
@@ -2696,16 +2696,16 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>82.8</v>
+        <v>83.8</v>
       </c>
       <c r="D44" t="n">
-        <v>10030</v>
+        <v>9920</v>
       </c>
       <c r="E44" t="n">
         <v>7040.15625</v>
       </c>
       <c r="F44" t="n">
-        <v>42.5</v>
+        <v>40.9</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2733,7 +2733,7 @@
         <v>8781313000</v>
       </c>
       <c r="N44" t="n">
-        <v>10599593670</v>
+        <v>10483346880</v>
       </c>
     </row>
     <row r="45">
@@ -2748,16 +2748,16 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="D45" t="n">
-        <v>3311</v>
+        <v>3279</v>
       </c>
       <c r="E45" t="n">
         <v>6272.971195510064</v>
       </c>
       <c r="F45" t="n">
-        <v>-47.2</v>
+        <v>-47.7</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2785,7 +2785,7 @@
         <v>153254000000</v>
       </c>
       <c r="N45" t="n">
-        <v>1193400731985</v>
+        <v>1181866807665</v>
       </c>
     </row>
     <row r="46">
@@ -2800,16 +2800,16 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>67.8</v>
+        <v>67.2</v>
       </c>
       <c r="D46" t="n">
-        <v>3700</v>
+        <v>3733</v>
       </c>
       <c r="E46" t="n">
         <v>2566.284807227078</v>
       </c>
       <c r="F46" t="n">
-        <v>44.2</v>
+        <v>45.5</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         <v>237487000000</v>
       </c>
       <c r="N46" t="n">
-        <v>350319529800</v>
+        <v>353444001282</v>
       </c>
     </row>
     <row r="47">
@@ -2852,16 +2852,16 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>68.40000000000001</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>5902</v>
+        <v>5947</v>
       </c>
       <c r="E47" t="n">
         <v>4137.137750115735</v>
       </c>
       <c r="F47" t="n">
-        <v>42.7</v>
+        <v>43.7</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>284031000000</v>
       </c>
       <c r="N47" t="n">
-        <v>414973922558</v>
+        <v>418137905363</v>
       </c>
     </row>
     <row r="48">
@@ -2904,16 +2904,16 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>116.4</v>
+        <v>117.3</v>
       </c>
       <c r="D48" t="n">
-        <v>1825</v>
+        <v>1811</v>
       </c>
       <c r="E48" t="n">
         <v>1469.167707232735</v>
       </c>
       <c r="F48" t="n">
-        <v>24.2</v>
+        <v>23.3</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2941,7 +2941,7 @@
         <v>133437000000</v>
       </c>
       <c r="N48" t="n">
-        <v>114653540850</v>
+        <v>113774006838</v>
       </c>
     </row>
     <row r="49">
@@ -2956,16 +2956,16 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>125.8</v>
+        <v>131.7</v>
       </c>
       <c r="D49" t="n">
-        <v>1023</v>
+        <v>1031</v>
       </c>
       <c r="E49" t="n">
         <v>438.851170934559</v>
       </c>
       <c r="F49" t="n">
-        <v>133.1</v>
+        <v>134.9</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2993,7 +2993,7 @@
         <v>79323000000</v>
       </c>
       <c r="N49" t="n">
-        <v>63040488588</v>
+        <v>60227569243</v>
       </c>
     </row>
     <row r="50">
@@ -3008,16 +3008,16 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>59.5</v>
+        <v>59.6</v>
       </c>
       <c r="D50" t="n">
-        <v>3359</v>
+        <v>3353</v>
       </c>
       <c r="E50" t="n">
         <v>2420</v>
       </c>
       <c r="F50" t="n">
-        <v>38.8</v>
+        <v>38.6</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>414670000000</v>
       </c>
       <c r="N50" t="n">
-        <v>696831607259</v>
+        <v>695586894653</v>
       </c>
     </row>
     <row r="51">
@@ -3060,16 +3060,16 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>112.6</v>
+        <v>112</v>
       </c>
       <c r="D51" t="n">
-        <v>3134</v>
+        <v>3149</v>
       </c>
       <c r="E51" t="n">
         <v>4991.027246539169</v>
       </c>
       <c r="F51" t="n">
-        <v>-37.2</v>
+        <v>-36.9</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
         <v>1006135000000</v>
       </c>
       <c r="N51" t="n">
-        <v>893892786964</v>
+        <v>898171150654</v>
       </c>
     </row>
     <row r="52">
@@ -3115,13 +3115,13 @@
         <v>17</v>
       </c>
       <c r="D52" t="n">
-        <v>3380</v>
+        <v>3385</v>
       </c>
       <c r="E52" t="n">
         <v>7052.737306843267</v>
       </c>
       <c r="F52" t="n">
-        <v>-52.1</v>
+        <v>-52</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -3149,7 +3149,7 @@
         <v>20433000000</v>
       </c>
       <c r="N52" t="n">
-        <v>119961229440</v>
+        <v>120138686880</v>
       </c>
     </row>
     <row r="53">
@@ -3164,16 +3164,16 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>9.6</v>
+        <v>10.2</v>
       </c>
       <c r="D53" t="n">
-        <v>5715</v>
+        <v>5663</v>
       </c>
       <c r="E53" t="n">
         <v>2420.370957920882</v>
       </c>
       <c r="F53" t="n">
-        <v>136.1</v>
+        <v>134</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>28931000000</v>
       </c>
       <c r="N53" t="n">
-        <v>300095610120</v>
+        <v>284508876491</v>
       </c>
     </row>
     <row r="54">
@@ -3219,13 +3219,13 @@
         <v>56.6</v>
       </c>
       <c r="D54" t="n">
-        <v>4977</v>
+        <v>4980</v>
       </c>
       <c r="E54" t="n">
         <v>4154.626869982095</v>
       </c>
       <c r="F54" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -3253,7 +3253,7 @@
         <v>179492000000</v>
       </c>
       <c r="N54" t="n">
-        <v>316851995250</v>
+        <v>317042985000</v>
       </c>
     </row>
     <row r="55">
@@ -3268,16 +3268,16 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>76.40000000000001</v>
+        <v>76</v>
       </c>
       <c r="D55" t="n">
-        <v>3704</v>
+        <v>3725</v>
       </c>
       <c r="E55" t="n">
         <v>3530</v>
       </c>
       <c r="F55" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
         <v>107738000000</v>
       </c>
       <c r="N55" t="n">
-        <v>141005168400</v>
+        <v>141804603750</v>
       </c>
     </row>
     <row r="56">
@@ -3320,10 +3320,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>46.4</v>
+        <v>46.3</v>
       </c>
       <c r="D56" t="n">
-        <v>1494</v>
+        <v>1496</v>
       </c>
       <c r="E56" t="n">
         <v>3767.430178069353</v>
@@ -3357,7 +3357,7 @@
         <v>31965000000</v>
       </c>
       <c r="N56" t="n">
-        <v>68955115824</v>
+        <v>69047425216</v>
       </c>
     </row>
     <row r="57">
@@ -3372,16 +3372,16 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>55.4</v>
+        <v>55.1</v>
       </c>
       <c r="D57" t="n">
-        <v>2025</v>
+        <v>2035</v>
       </c>
       <c r="E57" t="n">
         <v>1556.090471804319</v>
       </c>
       <c r="F57" t="n">
-        <v>30.1</v>
+        <v>30.8</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         <v>191594000000</v>
       </c>
       <c r="N57" t="n">
-        <v>345834914850</v>
+        <v>347542741590</v>
       </c>
     </row>
     <row r="58">
@@ -3424,16 +3424,16 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>116.9</v>
+        <v>115.9</v>
       </c>
       <c r="D58" t="n">
-        <v>1689</v>
+        <v>1704</v>
       </c>
       <c r="E58" t="n">
         <v>1341.977644710579</v>
       </c>
       <c r="F58" t="n">
-        <v>25.9</v>
+        <v>27</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -3461,7 +3461,7 @@
         <v>95903657000</v>
       </c>
       <c r="N58" t="n">
-        <v>82034375310</v>
+        <v>82762922160</v>
       </c>
     </row>
     <row r="59">
@@ -3479,13 +3479,13 @@
         <v>9.6</v>
       </c>
       <c r="D59" t="n">
-        <v>2101.5</v>
+        <v>2103.5</v>
       </c>
       <c r="E59" t="n">
         <v>1141.512891683109</v>
       </c>
       <c r="F59" t="n">
-        <v>84.09999999999999</v>
+        <v>84.3</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
         <v>35951000000</v>
       </c>
       <c r="N59" t="n">
-        <v>374938410092</v>
+        <v>375295239414</v>
       </c>
     </row>
     <row r="60">
@@ -3531,13 +3531,13 @@
         <v>9.6</v>
       </c>
       <c r="D60" t="n">
-        <v>2101.5</v>
+        <v>2103.5</v>
       </c>
       <c r="E60" t="n">
         <v>1842.11261309207</v>
       </c>
       <c r="F60" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -3565,7 +3565,7 @@
         <v>35951000000</v>
       </c>
       <c r="N60" t="n">
-        <v>374938410092</v>
+        <v>375295239414</v>
       </c>
     </row>
     <row r="61">
@@ -3580,16 +3580,16 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>10.4</v>
+        <v>10.7</v>
       </c>
       <c r="D61" t="n">
-        <v>1619.5</v>
+        <v>1570</v>
       </c>
       <c r="E61" t="n">
         <v>1344.518957928979</v>
       </c>
       <c r="F61" t="n">
-        <v>20.5</v>
+        <v>16.8</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         <v>55269000000</v>
       </c>
       <c r="N61" t="n">
-        <v>530567259896</v>
+        <v>514350477330</v>
       </c>
     </row>
     <row r="62">
@@ -3632,16 +3632,16 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>48.8</v>
+        <v>48.5</v>
       </c>
       <c r="D62" t="n">
-        <v>3469</v>
+        <v>3488</v>
       </c>
       <c r="E62" t="n">
         <v>2844.704547285864</v>
       </c>
       <c r="F62" t="n">
-        <v>21.9</v>
+        <v>22.6</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         <v>235224000000</v>
       </c>
       <c r="N62" t="n">
-        <v>482153045671</v>
+        <v>484793837792</v>
       </c>
     </row>
     <row r="63">
@@ -3684,16 +3684,16 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>89.90000000000001</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>2662</v>
+        <v>2706</v>
       </c>
       <c r="E63" t="n">
         <v>1748.071046781136</v>
       </c>
       <c r="F63" t="n">
-        <v>52.3</v>
+        <v>54.8</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
         <v>71858000000</v>
       </c>
       <c r="N63" t="n">
-        <v>79928794066</v>
+        <v>81249931158</v>
       </c>
     </row>
     <row r="64">
@@ -3736,16 +3736,16 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>53.7</v>
+        <v>53.4</v>
       </c>
       <c r="D64" t="n">
-        <v>5447</v>
+        <v>5480</v>
       </c>
       <c r="E64" t="n">
         <v>3405.914389596362</v>
       </c>
       <c r="F64" t="n">
-        <v>59.9</v>
+        <v>60.9</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>193706000000</v>
       </c>
       <c r="N64" t="n">
-        <v>360433987147</v>
+        <v>362617633480</v>
       </c>
     </row>
     <row r="65">
@@ -3788,16 +3788,16 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>53.7</v>
+        <v>53.4</v>
       </c>
       <c r="D65" t="n">
-        <v>5447</v>
+        <v>5480</v>
       </c>
       <c r="E65" t="n">
         <v>2714.613787300615</v>
       </c>
       <c r="F65" t="n">
-        <v>100.7</v>
+        <v>101.9</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -3825,7 +3825,7 @@
         <v>193706000000</v>
       </c>
       <c r="N65" t="n">
-        <v>360433987147</v>
+        <v>362617633480</v>
       </c>
     </row>
     <row r="66">
@@ -3840,16 +3840,16 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="D66" t="n">
-        <v>5385</v>
+        <v>5320</v>
       </c>
       <c r="E66" t="n">
         <v>2148.936934940886</v>
       </c>
       <c r="F66" t="n">
-        <v>150.6</v>
+        <v>147.6</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         <v>80068000000</v>
       </c>
       <c r="N66" t="n">
-        <v>400314540315</v>
+        <v>395482517080</v>
       </c>
     </row>
     <row r="67">
@@ -3892,16 +3892,16 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="D67" t="n">
-        <v>5385</v>
+        <v>5320</v>
       </c>
       <c r="E67" t="n">
         <v>5066.092575838703</v>
       </c>
       <c r="F67" t="n">
-        <v>6.3</v>
+        <v>5</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>80068000000</v>
       </c>
       <c r="N67" t="n">
-        <v>400314540315</v>
+        <v>395482517080</v>
       </c>
     </row>
     <row r="68">
@@ -3944,16 +3944,16 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>46.5</v>
+        <v>46.7</v>
       </c>
       <c r="D68" t="n">
-        <v>1391.5</v>
+        <v>1404</v>
       </c>
       <c r="E68" t="n">
         <v>1111.90611839092</v>
       </c>
       <c r="F68" t="n">
-        <v>25.1</v>
+        <v>26.3</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         <v>101020000000</v>
       </c>
       <c r="N68" t="n">
-        <v>217199894571</v>
+        <v>216312077124</v>
       </c>
     </row>
     <row r="69">
@@ -3996,16 +3996,16 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>41.1</v>
+        <v>42.2</v>
       </c>
       <c r="D69" t="n">
-        <v>5310</v>
+        <v>5350</v>
       </c>
       <c r="E69" t="n">
         <v>3361.304411567078</v>
       </c>
       <c r="F69" t="n">
-        <v>58</v>
+        <v>59.2</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -4033,7 +4033,7 @@
         <v>48658000000</v>
       </c>
       <c r="N69" t="n">
-        <v>118453207320</v>
+        <v>115345101200</v>
       </c>
     </row>
     <row r="70">
@@ -4048,16 +4048,16 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>34.1</v>
+        <v>33.8</v>
       </c>
       <c r="D70" t="n">
-        <v>5390</v>
+        <v>5440</v>
       </c>
       <c r="E70" t="n">
         <v>3891.73752540545</v>
       </c>
       <c r="F70" t="n">
-        <v>38.5</v>
+        <v>39.8</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -4085,7 +4085,7 @@
         <v>50698683000</v>
       </c>
       <c r="N70" t="n">
-        <v>148554118790</v>
+        <v>149932171840</v>
       </c>
     </row>
     <row r="71">
@@ -4100,16 +4100,16 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>37.9</v>
+        <v>38.4</v>
       </c>
       <c r="D71" t="n">
-        <v>3728</v>
+        <v>3678</v>
       </c>
       <c r="E71" t="n">
         <v>6646.195827570309</v>
       </c>
       <c r="F71" t="n">
-        <v>-43.9</v>
+        <v>-44.7</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
         <v>139195000000</v>
       </c>
       <c r="N71" t="n">
-        <v>367440131376</v>
+        <v>362512018026</v>
       </c>
     </row>
     <row r="72">
@@ -4152,16 +4152,16 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>32.4</v>
+        <v>31.8</v>
       </c>
       <c r="D72" t="n">
-        <v>2951</v>
+        <v>3005</v>
       </c>
       <c r="E72" t="n">
         <v>2480</v>
       </c>
       <c r="F72" t="n">
-        <v>19</v>
+        <v>21.2</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>20277000000</v>
       </c>
       <c r="N72" t="n">
-        <v>62642901386</v>
+        <v>63789196430</v>
       </c>
     </row>
     <row r="73">
@@ -4204,16 +4204,16 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>32.4</v>
+        <v>31.8</v>
       </c>
       <c r="D73" t="n">
-        <v>2951</v>
+        <v>3005</v>
       </c>
       <c r="E73" t="n">
         <v>2504.338645418327</v>
       </c>
       <c r="F73" t="n">
-        <v>17.8</v>
+        <v>20</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -4241,7 +4241,7 @@
         <v>20277000000</v>
       </c>
       <c r="N73" t="n">
-        <v>62642901386</v>
+        <v>63789196430</v>
       </c>
     </row>
     <row r="74">
@@ -4256,16 +4256,16 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>32.4</v>
+        <v>31.8</v>
       </c>
       <c r="D74" t="n">
-        <v>2951</v>
+        <v>3005</v>
       </c>
       <c r="E74" t="n">
         <v>2880</v>
       </c>
       <c r="F74" t="n">
-        <v>2.5</v>
+        <v>4.3</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -4293,7 +4293,7 @@
         <v>20277000000</v>
       </c>
       <c r="N74" t="n">
-        <v>62642901386</v>
+        <v>63789196430</v>
       </c>
     </row>
     <row r="75">
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>13.9</v>
+        <v>13</v>
       </c>
       <c r="D75" t="n">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="E75" t="n">
         <v>421.6950726175476</v>
       </c>
       <c r="F75" t="n">
-        <v>37.5</v>
+        <v>40.1</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>2256815000</v>
       </c>
       <c r="N75" t="n">
-        <v>16247283640</v>
+        <v>17354648808</v>
       </c>
     </row>
     <row r="76">
@@ -4360,16 +4360,16 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>53.7</v>
+        <v>53.2</v>
       </c>
       <c r="D76" t="n">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E76" t="n">
         <v>290.3401328717133</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.8</v>
+        <v>0.2</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
         <v>5368822000</v>
       </c>
       <c r="N76" t="n">
-        <v>9995406624</v>
+        <v>10099525443</v>
       </c>
     </row>
     <row r="77">
@@ -4412,16 +4412,16 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>38.8</v>
+        <v>38.5</v>
       </c>
       <c r="D77" t="n">
-        <v>3025</v>
+        <v>3050</v>
       </c>
       <c r="E77" t="n">
         <v>1359.655069733296</v>
       </c>
       <c r="F77" t="n">
-        <v>122.5</v>
+        <v>124.3</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -4449,7 +4449,7 @@
         <v>68841000000</v>
       </c>
       <c r="N77" t="n">
-        <v>177357882625</v>
+        <v>178823650250</v>
       </c>
     </row>
     <row r="78">
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D78" t="n">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="E78" t="n">
         <v>448.6811097117532</v>
       </c>
       <c r="F78" t="n">
-        <v>-6.2</v>
+        <v>-7.1</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>10804525000</v>
       </c>
       <c r="N78" t="n">
-        <v>87325970889</v>
+        <v>86496270453</v>
       </c>
     </row>
     <row r="79">
@@ -4519,13 +4519,13 @@
         <v>10.8</v>
       </c>
       <c r="D79" t="n">
-        <v>3280</v>
+        <v>3282</v>
       </c>
       <c r="E79" t="n">
         <v>2085.872134468915</v>
       </c>
       <c r="F79" t="n">
-        <v>57.2</v>
+        <v>57.3</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -4553,7 +4553,7 @@
         <v>37319000000</v>
       </c>
       <c r="N79" t="n">
-        <v>345939264640</v>
+        <v>346150203216</v>
       </c>
     </row>
     <row r="80">
@@ -4568,16 +4568,16 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>12.7</v>
+        <v>11.3</v>
       </c>
       <c r="D80" t="n">
-        <v>1021</v>
+        <v>1149</v>
       </c>
       <c r="E80" t="n">
         <v>913.2768512341561</v>
       </c>
       <c r="F80" t="n">
-        <v>11.8</v>
+        <v>25.8</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -4605,7 +4605,7 @@
         <v>2201899000</v>
       </c>
       <c r="N80" t="n">
-        <v>17274951419</v>
+        <v>19440665211</v>
       </c>
     </row>
     <row r="81">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>265.7</v>
+        <v>267.9</v>
       </c>
       <c r="D81" t="n">
-        <v>2327</v>
+        <v>2308.5</v>
       </c>
       <c r="E81" t="n">
         <v>2190</v>
       </c>
       <c r="F81" t="n">
-        <v>6.3</v>
+        <v>5.4</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
         <v>870891000000</v>
       </c>
       <c r="N81" t="n">
-        <v>327746591913</v>
+        <v>325140957212</v>
       </c>
     </row>
     <row r="82">
@@ -4672,16 +4672,16 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>55.1</v>
+        <v>55.2</v>
       </c>
       <c r="D82" t="n">
-        <v>1641</v>
+        <v>1666</v>
       </c>
       <c r="E82" t="n">
         <v>1721.078563209627</v>
       </c>
       <c r="F82" t="n">
-        <v>-4.7</v>
+        <v>-3.2</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
         <v>178715000000</v>
       </c>
       <c r="N82" t="n">
-        <v>324125027775</v>
+        <v>323966618164</v>
       </c>
     </row>
     <row r="83">
@@ -4724,16 +4724,16 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>62.7</v>
+        <v>63.3</v>
       </c>
       <c r="D83" t="n">
-        <v>7357</v>
+        <v>7286</v>
       </c>
       <c r="E83" t="n">
         <v>5478.947585152067</v>
       </c>
       <c r="F83" t="n">
-        <v>34.3</v>
+        <v>33</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         <v>92189000000</v>
       </c>
       <c r="N83" t="n">
-        <v>147071771182</v>
+        <v>145652429636</v>
       </c>
     </row>
     <row r="84">
@@ -4776,16 +4776,16 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>70.40000000000001</v>
+        <v>74.5</v>
       </c>
       <c r="D84" t="n">
-        <v>8200</v>
+        <v>8240</v>
       </c>
       <c r="E84" t="n">
         <v>4870</v>
       </c>
       <c r="F84" t="n">
-        <v>68.40000000000001</v>
+        <v>69.2</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -4813,7 +4813,7 @@
         <v>98829770000</v>
       </c>
       <c r="N84" t="n">
-        <v>140285944400</v>
+        <v>132699926400</v>
       </c>
     </row>
     <row r="85">
@@ -4828,16 +4828,16 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>25.8</v>
+        <v>25.6</v>
       </c>
       <c r="D85" t="n">
-        <v>3097</v>
+        <v>3128</v>
       </c>
       <c r="E85" t="n">
         <v>13739.64575539568</v>
       </c>
       <c r="F85" t="n">
-        <v>-77.5</v>
+        <v>-77.2</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -4865,7 +4865,7 @@
         <v>265431000000</v>
       </c>
       <c r="N85" t="n">
-        <v>1027007690840</v>
+        <v>1037287716160</v>
       </c>
     </row>
     <row r="86">
@@ -4880,16 +4880,16 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>25.8</v>
+        <v>25.6</v>
       </c>
       <c r="D86" t="n">
-        <v>3097</v>
+        <v>3128</v>
       </c>
       <c r="E86" t="n">
         <v>12975.86280814577</v>
       </c>
       <c r="F86" t="n">
-        <v>-76.09999999999999</v>
+        <v>-75.90000000000001</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>265431000000</v>
       </c>
       <c r="N86" t="n">
-        <v>1027007690840</v>
+        <v>1037287716160</v>
       </c>
     </row>
     <row r="87">
@@ -4932,16 +4932,16 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>80.7</v>
+        <v>81.5</v>
       </c>
       <c r="D87" t="n">
-        <v>1006</v>
+        <v>996</v>
       </c>
       <c r="E87" t="n">
         <v>193.0499177180472</v>
       </c>
       <c r="F87" t="n">
-        <v>421.1</v>
+        <v>415.9</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -4969,7 +4969,7 @@
         <v>22097000000</v>
       </c>
       <c r="N87" t="n">
-        <v>27370242000</v>
+        <v>27098185944</v>
       </c>
     </row>
     <row r="88">
@@ -4984,16 +4984,16 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="D88" t="n">
-        <v>3815</v>
+        <v>3850</v>
       </c>
       <c r="E88" t="n">
         <v>7960</v>
       </c>
       <c r="F88" t="n">
-        <v>-52.1</v>
+        <v>-51.6</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -5021,7 +5021,7 @@
         <v>34259000000</v>
       </c>
       <c r="N88" t="n">
-        <v>145806728690</v>
+        <v>147144405100</v>
       </c>
     </row>
     <row r="89">
@@ -5039,7 +5039,7 @@
         <v>33.1</v>
       </c>
       <c r="D89" t="n">
-        <v>1137</v>
+        <v>1137.5</v>
       </c>
       <c r="E89" t="n">
         <v>2968.770104870396</v>
@@ -5073,7 +5073,7 @@
         <v>364930000000</v>
       </c>
       <c r="N89" t="n">
-        <v>1102406934180</v>
+        <v>1102891721750</v>
       </c>
     </row>
     <row r="90">
@@ -5088,16 +5088,16 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="D90" t="n">
-        <v>2064</v>
+        <v>2021</v>
       </c>
       <c r="E90" t="n">
         <v>887.288318673809</v>
       </c>
       <c r="F90" t="n">
-        <v>132.6</v>
+        <v>127.8</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>3124000000</v>
       </c>
       <c r="N90" t="n">
-        <v>171572604768</v>
+        <v>167998175502</v>
       </c>
     </row>
     <row r="91">
@@ -5143,13 +5143,13 @@
         <v>24.6</v>
       </c>
       <c r="D91" t="n">
-        <v>11650</v>
+        <v>11610</v>
       </c>
       <c r="E91" t="n">
         <v>3496.825336379792</v>
       </c>
       <c r="F91" t="n">
-        <v>233.2</v>
+        <v>232</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>29490000000</v>
       </c>
       <c r="N91" t="n">
-        <v>120091729950</v>
+        <v>119679397830</v>
       </c>
     </row>
     <row r="92">
@@ -5192,16 +5192,16 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>79.09999999999999</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>4255</v>
+        <v>4215</v>
       </c>
       <c r="E92" t="n">
         <v>3449.780346820809</v>
       </c>
       <c r="F92" t="n">
-        <v>23.3</v>
+        <v>22.2</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>79561000000</v>
       </c>
       <c r="N92" t="n">
-        <v>100550130515</v>
+        <v>99604888395</v>
       </c>
     </row>
     <row r="93">
@@ -5244,16 +5244,16 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="D93" t="n">
-        <v>7341</v>
+        <v>7410</v>
       </c>
       <c r="E93" t="n">
         <v>2697.360927565142</v>
       </c>
       <c r="F93" t="n">
-        <v>172.2</v>
+        <v>174.7</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -5281,7 +5281,7 @@
         <v>8148000000</v>
       </c>
       <c r="N93" t="n">
-        <v>605554208235</v>
+        <v>577751912790</v>
       </c>
     </row>
     <row r="94">
@@ -5296,10 +5296,10 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>741.7</v>
+        <v>743.7</v>
       </c>
       <c r="D94" t="n">
-        <v>3740</v>
+        <v>3730</v>
       </c>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
@@ -5329,7 +5329,7 @@
         <v>609113000000</v>
       </c>
       <c r="N94" t="n">
-        <v>82120997640</v>
+        <v>81901422780</v>
       </c>
     </row>
     <row r="95">
@@ -5344,16 +5344,16 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="D95" t="n">
-        <v>6771</v>
+        <v>6791</v>
       </c>
       <c r="E95" t="n">
         <v>2836.942753814942</v>
       </c>
       <c r="F95" t="n">
-        <v>138.7</v>
+        <v>139.4</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -5381,7 +5381,7 @@
         <v>85476000000</v>
       </c>
       <c r="N95" t="n">
-        <v>237480806475</v>
+        <v>238182270975</v>
       </c>
     </row>
     <row r="96">
@@ -5396,16 +5396,16 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>100.7</v>
+        <v>101.4</v>
       </c>
       <c r="D96" t="n">
-        <v>1793</v>
+        <v>1781</v>
       </c>
       <c r="E96" t="n">
         <v>2298.672482457804</v>
       </c>
       <c r="F96" t="n">
-        <v>-22</v>
+        <v>-22.5</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -5433,7 +5433,7 @@
         <v>44925000000</v>
       </c>
       <c r="N96" t="n">
-        <v>44612927546</v>
+        <v>44314346882</v>
       </c>
     </row>
     <row r="97">
@@ -5448,16 +5448,16 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>24.6</v>
+        <v>25.3</v>
       </c>
       <c r="D97" t="n">
-        <v>2737</v>
+        <v>2758</v>
       </c>
       <c r="E97" t="n">
         <v>2007.754513143541</v>
       </c>
       <c r="F97" t="n">
-        <v>36.3</v>
+        <v>37.4</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>37208000000</v>
       </c>
       <c r="N97" t="n">
-        <v>151150647095</v>
+        <v>146928955614</v>
       </c>
     </row>
     <row r="98">
@@ -5503,13 +5503,13 @@
         <v>13.3</v>
       </c>
       <c r="D98" t="n">
-        <v>4283</v>
+        <v>4292</v>
       </c>
       <c r="E98" t="n">
         <v>1306.206628354146</v>
       </c>
       <c r="F98" t="n">
-        <v>227.9</v>
+        <v>228.6</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         <v>120984000000</v>
       </c>
       <c r="N98" t="n">
-        <v>909713337378</v>
+        <v>911624946072</v>
       </c>
     </row>
     <row r="99">
@@ -5552,16 +5552,16 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>53.1</v>
+        <v>51.8</v>
       </c>
       <c r="D99" t="n">
-        <v>874</v>
+        <v>896</v>
       </c>
       <c r="E99" t="n">
         <v>896.0103264198827</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.5</v>
+        <v>-0</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>8417495000</v>
       </c>
       <c r="N99" t="n">
-        <v>15861155350</v>
+        <v>16260406400</v>
       </c>
     </row>
     <row r="100">
@@ -5604,16 +5604,16 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>61.5</v>
+        <v>62.3</v>
       </c>
       <c r="D100" t="n">
-        <v>1304</v>
+        <v>1288</v>
       </c>
       <c r="E100" t="n">
         <v>2776.401128792723</v>
       </c>
       <c r="F100" t="n">
-        <v>-53</v>
+        <v>-53.6</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>137818000000</v>
       </c>
       <c r="N100" t="n">
-        <v>223933671904</v>
+        <v>221186019488</v>
       </c>
     </row>
     <row r="101">
@@ -5656,16 +5656,16 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>46</v>
+        <v>45.6</v>
       </c>
       <c r="D101" t="n">
-        <v>1628</v>
+        <v>1642</v>
       </c>
       <c r="E101" t="n">
         <v>1746.940387696806</v>
       </c>
       <c r="F101" t="n">
-        <v>-6.8</v>
+        <v>-6</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5693,7 +5693,7 @@
         <v>29854000000</v>
       </c>
       <c r="N101" t="n">
-        <v>64877226128</v>
+        <v>65435138392</v>
       </c>
     </row>
     <row r="102">
@@ -5708,16 +5708,16 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>113.6</v>
+        <v>114.5</v>
       </c>
       <c r="D102" t="n">
-        <v>1498.5</v>
+        <v>1486.5</v>
       </c>
       <c r="E102" t="n">
         <v>1160.8</v>
       </c>
       <c r="F102" t="n">
-        <v>29.1</v>
+        <v>28.1</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5745,7 +5745,7 @@
         <v>458473000000</v>
       </c>
       <c r="N102" t="n">
-        <v>403608822165</v>
+        <v>400376719485</v>
       </c>
     </row>
     <row r="103">
@@ -5760,16 +5760,16 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>15.2</v>
+        <v>14.9</v>
       </c>
       <c r="D103" t="n">
-        <v>1824</v>
+        <v>1861.5</v>
       </c>
       <c r="E103" t="n">
         <v>1512.21980974841</v>
       </c>
       <c r="F103" t="n">
-        <v>20.6</v>
+        <v>23.1</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
         <v>91015000000</v>
       </c>
       <c r="N103" t="n">
-        <v>600130787328</v>
+        <v>612469002528</v>
       </c>
     </row>
     <row r="104">
@@ -5812,16 +5812,16 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="D104" t="n">
-        <v>2046</v>
+        <v>2044</v>
       </c>
       <c r="E104" t="n">
         <v>1347.74653160027</v>
       </c>
       <c r="F104" t="n">
-        <v>51.8</v>
+        <v>51.7</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5849,7 +5849,7 @@
         <v>14143000000</v>
       </c>
       <c r="N104" t="n">
-        <v>49031590014</v>
+        <v>48983660796</v>
       </c>
     </row>
     <row r="105">
@@ -5864,16 +5864,16 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>56.6</v>
+        <v>56.3</v>
       </c>
       <c r="D105" t="n">
-        <v>1286</v>
+        <v>1293</v>
       </c>
       <c r="E105" t="n">
         <v>1605.189780306002</v>
       </c>
       <c r="F105" t="n">
-        <v>-19.9</v>
+        <v>-19.4</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -5901,7 +5901,7 @@
         <v>48290000000</v>
       </c>
       <c r="N105" t="n">
-        <v>85336902400</v>
+        <v>85801411200</v>
       </c>
     </row>
     <row r="106">
@@ -5916,16 +5916,16 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>41.2</v>
+        <v>40.8</v>
       </c>
       <c r="D106" t="n">
-        <v>4065</v>
+        <v>4105</v>
       </c>
       <c r="E106" t="n">
         <v>3096.322467304314</v>
       </c>
       <c r="F106" t="n">
-        <v>31.3</v>
+        <v>32.6</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
         <v>46440000000</v>
       </c>
       <c r="N106" t="n">
-        <v>112588695240</v>
+        <v>113696579080</v>
       </c>
     </row>
     <row r="107">
@@ -5968,16 +5968,16 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>37.1</v>
+        <v>37.4</v>
       </c>
       <c r="D107" t="n">
-        <v>865.7000122070312</v>
+        <v>866.9000244140625</v>
       </c>
       <c r="E107" t="n">
         <v>2157.626835069302</v>
       </c>
       <c r="F107" t="n">
-        <v>-59.9</v>
+        <v>-59.8</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -6005,7 +6005,7 @@
         <v>142023000000</v>
       </c>
       <c r="N107" t="n">
-        <v>382395058104</v>
+        <v>379325017291</v>
       </c>
     </row>
     <row r="108">
@@ -6020,16 +6020,16 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>85.59999999999999</v>
+        <v>85.7</v>
       </c>
       <c r="D108" t="n">
-        <v>2119</v>
+        <v>2117</v>
       </c>
       <c r="E108" t="n">
         <v>1190</v>
       </c>
       <c r="F108" t="n">
-        <v>78.09999999999999</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
         <v>39477000000</v>
       </c>
       <c r="N108" t="n">
-        <v>46091805682</v>
+        <v>46048302326</v>
       </c>
     </row>
     <row r="109">
@@ -6072,16 +6072,16 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>18.9</v>
+        <v>19.2</v>
       </c>
       <c r="D109" t="n">
-        <v>2661</v>
+        <v>2622</v>
       </c>
       <c r="E109" t="n">
         <v>1361.432492253209</v>
       </c>
       <c r="F109" t="n">
-        <v>95.5</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>11124687000</v>
       </c>
       <c r="N109" t="n">
-        <v>58848432777</v>
+        <v>57985941654</v>
       </c>
     </row>
     <row r="110">
@@ -6124,16 +6124,16 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>38.5</v>
+        <v>38.7</v>
       </c>
       <c r="D110" t="n">
-        <v>5771</v>
+        <v>5742</v>
       </c>
       <c r="E110" t="n">
         <v>1716.713876475349</v>
       </c>
       <c r="F110" t="n">
-        <v>236.2</v>
+        <v>234.5</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -6161,7 +6161,7 @@
         <v>564005000000</v>
       </c>
       <c r="N110" t="n">
-        <v>1466538500596</v>
+        <v>1459168960392</v>
       </c>
     </row>
     <row r="111">
@@ -6179,13 +6179,13 @@
         <v>12.3</v>
       </c>
       <c r="D111" t="n">
-        <v>3644</v>
+        <v>3631</v>
       </c>
       <c r="E111" t="n">
         <v>2561.705402476645</v>
       </c>
       <c r="F111" t="n">
-        <v>42.2</v>
+        <v>41.7</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -6213,7 +6213,7 @@
         <v>81977000000</v>
       </c>
       <c r="N111" t="n">
-        <v>666758010308</v>
+        <v>664379345617</v>
       </c>
     </row>
     <row r="112">
@@ -6228,16 +6228,16 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>79.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="D112" t="n">
-        <v>2593</v>
+        <v>2555</v>
       </c>
       <c r="E112" t="n">
         <v>1410</v>
       </c>
       <c r="F112" t="n">
-        <v>83.90000000000001</v>
+        <v>81.2</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
         <v>82575000000</v>
       </c>
       <c r="N112" t="n">
-        <v>103407393106</v>
+        <v>101891974310</v>
       </c>
     </row>
     <row r="113">
@@ -6280,16 +6280,16 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>71.8</v>
+        <v>71.2</v>
       </c>
       <c r="D113" t="n">
-        <v>3400</v>
+        <v>3430</v>
       </c>
       <c r="E113" t="n">
         <v>1789.870000553189</v>
       </c>
       <c r="F113" t="n">
-        <v>90</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
         <v>81126000000</v>
       </c>
       <c r="N113" t="n">
-        <v>112999210800</v>
+        <v>113996262660</v>
       </c>
     </row>
     <row r="114">
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>34.4</v>
+        <v>34.9</v>
       </c>
       <c r="D114" t="n">
-        <v>1739</v>
+        <v>1749</v>
       </c>
       <c r="E114" t="n">
         <v>1529.631984751819</v>
       </c>
       <c r="F114" t="n">
-        <v>13.7</v>
+        <v>14.3</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -6369,7 +6369,7 @@
         <v>4358822000</v>
       </c>
       <c r="N114" t="n">
-        <v>12678452523</v>
+        <v>12483559209</v>
       </c>
     </row>
     <row r="115">
@@ -6384,16 +6384,16 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>34.4</v>
+        <v>34.9</v>
       </c>
       <c r="D115" t="n">
-        <v>1739</v>
+        <v>1749</v>
       </c>
       <c r="E115" t="n">
         <v>1449.995380693296</v>
       </c>
       <c r="F115" t="n">
-        <v>19.9</v>
+        <v>20.6</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>4358822000</v>
       </c>
       <c r="N115" t="n">
-        <v>12678452523</v>
+        <v>12483559209</v>
       </c>
     </row>
     <row r="116">
@@ -6436,16 +6436,16 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>36.2</v>
+        <v>36</v>
       </c>
       <c r="D116" t="n">
-        <v>1616</v>
+        <v>1627</v>
       </c>
       <c r="E116" t="n">
         <v>2112.609181636727</v>
       </c>
       <c r="F116" t="n">
-        <v>-23.5</v>
+        <v>-23</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -6473,7 +6473,7 @@
         <v>51035000000</v>
       </c>
       <c r="N116" t="n">
-        <v>140919530880</v>
+        <v>141878760360</v>
       </c>
     </row>
     <row r="117">
@@ -6488,16 +6488,16 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="D117" t="n">
-        <v>7870</v>
+        <v>7830</v>
       </c>
       <c r="E117" t="n">
         <v>3565.648720929983</v>
       </c>
       <c r="F117" t="n">
-        <v>120.7</v>
+        <v>119.6</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>89436000000</v>
       </c>
       <c r="N117" t="n">
-        <v>437346595330</v>
+        <v>435676632930</v>
       </c>
     </row>
     <row r="118">
@@ -6540,16 +6540,16 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>41.2</v>
+        <v>40.8</v>
       </c>
       <c r="D118" t="n">
-        <v>2334.5</v>
+        <v>2357</v>
       </c>
       <c r="E118" t="n">
         <v>4544.200649553184</v>
       </c>
       <c r="F118" t="n">
-        <v>-48.6</v>
+        <v>-48.1</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
         <v>234016000000</v>
       </c>
       <c r="N118" t="n">
-        <v>568490588242</v>
+        <v>573969722205</v>
       </c>
     </row>
     <row r="119">
@@ -6592,16 +6592,16 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>41.2</v>
+        <v>40.8</v>
       </c>
       <c r="D119" t="n">
-        <v>2334.5</v>
+        <v>2357</v>
       </c>
       <c r="E119" t="n">
         <v>8262.359904024779</v>
       </c>
       <c r="F119" t="n">
-        <v>-71.7</v>
+        <v>-71.5</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -6629,7 +6629,7 @@
         <v>234016000000</v>
       </c>
       <c r="N119" t="n">
-        <v>568490588242</v>
+        <v>573969722205</v>
       </c>
     </row>
     <row r="120">
@@ -6644,16 +6644,16 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>74.40000000000001</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="D120" t="n">
-        <v>2405</v>
+        <v>2421</v>
       </c>
       <c r="E120" t="n">
         <v>1303.446424801713</v>
       </c>
       <c r="F120" t="n">
-        <v>84.5</v>
+        <v>85.7</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>91090000000</v>
       </c>
       <c r="N120" t="n">
-        <v>122385120520</v>
+        <v>123199325064</v>
       </c>
     </row>
     <row r="121">
@@ -6696,16 +6696,16 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="D121" t="n">
-        <v>1328</v>
+        <v>1316</v>
       </c>
       <c r="E121" t="n">
         <v>1267.324164058639</v>
       </c>
       <c r="F121" t="n">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -6733,7 +6733,7 @@
         <v>3080243000</v>
       </c>
       <c r="N121" t="n">
-        <v>13429406640</v>
+        <v>13308056580</v>
       </c>
     </row>
     <row r="122">
@@ -6748,16 +6748,16 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>55.8</v>
+        <v>54.9</v>
       </c>
       <c r="D122" t="n">
-        <v>1024</v>
+        <v>1042</v>
       </c>
       <c r="E122" t="n">
         <v>930</v>
       </c>
       <c r="F122" t="n">
-        <v>10.1</v>
+        <v>12</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -6785,7 +6785,7 @@
         <v>20765000000</v>
       </c>
       <c r="N122" t="n">
-        <v>37182072832</v>
+        <v>37835663956</v>
       </c>
     </row>
     <row r="123">
@@ -6800,16 +6800,16 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>69.5</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="D123" t="n">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="E123" t="n">
         <v>1188.162962482466</v>
       </c>
       <c r="F123" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         <v>195510000000</v>
       </c>
       <c r="N123" t="n">
-        <v>281409229218</v>
+        <v>280725090087</v>
       </c>
     </row>
     <row r="124">
@@ -6855,13 +6855,13 @@
         <v>6.9</v>
       </c>
       <c r="D124" t="n">
-        <v>6340</v>
+        <v>6317</v>
       </c>
       <c r="E124" t="n">
         <v>6116.356643776557</v>
       </c>
       <c r="F124" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -6889,7 +6889,7 @@
         <v>201313000000</v>
       </c>
       <c r="N124" t="n">
-        <v>2930542504860</v>
+        <v>2919911199243</v>
       </c>
     </row>
   </sheetData>

--- a/docs/アクティビスト銘柄_資産判定.xlsx
+++ b/docs/アクティビスト銘柄_資産判定.xlsx
@@ -517,10 +517,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>40.2</v>
+        <v>40.3</v>
       </c>
       <c r="D2" t="n">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>35403000000</v>
       </c>
       <c r="N2" t="n">
-        <v>88098584728</v>
+        <v>87822413616</v>
       </c>
     </row>
     <row r="3">
@@ -565,10 +565,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>40.2</v>
+        <v>40.3</v>
       </c>
       <c r="D3" t="n">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
@@ -598,7 +598,7 @@
         <v>35403000000</v>
       </c>
       <c r="N3" t="n">
-        <v>88098584728</v>
+        <v>87822413616</v>
       </c>
     </row>
     <row r="4">
@@ -613,16 +613,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>43.1</v>
+        <v>42.1</v>
       </c>
       <c r="D4" t="n">
-        <v>3436</v>
+        <v>3516</v>
       </c>
       <c r="E4" t="n">
         <v>1598.889989734285</v>
       </c>
       <c r="F4" t="n">
-        <v>114.9</v>
+        <v>119.9</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -650,7 +650,7 @@
         <v>178465000000</v>
       </c>
       <c r="N4" t="n">
-        <v>413785014192</v>
+        <v>423419123952</v>
       </c>
     </row>
     <row r="5">
@@ -665,16 +665,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="D5" t="n">
-        <v>974</v>
+        <v>986</v>
       </c>
       <c r="E5" t="n">
         <v>653.0713101160862</v>
       </c>
       <c r="F5" t="n">
-        <v>49.1</v>
+        <v>51</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
         <v>1810139000</v>
       </c>
       <c r="N5" t="n">
-        <v>23332938486</v>
+        <v>23596231234</v>
       </c>
     </row>
     <row r="6">
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>92.7</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>2142</v>
+        <v>2112</v>
       </c>
       <c r="E6" t="n">
         <v>2122.579027791042</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9</v>
+        <v>-0.5</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -754,7 +754,7 @@
         <v>74819000000</v>
       </c>
       <c r="N6" t="n">
-        <v>80682133518</v>
+        <v>79552131648</v>
       </c>
     </row>
     <row r="7">
@@ -772,13 +772,13 @@
         <v>45.6</v>
       </c>
       <c r="D7" t="n">
-        <v>2241</v>
+        <v>2220.5</v>
       </c>
       <c r="E7" t="n">
         <v>2032.365850102071</v>
       </c>
       <c r="F7" t="n">
-        <v>10.3</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         <v>323730000000</v>
       </c>
       <c r="N7" t="n">
-        <v>710581344660</v>
+        <v>709264180594</v>
       </c>
     </row>
     <row r="8">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="D8" t="n">
-        <v>2255</v>
+        <v>2248</v>
       </c>
       <c r="E8" t="n">
         <v>2040</v>
       </c>
       <c r="F8" t="n">
-        <v>10.5</v>
+        <v>10.2</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>34682000000</v>
       </c>
       <c r="N8" t="n">
-        <v>101784435610</v>
+        <v>101468475056</v>
       </c>
     </row>
     <row r="9">
@@ -873,16 +873,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>79.90000000000001</v>
+        <v>79.8</v>
       </c>
       <c r="D9" t="n">
-        <v>7030</v>
+        <v>7040</v>
       </c>
       <c r="E9" t="n">
         <v>4549.503641591014</v>
       </c>
       <c r="F9" t="n">
-        <v>54.5</v>
+        <v>54.7</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
         <v>96906000000</v>
       </c>
       <c r="N9" t="n">
-        <v>121227914070</v>
+        <v>121400357760</v>
       </c>
     </row>
     <row r="10">
@@ -925,16 +925,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>67.40000000000001</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>1926</v>
+        <v>1954</v>
       </c>
       <c r="E10" t="n">
         <v>1257.709264012363</v>
       </c>
       <c r="F10" t="n">
-        <v>53.1</v>
+        <v>55.4</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>261172000000</v>
       </c>
       <c r="N10" t="n">
-        <v>387643889844</v>
+        <v>393279418876</v>
       </c>
     </row>
     <row r="11">
@@ -977,16 +977,16 @@
         </is>
       </c>
       <c r="C11"